--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/endosos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D63603C-83E1-E041-811C-AA0738027CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8A83E-B765-D646-A75F-2118412F36E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,9 +524,6 @@
     <t>Matias Walker Prieto</t>
   </si>
   <si>
-    <t>diputado</t>
-  </si>
-  <si>
     <t>Carmen Gloria Aravena Acuña</t>
   </si>
   <si>
@@ -653,9 +650,6 @@
     <t>Jacqueline Van Rysselberghe Herrera</t>
   </si>
   <si>
-    <t>senador</t>
-  </si>
-  <si>
     <t>Renovación Nacional</t>
   </si>
   <si>
@@ -710,9 +704,6 @@
     <t>Partido Progresista</t>
   </si>
   <si>
-    <t>ministro</t>
-  </si>
-  <si>
     <t>Victor Pérez Varela</t>
   </si>
   <si>
@@ -779,12 +770,6 @@
     <t>Sebastián Piñera Echeñique</t>
   </si>
   <si>
-    <t>presidente</t>
-  </si>
-  <si>
-    <t>expresidente</t>
-  </si>
-  <si>
     <t>Michelle Bachelet Jeria</t>
   </si>
   <si>
@@ -833,9 +818,6 @@
     <t>Instagram</t>
   </si>
   <si>
-    <t>alcalde</t>
-  </si>
-  <si>
     <t>Germán Codina Powers</t>
   </si>
   <si>
@@ -938,9 +920,6 @@
     <t>Harry Jürgensen Caesar</t>
   </si>
   <si>
-    <t>intendente</t>
-  </si>
-  <si>
     <t>Ignacio Pozo Piña</t>
   </si>
   <si>
@@ -993,6 +972,27 @@
   </si>
   <si>
     <t>orden</t>
+  </si>
+  <si>
+    <t>Presidente</t>
+  </si>
+  <si>
+    <t>Ex Presidente</t>
+  </si>
+  <si>
+    <t>Ministro</t>
+  </si>
+  <si>
+    <t>Intendente</t>
+  </si>
+  <si>
+    <t>Alcalde</t>
+  </si>
+  <si>
+    <t>Senador</t>
+  </si>
+  <si>
+    <t>Diputado</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection sqref="A1:L264"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110:E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1397,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -1444,23 +1444,23 @@
         <v>44062</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G2" s="10">
         <v>18233</v>
       </c>
       <c r="H2" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G2))</f>
+        <f t="shared" ref="H2:H31" ca="1" si="0">(YEAR(TODAY())-YEAR(G2))</f>
         <v>71</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2"/>
@@ -1479,23 +1479,23 @@
         <v>44062</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G3" s="10">
         <v>15516</v>
       </c>
       <c r="H3" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
@@ -1514,23 +1514,23 @@
         <v>44062</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G4" s="10">
         <v>13941</v>
       </c>
       <c r="H4" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="2"/>
@@ -1549,23 +1549,23 @@
         <v>44062</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G5" s="10">
         <v>18900</v>
       </c>
       <c r="H5" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
@@ -1584,29 +1584,29 @@
         <v>44061</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G6" s="10">
         <v>26645</v>
       </c>
       <c r="H6" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K6" s="10">
         <v>44058</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1623,29 +1623,29 @@
         <v>44061</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G7" s="10">
         <v>20120</v>
       </c>
       <c r="H7" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K7" s="10">
         <v>44058</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1662,29 +1662,29 @@
         <v>44061</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G8" s="10">
         <v>28232</v>
       </c>
       <c r="H8" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K8" s="10">
         <v>44058</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1701,29 +1701,29 @@
         <v>44061</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G9" s="10">
         <v>27653</v>
       </c>
       <c r="H9" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K9" s="10">
         <v>44058</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1740,29 +1740,29 @@
         <v>44061</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G10" s="10">
         <v>22460</v>
       </c>
       <c r="H10" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K10" s="10">
         <v>44058</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1779,29 +1779,29 @@
         <v>44061</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G11" s="10">
         <v>27681</v>
       </c>
       <c r="H11" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K11" s="10">
         <v>44058</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1818,29 +1818,29 @@
         <v>44061</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G12" s="10">
         <v>17815</v>
       </c>
       <c r="H12" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K12" s="10">
         <v>44058</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1857,29 +1857,29 @@
         <v>44061</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G13" s="10">
         <v>27474</v>
       </c>
       <c r="H13" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K13" s="10">
         <v>44058</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1896,29 +1896,29 @@
         <v>44061</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G14" s="10">
         <v>20671</v>
       </c>
       <c r="H14" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J14" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K14" s="10">
         <v>44058</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1935,29 +1935,29 @@
         <v>44061</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G15" s="10">
         <v>17779</v>
       </c>
       <c r="H15" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J15" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K15" s="10">
         <v>44058</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1974,29 +1974,29 @@
         <v>44061</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G16" s="10">
         <v>24724</v>
       </c>
       <c r="H16" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J16" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K16" s="10">
         <v>44058</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2013,29 +2013,29 @@
         <v>44061</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G17" s="10">
         <v>25134</v>
       </c>
       <c r="H17" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K17" s="10">
         <v>44058</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2052,7 +2052,7 @@
         <v>44061</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>38</v>
@@ -2061,20 +2061,20 @@
         <v>25126</v>
       </c>
       <c r="H18" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K18" s="10">
         <v>44058</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2091,29 +2091,29 @@
         <v>44061</v>
       </c>
       <c r="E19" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" t="s">
         <v>224</v>
-      </c>
-      <c r="F19" t="s">
-        <v>227</v>
       </c>
       <c r="G19" s="10">
         <v>24970</v>
       </c>
       <c r="H19" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K19" s="10">
         <v>44058</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2130,29 +2130,29 @@
         <v>44061</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G20" s="10">
         <v>20492</v>
       </c>
       <c r="H20" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J20" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K20" s="10">
         <v>44058</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2169,29 +2169,29 @@
         <v>44061</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G21" s="10">
         <v>21368</v>
       </c>
       <c r="H21" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K21" s="10">
         <v>44058</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2208,29 +2208,29 @@
         <v>44061</v>
       </c>
       <c r="E22" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G22" s="10">
         <v>27295</v>
       </c>
       <c r="H22" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K22" s="10">
         <v>44058</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2247,29 +2247,29 @@
         <v>44061</v>
       </c>
       <c r="E23" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G23" s="10">
         <v>27105</v>
       </c>
       <c r="H23" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G23))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K23" s="10">
         <v>44058</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2286,7 +2286,7 @@
         <v>44061</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>8</v>
@@ -2295,20 +2295,20 @@
         <v>29554</v>
       </c>
       <c r="H24" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G24))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K24" s="10">
         <v>44058</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2325,29 +2325,29 @@
         <v>44061</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G25" s="10">
         <v>20015</v>
       </c>
       <c r="H25" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G25))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K25" s="10">
         <v>44058</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2364,29 +2364,29 @@
         <v>44061</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G26" s="10">
         <v>26556</v>
       </c>
       <c r="H26" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G26))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K26" s="10">
         <v>44058</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2403,29 +2403,29 @@
         <v>44061</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G27" s="10">
         <v>32557</v>
       </c>
       <c r="H27" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G27))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K27" s="10">
         <v>44058</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2442,29 +2442,29 @@
         <v>44061</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G28" s="10">
         <v>22770</v>
       </c>
       <c r="H28" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G28))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K28" s="10">
         <v>44058</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2481,29 +2481,29 @@
         <v>44061</v>
       </c>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G29" s="10">
         <v>17431</v>
       </c>
       <c r="H29" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G29))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>73</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J29" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K29" s="10">
         <v>44058</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2518,23 +2518,23 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G30" s="10">
         <v>30994</v>
       </c>
       <c r="H30" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G30))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30"/>
@@ -2551,23 +2551,23 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G31" s="10">
         <v>25454</v>
       </c>
       <c r="H31" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G31))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J31" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31"/>
@@ -2584,18 +2584,18 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32"/>
@@ -2612,18 +2612,18 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33"/>
@@ -2640,10 +2640,10 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G34" s="10">
         <v>19642</v>
@@ -2653,10 +2653,10 @@
         <v>67</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34"/>
@@ -2673,18 +2673,18 @@
       </c>
       <c r="D35" s="10"/>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
       <c r="I35" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35"/>
@@ -2701,10 +2701,10 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G36" s="10">
         <v>29935</v>
@@ -2714,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36"/>
@@ -2734,10 +2734,10 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G37" s="10">
         <v>26622</v>
@@ -2747,10 +2747,10 @@
         <v>48</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J37" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37"/>
@@ -2767,10 +2767,10 @@
       </c>
       <c r="D38" s="10"/>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G38" s="10">
         <v>24689</v>
@@ -2780,10 +2780,10 @@
         <v>53</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38"/>
@@ -2800,18 +2800,18 @@
       </c>
       <c r="D39" s="10"/>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J39" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39"/>
@@ -2828,23 +2828,23 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G40" s="10">
         <v>18048</v>
       </c>
       <c r="H40" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G40))</f>
+        <f t="shared" ref="H40:H49" ca="1" si="1">(YEAR(TODAY())-YEAR(G40))</f>
         <v>71</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J40" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40"/>
@@ -2861,23 +2861,23 @@
       </c>
       <c r="D41" s="10"/>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G41" s="10">
         <v>25492</v>
       </c>
       <c r="H41" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G41))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J41" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41"/>
@@ -2894,23 +2894,23 @@
       </c>
       <c r="D42" s="10"/>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F42" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G42" s="10">
         <v>27655</v>
       </c>
       <c r="H42" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G42))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J42" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42"/>
@@ -2927,23 +2927,23 @@
       </c>
       <c r="D43" s="10"/>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G43" s="10">
         <v>22881</v>
       </c>
       <c r="H43" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G43))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J43" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43"/>
@@ -2960,23 +2960,23 @@
       </c>
       <c r="D44" s="10"/>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F44" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G44" s="10">
         <v>29105</v>
       </c>
       <c r="H44" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G44))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44"/>
@@ -2993,23 +2993,23 @@
       </c>
       <c r="D45" s="10"/>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F45" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G45" s="10">
         <v>20806</v>
       </c>
       <c r="H45" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G45))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45"/>
@@ -3028,29 +3028,29 @@
         <v>44062</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G46" s="10">
         <v>26763</v>
       </c>
       <c r="H46" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G46))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J46" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K46" s="10">
         <v>43892</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3067,29 +3067,29 @@
         <v>44062</v>
       </c>
       <c r="E47" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F47" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G47" s="10">
         <v>26090</v>
       </c>
       <c r="H47" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G47))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J47" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K47" s="10">
         <v>43892</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3106,27 +3106,27 @@
         <v>44061</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F48" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G48" s="10">
         <v>31131</v>
       </c>
       <c r="H48" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G48))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J48" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3143,29 +3143,29 @@
         <v>44062</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F49" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G49" s="10">
         <v>25265</v>
       </c>
       <c r="H49" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G49))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K49" s="10">
         <v>43892</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3180,18 +3180,18 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F50" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
       <c r="I50" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J50" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50"/>
@@ -3208,10 +3208,10 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F51" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G51" s="10">
         <v>20899</v>
@@ -3221,10 +3221,10 @@
         <v>63</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J51" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51"/>
@@ -3243,24 +3243,24 @@
         <v>44062</v>
       </c>
       <c r="E52" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F52" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
       <c r="I52" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J52" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K52" s="10">
         <v>44062</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3277,10 +3277,10 @@
         <v>44062</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F53" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G53" s="10">
         <v>28422</v>
@@ -3290,16 +3290,16 @@
         <v>43</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J53" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K53" s="10">
         <v>44062</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3316,10 +3316,10 @@
         <v>44061</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F54" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G54" s="10">
         <v>28694</v>
@@ -3329,14 +3329,14 @@
         <v>42</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J54" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3353,10 +3353,10 @@
         <v>44062</v>
       </c>
       <c r="E55" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F55" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G55" s="10">
         <v>34561</v>
@@ -3366,16 +3366,16 @@
         <v>26</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J55" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K55" s="10">
         <v>44055</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3390,18 +3390,18 @@
       </c>
       <c r="D56" s="10"/>
       <c r="E56" t="s">
+        <v>316</v>
+      </c>
+      <c r="F56" t="s">
         <v>265</v>
-      </c>
-      <c r="F56" t="s">
-        <v>271</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="11"/>
       <c r="I56" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J56" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="2"/>
@@ -3420,22 +3420,22 @@
         <v>44069</v>
       </c>
       <c r="E57" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F57" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="11"/>
       <c r="I57" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J57" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -3452,22 +3452,22 @@
         <v>44069</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F58" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="11"/>
       <c r="I58" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J58" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -3484,10 +3484,10 @@
         <v>44062</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F59" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G59" s="10">
         <v>27116</v>
@@ -3497,16 +3497,16 @@
         <v>46</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J59" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K59" s="10">
         <v>43892</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3523,10 +3523,10 @@
         <v>44062</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F60" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G60" s="10">
         <v>27429</v>
@@ -3536,16 +3536,16 @@
         <v>45</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J60" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K60" s="10">
         <v>43878</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -3560,10 +3560,10 @@
       </c>
       <c r="D61" s="10"/>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F61" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G61" s="10">
         <v>22196</v>
@@ -3573,10 +3573,10 @@
         <v>60</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J61" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61"/>
@@ -3593,18 +3593,18 @@
       </c>
       <c r="D62" s="10"/>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F62" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="11"/>
       <c r="I62" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J62" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62"/>
@@ -3621,23 +3621,23 @@
       </c>
       <c r="D63" s="10"/>
       <c r="E63" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F63" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G63" s="10">
         <v>19005</v>
       </c>
       <c r="H63" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G63))</f>
+        <f t="shared" ref="H63:H126" ca="1" si="2">(YEAR(TODAY())-YEAR(G63))</f>
         <v>68</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J63" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63"/>
@@ -3654,23 +3654,23 @@
       </c>
       <c r="D64" s="10"/>
       <c r="E64" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F64" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G64" s="10">
         <v>27845</v>
       </c>
       <c r="H64" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G64))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J64" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64"/>
@@ -3689,29 +3689,29 @@
         <v>44062</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F65" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G65" s="10">
         <v>14442</v>
       </c>
       <c r="H65" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G65))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J65" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K65" s="10">
         <v>43892</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -3728,29 +3728,29 @@
         <v>44062</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G66" s="10">
         <v>19655</v>
       </c>
       <c r="H66" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G66))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J66" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K66" s="10">
         <v>44048</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -3767,29 +3767,29 @@
         <v>44061</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G67" s="13">
         <v>28285</v>
       </c>
       <c r="H67" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G67))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J67" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K67" s="10">
         <v>44036</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -3806,29 +3806,29 @@
         <v>44061</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G68" s="13">
         <v>24478</v>
       </c>
       <c r="H68" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G68))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="I68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J68" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K68" s="10">
         <v>43837</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -3845,29 +3845,29 @@
         <v>44061</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G69" s="13">
         <v>21855</v>
       </c>
       <c r="H69" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G69))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="I69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J69" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K69" s="10">
         <v>43837</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -3884,29 +3884,29 @@
         <v>44061</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G70" s="13">
         <v>21845</v>
       </c>
       <c r="H70" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G70))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="I70" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J70" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K70" s="10">
         <v>43837</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -3921,23 +3921,23 @@
       </c>
       <c r="D71" s="10"/>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G71" s="13">
         <v>22224</v>
       </c>
       <c r="H71" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G71))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J71" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71"/>
@@ -3956,27 +3956,27 @@
         <v>44061</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G72" s="13">
         <v>19423</v>
       </c>
       <c r="H72" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G72))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J72" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3991,23 +3991,23 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G73" s="13">
         <v>27196</v>
       </c>
       <c r="H73" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G73))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J73" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73"/>
@@ -4026,27 +4026,27 @@
         <v>44061</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G74" s="13">
         <v>21509</v>
       </c>
       <c r="H74" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G74))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J74" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -4063,27 +4063,27 @@
         <v>44061</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G75" s="13">
         <v>16153</v>
       </c>
       <c r="H75" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G75))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="I75" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J75" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -4100,27 +4100,27 @@
         <v>44061</v>
       </c>
       <c r="E76" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G76" s="13">
         <v>25553</v>
       </c>
       <c r="H76" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G76))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="I76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J76" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -4137,27 +4137,27 @@
         <v>44061</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G77" s="13">
         <v>25024</v>
       </c>
       <c r="H77" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G77))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
       <c r="I77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J77" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4174,29 +4174,29 @@
         <v>44062</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G78" s="13">
         <v>26653</v>
       </c>
       <c r="H78" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G78))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J78" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K78" s="10">
         <v>44062</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -4213,29 +4213,29 @@
         <v>44062</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G79" s="13">
         <v>19105</v>
       </c>
       <c r="H79" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G79))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J79" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K79" s="10">
         <v>44062</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -4252,27 +4252,27 @@
         <v>44061</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G80" s="13">
         <v>22698</v>
       </c>
       <c r="H80" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G80))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J80" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -4289,29 +4289,29 @@
         <v>44062</v>
       </c>
       <c r="E81" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G81" s="13">
         <v>26732</v>
       </c>
       <c r="H81" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G81))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K81" s="10">
         <v>44062</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -4328,29 +4328,29 @@
         <v>44062</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G82" s="13">
         <v>24767</v>
       </c>
       <c r="H82" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G82))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="I82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J82" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K82" s="10">
         <v>44062</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -4367,29 +4367,29 @@
         <v>44062</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G83" s="13">
         <v>13455</v>
       </c>
       <c r="H83" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G83))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>84</v>
       </c>
       <c r="I83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J83" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K83" s="10">
         <v>44062</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -4406,29 +4406,29 @@
         <v>44062</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G84" s="13">
         <v>22305</v>
       </c>
       <c r="H84" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G84))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J84" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K84" s="10">
         <v>44062</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -4445,29 +4445,29 @@
         <v>44062</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G85" s="13">
         <v>26500</v>
       </c>
       <c r="H85" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G85))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J85" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K85" s="10">
         <v>44062</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -4484,29 +4484,29 @@
         <v>44062</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G86" s="13">
         <v>17801</v>
       </c>
       <c r="H86" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G86))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J86" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K86" s="10">
         <v>44062</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -4523,29 +4523,29 @@
         <v>44062</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G87" s="13">
         <v>25491</v>
       </c>
       <c r="H87" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G87))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="I87" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J87" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K87" s="10">
         <v>44062</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -4562,29 +4562,29 @@
         <v>44062</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G88" s="13">
         <v>15859</v>
       </c>
       <c r="H88" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G88))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="I88" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J88" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K88" s="10">
         <v>44062</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -4601,29 +4601,29 @@
         <v>44062</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G89" s="13">
         <v>16455</v>
       </c>
       <c r="H89" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G89))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="I89" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J89" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K89" s="10">
         <v>44062</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -4640,29 +4640,29 @@
         <v>44062</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G90" s="13">
         <v>24173</v>
       </c>
       <c r="H90" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G90))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J90" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K90" s="10">
         <v>44062</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4679,29 +4679,29 @@
         <v>44062</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G91" s="13">
         <v>22288</v>
       </c>
       <c r="H91" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G91))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J91" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K91" s="10">
         <v>44062</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4718,27 +4718,27 @@
         <v>44061</v>
       </c>
       <c r="E92" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G92" s="13">
         <v>16933</v>
       </c>
       <c r="H92" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G92))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J92" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4755,27 +4755,27 @@
         <v>44062</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G93" s="13">
         <v>16010</v>
       </c>
       <c r="H93" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G93))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J93" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4792,7 +4792,7 @@
         <v>44062</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>112</v>
@@ -4801,18 +4801,18 @@
         <v>29680</v>
       </c>
       <c r="H94" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G94))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
       <c r="I94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J94" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -4829,29 +4829,29 @@
         <v>44061</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G95" s="13">
         <v>26073</v>
       </c>
       <c r="H95" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G95))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="I95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J95" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K95" s="10">
         <v>43837</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -4868,29 +4868,29 @@
         <v>44061</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G96" s="13">
         <v>24414</v>
       </c>
       <c r="H96" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G96))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="I96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J96" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K96" s="10">
         <v>43837</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -4907,29 +4907,29 @@
         <v>44061</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G97" s="13">
         <v>20231</v>
       </c>
       <c r="H97" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G97))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I97" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J97" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K97" s="10">
         <v>43837</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -4946,29 +4946,29 @@
         <v>44061</v>
       </c>
       <c r="E98" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G98" s="13">
         <v>20252</v>
       </c>
       <c r="H98" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G98))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J98" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K98" s="10">
         <v>43837</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -4985,29 +4985,29 @@
         <v>44062</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G99" s="13">
         <v>22882</v>
       </c>
       <c r="H99" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G99))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J99" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K99" s="10">
         <v>43904</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -5024,27 +5024,27 @@
         <v>44061</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G100" s="13">
         <v>28573</v>
       </c>
       <c r="H100" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G100))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>42</v>
       </c>
       <c r="I100" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J100" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K100" s="10"/>
       <c r="L100" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -5061,29 +5061,29 @@
         <v>44062</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G101" s="13">
         <v>22094</v>
       </c>
       <c r="H101" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G101))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I101" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J101" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K101" s="10">
         <v>43837</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -5100,29 +5100,29 @@
         <v>44062</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G102" s="13">
         <v>23444</v>
       </c>
       <c r="H102" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G102))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="I102" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J102" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K102" s="10">
         <v>43837</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -5139,29 +5139,29 @@
         <v>44062</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G103" s="13">
         <v>19287</v>
       </c>
       <c r="H103" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G103))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I103" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J103" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K103" s="10">
         <v>43837</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -5178,29 +5178,29 @@
         <v>44062</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G104" s="13">
         <v>20651</v>
       </c>
       <c r="H104" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G104))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="I104" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J104" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K104" s="10">
         <v>43837</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5217,29 +5217,29 @@
         <v>44062</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G105" s="13">
         <v>20797</v>
       </c>
       <c r="H105" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G105))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J105" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K105" s="10">
         <v>43837</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -5256,29 +5256,29 @@
         <v>44062</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G106" s="13">
         <v>27361</v>
       </c>
       <c r="H106" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G106))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J106" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K106" s="10">
         <v>43837</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -5295,29 +5295,29 @@
         <v>44062</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G107" s="13">
         <v>19103</v>
       </c>
       <c r="H107" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G107))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J107" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K107" s="10">
         <v>43837</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -5334,27 +5334,27 @@
         <v>44061</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G108" s="13">
         <v>23776</v>
       </c>
       <c r="H108" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G108))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J108" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K108" s="10"/>
       <c r="L108" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -5369,23 +5369,23 @@
       </c>
       <c r="D109" s="10"/>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="F109" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G109" s="10">
         <v>21953</v>
       </c>
       <c r="H109" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G109))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J109" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K109" s="10"/>
       <c r="L109"/>
@@ -5404,7 +5404,7 @@
         <v>44061</v>
       </c>
       <c r="E110" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>60</v>
@@ -5413,18 +5413,18 @@
         <v>32533</v>
       </c>
       <c r="H110" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G110))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
       <c r="I110" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J110" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K110" s="10"/>
       <c r="L110" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -5441,7 +5441,7 @@
         <v>44061</v>
       </c>
       <c r="E111" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>22</v>
@@ -5450,18 +5450,18 @@
         <v>31454</v>
       </c>
       <c r="H111" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G111))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
       <c r="I111" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J111" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K111" s="10"/>
       <c r="L111" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -5478,7 +5478,7 @@
         <v>44061</v>
       </c>
       <c r="E112" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>151</v>
@@ -5487,18 +5487,18 @@
         <v>31783</v>
       </c>
       <c r="H112" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G112))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="I112" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J112" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K112" s="10"/>
       <c r="L112" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -5515,7 +5515,7 @@
         <v>44061</v>
       </c>
       <c r="E113" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>65</v>
@@ -5524,20 +5524,20 @@
         <v>26709</v>
       </c>
       <c r="H113" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G113))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J113" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K113" s="10">
         <v>44036</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -5554,7 +5554,7 @@
         <v>44061</v>
       </c>
       <c r="E114" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>149</v>
@@ -5563,20 +5563,20 @@
         <v>26900</v>
       </c>
       <c r="H114" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G114))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J114" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K114" s="10">
         <v>44036</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -5593,7 +5593,7 @@
         <v>44061</v>
       </c>
       <c r="E115" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>12</v>
@@ -5602,20 +5602,20 @@
         <v>25885</v>
       </c>
       <c r="H115" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G115))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="I115" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J115" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K115" s="10">
         <v>44036</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -5632,7 +5632,7 @@
         <v>44061</v>
       </c>
       <c r="E116" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>36</v>
@@ -5641,20 +5641,20 @@
         <v>25750</v>
       </c>
       <c r="H116" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G116))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="I116" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J116" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K116" s="10">
         <v>44036</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>44061</v>
       </c>
       <c r="E117" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>82</v>
@@ -5680,20 +5680,20 @@
         <v>23332</v>
       </c>
       <c r="H117" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G117))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="I117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J117" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K117" s="10">
         <v>44036</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -5710,7 +5710,7 @@
         <v>44061</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>131</v>
@@ -5719,20 +5719,20 @@
         <v>24014</v>
       </c>
       <c r="H118" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G118))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J118" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K118" s="10">
         <v>44036</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -5749,7 +5749,7 @@
         <v>44061</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>85</v>
@@ -5758,18 +5758,18 @@
         <v>23226</v>
       </c>
       <c r="H119" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G119))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="I119" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J119" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K119" s="10"/>
       <c r="L119" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -5786,7 +5786,7 @@
         <v>44062</v>
       </c>
       <c r="E120" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>121</v>
@@ -5795,20 +5795,20 @@
         <v>24059</v>
       </c>
       <c r="H120" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G120))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I120" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J120" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K120" s="10">
         <v>44062</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -5825,7 +5825,7 @@
         <v>44062</v>
       </c>
       <c r="E121" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>135</v>
@@ -5834,20 +5834,20 @@
         <v>23594</v>
       </c>
       <c r="H121" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G121))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="I121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J121" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K121" s="10">
         <v>44062</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -5864,7 +5864,7 @@
         <v>44062</v>
       </c>
       <c r="E122" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>136</v>
@@ -5873,20 +5873,20 @@
         <v>23006</v>
       </c>
       <c r="H122" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G122))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I122" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J122" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K122" s="10">
         <v>44062</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>44061</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>143</v>
@@ -5912,18 +5912,18 @@
         <v>30347</v>
       </c>
       <c r="H123" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G123))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
       <c r="I123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J123" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K123" s="10"/>
       <c r="L123" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="D124" s="10"/>
       <c r="E124" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>157</v>
@@ -5947,14 +5947,14 @@
         <v>20371</v>
       </c>
       <c r="H124" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G124))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J124" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K124" s="10"/>
       <c r="L124"/>
@@ -5973,7 +5973,7 @@
         <v>44061</v>
       </c>
       <c r="E125" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>134</v>
@@ -5982,18 +5982,18 @@
         <v>32261</v>
       </c>
       <c r="H125" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G125))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="I125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J125" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K125" s="10"/>
       <c r="L125" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -6010,7 +6010,7 @@
         <v>44061</v>
       </c>
       <c r="E126" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>25</v>
@@ -6019,18 +6019,18 @@
         <v>31868</v>
       </c>
       <c r="H126" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G126))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="I126" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J126" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
         <v>44061</v>
       </c>
       <c r="E127" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>17</v>
@@ -6056,18 +6056,18 @@
         <v>25691</v>
       </c>
       <c r="H127" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G127))</f>
+        <f t="shared" ref="H127:H190" ca="1" si="3">(YEAR(TODAY())-YEAR(G127))</f>
         <v>50</v>
       </c>
       <c r="I127" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J127" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K127" s="10"/>
       <c r="L127" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -6084,7 +6084,7 @@
         <v>44061</v>
       </c>
       <c r="E128" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>54</v>
@@ -6093,18 +6093,18 @@
         <v>22559</v>
       </c>
       <c r="H128" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G128))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="I128" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J128" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K128" s="10"/>
       <c r="L128" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -6121,7 +6121,7 @@
         <v>44061</v>
       </c>
       <c r="E129" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>57</v>
@@ -6130,18 +6130,18 @@
         <v>16607</v>
       </c>
       <c r="H129" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G129))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="I129" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J129" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K129" s="10"/>
       <c r="L129" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -6158,7 +6158,7 @@
         <v>44061</v>
       </c>
       <c r="E130" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>68</v>
@@ -6167,18 +6167,18 @@
         <v>18196</v>
       </c>
       <c r="H130" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G130))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I130" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J130" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -6195,7 +6195,7 @@
         <v>44061</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>90</v>
@@ -6204,18 +6204,18 @@
         <v>25940</v>
       </c>
       <c r="H131" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G131))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I131" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J131" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K131" s="10"/>
       <c r="L131" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -6232,7 +6232,7 @@
         <v>44062</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>126</v>
@@ -6241,20 +6241,20 @@
         <v>16008</v>
       </c>
       <c r="H132" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G132))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
       <c r="I132" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J132" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K132" s="10">
         <v>44062</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>44061</v>
       </c>
       <c r="E133" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>14</v>
@@ -6280,18 +6280,18 @@
         <v>19657</v>
       </c>
       <c r="H133" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G133))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="I133" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J133" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K133" s="10"/>
       <c r="L133" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -6308,7 +6308,7 @@
         <v>44062</v>
       </c>
       <c r="E134" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>24</v>
@@ -6317,20 +6317,20 @@
         <v>31247</v>
       </c>
       <c r="H134" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G134))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="I134" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J134" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K134" s="10">
         <v>44062</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -6347,7 +6347,7 @@
         <v>44062</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>45</v>
@@ -6356,20 +6356,20 @@
         <v>20255</v>
       </c>
       <c r="H135" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G135))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I135" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J135" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K135" s="10">
         <v>44062</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -6386,7 +6386,7 @@
         <v>44062</v>
       </c>
       <c r="E136" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>75</v>
@@ -6395,20 +6395,20 @@
         <v>17116</v>
       </c>
       <c r="H136" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G136))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="I136" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J136" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K136" s="10">
         <v>44062</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -6425,7 +6425,7 @@
         <v>44062</v>
       </c>
       <c r="E137" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>94</v>
@@ -6434,20 +6434,20 @@
         <v>15302</v>
       </c>
       <c r="H137" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G137))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="I137" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J137" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K137" s="10">
         <v>44062</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -6464,7 +6464,7 @@
         <v>44062</v>
       </c>
       <c r="E138" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>100</v>
@@ -6473,20 +6473,20 @@
         <v>27851</v>
       </c>
       <c r="H138" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G138))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="I138" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J138" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K138" s="10">
         <v>44062</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>44061</v>
       </c>
       <c r="E139" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>123</v>
@@ -6512,18 +6512,18 @@
         <v>28018</v>
       </c>
       <c r="H139" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G139))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="I139" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J139" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K139" s="10"/>
       <c r="L139" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -6540,7 +6540,7 @@
         <v>44062</v>
       </c>
       <c r="E140" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>125</v>
@@ -6549,20 +6549,20 @@
         <v>32101</v>
       </c>
       <c r="H140" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G140))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I140" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J140" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K140" s="10">
         <v>44062</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -6579,7 +6579,7 @@
         <v>44062</v>
       </c>
       <c r="E141" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>128</v>
@@ -6588,20 +6588,20 @@
         <v>27678</v>
       </c>
       <c r="H141" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G141))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="I141" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J141" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K141" s="10">
         <v>44062</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -6618,7 +6618,7 @@
         <v>44062</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>137</v>
@@ -6627,20 +6627,20 @@
         <v>21157</v>
       </c>
       <c r="H142" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G142))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="I142" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J142" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K142" s="10">
         <v>44062</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
         <v>44062</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>138</v>
@@ -6666,20 +6666,20 @@
         <v>19343</v>
       </c>
       <c r="H143" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G143))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>68</v>
       </c>
       <c r="I143" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J143" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K143" s="10">
         <v>44062</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -6696,7 +6696,7 @@
         <v>44062</v>
       </c>
       <c r="E144" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>153</v>
@@ -6705,20 +6705,20 @@
         <v>18196</v>
       </c>
       <c r="H144" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G144))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I144" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J144" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K144" s="10">
         <v>44062</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>44062</v>
       </c>
       <c r="E145" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>156</v>
@@ -6744,20 +6744,20 @@
         <v>23371</v>
       </c>
       <c r="H145" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G145))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="I145" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J145" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K145" s="10">
         <v>44062</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -6774,7 +6774,7 @@
         <v>44061</v>
       </c>
       <c r="E146" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>161</v>
@@ -6783,18 +6783,18 @@
         <v>26864</v>
       </c>
       <c r="H146" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G146))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="I146" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J146" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K146" s="10"/>
       <c r="L146" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -6811,7 +6811,7 @@
         <v>44062</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>52</v>
@@ -6820,20 +6820,20 @@
         <v>26445</v>
       </c>
       <c r="H147" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G147))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="I147" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J147" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K147" s="10">
         <v>43887</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -6850,7 +6850,7 @@
         <v>44062</v>
       </c>
       <c r="E148" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>9</v>
@@ -6859,20 +6859,20 @@
         <v>16725</v>
       </c>
       <c r="H148" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G148))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="I148" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J148" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K148" s="10">
         <v>43817</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -6889,7 +6889,7 @@
         <v>44061</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>58</v>
@@ -6898,18 +6898,18 @@
         <v>20655</v>
       </c>
       <c r="H149" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G149))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>64</v>
       </c>
       <c r="I149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J149" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K149" s="10"/>
       <c r="L149" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -6926,7 +6926,7 @@
         <v>44061</v>
       </c>
       <c r="E150" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>63</v>
@@ -6935,18 +6935,18 @@
         <v>22250</v>
       </c>
       <c r="H150" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G150))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I150" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J150" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K150" s="10"/>
       <c r="L150" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -6963,7 +6963,7 @@
         <v>44061</v>
       </c>
       <c r="E151" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>109</v>
@@ -6972,18 +6972,18 @@
         <v>33308</v>
       </c>
       <c r="H151" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G151))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
       <c r="I151" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J151" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K151" s="10"/>
       <c r="L151" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -7000,7 +7000,7 @@
         <v>44061</v>
       </c>
       <c r="E152" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>20</v>
@@ -7009,18 +7009,18 @@
         <v>28888</v>
       </c>
       <c r="H152" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G152))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="I152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J152" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K152" s="10"/>
       <c r="L152" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -7037,7 +7037,7 @@
         <v>44061</v>
       </c>
       <c r="E153" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>80</v>
@@ -7046,18 +7046,18 @@
         <v>31920</v>
       </c>
       <c r="H153" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G153))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I153" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J153" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K153" s="10"/>
       <c r="L153" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -7074,7 +7074,7 @@
         <v>44061</v>
       </c>
       <c r="E154" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>81</v>
@@ -7083,18 +7083,18 @@
         <v>25397</v>
       </c>
       <c r="H154" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G154))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="I154" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J154" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K154" s="10"/>
       <c r="L154" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -7111,7 +7111,7 @@
         <v>44062</v>
       </c>
       <c r="E155" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>10</v>
@@ -7120,20 +7120,20 @@
         <v>21338</v>
       </c>
       <c r="H155" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G155))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="I155" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J155" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K155" s="10">
         <v>44062</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -7150,7 +7150,7 @@
         <v>44062</v>
       </c>
       <c r="E156" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>27</v>
@@ -7159,20 +7159,20 @@
         <v>26802</v>
       </c>
       <c r="H156" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G156))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="I156" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J156" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K156" s="10">
         <v>44062</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -7189,7 +7189,7 @@
         <v>44061</v>
       </c>
       <c r="E157" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>32</v>
@@ -7198,18 +7198,18 @@
         <v>20281</v>
       </c>
       <c r="H157" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G157))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I157" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J157" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K157" s="10"/>
       <c r="L157" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -7226,7 +7226,7 @@
         <v>44062</v>
       </c>
       <c r="E158" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>53</v>
@@ -7235,20 +7235,20 @@
         <v>15245</v>
       </c>
       <c r="H158" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G158))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="I158" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J158" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K158" s="10">
         <v>44062</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -7265,7 +7265,7 @@
         <v>44062</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>64</v>
@@ -7274,20 +7274,20 @@
         <v>22890</v>
       </c>
       <c r="H159" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G159))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="I159" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J159" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K159" s="10">
         <v>44062</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -7304,7 +7304,7 @@
         <v>44061</v>
       </c>
       <c r="E160" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>74</v>
@@ -7313,18 +7313,18 @@
         <v>23367</v>
       </c>
       <c r="H160" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G160))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="I160" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J160" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K160" s="10"/>
       <c r="L160" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -7341,7 +7341,7 @@
         <v>44062</v>
       </c>
       <c r="E161" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>96</v>
@@ -7350,20 +7350,20 @@
         <v>24717</v>
       </c>
       <c r="H161" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G161))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="I161" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J161" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K161" s="10">
         <v>44062</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -7380,7 +7380,7 @@
         <v>44062</v>
       </c>
       <c r="E162" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>146</v>
@@ -7389,20 +7389,20 @@
         <v>22655</v>
       </c>
       <c r="H162" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G162))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="I162" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J162" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K162" s="10">
         <v>44062</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -7419,7 +7419,7 @@
         <v>44062</v>
       </c>
       <c r="E163" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>117</v>
@@ -7428,20 +7428,20 @@
         <v>27508</v>
       </c>
       <c r="H163" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G163))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="I163" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J163" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K163" s="10">
         <v>44055</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -7458,7 +7458,7 @@
         <v>44062</v>
       </c>
       <c r="E164" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>15</v>
@@ -7467,20 +7467,20 @@
         <v>20885</v>
       </c>
       <c r="H164" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G164))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="I164" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J164" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K164" s="10">
         <v>44055</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -7497,7 +7497,7 @@
         <v>44062</v>
       </c>
       <c r="E165" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>56</v>
@@ -7506,20 +7506,20 @@
         <v>21958</v>
       </c>
       <c r="H165" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G165))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I165" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J165" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K165" s="10">
         <v>44055</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -7536,7 +7536,7 @@
         <v>44062</v>
       </c>
       <c r="E166" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>77</v>
@@ -7545,20 +7545,20 @@
         <v>21970</v>
       </c>
       <c r="H166" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G166))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I166" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J166" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K166" s="10">
         <v>44055</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>44062</v>
       </c>
       <c r="E167" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>79</v>
@@ -7584,20 +7584,20 @@
         <v>16997</v>
       </c>
       <c r="H167" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G167))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="I167" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J167" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K167" s="10">
         <v>44055</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -7614,7 +7614,7 @@
         <v>44062</v>
       </c>
       <c r="E168" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>101</v>
@@ -7623,20 +7623,20 @@
         <v>14974</v>
       </c>
       <c r="H168" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G168))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>80</v>
       </c>
       <c r="I168" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J168" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K168" s="10">
         <v>44055</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -7653,7 +7653,7 @@
         <v>44062</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>122</v>
@@ -7662,20 +7662,20 @@
         <v>25566</v>
       </c>
       <c r="H169" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G169))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="I169" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J169" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K169" s="10">
         <v>44055</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -7692,7 +7692,7 @@
         <v>44062</v>
       </c>
       <c r="E170" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>147</v>
@@ -7701,20 +7701,20 @@
         <v>16390</v>
       </c>
       <c r="H170" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G170))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>76</v>
       </c>
       <c r="I170" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J170" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K170" s="10">
         <v>44055</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -7731,7 +7731,7 @@
         <v>44061</v>
       </c>
       <c r="E171" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>39</v>
@@ -7740,18 +7740,18 @@
         <v>25970</v>
       </c>
       <c r="H171" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G171))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I171" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J171" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K171" s="10"/>
       <c r="L171" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -7768,7 +7768,7 @@
         <v>44062</v>
       </c>
       <c r="E172" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>11</v>
@@ -7777,20 +7777,20 @@
         <v>27118</v>
       </c>
       <c r="H172" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G172))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="I172" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J172" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K172" s="10">
         <v>44062</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -7807,7 +7807,7 @@
         <v>44062</v>
       </c>
       <c r="E173" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>30</v>
@@ -7816,20 +7816,20 @@
         <v>22024</v>
       </c>
       <c r="H173" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G173))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I173" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J173" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K173" s="10">
         <v>44062</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -7846,7 +7846,7 @@
         <v>44062</v>
       </c>
       <c r="E174" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>33</v>
@@ -7855,20 +7855,20 @@
         <v>32142</v>
       </c>
       <c r="H174" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G174))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I174" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J174" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K174" s="10">
         <v>44062</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -7885,7 +7885,7 @@
         <v>44062</v>
       </c>
       <c r="E175" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>43</v>
@@ -7894,20 +7894,20 @@
         <v>25592</v>
       </c>
       <c r="H175" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G175))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="I175" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J175" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K175" s="10">
         <v>44062</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -7924,7 +7924,7 @@
         <v>44061</v>
       </c>
       <c r="E176" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>61</v>
@@ -7933,18 +7933,18 @@
         <v>25846</v>
       </c>
       <c r="H176" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G176))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="I176" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J176" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K176" s="10"/>
       <c r="L176" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -7961,7 +7961,7 @@
         <v>44062</v>
       </c>
       <c r="E177" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>70</v>
@@ -7970,20 +7970,20 @@
         <v>27112</v>
       </c>
       <c r="H177" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G177))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="I177" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J177" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K177" s="10">
         <v>44062</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -8000,7 +8000,7 @@
         <v>44062</v>
       </c>
       <c r="E178" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>83</v>
@@ -8009,20 +8009,20 @@
         <v>23902</v>
       </c>
       <c r="H178" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G178))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="I178" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J178" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K178" s="10">
         <v>44062</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -8039,7 +8039,7 @@
         <v>44061</v>
       </c>
       <c r="E179" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>87</v>
@@ -8048,18 +8048,18 @@
         <v>18640</v>
       </c>
       <c r="H179" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G179))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="I179" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J179" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K179" s="10"/>
       <c r="L179" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -8076,7 +8076,7 @@
         <v>44062</v>
       </c>
       <c r="E180" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>91</v>
@@ -8085,20 +8085,20 @@
         <v>25067</v>
       </c>
       <c r="H180" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G180))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="I180" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J180" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K180" s="10">
         <v>44062</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -8115,7 +8115,7 @@
         <v>44061</v>
       </c>
       <c r="E181" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>108</v>
@@ -8124,18 +8124,18 @@
         <v>21445</v>
       </c>
       <c r="H181" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G181))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="I181" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J181" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K181" s="10"/>
       <c r="L181" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -8152,7 +8152,7 @@
         <v>44062</v>
       </c>
       <c r="E182" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>110</v>
@@ -8161,20 +8161,20 @@
         <v>24964</v>
       </c>
       <c r="H182" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G182))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="I182" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J182" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K182" s="10">
         <v>44062</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -8191,7 +8191,7 @@
         <v>44062</v>
       </c>
       <c r="E183" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>111</v>
@@ -8200,20 +8200,20 @@
         <v>20415</v>
       </c>
       <c r="H183" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G183))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I183" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J183" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K183" s="10">
         <v>44062</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -8230,7 +8230,7 @@
         <v>44062</v>
       </c>
       <c r="E184" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>113</v>
@@ -8239,20 +8239,20 @@
         <v>18781</v>
       </c>
       <c r="H184" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G184))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="I184" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J184" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K184" s="10">
         <v>44062</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -8269,7 +8269,7 @@
         <v>44061</v>
       </c>
       <c r="E185" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>116</v>
@@ -8278,18 +8278,18 @@
         <v>32771</v>
       </c>
       <c r="H185" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G185))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
       <c r="I185" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J185" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K185" s="10"/>
       <c r="L185" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -8306,7 +8306,7 @@
         <v>44062</v>
       </c>
       <c r="E186" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>120</v>
@@ -8315,20 +8315,20 @@
         <v>18036</v>
       </c>
       <c r="H186" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G186))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I186" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J186" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K186" s="10">
         <v>44062</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -8345,7 +8345,7 @@
         <v>44062</v>
       </c>
       <c r="E187" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>124</v>
@@ -8354,20 +8354,20 @@
         <v>24242</v>
       </c>
       <c r="H187" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G187))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
       <c r="I187" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J187" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K187" s="10">
         <v>44062</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -8384,7 +8384,7 @@
         <v>44061</v>
       </c>
       <c r="E188" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>145</v>
@@ -8393,18 +8393,18 @@
         <v>26203</v>
       </c>
       <c r="H188" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G188))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I188" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J188" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K188" s="10"/>
       <c r="L188" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -8421,7 +8421,7 @@
         <v>44062</v>
       </c>
       <c r="E189" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>158</v>
@@ -8430,20 +8430,20 @@
         <v>14047</v>
       </c>
       <c r="H189" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G189))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>82</v>
       </c>
       <c r="I189" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J189" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K189" s="10">
         <v>44062</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -8460,7 +8460,7 @@
         <v>44061</v>
       </c>
       <c r="E190" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>86</v>
@@ -8469,18 +8469,18 @@
         <v>29287</v>
       </c>
       <c r="H190" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G190))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>40</v>
       </c>
       <c r="I190" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J190" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K190" s="10"/>
       <c r="L190" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -8497,7 +8497,7 @@
         <v>44062</v>
       </c>
       <c r="E191" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>19</v>
@@ -8506,20 +8506,20 @@
         <v>17079</v>
       </c>
       <c r="H191" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G191))</f>
+        <f t="shared" ref="H191:H254" ca="1" si="4">(YEAR(TODAY())-YEAR(G191))</f>
         <v>74</v>
       </c>
       <c r="I191" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J191" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K191" s="10">
         <v>43839</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -8536,7 +8536,7 @@
         <v>44069</v>
       </c>
       <c r="E192" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>29</v>
@@ -8545,18 +8545,18 @@
         <v>27246</v>
       </c>
       <c r="H192" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G192))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>46</v>
       </c>
       <c r="I192" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J192" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K192" s="10"/>
       <c r="L192" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="D193" s="10"/>
       <c r="E193" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>31</v>
@@ -8580,14 +8580,14 @@
         <v>27492</v>
       </c>
       <c r="H193" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G193))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="I193" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J193" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K193" s="10"/>
       <c r="L193"/>
@@ -8606,7 +8606,7 @@
         <v>44062</v>
       </c>
       <c r="E194" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>34</v>
@@ -8615,20 +8615,20 @@
         <v>26205</v>
       </c>
       <c r="H194" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G194))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="I194" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J194" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K194" s="10">
         <v>43839</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -8645,7 +8645,7 @@
         <v>44062</v>
       </c>
       <c r="E195" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>37</v>
@@ -8654,20 +8654,20 @@
         <v>25149</v>
       </c>
       <c r="H195" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G195))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I195" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J195" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K195" s="10">
         <v>43904</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -8684,7 +8684,7 @@
         <v>44062</v>
       </c>
       <c r="E196" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>40</v>
@@ -8693,20 +8693,20 @@
         <v>26299</v>
       </c>
       <c r="H196" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G196))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="I196" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J196" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K196" s="10">
         <v>43839</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="D197" s="10"/>
       <c r="E197" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>41</v>
@@ -8730,14 +8730,14 @@
         <v>29572</v>
       </c>
       <c r="H197" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G197))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I197" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J197" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K197" s="10"/>
       <c r="L197"/>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="D198" s="10"/>
       <c r="E198" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>42</v>
@@ -8763,14 +8763,14 @@
         <v>24666</v>
       </c>
       <c r="H198" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G198))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="I198" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J198" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K198" s="10"/>
       <c r="L198"/>
@@ -8789,7 +8789,7 @@
         <v>44061</v>
       </c>
       <c r="E199" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>44</v>
@@ -8798,18 +8798,18 @@
         <v>31817</v>
       </c>
       <c r="H199" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G199))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I199" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J199" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K199" s="10"/>
       <c r="L199" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="D200" s="10"/>
       <c r="E200" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>46</v>
@@ -8833,14 +8833,14 @@
         <v>26833</v>
       </c>
       <c r="H200" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G200))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I200" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J200" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K200" s="10"/>
       <c r="L200"/>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="D201" s="10"/>
       <c r="E201" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>49</v>
@@ -8866,14 +8866,14 @@
         <v>19566</v>
       </c>
       <c r="H201" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G201))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I201" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J201" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K201" s="10"/>
       <c r="L201"/>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="D202" s="10"/>
       <c r="E202" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>50</v>
@@ -8899,14 +8899,14 @@
         <v>18407</v>
       </c>
       <c r="H202" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G202))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="I202" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J202" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K202" s="10"/>
       <c r="L202"/>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D203" s="10"/>
       <c r="E203" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>67</v>
@@ -8932,14 +8932,14 @@
         <v>19434</v>
       </c>
       <c r="H203" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G203))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J203" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K203" s="10"/>
       <c r="L203"/>
@@ -8958,7 +8958,7 @@
         <v>44062</v>
       </c>
       <c r="E204" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>71</v>
@@ -8967,20 +8967,20 @@
         <v>29549</v>
       </c>
       <c r="H204" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G204))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I204" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J204" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K204" s="10">
         <v>43839</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -8997,7 +8997,7 @@
         <v>44062</v>
       </c>
       <c r="E205" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>72</v>
@@ -9006,20 +9006,20 @@
         <v>26133</v>
       </c>
       <c r="H205" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G205))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="I205" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J205" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K205" s="10">
         <v>43861</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -9036,7 +9036,7 @@
         <v>44062</v>
       </c>
       <c r="E206" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>78</v>
@@ -9045,20 +9045,20 @@
         <v>21548</v>
       </c>
       <c r="H206" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G206))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I206" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J206" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K206" s="10">
         <v>43839</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -9075,7 +9075,7 @@
         <v>44062</v>
       </c>
       <c r="E207" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>92</v>
@@ -9084,20 +9084,20 @@
         <v>27763</v>
       </c>
       <c r="H207" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G207))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I207" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J207" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K207" s="10">
         <v>43891</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9114,7 +9114,7 @@
         <v>44062</v>
       </c>
       <c r="E208" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>95</v>
@@ -9123,20 +9123,20 @@
         <v>22263</v>
       </c>
       <c r="H208" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G208))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="I208" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J208" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K208" s="10">
         <v>43861</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -9153,7 +9153,7 @@
         <v>44062</v>
       </c>
       <c r="E209" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>97</v>
@@ -9162,20 +9162,20 @@
         <v>31990</v>
       </c>
       <c r="H209" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G209))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I209" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J209" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K209" s="10">
         <v>43839</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D210" s="10"/>
       <c r="E210" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>98</v>
@@ -9199,14 +9199,14 @@
         <v>30315</v>
       </c>
       <c r="H210" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G210))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I210" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J210" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K210" s="10"/>
       <c r="L210"/>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="D211" s="10"/>
       <c r="E211" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>102</v>
@@ -9232,14 +9232,14 @@
         <v>20907</v>
       </c>
       <c r="H211" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G211))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="I211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J211" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K211" s="10"/>
       <c r="L211"/>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="D212" s="10"/>
       <c r="E212" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>103</v>
@@ -9265,14 +9265,14 @@
         <v>21674</v>
       </c>
       <c r="H212" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G212))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="I212" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J212" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K212" s="10"/>
       <c r="L212"/>
@@ -9291,7 +9291,7 @@
         <v>44062</v>
       </c>
       <c r="E213" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>105</v>
@@ -9300,20 +9300,20 @@
         <v>24834</v>
       </c>
       <c r="H213" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G213))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="I213" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J213" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K213" s="10">
         <v>43861</v>
       </c>
       <c r="L213" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -9330,7 +9330,7 @@
         <v>44062</v>
       </c>
       <c r="E214" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>107</v>
@@ -9339,20 +9339,20 @@
         <v>27004</v>
       </c>
       <c r="H214" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G214))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I214" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J214" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K214" s="10">
         <v>43904</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -9369,27 +9369,27 @@
         <v>44069</v>
       </c>
       <c r="E215" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G215" s="13">
         <v>20377</v>
       </c>
       <c r="H215" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G215))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="I215" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J215" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K215" s="10"/>
       <c r="L215" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="D216" s="10"/>
       <c r="E216" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>115</v>
@@ -9413,14 +9413,14 @@
         <v>23941</v>
       </c>
       <c r="H216" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G216))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="I216" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J216" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K216" s="10"/>
       <c r="L216"/>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="D217" s="10"/>
       <c r="E217" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>118</v>
@@ -9446,14 +9446,14 @@
         <v>26624</v>
       </c>
       <c r="H217" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G217))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="I217" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J217" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K217" s="10"/>
       <c r="L217"/>
@@ -9472,7 +9472,7 @@
         <v>44061</v>
       </c>
       <c r="E218" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>119</v>
@@ -9481,18 +9481,18 @@
         <v>31120</v>
       </c>
       <c r="H218" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G218))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I218" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J218" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K218" s="10"/>
       <c r="L218" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
@@ -9509,7 +9509,7 @@
         <v>44062</v>
       </c>
       <c r="E219" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>127</v>
@@ -9518,18 +9518,18 @@
         <v>29623</v>
       </c>
       <c r="H219" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G219))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="I219" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J219" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K219" s="10"/>
       <c r="L219" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
@@ -9546,7 +9546,7 @@
         <v>44062</v>
       </c>
       <c r="E220" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>133</v>
@@ -9555,23 +9555,23 @@
         <v>27719</v>
       </c>
       <c r="H220" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G220))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="I220" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J220" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K220" s="10">
         <v>43839</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="D221" s="10"/>
       <c r="E221" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>148</v>
@@ -9595,14 +9595,14 @@
         <v>25084</v>
       </c>
       <c r="H221" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G221))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I221" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J221" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K221" s="10"/>
       <c r="L221"/>
@@ -9621,7 +9621,7 @@
         <v>44062</v>
       </c>
       <c r="E222" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>150</v>
@@ -9630,20 +9630,20 @@
         <v>30097</v>
       </c>
       <c r="H222" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G222))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I222" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J222" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K222" s="10">
         <v>43904</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
@@ -9660,7 +9660,7 @@
         <v>44069</v>
       </c>
       <c r="E223" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>155</v>
@@ -9669,18 +9669,18 @@
         <v>23358</v>
       </c>
       <c r="H223" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G223))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="I223" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J223" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K223" s="10"/>
       <c r="L223" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
@@ -9697,27 +9697,27 @@
         <v>44069</v>
       </c>
       <c r="E224" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F224" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G224" s="10">
         <v>32980</v>
       </c>
       <c r="H224" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G224))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I224" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J224" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K224" s="10"/>
       <c r="L224" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -9734,27 +9734,27 @@
         <v>44069</v>
       </c>
       <c r="E225" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F225" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G225" s="10">
         <v>31116</v>
       </c>
       <c r="H225" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G225))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I225" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J225" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K225" s="10"/>
       <c r="L225" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -9771,7 +9771,7 @@
         <v>44061</v>
       </c>
       <c r="E226" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>28</v>
@@ -9780,18 +9780,18 @@
         <v>30164</v>
       </c>
       <c r="H226" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G226))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I226" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J226" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K226" s="10"/>
       <c r="L226" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
         <v>44061</v>
       </c>
       <c r="E227" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>51</v>
@@ -9817,18 +9817,18 @@
         <v>31562</v>
       </c>
       <c r="H227" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G227))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
       <c r="I227" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J227" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K227" s="10"/>
       <c r="L227" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -9845,7 +9845,7 @@
         <v>44061</v>
       </c>
       <c r="E228" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>99</v>
@@ -9854,18 +9854,18 @@
         <v>33225</v>
       </c>
       <c r="H228" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G228))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I228" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J228" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K228" s="10"/>
       <c r="L228" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -9882,7 +9882,7 @@
         <v>44061</v>
       </c>
       <c r="E229" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>139</v>
@@ -9891,18 +9891,18 @@
         <v>30491</v>
       </c>
       <c r="H229" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G229))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37</v>
       </c>
       <c r="I229" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J229" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K229" s="10"/>
       <c r="L229" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -9919,7 +9919,7 @@
         <v>44061</v>
       </c>
       <c r="E230" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>152</v>
@@ -9928,18 +9928,18 @@
         <v>32481</v>
       </c>
       <c r="H230" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G230))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="I230" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J230" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K230" s="10"/>
       <c r="L230" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -9956,7 +9956,7 @@
         <v>44062</v>
       </c>
       <c r="E231" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F231" s="12" t="s">
         <v>23</v>
@@ -9965,18 +9965,18 @@
         <v>32885</v>
       </c>
       <c r="H231" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G231))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I231" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J231" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K231" s="10"/>
       <c r="L231" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -9993,7 +9993,7 @@
         <v>44062</v>
       </c>
       <c r="E232" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F232" s="12" t="s">
         <v>35</v>
@@ -10002,18 +10002,18 @@
         <v>31146</v>
       </c>
       <c r="H232" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G232))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I232" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J232" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K232" s="10"/>
       <c r="L232" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -10030,7 +10030,7 @@
         <v>44061</v>
       </c>
       <c r="E233" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>62</v>
@@ -10039,18 +10039,18 @@
         <v>31814</v>
       </c>
       <c r="H233" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G233))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I233" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J233" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K233" s="10"/>
       <c r="L233" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -10067,7 +10067,7 @@
         <v>44062</v>
       </c>
       <c r="E234" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F234" s="12" t="s">
         <v>93</v>
@@ -10076,18 +10076,18 @@
         <v>32196</v>
       </c>
       <c r="H234" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G234))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="I234" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J234" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K234" s="10"/>
       <c r="L234" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -10104,7 +10104,7 @@
         <v>44062</v>
       </c>
       <c r="E235" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F235" s="12" t="s">
         <v>13</v>
@@ -10113,20 +10113,20 @@
         <v>20417</v>
       </c>
       <c r="H235" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G235))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="I235" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J235" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K235" s="10">
         <v>43867</v>
       </c>
       <c r="L235" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="D236" s="10"/>
       <c r="E236" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>16</v>
@@ -10150,14 +10150,14 @@
         <v>19630</v>
       </c>
       <c r="H236" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G236))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I236" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J236" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K236" s="10"/>
       <c r="L236"/>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="D237" s="10"/>
       <c r="E237" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>18</v>
@@ -10183,14 +10183,14 @@
         <v>21249</v>
       </c>
       <c r="H237" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G237))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I237" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J237" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K237" s="10"/>
       <c r="L237"/>
@@ -10209,7 +10209,7 @@
         <v>44069</v>
       </c>
       <c r="E238" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>21</v>
@@ -10218,18 +10218,18 @@
         <v>21269</v>
       </c>
       <c r="H238" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G238))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I238" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J238" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K238" s="10"/>
       <c r="L238" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="D239" s="10"/>
       <c r="E239" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F239" s="12" t="s">
         <v>26</v>
@@ -10253,14 +10253,14 @@
         <v>29503</v>
       </c>
       <c r="H239" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G239))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I239" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J239" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K239" s="10"/>
       <c r="L239"/>
@@ -10277,7 +10277,7 @@
       </c>
       <c r="D240" s="10"/>
       <c r="E240" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>47</v>
@@ -10286,14 +10286,14 @@
         <v>26846</v>
       </c>
       <c r="H240" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G240))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I240" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J240" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K240" s="10"/>
       <c r="L240"/>
@@ -10310,7 +10310,7 @@
       </c>
       <c r="D241" s="10"/>
       <c r="E241" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>48</v>
@@ -10319,14 +10319,14 @@
         <v>24000</v>
       </c>
       <c r="H241" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G241))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="I241" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J241" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K241" s="10"/>
       <c r="L241"/>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="D242" s="10"/>
       <c r="E242" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>55</v>
@@ -10352,14 +10352,14 @@
         <v>19943</v>
       </c>
       <c r="H242" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G242))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
       <c r="I242" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J242" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K242" s="10"/>
       <c r="L242"/>
@@ -10378,7 +10378,7 @@
         <v>44061</v>
       </c>
       <c r="E243" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>59</v>
@@ -10387,18 +10387,18 @@
         <v>28122</v>
       </c>
       <c r="H243" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G243))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I243" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J243" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K243" s="10"/>
       <c r="L243" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="D244" s="10"/>
       <c r="E244" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>66</v>
@@ -10422,14 +10422,14 @@
         <v>29350</v>
       </c>
       <c r="H244" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G244))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I244" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J244" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K244" s="10"/>
       <c r="L244"/>
@@ -10448,7 +10448,7 @@
         <v>44062</v>
       </c>
       <c r="E245" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>69</v>
@@ -10457,20 +10457,20 @@
         <v>29000</v>
       </c>
       <c r="H245" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G245))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="I245" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J245" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K245" s="10">
         <v>43867</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="D246" s="10"/>
       <c r="E246" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>73</v>
@@ -10494,14 +10494,14 @@
         <v>28805</v>
       </c>
       <c r="H246" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G246))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>42</v>
       </c>
       <c r="I246" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J246" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K246" s="10"/>
       <c r="L246"/>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="D247" s="10"/>
       <c r="E247" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>76</v>
@@ -10527,14 +10527,14 @@
         <v>20625</v>
       </c>
       <c r="H247" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G247))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="I247" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J247" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K247" s="10"/>
       <c r="L247"/>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="D248" s="10"/>
       <c r="E248" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F248" s="12" t="s">
         <v>84</v>
@@ -10560,14 +10560,14 @@
         <v>21011</v>
       </c>
       <c r="H248" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G248))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="I248" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J248" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K248" s="10"/>
       <c r="L248"/>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="D249" s="10"/>
       <c r="E249" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>88</v>
@@ -10593,14 +10593,14 @@
         <v>29713</v>
       </c>
       <c r="H249" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G249))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="I249" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J249" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K249" s="10"/>
       <c r="L249"/>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="D250" s="10"/>
       <c r="E250" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>89</v>
@@ -10626,14 +10626,14 @@
         <v>21432</v>
       </c>
       <c r="H250" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G250))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I250" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J250" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K250" s="10"/>
       <c r="L250"/>
@@ -10652,7 +10652,7 @@
         <v>44061</v>
       </c>
       <c r="E251" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F251" s="12" t="s">
         <v>104</v>
@@ -10661,18 +10661,18 @@
         <v>28961</v>
       </c>
       <c r="H251" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G251))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="I251" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J251" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K251" s="10"/>
       <c r="L251" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="D252" s="10"/>
       <c r="E252" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>106</v>
@@ -10696,14 +10696,14 @@
         <v>25069</v>
       </c>
       <c r="H252" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G252))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I252" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J252" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K252" s="10"/>
       <c r="L252"/>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="D253" s="10"/>
       <c r="E253" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>114</v>
@@ -10729,14 +10729,14 @@
         <v>24451</v>
       </c>
       <c r="H253" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G253))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>54</v>
       </c>
       <c r="I253" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J253" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K253" s="10"/>
       <c r="L253"/>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="D254" s="10"/>
       <c r="E254" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>129</v>
@@ -10762,14 +10762,14 @@
         <v>27834</v>
       </c>
       <c r="H254" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G254))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I254" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J254" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K254" s="10"/>
       <c r="L254"/>
@@ -10786,7 +10786,7 @@
       </c>
       <c r="D255" s="10"/>
       <c r="E255" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>130</v>
@@ -10795,14 +10795,14 @@
         <v>18677</v>
       </c>
       <c r="H255" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G255))</f>
+        <f t="shared" ref="H255:H318" ca="1" si="5">(YEAR(TODAY())-YEAR(G255))</f>
         <v>69</v>
       </c>
       <c r="I255" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J255" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K255" s="10"/>
       <c r="L255"/>
@@ -10819,7 +10819,7 @@
       </c>
       <c r="D256" s="10"/>
       <c r="E256" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>132</v>
@@ -10828,14 +10828,14 @@
         <v>18960</v>
       </c>
       <c r="H256" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G256))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="I256" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J256" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K256" s="10"/>
       <c r="L256"/>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="D257" s="10"/>
       <c r="E257" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>140</v>
@@ -10861,14 +10861,14 @@
         <v>20084</v>
       </c>
       <c r="H257" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G257))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>66</v>
       </c>
       <c r="I257" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J257" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K257" s="10"/>
       <c r="L257"/>
@@ -10887,7 +10887,7 @@
         <v>44069</v>
       </c>
       <c r="E258" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>141</v>
@@ -10896,18 +10896,18 @@
         <v>29014</v>
       </c>
       <c r="H258" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G258))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>41</v>
       </c>
       <c r="I258" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J258" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K258" s="10"/>
       <c r="L258" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="D259" s="10"/>
       <c r="E259" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>142</v>
@@ -10931,14 +10931,14 @@
         <v>27808</v>
       </c>
       <c r="H259" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G259))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="I259" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J259" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K259" s="10"/>
       <c r="L259"/>
@@ -10957,7 +10957,7 @@
         <v>44061</v>
       </c>
       <c r="E260" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>144</v>
@@ -10966,18 +10966,18 @@
         <v>29294</v>
       </c>
       <c r="H260" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G260))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>40</v>
       </c>
       <c r="I260" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J260" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K260" s="10"/>
       <c r="L260" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="D261" s="10"/>
       <c r="E261" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F261" s="12" t="s">
         <v>154</v>
@@ -11001,14 +11001,14 @@
         <v>22529</v>
       </c>
       <c r="H261" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G261))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>59</v>
       </c>
       <c r="I261" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J261" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K261" s="10"/>
       <c r="L261"/>
@@ -11027,7 +11027,7 @@
         <v>44069</v>
       </c>
       <c r="E262" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>159</v>
@@ -11036,18 +11036,18 @@
         <v>21079</v>
       </c>
       <c r="H262" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G262))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>63</v>
       </c>
       <c r="I262" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J262" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K262" s="10"/>
       <c r="L262" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="D263" s="10"/>
       <c r="E263" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>160</v>
@@ -11071,14 +11071,14 @@
         <v>28020</v>
       </c>
       <c r="H263" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G263))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="I263" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J263" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K263" s="10"/>
       <c r="L263"/>
@@ -11095,23 +11095,23 @@
       </c>
       <c r="D264" s="10"/>
       <c r="E264" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G264" s="10">
         <v>21554</v>
       </c>
       <c r="H264" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G264))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>61</v>
       </c>
       <c r="I264" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J264" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K264" s="10"/>
       <c r="L264"/>

--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/endosos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF8A83E-B765-D646-A75F-2118412F36E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0353A7AC-1ACC-8F49-89BF-82EB606D68CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,24 +41,12 @@
     <t>id</t>
   </si>
   <si>
-    <t>cargo</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
     <t>fn</t>
   </si>
   <si>
     <t>edad</t>
   </si>
   <si>
-    <t>partido</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -993,6 +981,18 @@
   </si>
   <si>
     <t>Diputado</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Partido</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110:E264"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1397,37 +1397,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1444,10 +1444,10 @@
         <v>44062</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G2" s="10">
         <v>18233</v>
@@ -1457,10 +1457,10 @@
         <v>71</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2"/>
@@ -1479,10 +1479,10 @@
         <v>44062</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G3" s="10">
         <v>15516</v>
@@ -1492,10 +1492,10 @@
         <v>78</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
@@ -1514,10 +1514,10 @@
         <v>44062</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G4" s="10">
         <v>13941</v>
@@ -1527,10 +1527,10 @@
         <v>82</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="2"/>
@@ -1549,10 +1549,10 @@
         <v>44062</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="10">
         <v>18900</v>
@@ -1562,10 +1562,10 @@
         <v>69</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
@@ -1584,10 +1584,10 @@
         <v>44061</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G6" s="10">
         <v>26645</v>
@@ -1597,16 +1597,16 @@
         <v>48</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K6" s="10">
         <v>44058</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1623,10 +1623,10 @@
         <v>44061</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G7" s="10">
         <v>20120</v>
@@ -1636,16 +1636,16 @@
         <v>65</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K7" s="10">
         <v>44058</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1662,10 +1662,10 @@
         <v>44061</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G8" s="10">
         <v>28232</v>
@@ -1675,16 +1675,16 @@
         <v>43</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K8" s="10">
         <v>44058</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1701,10 +1701,10 @@
         <v>44061</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G9" s="10">
         <v>27653</v>
@@ -1714,16 +1714,16 @@
         <v>45</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K9" s="10">
         <v>44058</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1740,10 +1740,10 @@
         <v>44061</v>
       </c>
       <c r="E10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G10" s="10">
         <v>22460</v>
@@ -1753,16 +1753,16 @@
         <v>59</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K10" s="10">
         <v>44058</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1779,10 +1779,10 @@
         <v>44061</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G11" s="10">
         <v>27681</v>
@@ -1792,16 +1792,16 @@
         <v>45</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K11" s="10">
         <v>44058</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1818,10 +1818,10 @@
         <v>44061</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G12" s="10">
         <v>17815</v>
@@ -1831,16 +1831,16 @@
         <v>72</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K12" s="10">
         <v>44058</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1857,10 +1857,10 @@
         <v>44061</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G13" s="10">
         <v>27474</v>
@@ -1870,16 +1870,16 @@
         <v>45</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K13" s="10">
         <v>44058</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1896,10 +1896,10 @@
         <v>44061</v>
       </c>
       <c r="E14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G14" s="10">
         <v>20671</v>
@@ -1909,16 +1909,16 @@
         <v>64</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K14" s="10">
         <v>44058</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1935,10 +1935,10 @@
         <v>44061</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G15" s="10">
         <v>17779</v>
@@ -1948,16 +1948,16 @@
         <v>72</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K15" s="10">
         <v>44058</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1974,10 +1974,10 @@
         <v>44061</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="10">
         <v>24724</v>
@@ -1987,16 +1987,16 @@
         <v>53</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K16" s="10">
         <v>44058</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2013,10 +2013,10 @@
         <v>44061</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G17" s="10">
         <v>25134</v>
@@ -2026,16 +2026,16 @@
         <v>52</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K17" s="10">
         <v>44058</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2052,10 +2052,10 @@
         <v>44061</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G18" s="13">
         <v>25126</v>
@@ -2065,16 +2065,16 @@
         <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K18" s="10">
         <v>44058</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2091,10 +2091,10 @@
         <v>44061</v>
       </c>
       <c r="E19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G19" s="10">
         <v>24970</v>
@@ -2104,16 +2104,16 @@
         <v>52</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K19" s="10">
         <v>44058</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2130,10 +2130,10 @@
         <v>44061</v>
       </c>
       <c r="E20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G20" s="10">
         <v>20492</v>
@@ -2143,16 +2143,16 @@
         <v>64</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K20" s="10">
         <v>44058</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2169,10 +2169,10 @@
         <v>44061</v>
       </c>
       <c r="E21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G21" s="10">
         <v>21368</v>
@@ -2182,16 +2182,16 @@
         <v>62</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K21" s="10">
         <v>44058</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2208,10 +2208,10 @@
         <v>44061</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G22" s="10">
         <v>27295</v>
@@ -2221,16 +2221,16 @@
         <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K22" s="10">
         <v>44058</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2247,10 +2247,10 @@
         <v>44061</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G23" s="10">
         <v>27105</v>
@@ -2260,16 +2260,16 @@
         <v>46</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K23" s="10">
         <v>44058</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2286,10 +2286,10 @@
         <v>44061</v>
       </c>
       <c r="E24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24" s="13">
         <v>29554</v>
@@ -2299,16 +2299,16 @@
         <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K24" s="10">
         <v>44058</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2325,10 +2325,10 @@
         <v>44061</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G25" s="10">
         <v>20015</v>
@@ -2338,16 +2338,16 @@
         <v>66</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K25" s="10">
         <v>44058</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2364,10 +2364,10 @@
         <v>44061</v>
       </c>
       <c r="E26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G26" s="10">
         <v>26556</v>
@@ -2377,16 +2377,16 @@
         <v>48</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K26" s="10">
         <v>44058</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2403,10 +2403,10 @@
         <v>44061</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G27" s="10">
         <v>32557</v>
@@ -2416,16 +2416,16 @@
         <v>31</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K27" s="10">
         <v>44058</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2442,10 +2442,10 @@
         <v>44061</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G28" s="10">
         <v>22770</v>
@@ -2455,16 +2455,16 @@
         <v>58</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K28" s="10">
         <v>44058</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2481,10 +2481,10 @@
         <v>44061</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G29" s="10">
         <v>17431</v>
@@ -2494,16 +2494,16 @@
         <v>73</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K29" s="10">
         <v>44058</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2518,10 +2518,10 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G30" s="10">
         <v>30994</v>
@@ -2531,10 +2531,10 @@
         <v>36</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30"/>
@@ -2551,10 +2551,10 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G31" s="10">
         <v>25454</v>
@@ -2564,10 +2564,10 @@
         <v>51</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31"/>
@@ -2584,18 +2584,18 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32"/>
@@ -2612,18 +2612,18 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33"/>
@@ -2640,10 +2640,10 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G34" s="10">
         <v>19642</v>
@@ -2653,10 +2653,10 @@
         <v>67</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34"/>
@@ -2673,18 +2673,18 @@
       </c>
       <c r="D35" s="10"/>
       <c r="E35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
       <c r="I35" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35"/>
@@ -2701,10 +2701,10 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G36" s="10">
         <v>29935</v>
@@ -2714,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36"/>
@@ -2734,10 +2734,10 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F37" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G37" s="10">
         <v>26622</v>
@@ -2747,10 +2747,10 @@
         <v>48</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37"/>
@@ -2767,10 +2767,10 @@
       </c>
       <c r="D38" s="10"/>
       <c r="E38" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G38" s="10">
         <v>24689</v>
@@ -2780,10 +2780,10 @@
         <v>53</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J38" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38"/>
@@ -2800,18 +2800,18 @@
       </c>
       <c r="D39" s="10"/>
       <c r="E39" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39"/>
@@ -2828,10 +2828,10 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G40" s="10">
         <v>18048</v>
@@ -2841,10 +2841,10 @@
         <v>71</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40"/>
@@ -2861,10 +2861,10 @@
       </c>
       <c r="D41" s="10"/>
       <c r="E41" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G41" s="10">
         <v>25492</v>
@@ -2874,10 +2874,10 @@
         <v>51</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41"/>
@@ -2894,10 +2894,10 @@
       </c>
       <c r="D42" s="10"/>
       <c r="E42" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G42" s="10">
         <v>27655</v>
@@ -2907,10 +2907,10 @@
         <v>45</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42"/>
@@ -2927,10 +2927,10 @@
       </c>
       <c r="D43" s="10"/>
       <c r="E43" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G43" s="10">
         <v>22881</v>
@@ -2940,10 +2940,10 @@
         <v>58</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43"/>
@@ -2960,10 +2960,10 @@
       </c>
       <c r="D44" s="10"/>
       <c r="E44" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F44" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G44" s="10">
         <v>29105</v>
@@ -2973,10 +2973,10 @@
         <v>41</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44"/>
@@ -2993,10 +2993,10 @@
       </c>
       <c r="D45" s="10"/>
       <c r="E45" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G45" s="10">
         <v>20806</v>
@@ -3006,10 +3006,10 @@
         <v>64</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45"/>
@@ -3028,10 +3028,10 @@
         <v>44062</v>
       </c>
       <c r="E46" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G46" s="10">
         <v>26763</v>
@@ -3041,16 +3041,16 @@
         <v>47</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K46" s="10">
         <v>43892</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3067,10 +3067,10 @@
         <v>44062</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G47" s="10">
         <v>26090</v>
@@ -3080,16 +3080,16 @@
         <v>49</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J47" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K47" s="10">
         <v>43892</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3106,10 +3106,10 @@
         <v>44061</v>
       </c>
       <c r="E48" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G48" s="10">
         <v>31131</v>
@@ -3119,14 +3119,14 @@
         <v>35</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J48" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3143,10 +3143,10 @@
         <v>44062</v>
       </c>
       <c r="E49" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F49" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G49" s="10">
         <v>25265</v>
@@ -3156,16 +3156,16 @@
         <v>51</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J49" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K49" s="10">
         <v>43892</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3180,18 +3180,18 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F50" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
       <c r="I50" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J50" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50"/>
@@ -3208,10 +3208,10 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F51" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G51" s="10">
         <v>20899</v>
@@ -3221,10 +3221,10 @@
         <v>63</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J51" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51"/>
@@ -3243,24 +3243,24 @@
         <v>44062</v>
       </c>
       <c r="E52" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F52" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
       <c r="I52" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J52" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K52" s="10">
         <v>44062</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3277,10 +3277,10 @@
         <v>44062</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F53" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G53" s="10">
         <v>28422</v>
@@ -3290,16 +3290,16 @@
         <v>43</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J53" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K53" s="10">
         <v>44062</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3316,10 +3316,10 @@
         <v>44061</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F54" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G54" s="10">
         <v>28694</v>
@@ -3329,14 +3329,14 @@
         <v>42</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J54" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3353,10 +3353,10 @@
         <v>44062</v>
       </c>
       <c r="E55" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G55" s="10">
         <v>34561</v>
@@ -3366,16 +3366,16 @@
         <v>26</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J55" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K55" s="10">
         <v>44055</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3390,18 +3390,18 @@
       </c>
       <c r="D56" s="10"/>
       <c r="E56" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F56" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="11"/>
       <c r="I56" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J56" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="2"/>
@@ -3420,22 +3420,22 @@
         <v>44069</v>
       </c>
       <c r="E57" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F57" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="11"/>
       <c r="I57" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -3452,22 +3452,22 @@
         <v>44069</v>
       </c>
       <c r="E58" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F58" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="11"/>
       <c r="I58" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -3484,10 +3484,10 @@
         <v>44062</v>
       </c>
       <c r="E59" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F59" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G59" s="10">
         <v>27116</v>
@@ -3497,16 +3497,16 @@
         <v>46</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J59" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K59" s="10">
         <v>43892</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3523,10 +3523,10 @@
         <v>44062</v>
       </c>
       <c r="E60" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G60" s="10">
         <v>27429</v>
@@ -3536,16 +3536,16 @@
         <v>45</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K60" s="10">
         <v>43878</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -3560,10 +3560,10 @@
       </c>
       <c r="D61" s="10"/>
       <c r="E61" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F61" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G61" s="10">
         <v>22196</v>
@@ -3573,10 +3573,10 @@
         <v>60</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J61" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61"/>
@@ -3593,18 +3593,18 @@
       </c>
       <c r="D62" s="10"/>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F62" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="11"/>
       <c r="I62" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J62" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62"/>
@@ -3621,10 +3621,10 @@
       </c>
       <c r="D63" s="10"/>
       <c r="E63" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G63" s="10">
         <v>19005</v>
@@ -3634,10 +3634,10 @@
         <v>68</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63"/>
@@ -3654,10 +3654,10 @@
       </c>
       <c r="D64" s="10"/>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F64" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G64" s="10">
         <v>27845</v>
@@ -3667,10 +3667,10 @@
         <v>44</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J64" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64"/>
@@ -3689,10 +3689,10 @@
         <v>44062</v>
       </c>
       <c r="E65" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F65" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G65" s="10">
         <v>14442</v>
@@ -3702,16 +3702,16 @@
         <v>81</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J65" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K65" s="10">
         <v>43892</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -3728,10 +3728,10 @@
         <v>44062</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G66" s="10">
         <v>19655</v>
@@ -3741,16 +3741,16 @@
         <v>67</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J66" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K66" s="10">
         <v>44048</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -3767,10 +3767,10 @@
         <v>44061</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G67" s="13">
         <v>28285</v>
@@ -3780,16 +3780,16 @@
         <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J67" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K67" s="10">
         <v>44036</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -3806,10 +3806,10 @@
         <v>44061</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G68" s="13">
         <v>24478</v>
@@ -3819,16 +3819,16 @@
         <v>53</v>
       </c>
       <c r="I68" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J68" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K68" s="10">
         <v>43837</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -3845,10 +3845,10 @@
         <v>44061</v>
       </c>
       <c r="E69" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F69" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G69" s="13">
         <v>21855</v>
@@ -3858,16 +3858,16 @@
         <v>61</v>
       </c>
       <c r="I69" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J69" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K69" s="10">
         <v>43837</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -3884,10 +3884,10 @@
         <v>44061</v>
       </c>
       <c r="E70" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G70" s="13">
         <v>21845</v>
@@ -3897,16 +3897,16 @@
         <v>61</v>
       </c>
       <c r="I70" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J70" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K70" s="10">
         <v>43837</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -3921,10 +3921,10 @@
       </c>
       <c r="D71" s="10"/>
       <c r="E71" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F71" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G71" s="13">
         <v>22224</v>
@@ -3934,10 +3934,10 @@
         <v>60</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71"/>
@@ -3956,10 +3956,10 @@
         <v>44061</v>
       </c>
       <c r="E72" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G72" s="13">
         <v>19423</v>
@@ -3969,14 +3969,14 @@
         <v>67</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J72" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3991,10 +3991,10 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F73" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G73" s="13">
         <v>27196</v>
@@ -4004,10 +4004,10 @@
         <v>46</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J73" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73"/>
@@ -4026,10 +4026,10 @@
         <v>44061</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F74" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G74" s="13">
         <v>21509</v>
@@ -4039,14 +4039,14 @@
         <v>62</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J74" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K74" s="10"/>
       <c r="L74" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -4063,10 +4063,10 @@
         <v>44061</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G75" s="13">
         <v>16153</v>
@@ -4076,14 +4076,14 @@
         <v>76</v>
       </c>
       <c r="I75" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J75" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K75" s="10"/>
       <c r="L75" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -4100,10 +4100,10 @@
         <v>44061</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G76" s="13">
         <v>25553</v>
@@ -4113,14 +4113,14 @@
         <v>51</v>
       </c>
       <c r="I76" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J76" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -4137,10 +4137,10 @@
         <v>44061</v>
       </c>
       <c r="E77" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G77" s="13">
         <v>25024</v>
@@ -4150,14 +4150,14 @@
         <v>52</v>
       </c>
       <c r="I77" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J77" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4174,10 +4174,10 @@
         <v>44062</v>
       </c>
       <c r="E78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F78" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G78" s="13">
         <v>26653</v>
@@ -4187,16 +4187,16 @@
         <v>48</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J78" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K78" s="10">
         <v>44062</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -4213,10 +4213,10 @@
         <v>44062</v>
       </c>
       <c r="E79" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F79" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G79" s="13">
         <v>19105</v>
@@ -4226,16 +4226,16 @@
         <v>68</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J79" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K79" s="10">
         <v>44062</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -4252,10 +4252,10 @@
         <v>44061</v>
       </c>
       <c r="E80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F80" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G80" s="13">
         <v>22698</v>
@@ -4265,14 +4265,14 @@
         <v>58</v>
       </c>
       <c r="I80" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J80" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -4289,10 +4289,10 @@
         <v>44062</v>
       </c>
       <c r="E81" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F81" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G81" s="13">
         <v>26732</v>
@@ -4302,16 +4302,16 @@
         <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J81" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K81" s="10">
         <v>44062</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -4328,10 +4328,10 @@
         <v>44062</v>
       </c>
       <c r="E82" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G82" s="13">
         <v>24767</v>
@@ -4341,16 +4341,16 @@
         <v>53</v>
       </c>
       <c r="I82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J82" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K82" s="10">
         <v>44062</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -4367,10 +4367,10 @@
         <v>44062</v>
       </c>
       <c r="E83" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G83" s="13">
         <v>13455</v>
@@ -4380,16 +4380,16 @@
         <v>84</v>
       </c>
       <c r="I83" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J83" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K83" s="10">
         <v>44062</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -4406,10 +4406,10 @@
         <v>44062</v>
       </c>
       <c r="E84" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G84" s="13">
         <v>22305</v>
@@ -4419,16 +4419,16 @@
         <v>59</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J84" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K84" s="10">
         <v>44062</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -4445,10 +4445,10 @@
         <v>44062</v>
       </c>
       <c r="E85" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G85" s="13">
         <v>26500</v>
@@ -4458,16 +4458,16 @@
         <v>48</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J85" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K85" s="10">
         <v>44062</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -4484,10 +4484,10 @@
         <v>44062</v>
       </c>
       <c r="E86" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G86" s="13">
         <v>17801</v>
@@ -4497,16 +4497,16 @@
         <v>72</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J86" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K86" s="10">
         <v>44062</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -4523,10 +4523,10 @@
         <v>44062</v>
       </c>
       <c r="E87" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F87" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G87" s="13">
         <v>25491</v>
@@ -4536,16 +4536,16 @@
         <v>51</v>
       </c>
       <c r="I87" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J87" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K87" s="10">
         <v>44062</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -4562,10 +4562,10 @@
         <v>44062</v>
       </c>
       <c r="E88" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G88" s="13">
         <v>15859</v>
@@ -4575,16 +4575,16 @@
         <v>77</v>
       </c>
       <c r="I88" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J88" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K88" s="10">
         <v>44062</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -4601,10 +4601,10 @@
         <v>44062</v>
       </c>
       <c r="E89" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F89" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G89" s="13">
         <v>16455</v>
@@ -4614,16 +4614,16 @@
         <v>75</v>
       </c>
       <c r="I89" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J89" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K89" s="10">
         <v>44062</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -4640,10 +4640,10 @@
         <v>44062</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F90" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G90" s="13">
         <v>24173</v>
@@ -4653,16 +4653,16 @@
         <v>54</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J90" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K90" s="10">
         <v>44062</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4679,10 +4679,10 @@
         <v>44062</v>
       </c>
       <c r="E91" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G91" s="13">
         <v>22288</v>
@@ -4692,16 +4692,16 @@
         <v>59</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J91" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K91" s="10">
         <v>44062</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4718,10 +4718,10 @@
         <v>44061</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F92" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G92" s="13">
         <v>16933</v>
@@ -4731,14 +4731,14 @@
         <v>74</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J92" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4755,10 +4755,10 @@
         <v>44062</v>
       </c>
       <c r="E93" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F93" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G93" s="13">
         <v>16010</v>
@@ -4768,14 +4768,14 @@
         <v>77</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J93" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4792,10 +4792,10 @@
         <v>44062</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G94" s="13">
         <v>29680</v>
@@ -4805,14 +4805,14 @@
         <v>39</v>
       </c>
       <c r="I94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J94" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -4829,10 +4829,10 @@
         <v>44061</v>
       </c>
       <c r="E95" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G95" s="13">
         <v>26073</v>
@@ -4842,16 +4842,16 @@
         <v>49</v>
       </c>
       <c r="I95" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J95" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K95" s="10">
         <v>43837</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -4868,10 +4868,10 @@
         <v>44061</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G96" s="13">
         <v>24414</v>
@@ -4881,16 +4881,16 @@
         <v>54</v>
       </c>
       <c r="I96" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J96" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K96" s="10">
         <v>43837</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -4907,10 +4907,10 @@
         <v>44061</v>
       </c>
       <c r="E97" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F97" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G97" s="13">
         <v>20231</v>
@@ -4920,16 +4920,16 @@
         <v>65</v>
       </c>
       <c r="I97" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J97" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K97" s="10">
         <v>43837</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -4946,10 +4946,10 @@
         <v>44061</v>
       </c>
       <c r="E98" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G98" s="13">
         <v>20252</v>
@@ -4959,16 +4959,16 @@
         <v>65</v>
       </c>
       <c r="I98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J98" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K98" s="10">
         <v>43837</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -4985,10 +4985,10 @@
         <v>44062</v>
       </c>
       <c r="E99" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F99" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G99" s="13">
         <v>22882</v>
@@ -4998,16 +4998,16 @@
         <v>58</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J99" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K99" s="10">
         <v>43904</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -5024,10 +5024,10 @@
         <v>44061</v>
       </c>
       <c r="E100" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F100" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G100" s="13">
         <v>28573</v>
@@ -5037,14 +5037,14 @@
         <v>42</v>
       </c>
       <c r="I100" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J100" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K100" s="10"/>
       <c r="L100" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -5061,10 +5061,10 @@
         <v>44062</v>
       </c>
       <c r="E101" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G101" s="13">
         <v>22094</v>
@@ -5074,16 +5074,16 @@
         <v>60</v>
       </c>
       <c r="I101" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J101" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K101" s="10">
         <v>43837</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -5100,10 +5100,10 @@
         <v>44062</v>
       </c>
       <c r="E102" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G102" s="13">
         <v>23444</v>
@@ -5113,16 +5113,16 @@
         <v>56</v>
       </c>
       <c r="I102" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J102" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K102" s="10">
         <v>43837</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -5139,10 +5139,10 @@
         <v>44062</v>
       </c>
       <c r="E103" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F103" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G103" s="13">
         <v>19287</v>
@@ -5152,16 +5152,16 @@
         <v>68</v>
       </c>
       <c r="I103" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J103" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K103" s="10">
         <v>43837</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -5178,10 +5178,10 @@
         <v>44062</v>
       </c>
       <c r="E104" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F104" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G104" s="13">
         <v>20651</v>
@@ -5191,16 +5191,16 @@
         <v>64</v>
       </c>
       <c r="I104" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J104" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K104" s="10">
         <v>43837</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5217,10 +5217,10 @@
         <v>44062</v>
       </c>
       <c r="E105" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G105" s="13">
         <v>20797</v>
@@ -5230,16 +5230,16 @@
         <v>64</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J105" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K105" s="10">
         <v>43837</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -5256,10 +5256,10 @@
         <v>44062</v>
       </c>
       <c r="E106" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G106" s="13">
         <v>27361</v>
@@ -5269,16 +5269,16 @@
         <v>46</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J106" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K106" s="10">
         <v>43837</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -5295,10 +5295,10 @@
         <v>44062</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G107" s="13">
         <v>19103</v>
@@ -5308,16 +5308,16 @@
         <v>68</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J107" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K107" s="10">
         <v>43837</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -5334,10 +5334,10 @@
         <v>44061</v>
       </c>
       <c r="E108" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F108" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G108" s="13">
         <v>23776</v>
@@ -5347,14 +5347,14 @@
         <v>55</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K108" s="10"/>
       <c r="L108" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -5369,10 +5369,10 @@
       </c>
       <c r="D109" s="10"/>
       <c r="E109" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F109" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G109" s="10">
         <v>21953</v>
@@ -5382,10 +5382,10 @@
         <v>60</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J109" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K109" s="10"/>
       <c r="L109"/>
@@ -5404,10 +5404,10 @@
         <v>44061</v>
       </c>
       <c r="E110" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G110" s="13">
         <v>32533</v>
@@ -5417,14 +5417,14 @@
         <v>31</v>
       </c>
       <c r="I110" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J110" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K110" s="10"/>
       <c r="L110" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -5441,10 +5441,10 @@
         <v>44061</v>
       </c>
       <c r="E111" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G111" s="13">
         <v>31454</v>
@@ -5454,14 +5454,14 @@
         <v>34</v>
       </c>
       <c r="I111" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J111" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K111" s="10"/>
       <c r="L111" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -5478,10 +5478,10 @@
         <v>44061</v>
       </c>
       <c r="E112" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G112" s="13">
         <v>31783</v>
@@ -5491,14 +5491,14 @@
         <v>33</v>
       </c>
       <c r="I112" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K112" s="10"/>
       <c r="L112" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -5515,10 +5515,10 @@
         <v>44061</v>
       </c>
       <c r="E113" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G113" s="13">
         <v>26709</v>
@@ -5528,16 +5528,16 @@
         <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J113" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K113" s="10">
         <v>44036</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -5554,10 +5554,10 @@
         <v>44061</v>
       </c>
       <c r="E114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G114" s="13">
         <v>26900</v>
@@ -5567,16 +5567,16 @@
         <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J114" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K114" s="10">
         <v>44036</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -5593,10 +5593,10 @@
         <v>44061</v>
       </c>
       <c r="E115" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G115" s="13">
         <v>25885</v>
@@ -5606,16 +5606,16 @@
         <v>50</v>
       </c>
       <c r="I115" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J115" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K115" s="10">
         <v>44036</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -5632,10 +5632,10 @@
         <v>44061</v>
       </c>
       <c r="E116" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G116" s="13">
         <v>25750</v>
@@ -5645,16 +5645,16 @@
         <v>50</v>
       </c>
       <c r="I116" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J116" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K116" s="10">
         <v>44036</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -5671,10 +5671,10 @@
         <v>44061</v>
       </c>
       <c r="E117" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G117" s="13">
         <v>23332</v>
@@ -5684,16 +5684,16 @@
         <v>57</v>
       </c>
       <c r="I117" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J117" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K117" s="10">
         <v>44036</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -5710,10 +5710,10 @@
         <v>44061</v>
       </c>
       <c r="E118" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G118" s="13">
         <v>24014</v>
@@ -5723,16 +5723,16 @@
         <v>55</v>
       </c>
       <c r="I118" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J118" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K118" s="10">
         <v>44036</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -5749,10 +5749,10 @@
         <v>44061</v>
       </c>
       <c r="E119" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G119" s="13">
         <v>23226</v>
@@ -5762,14 +5762,14 @@
         <v>57</v>
       </c>
       <c r="I119" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J119" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K119" s="10"/>
       <c r="L119" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -5786,10 +5786,10 @@
         <v>44062</v>
       </c>
       <c r="E120" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G120" s="13">
         <v>24059</v>
@@ -5799,16 +5799,16 @@
         <v>55</v>
       </c>
       <c r="I120" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J120" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K120" s="10">
         <v>44062</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -5825,10 +5825,10 @@
         <v>44062</v>
       </c>
       <c r="E121" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G121" s="13">
         <v>23594</v>
@@ -5838,16 +5838,16 @@
         <v>56</v>
       </c>
       <c r="I121" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J121" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K121" s="10">
         <v>44062</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -5864,10 +5864,10 @@
         <v>44062</v>
       </c>
       <c r="E122" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G122" s="13">
         <v>23006</v>
@@ -5877,16 +5877,16 @@
         <v>58</v>
       </c>
       <c r="I122" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J122" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K122" s="10">
         <v>44062</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -5903,10 +5903,10 @@
         <v>44061</v>
       </c>
       <c r="E123" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G123" s="13">
         <v>30347</v>
@@ -5916,14 +5916,14 @@
         <v>37</v>
       </c>
       <c r="I123" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J123" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K123" s="10"/>
       <c r="L123" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -5938,10 +5938,10 @@
       </c>
       <c r="D124" s="10"/>
       <c r="E124" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G124" s="13">
         <v>20371</v>
@@ -5951,10 +5951,10 @@
         <v>65</v>
       </c>
       <c r="I124" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J124" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K124" s="10"/>
       <c r="L124"/>
@@ -5973,10 +5973,10 @@
         <v>44061</v>
       </c>
       <c r="E125" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G125" s="13">
         <v>32261</v>
@@ -5986,14 +5986,14 @@
         <v>32</v>
       </c>
       <c r="I125" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K125" s="10"/>
       <c r="L125" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -6010,10 +6010,10 @@
         <v>44061</v>
       </c>
       <c r="E126" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G126" s="13">
         <v>31868</v>
@@ -6023,14 +6023,14 @@
         <v>33</v>
       </c>
       <c r="I126" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K126" s="10"/>
       <c r="L126" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -6047,10 +6047,10 @@
         <v>44061</v>
       </c>
       <c r="E127" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G127" s="13">
         <v>25691</v>
@@ -6060,14 +6060,14 @@
         <v>50</v>
       </c>
       <c r="I127" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J127" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K127" s="10"/>
       <c r="L127" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -6084,10 +6084,10 @@
         <v>44061</v>
       </c>
       <c r="E128" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G128" s="13">
         <v>22559</v>
@@ -6097,14 +6097,14 @@
         <v>59</v>
       </c>
       <c r="I128" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J128" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K128" s="10"/>
       <c r="L128" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -6121,10 +6121,10 @@
         <v>44061</v>
       </c>
       <c r="E129" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G129" s="13">
         <v>16607</v>
@@ -6134,14 +6134,14 @@
         <v>75</v>
       </c>
       <c r="I129" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J129" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K129" s="10"/>
       <c r="L129" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -6158,10 +6158,10 @@
         <v>44061</v>
       </c>
       <c r="E130" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G130" s="13">
         <v>18196</v>
@@ -6171,14 +6171,14 @@
         <v>71</v>
       </c>
       <c r="I130" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -6195,10 +6195,10 @@
         <v>44061</v>
       </c>
       <c r="E131" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G131" s="13">
         <v>25940</v>
@@ -6208,14 +6208,14 @@
         <v>49</v>
       </c>
       <c r="I131" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J131" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K131" s="10"/>
       <c r="L131" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -6232,10 +6232,10 @@
         <v>44062</v>
       </c>
       <c r="E132" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G132" s="13">
         <v>16008</v>
@@ -6245,16 +6245,16 @@
         <v>77</v>
       </c>
       <c r="I132" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J132" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K132" s="10">
         <v>44062</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -6271,10 +6271,10 @@
         <v>44061</v>
       </c>
       <c r="E133" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G133" s="13">
         <v>19657</v>
@@ -6284,14 +6284,14 @@
         <v>67</v>
       </c>
       <c r="I133" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J133" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K133" s="10"/>
       <c r="L133" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -6308,10 +6308,10 @@
         <v>44062</v>
       </c>
       <c r="E134" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G134" s="13">
         <v>31247</v>
@@ -6321,16 +6321,16 @@
         <v>35</v>
       </c>
       <c r="I134" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J134" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K134" s="10">
         <v>44062</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -6347,10 +6347,10 @@
         <v>44062</v>
       </c>
       <c r="E135" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G135" s="13">
         <v>20255</v>
@@ -6360,16 +6360,16 @@
         <v>65</v>
       </c>
       <c r="I135" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J135" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K135" s="10">
         <v>44062</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -6386,10 +6386,10 @@
         <v>44062</v>
       </c>
       <c r="E136" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G136" s="13">
         <v>17116</v>
@@ -6399,16 +6399,16 @@
         <v>74</v>
       </c>
       <c r="I136" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J136" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K136" s="10">
         <v>44062</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -6425,10 +6425,10 @@
         <v>44062</v>
       </c>
       <c r="E137" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G137" s="13">
         <v>15302</v>
@@ -6438,16 +6438,16 @@
         <v>79</v>
       </c>
       <c r="I137" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J137" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K137" s="10">
         <v>44062</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -6464,10 +6464,10 @@
         <v>44062</v>
       </c>
       <c r="E138" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G138" s="13">
         <v>27851</v>
@@ -6477,16 +6477,16 @@
         <v>44</v>
       </c>
       <c r="I138" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J138" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K138" s="10">
         <v>44062</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -6503,10 +6503,10 @@
         <v>44061</v>
       </c>
       <c r="E139" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G139" s="13">
         <v>28018</v>
@@ -6516,14 +6516,14 @@
         <v>44</v>
       </c>
       <c r="I139" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J139" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K139" s="10"/>
       <c r="L139" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -6540,10 +6540,10 @@
         <v>44062</v>
       </c>
       <c r="E140" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G140" s="13">
         <v>32101</v>
@@ -6553,16 +6553,16 @@
         <v>33</v>
       </c>
       <c r="I140" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J140" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K140" s="10">
         <v>44062</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -6579,10 +6579,10 @@
         <v>44062</v>
       </c>
       <c r="E141" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G141" s="13">
         <v>27678</v>
@@ -6592,16 +6592,16 @@
         <v>45</v>
       </c>
       <c r="I141" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J141" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K141" s="10">
         <v>44062</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -6618,10 +6618,10 @@
         <v>44062</v>
       </c>
       <c r="E142" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G142" s="13">
         <v>21157</v>
@@ -6631,16 +6631,16 @@
         <v>63</v>
       </c>
       <c r="I142" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J142" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K142" s="10">
         <v>44062</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -6657,10 +6657,10 @@
         <v>44062</v>
       </c>
       <c r="E143" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G143" s="13">
         <v>19343</v>
@@ -6670,16 +6670,16 @@
         <v>68</v>
       </c>
       <c r="I143" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J143" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K143" s="10">
         <v>44062</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -6696,10 +6696,10 @@
         <v>44062</v>
       </c>
       <c r="E144" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G144" s="13">
         <v>18196</v>
@@ -6709,16 +6709,16 @@
         <v>71</v>
       </c>
       <c r="I144" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J144" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K144" s="10">
         <v>44062</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -6735,10 +6735,10 @@
         <v>44062</v>
       </c>
       <c r="E145" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G145" s="13">
         <v>23371</v>
@@ -6748,16 +6748,16 @@
         <v>57</v>
       </c>
       <c r="I145" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J145" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K145" s="10">
         <v>44062</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -6774,10 +6774,10 @@
         <v>44061</v>
       </c>
       <c r="E146" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G146" s="13">
         <v>26864</v>
@@ -6787,14 +6787,14 @@
         <v>47</v>
       </c>
       <c r="I146" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J146" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K146" s="10"/>
       <c r="L146" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -6811,10 +6811,10 @@
         <v>44062</v>
       </c>
       <c r="E147" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G147" s="13">
         <v>26445</v>
@@ -6824,16 +6824,16 @@
         <v>48</v>
       </c>
       <c r="I147" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J147" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K147" s="10">
         <v>43887</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -6850,10 +6850,10 @@
         <v>44062</v>
       </c>
       <c r="E148" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G148" s="13">
         <v>16725</v>
@@ -6863,16 +6863,16 @@
         <v>75</v>
       </c>
       <c r="I148" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J148" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K148" s="10">
         <v>43817</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -6889,10 +6889,10 @@
         <v>44061</v>
       </c>
       <c r="E149" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G149" s="13">
         <v>20655</v>
@@ -6902,14 +6902,14 @@
         <v>64</v>
       </c>
       <c r="I149" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J149" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K149" s="10"/>
       <c r="L149" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -6926,10 +6926,10 @@
         <v>44061</v>
       </c>
       <c r="E150" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G150" s="13">
         <v>22250</v>
@@ -6939,14 +6939,14 @@
         <v>60</v>
       </c>
       <c r="I150" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J150" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K150" s="10"/>
       <c r="L150" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -6963,10 +6963,10 @@
         <v>44061</v>
       </c>
       <c r="E151" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G151" s="13">
         <v>33308</v>
@@ -6976,14 +6976,14 @@
         <v>29</v>
       </c>
       <c r="I151" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J151" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K151" s="10"/>
       <c r="L151" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -7000,10 +7000,10 @@
         <v>44061</v>
       </c>
       <c r="E152" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G152" s="13">
         <v>28888</v>
@@ -7013,14 +7013,14 @@
         <v>41</v>
       </c>
       <c r="I152" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J152" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K152" s="10"/>
       <c r="L152" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -7037,10 +7037,10 @@
         <v>44061</v>
       </c>
       <c r="E153" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G153" s="13">
         <v>31920</v>
@@ -7050,14 +7050,14 @@
         <v>33</v>
       </c>
       <c r="I153" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J153" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K153" s="10"/>
       <c r="L153" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -7074,10 +7074,10 @@
         <v>44061</v>
       </c>
       <c r="E154" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G154" s="13">
         <v>25397</v>
@@ -7087,14 +7087,14 @@
         <v>51</v>
       </c>
       <c r="I154" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J154" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K154" s="10"/>
       <c r="L154" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -7111,10 +7111,10 @@
         <v>44062</v>
       </c>
       <c r="E155" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G155" s="13">
         <v>21338</v>
@@ -7124,16 +7124,16 @@
         <v>62</v>
       </c>
       <c r="I155" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J155" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K155" s="10">
         <v>44062</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -7150,10 +7150,10 @@
         <v>44062</v>
       </c>
       <c r="E156" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G156" s="13">
         <v>26802</v>
@@ -7163,16 +7163,16 @@
         <v>47</v>
       </c>
       <c r="I156" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J156" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K156" s="10">
         <v>44062</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -7189,10 +7189,10 @@
         <v>44061</v>
       </c>
       <c r="E157" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G157" s="13">
         <v>20281</v>
@@ -7202,14 +7202,14 @@
         <v>65</v>
       </c>
       <c r="I157" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J157" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K157" s="10"/>
       <c r="L157" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -7226,10 +7226,10 @@
         <v>44062</v>
       </c>
       <c r="E158" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G158" s="13">
         <v>15245</v>
@@ -7239,16 +7239,16 @@
         <v>79</v>
       </c>
       <c r="I158" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J158" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K158" s="10">
         <v>44062</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -7265,10 +7265,10 @@
         <v>44062</v>
       </c>
       <c r="E159" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G159" s="13">
         <v>22890</v>
@@ -7278,16 +7278,16 @@
         <v>58</v>
       </c>
       <c r="I159" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J159" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K159" s="10">
         <v>44062</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -7304,10 +7304,10 @@
         <v>44061</v>
       </c>
       <c r="E160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G160" s="13">
         <v>23367</v>
@@ -7317,14 +7317,14 @@
         <v>57</v>
       </c>
       <c r="I160" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J160" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K160" s="10"/>
       <c r="L160" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -7341,10 +7341,10 @@
         <v>44062</v>
       </c>
       <c r="E161" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G161" s="13">
         <v>24717</v>
@@ -7354,16 +7354,16 @@
         <v>53</v>
       </c>
       <c r="I161" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J161" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K161" s="10">
         <v>44062</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -7380,10 +7380,10 @@
         <v>44062</v>
       </c>
       <c r="E162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G162" s="13">
         <v>22655</v>
@@ -7393,16 +7393,16 @@
         <v>58</v>
       </c>
       <c r="I162" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J162" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K162" s="10">
         <v>44062</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -7419,10 +7419,10 @@
         <v>44062</v>
       </c>
       <c r="E163" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G163" s="13">
         <v>27508</v>
@@ -7432,16 +7432,16 @@
         <v>45</v>
       </c>
       <c r="I163" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J163" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K163" s="10">
         <v>44055</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -7458,10 +7458,10 @@
         <v>44062</v>
       </c>
       <c r="E164" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G164" s="13">
         <v>20885</v>
@@ -7471,16 +7471,16 @@
         <v>63</v>
       </c>
       <c r="I164" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J164" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K164" s="10">
         <v>44055</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -7497,10 +7497,10 @@
         <v>44062</v>
       </c>
       <c r="E165" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G165" s="13">
         <v>21958</v>
@@ -7510,16 +7510,16 @@
         <v>60</v>
       </c>
       <c r="I165" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J165" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K165" s="10">
         <v>44055</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -7536,10 +7536,10 @@
         <v>44062</v>
       </c>
       <c r="E166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G166" s="13">
         <v>21970</v>
@@ -7549,16 +7549,16 @@
         <v>60</v>
       </c>
       <c r="I166" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J166" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K166" s="10">
         <v>44055</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -7575,10 +7575,10 @@
         <v>44062</v>
       </c>
       <c r="E167" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G167" s="13">
         <v>16997</v>
@@ -7588,16 +7588,16 @@
         <v>74</v>
       </c>
       <c r="I167" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J167" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K167" s="10">
         <v>44055</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -7614,10 +7614,10 @@
         <v>44062</v>
       </c>
       <c r="E168" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G168" s="13">
         <v>14974</v>
@@ -7627,16 +7627,16 @@
         <v>80</v>
       </c>
       <c r="I168" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J168" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K168" s="10">
         <v>44055</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -7653,10 +7653,10 @@
         <v>44062</v>
       </c>
       <c r="E169" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G169" s="13">
         <v>25566</v>
@@ -7666,16 +7666,16 @@
         <v>51</v>
       </c>
       <c r="I169" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J169" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K169" s="10">
         <v>44055</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -7692,10 +7692,10 @@
         <v>44062</v>
       </c>
       <c r="E170" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G170" s="13">
         <v>16390</v>
@@ -7705,16 +7705,16 @@
         <v>76</v>
       </c>
       <c r="I170" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J170" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K170" s="10">
         <v>44055</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -7731,10 +7731,10 @@
         <v>44061</v>
       </c>
       <c r="E171" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G171" s="13">
         <v>25970</v>
@@ -7744,14 +7744,14 @@
         <v>49</v>
       </c>
       <c r="I171" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J171" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K171" s="10"/>
       <c r="L171" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -7768,10 +7768,10 @@
         <v>44062</v>
       </c>
       <c r="E172" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G172" s="13">
         <v>27118</v>
@@ -7781,16 +7781,16 @@
         <v>46</v>
       </c>
       <c r="I172" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J172" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K172" s="10">
         <v>44062</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -7807,10 +7807,10 @@
         <v>44062</v>
       </c>
       <c r="E173" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G173" s="13">
         <v>22024</v>
@@ -7820,16 +7820,16 @@
         <v>60</v>
       </c>
       <c r="I173" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J173" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K173" s="10">
         <v>44062</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -7846,10 +7846,10 @@
         <v>44062</v>
       </c>
       <c r="E174" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G174" s="13">
         <v>32142</v>
@@ -7859,16 +7859,16 @@
         <v>33</v>
       </c>
       <c r="I174" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J174" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K174" s="10">
         <v>44062</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -7885,10 +7885,10 @@
         <v>44062</v>
       </c>
       <c r="E175" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G175" s="13">
         <v>25592</v>
@@ -7898,16 +7898,16 @@
         <v>50</v>
       </c>
       <c r="I175" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J175" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K175" s="10">
         <v>44062</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -7924,10 +7924,10 @@
         <v>44061</v>
       </c>
       <c r="E176" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G176" s="13">
         <v>25846</v>
@@ -7937,14 +7937,14 @@
         <v>50</v>
       </c>
       <c r="I176" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J176" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K176" s="10"/>
       <c r="L176" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -7961,10 +7961,10 @@
         <v>44062</v>
       </c>
       <c r="E177" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G177" s="13">
         <v>27112</v>
@@ -7974,16 +7974,16 @@
         <v>46</v>
       </c>
       <c r="I177" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J177" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K177" s="10">
         <v>44062</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -8000,10 +8000,10 @@
         <v>44062</v>
       </c>
       <c r="E178" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G178" s="13">
         <v>23902</v>
@@ -8013,16 +8013,16 @@
         <v>55</v>
       </c>
       <c r="I178" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J178" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K178" s="10">
         <v>44062</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -8039,10 +8039,10 @@
         <v>44061</v>
       </c>
       <c r="E179" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G179" s="13">
         <v>18640</v>
@@ -8052,14 +8052,14 @@
         <v>69</v>
       </c>
       <c r="I179" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J179" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K179" s="10"/>
       <c r="L179" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -8076,10 +8076,10 @@
         <v>44062</v>
       </c>
       <c r="E180" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G180" s="13">
         <v>25067</v>
@@ -8089,16 +8089,16 @@
         <v>52</v>
       </c>
       <c r="I180" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J180" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K180" s="10">
         <v>44062</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -8115,10 +8115,10 @@
         <v>44061</v>
       </c>
       <c r="E181" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G181" s="13">
         <v>21445</v>
@@ -8128,14 +8128,14 @@
         <v>62</v>
       </c>
       <c r="I181" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J181" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K181" s="10"/>
       <c r="L181" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -8152,10 +8152,10 @@
         <v>44062</v>
       </c>
       <c r="E182" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G182" s="13">
         <v>24964</v>
@@ -8165,16 +8165,16 @@
         <v>52</v>
       </c>
       <c r="I182" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J182" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K182" s="10">
         <v>44062</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -8191,10 +8191,10 @@
         <v>44062</v>
       </c>
       <c r="E183" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G183" s="13">
         <v>20415</v>
@@ -8204,16 +8204,16 @@
         <v>65</v>
       </c>
       <c r="I183" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J183" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K183" s="10">
         <v>44062</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -8230,10 +8230,10 @@
         <v>44062</v>
       </c>
       <c r="E184" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G184" s="13">
         <v>18781</v>
@@ -8243,16 +8243,16 @@
         <v>69</v>
       </c>
       <c r="I184" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J184" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K184" s="10">
         <v>44062</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -8269,10 +8269,10 @@
         <v>44061</v>
       </c>
       <c r="E185" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G185" s="13">
         <v>32771</v>
@@ -8282,14 +8282,14 @@
         <v>31</v>
       </c>
       <c r="I185" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J185" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K185" s="10"/>
       <c r="L185" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -8306,10 +8306,10 @@
         <v>44062</v>
       </c>
       <c r="E186" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G186" s="13">
         <v>18036</v>
@@ -8319,16 +8319,16 @@
         <v>71</v>
       </c>
       <c r="I186" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J186" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K186" s="10">
         <v>44062</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -8345,10 +8345,10 @@
         <v>44062</v>
       </c>
       <c r="E187" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G187" s="13">
         <v>24242</v>
@@ -8358,16 +8358,16 @@
         <v>54</v>
       </c>
       <c r="I187" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J187" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K187" s="10">
         <v>44062</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -8384,10 +8384,10 @@
         <v>44061</v>
       </c>
       <c r="E188" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G188" s="13">
         <v>26203</v>
@@ -8397,14 +8397,14 @@
         <v>49</v>
       </c>
       <c r="I188" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J188" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K188" s="10"/>
       <c r="L188" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -8421,10 +8421,10 @@
         <v>44062</v>
       </c>
       <c r="E189" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G189" s="13">
         <v>14047</v>
@@ -8434,16 +8434,16 @@
         <v>82</v>
       </c>
       <c r="I189" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J189" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K189" s="10">
         <v>44062</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -8460,10 +8460,10 @@
         <v>44061</v>
       </c>
       <c r="E190" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G190" s="13">
         <v>29287</v>
@@ -8473,14 +8473,14 @@
         <v>40</v>
       </c>
       <c r="I190" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J190" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K190" s="10"/>
       <c r="L190" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -8497,10 +8497,10 @@
         <v>44062</v>
       </c>
       <c r="E191" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G191" s="13">
         <v>17079</v>
@@ -8510,16 +8510,16 @@
         <v>74</v>
       </c>
       <c r="I191" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J191" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K191" s="10">
         <v>43839</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -8536,10 +8536,10 @@
         <v>44069</v>
       </c>
       <c r="E192" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G192" s="13">
         <v>27246</v>
@@ -8549,14 +8549,14 @@
         <v>46</v>
       </c>
       <c r="I192" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J192" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K192" s="10"/>
       <c r="L192" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -8571,10 +8571,10 @@
       </c>
       <c r="D193" s="10"/>
       <c r="E193" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G193" s="13">
         <v>27492</v>
@@ -8584,10 +8584,10 @@
         <v>45</v>
       </c>
       <c r="I193" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J193" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K193" s="10"/>
       <c r="L193"/>
@@ -8606,10 +8606,10 @@
         <v>44062</v>
       </c>
       <c r="E194" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G194" s="13">
         <v>26205</v>
@@ -8619,16 +8619,16 @@
         <v>49</v>
       </c>
       <c r="I194" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J194" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K194" s="10">
         <v>43839</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -8645,10 +8645,10 @@
         <v>44062</v>
       </c>
       <c r="E195" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G195" s="13">
         <v>25149</v>
@@ -8658,16 +8658,16 @@
         <v>52</v>
       </c>
       <c r="I195" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J195" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K195" s="10">
         <v>43904</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -8684,10 +8684,10 @@
         <v>44062</v>
       </c>
       <c r="E196" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G196" s="13">
         <v>26299</v>
@@ -8697,16 +8697,16 @@
         <v>48</v>
       </c>
       <c r="I196" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J196" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K196" s="10">
         <v>43839</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -8721,10 +8721,10 @@
       </c>
       <c r="D197" s="10"/>
       <c r="E197" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G197" s="13">
         <v>29572</v>
@@ -8734,10 +8734,10 @@
         <v>40</v>
       </c>
       <c r="I197" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J197" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K197" s="10"/>
       <c r="L197"/>
@@ -8754,10 +8754,10 @@
       </c>
       <c r="D198" s="10"/>
       <c r="E198" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G198" s="13">
         <v>24666</v>
@@ -8767,10 +8767,10 @@
         <v>53</v>
       </c>
       <c r="I198" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J198" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K198" s="10"/>
       <c r="L198"/>
@@ -8789,10 +8789,10 @@
         <v>44061</v>
       </c>
       <c r="E199" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G199" s="13">
         <v>31817</v>
@@ -8802,14 +8802,14 @@
         <v>33</v>
       </c>
       <c r="I199" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J199" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K199" s="10"/>
       <c r="L199" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -8824,10 +8824,10 @@
       </c>
       <c r="D200" s="10"/>
       <c r="E200" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G200" s="13">
         <v>26833</v>
@@ -8837,10 +8837,10 @@
         <v>47</v>
       </c>
       <c r="I200" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J200" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K200" s="10"/>
       <c r="L200"/>
@@ -8857,10 +8857,10 @@
       </c>
       <c r="D201" s="10"/>
       <c r="E201" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G201" s="13">
         <v>19566</v>
@@ -8870,10 +8870,10 @@
         <v>67</v>
       </c>
       <c r="I201" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J201" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K201" s="10"/>
       <c r="L201"/>
@@ -8890,10 +8890,10 @@
       </c>
       <c r="D202" s="10"/>
       <c r="E202" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G202" s="13">
         <v>18407</v>
@@ -8903,10 +8903,10 @@
         <v>70</v>
       </c>
       <c r="I202" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J202" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K202" s="10"/>
       <c r="L202"/>
@@ -8923,10 +8923,10 @@
       </c>
       <c r="D203" s="10"/>
       <c r="E203" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G203" s="13">
         <v>19434</v>
@@ -8936,10 +8936,10 @@
         <v>67</v>
       </c>
       <c r="I203" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J203" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K203" s="10"/>
       <c r="L203"/>
@@ -8958,10 +8958,10 @@
         <v>44062</v>
       </c>
       <c r="E204" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G204" s="13">
         <v>29549</v>
@@ -8971,16 +8971,16 @@
         <v>40</v>
       </c>
       <c r="I204" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J204" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K204" s="10">
         <v>43839</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -8997,10 +8997,10 @@
         <v>44062</v>
       </c>
       <c r="E205" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G205" s="13">
         <v>26133</v>
@@ -9010,16 +9010,16 @@
         <v>49</v>
       </c>
       <c r="I205" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J205" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K205" s="10">
         <v>43861</v>
       </c>
       <c r="L205" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -9036,10 +9036,10 @@
         <v>44062</v>
       </c>
       <c r="E206" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G206" s="13">
         <v>21548</v>
@@ -9049,16 +9049,16 @@
         <v>62</v>
       </c>
       <c r="I206" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J206" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K206" s="10">
         <v>43839</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -9075,10 +9075,10 @@
         <v>44062</v>
       </c>
       <c r="E207" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G207" s="13">
         <v>27763</v>
@@ -9088,16 +9088,16 @@
         <v>44</v>
       </c>
       <c r="I207" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J207" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K207" s="10">
         <v>43891</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9114,10 +9114,10 @@
         <v>44062</v>
       </c>
       <c r="E208" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G208" s="13">
         <v>22263</v>
@@ -9127,16 +9127,16 @@
         <v>60</v>
       </c>
       <c r="I208" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J208" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K208" s="10">
         <v>43861</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -9153,10 +9153,10 @@
         <v>44062</v>
       </c>
       <c r="E209" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G209" s="13">
         <v>31990</v>
@@ -9166,16 +9166,16 @@
         <v>33</v>
       </c>
       <c r="I209" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J209" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K209" s="10">
         <v>43839</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
@@ -9190,10 +9190,10 @@
       </c>
       <c r="D210" s="10"/>
       <c r="E210" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G210" s="13">
         <v>30315</v>
@@ -9203,10 +9203,10 @@
         <v>38</v>
       </c>
       <c r="I210" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J210" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K210" s="10"/>
       <c r="L210"/>
@@ -9223,10 +9223,10 @@
       </c>
       <c r="D211" s="10"/>
       <c r="E211" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G211" s="13">
         <v>20907</v>
@@ -9236,10 +9236,10 @@
         <v>63</v>
       </c>
       <c r="I211" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J211" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K211" s="10"/>
       <c r="L211"/>
@@ -9256,10 +9256,10 @@
       </c>
       <c r="D212" s="10"/>
       <c r="E212" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G212" s="13">
         <v>21674</v>
@@ -9269,10 +9269,10 @@
         <v>61</v>
       </c>
       <c r="I212" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J212" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K212" s="10"/>
       <c r="L212"/>
@@ -9291,10 +9291,10 @@
         <v>44062</v>
       </c>
       <c r="E213" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G213" s="13">
         <v>24834</v>
@@ -9304,16 +9304,16 @@
         <v>53</v>
       </c>
       <c r="I213" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J213" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K213" s="10">
         <v>43861</v>
       </c>
       <c r="L213" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -9330,10 +9330,10 @@
         <v>44062</v>
       </c>
       <c r="E214" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G214" s="13">
         <v>27004</v>
@@ -9343,16 +9343,16 @@
         <v>47</v>
       </c>
       <c r="I214" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J214" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K214" s="10">
         <v>43904</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -9369,10 +9369,10 @@
         <v>44069</v>
       </c>
       <c r="E215" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G215" s="13">
         <v>20377</v>
@@ -9382,14 +9382,14 @@
         <v>65</v>
       </c>
       <c r="I215" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J215" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K215" s="10"/>
       <c r="L215" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
@@ -9404,10 +9404,10 @@
       </c>
       <c r="D216" s="10"/>
       <c r="E216" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G216" s="13">
         <v>23941</v>
@@ -9417,10 +9417,10 @@
         <v>55</v>
       </c>
       <c r="I216" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J216" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K216" s="10"/>
       <c r="L216"/>
@@ -9437,10 +9437,10 @@
       </c>
       <c r="D217" s="10"/>
       <c r="E217" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G217" s="13">
         <v>26624</v>
@@ -9450,10 +9450,10 @@
         <v>48</v>
       </c>
       <c r="I217" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J217" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K217" s="10"/>
       <c r="L217"/>
@@ -9472,10 +9472,10 @@
         <v>44061</v>
       </c>
       <c r="E218" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G218" s="13">
         <v>31120</v>
@@ -9485,14 +9485,14 @@
         <v>35</v>
       </c>
       <c r="I218" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J218" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K218" s="10"/>
       <c r="L218" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
@@ -9509,10 +9509,10 @@
         <v>44062</v>
       </c>
       <c r="E219" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G219" s="13">
         <v>29623</v>
@@ -9522,14 +9522,14 @@
         <v>39</v>
       </c>
       <c r="I219" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J219" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K219" s="10"/>
       <c r="L219" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
@@ -9546,10 +9546,10 @@
         <v>44062</v>
       </c>
       <c r="E220" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G220" s="13">
         <v>27719</v>
@@ -9559,19 +9559,19 @@
         <v>45</v>
       </c>
       <c r="I220" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J220" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K220" s="10">
         <v>43839</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
@@ -9586,10 +9586,10 @@
       </c>
       <c r="D221" s="10"/>
       <c r="E221" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G221" s="13">
         <v>25084</v>
@@ -9599,10 +9599,10 @@
         <v>52</v>
       </c>
       <c r="I221" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J221" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K221" s="10"/>
       <c r="L221"/>
@@ -9621,10 +9621,10 @@
         <v>44062</v>
       </c>
       <c r="E222" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G222" s="13">
         <v>30097</v>
@@ -9634,16 +9634,16 @@
         <v>38</v>
       </c>
       <c r="I222" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J222" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K222" s="10">
         <v>43904</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
@@ -9660,10 +9660,10 @@
         <v>44069</v>
       </c>
       <c r="E223" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G223" s="13">
         <v>23358</v>
@@ -9673,14 +9673,14 @@
         <v>57</v>
       </c>
       <c r="I223" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J223" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K223" s="10"/>
       <c r="L223" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
@@ -9697,10 +9697,10 @@
         <v>44069</v>
       </c>
       <c r="E224" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F224" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G224" s="10">
         <v>32980</v>
@@ -9710,14 +9710,14 @@
         <v>30</v>
       </c>
       <c r="I224" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J224" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K224" s="10"/>
       <c r="L224" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -9734,10 +9734,10 @@
         <v>44069</v>
       </c>
       <c r="E225" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F225" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G225" s="10">
         <v>31116</v>
@@ -9747,14 +9747,14 @@
         <v>35</v>
       </c>
       <c r="I225" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J225" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K225" s="10"/>
       <c r="L225" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -9771,10 +9771,10 @@
         <v>44061</v>
       </c>
       <c r="E226" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G226" s="13">
         <v>30164</v>
@@ -9784,14 +9784,14 @@
         <v>38</v>
       </c>
       <c r="I226" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J226" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K226" s="10"/>
       <c r="L226" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -9808,10 +9808,10 @@
         <v>44061</v>
       </c>
       <c r="E227" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G227" s="13">
         <v>31562</v>
@@ -9821,14 +9821,14 @@
         <v>34</v>
       </c>
       <c r="I227" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J227" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K227" s="10"/>
       <c r="L227" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -9845,10 +9845,10 @@
         <v>44061</v>
       </c>
       <c r="E228" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G228" s="13">
         <v>33225</v>
@@ -9858,14 +9858,14 @@
         <v>30</v>
       </c>
       <c r="I228" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J228" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K228" s="10"/>
       <c r="L228" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -9882,10 +9882,10 @@
         <v>44061</v>
       </c>
       <c r="E229" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F229" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G229" s="13">
         <v>30491</v>
@@ -9895,14 +9895,14 @@
         <v>37</v>
       </c>
       <c r="I229" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J229" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K229" s="10"/>
       <c r="L229" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -9919,10 +9919,10 @@
         <v>44061</v>
       </c>
       <c r="E230" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G230" s="13">
         <v>32481</v>
@@ -9932,14 +9932,14 @@
         <v>32</v>
       </c>
       <c r="I230" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J230" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K230" s="10"/>
       <c r="L230" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -9956,10 +9956,10 @@
         <v>44062</v>
       </c>
       <c r="E231" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G231" s="13">
         <v>32885</v>
@@ -9969,14 +9969,14 @@
         <v>30</v>
       </c>
       <c r="I231" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J231" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K231" s="10"/>
       <c r="L231" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -9993,10 +9993,10 @@
         <v>44062</v>
       </c>
       <c r="E232" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G232" s="13">
         <v>31146</v>
@@ -10006,14 +10006,14 @@
         <v>35</v>
       </c>
       <c r="I232" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J232" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K232" s="10"/>
       <c r="L232" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -10030,10 +10030,10 @@
         <v>44061</v>
       </c>
       <c r="E233" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G233" s="13">
         <v>31814</v>
@@ -10043,14 +10043,14 @@
         <v>33</v>
       </c>
       <c r="I233" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J233" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K233" s="10"/>
       <c r="L233" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -10067,10 +10067,10 @@
         <v>44062</v>
       </c>
       <c r="E234" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F234" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G234" s="13">
         <v>32196</v>
@@ -10080,14 +10080,14 @@
         <v>32</v>
       </c>
       <c r="I234" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J234" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K234" s="10"/>
       <c r="L234" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -10104,10 +10104,10 @@
         <v>44062</v>
       </c>
       <c r="E235" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G235" s="13">
         <v>20417</v>
@@ -10117,16 +10117,16 @@
         <v>65</v>
       </c>
       <c r="I235" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J235" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K235" s="10">
         <v>43867</v>
       </c>
       <c r="L235" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -10141,10 +10141,10 @@
       </c>
       <c r="D236" s="10"/>
       <c r="E236" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G236" s="13">
         <v>19630</v>
@@ -10154,10 +10154,10 @@
         <v>67</v>
       </c>
       <c r="I236" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J236" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K236" s="10"/>
       <c r="L236"/>
@@ -10174,10 +10174,10 @@
       </c>
       <c r="D237" s="10"/>
       <c r="E237" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G237" s="13">
         <v>21249</v>
@@ -10187,10 +10187,10 @@
         <v>62</v>
       </c>
       <c r="I237" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J237" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K237" s="10"/>
       <c r="L237"/>
@@ -10209,10 +10209,10 @@
         <v>44069</v>
       </c>
       <c r="E238" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G238" s="13">
         <v>21269</v>
@@ -10222,14 +10222,14 @@
         <v>62</v>
       </c>
       <c r="I238" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J238" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K238" s="10"/>
       <c r="L238" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -10244,10 +10244,10 @@
       </c>
       <c r="D239" s="10"/>
       <c r="E239" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G239" s="13">
         <v>29503</v>
@@ -10257,10 +10257,10 @@
         <v>40</v>
       </c>
       <c r="I239" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J239" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K239" s="10"/>
       <c r="L239"/>
@@ -10277,10 +10277,10 @@
       </c>
       <c r="D240" s="10"/>
       <c r="E240" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G240" s="13">
         <v>26846</v>
@@ -10290,10 +10290,10 @@
         <v>47</v>
       </c>
       <c r="I240" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J240" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K240" s="10"/>
       <c r="L240"/>
@@ -10310,10 +10310,10 @@
       </c>
       <c r="D241" s="10"/>
       <c r="E241" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G241" s="13">
         <v>24000</v>
@@ -10323,10 +10323,10 @@
         <v>55</v>
       </c>
       <c r="I241" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J241" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K241" s="10"/>
       <c r="L241"/>
@@ -10343,10 +10343,10 @@
       </c>
       <c r="D242" s="10"/>
       <c r="E242" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F242" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G242" s="13">
         <v>19943</v>
@@ -10356,10 +10356,10 @@
         <v>66</v>
       </c>
       <c r="I242" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J242" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K242" s="10"/>
       <c r="L242"/>
@@ -10378,10 +10378,10 @@
         <v>44061</v>
       </c>
       <c r="E243" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F243" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G243" s="13">
         <v>28122</v>
@@ -10391,14 +10391,14 @@
         <v>44</v>
       </c>
       <c r="I243" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J243" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K243" s="10"/>
       <c r="L243" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -10413,10 +10413,10 @@
       </c>
       <c r="D244" s="10"/>
       <c r="E244" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G244" s="13">
         <v>29350</v>
@@ -10426,10 +10426,10 @@
         <v>40</v>
       </c>
       <c r="I244" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J244" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K244" s="10"/>
       <c r="L244"/>
@@ -10448,10 +10448,10 @@
         <v>44062</v>
       </c>
       <c r="E245" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G245" s="13">
         <v>29000</v>
@@ -10461,16 +10461,16 @@
         <v>41</v>
       </c>
       <c r="I245" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J245" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K245" s="10">
         <v>43867</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -10485,10 +10485,10 @@
       </c>
       <c r="D246" s="10"/>
       <c r="E246" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G246" s="13">
         <v>28805</v>
@@ -10498,10 +10498,10 @@
         <v>42</v>
       </c>
       <c r="I246" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J246" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K246" s="10"/>
       <c r="L246"/>
@@ -10518,10 +10518,10 @@
       </c>
       <c r="D247" s="10"/>
       <c r="E247" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G247" s="13">
         <v>20625</v>
@@ -10531,10 +10531,10 @@
         <v>64</v>
       </c>
       <c r="I247" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J247" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K247" s="10"/>
       <c r="L247"/>
@@ -10551,10 +10551,10 @@
       </c>
       <c r="D248" s="10"/>
       <c r="E248" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G248" s="13">
         <v>21011</v>
@@ -10564,10 +10564,10 @@
         <v>63</v>
       </c>
       <c r="I248" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J248" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K248" s="10"/>
       <c r="L248"/>
@@ -10584,10 +10584,10 @@
       </c>
       <c r="D249" s="10"/>
       <c r="E249" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G249" s="13">
         <v>29713</v>
@@ -10597,10 +10597,10 @@
         <v>39</v>
       </c>
       <c r="I249" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J249" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K249" s="10"/>
       <c r="L249"/>
@@ -10617,10 +10617,10 @@
       </c>
       <c r="D250" s="10"/>
       <c r="E250" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G250" s="13">
         <v>21432</v>
@@ -10630,10 +10630,10 @@
         <v>62</v>
       </c>
       <c r="I250" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J250" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K250" s="10"/>
       <c r="L250"/>
@@ -10652,10 +10652,10 @@
         <v>44061</v>
       </c>
       <c r="E251" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G251" s="13">
         <v>28961</v>
@@ -10665,14 +10665,14 @@
         <v>41</v>
       </c>
       <c r="I251" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J251" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K251" s="10"/>
       <c r="L251" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -10687,10 +10687,10 @@
       </c>
       <c r="D252" s="10"/>
       <c r="E252" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G252" s="13">
         <v>25069</v>
@@ -10700,10 +10700,10 @@
         <v>52</v>
       </c>
       <c r="I252" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J252" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K252" s="10"/>
       <c r="L252"/>
@@ -10720,10 +10720,10 @@
       </c>
       <c r="D253" s="10"/>
       <c r="E253" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G253" s="13">
         <v>24451</v>
@@ -10733,10 +10733,10 @@
         <v>54</v>
       </c>
       <c r="I253" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J253" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K253" s="10"/>
       <c r="L253"/>
@@ -10753,10 +10753,10 @@
       </c>
       <c r="D254" s="10"/>
       <c r="E254" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G254" s="13">
         <v>27834</v>
@@ -10766,10 +10766,10 @@
         <v>44</v>
       </c>
       <c r="I254" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J254" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K254" s="10"/>
       <c r="L254"/>
@@ -10786,23 +10786,23 @@
       </c>
       <c r="D255" s="10"/>
       <c r="E255" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G255" s="13">
         <v>18677</v>
       </c>
       <c r="H255" s="11">
-        <f t="shared" ref="H255:H318" ca="1" si="5">(YEAR(TODAY())-YEAR(G255))</f>
+        <f t="shared" ref="H255:H264" ca="1" si="5">(YEAR(TODAY())-YEAR(G255))</f>
         <v>69</v>
       </c>
       <c r="I255" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J255" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K255" s="10"/>
       <c r="L255"/>
@@ -10819,10 +10819,10 @@
       </c>
       <c r="D256" s="10"/>
       <c r="E256" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G256" s="13">
         <v>18960</v>
@@ -10832,10 +10832,10 @@
         <v>69</v>
       </c>
       <c r="I256" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J256" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K256" s="10"/>
       <c r="L256"/>
@@ -10852,10 +10852,10 @@
       </c>
       <c r="D257" s="10"/>
       <c r="E257" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G257" s="13">
         <v>20084</v>
@@ -10865,10 +10865,10 @@
         <v>66</v>
       </c>
       <c r="I257" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J257" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K257" s="10"/>
       <c r="L257"/>
@@ -10887,10 +10887,10 @@
         <v>44069</v>
       </c>
       <c r="E258" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G258" s="13">
         <v>29014</v>
@@ -10900,14 +10900,14 @@
         <v>41</v>
       </c>
       <c r="I258" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J258" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K258" s="10"/>
       <c r="L258" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -10922,10 +10922,10 @@
       </c>
       <c r="D259" s="10"/>
       <c r="E259" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G259" s="13">
         <v>27808</v>
@@ -10935,10 +10935,10 @@
         <v>44</v>
       </c>
       <c r="I259" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J259" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K259" s="10"/>
       <c r="L259"/>
@@ -10957,10 +10957,10 @@
         <v>44061</v>
       </c>
       <c r="E260" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G260" s="13">
         <v>29294</v>
@@ -10970,14 +10970,14 @@
         <v>40</v>
       </c>
       <c r="I260" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J260" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K260" s="10"/>
       <c r="L260" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -10992,10 +10992,10 @@
       </c>
       <c r="D261" s="10"/>
       <c r="E261" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G261" s="13">
         <v>22529</v>
@@ -11005,10 +11005,10 @@
         <v>59</v>
       </c>
       <c r="I261" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J261" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K261" s="10"/>
       <c r="L261"/>
@@ -11027,10 +11027,10 @@
         <v>44069</v>
       </c>
       <c r="E262" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G262" s="13">
         <v>21079</v>
@@ -11040,14 +11040,14 @@
         <v>63</v>
       </c>
       <c r="I262" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J262" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K262" s="10"/>
       <c r="L262" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -11062,10 +11062,10 @@
       </c>
       <c r="D263" s="10"/>
       <c r="E263" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F263" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G263" s="13">
         <v>28020</v>
@@ -11075,10 +11075,10 @@
         <v>44</v>
       </c>
       <c r="I263" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J263" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K263" s="10"/>
       <c r="L263"/>
@@ -11095,10 +11095,10 @@
       </c>
       <c r="D264" s="10"/>
       <c r="E264" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G264" s="10">
         <v>21554</v>
@@ -11108,10 +11108,10 @@
         <v>61</v>
       </c>
       <c r="I264" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J264" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K264" s="10"/>
       <c r="L264"/>

--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/endosos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5DF4C9-9768-3E4D-90AC-6E40D2F413D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDEAC17-4419-5C44-8C9C-806BD4527C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,12 +725,6 @@
     <t>José Antonio Walker Prieto</t>
   </si>
   <si>
-    <t>Baldo Petar Prokuriça Prokuriça</t>
-  </si>
-  <si>
-    <t>Gloria de los Ángeles Hutt Hesse</t>
-  </si>
-  <si>
     <t>Julio Isamit Díaz</t>
   </si>
   <si>
@@ -743,9 +737,6 @@
     <t>Cecilia Roxana Pérez Jara</t>
   </si>
   <si>
-    <t>Mónica Beatriz Zalaquett Said</t>
-  </si>
-  <si>
     <t>Consuelo Valdés Chadwick</t>
   </si>
   <si>
@@ -758,9 +749,6 @@
     <t>Michelle Bachelet Jeria</t>
   </si>
   <si>
-    <t>Ricardo Froilán Lagos Escobar</t>
-  </si>
-  <si>
     <t>Eduardo Frei Ruiz-Tagle</t>
   </si>
   <si>
@@ -1044,6 +1032,18 @@
   </si>
   <si>
     <t>Rechazo</t>
+  </si>
+  <si>
+    <t>Ricardo Lagos Escobar</t>
+  </si>
+  <si>
+    <t>Gloria Hutt Hesse</t>
+  </si>
+  <si>
+    <t>Baldo Prokuriça Prokuriça</t>
+  </si>
+  <si>
+    <t>Mónica Zalaquett Said</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1433,8 +1433,8 @@
     <col min="1" max="2" width="8.83203125" style="4"/>
     <col min="3" max="3" width="14.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
@@ -1449,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1470,16 +1470,16 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -1499,26 +1499,26 @@
         <v>44062</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G2" s="10">
         <v>18233</v>
       </c>
       <c r="H2" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G2))</f>
+        <f t="shared" ref="H2:H31" ca="1" si="0">(YEAR(TODAY())-YEAR(G2))</f>
         <v>71</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2"/>
@@ -1537,26 +1537,26 @@
         <v>44062</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G3" s="10">
         <v>15516</v>
       </c>
       <c r="H3" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>204</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="2"/>
@@ -1575,26 +1575,26 @@
         <v>44062</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="G4" s="10">
         <v>13941</v>
       </c>
       <c r="H4" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="2"/>
@@ -1613,26 +1613,26 @@
         <v>44062</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G5" s="10">
         <v>18900</v>
       </c>
       <c r="H5" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="2"/>
@@ -1651,7 +1651,7 @@
         <v>44061</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>218</v>
@@ -1660,23 +1660,23 @@
         <v>26645</v>
       </c>
       <c r="H6" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L6" s="10">
         <v>44058</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1693,32 +1693,32 @@
         <v>44061</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="G7" s="10">
         <v>20120</v>
       </c>
       <c r="H7" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L7" s="10">
         <v>44058</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1735,7 +1735,7 @@
         <v>44061</v>
       </c>
       <c r="E8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
         <v>221</v>
@@ -1744,23 +1744,23 @@
         <v>28232</v>
       </c>
       <c r="H8" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L8" s="10">
         <v>44058</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1777,7 +1777,7 @@
         <v>44061</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F9" t="s">
         <v>224</v>
@@ -1786,23 +1786,23 @@
         <v>27653</v>
       </c>
       <c r="H9" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L9" s="10">
         <v>44058</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,7 @@
         <v>44061</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" t="s">
         <v>228</v>
@@ -1828,23 +1828,23 @@
         <v>22460</v>
       </c>
       <c r="H10" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L10" s="10">
         <v>44058</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1861,32 +1861,32 @@
         <v>44061</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G11" s="10">
         <v>27681</v>
       </c>
       <c r="H11" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L11" s="10">
         <v>44058</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1903,32 +1903,32 @@
         <v>44061</v>
       </c>
       <c r="E12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G12" s="10">
         <v>17815</v>
       </c>
       <c r="H12" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L12" s="10">
         <v>44058</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1945,7 +1945,7 @@
         <v>44061</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F13" t="s">
         <v>222</v>
@@ -1954,23 +1954,23 @@
         <v>27474</v>
       </c>
       <c r="H13" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L13" s="10">
         <v>44058</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1987,7 +1987,7 @@
         <v>44061</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F14" t="s">
         <v>225</v>
@@ -1996,23 +1996,23 @@
         <v>20671</v>
       </c>
       <c r="H14" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" s="10">
         <v>44058</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>44061</v>
       </c>
       <c r="E15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
         <v>226</v>
@@ -2038,23 +2038,23 @@
         <v>17779</v>
       </c>
       <c r="H15" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L15" s="10">
         <v>44058</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2071,32 +2071,32 @@
         <v>44061</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G16" s="10">
         <v>24724</v>
       </c>
       <c r="H16" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L16" s="10">
         <v>44058</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -2113,32 +2113,32 @@
         <v>44061</v>
       </c>
       <c r="E17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G17" s="10">
         <v>25134</v>
       </c>
       <c r="H17" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L17" s="10">
         <v>44058</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2155,7 +2155,7 @@
         <v>44061</v>
       </c>
       <c r="E18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>34</v>
@@ -2164,23 +2164,23 @@
         <v>25126</v>
       </c>
       <c r="H18" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I18" t="s">
         <v>200</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L18" s="10">
         <v>44058</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2197,7 +2197,7 @@
         <v>44061</v>
       </c>
       <c r="E19" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F19" t="s">
         <v>219</v>
@@ -2206,23 +2206,23 @@
         <v>24970</v>
       </c>
       <c r="H19" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L19" s="10">
         <v>44058</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>44061</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
         <v>181</v>
@@ -2248,23 +2248,23 @@
         <v>20492</v>
       </c>
       <c r="H20" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J20" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K20" t="s">
         <v>331</v>
-      </c>
-      <c r="K20" t="s">
-        <v>335</v>
       </c>
       <c r="L20" s="10">
         <v>44058</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -2281,32 +2281,32 @@
         <v>44061</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="G21" s="10">
         <v>21368</v>
       </c>
       <c r="H21" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J21" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K21" t="s">
         <v>331</v>
-      </c>
-      <c r="K21" t="s">
-        <v>335</v>
       </c>
       <c r="L21" s="10">
         <v>44058</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2323,32 +2323,32 @@
         <v>44061</v>
       </c>
       <c r="E22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G22" s="10">
         <v>27295</v>
       </c>
       <c r="H22" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L22" s="10">
         <v>44058</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2365,7 +2365,7 @@
         <v>44061</v>
       </c>
       <c r="E23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
         <v>220</v>
@@ -2374,23 +2374,23 @@
         <v>27105</v>
       </c>
       <c r="H23" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G23))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K23" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L23" s="10">
         <v>44058</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2407,7 +2407,7 @@
         <v>44061</v>
       </c>
       <c r="E24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -2416,23 +2416,23 @@
         <v>29554</v>
       </c>
       <c r="H24" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G24))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="I24" t="s">
         <v>205</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L24" s="10">
         <v>44058</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2449,7 +2449,7 @@
         <v>44061</v>
       </c>
       <c r="E25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F25" t="s">
         <v>217</v>
@@ -2458,23 +2458,23 @@
         <v>20015</v>
       </c>
       <c r="H25" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G25))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K25" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L25" s="10">
         <v>44058</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>44061</v>
       </c>
       <c r="E26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F26" t="s">
         <v>227</v>
@@ -2500,23 +2500,23 @@
         <v>26556</v>
       </c>
       <c r="H26" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G26))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K26" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L26" s="10">
         <v>44058</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2533,32 +2533,32 @@
         <v>44061</v>
       </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G27" s="10">
         <v>32557</v>
       </c>
       <c r="H27" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G27))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K27" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L27" s="10">
         <v>44058</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2575,32 +2575,32 @@
         <v>44061</v>
       </c>
       <c r="E28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="G28" s="10">
         <v>22770</v>
       </c>
       <c r="H28" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G28))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L28" s="10">
         <v>44058</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2617,7 +2617,7 @@
         <v>44061</v>
       </c>
       <c r="E29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F29" t="s">
         <v>223</v>
@@ -2626,23 +2626,23 @@
         <v>17431</v>
       </c>
       <c r="H29" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G29))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>73</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K29" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L29" s="10">
         <v>44058</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2657,26 +2657,26 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G30" s="10">
         <v>30994</v>
       </c>
       <c r="H30" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G30))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30"/>
@@ -2693,26 +2693,26 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G31" s="10">
         <v>25454</v>
       </c>
       <c r="H31" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G31))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31"/>
@@ -2729,10 +2729,10 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
@@ -2740,10 +2740,10 @@
         <v>201</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32"/>
@@ -2760,10 +2760,10 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
@@ -2771,10 +2771,10 @@
         <v>201</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33"/>
@@ -2791,10 +2791,10 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G34" s="10">
         <v>19642</v>
@@ -2807,10 +2807,10 @@
         <v>201</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34"/>
@@ -2827,10 +2827,10 @@
       </c>
       <c r="D35" s="10"/>
       <c r="E35" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
@@ -2838,10 +2838,10 @@
         <v>200</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35"/>
@@ -2858,10 +2858,10 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G36" s="10">
         <v>29935</v>
@@ -2874,10 +2874,10 @@
         <v>200</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36"/>
@@ -2894,10 +2894,10 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G37" s="10">
         <v>26622</v>
@@ -2910,10 +2910,10 @@
         <v>200</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37"/>
@@ -2930,10 +2930,10 @@
       </c>
       <c r="D38" s="10"/>
       <c r="E38" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F38" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G38" s="10">
         <v>24689</v>
@@ -2946,10 +2946,10 @@
         <v>200</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38"/>
@@ -2966,10 +2966,10 @@
       </c>
       <c r="D39" s="10"/>
       <c r="E39" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
@@ -2977,10 +2977,10 @@
         <v>200</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39"/>
@@ -2997,26 +2997,26 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G40" s="10">
         <v>18048</v>
       </c>
       <c r="H40" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G40))</f>
+        <f t="shared" ref="H40:H49" ca="1" si="1">(YEAR(TODAY())-YEAR(G40))</f>
         <v>71</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40"/>
@@ -3033,26 +3033,26 @@
       </c>
       <c r="D41" s="10"/>
       <c r="E41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G41" s="10">
         <v>25492</v>
       </c>
       <c r="H41" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G41))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41"/>
@@ -3069,26 +3069,26 @@
       </c>
       <c r="D42" s="10"/>
       <c r="E42" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G42" s="10">
         <v>27655</v>
       </c>
       <c r="H42" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G42))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K42" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42"/>
@@ -3105,26 +3105,26 @@
       </c>
       <c r="D43" s="10"/>
       <c r="E43" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F43" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G43" s="10">
         <v>22881</v>
       </c>
       <c r="H43" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G43))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K43" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43"/>
@@ -3141,26 +3141,26 @@
       </c>
       <c r="D44" s="10"/>
       <c r="E44" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G44" s="10">
         <v>29105</v>
       </c>
       <c r="H44" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G44))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K44" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44"/>
@@ -3177,26 +3177,26 @@
       </c>
       <c r="D45" s="10"/>
       <c r="E45" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F45" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G45" s="10">
         <v>20806</v>
       </c>
       <c r="H45" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G45))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45"/>
@@ -3215,32 +3215,32 @@
         <v>44062</v>
       </c>
       <c r="E46" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G46" s="10">
         <v>26763</v>
       </c>
       <c r="H46" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G46))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K46" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L46" s="10">
         <v>43892</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3257,32 +3257,32 @@
         <v>44062</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G47" s="10">
         <v>26090</v>
       </c>
       <c r="H47" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G47))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L47" s="10">
         <v>43892</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3299,30 +3299,30 @@
         <v>44061</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F48" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G48" s="10">
         <v>31131</v>
       </c>
       <c r="H48" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G48))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K48" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3339,32 +3339,32 @@
         <v>44062</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F49" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G49" s="10">
         <v>25265</v>
       </c>
       <c r="H49" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G49))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K49" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L49" s="10">
         <v>43892</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3379,10 +3379,10 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
@@ -3390,10 +3390,10 @@
         <v>201</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K50" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50"/>
@@ -3410,10 +3410,10 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F51" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G51" s="10">
         <v>20899</v>
@@ -3426,10 +3426,10 @@
         <v>201</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K51" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51"/>
@@ -3448,10 +3448,10 @@
         <v>44062</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
@@ -3459,16 +3459,16 @@
         <v>204</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K52" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L52" s="10">
         <v>44062</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -3485,10 +3485,10 @@
         <v>44062</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F53" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G53" s="10">
         <v>28422</v>
@@ -3501,16 +3501,16 @@
         <v>204</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K53" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L53" s="10">
         <v>44062</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -3527,10 +3527,10 @@
         <v>44061</v>
       </c>
       <c r="E54" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F54" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G54" s="10">
         <v>28694</v>
@@ -3543,14 +3543,14 @@
         <v>212</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K54" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3567,10 +3567,10 @@
         <v>44062</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F55" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G55" s="10">
         <v>34561</v>
@@ -3583,16 +3583,16 @@
         <v>210</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K55" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L55" s="10">
         <v>44055</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3607,10 +3607,10 @@
       </c>
       <c r="D56" s="10"/>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="11"/>
@@ -3618,10 +3618,10 @@
         <v>202</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K56" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="2"/>
@@ -3640,10 +3640,10 @@
         <v>44069</v>
       </c>
       <c r="E57" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="11"/>
@@ -3651,14 +3651,14 @@
         <v>202</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K57" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -3675,10 +3675,10 @@
         <v>44069</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F58" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="11"/>
@@ -3686,14 +3686,14 @@
         <v>202</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -3710,10 +3710,10 @@
         <v>44062</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F59" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G59" s="10">
         <v>27116</v>
@@ -3726,16 +3726,16 @@
         <v>200</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K59" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L59" s="10">
         <v>43892</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -3752,10 +3752,10 @@
         <v>44062</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G60" s="10">
         <v>27429</v>
@@ -3768,16 +3768,16 @@
         <v>200</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K60" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L60" s="10">
         <v>43878</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3792,10 +3792,10 @@
       </c>
       <c r="D61" s="10"/>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F61" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G61" s="10">
         <v>22196</v>
@@ -3808,10 +3808,10 @@
         <v>200</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K61" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61"/>
@@ -3828,10 +3828,10 @@
       </c>
       <c r="D62" s="10"/>
       <c r="E62" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="11"/>
@@ -3839,10 +3839,10 @@
         <v>200</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K62" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62"/>
@@ -3859,26 +3859,26 @@
       </c>
       <c r="D63" s="10"/>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F63" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G63" s="10">
         <v>19005</v>
       </c>
       <c r="H63" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G63))</f>
+        <f t="shared" ref="H63:H126" ca="1" si="2">(YEAR(TODAY())-YEAR(G63))</f>
         <v>68</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K63" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63"/>
@@ -3895,26 +3895,26 @@
       </c>
       <c r="D64" s="10"/>
       <c r="E64" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G64" s="10">
         <v>27845</v>
       </c>
       <c r="H64" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G64))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K64" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64"/>
@@ -3933,32 +3933,32 @@
         <v>44062</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G65" s="10">
         <v>14442</v>
       </c>
       <c r="H65" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G65))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K65" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L65" s="10">
         <v>43892</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3975,32 +3975,32 @@
         <v>44062</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F66" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G66" s="10">
         <v>19655</v>
       </c>
       <c r="H66" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G66))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K66" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L66" s="10">
         <v>44048</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -4017,7 +4017,7 @@
         <v>44061</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>178</v>
@@ -4026,23 +4026,23 @@
         <v>28285</v>
       </c>
       <c r="H67" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G67))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="I67" t="s">
         <v>207</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L67" s="10">
         <v>44036</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
         <v>44061</v>
       </c>
       <c r="E68" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F68" t="s">
         <v>158</v>
@@ -4068,23 +4068,23 @@
         <v>24478</v>
       </c>
       <c r="H68" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G68))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="I68" t="s">
         <v>207</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K68" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L68" s="10">
         <v>43837</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -4101,7 +4101,7 @@
         <v>44061</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F69" t="s">
         <v>159</v>
@@ -4110,23 +4110,23 @@
         <v>21855</v>
       </c>
       <c r="H69" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G69))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="I69" t="s">
         <v>201</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K69" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L69" s="10">
         <v>43837</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>44061</v>
       </c>
       <c r="E70" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F70" t="s">
         <v>173</v>
@@ -4152,23 +4152,23 @@
         <v>21845</v>
       </c>
       <c r="H70" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G70))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="I70" t="s">
         <v>201</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K70" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L70" s="10">
         <v>43837</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="D71" s="10"/>
       <c r="E71" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F71" t="s">
         <v>182</v>
@@ -4192,17 +4192,17 @@
         <v>22224</v>
       </c>
       <c r="H71" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G71))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K71" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71"/>
@@ -4221,7 +4221,7 @@
         <v>44061</v>
       </c>
       <c r="E72" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F72" t="s">
         <v>186</v>
@@ -4230,21 +4230,21 @@
         <v>19423</v>
       </c>
       <c r="H72" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G72))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K72" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F73" t="s">
         <v>196</v>
@@ -4268,17 +4268,17 @@
         <v>27196</v>
       </c>
       <c r="H73" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G73))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K73" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73"/>
@@ -4297,7 +4297,7 @@
         <v>44061</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F74" t="s">
         <v>192</v>
@@ -4306,21 +4306,21 @@
         <v>21509</v>
       </c>
       <c r="H74" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G74))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>206</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K74" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
         <v>44061</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>166</v>
@@ -4346,21 +4346,21 @@
         <v>16153</v>
       </c>
       <c r="H75" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G75))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="I75" t="s">
         <v>204</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K75" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>44061</v>
       </c>
       <c r="E76" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>172</v>
@@ -4386,21 +4386,21 @@
         <v>25553</v>
       </c>
       <c r="H76" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G76))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="I76" t="s">
         <v>204</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K76" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -4417,7 +4417,7 @@
         <v>44061</v>
       </c>
       <c r="E77" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>179</v>
@@ -4426,21 +4426,21 @@
         <v>25024</v>
       </c>
       <c r="H77" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G77))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
       <c r="I77" t="s">
         <v>204</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K77" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -4457,7 +4457,7 @@
         <v>44062</v>
       </c>
       <c r="E78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F78" t="s">
         <v>185</v>
@@ -4466,23 +4466,23 @@
         <v>26653</v>
       </c>
       <c r="H78" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G78))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>204</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K78" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L78" s="10">
         <v>44062</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -4499,7 +4499,7 @@
         <v>44062</v>
       </c>
       <c r="E79" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F79" t="s">
         <v>194</v>
@@ -4508,23 +4508,23 @@
         <v>19105</v>
       </c>
       <c r="H79" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G79))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>204</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K79" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L79" s="10">
         <v>44062</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -4541,7 +4541,7 @@
         <v>44061</v>
       </c>
       <c r="E80" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F80" t="s">
         <v>168</v>
@@ -4550,21 +4550,21 @@
         <v>22698</v>
       </c>
       <c r="H80" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G80))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I80" t="s">
         <v>203</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -4581,7 +4581,7 @@
         <v>44062</v>
       </c>
       <c r="E81" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F81" t="s">
         <v>170</v>
@@ -4590,23 +4590,23 @@
         <v>26732</v>
       </c>
       <c r="H81" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G81))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I81" t="s">
         <v>203</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K81" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L81" s="10">
         <v>44062</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>44062</v>
       </c>
       <c r="E82" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>174</v>
@@ -4632,23 +4632,23 @@
         <v>24767</v>
       </c>
       <c r="H82" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G82))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="I82" t="s">
         <v>203</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K82" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L82" s="10">
         <v>44062</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -4665,7 +4665,7 @@
         <v>44062</v>
       </c>
       <c r="E83" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>180</v>
@@ -4674,23 +4674,23 @@
         <v>13455</v>
       </c>
       <c r="H83" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G83))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>84</v>
       </c>
       <c r="I83" t="s">
         <v>203</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K83" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L83" s="10">
         <v>44062</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -4707,7 +4707,7 @@
         <v>44062</v>
       </c>
       <c r="E84" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>184</v>
@@ -4716,23 +4716,23 @@
         <v>22305</v>
       </c>
       <c r="H84" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G84))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K84" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L84" s="10">
         <v>44062</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -4749,7 +4749,7 @@
         <v>44062</v>
       </c>
       <c r="E85" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F85" t="s">
         <v>187</v>
@@ -4758,23 +4758,23 @@
         <v>26500</v>
       </c>
       <c r="H85" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G85))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K85" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L85" s="10">
         <v>44062</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>44062</v>
       </c>
       <c r="E86" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F86" t="s">
         <v>191</v>
@@ -4800,23 +4800,23 @@
         <v>17801</v>
       </c>
       <c r="H86" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G86))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K86" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L86" s="10">
         <v>44062</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -4833,7 +4833,7 @@
         <v>44062</v>
       </c>
       <c r="E87" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F87" t="s">
         <v>163</v>
@@ -4842,23 +4842,23 @@
         <v>25491</v>
       </c>
       <c r="H87" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G87))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="I87" t="s">
         <v>202</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K87" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L87" s="10">
         <v>44062</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -4875,7 +4875,7 @@
         <v>44062</v>
       </c>
       <c r="E88" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>167</v>
@@ -4884,23 +4884,23 @@
         <v>15859</v>
       </c>
       <c r="H88" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G88))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="I88" t="s">
         <v>202</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K88" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L88" s="10">
         <v>44062</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -4917,7 +4917,7 @@
         <v>44062</v>
       </c>
       <c r="E89" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F89" t="s">
         <v>176</v>
@@ -4926,23 +4926,23 @@
         <v>16455</v>
       </c>
       <c r="H89" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G89))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="I89" t="s">
         <v>202</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K89" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L89" s="10">
         <v>44062</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>44062</v>
       </c>
       <c r="E90" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F90" t="s">
         <v>183</v>
@@ -4968,23 +4968,23 @@
         <v>24173</v>
       </c>
       <c r="H90" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G90))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K90" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L90" s="10">
         <v>44062</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -5001,7 +5001,7 @@
         <v>44062</v>
       </c>
       <c r="E91" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F91" t="s">
         <v>188</v>
@@ -5010,23 +5010,23 @@
         <v>22288</v>
       </c>
       <c r="H91" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G91))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K91" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L91" s="10">
         <v>44062</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -5043,7 +5043,7 @@
         <v>44061</v>
       </c>
       <c r="E92" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F92" t="s">
         <v>189</v>
@@ -5052,21 +5052,21 @@
         <v>16933</v>
       </c>
       <c r="H92" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G92))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K92" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -5083,7 +5083,7 @@
         <v>44062</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F93" t="s">
         <v>195</v>
@@ -5092,21 +5092,21 @@
         <v>16010</v>
       </c>
       <c r="H93" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G93))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K93" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -5123,7 +5123,7 @@
         <v>44062</v>
       </c>
       <c r="E94" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>108</v>
@@ -5132,21 +5132,21 @@
         <v>29680</v>
       </c>
       <c r="H94" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G94))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
       <c r="I94" t="s">
         <v>200</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K94" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -5163,7 +5163,7 @@
         <v>44061</v>
       </c>
       <c r="E95" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>160</v>
@@ -5172,23 +5172,23 @@
         <v>26073</v>
       </c>
       <c r="H95" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G95))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="I95" t="s">
         <v>200</v>
       </c>
       <c r="J95" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K95" t="s">
         <v>331</v>
-      </c>
-      <c r="K95" t="s">
-        <v>335</v>
       </c>
       <c r="L95" s="10">
         <v>43837</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -5205,7 +5205,7 @@
         <v>44061</v>
       </c>
       <c r="E96" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F96" t="s">
         <v>164</v>
@@ -5214,23 +5214,23 @@
         <v>24414</v>
       </c>
       <c r="H96" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G96))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="I96" t="s">
         <v>200</v>
       </c>
       <c r="J96" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K96" t="s">
         <v>331</v>
-      </c>
-      <c r="K96" t="s">
-        <v>335</v>
       </c>
       <c r="L96" s="10">
         <v>43837</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>44061</v>
       </c>
       <c r="E97" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F97" t="s">
         <v>165</v>
@@ -5256,23 +5256,23 @@
         <v>20231</v>
       </c>
       <c r="H97" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G97))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I97" t="s">
         <v>200</v>
       </c>
       <c r="J97" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K97" t="s">
         <v>331</v>
-      </c>
-      <c r="K97" t="s">
-        <v>335</v>
       </c>
       <c r="L97" s="10">
         <v>43837</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -5289,7 +5289,7 @@
         <v>44061</v>
       </c>
       <c r="E98" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F98" t="s">
         <v>171</v>
@@ -5298,23 +5298,23 @@
         <v>20252</v>
       </c>
       <c r="H98" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G98))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I98" t="s">
         <v>200</v>
       </c>
       <c r="J98" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K98" t="s">
         <v>331</v>
-      </c>
-      <c r="K98" t="s">
-        <v>335</v>
       </c>
       <c r="L98" s="10">
         <v>43837</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -5331,7 +5331,7 @@
         <v>44062</v>
       </c>
       <c r="E99" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F99" t="s">
         <v>193</v>
@@ -5340,23 +5340,23 @@
         <v>22882</v>
       </c>
       <c r="H99" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G99))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K99" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L99" s="10">
         <v>43904</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -5373,7 +5373,7 @@
         <v>44061</v>
       </c>
       <c r="E100" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F100" t="s">
         <v>169</v>
@@ -5382,21 +5382,21 @@
         <v>28573</v>
       </c>
       <c r="H100" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G100))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>42</v>
       </c>
       <c r="I100" t="s">
         <v>208</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K100" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -5413,7 +5413,7 @@
         <v>44062</v>
       </c>
       <c r="E101" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>161</v>
@@ -5422,23 +5422,23 @@
         <v>22094</v>
       </c>
       <c r="H101" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G101))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I101" t="s">
         <v>205</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K101" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L101" s="10">
         <v>43837</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>44062</v>
       </c>
       <c r="E102" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>162</v>
@@ -5464,23 +5464,23 @@
         <v>23444</v>
       </c>
       <c r="H102" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G102))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="I102" t="s">
         <v>205</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K102" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L102" s="10">
         <v>43837</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -5497,7 +5497,7 @@
         <v>44062</v>
       </c>
       <c r="E103" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F103" t="s">
         <v>175</v>
@@ -5506,23 +5506,23 @@
         <v>19287</v>
       </c>
       <c r="H103" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G103))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I103" t="s">
         <v>205</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K103" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L103" s="10">
         <v>43837</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -5539,7 +5539,7 @@
         <v>44062</v>
       </c>
       <c r="E104" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F104" t="s">
         <v>177</v>
@@ -5548,23 +5548,23 @@
         <v>20651</v>
       </c>
       <c r="H104" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G104))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="I104" t="s">
         <v>205</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K104" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L104" s="10">
         <v>43837</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -5581,7 +5581,7 @@
         <v>44062</v>
       </c>
       <c r="E105" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F105" t="s">
         <v>190</v>
@@ -5590,23 +5590,23 @@
         <v>20797</v>
       </c>
       <c r="H105" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G105))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K105" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L105" s="10">
         <v>43837</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>44062</v>
       </c>
       <c r="E106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F106" t="s">
         <v>197</v>
@@ -5632,23 +5632,23 @@
         <v>27361</v>
       </c>
       <c r="H106" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G106))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K106" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L106" s="10">
         <v>43837</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -5665,7 +5665,7 @@
         <v>44062</v>
       </c>
       <c r="E107" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F107" t="s">
         <v>198</v>
@@ -5674,23 +5674,23 @@
         <v>19103</v>
       </c>
       <c r="H107" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G107))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K107" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L107" s="10">
         <v>43837</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -5707,7 +5707,7 @@
         <v>44061</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F108" t="s">
         <v>199</v>
@@ -5716,21 +5716,21 @@
         <v>23776</v>
       </c>
       <c r="H108" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G108))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K108" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -5745,26 +5745,26 @@
       </c>
       <c r="D109" s="10"/>
       <c r="E109" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F109" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G109" s="10">
         <v>21953</v>
       </c>
       <c r="H109" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G109))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K109" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109"/>
@@ -5783,7 +5783,7 @@
         <v>44061</v>
       </c>
       <c r="E110" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>56</v>
@@ -5792,21 +5792,21 @@
         <v>32533</v>
       </c>
       <c r="H110" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G110))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
       <c r="I110" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J110" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K110" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>44061</v>
       </c>
       <c r="E111" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>18</v>
@@ -5832,21 +5832,21 @@
         <v>31454</v>
       </c>
       <c r="H111" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G111))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
       <c r="I111" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J111" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K111" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -5863,7 +5863,7 @@
         <v>44061</v>
       </c>
       <c r="E112" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>147</v>
@@ -5872,21 +5872,21 @@
         <v>31783</v>
       </c>
       <c r="H112" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G112))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="I112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K112" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>44061</v>
       </c>
       <c r="E113" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>61</v>
@@ -5912,23 +5912,23 @@
         <v>26709</v>
       </c>
       <c r="H113" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G113))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I113" t="s">
         <v>207</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K113" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L113" s="10">
         <v>44036</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -5945,7 +5945,7 @@
         <v>44061</v>
       </c>
       <c r="E114" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>145</v>
@@ -5954,23 +5954,23 @@
         <v>26900</v>
       </c>
       <c r="H114" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G114))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I114" t="s">
         <v>207</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K114" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L114" s="10">
         <v>44036</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -5987,7 +5987,7 @@
         <v>44061</v>
       </c>
       <c r="E115" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>8</v>
@@ -5996,23 +5996,23 @@
         <v>25885</v>
       </c>
       <c r="H115" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G115))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="I115" t="s">
         <v>207</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K115" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L115" s="10">
         <v>44036</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -6029,7 +6029,7 @@
         <v>44061</v>
       </c>
       <c r="E116" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>32</v>
@@ -6038,23 +6038,23 @@
         <v>25750</v>
       </c>
       <c r="H116" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G116))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="I116" t="s">
         <v>207</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K116" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L116" s="10">
         <v>44036</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>44061</v>
       </c>
       <c r="E117" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>78</v>
@@ -6080,23 +6080,23 @@
         <v>23332</v>
       </c>
       <c r="H117" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G117))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="I117" t="s">
         <v>207</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K117" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L117" s="10">
         <v>44036</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -6113,7 +6113,7 @@
         <v>44061</v>
       </c>
       <c r="E118" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>127</v>
@@ -6122,23 +6122,23 @@
         <v>24014</v>
       </c>
       <c r="H118" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G118))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I118" t="s">
         <v>207</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K118" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L118" s="10">
         <v>44036</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -6155,7 +6155,7 @@
         <v>44061</v>
       </c>
       <c r="E119" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>81</v>
@@ -6164,21 +6164,21 @@
         <v>23226</v>
       </c>
       <c r="H119" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G119))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="I119" t="s">
         <v>215</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K119" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -6195,7 +6195,7 @@
         <v>44062</v>
       </c>
       <c r="E120" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>117</v>
@@ -6204,23 +6204,23 @@
         <v>24059</v>
       </c>
       <c r="H120" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G120))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I120" t="s">
         <v>215</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K120" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L120" s="10">
         <v>44062</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -6237,7 +6237,7 @@
         <v>44062</v>
       </c>
       <c r="E121" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>131</v>
@@ -6246,23 +6246,23 @@
         <v>23594</v>
       </c>
       <c r="H121" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G121))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="I121" t="s">
         <v>215</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K121" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L121" s="10">
         <v>44062</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>44062</v>
       </c>
       <c r="E122" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>132</v>
@@ -6288,23 +6288,23 @@
         <v>23006</v>
       </c>
       <c r="H122" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G122))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I122" t="s">
         <v>215</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K122" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L122" s="10">
         <v>44062</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -6321,7 +6321,7 @@
         <v>44061</v>
       </c>
       <c r="E123" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>139</v>
@@ -6330,21 +6330,21 @@
         <v>30347</v>
       </c>
       <c r="H123" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G123))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
       <c r="I123" t="s">
         <v>201</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K123" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L123" s="10"/>
       <c r="M123" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D124" s="10"/>
       <c r="E124" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>153</v>
@@ -6368,17 +6368,17 @@
         <v>20371</v>
       </c>
       <c r="H124" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G124))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I124" t="s">
         <v>201</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K124" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L124" s="10"/>
       <c r="M124"/>
@@ -6397,7 +6397,7 @@
         <v>44061</v>
       </c>
       <c r="E125" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>130</v>
@@ -6406,21 +6406,21 @@
         <v>32261</v>
       </c>
       <c r="H125" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G125))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="I125" t="s">
         <v>211</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K125" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -6437,7 +6437,7 @@
         <v>44061</v>
       </c>
       <c r="E126" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>21</v>
@@ -6446,21 +6446,21 @@
         <v>31868</v>
       </c>
       <c r="H126" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G126))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="I126" t="s">
         <v>211</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K126" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -6477,7 +6477,7 @@
         <v>44061</v>
       </c>
       <c r="E127" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>13</v>
@@ -6486,21 +6486,21 @@
         <v>25691</v>
       </c>
       <c r="H127" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G127))</f>
+        <f t="shared" ref="H127:H190" ca="1" si="3">(YEAR(TODAY())-YEAR(G127))</f>
         <v>50</v>
       </c>
       <c r="I127" t="s">
         <v>211</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K127" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -6517,7 +6517,7 @@
         <v>44061</v>
       </c>
       <c r="E128" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>50</v>
@@ -6526,21 +6526,21 @@
         <v>22559</v>
       </c>
       <c r="H128" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G128))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="I128" t="s">
         <v>211</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K128" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -6557,7 +6557,7 @@
         <v>44061</v>
       </c>
       <c r="E129" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>53</v>
@@ -6566,21 +6566,21 @@
         <v>16607</v>
       </c>
       <c r="H129" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G129))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="I129" t="s">
         <v>211</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K129" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -6597,7 +6597,7 @@
         <v>44061</v>
       </c>
       <c r="E130" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>64</v>
@@ -6606,21 +6606,21 @@
         <v>18196</v>
       </c>
       <c r="H130" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G130))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I130" t="s">
         <v>211</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K130" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -6637,7 +6637,7 @@
         <v>44061</v>
       </c>
       <c r="E131" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>86</v>
@@ -6646,21 +6646,21 @@
         <v>25940</v>
       </c>
       <c r="H131" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G131))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I131" t="s">
         <v>211</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K131" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L131" s="10"/>
       <c r="M131" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -6677,7 +6677,7 @@
         <v>44062</v>
       </c>
       <c r="E132" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>122</v>
@@ -6686,23 +6686,23 @@
         <v>16008</v>
       </c>
       <c r="H132" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G132))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
       <c r="I132" t="s">
         <v>211</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K132" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L132" s="10">
         <v>44062</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -6719,7 +6719,7 @@
         <v>44061</v>
       </c>
       <c r="E133" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>10</v>
@@ -6728,21 +6728,21 @@
         <v>19657</v>
       </c>
       <c r="H133" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G133))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="I133" t="s">
         <v>204</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K133" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>44062</v>
       </c>
       <c r="E134" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>20</v>
@@ -6768,23 +6768,23 @@
         <v>31247</v>
       </c>
       <c r="H134" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G134))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="I134" t="s">
         <v>204</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K134" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L134" s="10">
         <v>44062</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -6801,7 +6801,7 @@
         <v>44062</v>
       </c>
       <c r="E135" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>41</v>
@@ -6810,23 +6810,23 @@
         <v>20255</v>
       </c>
       <c r="H135" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G135))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I135" t="s">
         <v>204</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K135" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L135" s="10">
         <v>44062</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -6843,7 +6843,7 @@
         <v>44062</v>
       </c>
       <c r="E136" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>71</v>
@@ -6852,23 +6852,23 @@
         <v>17116</v>
       </c>
       <c r="H136" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G136))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="I136" t="s">
         <v>204</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K136" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L136" s="10">
         <v>44062</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -6885,7 +6885,7 @@
         <v>44062</v>
       </c>
       <c r="E137" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>90</v>
@@ -6894,23 +6894,23 @@
         <v>15302</v>
       </c>
       <c r="H137" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G137))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="I137" t="s">
         <v>204</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K137" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L137" s="10">
         <v>44062</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
         <v>44062</v>
       </c>
       <c r="E138" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>96</v>
@@ -6936,23 +6936,23 @@
         <v>27851</v>
       </c>
       <c r="H138" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G138))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="I138" t="s">
         <v>204</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K138" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L138" s="10">
         <v>44062</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -6969,7 +6969,7 @@
         <v>44061</v>
       </c>
       <c r="E139" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>119</v>
@@ -6978,21 +6978,21 @@
         <v>28018</v>
       </c>
       <c r="H139" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G139))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="I139" t="s">
         <v>204</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K139" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -7009,7 +7009,7 @@
         <v>44062</v>
       </c>
       <c r="E140" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>121</v>
@@ -7018,23 +7018,23 @@
         <v>32101</v>
       </c>
       <c r="H140" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G140))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I140" t="s">
         <v>204</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K140" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L140" s="10">
         <v>44062</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -7051,7 +7051,7 @@
         <v>44062</v>
       </c>
       <c r="E141" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>124</v>
@@ -7060,23 +7060,23 @@
         <v>27678</v>
       </c>
       <c r="H141" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G141))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="I141" t="s">
         <v>204</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K141" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L141" s="10">
         <v>44062</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -7093,7 +7093,7 @@
         <v>44062</v>
       </c>
       <c r="E142" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>133</v>
@@ -7102,23 +7102,23 @@
         <v>21157</v>
       </c>
       <c r="H142" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G142))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="I142" t="s">
         <v>204</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K142" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L142" s="10">
         <v>44062</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
         <v>44062</v>
       </c>
       <c r="E143" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>134</v>
@@ -7144,23 +7144,23 @@
         <v>19343</v>
       </c>
       <c r="H143" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G143))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>68</v>
       </c>
       <c r="I143" t="s">
         <v>204</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K143" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L143" s="10">
         <v>44062</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -7177,7 +7177,7 @@
         <v>44062</v>
       </c>
       <c r="E144" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>149</v>
@@ -7186,23 +7186,23 @@
         <v>18196</v>
       </c>
       <c r="H144" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G144))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I144" t="s">
         <v>204</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K144" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L144" s="10">
         <v>44062</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -7219,7 +7219,7 @@
         <v>44062</v>
       </c>
       <c r="E145" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>152</v>
@@ -7228,23 +7228,23 @@
         <v>23371</v>
       </c>
       <c r="H145" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G145))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="I145" t="s">
         <v>204</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K145" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L145" s="10">
         <v>44062</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -7261,7 +7261,7 @@
         <v>44061</v>
       </c>
       <c r="E146" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>157</v>
@@ -7270,21 +7270,21 @@
         <v>26864</v>
       </c>
       <c r="H146" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G146))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="I146" t="s">
         <v>204</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K146" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L146" s="10"/>
       <c r="M146" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -7301,7 +7301,7 @@
         <v>44062</v>
       </c>
       <c r="E147" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>48</v>
@@ -7310,23 +7310,23 @@
         <v>26445</v>
       </c>
       <c r="H147" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G147))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="I147" t="s">
         <v>213</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K147" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L147" s="10">
         <v>43887</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>44062</v>
       </c>
       <c r="E148" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>5</v>
@@ -7352,23 +7352,23 @@
         <v>16725</v>
       </c>
       <c r="H148" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G148))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="I148" t="s">
         <v>209</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K148" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L148" s="10">
         <v>43817</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -7385,7 +7385,7 @@
         <v>44061</v>
       </c>
       <c r="E149" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>54</v>
@@ -7394,21 +7394,21 @@
         <v>20655</v>
       </c>
       <c r="H149" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G149))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>64</v>
       </c>
       <c r="I149" t="s">
         <v>209</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K149" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L149" s="10"/>
       <c r="M149" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -7425,7 +7425,7 @@
         <v>44061</v>
       </c>
       <c r="E150" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>59</v>
@@ -7434,21 +7434,21 @@
         <v>22250</v>
       </c>
       <c r="H150" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G150))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I150" t="s">
         <v>209</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K150" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L150" s="10"/>
       <c r="M150" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -7465,7 +7465,7 @@
         <v>44061</v>
       </c>
       <c r="E151" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>105</v>
@@ -7474,21 +7474,21 @@
         <v>33308</v>
       </c>
       <c r="H151" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G151))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
       <c r="I151" t="s">
         <v>216</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K151" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -7505,7 +7505,7 @@
         <v>44061</v>
       </c>
       <c r="E152" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>16</v>
@@ -7514,21 +7514,21 @@
         <v>28888</v>
       </c>
       <c r="H152" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G152))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="I152" t="s">
         <v>212</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K152" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -7545,7 +7545,7 @@
         <v>44061</v>
       </c>
       <c r="E153" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>76</v>
@@ -7554,21 +7554,21 @@
         <v>31920</v>
       </c>
       <c r="H153" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G153))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I153" t="s">
         <v>212</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K153" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L153" s="10"/>
       <c r="M153" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -7585,7 +7585,7 @@
         <v>44061</v>
       </c>
       <c r="E154" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>77</v>
@@ -7594,21 +7594,21 @@
         <v>25397</v>
       </c>
       <c r="H154" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G154))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="I154" t="s">
         <v>214</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K154" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L154" s="10"/>
       <c r="M154" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -7625,7 +7625,7 @@
         <v>44062</v>
       </c>
       <c r="E155" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>6</v>
@@ -7634,23 +7634,23 @@
         <v>21338</v>
       </c>
       <c r="H155" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G155))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="I155" t="s">
         <v>203</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K155" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L155" s="10">
         <v>44062</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -7667,7 +7667,7 @@
         <v>44062</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>23</v>
@@ -7676,23 +7676,23 @@
         <v>26802</v>
       </c>
       <c r="H156" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G156))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="I156" t="s">
         <v>203</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K156" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L156" s="10">
         <v>44062</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -7709,7 +7709,7 @@
         <v>44061</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>28</v>
@@ -7718,21 +7718,21 @@
         <v>20281</v>
       </c>
       <c r="H157" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G157))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I157" t="s">
         <v>203</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K157" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L157" s="10"/>
       <c r="M157" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -7749,7 +7749,7 @@
         <v>44062</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>49</v>
@@ -7758,23 +7758,23 @@
         <v>15245</v>
       </c>
       <c r="H158" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G158))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="I158" t="s">
         <v>203</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K158" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L158" s="10">
         <v>44062</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -7791,7 +7791,7 @@
         <v>44062</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>60</v>
@@ -7800,23 +7800,23 @@
         <v>22890</v>
       </c>
       <c r="H159" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G159))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="I159" t="s">
         <v>203</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K159" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L159" s="10">
         <v>44062</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -7833,7 +7833,7 @@
         <v>44061</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>70</v>
@@ -7842,21 +7842,21 @@
         <v>23367</v>
       </c>
       <c r="H160" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G160))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="I160" t="s">
         <v>203</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K160" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L160" s="10"/>
       <c r="M160" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -7873,7 +7873,7 @@
         <v>44062</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>92</v>
@@ -7882,23 +7882,23 @@
         <v>24717</v>
       </c>
       <c r="H161" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G161))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="I161" t="s">
         <v>203</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K161" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L161" s="10">
         <v>44062</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -7915,7 +7915,7 @@
         <v>44062</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>142</v>
@@ -7924,23 +7924,23 @@
         <v>22655</v>
       </c>
       <c r="H162" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G162))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="I162" t="s">
         <v>203</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K162" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L162" s="10">
         <v>44062</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -7957,7 +7957,7 @@
         <v>44062</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>113</v>
@@ -7966,23 +7966,23 @@
         <v>27508</v>
       </c>
       <c r="H163" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G163))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="I163" t="s">
         <v>211</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K163" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L163" s="10">
         <v>44055</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -7999,7 +7999,7 @@
         <v>44062</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>11</v>
@@ -8008,23 +8008,23 @@
         <v>20885</v>
       </c>
       <c r="H164" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G164))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="I164" t="s">
         <v>210</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K164" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L164" s="10">
         <v>44055</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -8041,7 +8041,7 @@
         <v>44062</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>52</v>
@@ -8050,23 +8050,23 @@
         <v>21958</v>
       </c>
       <c r="H165" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G165))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I165" t="s">
         <v>210</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K165" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L165" s="10">
         <v>44055</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -8083,7 +8083,7 @@
         <v>44062</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>73</v>
@@ -8092,23 +8092,23 @@
         <v>21970</v>
       </c>
       <c r="H166" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G166))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I166" t="s">
         <v>210</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K166" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L166" s="10">
         <v>44055</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -8125,7 +8125,7 @@
         <v>44062</v>
       </c>
       <c r="E167" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>75</v>
@@ -8134,23 +8134,23 @@
         <v>16997</v>
       </c>
       <c r="H167" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G167))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="I167" t="s">
         <v>210</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K167" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L167" s="10">
         <v>44055</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -8167,7 +8167,7 @@
         <v>44062</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>97</v>
@@ -8176,23 +8176,23 @@
         <v>14974</v>
       </c>
       <c r="H168" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G168))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>80</v>
       </c>
       <c r="I168" t="s">
         <v>210</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K168" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L168" s="10">
         <v>44055</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -8209,7 +8209,7 @@
         <v>44062</v>
       </c>
       <c r="E169" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>118</v>
@@ -8218,23 +8218,23 @@
         <v>25566</v>
       </c>
       <c r="H169" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G169))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="I169" t="s">
         <v>210</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L169" s="10">
         <v>44055</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -8251,7 +8251,7 @@
         <v>44062</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>143</v>
@@ -8260,23 +8260,23 @@
         <v>16390</v>
       </c>
       <c r="H170" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G170))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>76</v>
       </c>
       <c r="I170" t="s">
         <v>210</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L170" s="10">
         <v>44055</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -8293,7 +8293,7 @@
         <v>44061</v>
       </c>
       <c r="E171" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>35</v>
@@ -8302,21 +8302,21 @@
         <v>25970</v>
       </c>
       <c r="H171" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G171))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I171" t="s">
         <v>202</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K171" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L171" s="10"/>
       <c r="M171" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -8333,7 +8333,7 @@
         <v>44062</v>
       </c>
       <c r="E172" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>7</v>
@@ -8342,23 +8342,23 @@
         <v>27118</v>
       </c>
       <c r="H172" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G172))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="I172" t="s">
         <v>202</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K172" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L172" s="10">
         <v>44062</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -8375,7 +8375,7 @@
         <v>44062</v>
       </c>
       <c r="E173" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>26</v>
@@ -8384,23 +8384,23 @@
         <v>22024</v>
       </c>
       <c r="H173" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G173))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I173" t="s">
         <v>202</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K173" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L173" s="10">
         <v>44062</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -8417,7 +8417,7 @@
         <v>44062</v>
       </c>
       <c r="E174" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>29</v>
@@ -8426,23 +8426,23 @@
         <v>32142</v>
       </c>
       <c r="H174" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G174))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I174" t="s">
         <v>202</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L174" s="10">
         <v>44062</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -8459,7 +8459,7 @@
         <v>44062</v>
       </c>
       <c r="E175" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>39</v>
@@ -8468,23 +8468,23 @@
         <v>25592</v>
       </c>
       <c r="H175" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G175))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="I175" t="s">
         <v>202</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K175" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L175" s="10">
         <v>44062</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -8501,7 +8501,7 @@
         <v>44061</v>
       </c>
       <c r="E176" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>57</v>
@@ -8510,21 +8510,21 @@
         <v>25846</v>
       </c>
       <c r="H176" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G176))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="I176" t="s">
         <v>202</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K176" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L176" s="10"/>
       <c r="M176" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
@@ -8541,7 +8541,7 @@
         <v>44062</v>
       </c>
       <c r="E177" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>66</v>
@@ -8550,23 +8550,23 @@
         <v>27112</v>
       </c>
       <c r="H177" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G177))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="I177" t="s">
         <v>202</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K177" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L177" s="10">
         <v>44062</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -8583,7 +8583,7 @@
         <v>44062</v>
       </c>
       <c r="E178" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>79</v>
@@ -8592,23 +8592,23 @@
         <v>23902</v>
       </c>
       <c r="H178" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G178))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="I178" t="s">
         <v>202</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K178" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L178" s="10">
         <v>44062</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
@@ -8625,7 +8625,7 @@
         <v>44061</v>
       </c>
       <c r="E179" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>83</v>
@@ -8634,21 +8634,21 @@
         <v>18640</v>
       </c>
       <c r="H179" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G179))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="I179" t="s">
         <v>202</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K179" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L179" s="10"/>
       <c r="M179" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
@@ -8665,7 +8665,7 @@
         <v>44062</v>
       </c>
       <c r="E180" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>87</v>
@@ -8674,23 +8674,23 @@
         <v>25067</v>
       </c>
       <c r="H180" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G180))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="I180" t="s">
         <v>202</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K180" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L180" s="10">
         <v>44062</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
@@ -8707,7 +8707,7 @@
         <v>44061</v>
       </c>
       <c r="E181" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>104</v>
@@ -8716,21 +8716,21 @@
         <v>21445</v>
       </c>
       <c r="H181" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G181))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="I181" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K181" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L181" s="10"/>
       <c r="M181" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -8747,7 +8747,7 @@
         <v>44062</v>
       </c>
       <c r="E182" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>106</v>
@@ -8756,23 +8756,23 @@
         <v>24964</v>
       </c>
       <c r="H182" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G182))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="I182" t="s">
         <v>202</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K182" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L182" s="10">
         <v>44062</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
@@ -8789,7 +8789,7 @@
         <v>44062</v>
       </c>
       <c r="E183" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>107</v>
@@ -8798,23 +8798,23 @@
         <v>20415</v>
       </c>
       <c r="H183" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G183))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I183" t="s">
         <v>202</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K183" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L183" s="10">
         <v>44062</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -8831,7 +8831,7 @@
         <v>44062</v>
       </c>
       <c r="E184" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>109</v>
@@ -8840,23 +8840,23 @@
         <v>18781</v>
       </c>
       <c r="H184" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G184))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="I184" t="s">
         <v>202</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K184" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L184" s="10">
         <v>44062</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
@@ -8873,7 +8873,7 @@
         <v>44061</v>
       </c>
       <c r="E185" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>112</v>
@@ -8882,21 +8882,21 @@
         <v>32771</v>
       </c>
       <c r="H185" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G185))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
       <c r="I185" t="s">
         <v>202</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K185" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L185" s="10"/>
       <c r="M185" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
@@ -8913,7 +8913,7 @@
         <v>44062</v>
       </c>
       <c r="E186" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>116</v>
@@ -8922,23 +8922,23 @@
         <v>18036</v>
       </c>
       <c r="H186" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G186))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I186" t="s">
         <v>202</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K186" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L186" s="10">
         <v>44062</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
@@ -8955,7 +8955,7 @@
         <v>44062</v>
       </c>
       <c r="E187" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>120</v>
@@ -8964,23 +8964,23 @@
         <v>24242</v>
       </c>
       <c r="H187" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G187))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
       <c r="I187" t="s">
         <v>202</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K187" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L187" s="10">
         <v>44062</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
@@ -8997,7 +8997,7 @@
         <v>44061</v>
       </c>
       <c r="E188" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>141</v>
@@ -9006,21 +9006,21 @@
         <v>26203</v>
       </c>
       <c r="H188" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G188))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I188" t="s">
         <v>202</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K188" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L188" s="10"/>
       <c r="M188" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -9037,7 +9037,7 @@
         <v>44062</v>
       </c>
       <c r="E189" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>154</v>
@@ -9046,23 +9046,23 @@
         <v>14047</v>
       </c>
       <c r="H189" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G189))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>82</v>
       </c>
       <c r="I189" t="s">
         <v>202</v>
       </c>
       <c r="J189" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K189" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L189" s="10">
         <v>44062</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
@@ -9079,7 +9079,7 @@
         <v>44061</v>
       </c>
       <c r="E190" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>82</v>
@@ -9088,21 +9088,21 @@
         <v>29287</v>
       </c>
       <c r="H190" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G190))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>40</v>
       </c>
       <c r="I190" t="s">
         <v>200</v>
       </c>
       <c r="J190" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K190" t="s">
         <v>331</v>
-      </c>
-      <c r="K190" t="s">
-        <v>335</v>
       </c>
       <c r="L190" s="10"/>
       <c r="M190" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
@@ -9119,7 +9119,7 @@
         <v>44062</v>
       </c>
       <c r="E191" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>15</v>
@@ -9128,23 +9128,23 @@
         <v>17079</v>
       </c>
       <c r="H191" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G191))</f>
+        <f t="shared" ref="H191:H254" ca="1" si="4">(YEAR(TODAY())-YEAR(G191))</f>
         <v>74</v>
       </c>
       <c r="I191" t="s">
         <v>200</v>
       </c>
       <c r="J191" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K191" t="s">
         <v>331</v>
-      </c>
-      <c r="K191" t="s">
-        <v>335</v>
       </c>
       <c r="L191" s="10">
         <v>43839</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
@@ -9161,7 +9161,7 @@
         <v>44069</v>
       </c>
       <c r="E192" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>25</v>
@@ -9170,21 +9170,21 @@
         <v>27246</v>
       </c>
       <c r="H192" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G192))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>46</v>
       </c>
       <c r="I192" t="s">
         <v>200</v>
       </c>
       <c r="J192" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K192" t="s">
         <v>331</v>
-      </c>
-      <c r="K192" t="s">
-        <v>335</v>
       </c>
       <c r="L192" s="10"/>
       <c r="M192" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -9199,7 +9199,7 @@
       </c>
       <c r="D193" s="10"/>
       <c r="E193" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>27</v>
@@ -9208,17 +9208,17 @@
         <v>27492</v>
       </c>
       <c r="H193" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G193))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="I193" t="s">
         <v>200</v>
       </c>
       <c r="J193" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K193" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L193" s="10"/>
       <c r="M193"/>
@@ -9237,7 +9237,7 @@
         <v>44062</v>
       </c>
       <c r="E194" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>30</v>
@@ -9246,23 +9246,23 @@
         <v>26205</v>
       </c>
       <c r="H194" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G194))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="I194" t="s">
         <v>200</v>
       </c>
       <c r="J194" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K194" t="s">
         <v>331</v>
-      </c>
-      <c r="K194" t="s">
-        <v>335</v>
       </c>
       <c r="L194" s="10">
         <v>43839</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -9279,7 +9279,7 @@
         <v>44062</v>
       </c>
       <c r="E195" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>33</v>
@@ -9288,23 +9288,23 @@
         <v>25149</v>
       </c>
       <c r="H195" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G195))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I195" t="s">
         <v>200</v>
       </c>
       <c r="J195" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K195" t="s">
         <v>331</v>
-      </c>
-      <c r="K195" t="s">
-        <v>335</v>
       </c>
       <c r="L195" s="10">
         <v>43904</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -9321,7 +9321,7 @@
         <v>44062</v>
       </c>
       <c r="E196" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>36</v>
@@ -9330,23 +9330,23 @@
         <v>26299</v>
       </c>
       <c r="H196" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G196))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="I196" t="s">
         <v>200</v>
       </c>
       <c r="J196" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K196" t="s">
         <v>331</v>
-      </c>
-      <c r="K196" t="s">
-        <v>335</v>
       </c>
       <c r="L196" s="10">
         <v>43839</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="D197" s="10"/>
       <c r="E197" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>37</v>
@@ -9370,17 +9370,17 @@
         <v>29572</v>
       </c>
       <c r="H197" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G197))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I197" t="s">
         <v>200</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K197" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L197" s="10"/>
       <c r="M197"/>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="D198" s="10"/>
       <c r="E198" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>38</v>
@@ -9406,17 +9406,17 @@
         <v>24666</v>
       </c>
       <c r="H198" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G198))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="I198" t="s">
         <v>200</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K198" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L198" s="10"/>
       <c r="M198"/>
@@ -9435,7 +9435,7 @@
         <v>44061</v>
       </c>
       <c r="E199" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>40</v>
@@ -9444,21 +9444,21 @@
         <v>31817</v>
       </c>
       <c r="H199" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G199))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I199" t="s">
         <v>200</v>
       </c>
       <c r="J199" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K199" t="s">
         <v>331</v>
-      </c>
-      <c r="K199" t="s">
-        <v>335</v>
       </c>
       <c r="L199" s="10"/>
       <c r="M199" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="D200" s="10"/>
       <c r="E200" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>42</v>
@@ -9482,17 +9482,17 @@
         <v>26833</v>
       </c>
       <c r="H200" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G200))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I200" t="s">
         <v>200</v>
       </c>
       <c r="J200" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K200" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L200" s="10"/>
       <c r="M200"/>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="D201" s="10"/>
       <c r="E201" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>45</v>
@@ -9518,17 +9518,17 @@
         <v>19566</v>
       </c>
       <c r="H201" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G201))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I201" t="s">
         <v>200</v>
       </c>
       <c r="J201" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K201" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L201" s="10"/>
       <c r="M201"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="D202" s="10"/>
       <c r="E202" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>46</v>
@@ -9554,17 +9554,17 @@
         <v>18407</v>
       </c>
       <c r="H202" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G202))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="I202" t="s">
         <v>200</v>
       </c>
       <c r="J202" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K202" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L202" s="10"/>
       <c r="M202"/>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="D203" s="10"/>
       <c r="E203" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>63</v>
@@ -9590,17 +9590,17 @@
         <v>19434</v>
       </c>
       <c r="H203" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G203))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I203" t="s">
         <v>200</v>
       </c>
       <c r="J203" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K203" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L203" s="10"/>
       <c r="M203"/>
@@ -9619,7 +9619,7 @@
         <v>44062</v>
       </c>
       <c r="E204" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>67</v>
@@ -9628,23 +9628,23 @@
         <v>29549</v>
       </c>
       <c r="H204" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G204))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I204" t="s">
         <v>200</v>
       </c>
       <c r="J204" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K204" t="s">
         <v>331</v>
-      </c>
-      <c r="K204" t="s">
-        <v>335</v>
       </c>
       <c r="L204" s="10">
         <v>43839</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -9661,7 +9661,7 @@
         <v>44062</v>
       </c>
       <c r="E205" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>68</v>
@@ -9670,23 +9670,23 @@
         <v>26133</v>
       </c>
       <c r="H205" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G205))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="I205" t="s">
         <v>200</v>
       </c>
       <c r="J205" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K205" t="s">
         <v>331</v>
-      </c>
-      <c r="K205" t="s">
-        <v>335</v>
       </c>
       <c r="L205" s="10">
         <v>43861</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="E206" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>74</v>
@@ -9712,23 +9712,23 @@
         <v>21548</v>
       </c>
       <c r="H206" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G206))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I206" t="s">
         <v>200</v>
       </c>
       <c r="J206" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K206" t="s">
         <v>331</v>
-      </c>
-      <c r="K206" t="s">
-        <v>335</v>
       </c>
       <c r="L206" s="10">
         <v>43839</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
@@ -9745,7 +9745,7 @@
         <v>44062</v>
       </c>
       <c r="E207" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>88</v>
@@ -9754,23 +9754,23 @@
         <v>27763</v>
       </c>
       <c r="H207" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G207))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I207" t="s">
         <v>200</v>
       </c>
       <c r="J207" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K207" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L207" s="10">
         <v>43891</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
@@ -9787,7 +9787,7 @@
         <v>44062</v>
       </c>
       <c r="E208" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>91</v>
@@ -9796,23 +9796,23 @@
         <v>22263</v>
       </c>
       <c r="H208" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G208))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="I208" t="s">
         <v>200</v>
       </c>
       <c r="J208" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K208" t="s">
         <v>331</v>
-      </c>
-      <c r="K208" t="s">
-        <v>335</v>
       </c>
       <c r="L208" s="10">
         <v>43861</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
@@ -9829,7 +9829,7 @@
         <v>44062</v>
       </c>
       <c r="E209" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>93</v>
@@ -9838,23 +9838,23 @@
         <v>31990</v>
       </c>
       <c r="H209" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G209))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I209" t="s">
         <v>200</v>
       </c>
       <c r="J209" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K209" t="s">
         <v>331</v>
-      </c>
-      <c r="K209" t="s">
-        <v>335</v>
       </c>
       <c r="L209" s="10">
         <v>43839</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="D210" s="10"/>
       <c r="E210" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>94</v>
@@ -9878,17 +9878,17 @@
         <v>30315</v>
       </c>
       <c r="H210" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G210))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I210" t="s">
         <v>200</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K210" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L210" s="10"/>
       <c r="M210"/>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="D211" s="10"/>
       <c r="E211" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>98</v>
@@ -9914,17 +9914,17 @@
         <v>20907</v>
       </c>
       <c r="H211" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G211))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="I211" t="s">
         <v>200</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K211" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L211" s="10"/>
       <c r="M211"/>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="D212" s="10"/>
       <c r="E212" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>99</v>
@@ -9950,17 +9950,17 @@
         <v>21674</v>
       </c>
       <c r="H212" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G212))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="I212" t="s">
         <v>200</v>
       </c>
       <c r="J212" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K212" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L212" s="10"/>
       <c r="M212"/>
@@ -9979,7 +9979,7 @@
         <v>44062</v>
       </c>
       <c r="E213" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>101</v>
@@ -9988,23 +9988,23 @@
         <v>24834</v>
       </c>
       <c r="H213" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G213))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="I213" t="s">
         <v>200</v>
       </c>
       <c r="J213" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K213" t="s">
         <v>331</v>
-      </c>
-      <c r="K213" t="s">
-        <v>335</v>
       </c>
       <c r="L213" s="10">
         <v>43861</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
@@ -10021,7 +10021,7 @@
         <v>44062</v>
       </c>
       <c r="E214" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>103</v>
@@ -10030,23 +10030,23 @@
         <v>27004</v>
       </c>
       <c r="H214" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G214))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I214" t="s">
         <v>200</v>
       </c>
       <c r="J214" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K214" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L214" s="10">
         <v>43904</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -10063,30 +10063,30 @@
         <v>44069</v>
       </c>
       <c r="E215" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G215" s="13">
         <v>20377</v>
       </c>
       <c r="H215" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G215))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="I215" t="s">
         <v>200</v>
       </c>
       <c r="J215" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K215" t="s">
         <v>331</v>
-      </c>
-      <c r="K215" t="s">
-        <v>335</v>
       </c>
       <c r="L215" s="10"/>
       <c r="M215" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="D216" s="10"/>
       <c r="E216" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>111</v>
@@ -10110,17 +10110,17 @@
         <v>23941</v>
       </c>
       <c r="H216" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G216))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="I216" t="s">
         <v>200</v>
       </c>
       <c r="J216" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K216" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L216" s="10"/>
       <c r="M216"/>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="D217" s="10"/>
       <c r="E217" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>114</v>
@@ -10146,17 +10146,17 @@
         <v>26624</v>
       </c>
       <c r="H217" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G217))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="I217" t="s">
         <v>200</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K217" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L217" s="10"/>
       <c r="M217"/>
@@ -10175,7 +10175,7 @@
         <v>44061</v>
       </c>
       <c r="E218" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>115</v>
@@ -10184,21 +10184,21 @@
         <v>31120</v>
       </c>
       <c r="H218" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G218))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I218" t="s">
         <v>200</v>
       </c>
       <c r="J218" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K218" t="s">
         <v>331</v>
-      </c>
-      <c r="K218" t="s">
-        <v>335</v>
       </c>
       <c r="L218" s="10"/>
       <c r="M218" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -10215,7 +10215,7 @@
         <v>44062</v>
       </c>
       <c r="E219" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>123</v>
@@ -10224,21 +10224,21 @@
         <v>29623</v>
       </c>
       <c r="H219" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G219))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="I219" t="s">
         <v>200</v>
       </c>
       <c r="J219" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K219" t="s">
         <v>331</v>
-      </c>
-      <c r="K219" t="s">
-        <v>335</v>
       </c>
       <c r="L219" s="10"/>
       <c r="M219" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -10255,7 +10255,7 @@
         <v>44062</v>
       </c>
       <c r="E220" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>129</v>
@@ -10264,26 +10264,26 @@
         <v>27719</v>
       </c>
       <c r="H220" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G220))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="I220" t="s">
         <v>200</v>
       </c>
       <c r="J220" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K220" t="s">
         <v>331</v>
-      </c>
-      <c r="K220" t="s">
-        <v>335</v>
       </c>
       <c r="L220" s="10">
         <v>43839</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N220" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="D221" s="10"/>
       <c r="E221" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>144</v>
@@ -10307,17 +10307,17 @@
         <v>25084</v>
       </c>
       <c r="H221" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G221))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I221" t="s">
         <v>200</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K221" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L221" s="10"/>
       <c r="M221"/>
@@ -10336,7 +10336,7 @@
         <v>44062</v>
       </c>
       <c r="E222" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>146</v>
@@ -10345,23 +10345,23 @@
         <v>30097</v>
       </c>
       <c r="H222" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G222))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I222" t="s">
         <v>200</v>
       </c>
       <c r="J222" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K222" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L222" s="10">
         <v>43904</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
@@ -10378,7 +10378,7 @@
         <v>44069</v>
       </c>
       <c r="E223" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>151</v>
@@ -10387,21 +10387,21 @@
         <v>23358</v>
       </c>
       <c r="H223" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G223))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="I223" t="s">
         <v>200</v>
       </c>
       <c r="J223" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K223" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L223" s="10"/>
       <c r="M223" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
@@ -10418,30 +10418,30 @@
         <v>44069</v>
       </c>
       <c r="E224" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G224" s="10">
         <v>32980</v>
       </c>
       <c r="H224" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G224))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I224" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J224" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K224" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L224" s="10"/>
       <c r="M224" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -10458,30 +10458,30 @@
         <v>44069</v>
       </c>
       <c r="E225" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F225" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G225" s="10">
         <v>31116</v>
       </c>
       <c r="H225" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G225))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I225" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J225" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="K225" t="s">
         <v>331</v>
-      </c>
-      <c r="K225" t="s">
-        <v>335</v>
       </c>
       <c r="L225" s="10"/>
       <c r="M225" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
@@ -10498,7 +10498,7 @@
         <v>44061</v>
       </c>
       <c r="E226" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>24</v>
@@ -10507,21 +10507,21 @@
         <v>30164</v>
       </c>
       <c r="H226" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G226))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I226" t="s">
         <v>208</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K226" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L226" s="10"/>
       <c r="M226" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
@@ -10538,7 +10538,7 @@
         <v>44061</v>
       </c>
       <c r="E227" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>47</v>
@@ -10547,21 +10547,21 @@
         <v>31562</v>
       </c>
       <c r="H227" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G227))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
       <c r="I227" t="s">
         <v>208</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K227" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L227" s="10"/>
       <c r="M227" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -10578,7 +10578,7 @@
         <v>44061</v>
       </c>
       <c r="E228" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>95</v>
@@ -10587,21 +10587,21 @@
         <v>33225</v>
       </c>
       <c r="H228" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G228))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I228" t="s">
         <v>208</v>
       </c>
       <c r="J228" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K228" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L228" s="10"/>
       <c r="M228" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
@@ -10618,7 +10618,7 @@
         <v>44061</v>
       </c>
       <c r="E229" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>135</v>
@@ -10627,21 +10627,21 @@
         <v>30491</v>
       </c>
       <c r="H229" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G229))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37</v>
       </c>
       <c r="I229" t="s">
         <v>208</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K229" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L229" s="10"/>
       <c r="M229" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -10658,7 +10658,7 @@
         <v>44061</v>
       </c>
       <c r="E230" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>148</v>
@@ -10667,21 +10667,21 @@
         <v>32481</v>
       </c>
       <c r="H230" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G230))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="I230" t="s">
         <v>208</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K230" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L230" s="10"/>
       <c r="M230" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
@@ -10698,7 +10698,7 @@
         <v>44062</v>
       </c>
       <c r="E231" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F231" s="12" t="s">
         <v>19</v>
@@ -10707,21 +10707,21 @@
         <v>32885</v>
       </c>
       <c r="H231" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G231))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I231" t="s">
         <v>208</v>
       </c>
       <c r="J231" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K231" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L231" s="10"/>
       <c r="M231" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
@@ -10738,7 +10738,7 @@
         <v>44062</v>
       </c>
       <c r="E232" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F232" s="12" t="s">
         <v>31</v>
@@ -10747,21 +10747,21 @@
         <v>31146</v>
       </c>
       <c r="H232" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G232))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I232" t="s">
         <v>208</v>
       </c>
       <c r="J232" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K232" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L232" s="10"/>
       <c r="M232" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
@@ -10778,7 +10778,7 @@
         <v>44061</v>
       </c>
       <c r="E233" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>58</v>
@@ -10787,21 +10787,21 @@
         <v>31814</v>
       </c>
       <c r="H233" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G233))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I233" t="s">
         <v>208</v>
       </c>
       <c r="J233" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K233" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L233" s="10"/>
       <c r="M233" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
@@ -10818,7 +10818,7 @@
         <v>44062</v>
       </c>
       <c r="E234" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F234" s="12" t="s">
         <v>89</v>
@@ -10827,21 +10827,21 @@
         <v>32196</v>
       </c>
       <c r="H234" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G234))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="I234" t="s">
         <v>208</v>
       </c>
       <c r="J234" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K234" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L234" s="10"/>
       <c r="M234" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
@@ -10858,7 +10858,7 @@
         <v>44062</v>
       </c>
       <c r="E235" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F235" s="12" t="s">
         <v>9</v>
@@ -10867,23 +10867,23 @@
         <v>20417</v>
       </c>
       <c r="H235" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G235))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="I235" t="s">
         <v>205</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K235" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L235" s="10">
         <v>43867</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="D236" s="10"/>
       <c r="E236" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>12</v>
@@ -10907,17 +10907,17 @@
         <v>19630</v>
       </c>
       <c r="H236" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G236))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I236" t="s">
         <v>205</v>
       </c>
       <c r="J236" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K236" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L236" s="10"/>
       <c r="M236"/>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="D237" s="10"/>
       <c r="E237" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>14</v>
@@ -10943,17 +10943,17 @@
         <v>21249</v>
       </c>
       <c r="H237" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G237))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I237" t="s">
         <v>205</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K237" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L237" s="10"/>
       <c r="M237"/>
@@ -10972,7 +10972,7 @@
         <v>44069</v>
       </c>
       <c r="E238" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>17</v>
@@ -10981,21 +10981,21 @@
         <v>21269</v>
       </c>
       <c r="H238" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G238))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I238" t="s">
         <v>205</v>
       </c>
       <c r="J238" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K238" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L238" s="10"/>
       <c r="M238" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="D239" s="10"/>
       <c r="E239" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F239" s="12" t="s">
         <v>22</v>
@@ -11019,17 +11019,17 @@
         <v>29503</v>
       </c>
       <c r="H239" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G239))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I239" t="s">
         <v>205</v>
       </c>
       <c r="J239" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K239" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L239" s="10"/>
       <c r="M239"/>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="D240" s="10"/>
       <c r="E240" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>43</v>
@@ -11055,17 +11055,17 @@
         <v>26846</v>
       </c>
       <c r="H240" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G240))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I240" t="s">
         <v>205</v>
       </c>
       <c r="J240" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K240" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L240" s="10"/>
       <c r="M240"/>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="D241" s="10"/>
       <c r="E241" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>44</v>
@@ -11091,17 +11091,17 @@
         <v>24000</v>
       </c>
       <c r="H241" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G241))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="I241" t="s">
         <v>205</v>
       </c>
       <c r="J241" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K241" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L241" s="10"/>
       <c r="M241"/>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="D242" s="10"/>
       <c r="E242" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>51</v>
@@ -11127,17 +11127,17 @@
         <v>19943</v>
       </c>
       <c r="H242" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G242))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
       <c r="I242" t="s">
         <v>205</v>
       </c>
       <c r="J242" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K242" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L242" s="10"/>
       <c r="M242"/>
@@ -11156,7 +11156,7 @@
         <v>44061</v>
       </c>
       <c r="E243" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>55</v>
@@ -11165,21 +11165,21 @@
         <v>28122</v>
       </c>
       <c r="H243" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G243))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I243" t="s">
         <v>205</v>
       </c>
       <c r="J243" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K243" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L243" s="10"/>
       <c r="M243" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="D244" s="10"/>
       <c r="E244" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>62</v>
@@ -11203,17 +11203,17 @@
         <v>29350</v>
       </c>
       <c r="H244" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G244))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I244" t="s">
         <v>205</v>
       </c>
       <c r="J244" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K244" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L244" s="10"/>
       <c r="M244"/>
@@ -11232,7 +11232,7 @@
         <v>44062</v>
       </c>
       <c r="E245" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>65</v>
@@ -11241,23 +11241,23 @@
         <v>29000</v>
       </c>
       <c r="H245" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G245))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="I245" t="s">
         <v>205</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K245" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L245" s="10">
         <v>43867</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="D246" s="10"/>
       <c r="E246" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>69</v>
@@ -11281,17 +11281,17 @@
         <v>28805</v>
       </c>
       <c r="H246" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G246))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>42</v>
       </c>
       <c r="I246" t="s">
         <v>205</v>
       </c>
       <c r="J246" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K246" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L246" s="10"/>
       <c r="M246"/>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="D247" s="10"/>
       <c r="E247" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>72</v>
@@ -11317,17 +11317,17 @@
         <v>20625</v>
       </c>
       <c r="H247" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G247))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="I247" t="s">
         <v>205</v>
       </c>
       <c r="J247" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K247" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L247" s="10"/>
       <c r="M247"/>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="D248" s="10"/>
       <c r="E248" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F248" s="12" t="s">
         <v>80</v>
@@ -11353,17 +11353,17 @@
         <v>21011</v>
       </c>
       <c r="H248" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G248))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="I248" t="s">
         <v>205</v>
       </c>
       <c r="J248" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K248" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L248" s="10"/>
       <c r="M248"/>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="D249" s="10"/>
       <c r="E249" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>84</v>
@@ -11389,17 +11389,17 @@
         <v>29713</v>
       </c>
       <c r="H249" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G249))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="I249" t="s">
         <v>205</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K249" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L249" s="10"/>
       <c r="M249"/>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="D250" s="10"/>
       <c r="E250" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>85</v>
@@ -11425,17 +11425,17 @@
         <v>21432</v>
       </c>
       <c r="H250" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G250))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I250" t="s">
         <v>205</v>
       </c>
       <c r="J250" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K250" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L250" s="10"/>
       <c r="M250"/>
@@ -11454,7 +11454,7 @@
         <v>44061</v>
       </c>
       <c r="E251" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F251" s="12" t="s">
         <v>100</v>
@@ -11463,21 +11463,21 @@
         <v>28961</v>
       </c>
       <c r="H251" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G251))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="I251" t="s">
         <v>205</v>
       </c>
       <c r="J251" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K251" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L251" s="10"/>
       <c r="M251" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="D252" s="10"/>
       <c r="E252" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>102</v>
@@ -11501,17 +11501,17 @@
         <v>25069</v>
       </c>
       <c r="H252" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G252))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I252" t="s">
         <v>205</v>
       </c>
       <c r="J252" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K252" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L252" s="10"/>
       <c r="M252"/>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="D253" s="10"/>
       <c r="E253" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>110</v>
@@ -11537,17 +11537,17 @@
         <v>24451</v>
       </c>
       <c r="H253" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G253))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>54</v>
       </c>
       <c r="I253" t="s">
         <v>205</v>
       </c>
       <c r="J253" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K253" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L253" s="10"/>
       <c r="M253"/>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="D254" s="10"/>
       <c r="E254" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>125</v>
@@ -11573,17 +11573,17 @@
         <v>27834</v>
       </c>
       <c r="H254" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G254))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I254" t="s">
         <v>205</v>
       </c>
       <c r="J254" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K254" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L254" s="10"/>
       <c r="M254"/>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="D255" s="10"/>
       <c r="E255" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>126</v>
@@ -11609,17 +11609,17 @@
         <v>18677</v>
       </c>
       <c r="H255" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G255))</f>
+        <f t="shared" ref="H255:H318" ca="1" si="5">(YEAR(TODAY())-YEAR(G255))</f>
         <v>69</v>
       </c>
       <c r="I255" t="s">
         <v>205</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K255" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L255" s="10"/>
       <c r="M255"/>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="D256" s="10"/>
       <c r="E256" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>128</v>
@@ -11645,17 +11645,17 @@
         <v>18960</v>
       </c>
       <c r="H256" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G256))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="I256" t="s">
         <v>205</v>
       </c>
       <c r="J256" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K256" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L256" s="10"/>
       <c r="M256"/>
@@ -11672,7 +11672,7 @@
       </c>
       <c r="D257" s="10"/>
       <c r="E257" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>136</v>
@@ -11681,17 +11681,17 @@
         <v>20084</v>
       </c>
       <c r="H257" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G257))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>66</v>
       </c>
       <c r="I257" t="s">
         <v>205</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K257" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L257" s="10"/>
       <c r="M257"/>
@@ -11710,7 +11710,7 @@
         <v>44069</v>
       </c>
       <c r="E258" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>137</v>
@@ -11719,21 +11719,21 @@
         <v>29014</v>
       </c>
       <c r="H258" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G258))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>41</v>
       </c>
       <c r="I258" t="s">
         <v>205</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K258" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L258" s="10"/>
       <c r="M258" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="D259" s="10"/>
       <c r="E259" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>138</v>
@@ -11757,17 +11757,17 @@
         <v>27808</v>
       </c>
       <c r="H259" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G259))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="I259" t="s">
         <v>205</v>
       </c>
       <c r="J259" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K259" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L259" s="10"/>
       <c r="M259"/>
@@ -11786,7 +11786,7 @@
         <v>44061</v>
       </c>
       <c r="E260" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>140</v>
@@ -11795,21 +11795,21 @@
         <v>29294</v>
       </c>
       <c r="H260" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G260))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>40</v>
       </c>
       <c r="I260" t="s">
         <v>205</v>
       </c>
       <c r="J260" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K260" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L260" s="10"/>
       <c r="M260" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="D261" s="10"/>
       <c r="E261" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F261" s="12" t="s">
         <v>150</v>
@@ -11833,17 +11833,17 @@
         <v>22529</v>
       </c>
       <c r="H261" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G261))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>59</v>
       </c>
       <c r="I261" t="s">
         <v>205</v>
       </c>
       <c r="J261" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K261" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L261" s="10"/>
       <c r="M261"/>
@@ -11862,7 +11862,7 @@
         <v>44069</v>
       </c>
       <c r="E262" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>155</v>
@@ -11871,21 +11871,21 @@
         <v>21079</v>
       </c>
       <c r="H262" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G262))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>63</v>
       </c>
       <c r="I262" t="s">
         <v>205</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K262" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L262" s="10"/>
       <c r="M262" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="D263" s="10"/>
       <c r="E263" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>156</v>
@@ -11909,17 +11909,17 @@
         <v>28020</v>
       </c>
       <c r="H263" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G263))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="I263" t="s">
         <v>205</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K263" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L263" s="10"/>
       <c r="M263"/>
@@ -11936,26 +11936,26 @@
       </c>
       <c r="D264" s="10"/>
       <c r="E264" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G264" s="10">
         <v>21554</v>
       </c>
       <c r="H264" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G264))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>61</v>
       </c>
       <c r="I264" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K264" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L264" s="10"/>
       <c r="M264"/>

--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/endosos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDEAC17-4419-5C44-8C9C-806BD4527C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B76E0-2FBB-49BD-8132-F56C46CDD04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
@@ -1425,26 +1425,26 @@
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>18233</v>
       </c>
       <c r="H2" s="11">
-        <f t="shared" ref="H2:H31" ca="1" si="0">(YEAR(TODAY())-YEAR(G2))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(G2))</f>
         <v>71</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -1523,7 +1523,7 @@
       <c r="L2" s="10"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>15516</v>
       </c>
       <c r="H3" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G3))</f>
         <v>78</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -1561,7 +1561,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>13941</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G4))</f>
         <v>82</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -1599,7 +1599,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>18900</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G5))</f>
         <v>69</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -1637,7 +1637,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>26645</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G6))</f>
         <v>48</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -1679,7 +1679,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>20120</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G7))</f>
         <v>65</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -1721,7 +1721,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>28232</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G8))</f>
         <v>43</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -1763,7 +1763,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>27653</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G9))</f>
         <v>45</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -1805,7 +1805,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>22460</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G10))</f>
         <v>59</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -1847,7 +1847,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>27681</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G11))</f>
         <v>45</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -1889,7 +1889,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>17815</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G12))</f>
         <v>72</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -1931,7 +1931,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>27474</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G13))</f>
         <v>45</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -1973,7 +1973,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>20671</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G14))</f>
         <v>64</v>
       </c>
       <c r="I14" s="12" t="s">
@@ -2015,7 +2015,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>17779</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G15))</f>
         <v>72</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -2057,7 +2057,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>24724</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G16))</f>
         <v>53</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -2099,7 +2099,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>25134</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G17))</f>
         <v>52</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -2141,7 +2141,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>25126</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G18))</f>
         <v>52</v>
       </c>
       <c r="I18" t="s">
@@ -2183,7 +2183,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>24970</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G19))</f>
         <v>52</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -2225,7 +2225,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>20492</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G20))</f>
         <v>64</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -2267,7 +2267,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>21368</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G21))</f>
         <v>62</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -2309,7 +2309,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>27295</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G22))</f>
         <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -2351,7 +2351,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>27105</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G23))</f>
         <v>46</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -2393,7 +2393,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>29554</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G24))</f>
         <v>40</v>
       </c>
       <c r="I24" t="s">
@@ -2435,7 +2435,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>20015</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G25))</f>
         <v>66</v>
       </c>
       <c r="I25" s="12" t="s">
@@ -2477,7 +2477,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>26556</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G26))</f>
         <v>48</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -2519,7 +2519,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>32557</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G27))</f>
         <v>31</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -2561,7 +2561,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>22770</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G28))</f>
         <v>58</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -2603,7 +2603,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>17431</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G29))</f>
         <v>73</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -2645,7 +2645,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>30994</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G30))</f>
         <v>36</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -2681,7 +2681,7 @@
       <c r="L30" s="10"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>25454</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G31))</f>
         <v>51</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -2717,7 +2717,7 @@
       <c r="L31" s="10"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="L32" s="10"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="L33" s="10"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="L34" s="10"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2846,7 +2846,7 @@
       <c r="L35" s="10"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="L36" s="10"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="L37" s="10"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="L38" s="10"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="L39" s="10"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>18048</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" ref="H40:H49" ca="1" si="1">(YEAR(TODAY())-YEAR(G40))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(G40))</f>
         <v>71</v>
       </c>
       <c r="I40" s="12" t="s">
@@ -3021,7 +3021,7 @@
       <c r="L40" s="10"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>25492</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G41))</f>
         <v>51</v>
       </c>
       <c r="I41" s="12" t="s">
@@ -3057,7 +3057,7 @@
       <c r="L41" s="10"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>27655</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G42))</f>
         <v>45</v>
       </c>
       <c r="I42" s="12" t="s">
@@ -3093,7 +3093,7 @@
       <c r="L42" s="10"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>22881</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G43))</f>
         <v>58</v>
       </c>
       <c r="I43" s="12" t="s">
@@ -3129,7 +3129,7 @@
       <c r="L43" s="10"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>29105</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G44))</f>
         <v>41</v>
       </c>
       <c r="I44" s="12" t="s">
@@ -3165,7 +3165,7 @@
       <c r="L44" s="10"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>20806</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G45))</f>
         <v>64</v>
       </c>
       <c r="I45" s="12" t="s">
@@ -3201,7 +3201,7 @@
       <c r="L45" s="10"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>26763</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G46))</f>
         <v>47</v>
       </c>
       <c r="I46" s="12" t="s">
@@ -3243,7 +3243,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>26090</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G47))</f>
         <v>49</v>
       </c>
       <c r="I47" s="12" t="s">
@@ -3285,7 +3285,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>31131</v>
       </c>
       <c r="H48" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G48))</f>
         <v>35</v>
       </c>
       <c r="I48" s="12" t="s">
@@ -3325,7 +3325,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>25265</v>
       </c>
       <c r="H49" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G49))</f>
         <v>51</v>
       </c>
       <c r="I49" s="12" t="s">
@@ -3367,7 +3367,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="L50" s="10"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="L51" s="10"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="L61" s="10"/>
       <c r="M61"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="L62" s="10"/>
       <c r="M62"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>19005</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" ref="H63:H126" ca="1" si="2">(YEAR(TODAY())-YEAR(G63))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(G63))</f>
         <v>68</v>
       </c>
       <c r="I63" s="12" t="s">
@@ -3883,7 +3883,7 @@
       <c r="L63" s="10"/>
       <c r="M63"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>27845</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G64))</f>
         <v>44</v>
       </c>
       <c r="I64" s="12" t="s">
@@ -3919,7 +3919,7 @@
       <c r="L64" s="10"/>
       <c r="M64"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>14442</v>
       </c>
       <c r="H65" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G65))</f>
         <v>81</v>
       </c>
       <c r="I65" s="12" t="s">
@@ -3961,7 +3961,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>19655</v>
       </c>
       <c r="H66" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G66))</f>
         <v>67</v>
       </c>
       <c r="I66" s="12" t="s">
@@ -4003,7 +4003,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>2020</v>
       </c>
       <c r="D67" s="10">
-        <v>44061</v>
+        <v>44070</v>
       </c>
       <c r="E67" t="s">
         <v>306</v>
@@ -4026,7 +4026,7 @@
         <v>28285</v>
       </c>
       <c r="H67" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G67))</f>
         <v>43</v>
       </c>
       <c r="I67" t="s">
@@ -4039,13 +4039,13 @@
         <v>330</v>
       </c>
       <c r="L67" s="10">
-        <v>44036</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>44070</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4068,14 +4068,14 @@
         <v>24478</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G68))</f>
         <v>53</v>
       </c>
       <c r="I68" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K68" t="s">
         <v>331</v>
@@ -4087,7 +4087,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>21855</v>
       </c>
       <c r="H69" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G69))</f>
         <v>61</v>
       </c>
       <c r="I69" t="s">
@@ -4129,7 +4129,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>21845</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G70))</f>
         <v>61</v>
       </c>
       <c r="I70" t="s">
@@ -4171,7 +4171,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>22224</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G71))</f>
         <v>60</v>
       </c>
       <c r="I71" s="12" t="s">
@@ -4207,7 +4207,7 @@
       <c r="L71" s="10"/>
       <c r="M71"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>19423</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G72))</f>
         <v>67</v>
       </c>
       <c r="I72" s="12" t="s">
@@ -4247,7 +4247,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>27196</v>
       </c>
       <c r="H73" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G73))</f>
         <v>46</v>
       </c>
       <c r="I73" s="12" t="s">
@@ -4283,7 +4283,7 @@
       <c r="L73" s="10"/>
       <c r="M73"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>21509</v>
       </c>
       <c r="H74" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G74))</f>
         <v>62</v>
       </c>
       <c r="I74" s="12" t="s">
@@ -4323,7 +4323,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>16153</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G75))</f>
         <v>76</v>
       </c>
       <c r="I75" t="s">
@@ -4363,7 +4363,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>25553</v>
       </c>
       <c r="H76" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G76))</f>
         <v>51</v>
       </c>
       <c r="I76" t="s">
@@ -4403,7 +4403,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>25024</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G77))</f>
         <v>52</v>
       </c>
       <c r="I77" t="s">
@@ -4443,7 +4443,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>26653</v>
       </c>
       <c r="H78" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G78))</f>
         <v>48</v>
       </c>
       <c r="I78" s="12" t="s">
@@ -4485,7 +4485,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>19105</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G79))</f>
         <v>68</v>
       </c>
       <c r="I79" s="12" t="s">
@@ -4527,7 +4527,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>22698</v>
       </c>
       <c r="H80" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G80))</f>
         <v>58</v>
       </c>
       <c r="I80" t="s">
@@ -4567,7 +4567,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>26732</v>
       </c>
       <c r="H81" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G81))</f>
         <v>47</v>
       </c>
       <c r="I81" t="s">
@@ -4609,7 +4609,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>24767</v>
       </c>
       <c r="H82" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G82))</f>
         <v>53</v>
       </c>
       <c r="I82" t="s">
@@ -4651,7 +4651,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>13455</v>
       </c>
       <c r="H83" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G83))</f>
         <v>84</v>
       </c>
       <c r="I83" t="s">
@@ -4693,7 +4693,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>22305</v>
       </c>
       <c r="H84" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G84))</f>
         <v>59</v>
       </c>
       <c r="I84" s="12" t="s">
@@ -4735,7 +4735,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>26500</v>
       </c>
       <c r="H85" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G85))</f>
         <v>48</v>
       </c>
       <c r="I85" s="12" t="s">
@@ -4777,7 +4777,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>17801</v>
       </c>
       <c r="H86" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G86))</f>
         <v>72</v>
       </c>
       <c r="I86" s="12" t="s">
@@ -4819,7 +4819,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>25491</v>
       </c>
       <c r="H87" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G87))</f>
         <v>51</v>
       </c>
       <c r="I87" t="s">
@@ -4861,7 +4861,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>15859</v>
       </c>
       <c r="H88" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G88))</f>
         <v>77</v>
       </c>
       <c r="I88" t="s">
@@ -4903,7 +4903,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>16455</v>
       </c>
       <c r="H89" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G89))</f>
         <v>75</v>
       </c>
       <c r="I89" t="s">
@@ -4945,7 +4945,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>24173</v>
       </c>
       <c r="H90" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G90))</f>
         <v>54</v>
       </c>
       <c r="I90" s="12" t="s">
@@ -4987,7 +4987,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>22288</v>
       </c>
       <c r="H91" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G91))</f>
         <v>59</v>
       </c>
       <c r="I91" s="12" t="s">
@@ -5029,7 +5029,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>16933</v>
       </c>
       <c r="H92" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G92))</f>
         <v>74</v>
       </c>
       <c r="I92" s="12" t="s">
@@ -5069,7 +5069,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>16010</v>
       </c>
       <c r="H93" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G93))</f>
         <v>77</v>
       </c>
       <c r="I93" s="12" t="s">
@@ -5109,7 +5109,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>29680</v>
       </c>
       <c r="H94" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G94))</f>
         <v>39</v>
       </c>
       <c r="I94" t="s">
@@ -5149,7 +5149,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>26073</v>
       </c>
       <c r="H95" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G95))</f>
         <v>49</v>
       </c>
       <c r="I95" t="s">
@@ -5191,7 +5191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>24414</v>
       </c>
       <c r="H96" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G96))</f>
         <v>54</v>
       </c>
       <c r="I96" t="s">
@@ -5233,7 +5233,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>20231</v>
       </c>
       <c r="H97" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G97))</f>
         <v>65</v>
       </c>
       <c r="I97" t="s">
@@ -5275,7 +5275,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>20252</v>
       </c>
       <c r="H98" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G98))</f>
         <v>65</v>
       </c>
       <c r="I98" t="s">
@@ -5317,7 +5317,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>22882</v>
       </c>
       <c r="H99" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G99))</f>
         <v>58</v>
       </c>
       <c r="I99" s="12" t="s">
@@ -5359,7 +5359,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>28573</v>
       </c>
       <c r="H100" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G100))</f>
         <v>42</v>
       </c>
       <c r="I100" t="s">
@@ -5399,7 +5399,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>22094</v>
       </c>
       <c r="H101" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G101))</f>
         <v>60</v>
       </c>
       <c r="I101" t="s">
@@ -5441,7 +5441,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>23444</v>
       </c>
       <c r="H102" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G102))</f>
         <v>56</v>
       </c>
       <c r="I102" t="s">
@@ -5483,7 +5483,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>19287</v>
       </c>
       <c r="H103" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G103))</f>
         <v>68</v>
       </c>
       <c r="I103" t="s">
@@ -5525,7 +5525,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>20651</v>
       </c>
       <c r="H104" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G104))</f>
         <v>64</v>
       </c>
       <c r="I104" t="s">
@@ -5567,7 +5567,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>20797</v>
       </c>
       <c r="H105" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G105))</f>
         <v>64</v>
       </c>
       <c r="I105" s="12" t="s">
@@ -5609,7 +5609,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>27361</v>
       </c>
       <c r="H106" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G106))</f>
         <v>46</v>
       </c>
       <c r="I106" s="12" t="s">
@@ -5651,7 +5651,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>19103</v>
       </c>
       <c r="H107" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G107))</f>
         <v>68</v>
       </c>
       <c r="I107" s="12" t="s">
@@ -5693,7 +5693,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>23776</v>
       </c>
       <c r="H108" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G108))</f>
         <v>55</v>
       </c>
       <c r="I108" s="12" t="s">
@@ -5733,7 +5733,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>21953</v>
       </c>
       <c r="H109" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G109))</f>
         <v>60</v>
       </c>
       <c r="I109" s="12" t="s">
@@ -5769,7 +5769,7 @@
       <c r="L109" s="10"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>32533</v>
       </c>
       <c r="H110" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G110))</f>
         <v>31</v>
       </c>
       <c r="I110" t="s">
@@ -5809,7 +5809,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>31454</v>
       </c>
       <c r="H111" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G111))</f>
         <v>34</v>
       </c>
       <c r="I111" t="s">
@@ -5849,7 +5849,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>31783</v>
       </c>
       <c r="H112" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G112))</f>
         <v>33</v>
       </c>
       <c r="I112" t="s">
@@ -5889,7 +5889,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>26709</v>
       </c>
       <c r="H113" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G113))</f>
         <v>47</v>
       </c>
       <c r="I113" t="s">
@@ -5931,7 +5931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>26900</v>
       </c>
       <c r="H114" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G114))</f>
         <v>47</v>
       </c>
       <c r="I114" t="s">
@@ -5973,7 +5973,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>25885</v>
       </c>
       <c r="H115" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G115))</f>
         <v>50</v>
       </c>
       <c r="I115" t="s">
@@ -6015,7 +6015,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>25750</v>
       </c>
       <c r="H116" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G116))</f>
         <v>50</v>
       </c>
       <c r="I116" t="s">
@@ -6057,7 +6057,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>23332</v>
       </c>
       <c r="H117" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G117))</f>
         <v>57</v>
       </c>
       <c r="I117" t="s">
@@ -6099,7 +6099,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>24014</v>
       </c>
       <c r="H118" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G118))</f>
         <v>55</v>
       </c>
       <c r="I118" t="s">
@@ -6141,7 +6141,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>23226</v>
       </c>
       <c r="H119" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G119))</f>
         <v>57</v>
       </c>
       <c r="I119" t="s">
@@ -6181,7 +6181,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>24059</v>
       </c>
       <c r="H120" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G120))</f>
         <v>55</v>
       </c>
       <c r="I120" t="s">
@@ -6223,7 +6223,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>23594</v>
       </c>
       <c r="H121" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G121))</f>
         <v>56</v>
       </c>
       <c r="I121" t="s">
@@ -6265,7 +6265,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>23006</v>
       </c>
       <c r="H122" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G122))</f>
         <v>58</v>
       </c>
       <c r="I122" t="s">
@@ -6307,7 +6307,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>30347</v>
       </c>
       <c r="H123" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G123))</f>
         <v>37</v>
       </c>
       <c r="I123" t="s">
@@ -6347,7 +6347,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>20371</v>
       </c>
       <c r="H124" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G124))</f>
         <v>65</v>
       </c>
       <c r="I124" t="s">
@@ -6383,7 +6383,7 @@
       <c r="L124" s="10"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>32261</v>
       </c>
       <c r="H125" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G125))</f>
         <v>32</v>
       </c>
       <c r="I125" t="s">
@@ -6423,7 +6423,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>31868</v>
       </c>
       <c r="H126" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G126))</f>
         <v>33</v>
       </c>
       <c r="I126" t="s">
@@ -6463,7 +6463,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>25691</v>
       </c>
       <c r="H127" s="11">
-        <f t="shared" ref="H127:H190" ca="1" si="3">(YEAR(TODAY())-YEAR(G127))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(G127))</f>
         <v>50</v>
       </c>
       <c r="I127" t="s">
@@ -6503,7 +6503,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>22559</v>
       </c>
       <c r="H128" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G128))</f>
         <v>59</v>
       </c>
       <c r="I128" t="s">
@@ -6543,7 +6543,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>16607</v>
       </c>
       <c r="H129" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G129))</f>
         <v>75</v>
       </c>
       <c r="I129" t="s">
@@ -6583,7 +6583,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>18196</v>
       </c>
       <c r="H130" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G130))</f>
         <v>71</v>
       </c>
       <c r="I130" t="s">
@@ -6623,7 +6623,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>25940</v>
       </c>
       <c r="H131" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G131))</f>
         <v>49</v>
       </c>
       <c r="I131" t="s">
@@ -6663,7 +6663,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>16008</v>
       </c>
       <c r="H132" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G132))</f>
         <v>77</v>
       </c>
       <c r="I132" t="s">
@@ -6705,7 +6705,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>19657</v>
       </c>
       <c r="H133" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G133))</f>
         <v>67</v>
       </c>
       <c r="I133" t="s">
@@ -6745,7 +6745,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>31247</v>
       </c>
       <c r="H134" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G134))</f>
         <v>35</v>
       </c>
       <c r="I134" t="s">
@@ -6787,7 +6787,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>20255</v>
       </c>
       <c r="H135" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G135))</f>
         <v>65</v>
       </c>
       <c r="I135" t="s">
@@ -6829,7 +6829,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>17116</v>
       </c>
       <c r="H136" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G136))</f>
         <v>74</v>
       </c>
       <c r="I136" t="s">
@@ -6871,7 +6871,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>15302</v>
       </c>
       <c r="H137" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G137))</f>
         <v>79</v>
       </c>
       <c r="I137" t="s">
@@ -6913,7 +6913,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>27851</v>
       </c>
       <c r="H138" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G138))</f>
         <v>44</v>
       </c>
       <c r="I138" t="s">
@@ -6955,7 +6955,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>28018</v>
       </c>
       <c r="H139" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G139))</f>
         <v>44</v>
       </c>
       <c r="I139" t="s">
@@ -6995,7 +6995,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>32101</v>
       </c>
       <c r="H140" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G140))</f>
         <v>33</v>
       </c>
       <c r="I140" t="s">
@@ -7037,7 +7037,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>27678</v>
       </c>
       <c r="H141" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G141))</f>
         <v>45</v>
       </c>
       <c r="I141" t="s">
@@ -7079,7 +7079,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>21157</v>
       </c>
       <c r="H142" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G142))</f>
         <v>63</v>
       </c>
       <c r="I142" t="s">
@@ -7121,7 +7121,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>19343</v>
       </c>
       <c r="H143" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G143))</f>
         <v>68</v>
       </c>
       <c r="I143" t="s">
@@ -7163,7 +7163,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>18196</v>
       </c>
       <c r="H144" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G144))</f>
         <v>71</v>
       </c>
       <c r="I144" t="s">
@@ -7205,7 +7205,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>23371</v>
       </c>
       <c r="H145" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G145))</f>
         <v>57</v>
       </c>
       <c r="I145" t="s">
@@ -7247,7 +7247,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>26864</v>
       </c>
       <c r="H146" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G146))</f>
         <v>47</v>
       </c>
       <c r="I146" t="s">
@@ -7287,7 +7287,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>26445</v>
       </c>
       <c r="H147" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G147))</f>
         <v>48</v>
       </c>
       <c r="I147" t="s">
@@ -7329,7 +7329,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>16725</v>
       </c>
       <c r="H148" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G148))</f>
         <v>75</v>
       </c>
       <c r="I148" t="s">
@@ -7371,7 +7371,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>20655</v>
       </c>
       <c r="H149" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G149))</f>
         <v>64</v>
       </c>
       <c r="I149" t="s">
@@ -7411,7 +7411,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>22250</v>
       </c>
       <c r="H150" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G150))</f>
         <v>60</v>
       </c>
       <c r="I150" t="s">
@@ -7451,7 +7451,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>33308</v>
       </c>
       <c r="H151" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G151))</f>
         <v>29</v>
       </c>
       <c r="I151" t="s">
@@ -7491,7 +7491,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>28888</v>
       </c>
       <c r="H152" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G152))</f>
         <v>41</v>
       </c>
       <c r="I152" t="s">
@@ -7531,7 +7531,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>31920</v>
       </c>
       <c r="H153" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G153))</f>
         <v>33</v>
       </c>
       <c r="I153" t="s">
@@ -7571,7 +7571,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>25397</v>
       </c>
       <c r="H154" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G154))</f>
         <v>51</v>
       </c>
       <c r="I154" t="s">
@@ -7611,7 +7611,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>21338</v>
       </c>
       <c r="H155" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G155))</f>
         <v>62</v>
       </c>
       <c r="I155" t="s">
@@ -7653,7 +7653,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>26802</v>
       </c>
       <c r="H156" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G156))</f>
         <v>47</v>
       </c>
       <c r="I156" t="s">
@@ -7695,7 +7695,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>20281</v>
       </c>
       <c r="H157" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G157))</f>
         <v>65</v>
       </c>
       <c r="I157" t="s">
@@ -7735,7 +7735,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>15245</v>
       </c>
       <c r="H158" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G158))</f>
         <v>79</v>
       </c>
       <c r="I158" t="s">
@@ -7777,7 +7777,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>22890</v>
       </c>
       <c r="H159" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G159))</f>
         <v>58</v>
       </c>
       <c r="I159" t="s">
@@ -7819,7 +7819,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>23367</v>
       </c>
       <c r="H160" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G160))</f>
         <v>57</v>
       </c>
       <c r="I160" t="s">
@@ -7859,7 +7859,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>24717</v>
       </c>
       <c r="H161" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G161))</f>
         <v>53</v>
       </c>
       <c r="I161" t="s">
@@ -7901,7 +7901,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>22655</v>
       </c>
       <c r="H162" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G162))</f>
         <v>58</v>
       </c>
       <c r="I162" t="s">
@@ -7943,7 +7943,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>27508</v>
       </c>
       <c r="H163" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G163))</f>
         <v>45</v>
       </c>
       <c r="I163" t="s">
@@ -7985,7 +7985,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>20885</v>
       </c>
       <c r="H164" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G164))</f>
         <v>63</v>
       </c>
       <c r="I164" t="s">
@@ -8027,7 +8027,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>21958</v>
       </c>
       <c r="H165" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G165))</f>
         <v>60</v>
       </c>
       <c r="I165" t="s">
@@ -8069,7 +8069,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>21970</v>
       </c>
       <c r="H166" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G166))</f>
         <v>60</v>
       </c>
       <c r="I166" t="s">
@@ -8111,7 +8111,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>16997</v>
       </c>
       <c r="H167" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G167))</f>
         <v>74</v>
       </c>
       <c r="I167" t="s">
@@ -8153,7 +8153,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>14974</v>
       </c>
       <c r="H168" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G168))</f>
         <v>80</v>
       </c>
       <c r="I168" t="s">
@@ -8195,7 +8195,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>25566</v>
       </c>
       <c r="H169" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G169))</f>
         <v>51</v>
       </c>
       <c r="I169" t="s">
@@ -8237,7 +8237,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>16390</v>
       </c>
       <c r="H170" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G170))</f>
         <v>76</v>
       </c>
       <c r="I170" t="s">
@@ -8279,7 +8279,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>25970</v>
       </c>
       <c r="H171" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G171))</f>
         <v>49</v>
       </c>
       <c r="I171" t="s">
@@ -8319,7 +8319,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>27118</v>
       </c>
       <c r="H172" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G172))</f>
         <v>46</v>
       </c>
       <c r="I172" t="s">
@@ -8361,7 +8361,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>22024</v>
       </c>
       <c r="H173" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G173))</f>
         <v>60</v>
       </c>
       <c r="I173" t="s">
@@ -8403,7 +8403,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>32142</v>
       </c>
       <c r="H174" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G174))</f>
         <v>33</v>
       </c>
       <c r="I174" t="s">
@@ -8445,7 +8445,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>25592</v>
       </c>
       <c r="H175" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G175))</f>
         <v>50</v>
       </c>
       <c r="I175" t="s">
@@ -8487,7 +8487,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>25846</v>
       </c>
       <c r="H176" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G176))</f>
         <v>50</v>
       </c>
       <c r="I176" t="s">
@@ -8527,7 +8527,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>27112</v>
       </c>
       <c r="H177" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G177))</f>
         <v>46</v>
       </c>
       <c r="I177" t="s">
@@ -8569,7 +8569,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>23902</v>
       </c>
       <c r="H178" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G178))</f>
         <v>55</v>
       </c>
       <c r="I178" t="s">
@@ -8611,7 +8611,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>18640</v>
       </c>
       <c r="H179" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G179))</f>
         <v>69</v>
       </c>
       <c r="I179" t="s">
@@ -8651,7 +8651,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>25067</v>
       </c>
       <c r="H180" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G180))</f>
         <v>52</v>
       </c>
       <c r="I180" t="s">
@@ -8693,7 +8693,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>21445</v>
       </c>
       <c r="H181" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G181))</f>
         <v>62</v>
       </c>
       <c r="I181" t="s">
@@ -8733,7 +8733,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>24964</v>
       </c>
       <c r="H182" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G182))</f>
         <v>52</v>
       </c>
       <c r="I182" t="s">
@@ -8775,7 +8775,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>20415</v>
       </c>
       <c r="H183" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G183))</f>
         <v>65</v>
       </c>
       <c r="I183" t="s">
@@ -8817,7 +8817,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>18781</v>
       </c>
       <c r="H184" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G184))</f>
         <v>69</v>
       </c>
       <c r="I184" t="s">
@@ -8859,7 +8859,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>32771</v>
       </c>
       <c r="H185" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G185))</f>
         <v>31</v>
       </c>
       <c r="I185" t="s">
@@ -8899,7 +8899,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>18036</v>
       </c>
       <c r="H186" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G186))</f>
         <v>71</v>
       </c>
       <c r="I186" t="s">
@@ -8941,7 +8941,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>24242</v>
       </c>
       <c r="H187" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G187))</f>
         <v>54</v>
       </c>
       <c r="I187" t="s">
@@ -8983,7 +8983,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>26203</v>
       </c>
       <c r="H188" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G188))</f>
         <v>49</v>
       </c>
       <c r="I188" t="s">
@@ -9023,7 +9023,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>14047</v>
       </c>
       <c r="H189" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G189))</f>
         <v>82</v>
       </c>
       <c r="I189" t="s">
@@ -9065,7 +9065,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>29287</v>
       </c>
       <c r="H190" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G190))</f>
         <v>40</v>
       </c>
       <c r="I190" t="s">
@@ -9105,7 +9105,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>17079</v>
       </c>
       <c r="H191" s="11">
-        <f t="shared" ref="H191:H254" ca="1" si="4">(YEAR(TODAY())-YEAR(G191))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(G191))</f>
         <v>74</v>
       </c>
       <c r="I191" t="s">
@@ -9147,7 +9147,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>27246</v>
       </c>
       <c r="H192" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G192))</f>
         <v>46</v>
       </c>
       <c r="I192" t="s">
@@ -9187,7 +9187,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>27492</v>
       </c>
       <c r="H193" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G193))</f>
         <v>45</v>
       </c>
       <c r="I193" t="s">
@@ -9223,7 +9223,7 @@
       <c r="L193" s="10"/>
       <c r="M193"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>26205</v>
       </c>
       <c r="H194" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G194))</f>
         <v>49</v>
       </c>
       <c r="I194" t="s">
@@ -9265,7 +9265,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>25149</v>
       </c>
       <c r="H195" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G195))</f>
         <v>52</v>
       </c>
       <c r="I195" t="s">
@@ -9307,7 +9307,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>26299</v>
       </c>
       <c r="H196" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G196))</f>
         <v>48</v>
       </c>
       <c r="I196" t="s">
@@ -9349,7 +9349,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>29572</v>
       </c>
       <c r="H197" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G197))</f>
         <v>40</v>
       </c>
       <c r="I197" t="s">
@@ -9385,7 +9385,7 @@
       <c r="L197" s="10"/>
       <c r="M197"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>24666</v>
       </c>
       <c r="H198" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G198))</f>
         <v>53</v>
       </c>
       <c r="I198" t="s">
@@ -9421,7 +9421,7 @@
       <c r="L198" s="10"/>
       <c r="M198"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>31817</v>
       </c>
       <c r="H199" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G199))</f>
         <v>33</v>
       </c>
       <c r="I199" t="s">
@@ -9461,7 +9461,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>26833</v>
       </c>
       <c r="H200" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G200))</f>
         <v>47</v>
       </c>
       <c r="I200" t="s">
@@ -9497,7 +9497,7 @@
       <c r="L200" s="10"/>
       <c r="M200"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>19566</v>
       </c>
       <c r="H201" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G201))</f>
         <v>67</v>
       </c>
       <c r="I201" t="s">
@@ -9533,7 +9533,7 @@
       <c r="L201" s="10"/>
       <c r="M201"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>18407</v>
       </c>
       <c r="H202" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G202))</f>
         <v>70</v>
       </c>
       <c r="I202" t="s">
@@ -9569,7 +9569,7 @@
       <c r="L202" s="10"/>
       <c r="M202"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>19434</v>
       </c>
       <c r="H203" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G203))</f>
         <v>67</v>
       </c>
       <c r="I203" t="s">
@@ -9605,7 +9605,7 @@
       <c r="L203" s="10"/>
       <c r="M203"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>29549</v>
       </c>
       <c r="H204" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G204))</f>
         <v>40</v>
       </c>
       <c r="I204" t="s">
@@ -9647,7 +9647,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>26133</v>
       </c>
       <c r="H205" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G205))</f>
         <v>49</v>
       </c>
       <c r="I205" t="s">
@@ -9689,7 +9689,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>21548</v>
       </c>
       <c r="H206" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G206))</f>
         <v>62</v>
       </c>
       <c r="I206" t="s">
@@ -9731,7 +9731,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>27763</v>
       </c>
       <c r="H207" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G207))</f>
         <v>44</v>
       </c>
       <c r="I207" t="s">
@@ -9773,7 +9773,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>22263</v>
       </c>
       <c r="H208" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G208))</f>
         <v>60</v>
       </c>
       <c r="I208" t="s">
@@ -9815,7 +9815,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>31990</v>
       </c>
       <c r="H209" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G209))</f>
         <v>33</v>
       </c>
       <c r="I209" t="s">
@@ -9857,7 +9857,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>30315</v>
       </c>
       <c r="H210" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G210))</f>
         <v>38</v>
       </c>
       <c r="I210" t="s">
@@ -9893,7 +9893,7 @@
       <c r="L210" s="10"/>
       <c r="M210"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>20907</v>
       </c>
       <c r="H211" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G211))</f>
         <v>63</v>
       </c>
       <c r="I211" t="s">
@@ -9929,7 +9929,7 @@
       <c r="L211" s="10"/>
       <c r="M211"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>21674</v>
       </c>
       <c r="H212" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G212))</f>
         <v>61</v>
       </c>
       <c r="I212" t="s">
@@ -9965,7 +9965,7 @@
       <c r="L212" s="10"/>
       <c r="M212"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>24834</v>
       </c>
       <c r="H213" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G213))</f>
         <v>53</v>
       </c>
       <c r="I213" t="s">
@@ -10007,7 +10007,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>27004</v>
       </c>
       <c r="H214" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G214))</f>
         <v>47</v>
       </c>
       <c r="I214" t="s">
@@ -10049,7 +10049,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>20377</v>
       </c>
       <c r="H215" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G215))</f>
         <v>65</v>
       </c>
       <c r="I215" t="s">
@@ -10089,7 +10089,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>23941</v>
       </c>
       <c r="H216" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G216))</f>
         <v>55</v>
       </c>
       <c r="I216" t="s">
@@ -10125,7 +10125,7 @@
       <c r="L216" s="10"/>
       <c r="M216"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>26624</v>
       </c>
       <c r="H217" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G217))</f>
         <v>48</v>
       </c>
       <c r="I217" t="s">
@@ -10161,7 +10161,7 @@
       <c r="L217" s="10"/>
       <c r="M217"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>31120</v>
       </c>
       <c r="H218" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G218))</f>
         <v>35</v>
       </c>
       <c r="I218" t="s">
@@ -10201,7 +10201,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>29623</v>
       </c>
       <c r="H219" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G219))</f>
         <v>39</v>
       </c>
       <c r="I219" t="s">
@@ -10241,7 +10241,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>27719</v>
       </c>
       <c r="H220" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G220))</f>
         <v>45</v>
       </c>
       <c r="I220" t="s">
@@ -10286,7 +10286,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>25084</v>
       </c>
       <c r="H221" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G221))</f>
         <v>52</v>
       </c>
       <c r="I221" t="s">
@@ -10322,7 +10322,7 @@
       <c r="L221" s="10"/>
       <c r="M221"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>30097</v>
       </c>
       <c r="H222" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G222))</f>
         <v>38</v>
       </c>
       <c r="I222" t="s">
@@ -10364,7 +10364,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>23358</v>
       </c>
       <c r="H223" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G223))</f>
         <v>57</v>
       </c>
       <c r="I223" t="s">
@@ -10404,7 +10404,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>32980</v>
       </c>
       <c r="H224" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G224))</f>
         <v>30</v>
       </c>
       <c r="I224" s="12" t="s">
@@ -10444,7 +10444,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>31116</v>
       </c>
       <c r="H225" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G225))</f>
         <v>35</v>
       </c>
       <c r="I225" s="12" t="s">
@@ -10484,7 +10484,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>30164</v>
       </c>
       <c r="H226" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G226))</f>
         <v>38</v>
       </c>
       <c r="I226" t="s">
@@ -10524,7 +10524,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>31562</v>
       </c>
       <c r="H227" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G227))</f>
         <v>34</v>
       </c>
       <c r="I227" t="s">
@@ -10564,7 +10564,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>33225</v>
       </c>
       <c r="H228" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G228))</f>
         <v>30</v>
       </c>
       <c r="I228" t="s">
@@ -10604,7 +10604,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>30491</v>
       </c>
       <c r="H229" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G229))</f>
         <v>37</v>
       </c>
       <c r="I229" t="s">
@@ -10644,7 +10644,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>32481</v>
       </c>
       <c r="H230" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G230))</f>
         <v>32</v>
       </c>
       <c r="I230" t="s">
@@ -10684,7 +10684,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>32885</v>
       </c>
       <c r="H231" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G231))</f>
         <v>30</v>
       </c>
       <c r="I231" t="s">
@@ -10724,7 +10724,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>31146</v>
       </c>
       <c r="H232" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G232))</f>
         <v>35</v>
       </c>
       <c r="I232" t="s">
@@ -10764,7 +10764,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>31814</v>
       </c>
       <c r="H233" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G233))</f>
         <v>33</v>
       </c>
       <c r="I233" t="s">
@@ -10804,7 +10804,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>32196</v>
       </c>
       <c r="H234" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G234))</f>
         <v>32</v>
       </c>
       <c r="I234" t="s">
@@ -10844,7 +10844,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>20417</v>
       </c>
       <c r="H235" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G235))</f>
         <v>65</v>
       </c>
       <c r="I235" t="s">
@@ -10886,7 +10886,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>19630</v>
       </c>
       <c r="H236" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G236))</f>
         <v>67</v>
       </c>
       <c r="I236" t="s">
@@ -10922,7 +10922,7 @@
       <c r="L236" s="10"/>
       <c r="M236"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>21249</v>
       </c>
       <c r="H237" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G237))</f>
         <v>62</v>
       </c>
       <c r="I237" t="s">
@@ -10958,7 +10958,7 @@
       <c r="L237" s="10"/>
       <c r="M237"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>21269</v>
       </c>
       <c r="H238" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G238))</f>
         <v>62</v>
       </c>
       <c r="I238" t="s">
@@ -10998,7 +10998,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>29503</v>
       </c>
       <c r="H239" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G239))</f>
         <v>40</v>
       </c>
       <c r="I239" t="s">
@@ -11034,7 +11034,7 @@
       <c r="L239" s="10"/>
       <c r="M239"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>26846</v>
       </c>
       <c r="H240" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G240))</f>
         <v>47</v>
       </c>
       <c r="I240" t="s">
@@ -11070,7 +11070,7 @@
       <c r="L240" s="10"/>
       <c r="M240"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>24000</v>
       </c>
       <c r="H241" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G241))</f>
         <v>55</v>
       </c>
       <c r="I241" t="s">
@@ -11106,7 +11106,7 @@
       <c r="L241" s="10"/>
       <c r="M241"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>19943</v>
       </c>
       <c r="H242" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G242))</f>
         <v>66</v>
       </c>
       <c r="I242" t="s">
@@ -11142,7 +11142,7 @@
       <c r="L242" s="10"/>
       <c r="M242"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>28122</v>
       </c>
       <c r="H243" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G243))</f>
         <v>44</v>
       </c>
       <c r="I243" t="s">
@@ -11182,7 +11182,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>29350</v>
       </c>
       <c r="H244" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G244))</f>
         <v>40</v>
       </c>
       <c r="I244" t="s">
@@ -11218,7 +11218,7 @@
       <c r="L244" s="10"/>
       <c r="M244"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>29000</v>
       </c>
       <c r="H245" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G245))</f>
         <v>41</v>
       </c>
       <c r="I245" t="s">
@@ -11260,7 +11260,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>28805</v>
       </c>
       <c r="H246" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G246))</f>
         <v>42</v>
       </c>
       <c r="I246" t="s">
@@ -11296,7 +11296,7 @@
       <c r="L246" s="10"/>
       <c r="M246"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>20625</v>
       </c>
       <c r="H247" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G247))</f>
         <v>64</v>
       </c>
       <c r="I247" t="s">
@@ -11332,7 +11332,7 @@
       <c r="L247" s="10"/>
       <c r="M247"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>21011</v>
       </c>
       <c r="H248" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G248))</f>
         <v>63</v>
       </c>
       <c r="I248" t="s">
@@ -11368,7 +11368,7 @@
       <c r="L248" s="10"/>
       <c r="M248"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>29713</v>
       </c>
       <c r="H249" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G249))</f>
         <v>39</v>
       </c>
       <c r="I249" t="s">
@@ -11404,7 +11404,7 @@
       <c r="L249" s="10"/>
       <c r="M249"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>21432</v>
       </c>
       <c r="H250" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G250))</f>
         <v>62</v>
       </c>
       <c r="I250" t="s">
@@ -11440,7 +11440,7 @@
       <c r="L250" s="10"/>
       <c r="M250"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>28961</v>
       </c>
       <c r="H251" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G251))</f>
         <v>41</v>
       </c>
       <c r="I251" t="s">
@@ -11480,7 +11480,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>25069</v>
       </c>
       <c r="H252" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G252))</f>
         <v>52</v>
       </c>
       <c r="I252" t="s">
@@ -11516,7 +11516,7 @@
       <c r="L252" s="10"/>
       <c r="M252"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>24451</v>
       </c>
       <c r="H253" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G253))</f>
         <v>54</v>
       </c>
       <c r="I253" t="s">
@@ -11552,7 +11552,7 @@
       <c r="L253" s="10"/>
       <c r="M253"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>27834</v>
       </c>
       <c r="H254" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G254))</f>
         <v>44</v>
       </c>
       <c r="I254" t="s">
@@ -11588,7 +11588,7 @@
       <c r="L254" s="10"/>
       <c r="M254"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>18677</v>
       </c>
       <c r="H255" s="11">
-        <f t="shared" ref="H255:H318" ca="1" si="5">(YEAR(TODAY())-YEAR(G255))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(G255))</f>
         <v>69</v>
       </c>
       <c r="I255" t="s">
@@ -11624,7 +11624,7 @@
       <c r="L255" s="10"/>
       <c r="M255"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>18960</v>
       </c>
       <c r="H256" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G256))</f>
         <v>69</v>
       </c>
       <c r="I256" t="s">
@@ -11660,7 +11660,7 @@
       <c r="L256" s="10"/>
       <c r="M256"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>20084</v>
       </c>
       <c r="H257" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G257))</f>
         <v>66</v>
       </c>
       <c r="I257" t="s">
@@ -11696,7 +11696,7 @@
       <c r="L257" s="10"/>
       <c r="M257"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>29014</v>
       </c>
       <c r="H258" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G258))</f>
         <v>41</v>
       </c>
       <c r="I258" t="s">
@@ -11736,7 +11736,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>27808</v>
       </c>
       <c r="H259" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G259))</f>
         <v>44</v>
       </c>
       <c r="I259" t="s">
@@ -11772,7 +11772,7 @@
       <c r="L259" s="10"/>
       <c r="M259"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>29294</v>
       </c>
       <c r="H260" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G260))</f>
         <v>40</v>
       </c>
       <c r="I260" t="s">
@@ -11812,7 +11812,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>22529</v>
       </c>
       <c r="H261" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G261))</f>
         <v>59</v>
       </c>
       <c r="I261" t="s">
@@ -11848,7 +11848,7 @@
       <c r="L261" s="10"/>
       <c r="M261"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>21079</v>
       </c>
       <c r="H262" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G262))</f>
         <v>63</v>
       </c>
       <c r="I262" t="s">
@@ -11888,7 +11888,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>28020</v>
       </c>
       <c r="H263" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G263))</f>
         <v>44</v>
       </c>
       <c r="I263" t="s">
@@ -11924,7 +11924,7 @@
       <c r="L263" s="10"/>
       <c r="M263"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>21554</v>
       </c>
       <c r="H264" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(G264))</f>
         <v>61</v>
       </c>
       <c r="I264" s="12" t="s">
@@ -11974,197 +11974,197 @@
     <hyperlink ref="M118" r:id="rId4" xr:uid="{EBBBDA58-E0AB-E442-B785-DA389E60F964}"/>
     <hyperlink ref="M113" r:id="rId5" xr:uid="{25A1E99B-8FE6-8E42-B1D6-42E667F17DFB}"/>
     <hyperlink ref="M114" r:id="rId6" xr:uid="{80BCD533-CF42-6243-AF19-9132BFC49890}"/>
-    <hyperlink ref="M67" r:id="rId7" xr:uid="{3C0B781B-0B01-C440-96E4-B359B20B6E30}"/>
-    <hyperlink ref="M24" r:id="rId8" xr:uid="{E11305D0-7A15-8F40-BBD6-29D407A59A85}"/>
-    <hyperlink ref="M18" r:id="rId9" xr:uid="{C5D72966-3B2B-3B4A-BDA6-1F73C487581B}"/>
-    <hyperlink ref="M25" r:id="rId10" xr:uid="{3E0F536A-1186-7F46-BBEF-62932CA57FEF}"/>
-    <hyperlink ref="M20" r:id="rId11" xr:uid="{515F1AC8-508A-7F4C-9F4D-1645AB2ED545}"/>
-    <hyperlink ref="M19" r:id="rId12" xr:uid="{E5C74330-4C67-574B-BE2B-858F9D0BDE7E}"/>
-    <hyperlink ref="M23" r:id="rId13" xr:uid="{C8D90150-5546-5A46-AAB1-5BE42F2603AA}"/>
-    <hyperlink ref="M8" r:id="rId14" xr:uid="{7DBC4CFD-0B9D-FC44-9F56-B2F2EBD00BE1}"/>
-    <hyperlink ref="M13" r:id="rId15" xr:uid="{E1EEF5DE-2C3E-0A4A-9E6E-5BF6E4153665}"/>
-    <hyperlink ref="M29" r:id="rId16" xr:uid="{14FF556B-DD64-434B-9A78-5AAADC96BA37}"/>
-    <hyperlink ref="M9" r:id="rId17" xr:uid="{4E4EFE43-6386-4845-A9D8-5908DF98C6A0}"/>
-    <hyperlink ref="M14" r:id="rId18" xr:uid="{C5A1967A-4308-4545-A626-032E4F025CEB}"/>
-    <hyperlink ref="M15" r:id="rId19" xr:uid="{CDCDFAE0-F7AB-174F-84C7-DA4B437E5F4A}"/>
-    <hyperlink ref="M26" r:id="rId20" xr:uid="{9D49B9D4-080A-FB4E-B1AE-E6DEB07F9810}"/>
-    <hyperlink ref="M10" r:id="rId21" xr:uid="{88D81009-0302-9645-9520-B9B6AE5E2990}"/>
-    <hyperlink ref="M17" r:id="rId22" xr:uid="{012F46BE-E6BC-9A45-A1F4-B6F127C4813E}"/>
-    <hyperlink ref="M12" r:id="rId23" xr:uid="{915F6156-DBA6-CF42-9B2D-26C7FE42EDEA}"/>
-    <hyperlink ref="M28" r:id="rId24" xr:uid="{520D71B1-B964-3348-A709-6501D846BD62}"/>
-    <hyperlink ref="M22" r:id="rId25" xr:uid="{4541C760-D0D2-ED4C-ACAB-DFDDE83D57FD}"/>
-    <hyperlink ref="M16" r:id="rId26" xr:uid="{BBE2930A-937C-A74A-8C60-9B40A237BD09}"/>
-    <hyperlink ref="M11" r:id="rId27" xr:uid="{D0E33CC2-C339-B94D-A96C-1948C9C209C9}"/>
-    <hyperlink ref="M27" r:id="rId28" xr:uid="{E3EB0079-6686-2D48-86FF-9001902116AF}"/>
-    <hyperlink ref="M7" r:id="rId29" xr:uid="{25F18012-A146-3141-9889-6944423F913B}"/>
-    <hyperlink ref="M21" r:id="rId30" xr:uid="{6280B8FA-7812-DD49-8645-E788C18D5567}"/>
-    <hyperlink ref="M6" r:id="rId31" xr:uid="{F328CAF1-7329-CF4A-8A31-EEE43189D0B3}"/>
-    <hyperlink ref="M226" r:id="rId32" xr:uid="{04CAAAEB-EB94-A141-8A95-D04005C206DA}"/>
-    <hyperlink ref="M100" r:id="rId33" xr:uid="{B70BBFF8-90AF-7E4E-A9B8-0ED9C71C5260}"/>
-    <hyperlink ref="M171" r:id="rId34" xr:uid="{30E1DA05-059D-9347-B411-3EFED989712F}"/>
-    <hyperlink ref="M125" r:id="rId35" xr:uid="{040E25F1-9071-A34B-96D0-9358277A9602}"/>
-    <hyperlink ref="M110" r:id="rId36" xr:uid="{E5737C51-CA44-6444-AEF3-696CFD100819}"/>
-    <hyperlink ref="M229" r:id="rId37" xr:uid="{A63644E5-9A9B-4C48-8135-6ECE65E45218}"/>
-    <hyperlink ref="M228" r:id="rId38" xr:uid="{1A67B714-807C-4F46-82F0-4CFFA07B63AB}"/>
-    <hyperlink ref="M230" r:id="rId39" xr:uid="{0A1958E1-F046-474B-9926-F831AC3BD444}"/>
-    <hyperlink ref="M190" r:id="rId40" xr:uid="{59527AAC-FB55-C14B-88ED-3C9DF709DE99}"/>
-    <hyperlink ref="M227" r:id="rId41" xr:uid="{3CF710CA-59F9-AB4B-A036-72AFA0C7FAF7}"/>
-    <hyperlink ref="M112" r:id="rId42" xr:uid="{F74B2F26-F6F5-A944-8909-B402AF7E3445}"/>
-    <hyperlink ref="M179" r:id="rId43" xr:uid="{F074FE5F-2F8F-9843-80D2-9E553C6F89E9}"/>
-    <hyperlink ref="M185" r:id="rId44" xr:uid="{CEE68E11-A4C8-DB41-911B-76CBCC09A2E0}"/>
-    <hyperlink ref="M251" r:id="rId45" xr:uid="{E5486846-BD50-0748-B727-39A5652EE90C}"/>
-    <hyperlink ref="M119" r:id="rId46" xr:uid="{5D82704D-B97E-7640-B5A4-95E4332C13B4}"/>
-    <hyperlink ref="M160" r:id="rId47" xr:uid="{98B95C62-9C57-364E-BFBF-0068C03978E7}"/>
-    <hyperlink ref="M130" r:id="rId48" xr:uid="{6F0E097A-A4C9-D34B-BB29-5E2CED192633}"/>
-    <hyperlink ref="M176" r:id="rId49" xr:uid="{20E8AE30-8FB4-214C-A688-460F477526A3}"/>
-    <hyperlink ref="M243" r:id="rId50" xr:uid="{DD082D79-B8A8-7B41-B914-6D6EDA8260C7}"/>
-    <hyperlink ref="M199" r:id="rId51" xr:uid="{9DA55AA2-200B-5B4C-B67A-560F4D39BBF0}"/>
-    <hyperlink ref="M188" r:id="rId52" xr:uid="{5AB05EFC-983D-8C4C-A8A1-C6313EEAA8BB}"/>
-    <hyperlink ref="M260" r:id="rId53" xr:uid="{CC08A70F-A717-5E43-8E47-EAC93913ADA3}"/>
-    <hyperlink ref="M157" r:id="rId54" xr:uid="{8153247A-F133-B041-8962-3757144D9557}"/>
-    <hyperlink ref="M80" r:id="rId55" xr:uid="{058B15D2-6A27-F240-AA63-559E1A3B4419}"/>
-    <hyperlink ref="M181" r:id="rId56" xr:uid="{9874B165-92B6-214B-9508-C7D1E7E14C5F}"/>
-    <hyperlink ref="M150" r:id="rId57" xr:uid="{7400759C-B811-9E4C-B8C6-A6AD036837CA}"/>
-    <hyperlink ref="M233" r:id="rId58" xr:uid="{A0400848-D667-CD40-9E00-78437E3D2408}"/>
-    <hyperlink ref="M92" r:id="rId59" xr:uid="{C0CE4574-0176-F944-8B9C-060A491F9147}"/>
-    <hyperlink ref="M108" r:id="rId60" xr:uid="{E64CD85F-9BE3-CC4B-AF66-D504C89A019A}"/>
-    <hyperlink ref="M218" r:id="rId61" xr:uid="{3C0A4CAF-3804-7143-9BAB-A056C35B593A}"/>
-    <hyperlink ref="M111" r:id="rId62" xr:uid="{6AABF66B-7E68-5546-A0FB-68790FB4F116}"/>
-    <hyperlink ref="M68" r:id="rId63" xr:uid="{653C328D-C6FA-BE47-9E3E-BB54BA777B4A}"/>
-    <hyperlink ref="M69" r:id="rId64" xr:uid="{1C0227FC-EAEC-CA42-BE6B-66FE5E2CC151}"/>
-    <hyperlink ref="M70" r:id="rId65" xr:uid="{B6982694-8628-4846-9539-702FADC7B3FE}"/>
-    <hyperlink ref="M95" r:id="rId66" xr:uid="{6786D323-6843-A743-814D-186BE665CB91}"/>
-    <hyperlink ref="M96" r:id="rId67" xr:uid="{75E25F65-1A4A-8240-8337-3013BA746B22}"/>
-    <hyperlink ref="M97" r:id="rId68" xr:uid="{5F61FC60-40AD-F642-89A3-66FE6EFBDB0A}"/>
-    <hyperlink ref="M98" r:id="rId69" xr:uid="{F27682F5-E83D-B54C-8A79-ED847F57CB2C}"/>
-    <hyperlink ref="M123" r:id="rId70" xr:uid="{4173E3B6-18B3-EE4E-BE2A-10F6D2BE0498}"/>
-    <hyperlink ref="M72" r:id="rId71" xr:uid="{7B5A1534-74EC-C644-BF50-29EB3ECE8194}"/>
-    <hyperlink ref="M48" r:id="rId72" xr:uid="{03BC7C38-AFDA-F942-836A-FFB352410214}"/>
-    <hyperlink ref="M74" r:id="rId73" display="Twitter" xr:uid="{1446F8F9-81B5-3946-8882-73AE7333EEA8}"/>
-    <hyperlink ref="M126" r:id="rId74" xr:uid="{6F94BE16-6941-BC41-BDC5-BF0ACA001DE7}"/>
-    <hyperlink ref="M127" r:id="rId75" xr:uid="{294050D0-C464-D94E-BA28-2BB036B1B538}"/>
-    <hyperlink ref="M128" r:id="rId76" xr:uid="{8CB55EF4-0980-7B43-9051-28F7E5259994}"/>
-    <hyperlink ref="M129" r:id="rId77" xr:uid="{38D5DCA1-D2A1-9448-B5E7-B572EF84CB88}"/>
-    <hyperlink ref="M131" r:id="rId78" xr:uid="{E76EDD5E-318E-7444-8B5A-CED5A00DCA1F}"/>
-    <hyperlink ref="M133" r:id="rId79" xr:uid="{EB2F8AEE-709C-004A-8DE7-2DFBC99A143B}"/>
-    <hyperlink ref="M139" r:id="rId80" xr:uid="{429FFB01-48F8-F746-9DE9-E3A6AD72CAFC}"/>
-    <hyperlink ref="M146" r:id="rId81" xr:uid="{5AEFC1AC-A642-4942-824D-E2B1D3F358F0}"/>
-    <hyperlink ref="M75" r:id="rId82" xr:uid="{A30A9F9E-A0B7-4049-AF53-357A0FCB5830}"/>
-    <hyperlink ref="M76" r:id="rId83" xr:uid="{EA70BD7D-F68A-394E-80C7-9A810AD8FE0F}"/>
-    <hyperlink ref="M77" r:id="rId84" xr:uid="{FEDAFA69-DFB3-BB44-A80C-12595A523BE4}"/>
-    <hyperlink ref="M149" r:id="rId85" xr:uid="{786052F5-C810-FC4F-A458-CC08D809C213}"/>
-    <hyperlink ref="M151" r:id="rId86" xr:uid="{8CED7805-422E-F84A-B4F4-0094EFC170C9}"/>
-    <hyperlink ref="M152" r:id="rId87" xr:uid="{6D4BA0E7-690E-0347-9CD1-D77D17C7DCB4}"/>
-    <hyperlink ref="M153" r:id="rId88" xr:uid="{21E31C54-A295-F149-8EDD-8306670F90B9}"/>
-    <hyperlink ref="M54" r:id="rId89" xr:uid="{37A76876-1C6C-8D43-B583-6E901E0E6BAB}"/>
-    <hyperlink ref="M154" r:id="rId90" xr:uid="{1D32B755-C83A-DE48-817B-DE972F643650}"/>
-    <hyperlink ref="M99" r:id="rId91" xr:uid="{8F099F05-BEB3-8B46-88B3-8EEDC456D815}"/>
-    <hyperlink ref="M214" r:id="rId92" xr:uid="{CE470DBD-CCDA-D248-82DA-0F714F90989C}"/>
-    <hyperlink ref="M222" r:id="rId93" xr:uid="{05D72DA3-D314-9448-83A3-D080DCBD5F75}"/>
-    <hyperlink ref="M195" r:id="rId94" xr:uid="{FA8C2264-767D-B24E-9E67-5795A33D20E9}"/>
-    <hyperlink ref="M207" r:id="rId95" xr:uid="{78653EA5-90FF-4544-A8D5-029E69419F7D}"/>
-    <hyperlink ref="M213" r:id="rId96" xr:uid="{E4086A23-5346-6440-8918-933025A927CB}"/>
-    <hyperlink ref="M208" r:id="rId97" xr:uid="{B3EDE865-43B6-DD4B-9D3D-BCCD9AF904ED}"/>
-    <hyperlink ref="M205" r:id="rId98" xr:uid="{AEE6509F-1FD4-B24E-9EC8-F323CC53D2BF}"/>
-    <hyperlink ref="M105" r:id="rId99" xr:uid="{78A9A6F4-D8EA-9646-8A06-E3D913014150}"/>
-    <hyperlink ref="M102" r:id="rId100" xr:uid="{4808757E-A77C-AF4D-8102-6952E635DB9E}"/>
-    <hyperlink ref="M101" r:id="rId101" xr:uid="{1E1EC8D2-B583-DF44-B97C-4934F33725A7}"/>
-    <hyperlink ref="M103" r:id="rId102" xr:uid="{0FC99021-3EDB-FC42-9B65-93C131C14491}"/>
-    <hyperlink ref="M104" r:id="rId103" xr:uid="{1F4284F5-559F-C64E-9E45-B59B5D781F19}"/>
-    <hyperlink ref="M106" r:id="rId104" xr:uid="{149B914B-ECC7-2F44-9C1A-81BEE614A7C1}"/>
-    <hyperlink ref="M107" r:id="rId105" xr:uid="{BDFC98B3-397C-B74E-942A-B8EBB21711F9}"/>
-    <hyperlink ref="M191" r:id="rId106" xr:uid="{44B24A61-1CB9-4347-99D3-0505F057AAD4}"/>
-    <hyperlink ref="M204" r:id="rId107" xr:uid="{FE8128FA-5CF0-0D41-A7C0-46F741DA59B4}"/>
-    <hyperlink ref="M196" r:id="rId108" xr:uid="{CAD5594E-A27A-154B-B415-B130A8F7CE07}"/>
-    <hyperlink ref="M209" r:id="rId109" xr:uid="{A4FF3F21-9E3D-B447-AAFA-22F9043DDA5D}"/>
-    <hyperlink ref="M206" r:id="rId110" xr:uid="{DB73CEB3-3FEB-7F46-85A3-3938951F37B8}"/>
-    <hyperlink ref="M220" r:id="rId111" xr:uid="{C23341DE-533B-E140-8F6C-D676716DE999}"/>
-    <hyperlink ref="M194" r:id="rId112" xr:uid="{A142D7E3-9B0F-4D41-BF03-B7DCF18FD5A6}"/>
-    <hyperlink ref="M66" r:id="rId113" xr:uid="{045C56B0-A424-AD4B-B22F-7825ED6CB96D}"/>
-    <hyperlink ref="M235" r:id="rId114" xr:uid="{D092D972-E3B1-4140-8375-95BE3C9F3EFE}"/>
-    <hyperlink ref="M245" r:id="rId115" xr:uid="{EEDA047C-354C-FF44-87E3-87C73923418A}"/>
-    <hyperlink ref="M120" r:id="rId116" xr:uid="{25AA9D20-D18A-4B41-9D0A-A019A153851B}"/>
-    <hyperlink ref="M121" r:id="rId117" xr:uid="{34BCCBFD-EFF6-3141-B6F5-01363288E46A}"/>
-    <hyperlink ref="M122" r:id="rId118" xr:uid="{0A07A660-A511-8A48-96F6-2AF2A4FCE17B}"/>
-    <hyperlink ref="M134" r:id="rId119" xr:uid="{43EB58A6-B0F0-7140-8FAF-4BE289791BDB}"/>
-    <hyperlink ref="M135" r:id="rId120" xr:uid="{D9038633-5F30-A243-A01B-F6D882372CEC}"/>
-    <hyperlink ref="M136" r:id="rId121" xr:uid="{95BD3E50-FB6B-A14B-9A87-B409CF912C2C}"/>
-    <hyperlink ref="M137" r:id="rId122" xr:uid="{5B391E3A-2175-DA4C-95AE-4B8B239A8A3A}"/>
-    <hyperlink ref="M138" r:id="rId123" xr:uid="{9FF2AAA1-90A9-674B-9E47-D3829FFBE2AB}"/>
-    <hyperlink ref="M140" r:id="rId124" xr:uid="{8D59555B-9D83-E641-BB46-630401BA6CE7}"/>
-    <hyperlink ref="M141" r:id="rId125" xr:uid="{6818F469-A896-EE47-86EA-7CEB5B68BCA3}"/>
-    <hyperlink ref="M142" r:id="rId126" xr:uid="{BB101638-800D-F44C-B944-5D59A141D333}"/>
-    <hyperlink ref="M143" r:id="rId127" xr:uid="{1EDA595A-591F-2B47-ACE5-3BD72E829B35}"/>
-    <hyperlink ref="M144" r:id="rId128" xr:uid="{8707D7A0-DF19-AB40-99EB-982FD252BD77}"/>
-    <hyperlink ref="M145" r:id="rId129" xr:uid="{B49AC525-00AE-0842-A83F-96FDA814EF59}"/>
-    <hyperlink ref="M78" r:id="rId130" xr:uid="{CE90970E-8EE0-6B4E-916E-9C9E8DE847A8}"/>
-    <hyperlink ref="M79" r:id="rId131" xr:uid="{48905F47-687C-EB46-8C06-E40F411ABB5C}"/>
-    <hyperlink ref="M52" r:id="rId132" xr:uid="{1761F92D-50D3-3743-89BD-5D06E62BBFB6}"/>
-    <hyperlink ref="M53" r:id="rId133" xr:uid="{C9968383-C3CE-5144-99DB-7797BB593DDE}"/>
-    <hyperlink ref="M155" r:id="rId134" xr:uid="{5FB3A2FF-A7FE-8B4C-BDE2-FE5682511476}"/>
-    <hyperlink ref="M156" r:id="rId135" xr:uid="{946E2692-2B7D-6C4A-9C9F-787D04506ECE}"/>
-    <hyperlink ref="M158" r:id="rId136" xr:uid="{805CD766-243F-B240-B093-06536E655817}"/>
-    <hyperlink ref="M159" r:id="rId137" xr:uid="{E4FBCDA2-87FD-E945-9CB9-1AD98B942B95}"/>
-    <hyperlink ref="M161" r:id="rId138" xr:uid="{24075B69-0DFF-294A-938C-9B30A0987122}"/>
-    <hyperlink ref="M162" r:id="rId139" xr:uid="{B15BF43A-5F15-814E-B897-670959531B3E}"/>
-    <hyperlink ref="M81" r:id="rId140" xr:uid="{08694A46-113C-9549-9784-04A13D06B3C1}"/>
-    <hyperlink ref="M86" r:id="rId141" xr:uid="{1836BB31-553B-DD40-85C5-9099649CE5A1}"/>
-    <hyperlink ref="M85" r:id="rId142" xr:uid="{4B6B39DD-2D84-FD4D-AD42-F85F439CA29B}"/>
-    <hyperlink ref="M84" r:id="rId143" xr:uid="{3BD0C89B-F99A-A54F-A144-B0A1B7CAB149}"/>
-    <hyperlink ref="M82" r:id="rId144" xr:uid="{80C1D19F-F1E2-FC4D-A18F-70518B1CBFFA}"/>
-    <hyperlink ref="M83" r:id="rId145" xr:uid="{2E4440E0-D07A-7642-BEA1-72776DA50C36}"/>
-    <hyperlink ref="M132" r:id="rId146" xr:uid="{8206A4EA-C466-5F4E-B49E-2C0FA4703E6F}"/>
-    <hyperlink ref="M163" r:id="rId147" xr:uid="{B1F5FC72-DAC6-FF49-B48D-81EB5BF15BFD}"/>
-    <hyperlink ref="M172" r:id="rId148" xr:uid="{D167BEA5-D45B-CA41-B4F6-76163925622D}"/>
-    <hyperlink ref="M173" r:id="rId149" xr:uid="{3A330AFD-1377-5944-B736-4634675447DE}"/>
-    <hyperlink ref="M174" r:id="rId150" xr:uid="{3476BF52-600B-0B4C-A6FF-57146EA8D62A}"/>
-    <hyperlink ref="M175" r:id="rId151" xr:uid="{F50C551A-3BE1-A54B-90BE-42B9CD45BEFE}"/>
-    <hyperlink ref="M178" r:id="rId152" xr:uid="{D1C7EAEE-E389-D549-BA6D-7DDDC8847410}"/>
-    <hyperlink ref="M177" r:id="rId153" xr:uid="{7302C45C-661C-AF4F-B0DF-3526BD3BEFA6}"/>
-    <hyperlink ref="M180" r:id="rId154" xr:uid="{A8013915-FAD6-E94B-B4AA-8830C0E1B1C4}"/>
-    <hyperlink ref="M182" r:id="rId155" xr:uid="{A599CA4F-49A5-A547-82C6-18C18517EF66}"/>
-    <hyperlink ref="M183" r:id="rId156" xr:uid="{23A2EB8F-414C-6A40-B61C-550E0384B84A}"/>
-    <hyperlink ref="M184" r:id="rId157" xr:uid="{E2408F5B-5943-B445-B9E4-EBA5E81A556C}"/>
-    <hyperlink ref="M186" r:id="rId158" xr:uid="{1E96C5C3-8A62-6B4F-BD59-38A73329B43A}"/>
-    <hyperlink ref="M187" r:id="rId159" xr:uid="{2BCE4C49-F382-1347-BF65-F02D569FE10C}"/>
-    <hyperlink ref="M189" r:id="rId160" xr:uid="{207BBD72-8B44-274E-AA5D-CB11F697B855}"/>
-    <hyperlink ref="M87" r:id="rId161" xr:uid="{7D45DEC7-0653-FD42-89A8-A25927113AB4}"/>
-    <hyperlink ref="M88" r:id="rId162" xr:uid="{D6C77E50-E5F5-C24C-AB05-774C491255BB}"/>
-    <hyperlink ref="M90" r:id="rId163" xr:uid="{E169FD4F-67F5-9341-8F82-A11B5E96539C}"/>
-    <hyperlink ref="M89" r:id="rId164" xr:uid="{032927EA-DDA7-AF4A-BE91-F6511D67DAF3}"/>
-    <hyperlink ref="M91" r:id="rId165" xr:uid="{71D0AC5C-148A-BF46-81DC-BE97B128C4E3}"/>
-    <hyperlink ref="M231" r:id="rId166" xr:uid="{4A00DA70-9D66-094B-917C-675B2EDCF48F}"/>
-    <hyperlink ref="M232" r:id="rId167" xr:uid="{F21D5C5E-B4FD-B740-ACC2-B6B05B700BF7}"/>
-    <hyperlink ref="M234" r:id="rId168" xr:uid="{596F335A-FD6C-7948-96A0-68149C037C23}"/>
-    <hyperlink ref="M219" r:id="rId169" xr:uid="{AB792AA3-A918-B54E-86E5-48834D59017F}"/>
-    <hyperlink ref="M94" r:id="rId170" xr:uid="{1B8A43D8-9FEE-B14D-ADC0-C35FB1FFA1D2}"/>
-    <hyperlink ref="M55" r:id="rId171" xr:uid="{35704627-FEB5-494E-9625-9FD85ECE20CE}"/>
-    <hyperlink ref="M165" r:id="rId172" xr:uid="{C3541F8C-80DD-EC41-81ED-84D804D4DF3E}"/>
-    <hyperlink ref="M166" r:id="rId173" xr:uid="{1F4C36B2-A1A8-0749-BAB5-CED2B3834BD3}"/>
-    <hyperlink ref="M170" r:id="rId174" xr:uid="{5347B466-90F3-3A42-855A-58DDD9AE464E}"/>
-    <hyperlink ref="M169" r:id="rId175" xr:uid="{C585C75E-6746-1C40-ABC1-CCD931279C0C}"/>
-    <hyperlink ref="M168" r:id="rId176" xr:uid="{C2D4F39B-6034-8A40-B3B5-1005B96A8109}"/>
-    <hyperlink ref="M167" r:id="rId177" xr:uid="{5265D5E7-37B8-F045-8353-A979BA94839C}"/>
-    <hyperlink ref="M164" r:id="rId178" xr:uid="{ADC9B98F-F064-024E-9431-144F2E5665A4}"/>
-    <hyperlink ref="M148" r:id="rId179" xr:uid="{F8C50251-F225-4443-8C4C-C07012864383}"/>
-    <hyperlink ref="M147" r:id="rId180" xr:uid="{8B0183BD-3FC3-6E43-94EB-08238A4F4B7D}"/>
-    <hyperlink ref="M60" r:id="rId181" xr:uid="{A3D0BBB7-0C2A-794B-91E9-E8288E72D0AC}"/>
-    <hyperlink ref="M47" r:id="rId182" xr:uid="{A0EB7984-F55C-1146-889A-1FF64D0683C6}"/>
-    <hyperlink ref="M49" r:id="rId183" xr:uid="{70A83B6B-9B27-284B-B535-C95D8D7155C3}"/>
-    <hyperlink ref="M65" r:id="rId184" xr:uid="{BC96FCE1-2592-2442-B798-0712FBE746B2}"/>
-    <hyperlink ref="M46" r:id="rId185" xr:uid="{09D09F0F-2E32-CB48-8641-16F0A8431B5B}"/>
-    <hyperlink ref="M59" r:id="rId186" xr:uid="{1CAF8626-07BE-8442-87B7-FE58A9DFE605}"/>
-    <hyperlink ref="M58" r:id="rId187" xr:uid="{5D1A25E4-01B1-9B47-AD71-12681DBF9531}"/>
-    <hyperlink ref="M223" r:id="rId188" xr:uid="{D92F81AD-E9AD-3F4F-8877-CA8C00B0E683}"/>
-    <hyperlink ref="M238" r:id="rId189" xr:uid="{C3357FDD-7C34-9841-8DDE-935CC0A7BFC4}"/>
-    <hyperlink ref="M192" r:id="rId190" xr:uid="{D1C65A36-1B3F-7345-A7DD-E48FFB1D4DE7}"/>
-    <hyperlink ref="M258" r:id="rId191" xr:uid="{8343CEAF-6E97-644B-A1F6-36BD90A6E9C1}"/>
-    <hyperlink ref="M262" r:id="rId192" xr:uid="{FCC643FA-E57C-D047-B548-2B93D7AA5550}"/>
-    <hyperlink ref="M224" r:id="rId193" xr:uid="{9A695397-EBD0-6048-93CC-03E0014B65E5}"/>
-    <hyperlink ref="M93" r:id="rId194" xr:uid="{5EE3DA6D-4AC5-C14C-89D4-05332DBFCB78}"/>
-    <hyperlink ref="M57" r:id="rId195" xr:uid="{821F0F7A-BE61-7742-B4C7-329E4169955D}"/>
-    <hyperlink ref="M225" r:id="rId196" xr:uid="{A157527D-B6D6-2A4B-9449-ABE025A873F7}"/>
-    <hyperlink ref="M215" r:id="rId197" xr:uid="{E9951DC5-8BFE-984D-A578-DF7F242A994A}"/>
+    <hyperlink ref="M24" r:id="rId7" xr:uid="{E11305D0-7A15-8F40-BBD6-29D407A59A85}"/>
+    <hyperlink ref="M18" r:id="rId8" xr:uid="{C5D72966-3B2B-3B4A-BDA6-1F73C487581B}"/>
+    <hyperlink ref="M25" r:id="rId9" xr:uid="{3E0F536A-1186-7F46-BBEF-62932CA57FEF}"/>
+    <hyperlink ref="M20" r:id="rId10" xr:uid="{515F1AC8-508A-7F4C-9F4D-1645AB2ED545}"/>
+    <hyperlink ref="M19" r:id="rId11" xr:uid="{E5C74330-4C67-574B-BE2B-858F9D0BDE7E}"/>
+    <hyperlink ref="M23" r:id="rId12" xr:uid="{C8D90150-5546-5A46-AAB1-5BE42F2603AA}"/>
+    <hyperlink ref="M8" r:id="rId13" xr:uid="{7DBC4CFD-0B9D-FC44-9F56-B2F2EBD00BE1}"/>
+    <hyperlink ref="M13" r:id="rId14" xr:uid="{E1EEF5DE-2C3E-0A4A-9E6E-5BF6E4153665}"/>
+    <hyperlink ref="M29" r:id="rId15" xr:uid="{14FF556B-DD64-434B-9A78-5AAADC96BA37}"/>
+    <hyperlink ref="M9" r:id="rId16" xr:uid="{4E4EFE43-6386-4845-A9D8-5908DF98C6A0}"/>
+    <hyperlink ref="M14" r:id="rId17" xr:uid="{C5A1967A-4308-4545-A626-032E4F025CEB}"/>
+    <hyperlink ref="M15" r:id="rId18" xr:uid="{CDCDFAE0-F7AB-174F-84C7-DA4B437E5F4A}"/>
+    <hyperlink ref="M26" r:id="rId19" xr:uid="{9D49B9D4-080A-FB4E-B1AE-E6DEB07F9810}"/>
+    <hyperlink ref="M10" r:id="rId20" xr:uid="{88D81009-0302-9645-9520-B9B6AE5E2990}"/>
+    <hyperlink ref="M17" r:id="rId21" xr:uid="{012F46BE-E6BC-9A45-A1F4-B6F127C4813E}"/>
+    <hyperlink ref="M12" r:id="rId22" xr:uid="{915F6156-DBA6-CF42-9B2D-26C7FE42EDEA}"/>
+    <hyperlink ref="M28" r:id="rId23" xr:uid="{520D71B1-B964-3348-A709-6501D846BD62}"/>
+    <hyperlink ref="M22" r:id="rId24" xr:uid="{4541C760-D0D2-ED4C-ACAB-DFDDE83D57FD}"/>
+    <hyperlink ref="M16" r:id="rId25" xr:uid="{BBE2930A-937C-A74A-8C60-9B40A237BD09}"/>
+    <hyperlink ref="M11" r:id="rId26" xr:uid="{D0E33CC2-C339-B94D-A96C-1948C9C209C9}"/>
+    <hyperlink ref="M27" r:id="rId27" xr:uid="{E3EB0079-6686-2D48-86FF-9001902116AF}"/>
+    <hyperlink ref="M7" r:id="rId28" xr:uid="{25F18012-A146-3141-9889-6944423F913B}"/>
+    <hyperlink ref="M21" r:id="rId29" xr:uid="{6280B8FA-7812-DD49-8645-E788C18D5567}"/>
+    <hyperlink ref="M6" r:id="rId30" xr:uid="{F328CAF1-7329-CF4A-8A31-EEE43189D0B3}"/>
+    <hyperlink ref="M226" r:id="rId31" xr:uid="{04CAAAEB-EB94-A141-8A95-D04005C206DA}"/>
+    <hyperlink ref="M100" r:id="rId32" xr:uid="{B70BBFF8-90AF-7E4E-A9B8-0ED9C71C5260}"/>
+    <hyperlink ref="M171" r:id="rId33" xr:uid="{30E1DA05-059D-9347-B411-3EFED989712F}"/>
+    <hyperlink ref="M125" r:id="rId34" xr:uid="{040E25F1-9071-A34B-96D0-9358277A9602}"/>
+    <hyperlink ref="M110" r:id="rId35" xr:uid="{E5737C51-CA44-6444-AEF3-696CFD100819}"/>
+    <hyperlink ref="M229" r:id="rId36" xr:uid="{A63644E5-9A9B-4C48-8135-6ECE65E45218}"/>
+    <hyperlink ref="M228" r:id="rId37" xr:uid="{1A67B714-807C-4F46-82F0-4CFFA07B63AB}"/>
+    <hyperlink ref="M230" r:id="rId38" xr:uid="{0A1958E1-F046-474B-9926-F831AC3BD444}"/>
+    <hyperlink ref="M190" r:id="rId39" xr:uid="{59527AAC-FB55-C14B-88ED-3C9DF709DE99}"/>
+    <hyperlink ref="M227" r:id="rId40" xr:uid="{3CF710CA-59F9-AB4B-A036-72AFA0C7FAF7}"/>
+    <hyperlink ref="M112" r:id="rId41" xr:uid="{F74B2F26-F6F5-A944-8909-B402AF7E3445}"/>
+    <hyperlink ref="M179" r:id="rId42" xr:uid="{F074FE5F-2F8F-9843-80D2-9E553C6F89E9}"/>
+    <hyperlink ref="M185" r:id="rId43" xr:uid="{CEE68E11-A4C8-DB41-911B-76CBCC09A2E0}"/>
+    <hyperlink ref="M251" r:id="rId44" xr:uid="{E5486846-BD50-0748-B727-39A5652EE90C}"/>
+    <hyperlink ref="M119" r:id="rId45" xr:uid="{5D82704D-B97E-7640-B5A4-95E4332C13B4}"/>
+    <hyperlink ref="M160" r:id="rId46" xr:uid="{98B95C62-9C57-364E-BFBF-0068C03978E7}"/>
+    <hyperlink ref="M130" r:id="rId47" xr:uid="{6F0E097A-A4C9-D34B-BB29-5E2CED192633}"/>
+    <hyperlink ref="M176" r:id="rId48" xr:uid="{20E8AE30-8FB4-214C-A688-460F477526A3}"/>
+    <hyperlink ref="M243" r:id="rId49" xr:uid="{DD082D79-B8A8-7B41-B914-6D6EDA8260C7}"/>
+    <hyperlink ref="M199" r:id="rId50" xr:uid="{9DA55AA2-200B-5B4C-B67A-560F4D39BBF0}"/>
+    <hyperlink ref="M188" r:id="rId51" xr:uid="{5AB05EFC-983D-8C4C-A8A1-C6313EEAA8BB}"/>
+    <hyperlink ref="M260" r:id="rId52" xr:uid="{CC08A70F-A717-5E43-8E47-EAC93913ADA3}"/>
+    <hyperlink ref="M157" r:id="rId53" xr:uid="{8153247A-F133-B041-8962-3757144D9557}"/>
+    <hyperlink ref="M80" r:id="rId54" xr:uid="{058B15D2-6A27-F240-AA63-559E1A3B4419}"/>
+    <hyperlink ref="M181" r:id="rId55" xr:uid="{9874B165-92B6-214B-9508-C7D1E7E14C5F}"/>
+    <hyperlink ref="M150" r:id="rId56" xr:uid="{7400759C-B811-9E4C-B8C6-A6AD036837CA}"/>
+    <hyperlink ref="M233" r:id="rId57" xr:uid="{A0400848-D667-CD40-9E00-78437E3D2408}"/>
+    <hyperlink ref="M92" r:id="rId58" xr:uid="{C0CE4574-0176-F944-8B9C-060A491F9147}"/>
+    <hyperlink ref="M108" r:id="rId59" xr:uid="{E64CD85F-9BE3-CC4B-AF66-D504C89A019A}"/>
+    <hyperlink ref="M218" r:id="rId60" xr:uid="{3C0A4CAF-3804-7143-9BAB-A056C35B593A}"/>
+    <hyperlink ref="M111" r:id="rId61" xr:uid="{6AABF66B-7E68-5546-A0FB-68790FB4F116}"/>
+    <hyperlink ref="M68" r:id="rId62" xr:uid="{653C328D-C6FA-BE47-9E3E-BB54BA777B4A}"/>
+    <hyperlink ref="M69" r:id="rId63" xr:uid="{1C0227FC-EAEC-CA42-BE6B-66FE5E2CC151}"/>
+    <hyperlink ref="M70" r:id="rId64" xr:uid="{B6982694-8628-4846-9539-702FADC7B3FE}"/>
+    <hyperlink ref="M95" r:id="rId65" xr:uid="{6786D323-6843-A743-814D-186BE665CB91}"/>
+    <hyperlink ref="M96" r:id="rId66" xr:uid="{75E25F65-1A4A-8240-8337-3013BA746B22}"/>
+    <hyperlink ref="M97" r:id="rId67" xr:uid="{5F61FC60-40AD-F642-89A3-66FE6EFBDB0A}"/>
+    <hyperlink ref="M98" r:id="rId68" xr:uid="{F27682F5-E83D-B54C-8A79-ED847F57CB2C}"/>
+    <hyperlink ref="M123" r:id="rId69" xr:uid="{4173E3B6-18B3-EE4E-BE2A-10F6D2BE0498}"/>
+    <hyperlink ref="M72" r:id="rId70" xr:uid="{7B5A1534-74EC-C644-BF50-29EB3ECE8194}"/>
+    <hyperlink ref="M48" r:id="rId71" xr:uid="{03BC7C38-AFDA-F942-836A-FFB352410214}"/>
+    <hyperlink ref="M74" r:id="rId72" display="Twitter" xr:uid="{1446F8F9-81B5-3946-8882-73AE7333EEA8}"/>
+    <hyperlink ref="M126" r:id="rId73" xr:uid="{6F94BE16-6941-BC41-BDC5-BF0ACA001DE7}"/>
+    <hyperlink ref="M127" r:id="rId74" xr:uid="{294050D0-C464-D94E-BA28-2BB036B1B538}"/>
+    <hyperlink ref="M128" r:id="rId75" xr:uid="{8CB55EF4-0980-7B43-9051-28F7E5259994}"/>
+    <hyperlink ref="M129" r:id="rId76" xr:uid="{38D5DCA1-D2A1-9448-B5E7-B572EF84CB88}"/>
+    <hyperlink ref="M131" r:id="rId77" xr:uid="{E76EDD5E-318E-7444-8B5A-CED5A00DCA1F}"/>
+    <hyperlink ref="M133" r:id="rId78" xr:uid="{EB2F8AEE-709C-004A-8DE7-2DFBC99A143B}"/>
+    <hyperlink ref="M139" r:id="rId79" xr:uid="{429FFB01-48F8-F746-9DE9-E3A6AD72CAFC}"/>
+    <hyperlink ref="M146" r:id="rId80" xr:uid="{5AEFC1AC-A642-4942-824D-E2B1D3F358F0}"/>
+    <hyperlink ref="M75" r:id="rId81" xr:uid="{A30A9F9E-A0B7-4049-AF53-357A0FCB5830}"/>
+    <hyperlink ref="M76" r:id="rId82" xr:uid="{EA70BD7D-F68A-394E-80C7-9A810AD8FE0F}"/>
+    <hyperlink ref="M77" r:id="rId83" xr:uid="{FEDAFA69-DFB3-BB44-A80C-12595A523BE4}"/>
+    <hyperlink ref="M149" r:id="rId84" xr:uid="{786052F5-C810-FC4F-A458-CC08D809C213}"/>
+    <hyperlink ref="M151" r:id="rId85" xr:uid="{8CED7805-422E-F84A-B4F4-0094EFC170C9}"/>
+    <hyperlink ref="M152" r:id="rId86" xr:uid="{6D4BA0E7-690E-0347-9CD1-D77D17C7DCB4}"/>
+    <hyperlink ref="M153" r:id="rId87" xr:uid="{21E31C54-A295-F149-8EDD-8306670F90B9}"/>
+    <hyperlink ref="M54" r:id="rId88" xr:uid="{37A76876-1C6C-8D43-B583-6E901E0E6BAB}"/>
+    <hyperlink ref="M154" r:id="rId89" xr:uid="{1D32B755-C83A-DE48-817B-DE972F643650}"/>
+    <hyperlink ref="M99" r:id="rId90" xr:uid="{8F099F05-BEB3-8B46-88B3-8EEDC456D815}"/>
+    <hyperlink ref="M214" r:id="rId91" xr:uid="{CE470DBD-CCDA-D248-82DA-0F714F90989C}"/>
+    <hyperlink ref="M222" r:id="rId92" xr:uid="{05D72DA3-D314-9448-83A3-D080DCBD5F75}"/>
+    <hyperlink ref="M195" r:id="rId93" xr:uid="{FA8C2264-767D-B24E-9E67-5795A33D20E9}"/>
+    <hyperlink ref="M207" r:id="rId94" xr:uid="{78653EA5-90FF-4544-A8D5-029E69419F7D}"/>
+    <hyperlink ref="M213" r:id="rId95" xr:uid="{E4086A23-5346-6440-8918-933025A927CB}"/>
+    <hyperlink ref="M208" r:id="rId96" xr:uid="{B3EDE865-43B6-DD4B-9D3D-BCCD9AF904ED}"/>
+    <hyperlink ref="M205" r:id="rId97" xr:uid="{AEE6509F-1FD4-B24E-9EC8-F323CC53D2BF}"/>
+    <hyperlink ref="M105" r:id="rId98" xr:uid="{78A9A6F4-D8EA-9646-8A06-E3D913014150}"/>
+    <hyperlink ref="M102" r:id="rId99" xr:uid="{4808757E-A77C-AF4D-8102-6952E635DB9E}"/>
+    <hyperlink ref="M101" r:id="rId100" xr:uid="{1E1EC8D2-B583-DF44-B97C-4934F33725A7}"/>
+    <hyperlink ref="M103" r:id="rId101" xr:uid="{0FC99021-3EDB-FC42-9B65-93C131C14491}"/>
+    <hyperlink ref="M104" r:id="rId102" xr:uid="{1F4284F5-559F-C64E-9E45-B59B5D781F19}"/>
+    <hyperlink ref="M106" r:id="rId103" xr:uid="{149B914B-ECC7-2F44-9C1A-81BEE614A7C1}"/>
+    <hyperlink ref="M107" r:id="rId104" xr:uid="{BDFC98B3-397C-B74E-942A-B8EBB21711F9}"/>
+    <hyperlink ref="M191" r:id="rId105" xr:uid="{44B24A61-1CB9-4347-99D3-0505F057AAD4}"/>
+    <hyperlink ref="M204" r:id="rId106" xr:uid="{FE8128FA-5CF0-0D41-A7C0-46F741DA59B4}"/>
+    <hyperlink ref="M196" r:id="rId107" xr:uid="{CAD5594E-A27A-154B-B415-B130A8F7CE07}"/>
+    <hyperlink ref="M209" r:id="rId108" xr:uid="{A4FF3F21-9E3D-B447-AAFA-22F9043DDA5D}"/>
+    <hyperlink ref="M206" r:id="rId109" xr:uid="{DB73CEB3-3FEB-7F46-85A3-3938951F37B8}"/>
+    <hyperlink ref="M220" r:id="rId110" xr:uid="{C23341DE-533B-E140-8F6C-D676716DE999}"/>
+    <hyperlink ref="M194" r:id="rId111" xr:uid="{A142D7E3-9B0F-4D41-BF03-B7DCF18FD5A6}"/>
+    <hyperlink ref="M66" r:id="rId112" xr:uid="{045C56B0-A424-AD4B-B22F-7825ED6CB96D}"/>
+    <hyperlink ref="M235" r:id="rId113" xr:uid="{D092D972-E3B1-4140-8375-95BE3C9F3EFE}"/>
+    <hyperlink ref="M245" r:id="rId114" xr:uid="{EEDA047C-354C-FF44-87E3-87C73923418A}"/>
+    <hyperlink ref="M120" r:id="rId115" xr:uid="{25AA9D20-D18A-4B41-9D0A-A019A153851B}"/>
+    <hyperlink ref="M121" r:id="rId116" xr:uid="{34BCCBFD-EFF6-3141-B6F5-01363288E46A}"/>
+    <hyperlink ref="M122" r:id="rId117" xr:uid="{0A07A660-A511-8A48-96F6-2AF2A4FCE17B}"/>
+    <hyperlink ref="M134" r:id="rId118" xr:uid="{43EB58A6-B0F0-7140-8FAF-4BE289791BDB}"/>
+    <hyperlink ref="M135" r:id="rId119" xr:uid="{D9038633-5F30-A243-A01B-F6D882372CEC}"/>
+    <hyperlink ref="M136" r:id="rId120" xr:uid="{95BD3E50-FB6B-A14B-9A87-B409CF912C2C}"/>
+    <hyperlink ref="M137" r:id="rId121" xr:uid="{5B391E3A-2175-DA4C-95AE-4B8B239A8A3A}"/>
+    <hyperlink ref="M138" r:id="rId122" xr:uid="{9FF2AAA1-90A9-674B-9E47-D3829FFBE2AB}"/>
+    <hyperlink ref="M140" r:id="rId123" xr:uid="{8D59555B-9D83-E641-BB46-630401BA6CE7}"/>
+    <hyperlink ref="M141" r:id="rId124" xr:uid="{6818F469-A896-EE47-86EA-7CEB5B68BCA3}"/>
+    <hyperlink ref="M142" r:id="rId125" xr:uid="{BB101638-800D-F44C-B944-5D59A141D333}"/>
+    <hyperlink ref="M143" r:id="rId126" xr:uid="{1EDA595A-591F-2B47-ACE5-3BD72E829B35}"/>
+    <hyperlink ref="M144" r:id="rId127" xr:uid="{8707D7A0-DF19-AB40-99EB-982FD252BD77}"/>
+    <hyperlink ref="M145" r:id="rId128" xr:uid="{B49AC525-00AE-0842-A83F-96FDA814EF59}"/>
+    <hyperlink ref="M78" r:id="rId129" xr:uid="{CE90970E-8EE0-6B4E-916E-9C9E8DE847A8}"/>
+    <hyperlink ref="M79" r:id="rId130" xr:uid="{48905F47-687C-EB46-8C06-E40F411ABB5C}"/>
+    <hyperlink ref="M52" r:id="rId131" xr:uid="{1761F92D-50D3-3743-89BD-5D06E62BBFB6}"/>
+    <hyperlink ref="M53" r:id="rId132" xr:uid="{C9968383-C3CE-5144-99DB-7797BB593DDE}"/>
+    <hyperlink ref="M155" r:id="rId133" xr:uid="{5FB3A2FF-A7FE-8B4C-BDE2-FE5682511476}"/>
+    <hyperlink ref="M156" r:id="rId134" xr:uid="{946E2692-2B7D-6C4A-9C9F-787D04506ECE}"/>
+    <hyperlink ref="M158" r:id="rId135" xr:uid="{805CD766-243F-B240-B093-06536E655817}"/>
+    <hyperlink ref="M159" r:id="rId136" xr:uid="{E4FBCDA2-87FD-E945-9CB9-1AD98B942B95}"/>
+    <hyperlink ref="M161" r:id="rId137" xr:uid="{24075B69-0DFF-294A-938C-9B30A0987122}"/>
+    <hyperlink ref="M162" r:id="rId138" xr:uid="{B15BF43A-5F15-814E-B897-670959531B3E}"/>
+    <hyperlink ref="M81" r:id="rId139" xr:uid="{08694A46-113C-9549-9784-04A13D06B3C1}"/>
+    <hyperlink ref="M86" r:id="rId140" xr:uid="{1836BB31-553B-DD40-85C5-9099649CE5A1}"/>
+    <hyperlink ref="M85" r:id="rId141" xr:uid="{4B6B39DD-2D84-FD4D-AD42-F85F439CA29B}"/>
+    <hyperlink ref="M84" r:id="rId142" xr:uid="{3BD0C89B-F99A-A54F-A144-B0A1B7CAB149}"/>
+    <hyperlink ref="M82" r:id="rId143" xr:uid="{80C1D19F-F1E2-FC4D-A18F-70518B1CBFFA}"/>
+    <hyperlink ref="M83" r:id="rId144" xr:uid="{2E4440E0-D07A-7642-BEA1-72776DA50C36}"/>
+    <hyperlink ref="M132" r:id="rId145" xr:uid="{8206A4EA-C466-5F4E-B49E-2C0FA4703E6F}"/>
+    <hyperlink ref="M163" r:id="rId146" xr:uid="{B1F5FC72-DAC6-FF49-B48D-81EB5BF15BFD}"/>
+    <hyperlink ref="M172" r:id="rId147" xr:uid="{D167BEA5-D45B-CA41-B4F6-76163925622D}"/>
+    <hyperlink ref="M173" r:id="rId148" xr:uid="{3A330AFD-1377-5944-B736-4634675447DE}"/>
+    <hyperlink ref="M174" r:id="rId149" xr:uid="{3476BF52-600B-0B4C-A6FF-57146EA8D62A}"/>
+    <hyperlink ref="M175" r:id="rId150" xr:uid="{F50C551A-3BE1-A54B-90BE-42B9CD45BEFE}"/>
+    <hyperlink ref="M178" r:id="rId151" xr:uid="{D1C7EAEE-E389-D549-BA6D-7DDDC8847410}"/>
+    <hyperlink ref="M177" r:id="rId152" xr:uid="{7302C45C-661C-AF4F-B0DF-3526BD3BEFA6}"/>
+    <hyperlink ref="M180" r:id="rId153" xr:uid="{A8013915-FAD6-E94B-B4AA-8830C0E1B1C4}"/>
+    <hyperlink ref="M182" r:id="rId154" xr:uid="{A599CA4F-49A5-A547-82C6-18C18517EF66}"/>
+    <hyperlink ref="M183" r:id="rId155" xr:uid="{23A2EB8F-414C-6A40-B61C-550E0384B84A}"/>
+    <hyperlink ref="M184" r:id="rId156" xr:uid="{E2408F5B-5943-B445-B9E4-EBA5E81A556C}"/>
+    <hyperlink ref="M186" r:id="rId157" xr:uid="{1E96C5C3-8A62-6B4F-BD59-38A73329B43A}"/>
+    <hyperlink ref="M187" r:id="rId158" xr:uid="{2BCE4C49-F382-1347-BF65-F02D569FE10C}"/>
+    <hyperlink ref="M189" r:id="rId159" xr:uid="{207BBD72-8B44-274E-AA5D-CB11F697B855}"/>
+    <hyperlink ref="M87" r:id="rId160" xr:uid="{7D45DEC7-0653-FD42-89A8-A25927113AB4}"/>
+    <hyperlink ref="M88" r:id="rId161" xr:uid="{D6C77E50-E5F5-C24C-AB05-774C491255BB}"/>
+    <hyperlink ref="M90" r:id="rId162" xr:uid="{E169FD4F-67F5-9341-8F82-A11B5E96539C}"/>
+    <hyperlink ref="M89" r:id="rId163" xr:uid="{032927EA-DDA7-AF4A-BE91-F6511D67DAF3}"/>
+    <hyperlink ref="M91" r:id="rId164" xr:uid="{71D0AC5C-148A-BF46-81DC-BE97B128C4E3}"/>
+    <hyperlink ref="M231" r:id="rId165" xr:uid="{4A00DA70-9D66-094B-917C-675B2EDCF48F}"/>
+    <hyperlink ref="M232" r:id="rId166" xr:uid="{F21D5C5E-B4FD-B740-ACC2-B6B05B700BF7}"/>
+    <hyperlink ref="M234" r:id="rId167" xr:uid="{596F335A-FD6C-7948-96A0-68149C037C23}"/>
+    <hyperlink ref="M219" r:id="rId168" xr:uid="{AB792AA3-A918-B54E-86E5-48834D59017F}"/>
+    <hyperlink ref="M94" r:id="rId169" xr:uid="{1B8A43D8-9FEE-B14D-ADC0-C35FB1FFA1D2}"/>
+    <hyperlink ref="M55" r:id="rId170" xr:uid="{35704627-FEB5-494E-9625-9FD85ECE20CE}"/>
+    <hyperlink ref="M165" r:id="rId171" xr:uid="{C3541F8C-80DD-EC41-81ED-84D804D4DF3E}"/>
+    <hyperlink ref="M166" r:id="rId172" xr:uid="{1F4C36B2-A1A8-0749-BAB5-CED2B3834BD3}"/>
+    <hyperlink ref="M170" r:id="rId173" xr:uid="{5347B466-90F3-3A42-855A-58DDD9AE464E}"/>
+    <hyperlink ref="M169" r:id="rId174" xr:uid="{C585C75E-6746-1C40-ABC1-CCD931279C0C}"/>
+    <hyperlink ref="M168" r:id="rId175" xr:uid="{C2D4F39B-6034-8A40-B3B5-1005B96A8109}"/>
+    <hyperlink ref="M167" r:id="rId176" xr:uid="{5265D5E7-37B8-F045-8353-A979BA94839C}"/>
+    <hyperlink ref="M164" r:id="rId177" xr:uid="{ADC9B98F-F064-024E-9431-144F2E5665A4}"/>
+    <hyperlink ref="M148" r:id="rId178" xr:uid="{F8C50251-F225-4443-8C4C-C07012864383}"/>
+    <hyperlink ref="M147" r:id="rId179" xr:uid="{8B0183BD-3FC3-6E43-94EB-08238A4F4B7D}"/>
+    <hyperlink ref="M60" r:id="rId180" xr:uid="{A3D0BBB7-0C2A-794B-91E9-E8288E72D0AC}"/>
+    <hyperlink ref="M47" r:id="rId181" xr:uid="{A0EB7984-F55C-1146-889A-1FF64D0683C6}"/>
+    <hyperlink ref="M49" r:id="rId182" xr:uid="{70A83B6B-9B27-284B-B535-C95D8D7155C3}"/>
+    <hyperlink ref="M65" r:id="rId183" xr:uid="{BC96FCE1-2592-2442-B798-0712FBE746B2}"/>
+    <hyperlink ref="M46" r:id="rId184" xr:uid="{09D09F0F-2E32-CB48-8641-16F0A8431B5B}"/>
+    <hyperlink ref="M59" r:id="rId185" xr:uid="{1CAF8626-07BE-8442-87B7-FE58A9DFE605}"/>
+    <hyperlink ref="M58" r:id="rId186" xr:uid="{5D1A25E4-01B1-9B47-AD71-12681DBF9531}"/>
+    <hyperlink ref="M223" r:id="rId187" xr:uid="{D92F81AD-E9AD-3F4F-8877-CA8C00B0E683}"/>
+    <hyperlink ref="M238" r:id="rId188" xr:uid="{C3357FDD-7C34-9841-8DDE-935CC0A7BFC4}"/>
+    <hyperlink ref="M192" r:id="rId189" xr:uid="{D1C65A36-1B3F-7345-A7DD-E48FFB1D4DE7}"/>
+    <hyperlink ref="M258" r:id="rId190" xr:uid="{8343CEAF-6E97-644B-A1F6-36BD90A6E9C1}"/>
+    <hyperlink ref="M262" r:id="rId191" xr:uid="{FCC643FA-E57C-D047-B548-2B93D7AA5550}"/>
+    <hyperlink ref="M224" r:id="rId192" xr:uid="{9A695397-EBD0-6048-93CC-03E0014B65E5}"/>
+    <hyperlink ref="M93" r:id="rId193" xr:uid="{5EE3DA6D-4AC5-C14C-89D4-05332DBFCB78}"/>
+    <hyperlink ref="M57" r:id="rId194" xr:uid="{821F0F7A-BE61-7742-B4C7-329E4169955D}"/>
+    <hyperlink ref="M225" r:id="rId195" xr:uid="{A157527D-B6D6-2A4B-9449-ABE025A873F7}"/>
+    <hyperlink ref="M215" r:id="rId196" xr:uid="{E9951DC5-8BFE-984D-A578-DF7F242A994A}"/>
+    <hyperlink ref="M67" r:id="rId197" xr:uid="{A28AFE34-BBA0-4ABC-8085-B308F155BD8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId198"/>

--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/endosos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B76E0-2FBB-49BD-8132-F56C46CDD04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A6C8D-44D4-834B-8CA8-9D7FA117E4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$L$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="335">
   <si>
     <t>id</t>
   </si>
@@ -927,9 +927,6 @@
   </si>
   <si>
     <t>Cambio21</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Hoy Coiaique</t>
@@ -1422,34 +1419,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:M264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="4"/>
-    <col min="3" max="3" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="14.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>289</v>
@@ -1458,10 +1455,10 @@
         <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1470,13 +1467,13 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>290</v>
@@ -1485,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1499,7 +1496,7 @@
         <v>44062</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
         <v>235</v>
@@ -1508,14 +1505,14 @@
         <v>18233</v>
       </c>
       <c r="H2" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G2))</f>
+        <f t="shared" ref="H2:H31" ca="1" si="0">(YEAR(TODAY())-YEAR(G2))</f>
         <v>71</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K2" t="s">
         <v>291</v>
@@ -1523,7 +1520,7 @@
       <c r="L2" s="10"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1537,7 +1534,7 @@
         <v>44062</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
         <v>237</v>
@@ -1546,14 +1543,14 @@
         <v>15516</v>
       </c>
       <c r="H3" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>204</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K3" t="s">
         <v>291</v>
@@ -1561,7 +1558,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1575,23 +1572,23 @@
         <v>44062</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G4" s="10">
         <v>13941</v>
       </c>
       <c r="H4" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K4" t="s">
         <v>291</v>
@@ -1599,7 +1596,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1613,7 +1610,7 @@
         <v>44062</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F5" t="s">
         <v>236</v>
@@ -1622,14 +1619,14 @@
         <v>18900</v>
       </c>
       <c r="H5" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K5" t="s">
         <v>291</v>
@@ -1637,7 +1634,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1651,7 +1648,7 @@
         <v>44061</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F6" t="s">
         <v>218</v>
@@ -1660,17 +1657,17 @@
         <v>26645</v>
       </c>
       <c r="H6" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L6" s="10">
         <v>44058</v>
@@ -1679,7 +1676,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1693,26 +1690,26 @@
         <v>44061</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" s="10">
         <v>20120</v>
       </c>
       <c r="H7" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L7" s="10">
         <v>44058</v>
@@ -1721,7 +1718,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>44061</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F8" t="s">
         <v>221</v>
@@ -1744,17 +1741,17 @@
         <v>28232</v>
       </c>
       <c r="H8" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L8" s="10">
         <v>44058</v>
@@ -1763,7 +1760,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1777,7 +1774,7 @@
         <v>44061</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F9" t="s">
         <v>224</v>
@@ -1786,17 +1783,17 @@
         <v>27653</v>
       </c>
       <c r="H9" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L9" s="10">
         <v>44058</v>
@@ -1805,7 +1802,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1819,7 +1816,7 @@
         <v>44061</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
         <v>228</v>
@@ -1828,17 +1825,17 @@
         <v>22460</v>
       </c>
       <c r="H10" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L10" s="10">
         <v>44058</v>
@@ -1847,7 +1844,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1861,7 +1858,7 @@
         <v>44061</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F11" t="s">
         <v>230</v>
@@ -1870,17 +1867,17 @@
         <v>27681</v>
       </c>
       <c r="H11" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L11" s="10">
         <v>44058</v>
@@ -1889,7 +1886,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>44061</v>
       </c>
       <c r="E12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
         <v>233</v>
@@ -1912,17 +1909,17 @@
         <v>17815</v>
       </c>
       <c r="H12" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L12" s="10">
         <v>44058</v>
@@ -1931,7 +1928,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1945,7 +1942,7 @@
         <v>44061</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s">
         <v>222</v>
@@ -1954,17 +1951,17 @@
         <v>27474</v>
       </c>
       <c r="H13" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L13" s="10">
         <v>44058</v>
@@ -1973,7 +1970,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1987,7 +1984,7 @@
         <v>44061</v>
       </c>
       <c r="E14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F14" t="s">
         <v>225</v>
@@ -1996,14 +1993,14 @@
         <v>20671</v>
       </c>
       <c r="H14" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K14" t="s">
         <v>291</v>
@@ -2015,7 +2012,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2029,7 +2026,7 @@
         <v>44061</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F15" t="s">
         <v>226</v>
@@ -2038,14 +2035,14 @@
         <v>17779</v>
       </c>
       <c r="H15" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K15" t="s">
         <v>291</v>
@@ -2057,7 +2054,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>44061</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
         <v>231</v>
@@ -2080,14 +2077,14 @@
         <v>24724</v>
       </c>
       <c r="H16" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K16" t="s">
         <v>291</v>
@@ -2099,7 +2096,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2113,7 +2110,7 @@
         <v>44061</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
         <v>234</v>
@@ -2122,14 +2119,14 @@
         <v>25134</v>
       </c>
       <c r="H17" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K17" t="s">
         <v>291</v>
@@ -2141,7 +2138,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>44061</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>34</v>
@@ -2164,17 +2161,17 @@
         <v>25126</v>
       </c>
       <c r="H18" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I18" t="s">
         <v>200</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L18" s="10">
         <v>44058</v>
@@ -2183,7 +2180,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2197,7 +2194,7 @@
         <v>44061</v>
       </c>
       <c r="E19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" t="s">
         <v>219</v>
@@ -2206,17 +2203,17 @@
         <v>24970</v>
       </c>
       <c r="H19" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L19" s="10">
         <v>44058</v>
@@ -2225,7 +2222,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>44061</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F20" t="s">
         <v>181</v>
@@ -2248,17 +2245,17 @@
         <v>20492</v>
       </c>
       <c r="H20" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L20" s="10">
         <v>44058</v>
@@ -2267,7 +2264,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2281,26 +2278,26 @@
         <v>44061</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G21" s="10">
         <v>21368</v>
       </c>
       <c r="H21" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L21" s="10">
         <v>44058</v>
@@ -2309,7 +2306,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2323,7 +2320,7 @@
         <v>44061</v>
       </c>
       <c r="E22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
         <v>232</v>
@@ -2332,14 +2329,14 @@
         <v>27295</v>
       </c>
       <c r="H22" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K22" t="s">
         <v>242</v>
@@ -2351,7 +2348,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2365,7 +2362,7 @@
         <v>44061</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F23" t="s">
         <v>220</v>
@@ -2374,17 +2371,17 @@
         <v>27105</v>
       </c>
       <c r="H23" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G23))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L23" s="10">
         <v>44058</v>
@@ -2393,7 +2390,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2407,7 +2404,7 @@
         <v>44061</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -2416,17 +2413,17 @@
         <v>29554</v>
       </c>
       <c r="H24" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G24))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="I24" t="s">
         <v>205</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L24" s="10">
         <v>44058</v>
@@ -2435,7 +2432,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2449,7 +2446,7 @@
         <v>44061</v>
       </c>
       <c r="E25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F25" t="s">
         <v>217</v>
@@ -2458,17 +2455,17 @@
         <v>20015</v>
       </c>
       <c r="H25" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G25))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L25" s="10">
         <v>44058</v>
@@ -2477,7 +2474,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>44061</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F26" t="s">
         <v>227</v>
@@ -2500,17 +2497,17 @@
         <v>26556</v>
       </c>
       <c r="H26" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G26))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L26" s="10">
         <v>44058</v>
@@ -2519,7 +2516,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2533,7 +2530,7 @@
         <v>44061</v>
       </c>
       <c r="E27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F27" t="s">
         <v>229</v>
@@ -2542,17 +2539,17 @@
         <v>32557</v>
       </c>
       <c r="H27" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G27))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L27" s="10">
         <v>44058</v>
@@ -2561,7 +2558,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2575,23 +2572,23 @@
         <v>44061</v>
       </c>
       <c r="E28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G28" s="10">
         <v>22770</v>
       </c>
       <c r="H28" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G28))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K28" t="s">
         <v>242</v>
@@ -2603,7 +2600,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2617,7 +2614,7 @@
         <v>44061</v>
       </c>
       <c r="E29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
         <v>223</v>
@@ -2626,14 +2623,14 @@
         <v>17431</v>
       </c>
       <c r="H29" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G29))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>73</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K29" t="s">
         <v>291</v>
@@ -2645,7 +2642,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2657,7 +2654,7 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F30" t="s">
         <v>275</v>
@@ -2666,14 +2663,14 @@
         <v>30994</v>
       </c>
       <c r="H30" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G30))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s">
         <v>291</v>
@@ -2681,7 +2678,7 @@
       <c r="L30" s="10"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2693,7 +2690,7 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F31" t="s">
         <v>270</v>
@@ -2702,14 +2699,14 @@
         <v>25454</v>
       </c>
       <c r="H31" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G31))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>207</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
         <v>291</v>
@@ -2717,7 +2714,7 @@
       <c r="L31" s="10"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2729,7 +2726,7 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F32" t="s">
         <v>274</v>
@@ -2740,7 +2737,7 @@
         <v>201</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K32" t="s">
         <v>291</v>
@@ -2748,7 +2745,7 @@
       <c r="L32" s="10"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2760,7 +2757,7 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F33" t="s">
         <v>271</v>
@@ -2771,7 +2768,7 @@
         <v>201</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s">
         <v>291</v>
@@ -2779,7 +2776,7 @@
       <c r="L33" s="10"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2791,7 +2788,7 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F34" t="s">
         <v>269</v>
@@ -2807,7 +2804,7 @@
         <v>201</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K34" t="s">
         <v>291</v>
@@ -2815,7 +2812,7 @@
       <c r="L34" s="10"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2827,7 +2824,7 @@
       </c>
       <c r="D35" s="10"/>
       <c r="E35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F35" t="s">
         <v>280</v>
@@ -2838,7 +2835,7 @@
         <v>200</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K35" t="s">
         <v>291</v>
@@ -2846,7 +2843,7 @@
       <c r="L35" s="10"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2858,7 +2855,7 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F36" t="s">
         <v>279</v>
@@ -2874,7 +2871,7 @@
         <v>200</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
         <v>291</v>
@@ -2882,7 +2879,7 @@
       <c r="L36" s="10"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2894,7 +2891,7 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F37" t="s">
         <v>278</v>
@@ -2910,7 +2907,7 @@
         <v>200</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s">
         <v>291</v>
@@ -2918,7 +2915,7 @@
       <c r="L37" s="10"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2930,7 +2927,7 @@
       </c>
       <c r="D38" s="10"/>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F38" t="s">
         <v>277</v>
@@ -2946,7 +2943,7 @@
         <v>200</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
         <v>291</v>
@@ -2954,7 +2951,7 @@
       <c r="L38" s="10"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2966,7 +2963,7 @@
       </c>
       <c r="D39" s="10"/>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F39" t="s">
         <v>272</v>
@@ -2977,7 +2974,7 @@
         <v>200</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s">
         <v>291</v>
@@ -2985,7 +2982,7 @@
       <c r="L39" s="10"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2997,7 +2994,7 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F40" t="s">
         <v>282</v>
@@ -3006,14 +3003,14 @@
         <v>18048</v>
       </c>
       <c r="H40" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G40))</f>
+        <f t="shared" ref="H40:H49" ca="1" si="1">(YEAR(TODAY())-YEAR(G40))</f>
         <v>71</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K40" t="s">
         <v>291</v>
@@ -3021,7 +3018,7 @@
       <c r="L40" s="10"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3033,7 +3030,7 @@
       </c>
       <c r="D41" s="10"/>
       <c r="E41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F41" t="s">
         <v>281</v>
@@ -3042,14 +3039,14 @@
         <v>25492</v>
       </c>
       <c r="H41" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G41))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K41" t="s">
         <v>291</v>
@@ -3057,7 +3054,7 @@
       <c r="L41" s="10"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3069,7 +3066,7 @@
       </c>
       <c r="D42" s="10"/>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F42" t="s">
         <v>284</v>
@@ -3078,14 +3075,14 @@
         <v>27655</v>
       </c>
       <c r="H42" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G42))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
         <v>291</v>
@@ -3093,7 +3090,7 @@
       <c r="L42" s="10"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3105,7 +3102,7 @@
       </c>
       <c r="D43" s="10"/>
       <c r="E43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F43" t="s">
         <v>276</v>
@@ -3114,14 +3111,14 @@
         <v>22881</v>
       </c>
       <c r="H43" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G43))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s">
         <v>291</v>
@@ -3129,7 +3126,7 @@
       <c r="L43" s="10"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3141,7 +3138,7 @@
       </c>
       <c r="D44" s="10"/>
       <c r="E44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F44" t="s">
         <v>273</v>
@@ -3150,14 +3147,14 @@
         <v>29105</v>
       </c>
       <c r="H44" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G44))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s">
         <v>291</v>
@@ -3165,7 +3162,7 @@
       <c r="L44" s="10"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3177,7 +3174,7 @@
       </c>
       <c r="D45" s="10"/>
       <c r="E45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F45" t="s">
         <v>285</v>
@@ -3186,14 +3183,14 @@
         <v>20806</v>
       </c>
       <c r="H45" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G45))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K45" t="s">
         <v>291</v>
@@ -3201,7 +3198,7 @@
       <c r="L45" s="10"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3215,7 +3212,7 @@
         <v>44062</v>
       </c>
       <c r="E46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F46" t="s">
         <v>250</v>
@@ -3224,14 +3221,14 @@
         <v>26763</v>
       </c>
       <c r="H46" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G46))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K46" t="s">
         <v>242</v>
@@ -3243,7 +3240,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3257,7 +3254,7 @@
         <v>44062</v>
       </c>
       <c r="E47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F47" t="s">
         <v>252</v>
@@ -3266,17 +3263,17 @@
         <v>26090</v>
       </c>
       <c r="H47" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G47))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L47" s="10">
         <v>43892</v>
@@ -3285,7 +3282,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>44061</v>
       </c>
       <c r="E48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F48" t="s">
         <v>255</v>
@@ -3308,24 +3305,24 @@
         <v>31131</v>
       </c>
       <c r="H48" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G48))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>44062</v>
       </c>
       <c r="E49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F49" t="s">
         <v>263</v>
@@ -3348,17 +3345,17 @@
         <v>25265</v>
       </c>
       <c r="H49" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G49))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L49" s="10">
         <v>43892</v>
@@ -3367,7 +3364,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3379,7 +3376,7 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F50" t="s">
         <v>265</v>
@@ -3390,7 +3387,7 @@
         <v>201</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K50" t="s">
         <v>291</v>
@@ -3398,7 +3395,7 @@
       <c r="L50" s="10"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3410,7 +3407,7 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F51" t="s">
         <v>266</v>
@@ -3426,7 +3423,7 @@
         <v>201</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K51" t="s">
         <v>291</v>
@@ -3434,7 +3431,7 @@
       <c r="L51" s="10"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3448,7 +3445,7 @@
         <v>44062</v>
       </c>
       <c r="E52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F52" t="s">
         <v>259</v>
@@ -3459,10 +3456,10 @@
         <v>204</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L52" s="10">
         <v>44062</v>
@@ -3471,7 +3468,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3485,7 +3482,7 @@
         <v>44062</v>
       </c>
       <c r="E53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F53" t="s">
         <v>260</v>
@@ -3501,10 +3498,10 @@
         <v>204</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L53" s="10">
         <v>44062</v>
@@ -3513,7 +3510,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>44061</v>
       </c>
       <c r="E54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F54" t="s">
         <v>261</v>
@@ -3543,17 +3540,17 @@
         <v>212</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3567,7 +3564,7 @@
         <v>44062</v>
       </c>
       <c r="E55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F55" t="s">
         <v>283</v>
@@ -3583,10 +3580,10 @@
         <v>210</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L55" s="10">
         <v>44055</v>
@@ -3595,7 +3592,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3607,7 +3604,7 @@
       </c>
       <c r="D56" s="10"/>
       <c r="E56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F56" t="s">
         <v>254</v>
@@ -3618,7 +3615,7 @@
         <v>202</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K56" t="s">
         <v>291</v>
@@ -3626,7 +3623,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3640,7 +3637,7 @@
         <v>44069</v>
       </c>
       <c r="E57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F57" t="s">
         <v>258</v>
@@ -3651,17 +3648,17 @@
         <v>202</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3675,7 +3672,7 @@
         <v>44069</v>
       </c>
       <c r="E58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F58" t="s">
         <v>268</v>
@@ -3686,17 +3683,17 @@
         <v>202</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>44062</v>
       </c>
       <c r="E59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F59" t="s">
         <v>249</v>
@@ -3726,10 +3723,10 @@
         <v>200</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L59" s="10">
         <v>43892</v>
@@ -3738,7 +3735,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>44062</v>
       </c>
       <c r="E60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
         <v>251</v>
@@ -3768,10 +3765,10 @@
         <v>200</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L60" s="10">
         <v>43878</v>
@@ -3780,7 +3777,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3792,7 +3789,7 @@
       </c>
       <c r="D61" s="10"/>
       <c r="E61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
         <v>257</v>
@@ -3808,7 +3805,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K61" t="s">
         <v>291</v>
@@ -3816,7 +3813,7 @@
       <c r="L61" s="10"/>
       <c r="M61"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3828,7 +3825,7 @@
       </c>
       <c r="D62" s="10"/>
       <c r="E62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F62" t="s">
         <v>262</v>
@@ -3839,7 +3836,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K62" t="s">
         <v>291</v>
@@ -3847,7 +3844,7 @@
       <c r="L62" s="10"/>
       <c r="M62"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3859,7 +3856,7 @@
       </c>
       <c r="D63" s="10"/>
       <c r="E63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F63" t="s">
         <v>264</v>
@@ -3868,14 +3865,14 @@
         <v>19005</v>
       </c>
       <c r="H63" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G63))</f>
+        <f t="shared" ref="H63:H126" ca="1" si="2">(YEAR(TODAY())-YEAR(G63))</f>
         <v>68</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K63" t="s">
         <v>291</v>
@@ -3883,7 +3880,7 @@
       <c r="L63" s="10"/>
       <c r="M63"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3895,7 +3892,7 @@
       </c>
       <c r="D64" s="10"/>
       <c r="E64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F64" t="s">
         <v>267</v>
@@ -3904,14 +3901,14 @@
         <v>27845</v>
       </c>
       <c r="H64" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G64))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K64" t="s">
         <v>291</v>
@@ -3919,7 +3916,7 @@
       <c r="L64" s="10"/>
       <c r="M64"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>44062</v>
       </c>
       <c r="E65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F65" t="s">
         <v>253</v>
@@ -3942,17 +3939,17 @@
         <v>14442</v>
       </c>
       <c r="H65" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G65))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L65" s="10">
         <v>43892</v>
@@ -3961,7 +3958,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>44062</v>
       </c>
       <c r="E66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F66" t="s">
         <v>256</v>
@@ -3984,17 +3981,17 @@
         <v>19655</v>
       </c>
       <c r="H66" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G66))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L66" s="10">
         <v>44048</v>
@@ -4003,7 +4000,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4017,7 +4014,7 @@
         <v>44070</v>
       </c>
       <c r="E67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>178</v>
@@ -4026,17 +4023,17 @@
         <v>28285</v>
       </c>
       <c r="H67" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G67))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="I67" t="s">
         <v>207</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K67" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L67" s="10">
         <v>44070</v>
@@ -4045,7 +4042,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>44061</v>
       </c>
       <c r="E68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F68" t="s">
         <v>158</v>
@@ -4068,17 +4065,17 @@
         <v>24478</v>
       </c>
       <c r="H68" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G68))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="I68" t="s">
         <v>201</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L68" s="10">
         <v>43837</v>
@@ -4087,7 +4084,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4101,7 +4098,7 @@
         <v>44061</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F69" t="s">
         <v>159</v>
@@ -4110,17 +4107,17 @@
         <v>21855</v>
       </c>
       <c r="H69" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G69))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="I69" t="s">
         <v>201</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L69" s="10">
         <v>43837</v>
@@ -4129,7 +4126,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4143,7 +4140,7 @@
         <v>44061</v>
       </c>
       <c r="E70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F70" t="s">
         <v>173</v>
@@ -4152,17 +4149,17 @@
         <v>21845</v>
       </c>
       <c r="H70" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G70))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="I70" t="s">
         <v>201</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L70" s="10">
         <v>43837</v>
@@ -4171,7 +4168,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4183,7 +4180,7 @@
       </c>
       <c r="D71" s="10"/>
       <c r="E71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F71" t="s">
         <v>182</v>
@@ -4192,14 +4189,14 @@
         <v>22224</v>
       </c>
       <c r="H71" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G71))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I71" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K71" t="s">
         <v>291</v>
@@ -4207,7 +4204,7 @@
       <c r="L71" s="10"/>
       <c r="M71"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4221,7 +4218,7 @@
         <v>44061</v>
       </c>
       <c r="E72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
         <v>186</v>
@@ -4230,24 +4227,24 @@
         <v>19423</v>
       </c>
       <c r="H72" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G72))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="I72" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4259,7 +4256,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F73" t="s">
         <v>196</v>
@@ -4268,14 +4265,14 @@
         <v>27196</v>
       </c>
       <c r="H73" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G73))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>201</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K73" t="s">
         <v>291</v>
@@ -4283,7 +4280,7 @@
       <c r="L73" s="10"/>
       <c r="M73"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>44061</v>
       </c>
       <c r="E74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
         <v>192</v>
@@ -4306,24 +4303,24 @@
         <v>21509</v>
       </c>
       <c r="H74" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G74))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="I74" s="12" t="s">
         <v>206</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4337,7 +4334,7 @@
         <v>44061</v>
       </c>
       <c r="E75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>166</v>
@@ -4346,24 +4343,24 @@
         <v>16153</v>
       </c>
       <c r="H75" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G75))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="I75" t="s">
         <v>204</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K75" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4377,7 +4374,7 @@
         <v>44061</v>
       </c>
       <c r="E76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>172</v>
@@ -4386,24 +4383,24 @@
         <v>25553</v>
       </c>
       <c r="H76" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G76))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="I76" t="s">
         <v>204</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4417,7 +4414,7 @@
         <v>44061</v>
       </c>
       <c r="E77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>179</v>
@@ -4426,24 +4423,24 @@
         <v>25024</v>
       </c>
       <c r="H77" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G77))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
       <c r="I77" t="s">
         <v>204</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4457,7 +4454,7 @@
         <v>44062</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F78" t="s">
         <v>185</v>
@@ -4466,17 +4463,17 @@
         <v>26653</v>
       </c>
       <c r="H78" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G78))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="I78" s="12" t="s">
         <v>204</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L78" s="10">
         <v>44062</v>
@@ -4485,7 +4482,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4499,7 +4496,7 @@
         <v>44062</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F79" t="s">
         <v>194</v>
@@ -4508,17 +4505,17 @@
         <v>19105</v>
       </c>
       <c r="H79" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G79))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>204</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L79" s="10">
         <v>44062</v>
@@ -4527,7 +4524,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4541,7 +4538,7 @@
         <v>44061</v>
       </c>
       <c r="E80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F80" t="s">
         <v>168</v>
@@ -4550,24 +4547,24 @@
         <v>22698</v>
       </c>
       <c r="H80" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G80))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I80" t="s">
         <v>203</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4581,7 +4578,7 @@
         <v>44062</v>
       </c>
       <c r="E81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F81" t="s">
         <v>170</v>
@@ -4590,17 +4587,17 @@
         <v>26732</v>
       </c>
       <c r="H81" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G81))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I81" t="s">
         <v>203</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L81" s="10">
         <v>44062</v>
@@ -4609,7 +4606,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4623,7 +4620,7 @@
         <v>44062</v>
       </c>
       <c r="E82" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>174</v>
@@ -4632,17 +4629,17 @@
         <v>24767</v>
       </c>
       <c r="H82" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G82))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="I82" t="s">
         <v>203</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L82" s="10">
         <v>44062</v>
@@ -4651,7 +4648,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>44062</v>
       </c>
       <c r="E83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>180</v>
@@ -4674,17 +4671,17 @@
         <v>13455</v>
       </c>
       <c r="H83" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G83))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>84</v>
       </c>
       <c r="I83" t="s">
         <v>203</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L83" s="10">
         <v>44062</v>
@@ -4693,7 +4690,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4707,7 +4704,7 @@
         <v>44062</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>184</v>
@@ -4716,17 +4713,17 @@
         <v>22305</v>
       </c>
       <c r="H84" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G84))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L84" s="10">
         <v>44062</v>
@@ -4735,7 +4732,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4749,7 +4746,7 @@
         <v>44062</v>
       </c>
       <c r="E85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F85" t="s">
         <v>187</v>
@@ -4758,17 +4755,17 @@
         <v>26500</v>
       </c>
       <c r="H85" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G85))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="I85" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K85" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L85" s="10">
         <v>44062</v>
@@ -4777,7 +4774,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4791,7 +4788,7 @@
         <v>44062</v>
       </c>
       <c r="E86" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F86" t="s">
         <v>191</v>
@@ -4800,17 +4797,17 @@
         <v>17801</v>
       </c>
       <c r="H86" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G86))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="I86" s="12" t="s">
         <v>203</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K86" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L86" s="10">
         <v>44062</v>
@@ -4819,7 +4816,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4833,7 +4830,7 @@
         <v>44062</v>
       </c>
       <c r="E87" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F87" t="s">
         <v>163</v>
@@ -4842,17 +4839,17 @@
         <v>25491</v>
       </c>
       <c r="H87" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G87))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="I87" t="s">
         <v>202</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L87" s="10">
         <v>44062</v>
@@ -4861,7 +4858,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4875,7 +4872,7 @@
         <v>44062</v>
       </c>
       <c r="E88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>167</v>
@@ -4884,17 +4881,17 @@
         <v>15859</v>
       </c>
       <c r="H88" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G88))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="I88" t="s">
         <v>202</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K88" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L88" s="10">
         <v>44062</v>
@@ -4903,7 +4900,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4917,7 +4914,7 @@
         <v>44062</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F89" t="s">
         <v>176</v>
@@ -4926,17 +4923,17 @@
         <v>16455</v>
       </c>
       <c r="H89" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G89))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="I89" t="s">
         <v>202</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L89" s="10">
         <v>44062</v>
@@ -4945,7 +4942,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4959,7 +4956,7 @@
         <v>44062</v>
       </c>
       <c r="E90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F90" t="s">
         <v>183</v>
@@ -4968,17 +4965,17 @@
         <v>24173</v>
       </c>
       <c r="H90" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G90))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="I90" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L90" s="10">
         <v>44062</v>
@@ -4987,7 +4984,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>44062</v>
       </c>
       <c r="E91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F91" t="s">
         <v>188</v>
@@ -5010,17 +5007,17 @@
         <v>22288</v>
       </c>
       <c r="H91" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G91))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K91" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L91" s="10">
         <v>44062</v>
@@ -5029,7 +5026,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5043,7 +5040,7 @@
         <v>44061</v>
       </c>
       <c r="E92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F92" t="s">
         <v>189</v>
@@ -5052,24 +5049,24 @@
         <v>16933</v>
       </c>
       <c r="H92" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G92))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K92" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5083,7 +5080,7 @@
         <v>44062</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F93" t="s">
         <v>195</v>
@@ -5092,24 +5089,24 @@
         <v>16010</v>
       </c>
       <c r="H93" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G93))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>202</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K93" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>44062</v>
       </c>
       <c r="E94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>108</v>
@@ -5132,24 +5129,24 @@
         <v>29680</v>
       </c>
       <c r="H94" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G94))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
       <c r="I94" t="s">
         <v>200</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K94" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>44061</v>
       </c>
       <c r="E95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>160</v>
@@ -5172,17 +5169,17 @@
         <v>26073</v>
       </c>
       <c r="H95" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G95))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="I95" t="s">
         <v>200</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L95" s="10">
         <v>43837</v>
@@ -5191,7 +5188,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>44061</v>
       </c>
       <c r="E96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F96" t="s">
         <v>164</v>
@@ -5214,17 +5211,17 @@
         <v>24414</v>
       </c>
       <c r="H96" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G96))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="I96" t="s">
         <v>200</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L96" s="10">
         <v>43837</v>
@@ -5233,7 +5230,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5247,7 +5244,7 @@
         <v>44061</v>
       </c>
       <c r="E97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F97" t="s">
         <v>165</v>
@@ -5256,17 +5253,17 @@
         <v>20231</v>
       </c>
       <c r="H97" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G97))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I97" t="s">
         <v>200</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L97" s="10">
         <v>43837</v>
@@ -5275,7 +5272,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5289,7 +5286,7 @@
         <v>44061</v>
       </c>
       <c r="E98" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F98" t="s">
         <v>171</v>
@@ -5298,17 +5295,17 @@
         <v>20252</v>
       </c>
       <c r="H98" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G98))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I98" t="s">
         <v>200</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K98" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L98" s="10">
         <v>43837</v>
@@ -5317,7 +5314,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>44062</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F99" t="s">
         <v>193</v>
@@ -5340,17 +5337,17 @@
         <v>22882</v>
       </c>
       <c r="H99" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G99))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K99" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L99" s="10">
         <v>43904</v>
@@ -5359,7 +5356,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5373,7 +5370,7 @@
         <v>44061</v>
       </c>
       <c r="E100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F100" t="s">
         <v>169</v>
@@ -5382,24 +5379,24 @@
         <v>28573</v>
       </c>
       <c r="H100" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G100))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>42</v>
       </c>
       <c r="I100" t="s">
         <v>208</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5413,7 +5410,7 @@
         <v>44062</v>
       </c>
       <c r="E101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>161</v>
@@ -5422,17 +5419,17 @@
         <v>22094</v>
       </c>
       <c r="H101" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G101))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I101" t="s">
         <v>205</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L101" s="10">
         <v>43837</v>
@@ -5441,7 +5438,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5455,7 +5452,7 @@
         <v>44062</v>
       </c>
       <c r="E102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>162</v>
@@ -5464,17 +5461,17 @@
         <v>23444</v>
       </c>
       <c r="H102" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G102))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="I102" t="s">
         <v>205</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K102" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L102" s="10">
         <v>43837</v>
@@ -5483,7 +5480,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>44062</v>
       </c>
       <c r="E103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F103" t="s">
         <v>175</v>
@@ -5506,17 +5503,17 @@
         <v>19287</v>
       </c>
       <c r="H103" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G103))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I103" t="s">
         <v>205</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L103" s="10">
         <v>43837</v>
@@ -5525,7 +5522,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5539,7 +5536,7 @@
         <v>44062</v>
       </c>
       <c r="E104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F104" t="s">
         <v>177</v>
@@ -5548,17 +5545,17 @@
         <v>20651</v>
       </c>
       <c r="H104" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G104))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="I104" t="s">
         <v>205</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L104" s="10">
         <v>43837</v>
@@ -5567,7 +5564,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>44062</v>
       </c>
       <c r="E105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F105" t="s">
         <v>190</v>
@@ -5590,17 +5587,17 @@
         <v>20797</v>
       </c>
       <c r="H105" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G105))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L105" s="10">
         <v>43837</v>
@@ -5609,7 +5606,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5623,7 +5620,7 @@
         <v>44062</v>
       </c>
       <c r="E106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F106" t="s">
         <v>197</v>
@@ -5632,17 +5629,17 @@
         <v>27361</v>
       </c>
       <c r="H106" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G106))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L106" s="10">
         <v>43837</v>
@@ -5651,7 +5648,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>44062</v>
       </c>
       <c r="E107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F107" t="s">
         <v>198</v>
@@ -5674,17 +5671,17 @@
         <v>19103</v>
       </c>
       <c r="H107" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G107))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L107" s="10">
         <v>43837</v>
@@ -5693,7 +5690,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5707,7 +5704,7 @@
         <v>44061</v>
       </c>
       <c r="E108" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F108" t="s">
         <v>199</v>
@@ -5716,24 +5713,24 @@
         <v>23776</v>
       </c>
       <c r="H108" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G108))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5745,7 +5742,7 @@
       </c>
       <c r="D109" s="10"/>
       <c r="E109" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F109" t="s">
         <v>246</v>
@@ -5754,14 +5751,14 @@
         <v>21953</v>
       </c>
       <c r="H109" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G109))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K109" t="s">
         <v>291</v>
@@ -5769,7 +5766,7 @@
       <c r="L109" s="10"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5783,7 +5780,7 @@
         <v>44061</v>
       </c>
       <c r="E110" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>56</v>
@@ -5792,24 +5789,24 @@
         <v>32533</v>
       </c>
       <c r="H110" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G110))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
       <c r="I110" t="s">
         <v>245</v>
       </c>
       <c r="J110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K110" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5823,7 +5820,7 @@
         <v>44061</v>
       </c>
       <c r="E111" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>18</v>
@@ -5832,24 +5829,24 @@
         <v>31454</v>
       </c>
       <c r="H111" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G111))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
       <c r="I111" t="s">
         <v>245</v>
       </c>
       <c r="J111" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5863,7 +5860,7 @@
         <v>44061</v>
       </c>
       <c r="E112" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>147</v>
@@ -5872,24 +5869,24 @@
         <v>31783</v>
       </c>
       <c r="H112" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G112))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="I112" t="s">
         <v>245</v>
       </c>
       <c r="J112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K112" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5903,7 +5900,7 @@
         <v>44061</v>
       </c>
       <c r="E113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>61</v>
@@ -5912,17 +5909,17 @@
         <v>26709</v>
       </c>
       <c r="H113" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G113))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I113" t="s">
         <v>207</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K113" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L113" s="10">
         <v>44036</v>
@@ -5931,7 +5928,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5945,7 +5942,7 @@
         <v>44061</v>
       </c>
       <c r="E114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>145</v>
@@ -5954,17 +5951,17 @@
         <v>26900</v>
       </c>
       <c r="H114" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G114))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="I114" t="s">
         <v>207</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L114" s="10">
         <v>44036</v>
@@ -5973,7 +5970,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5987,7 +5984,7 @@
         <v>44061</v>
       </c>
       <c r="E115" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>8</v>
@@ -5996,17 +5993,17 @@
         <v>25885</v>
       </c>
       <c r="H115" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G115))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="I115" t="s">
         <v>207</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K115" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L115" s="10">
         <v>44036</v>
@@ -6015,7 +6012,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>44061</v>
       </c>
       <c r="E116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>32</v>
@@ -6038,17 +6035,17 @@
         <v>25750</v>
       </c>
       <c r="H116" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G116))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="I116" t="s">
         <v>207</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L116" s="10">
         <v>44036</v>
@@ -6057,7 +6054,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6071,7 +6068,7 @@
         <v>44061</v>
       </c>
       <c r="E117" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>78</v>
@@ -6080,17 +6077,17 @@
         <v>23332</v>
       </c>
       <c r="H117" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G117))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="I117" t="s">
         <v>207</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L117" s="10">
         <v>44036</v>
@@ -6099,7 +6096,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6113,7 +6110,7 @@
         <v>44061</v>
       </c>
       <c r="E118" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>127</v>
@@ -6122,17 +6119,17 @@
         <v>24014</v>
       </c>
       <c r="H118" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G118))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I118" t="s">
         <v>207</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K118" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L118" s="10">
         <v>44036</v>
@@ -6141,7 +6138,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6155,7 +6152,7 @@
         <v>44061</v>
       </c>
       <c r="E119" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>81</v>
@@ -6164,24 +6161,24 @@
         <v>23226</v>
       </c>
       <c r="H119" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G119))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="I119" t="s">
         <v>215</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K119" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6195,7 +6192,7 @@
         <v>44062</v>
       </c>
       <c r="E120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>117</v>
@@ -6204,17 +6201,17 @@
         <v>24059</v>
       </c>
       <c r="H120" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G120))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I120" t="s">
         <v>215</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L120" s="10">
         <v>44062</v>
@@ -6223,7 +6220,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6237,7 +6234,7 @@
         <v>44062</v>
       </c>
       <c r="E121" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>131</v>
@@ -6246,17 +6243,17 @@
         <v>23594</v>
       </c>
       <c r="H121" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G121))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="I121" t="s">
         <v>215</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K121" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L121" s="10">
         <v>44062</v>
@@ -6265,7 +6262,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6279,7 +6276,7 @@
         <v>44062</v>
       </c>
       <c r="E122" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>132</v>
@@ -6288,17 +6285,17 @@
         <v>23006</v>
       </c>
       <c r="H122" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G122))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="I122" t="s">
         <v>215</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K122" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L122" s="10">
         <v>44062</v>
@@ -6307,7 +6304,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6321,7 +6318,7 @@
         <v>44061</v>
       </c>
       <c r="E123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>139</v>
@@ -6330,24 +6327,24 @@
         <v>30347</v>
       </c>
       <c r="H123" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G123))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
       <c r="I123" t="s">
         <v>201</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K123" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L123" s="10"/>
       <c r="M123" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6359,7 +6356,7 @@
       </c>
       <c r="D124" s="10"/>
       <c r="E124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>153</v>
@@ -6368,14 +6365,14 @@
         <v>20371</v>
       </c>
       <c r="H124" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G124))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="I124" t="s">
         <v>201</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K124" t="s">
         <v>291</v>
@@ -6383,7 +6380,7 @@
       <c r="L124" s="10"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6397,7 +6394,7 @@
         <v>44061</v>
       </c>
       <c r="E125" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>130</v>
@@ -6406,24 +6403,24 @@
         <v>32261</v>
       </c>
       <c r="H125" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G125))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="I125" t="s">
         <v>211</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6437,7 +6434,7 @@
         <v>44061</v>
       </c>
       <c r="E126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>21</v>
@@ -6446,24 +6443,24 @@
         <v>31868</v>
       </c>
       <c r="H126" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G126))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="I126" t="s">
         <v>211</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6477,7 +6474,7 @@
         <v>44061</v>
       </c>
       <c r="E127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>13</v>
@@ -6486,24 +6483,24 @@
         <v>25691</v>
       </c>
       <c r="H127" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G127))</f>
+        <f t="shared" ref="H127:H190" ca="1" si="3">(YEAR(TODAY())-YEAR(G127))</f>
         <v>50</v>
       </c>
       <c r="I127" t="s">
         <v>211</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6517,7 +6514,7 @@
         <v>44061</v>
       </c>
       <c r="E128" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>50</v>
@@ -6526,24 +6523,24 @@
         <v>22559</v>
       </c>
       <c r="H128" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G128))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="I128" t="s">
         <v>211</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6557,7 +6554,7 @@
         <v>44061</v>
       </c>
       <c r="E129" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>53</v>
@@ -6566,24 +6563,24 @@
         <v>16607</v>
       </c>
       <c r="H129" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G129))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="I129" t="s">
         <v>211</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K129" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6597,7 +6594,7 @@
         <v>44061</v>
       </c>
       <c r="E130" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>64</v>
@@ -6606,24 +6603,24 @@
         <v>18196</v>
       </c>
       <c r="H130" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G130))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I130" t="s">
         <v>211</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K130" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6637,7 +6634,7 @@
         <v>44061</v>
       </c>
       <c r="E131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>86</v>
@@ -6646,24 +6643,24 @@
         <v>25940</v>
       </c>
       <c r="H131" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G131))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I131" t="s">
         <v>211</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K131" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L131" s="10"/>
       <c r="M131" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>44062</v>
       </c>
       <c r="E132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>122</v>
@@ -6686,17 +6683,17 @@
         <v>16008</v>
       </c>
       <c r="H132" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G132))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
       <c r="I132" t="s">
         <v>211</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L132" s="10">
         <v>44062</v>
@@ -6705,7 +6702,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6719,7 +6716,7 @@
         <v>44061</v>
       </c>
       <c r="E133" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>10</v>
@@ -6728,24 +6725,24 @@
         <v>19657</v>
       </c>
       <c r="H133" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G133))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="I133" t="s">
         <v>204</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K133" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6759,7 +6756,7 @@
         <v>44062</v>
       </c>
       <c r="E134" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>20</v>
@@ -6768,17 +6765,17 @@
         <v>31247</v>
       </c>
       <c r="H134" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G134))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="I134" t="s">
         <v>204</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K134" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L134" s="10">
         <v>44062</v>
@@ -6787,7 +6784,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6801,7 +6798,7 @@
         <v>44062</v>
       </c>
       <c r="E135" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>41</v>
@@ -6810,17 +6807,17 @@
         <v>20255</v>
       </c>
       <c r="H135" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G135))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I135" t="s">
         <v>204</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L135" s="10">
         <v>44062</v>
@@ -6829,7 +6826,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6843,7 +6840,7 @@
         <v>44062</v>
       </c>
       <c r="E136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>71</v>
@@ -6852,17 +6849,17 @@
         <v>17116</v>
       </c>
       <c r="H136" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G136))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="I136" t="s">
         <v>204</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L136" s="10">
         <v>44062</v>
@@ -6871,7 +6868,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6885,7 +6882,7 @@
         <v>44062</v>
       </c>
       <c r="E137" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>90</v>
@@ -6894,17 +6891,17 @@
         <v>15302</v>
       </c>
       <c r="H137" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G137))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="I137" t="s">
         <v>204</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K137" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L137" s="10">
         <v>44062</v>
@@ -6913,7 +6910,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6927,7 +6924,7 @@
         <v>44062</v>
       </c>
       <c r="E138" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>96</v>
@@ -6936,17 +6933,17 @@
         <v>27851</v>
       </c>
       <c r="H138" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G138))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="I138" t="s">
         <v>204</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K138" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L138" s="10">
         <v>44062</v>
@@ -6955,7 +6952,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6969,7 +6966,7 @@
         <v>44061</v>
       </c>
       <c r="E139" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>119</v>
@@ -6978,24 +6975,24 @@
         <v>28018</v>
       </c>
       <c r="H139" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G139))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="I139" t="s">
         <v>204</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K139" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7009,7 +7006,7 @@
         <v>44062</v>
       </c>
       <c r="E140" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>121</v>
@@ -7018,17 +7015,17 @@
         <v>32101</v>
       </c>
       <c r="H140" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G140))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I140" t="s">
         <v>204</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K140" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L140" s="10">
         <v>44062</v>
@@ -7037,7 +7034,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7051,7 +7048,7 @@
         <v>44062</v>
       </c>
       <c r="E141" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>124</v>
@@ -7060,17 +7057,17 @@
         <v>27678</v>
       </c>
       <c r="H141" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G141))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="I141" t="s">
         <v>204</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K141" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L141" s="10">
         <v>44062</v>
@@ -7079,7 +7076,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7093,7 +7090,7 @@
         <v>44062</v>
       </c>
       <c r="E142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>133</v>
@@ -7102,17 +7099,17 @@
         <v>21157</v>
       </c>
       <c r="H142" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G142))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="I142" t="s">
         <v>204</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L142" s="10">
         <v>44062</v>
@@ -7121,7 +7118,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7135,7 +7132,7 @@
         <v>44062</v>
       </c>
       <c r="E143" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>134</v>
@@ -7144,17 +7141,17 @@
         <v>19343</v>
       </c>
       <c r="H143" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G143))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>68</v>
       </c>
       <c r="I143" t="s">
         <v>204</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K143" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L143" s="10">
         <v>44062</v>
@@ -7163,7 +7160,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7177,7 +7174,7 @@
         <v>44062</v>
       </c>
       <c r="E144" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>149</v>
@@ -7186,17 +7183,17 @@
         <v>18196</v>
       </c>
       <c r="H144" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G144))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I144" t="s">
         <v>204</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K144" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L144" s="10">
         <v>44062</v>
@@ -7205,7 +7202,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7219,7 +7216,7 @@
         <v>44062</v>
       </c>
       <c r="E145" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>152</v>
@@ -7228,17 +7225,17 @@
         <v>23371</v>
       </c>
       <c r="H145" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G145))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="I145" t="s">
         <v>204</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K145" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L145" s="10">
         <v>44062</v>
@@ -7247,7 +7244,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7261,7 +7258,7 @@
         <v>44061</v>
       </c>
       <c r="E146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>157</v>
@@ -7270,24 +7267,24 @@
         <v>26864</v>
       </c>
       <c r="H146" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G146))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="I146" t="s">
         <v>204</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K146" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L146" s="10"/>
       <c r="M146" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7301,7 +7298,7 @@
         <v>44062</v>
       </c>
       <c r="E147" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>48</v>
@@ -7310,17 +7307,17 @@
         <v>26445</v>
       </c>
       <c r="H147" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G147))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="I147" t="s">
         <v>213</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K147" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L147" s="10">
         <v>43887</v>
@@ -7329,7 +7326,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7343,7 +7340,7 @@
         <v>44062</v>
       </c>
       <c r="E148" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>5</v>
@@ -7352,17 +7349,17 @@
         <v>16725</v>
       </c>
       <c r="H148" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G148))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="I148" t="s">
         <v>209</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L148" s="10">
         <v>43817</v>
@@ -7371,7 +7368,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7385,7 +7382,7 @@
         <v>44061</v>
       </c>
       <c r="E149" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>54</v>
@@ -7394,24 +7391,24 @@
         <v>20655</v>
       </c>
       <c r="H149" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G149))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>64</v>
       </c>
       <c r="I149" t="s">
         <v>209</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L149" s="10"/>
       <c r="M149" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>44061</v>
       </c>
       <c r="E150" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>59</v>
@@ -7434,24 +7431,24 @@
         <v>22250</v>
       </c>
       <c r="H150" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G150))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I150" t="s">
         <v>209</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K150" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L150" s="10"/>
       <c r="M150" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7465,7 +7462,7 @@
         <v>44061</v>
       </c>
       <c r="E151" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>105</v>
@@ -7474,24 +7471,24 @@
         <v>33308</v>
       </c>
       <c r="H151" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G151))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
       <c r="I151" t="s">
         <v>216</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7505,7 +7502,7 @@
         <v>44061</v>
       </c>
       <c r="E152" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>16</v>
@@ -7514,24 +7511,24 @@
         <v>28888</v>
       </c>
       <c r="H152" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G152))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="I152" t="s">
         <v>212</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K152" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7545,7 +7542,7 @@
         <v>44061</v>
       </c>
       <c r="E153" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>76</v>
@@ -7554,24 +7551,24 @@
         <v>31920</v>
       </c>
       <c r="H153" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G153))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I153" t="s">
         <v>212</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K153" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L153" s="10"/>
       <c r="M153" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7585,7 +7582,7 @@
         <v>44061</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>77</v>
@@ -7594,24 +7591,24 @@
         <v>25397</v>
       </c>
       <c r="H154" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G154))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="I154" t="s">
         <v>214</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K154" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L154" s="10"/>
       <c r="M154" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7625,7 +7622,7 @@
         <v>44062</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>6</v>
@@ -7634,17 +7631,17 @@
         <v>21338</v>
       </c>
       <c r="H155" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G155))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="I155" t="s">
         <v>203</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K155" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L155" s="10">
         <v>44062</v>
@@ -7653,7 +7650,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7667,7 +7664,7 @@
         <v>44062</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>23</v>
@@ -7676,17 +7673,17 @@
         <v>26802</v>
       </c>
       <c r="H156" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G156))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="I156" t="s">
         <v>203</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K156" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L156" s="10">
         <v>44062</v>
@@ -7695,7 +7692,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7709,7 +7706,7 @@
         <v>44061</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>28</v>
@@ -7718,24 +7715,24 @@
         <v>20281</v>
       </c>
       <c r="H157" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G157))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I157" t="s">
         <v>203</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K157" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L157" s="10"/>
       <c r="M157" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7749,7 +7746,7 @@
         <v>44062</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>49</v>
@@ -7758,17 +7755,17 @@
         <v>15245</v>
       </c>
       <c r="H158" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G158))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="I158" t="s">
         <v>203</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K158" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L158" s="10">
         <v>44062</v>
@@ -7777,7 +7774,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7791,7 +7788,7 @@
         <v>44062</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>60</v>
@@ -7800,17 +7797,17 @@
         <v>22890</v>
       </c>
       <c r="H159" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G159))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="I159" t="s">
         <v>203</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L159" s="10">
         <v>44062</v>
@@ -7819,7 +7816,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7833,7 +7830,7 @@
         <v>44061</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>70</v>
@@ -7842,24 +7839,24 @@
         <v>23367</v>
       </c>
       <c r="H160" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G160))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="I160" t="s">
         <v>203</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K160" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L160" s="10"/>
       <c r="M160" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7873,7 +7870,7 @@
         <v>44062</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>92</v>
@@ -7882,17 +7879,17 @@
         <v>24717</v>
       </c>
       <c r="H161" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G161))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="I161" t="s">
         <v>203</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K161" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L161" s="10">
         <v>44062</v>
@@ -7901,7 +7898,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7915,7 +7912,7 @@
         <v>44062</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>142</v>
@@ -7924,17 +7921,17 @@
         <v>22655</v>
       </c>
       <c r="H162" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G162))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="I162" t="s">
         <v>203</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K162" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L162" s="10">
         <v>44062</v>
@@ -7943,7 +7940,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7957,7 +7954,7 @@
         <v>44062</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>113</v>
@@ -7966,17 +7963,17 @@
         <v>27508</v>
       </c>
       <c r="H163" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G163))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="I163" t="s">
         <v>211</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K163" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L163" s="10">
         <v>44055</v>
@@ -7985,7 +7982,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7999,7 +7996,7 @@
         <v>44062</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>11</v>
@@ -8008,17 +8005,17 @@
         <v>20885</v>
       </c>
       <c r="H164" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G164))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="I164" t="s">
         <v>210</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K164" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L164" s="10">
         <v>44055</v>
@@ -8027,7 +8024,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8041,7 +8038,7 @@
         <v>44062</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>52</v>
@@ -8050,17 +8047,17 @@
         <v>21958</v>
       </c>
       <c r="H165" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G165))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I165" t="s">
         <v>210</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K165" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L165" s="10">
         <v>44055</v>
@@ -8069,7 +8066,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8083,7 +8080,7 @@
         <v>44062</v>
       </c>
       <c r="E166" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>73</v>
@@ -8092,17 +8089,17 @@
         <v>21970</v>
       </c>
       <c r="H166" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G166))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I166" t="s">
         <v>210</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K166" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L166" s="10">
         <v>44055</v>
@@ -8111,7 +8108,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8125,7 +8122,7 @@
         <v>44062</v>
       </c>
       <c r="E167" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>75</v>
@@ -8134,17 +8131,17 @@
         <v>16997</v>
       </c>
       <c r="H167" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G167))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="I167" t="s">
         <v>210</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K167" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L167" s="10">
         <v>44055</v>
@@ -8153,7 +8150,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8167,7 +8164,7 @@
         <v>44062</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>97</v>
@@ -8176,17 +8173,17 @@
         <v>14974</v>
       </c>
       <c r="H168" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G168))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>80</v>
       </c>
       <c r="I168" t="s">
         <v>210</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K168" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L168" s="10">
         <v>44055</v>
@@ -8195,7 +8192,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8209,7 +8206,7 @@
         <v>44062</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>118</v>
@@ -8218,17 +8215,17 @@
         <v>25566</v>
       </c>
       <c r="H169" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G169))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="I169" t="s">
         <v>210</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K169" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L169" s="10">
         <v>44055</v>
@@ -8237,7 +8234,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8251,7 +8248,7 @@
         <v>44062</v>
       </c>
       <c r="E170" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>143</v>
@@ -8260,17 +8257,17 @@
         <v>16390</v>
       </c>
       <c r="H170" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G170))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>76</v>
       </c>
       <c r="I170" t="s">
         <v>210</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K170" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L170" s="10">
         <v>44055</v>
@@ -8279,7 +8276,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8293,7 +8290,7 @@
         <v>44061</v>
       </c>
       <c r="E171" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>35</v>
@@ -8302,24 +8299,24 @@
         <v>25970</v>
       </c>
       <c r="H171" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G171))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I171" t="s">
         <v>202</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K171" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L171" s="10"/>
       <c r="M171" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8333,7 +8330,7 @@
         <v>44062</v>
       </c>
       <c r="E172" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>7</v>
@@ -8342,17 +8339,17 @@
         <v>27118</v>
       </c>
       <c r="H172" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G172))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="I172" t="s">
         <v>202</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K172" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L172" s="10">
         <v>44062</v>
@@ -8361,7 +8358,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8375,7 +8372,7 @@
         <v>44062</v>
       </c>
       <c r="E173" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>26</v>
@@ -8384,17 +8381,17 @@
         <v>22024</v>
       </c>
       <c r="H173" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G173))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="I173" t="s">
         <v>202</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L173" s="10">
         <v>44062</v>
@@ -8403,7 +8400,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8417,7 +8414,7 @@
         <v>44062</v>
       </c>
       <c r="E174" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>29</v>
@@ -8426,17 +8423,17 @@
         <v>32142</v>
       </c>
       <c r="H174" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G174))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="I174" t="s">
         <v>202</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K174" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L174" s="10">
         <v>44062</v>
@@ -8445,7 +8442,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8459,7 +8456,7 @@
         <v>44062</v>
       </c>
       <c r="E175" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>39</v>
@@ -8468,17 +8465,17 @@
         <v>25592</v>
       </c>
       <c r="H175" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G175))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="I175" t="s">
         <v>202</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K175" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L175" s="10">
         <v>44062</v>
@@ -8487,7 +8484,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8501,7 +8498,7 @@
         <v>44061</v>
       </c>
       <c r="E176" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>57</v>
@@ -8510,24 +8507,24 @@
         <v>25846</v>
       </c>
       <c r="H176" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G176))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="I176" t="s">
         <v>202</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K176" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L176" s="10"/>
       <c r="M176" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8541,7 +8538,7 @@
         <v>44062</v>
       </c>
       <c r="E177" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>66</v>
@@ -8550,17 +8547,17 @@
         <v>27112</v>
       </c>
       <c r="H177" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G177))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="I177" t="s">
         <v>202</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K177" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L177" s="10">
         <v>44062</v>
@@ -8569,7 +8566,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8583,7 +8580,7 @@
         <v>44062</v>
       </c>
       <c r="E178" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>79</v>
@@ -8592,17 +8589,17 @@
         <v>23902</v>
       </c>
       <c r="H178" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G178))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="I178" t="s">
         <v>202</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K178" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L178" s="10">
         <v>44062</v>
@@ -8611,7 +8608,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8625,7 +8622,7 @@
         <v>44061</v>
       </c>
       <c r="E179" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>83</v>
@@ -8634,24 +8631,24 @@
         <v>18640</v>
       </c>
       <c r="H179" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G179))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="I179" t="s">
         <v>202</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K179" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L179" s="10"/>
       <c r="M179" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8665,7 +8662,7 @@
         <v>44062</v>
       </c>
       <c r="E180" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>87</v>
@@ -8674,17 +8671,17 @@
         <v>25067</v>
       </c>
       <c r="H180" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G180))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="I180" t="s">
         <v>202</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K180" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L180" s="10">
         <v>44062</v>
@@ -8693,7 +8690,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8707,7 +8704,7 @@
         <v>44061</v>
       </c>
       <c r="E181" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>104</v>
@@ -8716,24 +8713,24 @@
         <v>21445</v>
       </c>
       <c r="H181" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G181))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="I181" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K181" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L181" s="10"/>
       <c r="M181" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8747,7 +8744,7 @@
         <v>44062</v>
       </c>
       <c r="E182" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>106</v>
@@ -8756,17 +8753,17 @@
         <v>24964</v>
       </c>
       <c r="H182" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G182))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="I182" t="s">
         <v>202</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L182" s="10">
         <v>44062</v>
@@ -8775,7 +8772,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8789,7 +8786,7 @@
         <v>44062</v>
       </c>
       <c r="E183" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>107</v>
@@ -8798,17 +8795,17 @@
         <v>20415</v>
       </c>
       <c r="H183" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G183))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="I183" t="s">
         <v>202</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L183" s="10">
         <v>44062</v>
@@ -8817,7 +8814,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8831,7 +8828,7 @@
         <v>44062</v>
       </c>
       <c r="E184" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>109</v>
@@ -8840,17 +8837,17 @@
         <v>18781</v>
       </c>
       <c r="H184" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G184))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="I184" t="s">
         <v>202</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L184" s="10">
         <v>44062</v>
@@ -8859,7 +8856,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8873,7 +8870,7 @@
         <v>44061</v>
       </c>
       <c r="E185" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>112</v>
@@ -8882,24 +8879,24 @@
         <v>32771</v>
       </c>
       <c r="H185" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G185))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
       <c r="I185" t="s">
         <v>202</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K185" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L185" s="10"/>
       <c r="M185" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8913,7 +8910,7 @@
         <v>44062</v>
       </c>
       <c r="E186" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>116</v>
@@ -8922,17 +8919,17 @@
         <v>18036</v>
       </c>
       <c r="H186" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G186))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="I186" t="s">
         <v>202</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K186" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L186" s="10">
         <v>44062</v>
@@ -8941,7 +8938,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8955,7 +8952,7 @@
         <v>44062</v>
       </c>
       <c r="E187" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>120</v>
@@ -8964,17 +8961,17 @@
         <v>24242</v>
       </c>
       <c r="H187" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G187))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
       <c r="I187" t="s">
         <v>202</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K187" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L187" s="10">
         <v>44062</v>
@@ -8983,7 +8980,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8997,7 +8994,7 @@
         <v>44061</v>
       </c>
       <c r="E188" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>141</v>
@@ -9006,24 +9003,24 @@
         <v>26203</v>
       </c>
       <c r="H188" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G188))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="I188" t="s">
         <v>202</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L188" s="10"/>
       <c r="M188" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9037,7 +9034,7 @@
         <v>44062</v>
       </c>
       <c r="E189" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>154</v>
@@ -9046,17 +9043,17 @@
         <v>14047</v>
       </c>
       <c r="H189" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G189))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>82</v>
       </c>
       <c r="I189" t="s">
         <v>202</v>
       </c>
       <c r="J189" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K189" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L189" s="10">
         <v>44062</v>
@@ -9065,7 +9062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9079,7 +9076,7 @@
         <v>44061</v>
       </c>
       <c r="E190" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>82</v>
@@ -9088,24 +9085,24 @@
         <v>29287</v>
       </c>
       <c r="H190" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G190))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>40</v>
       </c>
       <c r="I190" t="s">
         <v>200</v>
       </c>
       <c r="J190" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K190" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L190" s="10"/>
       <c r="M190" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9119,7 +9116,7 @@
         <v>44062</v>
       </c>
       <c r="E191" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>15</v>
@@ -9128,17 +9125,17 @@
         <v>17079</v>
       </c>
       <c r="H191" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G191))</f>
+        <f t="shared" ref="H191:H254" ca="1" si="4">(YEAR(TODAY())-YEAR(G191))</f>
         <v>74</v>
       </c>
       <c r="I191" t="s">
         <v>200</v>
       </c>
       <c r="J191" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K191" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L191" s="10">
         <v>43839</v>
@@ -9147,7 +9144,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9161,7 +9158,7 @@
         <v>44069</v>
       </c>
       <c r="E192" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>25</v>
@@ -9170,24 +9167,24 @@
         <v>27246</v>
       </c>
       <c r="H192" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G192))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>46</v>
       </c>
       <c r="I192" t="s">
         <v>200</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K192" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L192" s="10"/>
       <c r="M192" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9199,7 +9196,7 @@
       </c>
       <c r="D193" s="10"/>
       <c r="E193" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>27</v>
@@ -9208,14 +9205,14 @@
         <v>27492</v>
       </c>
       <c r="H193" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G193))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="I193" t="s">
         <v>200</v>
       </c>
       <c r="J193" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K193" t="s">
         <v>291</v>
@@ -9223,7 +9220,7 @@
       <c r="L193" s="10"/>
       <c r="M193"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9237,7 +9234,7 @@
         <v>44062</v>
       </c>
       <c r="E194" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>30</v>
@@ -9246,17 +9243,17 @@
         <v>26205</v>
       </c>
       <c r="H194" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G194))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="I194" t="s">
         <v>200</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K194" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L194" s="10">
         <v>43839</v>
@@ -9265,7 +9262,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9279,7 +9276,7 @@
         <v>44062</v>
       </c>
       <c r="E195" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>33</v>
@@ -9288,17 +9285,17 @@
         <v>25149</v>
       </c>
       <c r="H195" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G195))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I195" t="s">
         <v>200</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K195" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L195" s="10">
         <v>43904</v>
@@ -9307,7 +9304,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9321,7 +9318,7 @@
         <v>44062</v>
       </c>
       <c r="E196" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>36</v>
@@ -9330,17 +9327,17 @@
         <v>26299</v>
       </c>
       <c r="H196" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G196))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="I196" t="s">
         <v>200</v>
       </c>
       <c r="J196" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K196" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L196" s="10">
         <v>43839</v>
@@ -9349,7 +9346,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9361,7 +9358,7 @@
       </c>
       <c r="D197" s="10"/>
       <c r="E197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>37</v>
@@ -9370,14 +9367,14 @@
         <v>29572</v>
       </c>
       <c r="H197" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G197))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I197" t="s">
         <v>200</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K197" t="s">
         <v>291</v>
@@ -9385,7 +9382,7 @@
       <c r="L197" s="10"/>
       <c r="M197"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9397,7 +9394,7 @@
       </c>
       <c r="D198" s="10"/>
       <c r="E198" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>38</v>
@@ -9406,14 +9403,14 @@
         <v>24666</v>
       </c>
       <c r="H198" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G198))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="I198" t="s">
         <v>200</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K198" t="s">
         <v>291</v>
@@ -9421,7 +9418,7 @@
       <c r="L198" s="10"/>
       <c r="M198"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9435,7 +9432,7 @@
         <v>44061</v>
       </c>
       <c r="E199" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>40</v>
@@ -9444,24 +9441,24 @@
         <v>31817</v>
       </c>
       <c r="H199" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G199))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I199" t="s">
         <v>200</v>
       </c>
       <c r="J199" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K199" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L199" s="10"/>
       <c r="M199" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9473,7 +9470,7 @@
       </c>
       <c r="D200" s="10"/>
       <c r="E200" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>42</v>
@@ -9482,14 +9479,14 @@
         <v>26833</v>
       </c>
       <c r="H200" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G200))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I200" t="s">
         <v>200</v>
       </c>
       <c r="J200" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K200" t="s">
         <v>291</v>
@@ -9497,7 +9494,7 @@
       <c r="L200" s="10"/>
       <c r="M200"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9509,7 +9506,7 @@
       </c>
       <c r="D201" s="10"/>
       <c r="E201" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>45</v>
@@ -9518,14 +9515,14 @@
         <v>19566</v>
       </c>
       <c r="H201" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G201))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I201" t="s">
         <v>200</v>
       </c>
       <c r="J201" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K201" t="s">
         <v>291</v>
@@ -9533,7 +9530,7 @@
       <c r="L201" s="10"/>
       <c r="M201"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9545,7 +9542,7 @@
       </c>
       <c r="D202" s="10"/>
       <c r="E202" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>46</v>
@@ -9554,14 +9551,14 @@
         <v>18407</v>
       </c>
       <c r="H202" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G202))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="I202" t="s">
         <v>200</v>
       </c>
       <c r="J202" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K202" t="s">
         <v>291</v>
@@ -9569,7 +9566,7 @@
       <c r="L202" s="10"/>
       <c r="M202"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9581,7 +9578,7 @@
       </c>
       <c r="D203" s="10"/>
       <c r="E203" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>63</v>
@@ -9590,14 +9587,14 @@
         <v>19434</v>
       </c>
       <c r="H203" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G203))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I203" t="s">
         <v>200</v>
       </c>
       <c r="J203" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K203" t="s">
         <v>291</v>
@@ -9605,7 +9602,7 @@
       <c r="L203" s="10"/>
       <c r="M203"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9619,7 +9616,7 @@
         <v>44062</v>
       </c>
       <c r="E204" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>67</v>
@@ -9628,17 +9625,17 @@
         <v>29549</v>
       </c>
       <c r="H204" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G204))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I204" t="s">
         <v>200</v>
       </c>
       <c r="J204" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K204" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L204" s="10">
         <v>43839</v>
@@ -9647,7 +9644,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9661,7 +9658,7 @@
         <v>44062</v>
       </c>
       <c r="E205" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>68</v>
@@ -9670,17 +9667,17 @@
         <v>26133</v>
       </c>
       <c r="H205" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G205))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="I205" t="s">
         <v>200</v>
       </c>
       <c r="J205" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K205" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L205" s="10">
         <v>43861</v>
@@ -9689,7 +9686,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9703,7 +9700,7 @@
         <v>44062</v>
       </c>
       <c r="E206" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>74</v>
@@ -9712,17 +9709,17 @@
         <v>21548</v>
       </c>
       <c r="H206" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G206))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I206" t="s">
         <v>200</v>
       </c>
       <c r="J206" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K206" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L206" s="10">
         <v>43839</v>
@@ -9731,7 +9728,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9745,7 +9742,7 @@
         <v>44062</v>
       </c>
       <c r="E207" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>88</v>
@@ -9754,17 +9751,17 @@
         <v>27763</v>
       </c>
       <c r="H207" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G207))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I207" t="s">
         <v>200</v>
       </c>
       <c r="J207" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K207" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L207" s="10">
         <v>43891</v>
@@ -9773,7 +9770,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9787,7 +9784,7 @@
         <v>44062</v>
       </c>
       <c r="E208" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>91</v>
@@ -9796,17 +9793,17 @@
         <v>22263</v>
       </c>
       <c r="H208" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G208))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="I208" t="s">
         <v>200</v>
       </c>
       <c r="J208" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K208" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L208" s="10">
         <v>43861</v>
@@ -9815,7 +9812,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9829,7 +9826,7 @@
         <v>44062</v>
       </c>
       <c r="E209" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>93</v>
@@ -9838,17 +9835,17 @@
         <v>31990</v>
       </c>
       <c r="H209" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G209))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I209" t="s">
         <v>200</v>
       </c>
       <c r="J209" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K209" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L209" s="10">
         <v>43839</v>
@@ -9857,7 +9854,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9869,7 +9866,7 @@
       </c>
       <c r="D210" s="10"/>
       <c r="E210" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>94</v>
@@ -9878,14 +9875,14 @@
         <v>30315</v>
       </c>
       <c r="H210" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G210))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I210" t="s">
         <v>200</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K210" t="s">
         <v>291</v>
@@ -9893,7 +9890,7 @@
       <c r="L210" s="10"/>
       <c r="M210"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9905,7 +9902,7 @@
       </c>
       <c r="D211" s="10"/>
       <c r="E211" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>98</v>
@@ -9914,14 +9911,14 @@
         <v>20907</v>
       </c>
       <c r="H211" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G211))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="I211" t="s">
         <v>200</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K211" t="s">
         <v>291</v>
@@ -9929,7 +9926,7 @@
       <c r="L211" s="10"/>
       <c r="M211"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9941,7 +9938,7 @@
       </c>
       <c r="D212" s="10"/>
       <c r="E212" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>99</v>
@@ -9950,14 +9947,14 @@
         <v>21674</v>
       </c>
       <c r="H212" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G212))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="I212" t="s">
         <v>200</v>
       </c>
       <c r="J212" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K212" t="s">
         <v>291</v>
@@ -9965,7 +9962,7 @@
       <c r="L212" s="10"/>
       <c r="M212"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9979,7 +9976,7 @@
         <v>44062</v>
       </c>
       <c r="E213" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>101</v>
@@ -9988,17 +9985,17 @@
         <v>24834</v>
       </c>
       <c r="H213" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G213))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="I213" t="s">
         <v>200</v>
       </c>
       <c r="J213" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K213" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L213" s="10">
         <v>43861</v>
@@ -10007,7 +10004,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10021,7 +10018,7 @@
         <v>44062</v>
       </c>
       <c r="E214" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>103</v>
@@ -10030,17 +10027,17 @@
         <v>27004</v>
       </c>
       <c r="H214" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G214))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I214" t="s">
         <v>200</v>
       </c>
       <c r="J214" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K214" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L214" s="10">
         <v>43904</v>
@@ -10049,7 +10046,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10063,33 +10060,33 @@
         <v>44069</v>
       </c>
       <c r="E215" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G215" s="13">
         <v>20377</v>
       </c>
       <c r="H215" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G215))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="I215" t="s">
         <v>200</v>
       </c>
       <c r="J215" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K215" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L215" s="10"/>
       <c r="M215" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10101,7 +10098,7 @@
       </c>
       <c r="D216" s="10"/>
       <c r="E216" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>111</v>
@@ -10110,14 +10107,14 @@
         <v>23941</v>
       </c>
       <c r="H216" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G216))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="I216" t="s">
         <v>200</v>
       </c>
       <c r="J216" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K216" t="s">
         <v>291</v>
@@ -10125,7 +10122,7 @@
       <c r="L216" s="10"/>
       <c r="M216"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10137,7 +10134,7 @@
       </c>
       <c r="D217" s="10"/>
       <c r="E217" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>114</v>
@@ -10146,14 +10143,14 @@
         <v>26624</v>
       </c>
       <c r="H217" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G217))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="I217" t="s">
         <v>200</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K217" t="s">
         <v>291</v>
@@ -10161,7 +10158,7 @@
       <c r="L217" s="10"/>
       <c r="M217"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10175,7 +10172,7 @@
         <v>44061</v>
       </c>
       <c r="E218" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>115</v>
@@ -10184,24 +10181,24 @@
         <v>31120</v>
       </c>
       <c r="H218" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G218))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I218" t="s">
         <v>200</v>
       </c>
       <c r="J218" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K218" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L218" s="10"/>
       <c r="M218" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10215,7 +10212,7 @@
         <v>44062</v>
       </c>
       <c r="E219" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>123</v>
@@ -10224,24 +10221,24 @@
         <v>29623</v>
       </c>
       <c r="H219" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G219))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="I219" t="s">
         <v>200</v>
       </c>
       <c r="J219" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L219" s="10"/>
       <c r="M219" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10255,7 +10252,7 @@
         <v>44062</v>
       </c>
       <c r="E220" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>129</v>
@@ -10264,17 +10261,17 @@
         <v>27719</v>
       </c>
       <c r="H220" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G220))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="I220" t="s">
         <v>200</v>
       </c>
       <c r="J220" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K220" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L220" s="10">
         <v>43839</v>
@@ -10282,11 +10279,8 @@
       <c r="M220" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="N220" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10298,7 +10292,7 @@
       </c>
       <c r="D221" s="10"/>
       <c r="E221" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>144</v>
@@ -10307,14 +10301,14 @@
         <v>25084</v>
       </c>
       <c r="H221" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G221))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I221" t="s">
         <v>200</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K221" t="s">
         <v>291</v>
@@ -10322,7 +10316,7 @@
       <c r="L221" s="10"/>
       <c r="M221"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10336,7 +10330,7 @@
         <v>44062</v>
       </c>
       <c r="E222" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>146</v>
@@ -10345,17 +10339,17 @@
         <v>30097</v>
       </c>
       <c r="H222" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G222))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I222" t="s">
         <v>200</v>
       </c>
       <c r="J222" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K222" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L222" s="10">
         <v>43904</v>
@@ -10364,7 +10358,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10378,7 +10372,7 @@
         <v>44069</v>
       </c>
       <c r="E223" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>151</v>
@@ -10387,24 +10381,24 @@
         <v>23358</v>
       </c>
       <c r="H223" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G223))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="I223" t="s">
         <v>200</v>
       </c>
       <c r="J223" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K223" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L223" s="10"/>
       <c r="M223" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10418,7 +10412,7 @@
         <v>44069</v>
       </c>
       <c r="E224" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F224" t="s">
         <v>238</v>
@@ -10427,24 +10421,24 @@
         <v>32980</v>
       </c>
       <c r="H224" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G224))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I224" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J224" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K224" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L224" s="10"/>
       <c r="M224" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10458,7 +10452,7 @@
         <v>44069</v>
       </c>
       <c r="E225" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F225" t="s">
         <v>239</v>
@@ -10467,24 +10461,24 @@
         <v>31116</v>
       </c>
       <c r="H225" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G225))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I225" s="12" t="s">
         <v>200</v>
       </c>
       <c r="J225" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K225" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L225" s="10"/>
       <c r="M225" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10498,7 +10492,7 @@
         <v>44061</v>
       </c>
       <c r="E226" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>24</v>
@@ -10507,24 +10501,24 @@
         <v>30164</v>
       </c>
       <c r="H226" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G226))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="I226" t="s">
         <v>208</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K226" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L226" s="10"/>
       <c r="M226" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10538,7 +10532,7 @@
         <v>44061</v>
       </c>
       <c r="E227" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>47</v>
@@ -10547,24 +10541,24 @@
         <v>31562</v>
       </c>
       <c r="H227" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G227))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
       <c r="I227" t="s">
         <v>208</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K227" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L227" s="10"/>
       <c r="M227" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10578,7 +10572,7 @@
         <v>44061</v>
       </c>
       <c r="E228" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>95</v>
@@ -10587,24 +10581,24 @@
         <v>33225</v>
       </c>
       <c r="H228" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G228))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I228" t="s">
         <v>208</v>
       </c>
       <c r="J228" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K228" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L228" s="10"/>
       <c r="M228" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10618,7 +10612,7 @@
         <v>44061</v>
       </c>
       <c r="E229" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>135</v>
@@ -10627,24 +10621,24 @@
         <v>30491</v>
       </c>
       <c r="H229" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G229))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37</v>
       </c>
       <c r="I229" t="s">
         <v>208</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K229" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L229" s="10"/>
       <c r="M229" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10658,7 +10652,7 @@
         <v>44061</v>
       </c>
       <c r="E230" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>148</v>
@@ -10667,24 +10661,24 @@
         <v>32481</v>
       </c>
       <c r="H230" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G230))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="I230" t="s">
         <v>208</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K230" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L230" s="10"/>
       <c r="M230" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10698,7 +10692,7 @@
         <v>44062</v>
       </c>
       <c r="E231" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F231" s="12" t="s">
         <v>19</v>
@@ -10707,24 +10701,24 @@
         <v>32885</v>
       </c>
       <c r="H231" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G231))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="I231" t="s">
         <v>208</v>
       </c>
       <c r="J231" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K231" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L231" s="10"/>
       <c r="M231" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10738,7 +10732,7 @@
         <v>44062</v>
       </c>
       <c r="E232" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F232" s="12" t="s">
         <v>31</v>
@@ -10747,24 +10741,24 @@
         <v>31146</v>
       </c>
       <c r="H232" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G232))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="I232" t="s">
         <v>208</v>
       </c>
       <c r="J232" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K232" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L232" s="10"/>
       <c r="M232" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10778,7 +10772,7 @@
         <v>44061</v>
       </c>
       <c r="E233" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>58</v>
@@ -10787,24 +10781,24 @@
         <v>31814</v>
       </c>
       <c r="H233" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G233))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="I233" t="s">
         <v>208</v>
       </c>
       <c r="J233" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K233" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L233" s="10"/>
       <c r="M233" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10818,7 +10812,7 @@
         <v>44062</v>
       </c>
       <c r="E234" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F234" s="12" t="s">
         <v>89</v>
@@ -10827,24 +10821,24 @@
         <v>32196</v>
       </c>
       <c r="H234" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G234))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="I234" t="s">
         <v>208</v>
       </c>
       <c r="J234" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K234" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L234" s="10"/>
       <c r="M234" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10858,7 +10852,7 @@
         <v>44062</v>
       </c>
       <c r="E235" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F235" s="12" t="s">
         <v>9</v>
@@ -10867,17 +10861,17 @@
         <v>20417</v>
       </c>
       <c r="H235" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G235))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="I235" t="s">
         <v>205</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K235" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L235" s="10">
         <v>43867</v>
@@ -10886,7 +10880,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10898,7 +10892,7 @@
       </c>
       <c r="D236" s="10"/>
       <c r="E236" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>12</v>
@@ -10907,14 +10901,14 @@
         <v>19630</v>
       </c>
       <c r="H236" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G236))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="I236" t="s">
         <v>205</v>
       </c>
       <c r="J236" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K236" t="s">
         <v>291</v>
@@ -10922,7 +10916,7 @@
       <c r="L236" s="10"/>
       <c r="M236"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10934,7 +10928,7 @@
       </c>
       <c r="D237" s="10"/>
       <c r="E237" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>14</v>
@@ -10943,14 +10937,14 @@
         <v>21249</v>
       </c>
       <c r="H237" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G237))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I237" t="s">
         <v>205</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K237" t="s">
         <v>291</v>
@@ -10958,7 +10952,7 @@
       <c r="L237" s="10"/>
       <c r="M237"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10972,7 +10966,7 @@
         <v>44069</v>
       </c>
       <c r="E238" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>17</v>
@@ -10981,24 +10975,24 @@
         <v>21269</v>
       </c>
       <c r="H238" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G238))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I238" t="s">
         <v>205</v>
       </c>
       <c r="J238" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K238" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L238" s="10"/>
       <c r="M238" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11010,7 +11004,7 @@
       </c>
       <c r="D239" s="10"/>
       <c r="E239" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F239" s="12" t="s">
         <v>22</v>
@@ -11019,14 +11013,14 @@
         <v>29503</v>
       </c>
       <c r="H239" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G239))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I239" t="s">
         <v>205</v>
       </c>
       <c r="J239" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K239" t="s">
         <v>291</v>
@@ -11034,7 +11028,7 @@
       <c r="L239" s="10"/>
       <c r="M239"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11046,7 +11040,7 @@
       </c>
       <c r="D240" s="10"/>
       <c r="E240" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>43</v>
@@ -11055,14 +11049,14 @@
         <v>26846</v>
       </c>
       <c r="H240" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G240))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="I240" t="s">
         <v>205</v>
       </c>
       <c r="J240" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K240" t="s">
         <v>291</v>
@@ -11070,7 +11064,7 @@
       <c r="L240" s="10"/>
       <c r="M240"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11082,7 +11076,7 @@
       </c>
       <c r="D241" s="10"/>
       <c r="E241" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>44</v>
@@ -11091,14 +11085,14 @@
         <v>24000</v>
       </c>
       <c r="H241" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G241))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="I241" t="s">
         <v>205</v>
       </c>
       <c r="J241" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K241" t="s">
         <v>291</v>
@@ -11106,7 +11100,7 @@
       <c r="L241" s="10"/>
       <c r="M241"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11118,7 +11112,7 @@
       </c>
       <c r="D242" s="10"/>
       <c r="E242" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>51</v>
@@ -11127,14 +11121,14 @@
         <v>19943</v>
       </c>
       <c r="H242" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G242))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
       <c r="I242" t="s">
         <v>205</v>
       </c>
       <c r="J242" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K242" t="s">
         <v>291</v>
@@ -11142,7 +11136,7 @@
       <c r="L242" s="10"/>
       <c r="M242"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11156,7 +11150,7 @@
         <v>44061</v>
       </c>
       <c r="E243" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>55</v>
@@ -11165,24 +11159,24 @@
         <v>28122</v>
       </c>
       <c r="H243" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G243))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I243" t="s">
         <v>205</v>
       </c>
       <c r="J243" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K243" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L243" s="10"/>
       <c r="M243" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11194,7 +11188,7 @@
       </c>
       <c r="D244" s="10"/>
       <c r="E244" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>62</v>
@@ -11203,14 +11197,14 @@
         <v>29350</v>
       </c>
       <c r="H244" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G244))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="I244" t="s">
         <v>205</v>
       </c>
       <c r="J244" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K244" t="s">
         <v>291</v>
@@ -11218,7 +11212,7 @@
       <c r="L244" s="10"/>
       <c r="M244"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11232,7 +11226,7 @@
         <v>44062</v>
       </c>
       <c r="E245" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>65</v>
@@ -11241,17 +11235,17 @@
         <v>29000</v>
       </c>
       <c r="H245" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G245))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="I245" t="s">
         <v>205</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K245" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L245" s="10">
         <v>43867</v>
@@ -11260,7 +11254,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11272,7 +11266,7 @@
       </c>
       <c r="D246" s="10"/>
       <c r="E246" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>69</v>
@@ -11281,14 +11275,14 @@
         <v>28805</v>
       </c>
       <c r="H246" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G246))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>42</v>
       </c>
       <c r="I246" t="s">
         <v>205</v>
       </c>
       <c r="J246" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K246" t="s">
         <v>291</v>
@@ -11296,7 +11290,7 @@
       <c r="L246" s="10"/>
       <c r="M246"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11308,7 +11302,7 @@
       </c>
       <c r="D247" s="10"/>
       <c r="E247" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>72</v>
@@ -11317,14 +11311,14 @@
         <v>20625</v>
       </c>
       <c r="H247" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G247))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="I247" t="s">
         <v>205</v>
       </c>
       <c r="J247" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K247" t="s">
         <v>291</v>
@@ -11332,7 +11326,7 @@
       <c r="L247" s="10"/>
       <c r="M247"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11344,7 +11338,7 @@
       </c>
       <c r="D248" s="10"/>
       <c r="E248" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F248" s="12" t="s">
         <v>80</v>
@@ -11353,14 +11347,14 @@
         <v>21011</v>
       </c>
       <c r="H248" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G248))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="I248" t="s">
         <v>205</v>
       </c>
       <c r="J248" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K248" t="s">
         <v>291</v>
@@ -11368,7 +11362,7 @@
       <c r="L248" s="10"/>
       <c r="M248"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11380,7 +11374,7 @@
       </c>
       <c r="D249" s="10"/>
       <c r="E249" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>84</v>
@@ -11389,14 +11383,14 @@
         <v>29713</v>
       </c>
       <c r="H249" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G249))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="I249" t="s">
         <v>205</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K249" t="s">
         <v>291</v>
@@ -11404,7 +11398,7 @@
       <c r="L249" s="10"/>
       <c r="M249"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11416,7 +11410,7 @@
       </c>
       <c r="D250" s="10"/>
       <c r="E250" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>85</v>
@@ -11425,14 +11419,14 @@
         <v>21432</v>
       </c>
       <c r="H250" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G250))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="I250" t="s">
         <v>205</v>
       </c>
       <c r="J250" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K250" t="s">
         <v>291</v>
@@ -11440,7 +11434,7 @@
       <c r="L250" s="10"/>
       <c r="M250"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11454,7 +11448,7 @@
         <v>44061</v>
       </c>
       <c r="E251" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F251" s="12" t="s">
         <v>100</v>
@@ -11463,24 +11457,24 @@
         <v>28961</v>
       </c>
       <c r="H251" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G251))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="I251" t="s">
         <v>205</v>
       </c>
       <c r="J251" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K251" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L251" s="10"/>
       <c r="M251" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11492,7 +11486,7 @@
       </c>
       <c r="D252" s="10"/>
       <c r="E252" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>102</v>
@@ -11501,14 +11495,14 @@
         <v>25069</v>
       </c>
       <c r="H252" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G252))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="I252" t="s">
         <v>205</v>
       </c>
       <c r="J252" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K252" t="s">
         <v>291</v>
@@ -11516,7 +11510,7 @@
       <c r="L252" s="10"/>
       <c r="M252"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11528,7 +11522,7 @@
       </c>
       <c r="D253" s="10"/>
       <c r="E253" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>110</v>
@@ -11537,14 +11531,14 @@
         <v>24451</v>
       </c>
       <c r="H253" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G253))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>54</v>
       </c>
       <c r="I253" t="s">
         <v>205</v>
       </c>
       <c r="J253" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K253" t="s">
         <v>291</v>
@@ -11552,7 +11546,7 @@
       <c r="L253" s="10"/>
       <c r="M253"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11564,7 +11558,7 @@
       </c>
       <c r="D254" s="10"/>
       <c r="E254" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>125</v>
@@ -11573,14 +11567,14 @@
         <v>27834</v>
       </c>
       <c r="H254" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G254))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="I254" t="s">
         <v>205</v>
       </c>
       <c r="J254" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K254" t="s">
         <v>291</v>
@@ -11588,7 +11582,7 @@
       <c r="L254" s="10"/>
       <c r="M254"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11600,7 +11594,7 @@
       </c>
       <c r="D255" s="10"/>
       <c r="E255" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>126</v>
@@ -11609,14 +11603,14 @@
         <v>18677</v>
       </c>
       <c r="H255" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G255))</f>
+        <f t="shared" ref="H255:H318" ca="1" si="5">(YEAR(TODAY())-YEAR(G255))</f>
         <v>69</v>
       </c>
       <c r="I255" t="s">
         <v>205</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K255" t="s">
         <v>291</v>
@@ -11624,7 +11618,7 @@
       <c r="L255" s="10"/>
       <c r="M255"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11636,7 +11630,7 @@
       </c>
       <c r="D256" s="10"/>
       <c r="E256" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>128</v>
@@ -11645,14 +11639,14 @@
         <v>18960</v>
       </c>
       <c r="H256" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G256))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="I256" t="s">
         <v>205</v>
       </c>
       <c r="J256" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K256" t="s">
         <v>291</v>
@@ -11660,7 +11654,7 @@
       <c r="L256" s="10"/>
       <c r="M256"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11672,7 +11666,7 @@
       </c>
       <c r="D257" s="10"/>
       <c r="E257" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>136</v>
@@ -11681,14 +11675,14 @@
         <v>20084</v>
       </c>
       <c r="H257" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G257))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>66</v>
       </c>
       <c r="I257" t="s">
         <v>205</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K257" t="s">
         <v>291</v>
@@ -11696,7 +11690,7 @@
       <c r="L257" s="10"/>
       <c r="M257"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11710,7 +11704,7 @@
         <v>44069</v>
       </c>
       <c r="E258" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>137</v>
@@ -11719,24 +11713,24 @@
         <v>29014</v>
       </c>
       <c r="H258" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G258))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>41</v>
       </c>
       <c r="I258" t="s">
         <v>205</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K258" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L258" s="10"/>
       <c r="M258" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11748,7 +11742,7 @@
       </c>
       <c r="D259" s="10"/>
       <c r="E259" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>138</v>
@@ -11757,14 +11751,14 @@
         <v>27808</v>
       </c>
       <c r="H259" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G259))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="I259" t="s">
         <v>205</v>
       </c>
       <c r="J259" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K259" t="s">
         <v>291</v>
@@ -11772,7 +11766,7 @@
       <c r="L259" s="10"/>
       <c r="M259"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11786,7 +11780,7 @@
         <v>44061</v>
       </c>
       <c r="E260" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>140</v>
@@ -11795,24 +11789,24 @@
         <v>29294</v>
       </c>
       <c r="H260" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G260))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>40</v>
       </c>
       <c r="I260" t="s">
         <v>205</v>
       </c>
       <c r="J260" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K260" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L260" s="10"/>
       <c r="M260" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11824,7 +11818,7 @@
       </c>
       <c r="D261" s="10"/>
       <c r="E261" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F261" s="12" t="s">
         <v>150</v>
@@ -11833,14 +11827,14 @@
         <v>22529</v>
       </c>
       <c r="H261" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G261))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>59</v>
       </c>
       <c r="I261" t="s">
         <v>205</v>
       </c>
       <c r="J261" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K261" t="s">
         <v>291</v>
@@ -11848,7 +11842,7 @@
       <c r="L261" s="10"/>
       <c r="M261"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11862,7 +11856,7 @@
         <v>44069</v>
       </c>
       <c r="E262" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>155</v>
@@ -11871,24 +11865,24 @@
         <v>21079</v>
       </c>
       <c r="H262" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G262))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>63</v>
       </c>
       <c r="I262" t="s">
         <v>205</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K262" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L262" s="10"/>
       <c r="M262" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11900,7 +11894,7 @@
       </c>
       <c r="D263" s="10"/>
       <c r="E263" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>156</v>
@@ -11909,14 +11903,14 @@
         <v>28020</v>
       </c>
       <c r="H263" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G263))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="I263" t="s">
         <v>205</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K263" t="s">
         <v>291</v>
@@ -11924,7 +11918,7 @@
       <c r="L263" s="10"/>
       <c r="M263"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11936,7 +11930,7 @@
       </c>
       <c r="D264" s="10"/>
       <c r="E264" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F264" s="7" t="s">
         <v>247</v>
@@ -11945,14 +11939,14 @@
         <v>21554</v>
       </c>
       <c r="H264" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(G264))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>61</v>
       </c>
       <c r="I264" s="12" t="s">
         <v>205</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K264" t="s">
         <v>291</v>
@@ -11961,11 +11955,7 @@
       <c r="M264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L264" xr:uid="{57911506-9E02-4423-B09C-6693CAB52C12}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L264">
-      <sortCondition ref="A1:A264"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M1" xr:uid="{3E146BB6-F1DB-3C48-8953-D31D18737686}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M115" r:id="rId1" xr:uid="{5E35EA07-F051-E94E-8CA2-5E5BE0DBAFF2}"/>

--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/endosos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59284EC9-5E9F-7B4A-84C6-03BF3DF4145A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FA4D8A-7C0E-CC46-92E6-4BDA872FF680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$M$264</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="336">
   <si>
     <t>id</t>
   </si>
@@ -737,9 +737,6 @@
     <t>Nuevo Poder</t>
   </si>
   <si>
-    <t>reflexión</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -1044,6 +1041,9 @@
   </si>
   <si>
     <t>Felipe Ward Edwards </t>
+  </si>
+  <si>
+    <t>Reflexión</t>
   </si>
 </sst>
 </file>
@@ -1425,13 +1425,14 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="5" customWidth="1"/>
@@ -1449,19 +1450,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1470,16 +1471,16 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -1499,7 +1500,7 @@
         <v>44062</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
         <v>226</v>
@@ -1515,10 +1516,10 @@
         <v>201</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2"/>
@@ -1537,7 +1538,7 @@
         <v>44062</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" t="s">
         <v>228</v>
@@ -1553,10 +1554,10 @@
         <v>204</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="2"/>
@@ -1575,10 +1576,10 @@
         <v>44062</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G4" s="10">
         <v>13941</v>
@@ -1591,10 +1592,10 @@
         <v>203</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="2"/>
@@ -1613,7 +1614,7 @@
         <v>44062</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" t="s">
         <v>227</v>
@@ -1629,10 +1630,10 @@
         <v>202</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="2"/>
@@ -1651,7 +1652,7 @@
         <v>44061</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
         <v>218</v>
@@ -1667,10 +1668,10 @@
         <v>207</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L6" s="10">
         <v>44058</v>
@@ -1693,10 +1694,10 @@
         <v>44061</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7" s="10">
         <v>20120</v>
@@ -1709,10 +1710,10 @@
         <v>207</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L7" s="10">
         <v>44058</v>
@@ -1735,7 +1736,7 @@
         <v>44061</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
         <v>220</v>
@@ -1751,10 +1752,10 @@
         <v>201</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L8" s="10">
         <v>44058</v>
@@ -1777,7 +1778,7 @@
         <v>44061</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
         <v>222</v>
@@ -1793,10 +1794,10 @@
         <v>201</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L9" s="10">
         <v>44058</v>
@@ -1819,10 +1820,10 @@
         <v>44061</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G10" s="10">
         <v>22460</v>
@@ -1835,10 +1836,10 @@
         <v>201</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L10" s="10">
         <v>44058</v>
@@ -1861,7 +1862,7 @@
         <v>44061</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
         <v>224</v>
@@ -1877,10 +1878,10 @@
         <v>201</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L11" s="10">
         <v>44058</v>
@@ -1903,7 +1904,7 @@
         <v>44061</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
         <v>225</v>
@@ -1919,10 +1920,10 @@
         <v>201</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L12" s="10">
         <v>44058</v>
@@ -1945,10 +1946,10 @@
         <v>44061</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G13" s="10">
         <v>27474</v>
@@ -1961,10 +1962,10 @@
         <v>201</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" s="10">
         <v>44058</v>
@@ -1987,10 +1988,10 @@
         <v>44061</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G14" s="10">
         <v>20671</v>
@@ -2003,17 +2004,13 @@
         <v>201</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K14" t="s">
-        <v>282</v>
-      </c>
-      <c r="L14" s="10">
-        <v>44058</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2029,10 +2026,10 @@
         <v>44061</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G15" s="10">
         <v>17779</v>
@@ -2045,17 +2042,13 @@
         <v>201</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K15" t="s">
-        <v>282</v>
-      </c>
-      <c r="L15" s="10">
-        <v>44058</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2071,10 +2064,10 @@
         <v>44061</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G16" s="10">
         <v>24724</v>
@@ -2087,17 +2080,13 @@
         <v>201</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K16" t="s">
-        <v>282</v>
-      </c>
-      <c r="L16" s="10">
-        <v>44058</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2113,10 +2102,10 @@
         <v>44061</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G17" s="10">
         <v>25134</v>
@@ -2129,17 +2118,13 @@
         <v>201</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K17" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="10">
-        <v>44058</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -2155,7 +2140,7 @@
         <v>44061</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>34</v>
@@ -2171,10 +2156,10 @@
         <v>200</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L18" s="10">
         <v>44058</v>
@@ -2197,7 +2182,7 @@
         <v>44061</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" t="s">
         <v>219</v>
@@ -2213,10 +2198,10 @@
         <v>200</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L19" s="10">
         <v>44058</v>
@@ -2239,7 +2224,7 @@
         <v>44061</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
         <v>181</v>
@@ -2255,10 +2240,10 @@
         <v>200</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L20" s="10">
         <v>44058</v>
@@ -2281,10 +2266,10 @@
         <v>44061</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G21" s="10">
         <v>21368</v>
@@ -2297,10 +2282,10 @@
         <v>200</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L21" s="10">
         <v>44058</v>
@@ -2323,10 +2308,10 @@
         <v>44061</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G22" s="10">
         <v>27295</v>
@@ -2339,10 +2324,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K22" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="L22" s="10">
         <v>44058</v>
@@ -2365,10 +2350,10 @@
         <v>44061</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G23" s="10">
         <v>27105</v>
@@ -2381,10 +2366,10 @@
         <v>205</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L23" s="10">
         <v>44058</v>
@@ -2407,7 +2392,7 @@
         <v>44061</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -2423,10 +2408,10 @@
         <v>205</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L24" s="10">
         <v>44058</v>
@@ -2449,7 +2434,7 @@
         <v>44061</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" t="s">
         <v>217</v>
@@ -2465,10 +2450,10 @@
         <v>205</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L25" s="10">
         <v>44058</v>
@@ -2491,10 +2476,10 @@
         <v>44061</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G26" s="10">
         <v>26556</v>
@@ -2507,10 +2492,10 @@
         <v>205</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L26" s="10">
         <v>44058</v>
@@ -2533,7 +2518,7 @@
         <v>44061</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
         <v>223</v>
@@ -2549,10 +2534,10 @@
         <v>205</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L27" s="10">
         <v>44058</v>
@@ -2575,10 +2560,10 @@
         <v>44061</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G28" s="10">
         <v>22770</v>
@@ -2591,10 +2576,10 @@
         <v>205</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="L28" s="10">
         <v>44058</v>
@@ -2617,7 +2602,7 @@
         <v>44061</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F29" t="s">
         <v>221</v>
@@ -2633,17 +2618,13 @@
         <v>205</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K29" t="s">
-        <v>282</v>
-      </c>
-      <c r="L29" s="10">
-        <v>44058</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -2657,10 +2638,10 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G30" s="10">
         <v>30994</v>
@@ -2673,10 +2654,10 @@
         <v>207</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30"/>
@@ -2693,10 +2674,10 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G31" s="10">
         <v>25454</v>
@@ -2709,10 +2690,10 @@
         <v>207</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31"/>
@@ -2729,10 +2710,10 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
@@ -2740,10 +2721,10 @@
         <v>201</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32"/>
@@ -2760,10 +2741,10 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
@@ -2771,10 +2752,10 @@
         <v>201</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33"/>
@@ -2791,10 +2772,10 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G34" s="10">
         <v>19642</v>
@@ -2807,10 +2788,10 @@
         <v>201</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34"/>
@@ -2827,10 +2808,10 @@
       </c>
       <c r="D35" s="10"/>
       <c r="E35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
@@ -2838,10 +2819,10 @@
         <v>200</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35"/>
@@ -2858,10 +2839,10 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G36" s="10">
         <v>29935</v>
@@ -2874,10 +2855,10 @@
         <v>200</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36"/>
@@ -2894,10 +2875,10 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G37" s="10">
         <v>26622</v>
@@ -2910,10 +2891,10 @@
         <v>200</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37"/>
@@ -2930,10 +2911,10 @@
       </c>
       <c r="D38" s="10"/>
       <c r="E38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G38" s="10">
         <v>24689</v>
@@ -2946,10 +2927,10 @@
         <v>200</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38"/>
@@ -2966,10 +2947,10 @@
       </c>
       <c r="D39" s="10"/>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
@@ -2977,10 +2958,10 @@
         <v>200</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39"/>
@@ -2997,10 +2978,10 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G40" s="10">
         <v>18048</v>
@@ -3013,10 +2994,10 @@
         <v>200</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40"/>
@@ -3033,10 +3014,10 @@
       </c>
       <c r="D41" s="10"/>
       <c r="E41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G41" s="10">
         <v>25492</v>
@@ -3049,10 +3030,10 @@
         <v>205</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41"/>
@@ -3069,10 +3050,10 @@
       </c>
       <c r="D42" s="10"/>
       <c r="E42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G42" s="10">
         <v>27655</v>
@@ -3085,10 +3066,10 @@
         <v>205</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42"/>
@@ -3105,10 +3086,10 @@
       </c>
       <c r="D43" s="10"/>
       <c r="E43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G43" s="10">
         <v>22881</v>
@@ -3121,10 +3102,10 @@
         <v>205</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43"/>
@@ -3141,10 +3122,10 @@
       </c>
       <c r="D44" s="10"/>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G44" s="10">
         <v>29105</v>
@@ -3157,10 +3138,10 @@
         <v>205</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44"/>
@@ -3177,10 +3158,10 @@
       </c>
       <c r="D45" s="10"/>
       <c r="E45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G45" s="10">
         <v>20806</v>
@@ -3193,10 +3174,10 @@
         <v>205</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45"/>
@@ -3215,10 +3196,10 @@
         <v>44062</v>
       </c>
       <c r="E46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G46" s="10">
         <v>26763</v>
@@ -3231,16 +3212,16 @@
         <v>201</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K46" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="L46" s="10">
         <v>43892</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3257,10 +3238,10 @@
         <v>44062</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G47" s="10">
         <v>26090</v>
@@ -3273,16 +3254,16 @@
         <v>201</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L47" s="10">
         <v>43892</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3299,10 +3280,10 @@
         <v>44061</v>
       </c>
       <c r="E48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G48" s="10">
         <v>31131</v>
@@ -3315,14 +3296,14 @@
         <v>201</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3339,10 +3320,10 @@
         <v>44062</v>
       </c>
       <c r="E49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G49" s="10">
         <v>25265</v>
@@ -3355,16 +3336,16 @@
         <v>201</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L49" s="10">
         <v>43892</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3379,10 +3360,10 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
@@ -3390,10 +3371,10 @@
         <v>201</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50"/>
@@ -3410,10 +3391,10 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G51" s="10">
         <v>20899</v>
@@ -3426,10 +3407,10 @@
         <v>201</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51"/>
@@ -3448,10 +3429,10 @@
         <v>44062</v>
       </c>
       <c r="E52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
@@ -3459,16 +3440,16 @@
         <v>204</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L52" s="10">
         <v>44062</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -3485,10 +3466,10 @@
         <v>44062</v>
       </c>
       <c r="E53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G53" s="10">
         <v>28422</v>
@@ -3501,16 +3482,16 @@
         <v>204</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L53" s="10">
         <v>44062</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -3527,10 +3508,10 @@
         <v>44061</v>
       </c>
       <c r="E54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G54" s="10">
         <v>28694</v>
@@ -3543,14 +3524,14 @@
         <v>212</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3567,10 +3548,10 @@
         <v>44062</v>
       </c>
       <c r="E55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G55" s="10">
         <v>34561</v>
@@ -3583,16 +3564,16 @@
         <v>210</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L55" s="10">
         <v>44055</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3607,10 +3588,10 @@
       </c>
       <c r="D56" s="10"/>
       <c r="E56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="11"/>
@@ -3618,10 +3599,10 @@
         <v>202</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="2"/>
@@ -3640,10 +3621,10 @@
         <v>44069</v>
       </c>
       <c r="E57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="11"/>
@@ -3651,14 +3632,14 @@
         <v>202</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -3675,10 +3656,10 @@
         <v>44069</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="11"/>
@@ -3686,14 +3667,14 @@
         <v>202</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -3710,10 +3691,10 @@
         <v>44062</v>
       </c>
       <c r="E59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G59" s="10">
         <v>27116</v>
@@ -3726,16 +3707,16 @@
         <v>200</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L59" s="10">
         <v>43892</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -3752,10 +3733,10 @@
         <v>44062</v>
       </c>
       <c r="E60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G60" s="10">
         <v>27429</v>
@@ -3768,16 +3749,16 @@
         <v>200</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L60" s="10">
         <v>43878</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3792,10 +3773,10 @@
       </c>
       <c r="D61" s="10"/>
       <c r="E61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G61" s="10">
         <v>22196</v>
@@ -3808,10 +3789,10 @@
         <v>200</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61"/>
@@ -3828,10 +3809,10 @@
       </c>
       <c r="D62" s="10"/>
       <c r="E62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="11"/>
@@ -3839,10 +3820,10 @@
         <v>200</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62"/>
@@ -3859,10 +3840,10 @@
       </c>
       <c r="D63" s="10"/>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G63" s="10">
         <v>19005</v>
@@ -3875,10 +3856,10 @@
         <v>200</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63"/>
@@ -3895,10 +3876,10 @@
       </c>
       <c r="D64" s="10"/>
       <c r="E64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G64" s="10">
         <v>27845</v>
@@ -3911,10 +3892,10 @@
         <v>200</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64"/>
@@ -3933,10 +3914,10 @@
         <v>44062</v>
       </c>
       <c r="E65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G65" s="10">
         <v>14442</v>
@@ -3949,16 +3930,16 @@
         <v>205</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L65" s="10">
         <v>43892</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3975,10 +3956,10 @@
         <v>44062</v>
       </c>
       <c r="E66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G66" s="10">
         <v>19655</v>
@@ -3991,10 +3972,10 @@
         <v>205</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L66" s="10">
         <v>44048</v>
@@ -4014,10 +3995,10 @@
         <v>2020</v>
       </c>
       <c r="D67" s="10">
-        <v>44070</v>
+        <v>44072</v>
       </c>
       <c r="E67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>178</v>
@@ -4033,16 +4014,16 @@
         <v>207</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L67" s="10">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -4056,10 +4037,10 @@
         <v>2020</v>
       </c>
       <c r="D68" s="10">
-        <v>44061</v>
+        <v>44072</v>
       </c>
       <c r="E68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
         <v>158</v>
@@ -4075,16 +4056,14 @@
         <v>201</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K68" t="s">
-        <v>321</v>
-      </c>
-      <c r="L68" s="10">
-        <v>43837</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>231</v>
+        <v>320</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -4101,7 +4080,7 @@
         <v>44061</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F69" t="s">
         <v>159</v>
@@ -4117,10 +4096,10 @@
         <v>201</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L69" s="10">
         <v>43837</v>
@@ -4143,7 +4122,7 @@
         <v>44061</v>
       </c>
       <c r="E70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F70" t="s">
         <v>173</v>
@@ -4159,10 +4138,10 @@
         <v>201</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L70" s="10">
         <v>43837</v>
@@ -4181,9 +4160,11 @@
       <c r="C71">
         <v>2020</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10">
+        <v>44072</v>
+      </c>
       <c r="E71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
         <v>182</v>
@@ -4199,13 +4180,15 @@
         <v>201</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K71" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L71" s="10"/>
-      <c r="M71"/>
+      <c r="M71" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -4221,7 +4204,7 @@
         <v>44061</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F72" t="s">
         <v>186</v>
@@ -4237,14 +4220,14 @@
         <v>201</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -4259,7 +4242,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F73" t="s">
         <v>196</v>
@@ -4275,10 +4258,10 @@
         <v>201</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73"/>
@@ -4297,7 +4280,7 @@
         <v>44061</v>
       </c>
       <c r="E74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F74" t="s">
         <v>192</v>
@@ -4313,14 +4296,14 @@
         <v>206</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -4337,7 +4320,7 @@
         <v>44061</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>166</v>
@@ -4353,14 +4336,14 @@
         <v>204</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -4377,7 +4360,7 @@
         <v>44061</v>
       </c>
       <c r="E76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>172</v>
@@ -4393,14 +4376,14 @@
         <v>204</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -4417,7 +4400,7 @@
         <v>44061</v>
       </c>
       <c r="E77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>179</v>
@@ -4433,14 +4416,14 @@
         <v>204</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -4457,7 +4440,7 @@
         <v>44062</v>
       </c>
       <c r="E78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F78" t="s">
         <v>185</v>
@@ -4473,16 +4456,16 @@
         <v>204</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L78" s="10">
         <v>44062</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -4499,7 +4482,7 @@
         <v>44062</v>
       </c>
       <c r="E79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F79" t="s">
         <v>194</v>
@@ -4515,16 +4498,16 @@
         <v>204</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L79" s="10">
         <v>44062</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -4541,7 +4524,7 @@
         <v>44061</v>
       </c>
       <c r="E80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F80" t="s">
         <v>168</v>
@@ -4557,14 +4540,14 @@
         <v>203</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K80" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -4581,7 +4564,7 @@
         <v>44062</v>
       </c>
       <c r="E81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F81" t="s">
         <v>170</v>
@@ -4597,16 +4580,16 @@
         <v>203</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K81" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L81" s="10">
         <v>44062</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -4623,7 +4606,7 @@
         <v>44062</v>
       </c>
       <c r="E82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>174</v>
@@ -4639,16 +4622,16 @@
         <v>203</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L82" s="10">
         <v>44062</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -4665,7 +4648,7 @@
         <v>44062</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>180</v>
@@ -4681,16 +4664,16 @@
         <v>203</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K83" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L83" s="10">
         <v>44062</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -4707,7 +4690,7 @@
         <v>44062</v>
       </c>
       <c r="E84" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>184</v>
@@ -4723,16 +4706,16 @@
         <v>203</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L84" s="10">
         <v>44062</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -4749,7 +4732,7 @@
         <v>44062</v>
       </c>
       <c r="E85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F85" t="s">
         <v>187</v>
@@ -4765,16 +4748,16 @@
         <v>203</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L85" s="10">
         <v>44062</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -4791,7 +4774,7 @@
         <v>44062</v>
       </c>
       <c r="E86" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F86" t="s">
         <v>191</v>
@@ -4807,16 +4790,16 @@
         <v>203</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K86" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L86" s="10">
         <v>44062</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -4833,7 +4816,7 @@
         <v>44062</v>
       </c>
       <c r="E87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F87" t="s">
         <v>163</v>
@@ -4849,16 +4832,16 @@
         <v>202</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K87" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L87" s="10">
         <v>44062</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -4875,7 +4858,7 @@
         <v>44062</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>167</v>
@@ -4891,16 +4874,16 @@
         <v>202</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L88" s="10">
         <v>44062</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -4917,7 +4900,7 @@
         <v>44062</v>
       </c>
       <c r="E89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F89" t="s">
         <v>176</v>
@@ -4933,16 +4916,16 @@
         <v>202</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L89" s="10">
         <v>44062</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -4959,7 +4942,7 @@
         <v>44062</v>
       </c>
       <c r="E90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F90" t="s">
         <v>183</v>
@@ -4975,16 +4958,16 @@
         <v>202</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L90" s="10">
         <v>44062</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -5001,7 +4984,7 @@
         <v>44062</v>
       </c>
       <c r="E91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F91" t="s">
         <v>188</v>
@@ -5017,16 +5000,16 @@
         <v>202</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L91" s="10">
         <v>44062</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -5043,7 +5026,7 @@
         <v>44061</v>
       </c>
       <c r="E92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F92" t="s">
         <v>189</v>
@@ -5059,14 +5042,14 @@
         <v>202</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -5083,7 +5066,7 @@
         <v>44062</v>
       </c>
       <c r="E93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F93" t="s">
         <v>195</v>
@@ -5099,14 +5082,14 @@
         <v>202</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K93" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -5123,7 +5106,7 @@
         <v>44062</v>
       </c>
       <c r="E94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>108</v>
@@ -5139,14 +5122,14 @@
         <v>200</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -5160,10 +5143,10 @@
         <v>2020</v>
       </c>
       <c r="D95" s="10">
-        <v>44061</v>
+        <v>44072</v>
       </c>
       <c r="E95" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>160</v>
@@ -5179,16 +5162,14 @@
         <v>200</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K95" t="s">
-        <v>321</v>
-      </c>
-      <c r="L95" s="10">
-        <v>43837</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>231</v>
+        <v>320</v>
+      </c>
+      <c r="L95" s="10"/>
+      <c r="M95" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -5205,7 +5186,7 @@
         <v>44061</v>
       </c>
       <c r="E96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F96" t="s">
         <v>164</v>
@@ -5221,10 +5202,10 @@
         <v>200</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K96" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L96" s="10">
         <v>43837</v>
@@ -5244,10 +5225,10 @@
         <v>2020</v>
       </c>
       <c r="D97" s="10">
-        <v>44061</v>
+        <v>44072</v>
       </c>
       <c r="E97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F97" t="s">
         <v>165</v>
@@ -5263,16 +5244,14 @@
         <v>200</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K97" t="s">
-        <v>321</v>
-      </c>
-      <c r="L97" s="10">
-        <v>43837</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>231</v>
+        <v>320</v>
+      </c>
+      <c r="L97" s="10"/>
+      <c r="M97" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -5289,7 +5268,7 @@
         <v>44061</v>
       </c>
       <c r="E98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F98" t="s">
         <v>171</v>
@@ -5305,10 +5284,10 @@
         <v>200</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L98" s="10">
         <v>43837</v>
@@ -5331,7 +5310,7 @@
         <v>44062</v>
       </c>
       <c r="E99" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F99" t="s">
         <v>193</v>
@@ -5347,16 +5326,16 @@
         <v>200</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L99" s="10">
         <v>43904</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -5373,7 +5352,7 @@
         <v>44061</v>
       </c>
       <c r="E100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F100" t="s">
         <v>169</v>
@@ -5389,14 +5368,14 @@
         <v>208</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -5413,7 +5392,7 @@
         <v>44062</v>
       </c>
       <c r="E101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>161</v>
@@ -5429,10 +5408,10 @@
         <v>205</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L101" s="10">
         <v>43837</v>
@@ -5455,7 +5434,7 @@
         <v>44062</v>
       </c>
       <c r="E102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>162</v>
@@ -5471,10 +5450,10 @@
         <v>205</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L102" s="10">
         <v>43837</v>
@@ -5497,7 +5476,7 @@
         <v>44062</v>
       </c>
       <c r="E103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F103" t="s">
         <v>175</v>
@@ -5513,10 +5492,10 @@
         <v>205</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K103" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L103" s="10">
         <v>43837</v>
@@ -5536,10 +5515,10 @@
         <v>2020</v>
       </c>
       <c r="D104" s="10">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="E104" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F104" t="s">
         <v>177</v>
@@ -5555,16 +5534,14 @@
         <v>205</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K104" t="s">
-        <v>321</v>
-      </c>
-      <c r="L104" s="10">
-        <v>43837</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L104" s="10"/>
       <c r="M104" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -5578,10 +5555,10 @@
         <v>2020</v>
       </c>
       <c r="D105" s="10">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="E105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F105" t="s">
         <v>190</v>
@@ -5597,16 +5574,14 @@
         <v>205</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K105" t="s">
-        <v>321</v>
-      </c>
-      <c r="L105" s="10">
-        <v>43837</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L105" s="10"/>
       <c r="M105" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -5620,10 +5595,10 @@
         <v>2020</v>
       </c>
       <c r="D106" s="10">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="E106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F106" t="s">
         <v>197</v>
@@ -5639,16 +5614,14 @@
         <v>205</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K106" t="s">
-        <v>321</v>
-      </c>
-      <c r="L106" s="10">
-        <v>43837</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>231</v>
+        <v>320</v>
+      </c>
+      <c r="L106" s="10"/>
+      <c r="M106" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -5665,7 +5638,7 @@
         <v>44062</v>
       </c>
       <c r="E107" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F107" t="s">
         <v>198</v>
@@ -5681,10 +5654,10 @@
         <v>205</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L107" s="10">
         <v>43837</v>
@@ -5707,7 +5680,7 @@
         <v>44061</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F108" t="s">
         <v>199</v>
@@ -5723,14 +5696,14 @@
         <v>205</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -5745,10 +5718,10 @@
       </c>
       <c r="D109" s="10"/>
       <c r="E109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G109" s="10">
         <v>21953</v>
@@ -5761,10 +5734,10 @@
         <v>205</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109"/>
@@ -5783,7 +5756,7 @@
         <v>44061</v>
       </c>
       <c r="E110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>56</v>
@@ -5796,17 +5769,17 @@
         <v>31</v>
       </c>
       <c r="I110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K110" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -5823,7 +5796,7 @@
         <v>44061</v>
       </c>
       <c r="E111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>18</v>
@@ -5836,17 +5809,17 @@
         <v>34</v>
       </c>
       <c r="I111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J111" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K111" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -5863,7 +5836,7 @@
         <v>44061</v>
       </c>
       <c r="E112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>147</v>
@@ -5876,17 +5849,17 @@
         <v>33</v>
       </c>
       <c r="I112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J112" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K112" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -5903,7 +5876,7 @@
         <v>44061</v>
       </c>
       <c r="E113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>61</v>
@@ -5919,10 +5892,10 @@
         <v>207</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K113" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L113" s="10">
         <v>44036</v>
@@ -5945,7 +5918,7 @@
         <v>44061</v>
       </c>
       <c r="E114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>145</v>
@@ -5961,10 +5934,10 @@
         <v>207</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L114" s="10">
         <v>44036</v>
@@ -5987,7 +5960,7 @@
         <v>44061</v>
       </c>
       <c r="E115" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>8</v>
@@ -6003,10 +5976,10 @@
         <v>207</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L115" s="10">
         <v>44036</v>
@@ -6026,10 +5999,10 @@
         <v>2020</v>
       </c>
       <c r="D116" s="10">
-        <v>44061</v>
+        <v>44072</v>
       </c>
       <c r="E116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>32</v>
@@ -6045,16 +6018,14 @@
         <v>207</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K116" t="s">
-        <v>321</v>
-      </c>
-      <c r="L116" s="10">
-        <v>44036</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>231</v>
+        <v>320</v>
+      </c>
+      <c r="L116" s="10"/>
+      <c r="M116" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -6071,7 +6042,7 @@
         <v>44061</v>
       </c>
       <c r="E117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>78</v>
@@ -6087,10 +6058,10 @@
         <v>207</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L117" s="10">
         <v>44036</v>
@@ -6113,7 +6084,7 @@
         <v>44061</v>
       </c>
       <c r="E118" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>127</v>
@@ -6129,10 +6100,10 @@
         <v>207</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K118" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L118" s="10">
         <v>44036</v>
@@ -6155,7 +6126,7 @@
         <v>44061</v>
       </c>
       <c r="E119" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>81</v>
@@ -6171,14 +6142,14 @@
         <v>215</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K119" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -6195,7 +6166,7 @@
         <v>44062</v>
       </c>
       <c r="E120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>117</v>
@@ -6211,16 +6182,16 @@
         <v>215</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L120" s="10">
         <v>44062</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -6237,7 +6208,7 @@
         <v>44062</v>
       </c>
       <c r="E121" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>131</v>
@@ -6253,16 +6224,16 @@
         <v>215</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K121" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L121" s="10">
         <v>44062</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -6279,7 +6250,7 @@
         <v>44062</v>
       </c>
       <c r="E122" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>132</v>
@@ -6295,16 +6266,16 @@
         <v>215</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L122" s="10">
         <v>44062</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -6321,7 +6292,7 @@
         <v>44061</v>
       </c>
       <c r="E123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>139</v>
@@ -6337,14 +6308,14 @@
         <v>201</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K123" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L123" s="10"/>
       <c r="M123" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -6359,7 +6330,7 @@
       </c>
       <c r="D124" s="10"/>
       <c r="E124" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>153</v>
@@ -6375,10 +6346,10 @@
         <v>201</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K124" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L124" s="10"/>
       <c r="M124"/>
@@ -6397,7 +6368,7 @@
         <v>44061</v>
       </c>
       <c r="E125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>130</v>
@@ -6413,14 +6384,14 @@
         <v>211</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -6437,7 +6408,7 @@
         <v>44061</v>
       </c>
       <c r="E126" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>21</v>
@@ -6453,14 +6424,14 @@
         <v>211</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K126" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -6477,7 +6448,7 @@
         <v>44061</v>
       </c>
       <c r="E127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>13</v>
@@ -6493,14 +6464,14 @@
         <v>211</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -6517,7 +6488,7 @@
         <v>44061</v>
       </c>
       <c r="E128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>50</v>
@@ -6533,14 +6504,14 @@
         <v>211</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K128" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -6557,7 +6528,7 @@
         <v>44061</v>
       </c>
       <c r="E129" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>53</v>
@@ -6573,14 +6544,14 @@
         <v>211</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K129" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -6597,7 +6568,7 @@
         <v>44061</v>
       </c>
       <c r="E130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>64</v>
@@ -6613,14 +6584,14 @@
         <v>211</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K130" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -6637,7 +6608,7 @@
         <v>44061</v>
       </c>
       <c r="E131" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>86</v>
@@ -6653,14 +6624,14 @@
         <v>211</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L131" s="10"/>
       <c r="M131" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -6677,7 +6648,7 @@
         <v>44062</v>
       </c>
       <c r="E132" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>122</v>
@@ -6693,16 +6664,16 @@
         <v>211</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K132" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L132" s="10">
         <v>44062</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -6719,7 +6690,7 @@
         <v>44061</v>
       </c>
       <c r="E133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>10</v>
@@ -6735,14 +6706,14 @@
         <v>204</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K133" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -6759,7 +6730,7 @@
         <v>44062</v>
       </c>
       <c r="E134" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>20</v>
@@ -6775,16 +6746,16 @@
         <v>204</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K134" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L134" s="10">
         <v>44062</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -6801,7 +6772,7 @@
         <v>44062</v>
       </c>
       <c r="E135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>41</v>
@@ -6817,16 +6788,16 @@
         <v>204</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K135" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L135" s="10">
         <v>44062</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -6843,7 +6814,7 @@
         <v>44062</v>
       </c>
       <c r="E136" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>71</v>
@@ -6859,16 +6830,16 @@
         <v>204</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L136" s="10">
         <v>44062</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -6885,7 +6856,7 @@
         <v>44062</v>
       </c>
       <c r="E137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>90</v>
@@ -6901,16 +6872,16 @@
         <v>204</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K137" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L137" s="10">
         <v>44062</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -6927,7 +6898,7 @@
         <v>44062</v>
       </c>
       <c r="E138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>96</v>
@@ -6943,16 +6914,16 @@
         <v>204</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K138" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L138" s="10">
         <v>44062</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -6969,7 +6940,7 @@
         <v>44061</v>
       </c>
       <c r="E139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>119</v>
@@ -6985,14 +6956,14 @@
         <v>204</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K139" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -7009,7 +6980,7 @@
         <v>44062</v>
       </c>
       <c r="E140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>121</v>
@@ -7025,16 +6996,16 @@
         <v>204</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K140" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L140" s="10">
         <v>44062</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -7051,7 +7022,7 @@
         <v>44062</v>
       </c>
       <c r="E141" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>124</v>
@@ -7067,16 +7038,16 @@
         <v>204</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K141" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L141" s="10">
         <v>44062</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -7093,7 +7064,7 @@
         <v>44062</v>
       </c>
       <c r="E142" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>133</v>
@@ -7109,16 +7080,16 @@
         <v>204</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K142" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L142" s="10">
         <v>44062</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -7135,7 +7106,7 @@
         <v>44062</v>
       </c>
       <c r="E143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>134</v>
@@ -7151,16 +7122,16 @@
         <v>204</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L143" s="10">
         <v>44062</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -7177,7 +7148,7 @@
         <v>44062</v>
       </c>
       <c r="E144" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>149</v>
@@ -7193,16 +7164,16 @@
         <v>204</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K144" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L144" s="10">
         <v>44062</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -7219,7 +7190,7 @@
         <v>44062</v>
       </c>
       <c r="E145" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>152</v>
@@ -7235,16 +7206,16 @@
         <v>204</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K145" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L145" s="10">
         <v>44062</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -7261,7 +7232,7 @@
         <v>44061</v>
       </c>
       <c r="E146" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>157</v>
@@ -7277,14 +7248,14 @@
         <v>204</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K146" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L146" s="10"/>
       <c r="M146" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -7301,7 +7272,7 @@
         <v>44062</v>
       </c>
       <c r="E147" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>48</v>
@@ -7317,16 +7288,16 @@
         <v>213</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K147" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L147" s="10">
         <v>43887</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -7343,7 +7314,7 @@
         <v>44062</v>
       </c>
       <c r="E148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>5</v>
@@ -7359,16 +7330,16 @@
         <v>209</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K148" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L148" s="10">
         <v>43817</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -7385,7 +7356,7 @@
         <v>44061</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>54</v>
@@ -7401,14 +7372,14 @@
         <v>209</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K149" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L149" s="10"/>
       <c r="M149" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -7425,7 +7396,7 @@
         <v>44061</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>59</v>
@@ -7441,14 +7412,14 @@
         <v>209</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K150" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L150" s="10"/>
       <c r="M150" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -7465,7 +7436,7 @@
         <v>44061</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>105</v>
@@ -7481,14 +7452,14 @@
         <v>216</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K151" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -7505,7 +7476,7 @@
         <v>44061</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>16</v>
@@ -7521,14 +7492,14 @@
         <v>212</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K152" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -7545,7 +7516,7 @@
         <v>44061</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>76</v>
@@ -7561,14 +7532,14 @@
         <v>212</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L153" s="10"/>
       <c r="M153" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -7585,7 +7556,7 @@
         <v>44061</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>77</v>
@@ -7601,14 +7572,14 @@
         <v>214</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K154" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L154" s="10"/>
       <c r="M154" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -7625,7 +7596,7 @@
         <v>44062</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>6</v>
@@ -7641,16 +7612,16 @@
         <v>203</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K155" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L155" s="10">
         <v>44062</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -7667,7 +7638,7 @@
         <v>44062</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>23</v>
@@ -7683,16 +7654,16 @@
         <v>203</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K156" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L156" s="10">
         <v>44062</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -7709,7 +7680,7 @@
         <v>44061</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>28</v>
@@ -7725,14 +7696,14 @@
         <v>203</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K157" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L157" s="10"/>
       <c r="M157" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -7749,7 +7720,7 @@
         <v>44062</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>49</v>
@@ -7765,16 +7736,16 @@
         <v>203</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K158" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L158" s="10">
         <v>44062</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -7791,7 +7762,7 @@
         <v>44062</v>
       </c>
       <c r="E159" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>60</v>
@@ -7807,16 +7778,16 @@
         <v>203</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K159" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L159" s="10">
         <v>44062</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -7833,7 +7804,7 @@
         <v>44061</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>70</v>
@@ -7849,14 +7820,14 @@
         <v>203</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K160" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L160" s="10"/>
       <c r="M160" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -7873,7 +7844,7 @@
         <v>44062</v>
       </c>
       <c r="E161" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>92</v>
@@ -7889,16 +7860,16 @@
         <v>203</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K161" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L161" s="10">
         <v>44062</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -7915,7 +7886,7 @@
         <v>44062</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>142</v>
@@ -7931,16 +7902,16 @@
         <v>203</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K162" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L162" s="10">
         <v>44062</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
@@ -7957,7 +7928,7 @@
         <v>44062</v>
       </c>
       <c r="E163" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>113</v>
@@ -7973,16 +7944,16 @@
         <v>211</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K163" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L163" s="10">
         <v>44055</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -7999,7 +7970,7 @@
         <v>44062</v>
       </c>
       <c r="E164" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>11</v>
@@ -8015,16 +7986,16 @@
         <v>210</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K164" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L164" s="10">
         <v>44055</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -8041,7 +8012,7 @@
         <v>44062</v>
       </c>
       <c r="E165" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>52</v>
@@ -8057,16 +8028,16 @@
         <v>210</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K165" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L165" s="10">
         <v>44055</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -8083,7 +8054,7 @@
         <v>44062</v>
       </c>
       <c r="E166" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>73</v>
@@ -8099,16 +8070,16 @@
         <v>210</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K166" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L166" s="10">
         <v>44055</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -8125,7 +8096,7 @@
         <v>44062</v>
       </c>
       <c r="E167" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>75</v>
@@ -8141,16 +8112,16 @@
         <v>210</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K167" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L167" s="10">
         <v>44055</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -8167,7 +8138,7 @@
         <v>44062</v>
       </c>
       <c r="E168" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>97</v>
@@ -8183,16 +8154,16 @@
         <v>210</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L168" s="10">
         <v>44055</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -8209,7 +8180,7 @@
         <v>44062</v>
       </c>
       <c r="E169" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>118</v>
@@ -8225,16 +8196,16 @@
         <v>210</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K169" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L169" s="10">
         <v>44055</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -8251,7 +8222,7 @@
         <v>44062</v>
       </c>
       <c r="E170" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>143</v>
@@ -8267,16 +8238,16 @@
         <v>210</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K170" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L170" s="10">
         <v>44055</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -8293,7 +8264,7 @@
         <v>44061</v>
       </c>
       <c r="E171" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>35</v>
@@ -8309,14 +8280,14 @@
         <v>202</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K171" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L171" s="10"/>
       <c r="M171" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
@@ -8333,7 +8304,7 @@
         <v>44062</v>
       </c>
       <c r="E172" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>7</v>
@@ -8349,16 +8320,16 @@
         <v>202</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K172" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L172" s="10">
         <v>44062</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
@@ -8375,7 +8346,7 @@
         <v>44062</v>
       </c>
       <c r="E173" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>26</v>
@@ -8391,16 +8362,16 @@
         <v>202</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K173" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L173" s="10">
         <v>44062</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -8417,7 +8388,7 @@
         <v>44062</v>
       </c>
       <c r="E174" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>29</v>
@@ -8433,16 +8404,16 @@
         <v>202</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K174" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L174" s="10">
         <v>44062</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
@@ -8459,7 +8430,7 @@
         <v>44062</v>
       </c>
       <c r="E175" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>39</v>
@@ -8475,16 +8446,16 @@
         <v>202</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K175" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L175" s="10">
         <v>44062</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -8501,7 +8472,7 @@
         <v>44061</v>
       </c>
       <c r="E176" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>57</v>
@@ -8517,14 +8488,14 @@
         <v>202</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K176" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L176" s="10"/>
       <c r="M176" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
@@ -8541,7 +8512,7 @@
         <v>44062</v>
       </c>
       <c r="E177" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>66</v>
@@ -8557,16 +8528,16 @@
         <v>202</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K177" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L177" s="10">
         <v>44062</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -8583,7 +8554,7 @@
         <v>44062</v>
       </c>
       <c r="E178" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>79</v>
@@ -8599,16 +8570,16 @@
         <v>202</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K178" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L178" s="10">
         <v>44062</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
@@ -8625,7 +8596,7 @@
         <v>44061</v>
       </c>
       <c r="E179" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>83</v>
@@ -8641,14 +8612,14 @@
         <v>202</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K179" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L179" s="10"/>
       <c r="M179" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
@@ -8665,7 +8636,7 @@
         <v>44062</v>
       </c>
       <c r="E180" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>87</v>
@@ -8681,16 +8652,16 @@
         <v>202</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K180" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L180" s="10">
         <v>44062</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
@@ -8707,7 +8678,7 @@
         <v>44061</v>
       </c>
       <c r="E181" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>104</v>
@@ -8723,14 +8694,14 @@
         <v>202</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K181" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L181" s="10"/>
       <c r="M181" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
@@ -8747,7 +8718,7 @@
         <v>44062</v>
       </c>
       <c r="E182" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>106</v>
@@ -8763,16 +8734,16 @@
         <v>202</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K182" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L182" s="10">
         <v>44062</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
@@ -8789,7 +8760,7 @@
         <v>44062</v>
       </c>
       <c r="E183" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>107</v>
@@ -8805,16 +8776,16 @@
         <v>202</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K183" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L183" s="10">
         <v>44062</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -8831,7 +8802,7 @@
         <v>44062</v>
       </c>
       <c r="E184" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>109</v>
@@ -8847,16 +8818,16 @@
         <v>202</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K184" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L184" s="10">
         <v>44062</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
@@ -8873,7 +8844,7 @@
         <v>44061</v>
       </c>
       <c r="E185" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>112</v>
@@ -8889,14 +8860,14 @@
         <v>202</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K185" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L185" s="10"/>
       <c r="M185" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
@@ -8913,7 +8884,7 @@
         <v>44062</v>
       </c>
       <c r="E186" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>116</v>
@@ -8929,16 +8900,16 @@
         <v>202</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K186" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L186" s="10">
         <v>44062</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
@@ -8955,7 +8926,7 @@
         <v>44062</v>
       </c>
       <c r="E187" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>120</v>
@@ -8971,16 +8942,16 @@
         <v>202</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K187" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L187" s="10">
         <v>44062</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
@@ -8997,7 +8968,7 @@
         <v>44061</v>
       </c>
       <c r="E188" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>141</v>
@@ -9013,14 +8984,14 @@
         <v>202</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K188" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L188" s="10"/>
       <c r="M188" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -9037,7 +9008,7 @@
         <v>44062</v>
       </c>
       <c r="E189" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>154</v>
@@ -9053,16 +9024,16 @@
         <v>202</v>
       </c>
       <c r="J189" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K189" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L189" s="10">
         <v>44062</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
@@ -9079,7 +9050,7 @@
         <v>44061</v>
       </c>
       <c r="E190" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>82</v>
@@ -9095,14 +9066,14 @@
         <v>200</v>
       </c>
       <c r="J190" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K190" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L190" s="10"/>
       <c r="M190" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
@@ -9119,7 +9090,7 @@
         <v>44062</v>
       </c>
       <c r="E191" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>15</v>
@@ -9135,10 +9106,10 @@
         <v>200</v>
       </c>
       <c r="J191" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K191" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L191" s="10">
         <v>43839</v>
@@ -9161,7 +9132,7 @@
         <v>44069</v>
       </c>
       <c r="E192" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>25</v>
@@ -9177,14 +9148,14 @@
         <v>200</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K192" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L192" s="10"/>
       <c r="M192" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -9197,9 +9168,11 @@
       <c r="C193">
         <v>2020</v>
       </c>
-      <c r="D193" s="10"/>
+      <c r="D193" s="10">
+        <v>44072</v>
+      </c>
       <c r="E193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>27</v>
@@ -9215,13 +9188,15 @@
         <v>200</v>
       </c>
       <c r="J193" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K193" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L193" s="10"/>
-      <c r="M193"/>
+      <c r="M193" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
@@ -9234,10 +9209,10 @@
         <v>2020</v>
       </c>
       <c r="D194" s="10">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="E194" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>30</v>
@@ -9253,16 +9228,14 @@
         <v>200</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K194" t="s">
-        <v>321</v>
-      </c>
-      <c r="L194" s="10">
-        <v>43839</v>
-      </c>
-      <c r="M194" s="2" t="s">
-        <v>231</v>
+        <v>320</v>
+      </c>
+      <c r="L194" s="10"/>
+      <c r="M194" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
@@ -9279,7 +9252,7 @@
         <v>44062</v>
       </c>
       <c r="E195" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>33</v>
@@ -9295,16 +9268,16 @@
         <v>200</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K195" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L195" s="10">
         <v>43904</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
@@ -9321,7 +9294,7 @@
         <v>44062</v>
       </c>
       <c r="E196" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>36</v>
@@ -9337,10 +9310,10 @@
         <v>200</v>
       </c>
       <c r="J196" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K196" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L196" s="10">
         <v>43839</v>
@@ -9359,9 +9332,11 @@
       <c r="C197">
         <v>2020</v>
       </c>
-      <c r="D197" s="10"/>
+      <c r="D197" s="10">
+        <v>44072</v>
+      </c>
       <c r="E197" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>37</v>
@@ -9377,13 +9352,15 @@
         <v>200</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K197" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L197" s="10"/>
-      <c r="M197"/>
+      <c r="M197" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
@@ -9397,7 +9374,7 @@
       </c>
       <c r="D198" s="10"/>
       <c r="E198" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>38</v>
@@ -9413,10 +9390,10 @@
         <v>200</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K198" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L198" s="10"/>
       <c r="M198"/>
@@ -9435,7 +9412,7 @@
         <v>44061</v>
       </c>
       <c r="E199" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>40</v>
@@ -9451,14 +9428,14 @@
         <v>200</v>
       </c>
       <c r="J199" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K199" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L199" s="10"/>
       <c r="M199" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -9471,9 +9448,11 @@
       <c r="C200">
         <v>2020</v>
       </c>
-      <c r="D200" s="10"/>
+      <c r="D200" s="10">
+        <v>44072</v>
+      </c>
       <c r="E200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>42</v>
@@ -9489,14 +9468,14 @@
         <v>200</v>
       </c>
       <c r="J200" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K200" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="L200" s="10"/>
       <c r="M200" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -9511,7 +9490,7 @@
       </c>
       <c r="D201" s="10"/>
       <c r="E201" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>45</v>
@@ -9527,10 +9506,10 @@
         <v>200</v>
       </c>
       <c r="J201" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K201" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L201" s="10"/>
       <c r="M201"/>
@@ -9547,7 +9526,7 @@
       </c>
       <c r="D202" s="10"/>
       <c r="E202" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>46</v>
@@ -9563,10 +9542,10 @@
         <v>200</v>
       </c>
       <c r="J202" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K202" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L202" s="10"/>
       <c r="M202"/>
@@ -9583,7 +9562,7 @@
       </c>
       <c r="D203" s="10"/>
       <c r="E203" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>63</v>
@@ -9599,10 +9578,10 @@
         <v>200</v>
       </c>
       <c r="J203" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K203" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L203" s="10"/>
       <c r="M203"/>
@@ -9621,7 +9600,7 @@
         <v>44062</v>
       </c>
       <c r="E204" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>67</v>
@@ -9637,10 +9616,10 @@
         <v>200</v>
       </c>
       <c r="J204" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K204" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L204" s="10">
         <v>43839</v>
@@ -9663,7 +9642,7 @@
         <v>44062</v>
       </c>
       <c r="E205" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>68</v>
@@ -9679,16 +9658,16 @@
         <v>200</v>
       </c>
       <c r="J205" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K205" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L205" s="10">
         <v>43861</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
@@ -9705,7 +9684,7 @@
         <v>44062</v>
       </c>
       <c r="E206" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>74</v>
@@ -9721,10 +9700,10 @@
         <v>200</v>
       </c>
       <c r="J206" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K206" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L206" s="10">
         <v>43839</v>
@@ -9744,10 +9723,10 @@
         <v>2020</v>
       </c>
       <c r="D207" s="10">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="E207" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>88</v>
@@ -9763,16 +9742,14 @@
         <v>200</v>
       </c>
       <c r="J207" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K207" t="s">
-        <v>320</v>
-      </c>
-      <c r="L207" s="10">
-        <v>43891</v>
-      </c>
-      <c r="M207" s="2" t="s">
-        <v>231</v>
+        <v>319</v>
+      </c>
+      <c r="L207" s="10"/>
+      <c r="M207" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
@@ -9789,7 +9766,7 @@
         <v>44062</v>
       </c>
       <c r="E208" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>91</v>
@@ -9805,16 +9782,16 @@
         <v>200</v>
       </c>
       <c r="J208" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K208" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L208" s="10">
         <v>43861</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
@@ -9831,7 +9808,7 @@
         <v>44062</v>
       </c>
       <c r="E209" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>93</v>
@@ -9847,10 +9824,10 @@
         <v>200</v>
       </c>
       <c r="J209" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K209" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L209" s="10">
         <v>43839</v>
@@ -9869,9 +9846,11 @@
       <c r="C210">
         <v>2020</v>
       </c>
-      <c r="D210" s="10"/>
+      <c r="D210" s="10">
+        <v>44072</v>
+      </c>
       <c r="E210" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>94</v>
@@ -9887,13 +9866,15 @@
         <v>200</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K210" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="L210" s="10"/>
-      <c r="M210"/>
+      <c r="M210" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
@@ -9907,7 +9888,7 @@
       </c>
       <c r="D211" s="10"/>
       <c r="E211" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>98</v>
@@ -9923,10 +9904,10 @@
         <v>200</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K211" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L211" s="10"/>
       <c r="M211"/>
@@ -9943,7 +9924,7 @@
       </c>
       <c r="D212" s="10"/>
       <c r="E212" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>99</v>
@@ -9959,10 +9940,10 @@
         <v>200</v>
       </c>
       <c r="J212" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K212" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L212" s="10"/>
       <c r="M212"/>
@@ -9981,7 +9962,7 @@
         <v>44062</v>
       </c>
       <c r="E213" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>101</v>
@@ -9997,16 +9978,16 @@
         <v>200</v>
       </c>
       <c r="J213" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K213" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L213" s="10">
         <v>43861</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
@@ -10023,7 +10004,7 @@
         <v>44062</v>
       </c>
       <c r="E214" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>103</v>
@@ -10039,16 +10020,16 @@
         <v>200</v>
       </c>
       <c r="J214" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K214" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L214" s="10">
         <v>43904</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
@@ -10065,10 +10046,10 @@
         <v>44069</v>
       </c>
       <c r="E215" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G215" s="13">
         <v>20377</v>
@@ -10081,14 +10062,14 @@
         <v>200</v>
       </c>
       <c r="J215" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K215" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L215" s="10"/>
       <c r="M215" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
@@ -10103,7 +10084,7 @@
       </c>
       <c r="D216" s="10"/>
       <c r="E216" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>111</v>
@@ -10119,10 +10100,10 @@
         <v>200</v>
       </c>
       <c r="J216" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K216" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L216" s="10"/>
       <c r="M216"/>
@@ -10139,7 +10120,7 @@
       </c>
       <c r="D217" s="10"/>
       <c r="E217" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>114</v>
@@ -10155,10 +10136,10 @@
         <v>200</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K217" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L217" s="10"/>
       <c r="M217"/>
@@ -10177,7 +10158,7 @@
         <v>44061</v>
       </c>
       <c r="E218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>115</v>
@@ -10193,14 +10174,14 @@
         <v>200</v>
       </c>
       <c r="J218" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K218" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L218" s="10"/>
       <c r="M218" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
@@ -10217,7 +10198,7 @@
         <v>44062</v>
       </c>
       <c r="E219" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>123</v>
@@ -10233,14 +10214,14 @@
         <v>200</v>
       </c>
       <c r="J219" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K219" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L219" s="10"/>
       <c r="M219" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
@@ -10254,10 +10235,10 @@
         <v>2020</v>
       </c>
       <c r="D220" s="10">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="E220" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>129</v>
@@ -10273,16 +10254,14 @@
         <v>200</v>
       </c>
       <c r="J220" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K220" t="s">
-        <v>321</v>
-      </c>
-      <c r="L220" s="10">
-        <v>43839</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L220" s="10"/>
       <c r="M220" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
@@ -10295,9 +10274,11 @@
       <c r="C221">
         <v>2020</v>
       </c>
-      <c r="D221" s="10"/>
+      <c r="D221" s="10">
+        <v>44072</v>
+      </c>
       <c r="E221" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>144</v>
@@ -10313,13 +10294,15 @@
         <v>200</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K221" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="L221" s="10"/>
-      <c r="M221"/>
+      <c r="M221" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
@@ -10335,7 +10318,7 @@
         <v>44062</v>
       </c>
       <c r="E222" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>146</v>
@@ -10351,16 +10334,16 @@
         <v>200</v>
       </c>
       <c r="J222" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K222" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L222" s="10">
         <v>43904</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
@@ -10377,7 +10360,7 @@
         <v>44069</v>
       </c>
       <c r="E223" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>151</v>
@@ -10393,14 +10376,14 @@
         <v>200</v>
       </c>
       <c r="J223" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K223" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L223" s="10"/>
       <c r="M223" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
@@ -10417,7 +10400,7 @@
         <v>44069</v>
       </c>
       <c r="E224" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F224" t="s">
         <v>229</v>
@@ -10433,14 +10416,14 @@
         <v>200</v>
       </c>
       <c r="J224" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K224" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L224" s="10"/>
       <c r="M224" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
@@ -10457,7 +10440,7 @@
         <v>44069</v>
       </c>
       <c r="E225" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F225" t="s">
         <v>230</v>
@@ -10473,14 +10456,14 @@
         <v>200</v>
       </c>
       <c r="J225" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K225" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L225" s="10"/>
       <c r="M225" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
@@ -10497,7 +10480,7 @@
         <v>44061</v>
       </c>
       <c r="E226" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>24</v>
@@ -10513,14 +10496,14 @@
         <v>208</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K226" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L226" s="10"/>
       <c r="M226" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
@@ -10537,7 +10520,7 @@
         <v>44061</v>
       </c>
       <c r="E227" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>47</v>
@@ -10553,14 +10536,14 @@
         <v>208</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K227" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L227" s="10"/>
       <c r="M227" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
@@ -10577,7 +10560,7 @@
         <v>44061</v>
       </c>
       <c r="E228" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>95</v>
@@ -10593,14 +10576,14 @@
         <v>208</v>
       </c>
       <c r="J228" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K228" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L228" s="10"/>
       <c r="M228" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
@@ -10617,7 +10600,7 @@
         <v>44061</v>
       </c>
       <c r="E229" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>135</v>
@@ -10633,14 +10616,14 @@
         <v>208</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K229" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L229" s="10"/>
       <c r="M229" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
@@ -10657,7 +10640,7 @@
         <v>44061</v>
       </c>
       <c r="E230" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>148</v>
@@ -10673,14 +10656,14 @@
         <v>208</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K230" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L230" s="10"/>
       <c r="M230" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
@@ -10697,7 +10680,7 @@
         <v>44062</v>
       </c>
       <c r="E231" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F231" s="12" t="s">
         <v>19</v>
@@ -10713,14 +10696,14 @@
         <v>208</v>
       </c>
       <c r="J231" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K231" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L231" s="10"/>
       <c r="M231" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
@@ -10737,7 +10720,7 @@
         <v>44062</v>
       </c>
       <c r="E232" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F232" s="12" t="s">
         <v>31</v>
@@ -10753,14 +10736,14 @@
         <v>208</v>
       </c>
       <c r="J232" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K232" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L232" s="10"/>
       <c r="M232" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
@@ -10777,7 +10760,7 @@
         <v>44061</v>
       </c>
       <c r="E233" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>58</v>
@@ -10793,14 +10776,14 @@
         <v>208</v>
       </c>
       <c r="J233" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K233" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L233" s="10"/>
       <c r="M233" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
@@ -10817,7 +10800,7 @@
         <v>44062</v>
       </c>
       <c r="E234" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F234" s="12" t="s">
         <v>89</v>
@@ -10833,14 +10816,14 @@
         <v>208</v>
       </c>
       <c r="J234" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K234" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L234" s="10"/>
       <c r="M234" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
@@ -10857,7 +10840,7 @@
         <v>44062</v>
       </c>
       <c r="E235" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F235" s="12" t="s">
         <v>9</v>
@@ -10873,16 +10856,16 @@
         <v>205</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K235" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L235" s="10">
         <v>43867</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
@@ -10897,7 +10880,7 @@
       </c>
       <c r="D236" s="10"/>
       <c r="E236" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>12</v>
@@ -10913,10 +10896,10 @@
         <v>205</v>
       </c>
       <c r="J236" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K236" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L236" s="10"/>
       <c r="M236"/>
@@ -10933,7 +10916,7 @@
       </c>
       <c r="D237" s="10"/>
       <c r="E237" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>14</v>
@@ -10949,10 +10932,10 @@
         <v>205</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K237" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L237" s="10"/>
       <c r="M237"/>
@@ -10971,7 +10954,7 @@
         <v>44069</v>
       </c>
       <c r="E238" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>17</v>
@@ -10987,14 +10970,14 @@
         <v>205</v>
       </c>
       <c r="J238" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K238" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L238" s="10"/>
       <c r="M238" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
@@ -11009,7 +10992,7 @@
       </c>
       <c r="D239" s="10"/>
       <c r="E239" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F239" s="12" t="s">
         <v>22</v>
@@ -11025,10 +11008,10 @@
         <v>205</v>
       </c>
       <c r="J239" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K239" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L239" s="10"/>
       <c r="M239"/>
@@ -11045,7 +11028,7 @@
       </c>
       <c r="D240" s="10"/>
       <c r="E240" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>43</v>
@@ -11061,10 +11044,10 @@
         <v>205</v>
       </c>
       <c r="J240" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K240" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L240" s="10"/>
       <c r="M240"/>
@@ -11081,7 +11064,7 @@
       </c>
       <c r="D241" s="10"/>
       <c r="E241" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>44</v>
@@ -11097,10 +11080,10 @@
         <v>205</v>
       </c>
       <c r="J241" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K241" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L241" s="10"/>
       <c r="M241"/>
@@ -11117,7 +11100,7 @@
       </c>
       <c r="D242" s="10"/>
       <c r="E242" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>51</v>
@@ -11133,10 +11116,10 @@
         <v>205</v>
       </c>
       <c r="J242" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K242" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L242" s="10"/>
       <c r="M242"/>
@@ -11155,7 +11138,7 @@
         <v>44061</v>
       </c>
       <c r="E243" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>55</v>
@@ -11171,14 +11154,14 @@
         <v>205</v>
       </c>
       <c r="J243" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K243" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L243" s="10"/>
       <c r="M243" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
@@ -11193,7 +11176,7 @@
       </c>
       <c r="D244" s="10"/>
       <c r="E244" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>62</v>
@@ -11209,10 +11192,10 @@
         <v>205</v>
       </c>
       <c r="J244" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K244" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L244" s="10"/>
       <c r="M244"/>
@@ -11231,7 +11214,7 @@
         <v>44062</v>
       </c>
       <c r="E245" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>65</v>
@@ -11247,16 +11230,16 @@
         <v>205</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K245" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L245" s="10">
         <v>43867</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
@@ -11269,9 +11252,11 @@
       <c r="C246">
         <v>2020</v>
       </c>
-      <c r="D246" s="10"/>
+      <c r="D246" s="10">
+        <v>44072</v>
+      </c>
       <c r="E246" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>69</v>
@@ -11287,13 +11272,15 @@
         <v>205</v>
       </c>
       <c r="J246" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K246" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="L246" s="10"/>
-      <c r="M246"/>
+      <c r="M246" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
@@ -11307,7 +11294,7 @@
       </c>
       <c r="D247" s="10"/>
       <c r="E247" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>72</v>
@@ -11323,10 +11310,10 @@
         <v>205</v>
       </c>
       <c r="J247" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K247" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L247" s="10"/>
       <c r="M247"/>
@@ -11343,7 +11330,7 @@
       </c>
       <c r="D248" s="10"/>
       <c r="E248" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F248" s="12" t="s">
         <v>80</v>
@@ -11359,10 +11346,10 @@
         <v>205</v>
       </c>
       <c r="J248" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K248" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L248" s="10"/>
       <c r="M248"/>
@@ -11379,7 +11366,7 @@
       </c>
       <c r="D249" s="10"/>
       <c r="E249" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>84</v>
@@ -11395,10 +11382,10 @@
         <v>205</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K249" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L249" s="10"/>
       <c r="M249"/>
@@ -11415,7 +11402,7 @@
       </c>
       <c r="D250" s="10"/>
       <c r="E250" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>85</v>
@@ -11431,10 +11418,10 @@
         <v>205</v>
       </c>
       <c r="J250" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K250" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L250" s="10"/>
       <c r="M250"/>
@@ -11453,7 +11440,7 @@
         <v>44061</v>
       </c>
       <c r="E251" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F251" s="12" t="s">
         <v>100</v>
@@ -11469,14 +11456,14 @@
         <v>205</v>
       </c>
       <c r="J251" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K251" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L251" s="10"/>
       <c r="M251" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
@@ -11491,7 +11478,7 @@
       </c>
       <c r="D252" s="10"/>
       <c r="E252" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>102</v>
@@ -11507,10 +11494,10 @@
         <v>205</v>
       </c>
       <c r="J252" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K252" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L252" s="10"/>
       <c r="M252"/>
@@ -11525,9 +11512,11 @@
       <c r="C253">
         <v>2020</v>
       </c>
-      <c r="D253" s="10"/>
+      <c r="D253" s="10">
+        <v>44072</v>
+      </c>
       <c r="E253" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>110</v>
@@ -11543,13 +11532,15 @@
         <v>205</v>
       </c>
       <c r="J253" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K253" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="L253" s="10"/>
-      <c r="M253"/>
+      <c r="M253" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
@@ -11563,7 +11554,7 @@
       </c>
       <c r="D254" s="10"/>
       <c r="E254" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>125</v>
@@ -11579,10 +11570,10 @@
         <v>205</v>
       </c>
       <c r="J254" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K254" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L254" s="10"/>
       <c r="M254"/>
@@ -11599,7 +11590,7 @@
       </c>
       <c r="D255" s="10"/>
       <c r="E255" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>126</v>
@@ -11615,10 +11606,10 @@
         <v>205</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K255" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L255" s="10"/>
       <c r="M255"/>
@@ -11633,9 +11624,11 @@
       <c r="C256">
         <v>2020</v>
       </c>
-      <c r="D256" s="10"/>
+      <c r="D256" s="10">
+        <v>44072</v>
+      </c>
       <c r="E256" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>128</v>
@@ -11651,13 +11644,15 @@
         <v>205</v>
       </c>
       <c r="J256" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K256" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="L256" s="10"/>
-      <c r="M256"/>
+      <c r="M256" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
@@ -11671,7 +11666,7 @@
       </c>
       <c r="D257" s="10"/>
       <c r="E257" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>136</v>
@@ -11687,10 +11682,10 @@
         <v>205</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K257" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L257" s="10"/>
       <c r="M257"/>
@@ -11709,7 +11704,7 @@
         <v>44069</v>
       </c>
       <c r="E258" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>137</v>
@@ -11725,14 +11720,14 @@
         <v>205</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K258" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L258" s="10"/>
       <c r="M258" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
@@ -11747,7 +11742,7 @@
       </c>
       <c r="D259" s="10"/>
       <c r="E259" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>138</v>
@@ -11763,10 +11758,10 @@
         <v>205</v>
       </c>
       <c r="J259" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K259" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L259" s="10"/>
       <c r="M259"/>
@@ -11785,7 +11780,7 @@
         <v>44061</v>
       </c>
       <c r="E260" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>140</v>
@@ -11801,14 +11796,14 @@
         <v>205</v>
       </c>
       <c r="J260" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K260" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L260" s="10"/>
       <c r="M260" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -11823,7 +11818,7 @@
       </c>
       <c r="D261" s="10"/>
       <c r="E261" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F261" s="12" t="s">
         <v>150</v>
@@ -11839,10 +11834,10 @@
         <v>205</v>
       </c>
       <c r="J261" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L261" s="10"/>
       <c r="M261"/>
@@ -11861,7 +11856,7 @@
         <v>44069</v>
       </c>
       <c r="E262" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>155</v>
@@ -11877,14 +11872,14 @@
         <v>205</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K262" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L262" s="10"/>
       <c r="M262" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
@@ -11897,9 +11892,11 @@
       <c r="C263">
         <v>2020</v>
       </c>
-      <c r="D263" s="10"/>
+      <c r="D263" s="10">
+        <v>44072</v>
+      </c>
       <c r="E263" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>156</v>
@@ -11915,13 +11912,15 @@
         <v>205</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K263" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="L263" s="10"/>
-      <c r="M263"/>
+      <c r="M263" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
@@ -11935,10 +11934,10 @@
       </c>
       <c r="D264" s="10"/>
       <c r="E264" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G264" s="10">
         <v>21554</v>
@@ -11951,16 +11950,16 @@
         <v>205</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K264" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L264" s="10"/>
       <c r="M264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{3E146BB6-F1DB-3C48-8953-D31D18737686}">
+  <autoFilter ref="A1:M264" xr:uid="{3E146BB6-F1DB-3C48-8953-D31D18737686}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M264">
       <sortCondition ref="A1:A264"/>
     </sortState>
@@ -11968,205 +11967,209 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M115" r:id="rId1" xr:uid="{5E35EA07-F051-E94E-8CA2-5E5BE0DBAFF2}"/>
-    <hyperlink ref="M116" r:id="rId2" xr:uid="{68F0C5DA-F760-ED45-AA86-2FE70D74D9F6}"/>
-    <hyperlink ref="M117" r:id="rId3" xr:uid="{ECDB85BD-3D74-6D40-9FDC-9DA189A81FF8}"/>
-    <hyperlink ref="M118" r:id="rId4" xr:uid="{EBBBDA58-E0AB-E442-B785-DA389E60F964}"/>
-    <hyperlink ref="M113" r:id="rId5" xr:uid="{25A1E99B-8FE6-8E42-B1D6-42E667F17DFB}"/>
-    <hyperlink ref="M114" r:id="rId6" xr:uid="{80BCD533-CF42-6243-AF19-9132BFC49890}"/>
-    <hyperlink ref="M24" r:id="rId7" xr:uid="{E11305D0-7A15-8F40-BBD6-29D407A59A85}"/>
-    <hyperlink ref="M18" r:id="rId8" xr:uid="{C5D72966-3B2B-3B4A-BDA6-1F73C487581B}"/>
-    <hyperlink ref="M25" r:id="rId9" xr:uid="{3E0F536A-1186-7F46-BBEF-62932CA57FEF}"/>
-    <hyperlink ref="M20" r:id="rId10" xr:uid="{515F1AC8-508A-7F4C-9F4D-1645AB2ED545}"/>
-    <hyperlink ref="M19" r:id="rId11" xr:uid="{E5C74330-4C67-574B-BE2B-858F9D0BDE7E}"/>
-    <hyperlink ref="M23" r:id="rId12" xr:uid="{C8D90150-5546-5A46-AAB1-5BE42F2603AA}"/>
-    <hyperlink ref="M8" r:id="rId13" xr:uid="{7DBC4CFD-0B9D-FC44-9F56-B2F2EBD00BE1}"/>
-    <hyperlink ref="M13" r:id="rId14" xr:uid="{E1EEF5DE-2C3E-0A4A-9E6E-5BF6E4153665}"/>
-    <hyperlink ref="M29" r:id="rId15" xr:uid="{14FF556B-DD64-434B-9A78-5AAADC96BA37}"/>
-    <hyperlink ref="M9" r:id="rId16" xr:uid="{4E4EFE43-6386-4845-A9D8-5908DF98C6A0}"/>
-    <hyperlink ref="M14" r:id="rId17" xr:uid="{C5A1967A-4308-4545-A626-032E4F025CEB}"/>
-    <hyperlink ref="M15" r:id="rId18" xr:uid="{CDCDFAE0-F7AB-174F-84C7-DA4B437E5F4A}"/>
-    <hyperlink ref="M26" r:id="rId19" xr:uid="{9D49B9D4-080A-FB4E-B1AE-E6DEB07F9810}"/>
-    <hyperlink ref="M10" r:id="rId20" xr:uid="{88D81009-0302-9645-9520-B9B6AE5E2990}"/>
-    <hyperlink ref="M17" r:id="rId21" xr:uid="{012F46BE-E6BC-9A45-A1F4-B6F127C4813E}"/>
-    <hyperlink ref="M12" r:id="rId22" xr:uid="{915F6156-DBA6-CF42-9B2D-26C7FE42EDEA}"/>
-    <hyperlink ref="M28" r:id="rId23" xr:uid="{520D71B1-B964-3348-A709-6501D846BD62}"/>
-    <hyperlink ref="M22" r:id="rId24" xr:uid="{4541C760-D0D2-ED4C-ACAB-DFDDE83D57FD}"/>
-    <hyperlink ref="M16" r:id="rId25" xr:uid="{BBE2930A-937C-A74A-8C60-9B40A237BD09}"/>
-    <hyperlink ref="M11" r:id="rId26" xr:uid="{D0E33CC2-C339-B94D-A96C-1948C9C209C9}"/>
-    <hyperlink ref="M27" r:id="rId27" xr:uid="{E3EB0079-6686-2D48-86FF-9001902116AF}"/>
-    <hyperlink ref="M7" r:id="rId28" xr:uid="{25F18012-A146-3141-9889-6944423F913B}"/>
-    <hyperlink ref="M21" r:id="rId29" xr:uid="{6280B8FA-7812-DD49-8645-E788C18D5567}"/>
-    <hyperlink ref="M6" r:id="rId30" xr:uid="{F328CAF1-7329-CF4A-8A31-EEE43189D0B3}"/>
-    <hyperlink ref="M226" r:id="rId31" xr:uid="{04CAAAEB-EB94-A141-8A95-D04005C206DA}"/>
-    <hyperlink ref="M100" r:id="rId32" xr:uid="{B70BBFF8-90AF-7E4E-A9B8-0ED9C71C5260}"/>
-    <hyperlink ref="M171" r:id="rId33" xr:uid="{30E1DA05-059D-9347-B411-3EFED989712F}"/>
-    <hyperlink ref="M125" r:id="rId34" xr:uid="{040E25F1-9071-A34B-96D0-9358277A9602}"/>
-    <hyperlink ref="M110" r:id="rId35" xr:uid="{E5737C51-CA44-6444-AEF3-696CFD100819}"/>
-    <hyperlink ref="M229" r:id="rId36" xr:uid="{A63644E5-9A9B-4C48-8135-6ECE65E45218}"/>
-    <hyperlink ref="M228" r:id="rId37" xr:uid="{1A67B714-807C-4F46-82F0-4CFFA07B63AB}"/>
-    <hyperlink ref="M230" r:id="rId38" xr:uid="{0A1958E1-F046-474B-9926-F831AC3BD444}"/>
-    <hyperlink ref="M190" r:id="rId39" xr:uid="{59527AAC-FB55-C14B-88ED-3C9DF709DE99}"/>
-    <hyperlink ref="M227" r:id="rId40" xr:uid="{3CF710CA-59F9-AB4B-A036-72AFA0C7FAF7}"/>
-    <hyperlink ref="M112" r:id="rId41" xr:uid="{F74B2F26-F6F5-A944-8909-B402AF7E3445}"/>
-    <hyperlink ref="M179" r:id="rId42" xr:uid="{F074FE5F-2F8F-9843-80D2-9E553C6F89E9}"/>
-    <hyperlink ref="M185" r:id="rId43" xr:uid="{CEE68E11-A4C8-DB41-911B-76CBCC09A2E0}"/>
-    <hyperlink ref="M251" r:id="rId44" xr:uid="{E5486846-BD50-0748-B727-39A5652EE90C}"/>
-    <hyperlink ref="M119" r:id="rId45" xr:uid="{5D82704D-B97E-7640-B5A4-95E4332C13B4}"/>
-    <hyperlink ref="M160" r:id="rId46" xr:uid="{98B95C62-9C57-364E-BFBF-0068C03978E7}"/>
-    <hyperlink ref="M130" r:id="rId47" xr:uid="{6F0E097A-A4C9-D34B-BB29-5E2CED192633}"/>
-    <hyperlink ref="M176" r:id="rId48" xr:uid="{20E8AE30-8FB4-214C-A688-460F477526A3}"/>
-    <hyperlink ref="M243" r:id="rId49" xr:uid="{DD082D79-B8A8-7B41-B914-6D6EDA8260C7}"/>
-    <hyperlink ref="M199" r:id="rId50" xr:uid="{9DA55AA2-200B-5B4C-B67A-560F4D39BBF0}"/>
-    <hyperlink ref="M188" r:id="rId51" xr:uid="{5AB05EFC-983D-8C4C-A8A1-C6313EEAA8BB}"/>
-    <hyperlink ref="M260" r:id="rId52" xr:uid="{CC08A70F-A717-5E43-8E47-EAC93913ADA3}"/>
-    <hyperlink ref="M157" r:id="rId53" xr:uid="{8153247A-F133-B041-8962-3757144D9557}"/>
-    <hyperlink ref="M80" r:id="rId54" xr:uid="{058B15D2-6A27-F240-AA63-559E1A3B4419}"/>
-    <hyperlink ref="M181" r:id="rId55" xr:uid="{9874B165-92B6-214B-9508-C7D1E7E14C5F}"/>
-    <hyperlink ref="M150" r:id="rId56" xr:uid="{7400759C-B811-9E4C-B8C6-A6AD036837CA}"/>
-    <hyperlink ref="M233" r:id="rId57" xr:uid="{A0400848-D667-CD40-9E00-78437E3D2408}"/>
-    <hyperlink ref="M92" r:id="rId58" xr:uid="{C0CE4574-0176-F944-8B9C-060A491F9147}"/>
-    <hyperlink ref="M108" r:id="rId59" xr:uid="{E64CD85F-9BE3-CC4B-AF66-D504C89A019A}"/>
-    <hyperlink ref="M218" r:id="rId60" xr:uid="{3C0A4CAF-3804-7143-9BAB-A056C35B593A}"/>
-    <hyperlink ref="M111" r:id="rId61" xr:uid="{6AABF66B-7E68-5546-A0FB-68790FB4F116}"/>
-    <hyperlink ref="M68" r:id="rId62" xr:uid="{653C328D-C6FA-BE47-9E3E-BB54BA777B4A}"/>
-    <hyperlink ref="M69" r:id="rId63" xr:uid="{1C0227FC-EAEC-CA42-BE6B-66FE5E2CC151}"/>
-    <hyperlink ref="M70" r:id="rId64" xr:uid="{B6982694-8628-4846-9539-702FADC7B3FE}"/>
-    <hyperlink ref="M95" r:id="rId65" xr:uid="{6786D323-6843-A743-814D-186BE665CB91}"/>
-    <hyperlink ref="M96" r:id="rId66" xr:uid="{75E25F65-1A4A-8240-8337-3013BA746B22}"/>
-    <hyperlink ref="M97" r:id="rId67" xr:uid="{5F61FC60-40AD-F642-89A3-66FE6EFBDB0A}"/>
-    <hyperlink ref="M98" r:id="rId68" xr:uid="{F27682F5-E83D-B54C-8A79-ED847F57CB2C}"/>
-    <hyperlink ref="M123" r:id="rId69" xr:uid="{4173E3B6-18B3-EE4E-BE2A-10F6D2BE0498}"/>
-    <hyperlink ref="M72" r:id="rId70" xr:uid="{7B5A1534-74EC-C644-BF50-29EB3ECE8194}"/>
-    <hyperlink ref="M48" r:id="rId71" xr:uid="{03BC7C38-AFDA-F942-836A-FFB352410214}"/>
-    <hyperlink ref="M74" r:id="rId72" display="Twitter" xr:uid="{1446F8F9-81B5-3946-8882-73AE7333EEA8}"/>
-    <hyperlink ref="M126" r:id="rId73" xr:uid="{6F94BE16-6941-BC41-BDC5-BF0ACA001DE7}"/>
-    <hyperlink ref="M127" r:id="rId74" xr:uid="{294050D0-C464-D94E-BA28-2BB036B1B538}"/>
-    <hyperlink ref="M128" r:id="rId75" xr:uid="{8CB55EF4-0980-7B43-9051-28F7E5259994}"/>
-    <hyperlink ref="M129" r:id="rId76" xr:uid="{38D5DCA1-D2A1-9448-B5E7-B572EF84CB88}"/>
-    <hyperlink ref="M131" r:id="rId77" xr:uid="{E76EDD5E-318E-7444-8B5A-CED5A00DCA1F}"/>
-    <hyperlink ref="M133" r:id="rId78" xr:uid="{EB2F8AEE-709C-004A-8DE7-2DFBC99A143B}"/>
-    <hyperlink ref="M139" r:id="rId79" xr:uid="{429FFB01-48F8-F746-9DE9-E3A6AD72CAFC}"/>
-    <hyperlink ref="M146" r:id="rId80" xr:uid="{5AEFC1AC-A642-4942-824D-E2B1D3F358F0}"/>
-    <hyperlink ref="M75" r:id="rId81" xr:uid="{A30A9F9E-A0B7-4049-AF53-357A0FCB5830}"/>
-    <hyperlink ref="M76" r:id="rId82" xr:uid="{EA70BD7D-F68A-394E-80C7-9A810AD8FE0F}"/>
-    <hyperlink ref="M77" r:id="rId83" xr:uid="{FEDAFA69-DFB3-BB44-A80C-12595A523BE4}"/>
-    <hyperlink ref="M149" r:id="rId84" xr:uid="{786052F5-C810-FC4F-A458-CC08D809C213}"/>
-    <hyperlink ref="M151" r:id="rId85" xr:uid="{8CED7805-422E-F84A-B4F4-0094EFC170C9}"/>
-    <hyperlink ref="M152" r:id="rId86" xr:uid="{6D4BA0E7-690E-0347-9CD1-D77D17C7DCB4}"/>
-    <hyperlink ref="M153" r:id="rId87" xr:uid="{21E31C54-A295-F149-8EDD-8306670F90B9}"/>
-    <hyperlink ref="M54" r:id="rId88" xr:uid="{37A76876-1C6C-8D43-B583-6E901E0E6BAB}"/>
-    <hyperlink ref="M154" r:id="rId89" xr:uid="{1D32B755-C83A-DE48-817B-DE972F643650}"/>
-    <hyperlink ref="M99" r:id="rId90" xr:uid="{8F099F05-BEB3-8B46-88B3-8EEDC456D815}"/>
-    <hyperlink ref="M214" r:id="rId91" xr:uid="{CE470DBD-CCDA-D248-82DA-0F714F90989C}"/>
-    <hyperlink ref="M222" r:id="rId92" xr:uid="{05D72DA3-D314-9448-83A3-D080DCBD5F75}"/>
-    <hyperlink ref="M195" r:id="rId93" xr:uid="{FA8C2264-767D-B24E-9E67-5795A33D20E9}"/>
-    <hyperlink ref="M207" r:id="rId94" xr:uid="{78653EA5-90FF-4544-A8D5-029E69419F7D}"/>
-    <hyperlink ref="M213" r:id="rId95" xr:uid="{E4086A23-5346-6440-8918-933025A927CB}"/>
-    <hyperlink ref="M208" r:id="rId96" xr:uid="{B3EDE865-43B6-DD4B-9D3D-BCCD9AF904ED}"/>
-    <hyperlink ref="M205" r:id="rId97" xr:uid="{AEE6509F-1FD4-B24E-9EC8-F323CC53D2BF}"/>
-    <hyperlink ref="M105" r:id="rId98" xr:uid="{78A9A6F4-D8EA-9646-8A06-E3D913014150}"/>
-    <hyperlink ref="M102" r:id="rId99" xr:uid="{4808757E-A77C-AF4D-8102-6952E635DB9E}"/>
-    <hyperlink ref="M101" r:id="rId100" xr:uid="{1E1EC8D2-B583-DF44-B97C-4934F33725A7}"/>
-    <hyperlink ref="M103" r:id="rId101" xr:uid="{0FC99021-3EDB-FC42-9B65-93C131C14491}"/>
-    <hyperlink ref="M104" r:id="rId102" xr:uid="{1F4284F5-559F-C64E-9E45-B59B5D781F19}"/>
-    <hyperlink ref="M106" r:id="rId103" xr:uid="{149B914B-ECC7-2F44-9C1A-81BEE614A7C1}"/>
-    <hyperlink ref="M107" r:id="rId104" xr:uid="{BDFC98B3-397C-B74E-942A-B8EBB21711F9}"/>
-    <hyperlink ref="M191" r:id="rId105" xr:uid="{44B24A61-1CB9-4347-99D3-0505F057AAD4}"/>
-    <hyperlink ref="M204" r:id="rId106" xr:uid="{FE8128FA-5CF0-0D41-A7C0-46F741DA59B4}"/>
-    <hyperlink ref="M196" r:id="rId107" xr:uid="{CAD5594E-A27A-154B-B415-B130A8F7CE07}"/>
-    <hyperlink ref="M209" r:id="rId108" xr:uid="{A4FF3F21-9E3D-B447-AAFA-22F9043DDA5D}"/>
-    <hyperlink ref="M206" r:id="rId109" xr:uid="{DB73CEB3-3FEB-7F46-85A3-3938951F37B8}"/>
-    <hyperlink ref="M220" r:id="rId110" xr:uid="{C23341DE-533B-E140-8F6C-D676716DE999}"/>
-    <hyperlink ref="M194" r:id="rId111" xr:uid="{A142D7E3-9B0F-4D41-BF03-B7DCF18FD5A6}"/>
-    <hyperlink ref="M66" r:id="rId112" xr:uid="{045C56B0-A424-AD4B-B22F-7825ED6CB96D}"/>
-    <hyperlink ref="M235" r:id="rId113" xr:uid="{D092D972-E3B1-4140-8375-95BE3C9F3EFE}"/>
-    <hyperlink ref="M245" r:id="rId114" xr:uid="{EEDA047C-354C-FF44-87E3-87C73923418A}"/>
-    <hyperlink ref="M120" r:id="rId115" xr:uid="{25AA9D20-D18A-4B41-9D0A-A019A153851B}"/>
-    <hyperlink ref="M121" r:id="rId116" xr:uid="{34BCCBFD-EFF6-3141-B6F5-01363288E46A}"/>
-    <hyperlink ref="M122" r:id="rId117" xr:uid="{0A07A660-A511-8A48-96F6-2AF2A4FCE17B}"/>
-    <hyperlink ref="M134" r:id="rId118" xr:uid="{43EB58A6-B0F0-7140-8FAF-4BE289791BDB}"/>
-    <hyperlink ref="M135" r:id="rId119" xr:uid="{D9038633-5F30-A243-A01B-F6D882372CEC}"/>
-    <hyperlink ref="M136" r:id="rId120" xr:uid="{95BD3E50-FB6B-A14B-9A87-B409CF912C2C}"/>
-    <hyperlink ref="M137" r:id="rId121" xr:uid="{5B391E3A-2175-DA4C-95AE-4B8B239A8A3A}"/>
-    <hyperlink ref="M138" r:id="rId122" xr:uid="{9FF2AAA1-90A9-674B-9E47-D3829FFBE2AB}"/>
-    <hyperlink ref="M140" r:id="rId123" xr:uid="{8D59555B-9D83-E641-BB46-630401BA6CE7}"/>
-    <hyperlink ref="M141" r:id="rId124" xr:uid="{6818F469-A896-EE47-86EA-7CEB5B68BCA3}"/>
-    <hyperlink ref="M142" r:id="rId125" xr:uid="{BB101638-800D-F44C-B944-5D59A141D333}"/>
-    <hyperlink ref="M143" r:id="rId126" xr:uid="{1EDA595A-591F-2B47-ACE5-3BD72E829B35}"/>
-    <hyperlink ref="M144" r:id="rId127" xr:uid="{8707D7A0-DF19-AB40-99EB-982FD252BD77}"/>
-    <hyperlink ref="M145" r:id="rId128" xr:uid="{B49AC525-00AE-0842-A83F-96FDA814EF59}"/>
-    <hyperlink ref="M78" r:id="rId129" xr:uid="{CE90970E-8EE0-6B4E-916E-9C9E8DE847A8}"/>
-    <hyperlink ref="M79" r:id="rId130" xr:uid="{48905F47-687C-EB46-8C06-E40F411ABB5C}"/>
-    <hyperlink ref="M52" r:id="rId131" xr:uid="{1761F92D-50D3-3743-89BD-5D06E62BBFB6}"/>
-    <hyperlink ref="M53" r:id="rId132" xr:uid="{C9968383-C3CE-5144-99DB-7797BB593DDE}"/>
-    <hyperlink ref="M155" r:id="rId133" xr:uid="{5FB3A2FF-A7FE-8B4C-BDE2-FE5682511476}"/>
-    <hyperlink ref="M156" r:id="rId134" xr:uid="{946E2692-2B7D-6C4A-9C9F-787D04506ECE}"/>
-    <hyperlink ref="M158" r:id="rId135" xr:uid="{805CD766-243F-B240-B093-06536E655817}"/>
-    <hyperlink ref="M159" r:id="rId136" xr:uid="{E4FBCDA2-87FD-E945-9CB9-1AD98B942B95}"/>
-    <hyperlink ref="M161" r:id="rId137" xr:uid="{24075B69-0DFF-294A-938C-9B30A0987122}"/>
-    <hyperlink ref="M162" r:id="rId138" xr:uid="{B15BF43A-5F15-814E-B897-670959531B3E}"/>
-    <hyperlink ref="M81" r:id="rId139" xr:uid="{08694A46-113C-9549-9784-04A13D06B3C1}"/>
-    <hyperlink ref="M86" r:id="rId140" xr:uid="{1836BB31-553B-DD40-85C5-9099649CE5A1}"/>
-    <hyperlink ref="M85" r:id="rId141" xr:uid="{4B6B39DD-2D84-FD4D-AD42-F85F439CA29B}"/>
-    <hyperlink ref="M84" r:id="rId142" xr:uid="{3BD0C89B-F99A-A54F-A144-B0A1B7CAB149}"/>
-    <hyperlink ref="M82" r:id="rId143" xr:uid="{80C1D19F-F1E2-FC4D-A18F-70518B1CBFFA}"/>
-    <hyperlink ref="M83" r:id="rId144" xr:uid="{2E4440E0-D07A-7642-BEA1-72776DA50C36}"/>
-    <hyperlink ref="M132" r:id="rId145" xr:uid="{8206A4EA-C466-5F4E-B49E-2C0FA4703E6F}"/>
-    <hyperlink ref="M163" r:id="rId146" xr:uid="{B1F5FC72-DAC6-FF49-B48D-81EB5BF15BFD}"/>
-    <hyperlink ref="M172" r:id="rId147" xr:uid="{D167BEA5-D45B-CA41-B4F6-76163925622D}"/>
-    <hyperlink ref="M173" r:id="rId148" xr:uid="{3A330AFD-1377-5944-B736-4634675447DE}"/>
-    <hyperlink ref="M174" r:id="rId149" xr:uid="{3476BF52-600B-0B4C-A6FF-57146EA8D62A}"/>
-    <hyperlink ref="M175" r:id="rId150" xr:uid="{F50C551A-3BE1-A54B-90BE-42B9CD45BEFE}"/>
-    <hyperlink ref="M178" r:id="rId151" xr:uid="{D1C7EAEE-E389-D549-BA6D-7DDDC8847410}"/>
-    <hyperlink ref="M177" r:id="rId152" xr:uid="{7302C45C-661C-AF4F-B0DF-3526BD3BEFA6}"/>
-    <hyperlink ref="M180" r:id="rId153" xr:uid="{A8013915-FAD6-E94B-B4AA-8830C0E1B1C4}"/>
-    <hyperlink ref="M182" r:id="rId154" xr:uid="{A599CA4F-49A5-A547-82C6-18C18517EF66}"/>
-    <hyperlink ref="M183" r:id="rId155" xr:uid="{23A2EB8F-414C-6A40-B61C-550E0384B84A}"/>
-    <hyperlink ref="M184" r:id="rId156" xr:uid="{E2408F5B-5943-B445-B9E4-EBA5E81A556C}"/>
-    <hyperlink ref="M186" r:id="rId157" xr:uid="{1E96C5C3-8A62-6B4F-BD59-38A73329B43A}"/>
-    <hyperlink ref="M187" r:id="rId158" xr:uid="{2BCE4C49-F382-1347-BF65-F02D569FE10C}"/>
-    <hyperlink ref="M189" r:id="rId159" xr:uid="{207BBD72-8B44-274E-AA5D-CB11F697B855}"/>
-    <hyperlink ref="M87" r:id="rId160" xr:uid="{7D45DEC7-0653-FD42-89A8-A25927113AB4}"/>
-    <hyperlink ref="M88" r:id="rId161" xr:uid="{D6C77E50-E5F5-C24C-AB05-774C491255BB}"/>
-    <hyperlink ref="M90" r:id="rId162" xr:uid="{E169FD4F-67F5-9341-8F82-A11B5E96539C}"/>
-    <hyperlink ref="M89" r:id="rId163" xr:uid="{032927EA-DDA7-AF4A-BE91-F6511D67DAF3}"/>
-    <hyperlink ref="M91" r:id="rId164" xr:uid="{71D0AC5C-148A-BF46-81DC-BE97B128C4E3}"/>
-    <hyperlink ref="M231" r:id="rId165" xr:uid="{4A00DA70-9D66-094B-917C-675B2EDCF48F}"/>
-    <hyperlink ref="M232" r:id="rId166" xr:uid="{F21D5C5E-B4FD-B740-ACC2-B6B05B700BF7}"/>
-    <hyperlink ref="M234" r:id="rId167" xr:uid="{596F335A-FD6C-7948-96A0-68149C037C23}"/>
-    <hyperlink ref="M219" r:id="rId168" xr:uid="{AB792AA3-A918-B54E-86E5-48834D59017F}"/>
-    <hyperlink ref="M94" r:id="rId169" xr:uid="{1B8A43D8-9FEE-B14D-ADC0-C35FB1FFA1D2}"/>
-    <hyperlink ref="M55" r:id="rId170" xr:uid="{35704627-FEB5-494E-9625-9FD85ECE20CE}"/>
-    <hyperlink ref="M165" r:id="rId171" xr:uid="{C3541F8C-80DD-EC41-81ED-84D804D4DF3E}"/>
-    <hyperlink ref="M166" r:id="rId172" xr:uid="{1F4C36B2-A1A8-0749-BAB5-CED2B3834BD3}"/>
-    <hyperlink ref="M170" r:id="rId173" xr:uid="{5347B466-90F3-3A42-855A-58DDD9AE464E}"/>
-    <hyperlink ref="M169" r:id="rId174" xr:uid="{C585C75E-6746-1C40-ABC1-CCD931279C0C}"/>
-    <hyperlink ref="M168" r:id="rId175" xr:uid="{C2D4F39B-6034-8A40-B3B5-1005B96A8109}"/>
-    <hyperlink ref="M167" r:id="rId176" xr:uid="{5265D5E7-37B8-F045-8353-A979BA94839C}"/>
-    <hyperlink ref="M164" r:id="rId177" xr:uid="{ADC9B98F-F064-024E-9431-144F2E5665A4}"/>
-    <hyperlink ref="M148" r:id="rId178" xr:uid="{F8C50251-F225-4443-8C4C-C07012864383}"/>
-    <hyperlink ref="M147" r:id="rId179" xr:uid="{8B0183BD-3FC3-6E43-94EB-08238A4F4B7D}"/>
-    <hyperlink ref="M60" r:id="rId180" xr:uid="{A3D0BBB7-0C2A-794B-91E9-E8288E72D0AC}"/>
-    <hyperlink ref="M47" r:id="rId181" xr:uid="{A0EB7984-F55C-1146-889A-1FF64D0683C6}"/>
-    <hyperlink ref="M49" r:id="rId182" xr:uid="{70A83B6B-9B27-284B-B535-C95D8D7155C3}"/>
-    <hyperlink ref="M65" r:id="rId183" xr:uid="{BC96FCE1-2592-2442-B798-0712FBE746B2}"/>
-    <hyperlink ref="M46" r:id="rId184" xr:uid="{09D09F0F-2E32-CB48-8641-16F0A8431B5B}"/>
-    <hyperlink ref="M59" r:id="rId185" xr:uid="{1CAF8626-07BE-8442-87B7-FE58A9DFE605}"/>
-    <hyperlink ref="M58" r:id="rId186" xr:uid="{5D1A25E4-01B1-9B47-AD71-12681DBF9531}"/>
-    <hyperlink ref="M223" r:id="rId187" xr:uid="{D92F81AD-E9AD-3F4F-8877-CA8C00B0E683}"/>
-    <hyperlink ref="M238" r:id="rId188" xr:uid="{C3357FDD-7C34-9841-8DDE-935CC0A7BFC4}"/>
-    <hyperlink ref="M192" r:id="rId189" xr:uid="{D1C65A36-1B3F-7345-A7DD-E48FFB1D4DE7}"/>
-    <hyperlink ref="M258" r:id="rId190" xr:uid="{8343CEAF-6E97-644B-A1F6-36BD90A6E9C1}"/>
-    <hyperlink ref="M262" r:id="rId191" xr:uid="{FCC643FA-E57C-D047-B548-2B93D7AA5550}"/>
-    <hyperlink ref="M224" r:id="rId192" xr:uid="{9A695397-EBD0-6048-93CC-03E0014B65E5}"/>
-    <hyperlink ref="M93" r:id="rId193" xr:uid="{5EE3DA6D-4AC5-C14C-89D4-05332DBFCB78}"/>
-    <hyperlink ref="M57" r:id="rId194" xr:uid="{821F0F7A-BE61-7742-B4C7-329E4169955D}"/>
-    <hyperlink ref="M225" r:id="rId195" xr:uid="{A157527D-B6D6-2A4B-9449-ABE025A873F7}"/>
-    <hyperlink ref="M215" r:id="rId196" xr:uid="{E9951DC5-8BFE-984D-A578-DF7F242A994A}"/>
-    <hyperlink ref="M67" r:id="rId197" xr:uid="{A28AFE34-BBA0-4ABC-8085-B308F155BD8C}"/>
-    <hyperlink ref="M200" r:id="rId198" xr:uid="{BE22F373-286A-1B4F-9066-3EE1B667E22C}"/>
+    <hyperlink ref="M117" r:id="rId2" xr:uid="{ECDB85BD-3D74-6D40-9FDC-9DA189A81FF8}"/>
+    <hyperlink ref="M118" r:id="rId3" xr:uid="{EBBBDA58-E0AB-E442-B785-DA389E60F964}"/>
+    <hyperlink ref="M113" r:id="rId4" xr:uid="{25A1E99B-8FE6-8E42-B1D6-42E667F17DFB}"/>
+    <hyperlink ref="M114" r:id="rId5" xr:uid="{80BCD533-CF42-6243-AF19-9132BFC49890}"/>
+    <hyperlink ref="M24" r:id="rId6" xr:uid="{E11305D0-7A15-8F40-BBD6-29D407A59A85}"/>
+    <hyperlink ref="M18" r:id="rId7" xr:uid="{C5D72966-3B2B-3B4A-BDA6-1F73C487581B}"/>
+    <hyperlink ref="M25" r:id="rId8" xr:uid="{3E0F536A-1186-7F46-BBEF-62932CA57FEF}"/>
+    <hyperlink ref="M20" r:id="rId9" xr:uid="{515F1AC8-508A-7F4C-9F4D-1645AB2ED545}"/>
+    <hyperlink ref="M19" r:id="rId10" xr:uid="{E5C74330-4C67-574B-BE2B-858F9D0BDE7E}"/>
+    <hyperlink ref="M23" r:id="rId11" xr:uid="{C8D90150-5546-5A46-AAB1-5BE42F2603AA}"/>
+    <hyperlink ref="M8" r:id="rId12" xr:uid="{7DBC4CFD-0B9D-FC44-9F56-B2F2EBD00BE1}"/>
+    <hyperlink ref="M13" r:id="rId13" xr:uid="{E1EEF5DE-2C3E-0A4A-9E6E-5BF6E4153665}"/>
+    <hyperlink ref="M9" r:id="rId14" xr:uid="{4E4EFE43-6386-4845-A9D8-5908DF98C6A0}"/>
+    <hyperlink ref="M26" r:id="rId15" xr:uid="{9D49B9D4-080A-FB4E-B1AE-E6DEB07F9810}"/>
+    <hyperlink ref="M10" r:id="rId16" xr:uid="{88D81009-0302-9645-9520-B9B6AE5E2990}"/>
+    <hyperlink ref="M12" r:id="rId17" xr:uid="{915F6156-DBA6-CF42-9B2D-26C7FE42EDEA}"/>
+    <hyperlink ref="M28" r:id="rId18" xr:uid="{520D71B1-B964-3348-A709-6501D846BD62}"/>
+    <hyperlink ref="M22" r:id="rId19" xr:uid="{4541C760-D0D2-ED4C-ACAB-DFDDE83D57FD}"/>
+    <hyperlink ref="M11" r:id="rId20" xr:uid="{D0E33CC2-C339-B94D-A96C-1948C9C209C9}"/>
+    <hyperlink ref="M27" r:id="rId21" xr:uid="{E3EB0079-6686-2D48-86FF-9001902116AF}"/>
+    <hyperlink ref="M7" r:id="rId22" xr:uid="{25F18012-A146-3141-9889-6944423F913B}"/>
+    <hyperlink ref="M21" r:id="rId23" xr:uid="{6280B8FA-7812-DD49-8645-E788C18D5567}"/>
+    <hyperlink ref="M6" r:id="rId24" xr:uid="{F328CAF1-7329-CF4A-8A31-EEE43189D0B3}"/>
+    <hyperlink ref="M226" r:id="rId25" xr:uid="{04CAAAEB-EB94-A141-8A95-D04005C206DA}"/>
+    <hyperlink ref="M100" r:id="rId26" xr:uid="{B70BBFF8-90AF-7E4E-A9B8-0ED9C71C5260}"/>
+    <hyperlink ref="M171" r:id="rId27" xr:uid="{30E1DA05-059D-9347-B411-3EFED989712F}"/>
+    <hyperlink ref="M125" r:id="rId28" xr:uid="{040E25F1-9071-A34B-96D0-9358277A9602}"/>
+    <hyperlink ref="M110" r:id="rId29" xr:uid="{E5737C51-CA44-6444-AEF3-696CFD100819}"/>
+    <hyperlink ref="M229" r:id="rId30" xr:uid="{A63644E5-9A9B-4C48-8135-6ECE65E45218}"/>
+    <hyperlink ref="M228" r:id="rId31" xr:uid="{1A67B714-807C-4F46-82F0-4CFFA07B63AB}"/>
+    <hyperlink ref="M230" r:id="rId32" xr:uid="{0A1958E1-F046-474B-9926-F831AC3BD444}"/>
+    <hyperlink ref="M190" r:id="rId33" xr:uid="{59527AAC-FB55-C14B-88ED-3C9DF709DE99}"/>
+    <hyperlink ref="M227" r:id="rId34" xr:uid="{3CF710CA-59F9-AB4B-A036-72AFA0C7FAF7}"/>
+    <hyperlink ref="M112" r:id="rId35" xr:uid="{F74B2F26-F6F5-A944-8909-B402AF7E3445}"/>
+    <hyperlink ref="M179" r:id="rId36" xr:uid="{F074FE5F-2F8F-9843-80D2-9E553C6F89E9}"/>
+    <hyperlink ref="M185" r:id="rId37" xr:uid="{CEE68E11-A4C8-DB41-911B-76CBCC09A2E0}"/>
+    <hyperlink ref="M251" r:id="rId38" xr:uid="{E5486846-BD50-0748-B727-39A5652EE90C}"/>
+    <hyperlink ref="M119" r:id="rId39" xr:uid="{5D82704D-B97E-7640-B5A4-95E4332C13B4}"/>
+    <hyperlink ref="M160" r:id="rId40" xr:uid="{98B95C62-9C57-364E-BFBF-0068C03978E7}"/>
+    <hyperlink ref="M130" r:id="rId41" xr:uid="{6F0E097A-A4C9-D34B-BB29-5E2CED192633}"/>
+    <hyperlink ref="M176" r:id="rId42" xr:uid="{20E8AE30-8FB4-214C-A688-460F477526A3}"/>
+    <hyperlink ref="M243" r:id="rId43" xr:uid="{DD082D79-B8A8-7B41-B914-6D6EDA8260C7}"/>
+    <hyperlink ref="M199" r:id="rId44" xr:uid="{9DA55AA2-200B-5B4C-B67A-560F4D39BBF0}"/>
+    <hyperlink ref="M188" r:id="rId45" xr:uid="{5AB05EFC-983D-8C4C-A8A1-C6313EEAA8BB}"/>
+    <hyperlink ref="M260" r:id="rId46" xr:uid="{CC08A70F-A717-5E43-8E47-EAC93913ADA3}"/>
+    <hyperlink ref="M157" r:id="rId47" xr:uid="{8153247A-F133-B041-8962-3757144D9557}"/>
+    <hyperlink ref="M80" r:id="rId48" xr:uid="{058B15D2-6A27-F240-AA63-559E1A3B4419}"/>
+    <hyperlink ref="M181" r:id="rId49" xr:uid="{9874B165-92B6-214B-9508-C7D1E7E14C5F}"/>
+    <hyperlink ref="M150" r:id="rId50" xr:uid="{7400759C-B811-9E4C-B8C6-A6AD036837CA}"/>
+    <hyperlink ref="M233" r:id="rId51" xr:uid="{A0400848-D667-CD40-9E00-78437E3D2408}"/>
+    <hyperlink ref="M92" r:id="rId52" xr:uid="{C0CE4574-0176-F944-8B9C-060A491F9147}"/>
+    <hyperlink ref="M108" r:id="rId53" xr:uid="{E64CD85F-9BE3-CC4B-AF66-D504C89A019A}"/>
+    <hyperlink ref="M218" r:id="rId54" xr:uid="{3C0A4CAF-3804-7143-9BAB-A056C35B593A}"/>
+    <hyperlink ref="M111" r:id="rId55" xr:uid="{6AABF66B-7E68-5546-A0FB-68790FB4F116}"/>
+    <hyperlink ref="M69" r:id="rId56" xr:uid="{1C0227FC-EAEC-CA42-BE6B-66FE5E2CC151}"/>
+    <hyperlink ref="M70" r:id="rId57" xr:uid="{B6982694-8628-4846-9539-702FADC7B3FE}"/>
+    <hyperlink ref="M96" r:id="rId58" xr:uid="{75E25F65-1A4A-8240-8337-3013BA746B22}"/>
+    <hyperlink ref="M98" r:id="rId59" xr:uid="{F27682F5-E83D-B54C-8A79-ED847F57CB2C}"/>
+    <hyperlink ref="M123" r:id="rId60" xr:uid="{4173E3B6-18B3-EE4E-BE2A-10F6D2BE0498}"/>
+    <hyperlink ref="M72" r:id="rId61" xr:uid="{7B5A1534-74EC-C644-BF50-29EB3ECE8194}"/>
+    <hyperlink ref="M48" r:id="rId62" xr:uid="{03BC7C38-AFDA-F942-836A-FFB352410214}"/>
+    <hyperlink ref="M74" r:id="rId63" display="Twitter" xr:uid="{1446F8F9-81B5-3946-8882-73AE7333EEA8}"/>
+    <hyperlink ref="M126" r:id="rId64" xr:uid="{6F94BE16-6941-BC41-BDC5-BF0ACA001DE7}"/>
+    <hyperlink ref="M127" r:id="rId65" xr:uid="{294050D0-C464-D94E-BA28-2BB036B1B538}"/>
+    <hyperlink ref="M128" r:id="rId66" xr:uid="{8CB55EF4-0980-7B43-9051-28F7E5259994}"/>
+    <hyperlink ref="M129" r:id="rId67" xr:uid="{38D5DCA1-D2A1-9448-B5E7-B572EF84CB88}"/>
+    <hyperlink ref="M131" r:id="rId68" xr:uid="{E76EDD5E-318E-7444-8B5A-CED5A00DCA1F}"/>
+    <hyperlink ref="M133" r:id="rId69" xr:uid="{EB2F8AEE-709C-004A-8DE7-2DFBC99A143B}"/>
+    <hyperlink ref="M139" r:id="rId70" xr:uid="{429FFB01-48F8-F746-9DE9-E3A6AD72CAFC}"/>
+    <hyperlink ref="M146" r:id="rId71" xr:uid="{5AEFC1AC-A642-4942-824D-E2B1D3F358F0}"/>
+    <hyperlink ref="M75" r:id="rId72" xr:uid="{A30A9F9E-A0B7-4049-AF53-357A0FCB5830}"/>
+    <hyperlink ref="M76" r:id="rId73" xr:uid="{EA70BD7D-F68A-394E-80C7-9A810AD8FE0F}"/>
+    <hyperlink ref="M77" r:id="rId74" xr:uid="{FEDAFA69-DFB3-BB44-A80C-12595A523BE4}"/>
+    <hyperlink ref="M149" r:id="rId75" xr:uid="{786052F5-C810-FC4F-A458-CC08D809C213}"/>
+    <hyperlink ref="M151" r:id="rId76" xr:uid="{8CED7805-422E-F84A-B4F4-0094EFC170C9}"/>
+    <hyperlink ref="M152" r:id="rId77" xr:uid="{6D4BA0E7-690E-0347-9CD1-D77D17C7DCB4}"/>
+    <hyperlink ref="M153" r:id="rId78" xr:uid="{21E31C54-A295-F149-8EDD-8306670F90B9}"/>
+    <hyperlink ref="M54" r:id="rId79" xr:uid="{37A76876-1C6C-8D43-B583-6E901E0E6BAB}"/>
+    <hyperlink ref="M154" r:id="rId80" xr:uid="{1D32B755-C83A-DE48-817B-DE972F643650}"/>
+    <hyperlink ref="M99" r:id="rId81" xr:uid="{8F099F05-BEB3-8B46-88B3-8EEDC456D815}"/>
+    <hyperlink ref="M214" r:id="rId82" xr:uid="{CE470DBD-CCDA-D248-82DA-0F714F90989C}"/>
+    <hyperlink ref="M222" r:id="rId83" xr:uid="{05D72DA3-D314-9448-83A3-D080DCBD5F75}"/>
+    <hyperlink ref="M195" r:id="rId84" xr:uid="{FA8C2264-767D-B24E-9E67-5795A33D20E9}"/>
+    <hyperlink ref="M213" r:id="rId85" xr:uid="{E4086A23-5346-6440-8918-933025A927CB}"/>
+    <hyperlink ref="M208" r:id="rId86" xr:uid="{B3EDE865-43B6-DD4B-9D3D-BCCD9AF904ED}"/>
+    <hyperlink ref="M205" r:id="rId87" xr:uid="{AEE6509F-1FD4-B24E-9EC8-F323CC53D2BF}"/>
+    <hyperlink ref="M102" r:id="rId88" xr:uid="{4808757E-A77C-AF4D-8102-6952E635DB9E}"/>
+    <hyperlink ref="M101" r:id="rId89" xr:uid="{1E1EC8D2-B583-DF44-B97C-4934F33725A7}"/>
+    <hyperlink ref="M107" r:id="rId90" xr:uid="{BDFC98B3-397C-B74E-942A-B8EBB21711F9}"/>
+    <hyperlink ref="M191" r:id="rId91" xr:uid="{44B24A61-1CB9-4347-99D3-0505F057AAD4}"/>
+    <hyperlink ref="M204" r:id="rId92" xr:uid="{FE8128FA-5CF0-0D41-A7C0-46F741DA59B4}"/>
+    <hyperlink ref="M196" r:id="rId93" xr:uid="{CAD5594E-A27A-154B-B415-B130A8F7CE07}"/>
+    <hyperlink ref="M209" r:id="rId94" xr:uid="{A4FF3F21-9E3D-B447-AAFA-22F9043DDA5D}"/>
+    <hyperlink ref="M206" r:id="rId95" xr:uid="{DB73CEB3-3FEB-7F46-85A3-3938951F37B8}"/>
+    <hyperlink ref="M66" r:id="rId96" xr:uid="{045C56B0-A424-AD4B-B22F-7825ED6CB96D}"/>
+    <hyperlink ref="M235" r:id="rId97" xr:uid="{D092D972-E3B1-4140-8375-95BE3C9F3EFE}"/>
+    <hyperlink ref="M245" r:id="rId98" xr:uid="{EEDA047C-354C-FF44-87E3-87C73923418A}"/>
+    <hyperlink ref="M120" r:id="rId99" xr:uid="{25AA9D20-D18A-4B41-9D0A-A019A153851B}"/>
+    <hyperlink ref="M121" r:id="rId100" xr:uid="{34BCCBFD-EFF6-3141-B6F5-01363288E46A}"/>
+    <hyperlink ref="M122" r:id="rId101" xr:uid="{0A07A660-A511-8A48-96F6-2AF2A4FCE17B}"/>
+    <hyperlink ref="M134" r:id="rId102" xr:uid="{43EB58A6-B0F0-7140-8FAF-4BE289791BDB}"/>
+    <hyperlink ref="M135" r:id="rId103" xr:uid="{D9038633-5F30-A243-A01B-F6D882372CEC}"/>
+    <hyperlink ref="M136" r:id="rId104" xr:uid="{95BD3E50-FB6B-A14B-9A87-B409CF912C2C}"/>
+    <hyperlink ref="M137" r:id="rId105" xr:uid="{5B391E3A-2175-DA4C-95AE-4B8B239A8A3A}"/>
+    <hyperlink ref="M138" r:id="rId106" xr:uid="{9FF2AAA1-90A9-674B-9E47-D3829FFBE2AB}"/>
+    <hyperlink ref="M140" r:id="rId107" xr:uid="{8D59555B-9D83-E641-BB46-630401BA6CE7}"/>
+    <hyperlink ref="M141" r:id="rId108" xr:uid="{6818F469-A896-EE47-86EA-7CEB5B68BCA3}"/>
+    <hyperlink ref="M142" r:id="rId109" xr:uid="{BB101638-800D-F44C-B944-5D59A141D333}"/>
+    <hyperlink ref="M143" r:id="rId110" xr:uid="{1EDA595A-591F-2B47-ACE5-3BD72E829B35}"/>
+    <hyperlink ref="M144" r:id="rId111" xr:uid="{8707D7A0-DF19-AB40-99EB-982FD252BD77}"/>
+    <hyperlink ref="M145" r:id="rId112" xr:uid="{B49AC525-00AE-0842-A83F-96FDA814EF59}"/>
+    <hyperlink ref="M78" r:id="rId113" xr:uid="{CE90970E-8EE0-6B4E-916E-9C9E8DE847A8}"/>
+    <hyperlink ref="M79" r:id="rId114" xr:uid="{48905F47-687C-EB46-8C06-E40F411ABB5C}"/>
+    <hyperlink ref="M52" r:id="rId115" xr:uid="{1761F92D-50D3-3743-89BD-5D06E62BBFB6}"/>
+    <hyperlink ref="M53" r:id="rId116" xr:uid="{C9968383-C3CE-5144-99DB-7797BB593DDE}"/>
+    <hyperlink ref="M155" r:id="rId117" xr:uid="{5FB3A2FF-A7FE-8B4C-BDE2-FE5682511476}"/>
+    <hyperlink ref="M156" r:id="rId118" xr:uid="{946E2692-2B7D-6C4A-9C9F-787D04506ECE}"/>
+    <hyperlink ref="M158" r:id="rId119" xr:uid="{805CD766-243F-B240-B093-06536E655817}"/>
+    <hyperlink ref="M159" r:id="rId120" xr:uid="{E4FBCDA2-87FD-E945-9CB9-1AD98B942B95}"/>
+    <hyperlink ref="M161" r:id="rId121" xr:uid="{24075B69-0DFF-294A-938C-9B30A0987122}"/>
+    <hyperlink ref="M162" r:id="rId122" xr:uid="{B15BF43A-5F15-814E-B897-670959531B3E}"/>
+    <hyperlink ref="M81" r:id="rId123" xr:uid="{08694A46-113C-9549-9784-04A13D06B3C1}"/>
+    <hyperlink ref="M86" r:id="rId124" xr:uid="{1836BB31-553B-DD40-85C5-9099649CE5A1}"/>
+    <hyperlink ref="M85" r:id="rId125" xr:uid="{4B6B39DD-2D84-FD4D-AD42-F85F439CA29B}"/>
+    <hyperlink ref="M84" r:id="rId126" xr:uid="{3BD0C89B-F99A-A54F-A144-B0A1B7CAB149}"/>
+    <hyperlink ref="M82" r:id="rId127" xr:uid="{80C1D19F-F1E2-FC4D-A18F-70518B1CBFFA}"/>
+    <hyperlink ref="M83" r:id="rId128" xr:uid="{2E4440E0-D07A-7642-BEA1-72776DA50C36}"/>
+    <hyperlink ref="M132" r:id="rId129" xr:uid="{8206A4EA-C466-5F4E-B49E-2C0FA4703E6F}"/>
+    <hyperlink ref="M163" r:id="rId130" xr:uid="{B1F5FC72-DAC6-FF49-B48D-81EB5BF15BFD}"/>
+    <hyperlink ref="M172" r:id="rId131" xr:uid="{D167BEA5-D45B-CA41-B4F6-76163925622D}"/>
+    <hyperlink ref="M173" r:id="rId132" xr:uid="{3A330AFD-1377-5944-B736-4634675447DE}"/>
+    <hyperlink ref="M174" r:id="rId133" xr:uid="{3476BF52-600B-0B4C-A6FF-57146EA8D62A}"/>
+    <hyperlink ref="M175" r:id="rId134" xr:uid="{F50C551A-3BE1-A54B-90BE-42B9CD45BEFE}"/>
+    <hyperlink ref="M178" r:id="rId135" xr:uid="{D1C7EAEE-E389-D549-BA6D-7DDDC8847410}"/>
+    <hyperlink ref="M177" r:id="rId136" xr:uid="{7302C45C-661C-AF4F-B0DF-3526BD3BEFA6}"/>
+    <hyperlink ref="M180" r:id="rId137" xr:uid="{A8013915-FAD6-E94B-B4AA-8830C0E1B1C4}"/>
+    <hyperlink ref="M182" r:id="rId138" xr:uid="{A599CA4F-49A5-A547-82C6-18C18517EF66}"/>
+    <hyperlink ref="M183" r:id="rId139" xr:uid="{23A2EB8F-414C-6A40-B61C-550E0384B84A}"/>
+    <hyperlink ref="M184" r:id="rId140" xr:uid="{E2408F5B-5943-B445-B9E4-EBA5E81A556C}"/>
+    <hyperlink ref="M186" r:id="rId141" xr:uid="{1E96C5C3-8A62-6B4F-BD59-38A73329B43A}"/>
+    <hyperlink ref="M187" r:id="rId142" xr:uid="{2BCE4C49-F382-1347-BF65-F02D569FE10C}"/>
+    <hyperlink ref="M189" r:id="rId143" xr:uid="{207BBD72-8B44-274E-AA5D-CB11F697B855}"/>
+    <hyperlink ref="M87" r:id="rId144" xr:uid="{7D45DEC7-0653-FD42-89A8-A25927113AB4}"/>
+    <hyperlink ref="M88" r:id="rId145" xr:uid="{D6C77E50-E5F5-C24C-AB05-774C491255BB}"/>
+    <hyperlink ref="M90" r:id="rId146" xr:uid="{E169FD4F-67F5-9341-8F82-A11B5E96539C}"/>
+    <hyperlink ref="M89" r:id="rId147" xr:uid="{032927EA-DDA7-AF4A-BE91-F6511D67DAF3}"/>
+    <hyperlink ref="M91" r:id="rId148" xr:uid="{71D0AC5C-148A-BF46-81DC-BE97B128C4E3}"/>
+    <hyperlink ref="M231" r:id="rId149" xr:uid="{4A00DA70-9D66-094B-917C-675B2EDCF48F}"/>
+    <hyperlink ref="M232" r:id="rId150" xr:uid="{F21D5C5E-B4FD-B740-ACC2-B6B05B700BF7}"/>
+    <hyperlink ref="M234" r:id="rId151" xr:uid="{596F335A-FD6C-7948-96A0-68149C037C23}"/>
+    <hyperlink ref="M219" r:id="rId152" xr:uid="{AB792AA3-A918-B54E-86E5-48834D59017F}"/>
+    <hyperlink ref="M94" r:id="rId153" xr:uid="{1B8A43D8-9FEE-B14D-ADC0-C35FB1FFA1D2}"/>
+    <hyperlink ref="M55" r:id="rId154" xr:uid="{35704627-FEB5-494E-9625-9FD85ECE20CE}"/>
+    <hyperlink ref="M165" r:id="rId155" xr:uid="{C3541F8C-80DD-EC41-81ED-84D804D4DF3E}"/>
+    <hyperlink ref="M166" r:id="rId156" xr:uid="{1F4C36B2-A1A8-0749-BAB5-CED2B3834BD3}"/>
+    <hyperlink ref="M170" r:id="rId157" xr:uid="{5347B466-90F3-3A42-855A-58DDD9AE464E}"/>
+    <hyperlink ref="M169" r:id="rId158" xr:uid="{C585C75E-6746-1C40-ABC1-CCD931279C0C}"/>
+    <hyperlink ref="M168" r:id="rId159" xr:uid="{C2D4F39B-6034-8A40-B3B5-1005B96A8109}"/>
+    <hyperlink ref="M167" r:id="rId160" xr:uid="{5265D5E7-37B8-F045-8353-A979BA94839C}"/>
+    <hyperlink ref="M164" r:id="rId161" xr:uid="{ADC9B98F-F064-024E-9431-144F2E5665A4}"/>
+    <hyperlink ref="M148" r:id="rId162" xr:uid="{F8C50251-F225-4443-8C4C-C07012864383}"/>
+    <hyperlink ref="M147" r:id="rId163" xr:uid="{8B0183BD-3FC3-6E43-94EB-08238A4F4B7D}"/>
+    <hyperlink ref="M60" r:id="rId164" xr:uid="{A3D0BBB7-0C2A-794B-91E9-E8288E72D0AC}"/>
+    <hyperlink ref="M47" r:id="rId165" xr:uid="{A0EB7984-F55C-1146-889A-1FF64D0683C6}"/>
+    <hyperlink ref="M49" r:id="rId166" xr:uid="{70A83B6B-9B27-284B-B535-C95D8D7155C3}"/>
+    <hyperlink ref="M65" r:id="rId167" xr:uid="{BC96FCE1-2592-2442-B798-0712FBE746B2}"/>
+    <hyperlink ref="M46" r:id="rId168" xr:uid="{09D09F0F-2E32-CB48-8641-16F0A8431B5B}"/>
+    <hyperlink ref="M59" r:id="rId169" xr:uid="{1CAF8626-07BE-8442-87B7-FE58A9DFE605}"/>
+    <hyperlink ref="M58" r:id="rId170" xr:uid="{5D1A25E4-01B1-9B47-AD71-12681DBF9531}"/>
+    <hyperlink ref="M223" r:id="rId171" xr:uid="{D92F81AD-E9AD-3F4F-8877-CA8C00B0E683}"/>
+    <hyperlink ref="M238" r:id="rId172" xr:uid="{C3357FDD-7C34-9841-8DDE-935CC0A7BFC4}"/>
+    <hyperlink ref="M192" r:id="rId173" xr:uid="{D1C65A36-1B3F-7345-A7DD-E48FFB1D4DE7}"/>
+    <hyperlink ref="M258" r:id="rId174" xr:uid="{8343CEAF-6E97-644B-A1F6-36BD90A6E9C1}"/>
+    <hyperlink ref="M262" r:id="rId175" xr:uid="{FCC643FA-E57C-D047-B548-2B93D7AA5550}"/>
+    <hyperlink ref="M224" r:id="rId176" xr:uid="{9A695397-EBD0-6048-93CC-03E0014B65E5}"/>
+    <hyperlink ref="M93" r:id="rId177" xr:uid="{5EE3DA6D-4AC5-C14C-89D4-05332DBFCB78}"/>
+    <hyperlink ref="M57" r:id="rId178" xr:uid="{821F0F7A-BE61-7742-B4C7-329E4169955D}"/>
+    <hyperlink ref="M225" r:id="rId179" xr:uid="{A157527D-B6D6-2A4B-9449-ABE025A873F7}"/>
+    <hyperlink ref="M215" r:id="rId180" xr:uid="{E9951DC5-8BFE-984D-A578-DF7F242A994A}"/>
+    <hyperlink ref="M200" r:id="rId181" xr:uid="{BE22F373-286A-1B4F-9066-3EE1B667E22C}"/>
+    <hyperlink ref="M67" r:id="rId182" xr:uid="{A5533AE1-8B5B-44D9-9D53-9267D5905927}"/>
+    <hyperlink ref="M193" r:id="rId183" xr:uid="{6B02A1BF-D5A1-4CB0-8B57-2390898A8710}"/>
+    <hyperlink ref="M197" r:id="rId184" xr:uid="{14B6608F-AE7D-4EB6-B4F7-59AB9696E0D4}"/>
+    <hyperlink ref="M210" r:id="rId185" xr:uid="{6A03713B-5F2E-4A79-AD50-CF2F445AAEDD}"/>
+    <hyperlink ref="M221" r:id="rId186" xr:uid="{5A33DEA5-8EEB-4336-BACA-DAEC6BE49CCC}"/>
+    <hyperlink ref="M246" r:id="rId187" xr:uid="{3644EC82-FA7D-4D68-85E5-A6F6B689E26F}"/>
+    <hyperlink ref="M253" r:id="rId188" xr:uid="{C42460ED-F5B4-43B4-9D45-C8DD8236FF20}"/>
+    <hyperlink ref="M256" r:id="rId189" xr:uid="{8C73F97C-B70F-4BF7-941F-584589AB7EB3}"/>
+    <hyperlink ref="M263" r:id="rId190" xr:uid="{5883F655-0F18-468B-BD66-51C8B0C13C3B}"/>
+    <hyperlink ref="M71" r:id="rId191" xr:uid="{7DEC1022-F0CB-4489-89BD-F4B670DD6CDA}"/>
+    <hyperlink ref="M95" r:id="rId192" xr:uid="{3E281849-8664-4815-8F96-B7AC487C66A3}"/>
+    <hyperlink ref="M97" r:id="rId193" xr:uid="{B0B60D25-B532-4E9F-BC20-B46379724E29}"/>
+    <hyperlink ref="M194" r:id="rId194" xr:uid="{42B6D93B-AE56-4A08-BB1D-13ADB1FD2871}"/>
+    <hyperlink ref="M68" r:id="rId195" xr:uid="{35A37479-EA72-46CF-ADCD-8DF520CE5BB4}"/>
+    <hyperlink ref="M103" r:id="rId196" xr:uid="{0FC99021-3EDB-FC42-9B65-93C131C14491}"/>
+    <hyperlink ref="M104" r:id="rId197" xr:uid="{464C304B-E085-4665-8BAB-31EBE5542413}"/>
+    <hyperlink ref="M105" r:id="rId198" xr:uid="{C31C9966-D26E-44A4-9778-9DE908941A1F}"/>
+    <hyperlink ref="M106" r:id="rId199" xr:uid="{96E0BBCB-2A81-494F-9F09-50B18A7232F6}"/>
+    <hyperlink ref="M220" r:id="rId200" xr:uid="{BE416F40-4BFE-4311-9693-569D5DE2A93F}"/>
+    <hyperlink ref="M207" r:id="rId201" xr:uid="{374AF96C-2A37-4CBD-AEA3-4E8452E44A7E}"/>
+    <hyperlink ref="M116" r:id="rId202" xr:uid="{BD9FA8EE-C9E6-42B5-9095-F291DE134E4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId199"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId203"/>
 </worksheet>
 </file>
--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/Tresquintos/Base de Datos (electoral)/endosos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FA4D8A-7C0E-CC46-92E6-4BDA872FF680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6AB56D-AF88-4FA1-A24D-BA7B836DFC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -1044,6 +1044,9 @@
   </si>
   <si>
     <t>Reflexión</t>
+  </si>
+  <si>
+    <t>Emol</t>
   </si>
 </sst>
 </file>
@@ -1425,27 +1428,27 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1524,7 +1527,7 @@
       <c r="L2" s="10"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1562,7 +1565,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1600,7 +1603,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1638,7 +1641,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2012,7 +2015,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2050,7 +2053,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2088,7 +2091,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2126,7 +2129,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2626,7 +2629,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2662,7 +2665,7 @@
       <c r="L30" s="10"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2698,7 +2701,7 @@
       <c r="L31" s="10"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2729,7 +2732,7 @@
       <c r="L32" s="10"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2760,7 +2763,7 @@
       <c r="L33" s="10"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2796,7 +2799,7 @@
       <c r="L34" s="10"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2827,7 +2830,7 @@
       <c r="L35" s="10"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="L36" s="10"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2899,7 +2902,7 @@
       <c r="L37" s="10"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2935,7 +2938,7 @@
       <c r="L38" s="10"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2966,7 +2969,7 @@
       <c r="L39" s="10"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3002,7 +3005,7 @@
       <c r="L40" s="10"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3038,7 +3041,7 @@
       <c r="L41" s="10"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3074,7 +3077,7 @@
       <c r="L42" s="10"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3110,7 +3113,7 @@
       <c r="L43" s="10"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3146,7 +3149,7 @@
       <c r="L44" s="10"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3182,7 +3185,7 @@
       <c r="L45" s="10"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3379,7 +3382,7 @@
       <c r="L50" s="10"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3415,7 +3418,7 @@
       <c r="L51" s="10"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3607,7 +3610,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3797,7 +3800,7 @@
       <c r="L61" s="10"/>
       <c r="M61"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3828,7 +3831,7 @@
       <c r="L62" s="10"/>
       <c r="M62"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3864,7 +3867,7 @@
       <c r="L63" s="10"/>
       <c r="M63"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3900,7 +3903,7 @@
       <c r="L64" s="10"/>
       <c r="M64"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4150,7 +4153,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4266,7 +4269,7 @@
       <c r="L73" s="10"/>
       <c r="M73"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4592,7 +4595,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4928,7 +4931,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5132,7 +5135,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5338,7 +5341,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5584,7 +5587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5742,7 +5745,7 @@
       <c r="L109" s="10"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6354,7 +6357,7 @@
       <c r="L124" s="10"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6758,7 +6761,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6800,7 +6803,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6842,7 +6845,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6966,7 +6969,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7134,7 +7137,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7342,7 +7345,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7462,7 +7465,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7502,7 +7505,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7542,7 +7545,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7582,7 +7585,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7624,7 +7627,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7666,7 +7669,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7956,7 +7959,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8250,7 +8253,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8290,7 +8293,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8332,7 +8335,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8498,7 +8501,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8540,7 +8543,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8622,7 +8625,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8704,7 +8707,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8746,7 +8749,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8788,7 +8791,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8954,7 +8957,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9118,7 +9121,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9158,7 +9161,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9198,7 +9201,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9238,7 +9241,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9280,7 +9283,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9372,7 +9375,9 @@
       <c r="C198">
         <v>2020</v>
       </c>
-      <c r="D198" s="10"/>
+      <c r="D198" s="10">
+        <v>44075</v>
+      </c>
       <c r="E198" t="s">
         <v>296</v>
       </c>
@@ -9393,12 +9398,14 @@
         <v>316</v>
       </c>
       <c r="K198" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="L198" s="10"/>
-      <c r="M198"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M198" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9438,7 +9445,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9478,7 +9485,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9514,7 +9521,7 @@
       <c r="L201" s="10"/>
       <c r="M201"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9550,7 +9557,7 @@
       <c r="L202" s="10"/>
       <c r="M202"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9586,7 +9593,7 @@
       <c r="L203" s="10"/>
       <c r="M203"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9628,7 +9635,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9670,7 +9677,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9712,7 +9719,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9752,7 +9759,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9794,7 +9801,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9836,7 +9843,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9876,7 +9883,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9912,7 +9919,7 @@
       <c r="L211" s="10"/>
       <c r="M211"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9948,7 +9955,7 @@
       <c r="L212" s="10"/>
       <c r="M212"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9990,7 +9997,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10032,7 +10039,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10072,7 +10079,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10108,7 +10115,7 @@
       <c r="L216" s="10"/>
       <c r="M216"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10144,7 +10151,7 @@
       <c r="L217" s="10"/>
       <c r="M217"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10184,7 +10191,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10224,7 +10231,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10264,7 +10271,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10304,7 +10311,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10346,7 +10353,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10386,7 +10393,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10426,7 +10433,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10466,7 +10473,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10506,7 +10513,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10546,7 +10553,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10586,7 +10593,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10626,7 +10633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10666,7 +10673,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10706,7 +10713,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10746,7 +10753,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10786,7 +10793,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10826,7 +10833,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10868,7 +10875,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10878,7 +10885,9 @@
       <c r="C236">
         <v>2020</v>
       </c>
-      <c r="D236" s="10"/>
+      <c r="D236" s="10">
+        <v>44075</v>
+      </c>
       <c r="E236" t="s">
         <v>296</v>
       </c>
@@ -10899,12 +10908,14 @@
         <v>318</v>
       </c>
       <c r="K236" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="L236" s="10"/>
-      <c r="M236"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M236" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10940,7 +10951,7 @@
       <c r="L237" s="10"/>
       <c r="M237"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10980,7 +10991,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10990,7 +11001,9 @@
       <c r="C239">
         <v>2020</v>
       </c>
-      <c r="D239" s="10"/>
+      <c r="D239" s="10">
+        <v>44075</v>
+      </c>
       <c r="E239" t="s">
         <v>296</v>
       </c>
@@ -11011,12 +11024,16 @@
         <v>318</v>
       </c>
       <c r="K239" t="s">
-        <v>281</v>
-      </c>
-      <c r="L239" s="10"/>
-      <c r="M239"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="L239" s="10">
+        <v>44075</v>
+      </c>
+      <c r="M239" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11052,7 +11069,7 @@
       <c r="L240" s="10"/>
       <c r="M240"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11088,7 +11105,7 @@
       <c r="L241" s="10"/>
       <c r="M241"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11124,7 +11141,7 @@
       <c r="L242" s="10"/>
       <c r="M242"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11164,7 +11181,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11174,7 +11191,9 @@
       <c r="C244">
         <v>2020</v>
       </c>
-      <c r="D244" s="10"/>
+      <c r="D244" s="10">
+        <v>44075</v>
+      </c>
       <c r="E244" t="s">
         <v>296</v>
       </c>
@@ -11195,12 +11214,16 @@
         <v>318</v>
       </c>
       <c r="K244" t="s">
-        <v>281</v>
-      </c>
-      <c r="L244" s="10"/>
-      <c r="M244"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="L244" s="10">
+        <v>44075</v>
+      </c>
+      <c r="M244" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11242,7 +11265,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11282,7 +11305,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11318,7 +11341,7 @@
       <c r="L247" s="10"/>
       <c r="M247"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11354,7 +11377,7 @@
       <c r="L248" s="10"/>
       <c r="M248"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11390,7 +11413,7 @@
       <c r="L249" s="10"/>
       <c r="M249"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11426,7 +11449,7 @@
       <c r="L250" s="10"/>
       <c r="M250"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11466,7 +11489,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11502,7 +11525,7 @@
       <c r="L252" s="10"/>
       <c r="M252"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11542,7 +11565,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11578,7 +11601,7 @@
       <c r="L254" s="10"/>
       <c r="M254"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11614,7 +11637,7 @@
       <c r="L255" s="10"/>
       <c r="M255"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11654,7 +11677,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11690,7 +11713,7 @@
       <c r="L257" s="10"/>
       <c r="M257"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11730,7 +11753,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11766,7 +11789,7 @@
       <c r="L259" s="10"/>
       <c r="M259"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11806,7 +11829,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11816,7 +11839,9 @@
       <c r="C261">
         <v>2020</v>
       </c>
-      <c r="D261" s="10"/>
+      <c r="D261" s="10">
+        <v>44075</v>
+      </c>
       <c r="E261" t="s">
         <v>296</v>
       </c>
@@ -11837,12 +11862,14 @@
         <v>318</v>
       </c>
       <c r="K261" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="L261" s="10"/>
-      <c r="M261"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M261" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11882,7 +11909,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11922,7 +11949,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12168,8 +12195,13 @@
     <hyperlink ref="M220" r:id="rId200" xr:uid="{BE416F40-4BFE-4311-9693-569D5DE2A93F}"/>
     <hyperlink ref="M207" r:id="rId201" xr:uid="{374AF96C-2A37-4CBD-AEA3-4E8452E44A7E}"/>
     <hyperlink ref="M116" r:id="rId202" xr:uid="{BD9FA8EE-C9E6-42B5-9095-F291DE134E4F}"/>
+    <hyperlink ref="M244" r:id="rId203" xr:uid="{4E47DF95-E6D7-4854-BE4D-00E81BD857EF}"/>
+    <hyperlink ref="M239" r:id="rId204" xr:uid="{979E18C2-4478-4403-A8EC-1A599EE38A4C}"/>
+    <hyperlink ref="M261" r:id="rId205" xr:uid="{0DDAF617-BBC0-415A-A896-81CF11D15A90}"/>
+    <hyperlink ref="M198" r:id="rId206" xr:uid="{735417BF-8369-404B-9772-0EE5656EFD36}"/>
+    <hyperlink ref="M236" r:id="rId207" xr:uid="{224FC792-F0AB-481D-BA29-2CD59333CA22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId203"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId208"/>
 </worksheet>
 </file>
--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6AB56D-AF88-4FA1-A24D-BA7B836DFC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB55AF-4772-4885-99EF-85E028EC80CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,9 +881,6 @@
     <t>fecha_endoso</t>
   </si>
   <si>
-    <t>sin info</t>
-  </si>
-  <si>
     <t>T13</t>
   </si>
   <si>
@@ -1047,6 +1044,9 @@
   </si>
   <si>
     <t>Emol</t>
+  </si>
+  <si>
+    <t>Sin info</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E230" sqref="E230"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>279</v>
@@ -1462,10 +1462,10 @@
         <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1474,13 +1474,13 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>280</v>
@@ -1503,7 +1503,7 @@
         <v>44062</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>226</v>
@@ -1519,10 +1519,10 @@
         <v>201</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2"/>
@@ -1541,7 +1541,7 @@
         <v>44062</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>228</v>
@@ -1557,10 +1557,10 @@
         <v>204</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K3" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="2"/>
@@ -1579,10 +1579,10 @@
         <v>44062</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G4" s="10">
         <v>13941</v>
@@ -1595,10 +1595,10 @@
         <v>203</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="2"/>
@@ -1617,7 +1617,7 @@
         <v>44062</v>
       </c>
       <c r="E5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
         <v>227</v>
@@ -1633,10 +1633,10 @@
         <v>202</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K5" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="2"/>
@@ -1655,7 +1655,7 @@
         <v>44061</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
         <v>218</v>
@@ -1671,10 +1671,10 @@
         <v>207</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L6" s="10">
         <v>44058</v>
@@ -1697,10 +1697,10 @@
         <v>44061</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G7" s="10">
         <v>20120</v>
@@ -1713,10 +1713,10 @@
         <v>207</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L7" s="10">
         <v>44058</v>
@@ -1739,7 +1739,7 @@
         <v>44061</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
         <v>220</v>
@@ -1755,10 +1755,10 @@
         <v>201</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L8" s="10">
         <v>44058</v>
@@ -1781,7 +1781,7 @@
         <v>44061</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
         <v>222</v>
@@ -1797,10 +1797,10 @@
         <v>201</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L9" s="10">
         <v>44058</v>
@@ -1823,10 +1823,10 @@
         <v>44061</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G10" s="10">
         <v>22460</v>
@@ -1839,10 +1839,10 @@
         <v>201</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L10" s="10">
         <v>44058</v>
@@ -1865,7 +1865,7 @@
         <v>44061</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
         <v>224</v>
@@ -1881,10 +1881,10 @@
         <v>201</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L11" s="10">
         <v>44058</v>
@@ -1907,7 +1907,7 @@
         <v>44061</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
         <v>225</v>
@@ -1923,10 +1923,10 @@
         <v>201</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L12" s="10">
         <v>44058</v>
@@ -1949,10 +1949,10 @@
         <v>44061</v>
       </c>
       <c r="E13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G13" s="10">
         <v>27474</v>
@@ -1965,10 +1965,10 @@
         <v>201</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" s="10">
         <v>44058</v>
@@ -1991,10 +1991,10 @@
         <v>44061</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G14" s="10">
         <v>20671</v>
@@ -2007,10 +2007,10 @@
         <v>201</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K14" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="2"/>
@@ -2029,10 +2029,10 @@
         <v>44061</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G15" s="10">
         <v>17779</v>
@@ -2045,10 +2045,10 @@
         <v>201</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K15" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="2"/>
@@ -2067,10 +2067,10 @@
         <v>44061</v>
       </c>
       <c r="E16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G16" s="10">
         <v>24724</v>
@@ -2083,10 +2083,10 @@
         <v>201</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K16" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="2"/>
@@ -2105,10 +2105,10 @@
         <v>44061</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G17" s="10">
         <v>25134</v>
@@ -2121,10 +2121,10 @@
         <v>201</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K17" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="2"/>
@@ -2143,7 +2143,7 @@
         <v>44061</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>34</v>
@@ -2159,10 +2159,10 @@
         <v>200</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L18" s="10">
         <v>44058</v>
@@ -2185,7 +2185,7 @@
         <v>44061</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
         <v>219</v>
@@ -2201,10 +2201,10 @@
         <v>200</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L19" s="10">
         <v>44058</v>
@@ -2227,7 +2227,7 @@
         <v>44061</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
         <v>181</v>
@@ -2243,10 +2243,10 @@
         <v>200</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L20" s="10">
         <v>44058</v>
@@ -2269,10 +2269,10 @@
         <v>44061</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G21" s="10">
         <v>21368</v>
@@ -2285,10 +2285,10 @@
         <v>200</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L21" s="10">
         <v>44058</v>
@@ -2311,10 +2311,10 @@
         <v>44061</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G22" s="10">
         <v>27295</v>
@@ -2327,10 +2327,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L22" s="10">
         <v>44058</v>
@@ -2353,10 +2353,10 @@
         <v>44061</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G23" s="10">
         <v>27105</v>
@@ -2369,10 +2369,10 @@
         <v>205</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L23" s="10">
         <v>44058</v>
@@ -2395,7 +2395,7 @@
         <v>44061</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -2411,10 +2411,10 @@
         <v>205</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L24" s="10">
         <v>44058</v>
@@ -2437,7 +2437,7 @@
         <v>44061</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F25" t="s">
         <v>217</v>
@@ -2453,10 +2453,10 @@
         <v>205</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L25" s="10">
         <v>44058</v>
@@ -2479,10 +2479,10 @@
         <v>44061</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G26" s="10">
         <v>26556</v>
@@ -2495,10 +2495,10 @@
         <v>205</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L26" s="10">
         <v>44058</v>
@@ -2521,7 +2521,7 @@
         <v>44061</v>
       </c>
       <c r="E27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F27" t="s">
         <v>223</v>
@@ -2537,10 +2537,10 @@
         <v>205</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L27" s="10">
         <v>44058</v>
@@ -2563,10 +2563,10 @@
         <v>44061</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G28" s="10">
         <v>22770</v>
@@ -2579,10 +2579,10 @@
         <v>205</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L28" s="10">
         <v>44058</v>
@@ -2605,7 +2605,7 @@
         <v>44061</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F29" t="s">
         <v>221</v>
@@ -2621,10 +2621,10 @@
         <v>205</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K29" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="2"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F30" t="s">
         <v>265</v>
@@ -2657,10 +2657,10 @@
         <v>207</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30"/>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F31" t="s">
         <v>260</v>
@@ -2693,10 +2693,10 @@
         <v>207</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31"/>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F32" t="s">
         <v>264</v>
@@ -2724,10 +2724,10 @@
         <v>201</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32"/>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -2755,10 +2755,10 @@
         <v>201</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F34" t="s">
         <v>259</v>
@@ -2791,10 +2791,10 @@
         <v>201</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D35" s="10"/>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F35" t="s">
         <v>270</v>
@@ -2822,10 +2822,10 @@
         <v>200</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35"/>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D36" s="10"/>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F36" t="s">
         <v>269</v>
@@ -2858,10 +2858,10 @@
         <v>200</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D37" s="10"/>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F37" t="s">
         <v>268</v>
@@ -2894,10 +2894,10 @@
         <v>200</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="D38" s="10"/>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F38" t="s">
         <v>267</v>
@@ -2930,10 +2930,10 @@
         <v>200</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K38" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38"/>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D39" s="10"/>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F39" t="s">
         <v>262</v>
@@ -2961,10 +2961,10 @@
         <v>200</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K39" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39"/>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F40" t="s">
         <v>272</v>
@@ -2997,10 +2997,10 @@
         <v>200</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K40" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="D41" s="10"/>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F41" t="s">
         <v>271</v>
@@ -3033,10 +3033,10 @@
         <v>205</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41"/>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D42" s="10"/>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F42" t="s">
         <v>274</v>
@@ -3069,10 +3069,10 @@
         <v>205</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="D43" s="10"/>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F43" t="s">
         <v>266</v>
@@ -3105,10 +3105,10 @@
         <v>205</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K43" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="D44" s="10"/>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F44" t="s">
         <v>263</v>
@@ -3141,10 +3141,10 @@
         <v>205</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K44" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44"/>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="D45" s="10"/>
       <c r="E45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F45" t="s">
         <v>275</v>
@@ -3177,10 +3177,10 @@
         <v>205</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45"/>
@@ -3199,7 +3199,7 @@
         <v>44062</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
         <v>240</v>
@@ -3215,16 +3215,16 @@
         <v>201</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L46" s="10">
         <v>43892</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3241,7 +3241,7 @@
         <v>44062</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
         <v>242</v>
@@ -3257,16 +3257,16 @@
         <v>201</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L47" s="10">
         <v>43892</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
         <v>44061</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -3299,10 +3299,10 @@
         <v>201</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="2" t="s">
@@ -3323,7 +3323,7 @@
         <v>44062</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
         <v>253</v>
@@ -3339,16 +3339,16 @@
         <v>201</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L49" s="10">
         <v>43892</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
         <v>255</v>
@@ -3374,10 +3374,10 @@
         <v>201</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K50" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
         <v>256</v>
@@ -3410,10 +3410,10 @@
         <v>201</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K51" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51"/>
@@ -3432,7 +3432,7 @@
         <v>44062</v>
       </c>
       <c r="E52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F52" t="s">
         <v>249</v>
@@ -3443,16 +3443,16 @@
         <v>204</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L52" s="10">
         <v>44062</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3469,7 +3469,7 @@
         <v>44062</v>
       </c>
       <c r="E53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
         <v>250</v>
@@ -3485,16 +3485,16 @@
         <v>204</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L53" s="10">
         <v>44062</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3511,7 +3511,7 @@
         <v>44061</v>
       </c>
       <c r="E54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F54" t="s">
         <v>251</v>
@@ -3527,10 +3527,10 @@
         <v>212</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="2" t="s">
@@ -3551,7 +3551,7 @@
         <v>44062</v>
       </c>
       <c r="E55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F55" t="s">
         <v>273</v>
@@ -3567,10 +3567,10 @@
         <v>210</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L55" s="10">
         <v>44055</v>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="D56" s="10"/>
       <c r="E56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
         <v>244</v>
@@ -3602,10 +3602,10 @@
         <v>202</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K56" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="2"/>
@@ -3624,7 +3624,7 @@
         <v>44069</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
         <v>248</v>
@@ -3635,10 +3635,10 @@
         <v>202</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="2" t="s">
@@ -3659,7 +3659,7 @@
         <v>44069</v>
       </c>
       <c r="E58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
         <v>258</v>
@@ -3670,14 +3670,14 @@
         <v>202</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3694,7 +3694,7 @@
         <v>44062</v>
       </c>
       <c r="E59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F59" t="s">
         <v>239</v>
@@ -3710,16 +3710,16 @@
         <v>200</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L59" s="10">
         <v>43892</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3736,7 +3736,7 @@
         <v>44062</v>
       </c>
       <c r="E60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
         <v>241</v>
@@ -3752,16 +3752,16 @@
         <v>200</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L60" s="10">
         <v>43878</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D61" s="10"/>
       <c r="E61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
         <v>247</v>
@@ -3792,10 +3792,10 @@
         <v>200</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K61" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61"/>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D62" s="10"/>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
         <v>252</v>
@@ -3823,10 +3823,10 @@
         <v>200</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K62" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="D63" s="10"/>
       <c r="E63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
         <v>254</v>
@@ -3859,10 +3859,10 @@
         <v>200</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K63" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="D64" s="10"/>
       <c r="E64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
         <v>257</v>
@@ -3895,10 +3895,10 @@
         <v>200</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K64" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64"/>
@@ -3917,7 +3917,7 @@
         <v>44062</v>
       </c>
       <c r="E65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
         <v>243</v>
@@ -3933,16 +3933,16 @@
         <v>205</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L65" s="10">
         <v>43892</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3959,7 +3959,7 @@
         <v>44062</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
         <v>246</v>
@@ -3975,10 +3975,10 @@
         <v>205</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L66" s="10">
         <v>44048</v>
@@ -4001,7 +4001,7 @@
         <v>44072</v>
       </c>
       <c r="E67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>178</v>
@@ -4017,10 +4017,10 @@
         <v>207</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L67" s="10">
         <v>44071</v>
@@ -4043,7 +4043,7 @@
         <v>44072</v>
       </c>
       <c r="E68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
         <v>158</v>
@@ -4059,10 +4059,10 @@
         <v>201</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="9" t="s">
@@ -4083,7 +4083,7 @@
         <v>44061</v>
       </c>
       <c r="E69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
         <v>159</v>
@@ -4099,10 +4099,10 @@
         <v>201</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L69" s="10">
         <v>43837</v>
@@ -4125,7 +4125,7 @@
         <v>44061</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F70" t="s">
         <v>173</v>
@@ -4141,10 +4141,10 @@
         <v>201</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L70" s="10">
         <v>43837</v>
@@ -4167,7 +4167,7 @@
         <v>44072</v>
       </c>
       <c r="E71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F71" t="s">
         <v>182</v>
@@ -4183,10 +4183,10 @@
         <v>201</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="2" t="s">
@@ -4207,7 +4207,7 @@
         <v>44061</v>
       </c>
       <c r="E72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
         <v>186</v>
@@ -4223,10 +4223,10 @@
         <v>201</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="2" t="s">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="D73" s="10"/>
       <c r="E73" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F73" t="s">
         <v>196</v>
@@ -4261,10 +4261,10 @@
         <v>201</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K73" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73"/>
@@ -4283,7 +4283,7 @@
         <v>44061</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
         <v>192</v>
@@ -4299,10 +4299,10 @@
         <v>206</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="2" t="s">
@@ -4323,7 +4323,7 @@
         <v>44061</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>166</v>
@@ -4339,10 +4339,10 @@
         <v>204</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="2" t="s">
@@ -4363,7 +4363,7 @@
         <v>44061</v>
       </c>
       <c r="E76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>172</v>
@@ -4379,10 +4379,10 @@
         <v>204</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="2" t="s">
@@ -4403,7 +4403,7 @@
         <v>44061</v>
       </c>
       <c r="E77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>179</v>
@@ -4419,10 +4419,10 @@
         <v>204</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="2" t="s">
@@ -4443,7 +4443,7 @@
         <v>44062</v>
       </c>
       <c r="E78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
         <v>185</v>
@@ -4459,16 +4459,16 @@
         <v>204</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L78" s="10">
         <v>44062</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4485,7 +4485,7 @@
         <v>44062</v>
       </c>
       <c r="E79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
         <v>194</v>
@@ -4501,16 +4501,16 @@
         <v>204</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L79" s="10">
         <v>44062</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
         <v>44061</v>
       </c>
       <c r="E80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F80" t="s">
         <v>168</v>
@@ -4543,10 +4543,10 @@
         <v>203</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="2" t="s">
@@ -4567,7 +4567,7 @@
         <v>44062</v>
       </c>
       <c r="E81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
         <v>170</v>
@@ -4583,16 +4583,16 @@
         <v>203</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L81" s="10">
         <v>44062</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4609,7 +4609,7 @@
         <v>44062</v>
       </c>
       <c r="E82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>174</v>
@@ -4625,16 +4625,16 @@
         <v>203</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L82" s="10">
         <v>44062</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4651,7 +4651,7 @@
         <v>44062</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>180</v>
@@ -4667,16 +4667,16 @@
         <v>203</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L83" s="10">
         <v>44062</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4693,7 +4693,7 @@
         <v>44062</v>
       </c>
       <c r="E84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>184</v>
@@ -4709,16 +4709,16 @@
         <v>203</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L84" s="10">
         <v>44062</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4735,7 +4735,7 @@
         <v>44062</v>
       </c>
       <c r="E85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
         <v>187</v>
@@ -4751,16 +4751,16 @@
         <v>203</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K85" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L85" s="10">
         <v>44062</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4777,7 +4777,7 @@
         <v>44062</v>
       </c>
       <c r="E86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F86" t="s">
         <v>191</v>
@@ -4793,16 +4793,16 @@
         <v>203</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L86" s="10">
         <v>44062</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
         <v>44062</v>
       </c>
       <c r="E87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F87" t="s">
         <v>163</v>
@@ -4835,16 +4835,16 @@
         <v>202</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L87" s="10">
         <v>44062</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4861,7 +4861,7 @@
         <v>44062</v>
       </c>
       <c r="E88" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>167</v>
@@ -4877,16 +4877,16 @@
         <v>202</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L88" s="10">
         <v>44062</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4903,7 +4903,7 @@
         <v>44062</v>
       </c>
       <c r="E89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F89" t="s">
         <v>176</v>
@@ -4919,16 +4919,16 @@
         <v>202</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L89" s="10">
         <v>44062</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4945,7 +4945,7 @@
         <v>44062</v>
       </c>
       <c r="E90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F90" t="s">
         <v>183</v>
@@ -4961,16 +4961,16 @@
         <v>202</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L90" s="10">
         <v>44062</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4987,7 +4987,7 @@
         <v>44062</v>
       </c>
       <c r="E91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F91" t="s">
         <v>188</v>
@@ -5003,16 +5003,16 @@
         <v>202</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L91" s="10">
         <v>44062</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -5029,7 +5029,7 @@
         <v>44061</v>
       </c>
       <c r="E92" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F92" t="s">
         <v>189</v>
@@ -5045,10 +5045,10 @@
         <v>202</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="2" t="s">
@@ -5069,7 +5069,7 @@
         <v>44062</v>
       </c>
       <c r="E93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F93" t="s">
         <v>195</v>
@@ -5085,10 +5085,10 @@
         <v>202</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="2" t="s">
@@ -5109,7 +5109,7 @@
         <v>44062</v>
       </c>
       <c r="E94" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>108</v>
@@ -5125,10 +5125,10 @@
         <v>200</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K94" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="2" t="s">
@@ -5149,7 +5149,7 @@
         <v>44072</v>
       </c>
       <c r="E95" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>160</v>
@@ -5165,10 +5165,10 @@
         <v>200</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L95" s="10"/>
       <c r="M95" s="9" t="s">
@@ -5189,7 +5189,7 @@
         <v>44061</v>
       </c>
       <c r="E96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F96" t="s">
         <v>164</v>
@@ -5205,10 +5205,10 @@
         <v>200</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K96" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L96" s="10">
         <v>43837</v>
@@ -5231,7 +5231,7 @@
         <v>44072</v>
       </c>
       <c r="E97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F97" t="s">
         <v>165</v>
@@ -5247,10 +5247,10 @@
         <v>200</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L97" s="10"/>
       <c r="M97" s="9" t="s">
@@ -5271,7 +5271,7 @@
         <v>44061</v>
       </c>
       <c r="E98" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F98" t="s">
         <v>171</v>
@@ -5287,10 +5287,10 @@
         <v>200</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L98" s="10">
         <v>43837</v>
@@ -5313,7 +5313,7 @@
         <v>44062</v>
       </c>
       <c r="E99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
         <v>193</v>
@@ -5329,10 +5329,10 @@
         <v>200</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K99" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L99" s="10">
         <v>43904</v>
@@ -5355,7 +5355,7 @@
         <v>44061</v>
       </c>
       <c r="E100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F100" t="s">
         <v>169</v>
@@ -5371,10 +5371,10 @@
         <v>208</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K100" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="2" t="s">
@@ -5395,7 +5395,7 @@
         <v>44062</v>
       </c>
       <c r="E101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>161</v>
@@ -5411,10 +5411,10 @@
         <v>205</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L101" s="10">
         <v>43837</v>
@@ -5437,7 +5437,7 @@
         <v>44062</v>
       </c>
       <c r="E102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>162</v>
@@ -5453,10 +5453,10 @@
         <v>205</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K102" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L102" s="10">
         <v>43837</v>
@@ -5479,7 +5479,7 @@
         <v>44062</v>
       </c>
       <c r="E103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F103" t="s">
         <v>175</v>
@@ -5495,10 +5495,10 @@
         <v>205</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L103" s="10">
         <v>43837</v>
@@ -5521,7 +5521,7 @@
         <v>44072</v>
       </c>
       <c r="E104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F104" t="s">
         <v>177</v>
@@ -5537,10 +5537,10 @@
         <v>205</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="2" t="s">
@@ -5561,7 +5561,7 @@
         <v>44072</v>
       </c>
       <c r="E105" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F105" t="s">
         <v>190</v>
@@ -5577,10 +5577,10 @@
         <v>205</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K105" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L105" s="10"/>
       <c r="M105" s="2" t="s">
@@ -5601,7 +5601,7 @@
         <v>44072</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
         <v>197</v>
@@ -5617,10 +5617,10 @@
         <v>205</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L106" s="10"/>
       <c r="M106" s="9" t="s">
@@ -5641,7 +5641,7 @@
         <v>44062</v>
       </c>
       <c r="E107" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F107" t="s">
         <v>198</v>
@@ -5657,10 +5657,10 @@
         <v>205</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K107" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L107" s="10">
         <v>43837</v>
@@ -5683,7 +5683,7 @@
         <v>44061</v>
       </c>
       <c r="E108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F108" t="s">
         <v>199</v>
@@ -5699,10 +5699,10 @@
         <v>205</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K108" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L108" s="10"/>
       <c r="M108" s="2" t="s">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="D109" s="10"/>
       <c r="E109" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F109" t="s">
         <v>236</v>
@@ -5737,10 +5737,10 @@
         <v>205</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K109" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L109" s="10"/>
       <c r="M109"/>
@@ -5759,7 +5759,7 @@
         <v>44061</v>
       </c>
       <c r="E110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>56</v>
@@ -5775,10 +5775,10 @@
         <v>235</v>
       </c>
       <c r="J110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K110" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="2" t="s">
@@ -5799,7 +5799,7 @@
         <v>44061</v>
       </c>
       <c r="E111" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>18</v>
@@ -5815,10 +5815,10 @@
         <v>235</v>
       </c>
       <c r="J111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K111" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="2" t="s">
@@ -5839,7 +5839,7 @@
         <v>44061</v>
       </c>
       <c r="E112" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>147</v>
@@ -5855,10 +5855,10 @@
         <v>235</v>
       </c>
       <c r="J112" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="2" t="s">
@@ -5879,7 +5879,7 @@
         <v>44061</v>
       </c>
       <c r="E113" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>61</v>
@@ -5895,10 +5895,10 @@
         <v>207</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K113" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L113" s="10">
         <v>44036</v>
@@ -5921,7 +5921,7 @@
         <v>44061</v>
       </c>
       <c r="E114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>145</v>
@@ -5937,10 +5937,10 @@
         <v>207</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K114" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L114" s="10">
         <v>44036</v>
@@ -5963,7 +5963,7 @@
         <v>44061</v>
       </c>
       <c r="E115" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>8</v>
@@ -5979,10 +5979,10 @@
         <v>207</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K115" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L115" s="10">
         <v>44036</v>
@@ -6005,7 +6005,7 @@
         <v>44072</v>
       </c>
       <c r="E116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>32</v>
@@ -6021,10 +6021,10 @@
         <v>207</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L116" s="10"/>
       <c r="M116" s="9" t="s">
@@ -6045,7 +6045,7 @@
         <v>44061</v>
       </c>
       <c r="E117" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F117" s="12" t="s">
         <v>78</v>
@@ -6061,10 +6061,10 @@
         <v>207</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L117" s="10">
         <v>44036</v>
@@ -6087,7 +6087,7 @@
         <v>44061</v>
       </c>
       <c r="E118" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F118" s="12" t="s">
         <v>127</v>
@@ -6103,10 +6103,10 @@
         <v>207</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L118" s="10">
         <v>44036</v>
@@ -6129,7 +6129,7 @@
         <v>44061</v>
       </c>
       <c r="E119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>81</v>
@@ -6145,10 +6145,10 @@
         <v>215</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="2" t="s">
@@ -6169,7 +6169,7 @@
         <v>44062</v>
       </c>
       <c r="E120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>117</v>
@@ -6185,16 +6185,16 @@
         <v>215</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K120" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L120" s="10">
         <v>44062</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -6211,7 +6211,7 @@
         <v>44062</v>
       </c>
       <c r="E121" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>131</v>
@@ -6227,16 +6227,16 @@
         <v>215</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L121" s="10">
         <v>44062</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -6253,7 +6253,7 @@
         <v>44062</v>
       </c>
       <c r="E122" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F122" s="12" t="s">
         <v>132</v>
@@ -6269,16 +6269,16 @@
         <v>215</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K122" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L122" s="10">
         <v>44062</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -6295,7 +6295,7 @@
         <v>44061</v>
       </c>
       <c r="E123" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>139</v>
@@ -6311,10 +6311,10 @@
         <v>201</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L123" s="10"/>
       <c r="M123" s="2" t="s">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="D124" s="10"/>
       <c r="E124" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>153</v>
@@ -6349,10 +6349,10 @@
         <v>201</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K124" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L124" s="10"/>
       <c r="M124"/>
@@ -6371,7 +6371,7 @@
         <v>44061</v>
       </c>
       <c r="E125" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>130</v>
@@ -6387,10 +6387,10 @@
         <v>211</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="2" t="s">
@@ -6411,7 +6411,7 @@
         <v>44061</v>
       </c>
       <c r="E126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>21</v>
@@ -6427,10 +6427,10 @@
         <v>211</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="2" t="s">
@@ -6451,7 +6451,7 @@
         <v>44061</v>
       </c>
       <c r="E127" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>13</v>
@@ -6467,10 +6467,10 @@
         <v>211</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L127" s="10"/>
       <c r="M127" s="2" t="s">
@@ -6491,7 +6491,7 @@
         <v>44061</v>
       </c>
       <c r="E128" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>50</v>
@@ -6507,10 +6507,10 @@
         <v>211</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K128" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L128" s="10"/>
       <c r="M128" s="2" t="s">
@@ -6531,7 +6531,7 @@
         <v>44061</v>
       </c>
       <c r="E129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>53</v>
@@ -6547,10 +6547,10 @@
         <v>211</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K129" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="2" t="s">
@@ -6571,7 +6571,7 @@
         <v>44061</v>
       </c>
       <c r="E130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F130" s="12" t="s">
         <v>64</v>
@@ -6587,10 +6587,10 @@
         <v>211</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K130" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="2" t="s">
@@ -6611,7 +6611,7 @@
         <v>44061</v>
       </c>
       <c r="E131" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F131" s="12" t="s">
         <v>86</v>
@@ -6627,10 +6627,10 @@
         <v>211</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L131" s="10"/>
       <c r="M131" s="2" t="s">
@@ -6651,7 +6651,7 @@
         <v>44062</v>
       </c>
       <c r="E132" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>122</v>
@@ -6667,16 +6667,16 @@
         <v>211</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L132" s="10">
         <v>44062</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6693,7 +6693,7 @@
         <v>44061</v>
       </c>
       <c r="E133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>10</v>
@@ -6709,10 +6709,10 @@
         <v>204</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K133" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L133" s="10"/>
       <c r="M133" s="2" t="s">
@@ -6733,7 +6733,7 @@
         <v>44062</v>
       </c>
       <c r="E134" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F134" s="12" t="s">
         <v>20</v>
@@ -6749,16 +6749,16 @@
         <v>204</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K134" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L134" s="10">
         <v>44062</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6775,7 +6775,7 @@
         <v>44062</v>
       </c>
       <c r="E135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>41</v>
@@ -6791,16 +6791,16 @@
         <v>204</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L135" s="10">
         <v>44062</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6817,7 +6817,7 @@
         <v>44062</v>
       </c>
       <c r="E136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>71</v>
@@ -6833,16 +6833,16 @@
         <v>204</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L136" s="10">
         <v>44062</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6859,7 +6859,7 @@
         <v>44062</v>
       </c>
       <c r="E137" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>90</v>
@@ -6875,16 +6875,16 @@
         <v>204</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L137" s="10">
         <v>44062</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6901,7 +6901,7 @@
         <v>44062</v>
       </c>
       <c r="E138" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>96</v>
@@ -6917,16 +6917,16 @@
         <v>204</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K138" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L138" s="10">
         <v>44062</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6943,7 +6943,7 @@
         <v>44061</v>
       </c>
       <c r="E139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>119</v>
@@ -6959,10 +6959,10 @@
         <v>204</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L139" s="10"/>
       <c r="M139" s="2" t="s">
@@ -6983,7 +6983,7 @@
         <v>44062</v>
       </c>
       <c r="E140" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F140" s="12" t="s">
         <v>121</v>
@@ -6999,16 +6999,16 @@
         <v>204</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K140" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L140" s="10">
         <v>44062</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -7025,7 +7025,7 @@
         <v>44062</v>
       </c>
       <c r="E141" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>124</v>
@@ -7041,16 +7041,16 @@
         <v>204</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K141" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L141" s="10">
         <v>44062</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -7067,7 +7067,7 @@
         <v>44062</v>
       </c>
       <c r="E142" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>133</v>
@@ -7083,16 +7083,16 @@
         <v>204</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K142" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L142" s="10">
         <v>44062</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
         <v>44062</v>
       </c>
       <c r="E143" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F143" s="12" t="s">
         <v>134</v>
@@ -7125,16 +7125,16 @@
         <v>204</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K143" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L143" s="10">
         <v>44062</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -7151,7 +7151,7 @@
         <v>44062</v>
       </c>
       <c r="E144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>149</v>
@@ -7167,16 +7167,16 @@
         <v>204</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K144" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L144" s="10">
         <v>44062</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -7193,7 +7193,7 @@
         <v>44062</v>
       </c>
       <c r="E145" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>152</v>
@@ -7209,16 +7209,16 @@
         <v>204</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K145" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L145" s="10">
         <v>44062</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -7235,7 +7235,7 @@
         <v>44061</v>
       </c>
       <c r="E146" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>157</v>
@@ -7251,10 +7251,10 @@
         <v>204</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K146" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L146" s="10"/>
       <c r="M146" s="2" t="s">
@@ -7275,7 +7275,7 @@
         <v>44062</v>
       </c>
       <c r="E147" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>48</v>
@@ -7291,16 +7291,16 @@
         <v>213</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K147" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L147" s="10">
         <v>43887</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -7317,7 +7317,7 @@
         <v>44062</v>
       </c>
       <c r="E148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>5</v>
@@ -7333,16 +7333,16 @@
         <v>209</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K148" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L148" s="10">
         <v>43817</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -7359,7 +7359,7 @@
         <v>44061</v>
       </c>
       <c r="E149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>54</v>
@@ -7375,10 +7375,10 @@
         <v>209</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K149" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L149" s="10"/>
       <c r="M149" s="2" t="s">
@@ -7399,7 +7399,7 @@
         <v>44061</v>
       </c>
       <c r="E150" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>59</v>
@@ -7415,10 +7415,10 @@
         <v>209</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K150" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L150" s="10"/>
       <c r="M150" s="2" t="s">
@@ -7439,7 +7439,7 @@
         <v>44061</v>
       </c>
       <c r="E151" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>105</v>
@@ -7455,10 +7455,10 @@
         <v>216</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K151" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L151" s="10"/>
       <c r="M151" s="2" t="s">
@@ -7479,7 +7479,7 @@
         <v>44061</v>
       </c>
       <c r="E152" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>16</v>
@@ -7495,10 +7495,10 @@
         <v>212</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L152" s="10"/>
       <c r="M152" s="2" t="s">
@@ -7519,7 +7519,7 @@
         <v>44061</v>
       </c>
       <c r="E153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>76</v>
@@ -7535,10 +7535,10 @@
         <v>212</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K153" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L153" s="10"/>
       <c r="M153" s="2" t="s">
@@ -7559,7 +7559,7 @@
         <v>44061</v>
       </c>
       <c r="E154" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>77</v>
@@ -7575,10 +7575,10 @@
         <v>214</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K154" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L154" s="10"/>
       <c r="M154" s="2" t="s">
@@ -7599,7 +7599,7 @@
         <v>44062</v>
       </c>
       <c r="E155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>6</v>
@@ -7615,16 +7615,16 @@
         <v>203</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K155" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L155" s="10">
         <v>44062</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7641,7 +7641,7 @@
         <v>44062</v>
       </c>
       <c r="E156" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>23</v>
@@ -7657,16 +7657,16 @@
         <v>203</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K156" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L156" s="10">
         <v>44062</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7683,7 +7683,7 @@
         <v>44061</v>
       </c>
       <c r="E157" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>28</v>
@@ -7699,10 +7699,10 @@
         <v>203</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K157" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L157" s="10"/>
       <c r="M157" s="2" t="s">
@@ -7723,7 +7723,7 @@
         <v>44062</v>
       </c>
       <c r="E158" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>49</v>
@@ -7739,16 +7739,16 @@
         <v>203</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K158" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L158" s="10">
         <v>44062</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7765,7 +7765,7 @@
         <v>44062</v>
       </c>
       <c r="E159" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>60</v>
@@ -7781,16 +7781,16 @@
         <v>203</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L159" s="10">
         <v>44062</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>44061</v>
       </c>
       <c r="E160" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F160" s="12" t="s">
         <v>70</v>
@@ -7823,10 +7823,10 @@
         <v>203</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K160" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L160" s="10"/>
       <c r="M160" s="2" t="s">
@@ -7847,7 +7847,7 @@
         <v>44062</v>
       </c>
       <c r="E161" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F161" s="12" t="s">
         <v>92</v>
@@ -7863,16 +7863,16 @@
         <v>203</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K161" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L161" s="10">
         <v>44062</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7889,7 +7889,7 @@
         <v>44062</v>
       </c>
       <c r="E162" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F162" s="12" t="s">
         <v>142</v>
@@ -7905,16 +7905,16 @@
         <v>203</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L162" s="10">
         <v>44062</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7931,7 +7931,7 @@
         <v>44062</v>
       </c>
       <c r="E163" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F163" s="12" t="s">
         <v>113</v>
@@ -7947,10 +7947,10 @@
         <v>211</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K163" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L163" s="10">
         <v>44055</v>
@@ -7973,7 +7973,7 @@
         <v>44062</v>
       </c>
       <c r="E164" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F164" s="12" t="s">
         <v>11</v>
@@ -7989,10 +7989,10 @@
         <v>210</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K164" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L164" s="10">
         <v>44055</v>
@@ -8015,7 +8015,7 @@
         <v>44062</v>
       </c>
       <c r="E165" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>52</v>
@@ -8031,10 +8031,10 @@
         <v>210</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L165" s="10">
         <v>44055</v>
@@ -8057,7 +8057,7 @@
         <v>44062</v>
       </c>
       <c r="E166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>73</v>
@@ -8073,10 +8073,10 @@
         <v>210</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K166" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L166" s="10">
         <v>44055</v>
@@ -8099,7 +8099,7 @@
         <v>44062</v>
       </c>
       <c r="E167" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>75</v>
@@ -8115,10 +8115,10 @@
         <v>210</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K167" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L167" s="10">
         <v>44055</v>
@@ -8141,7 +8141,7 @@
         <v>44062</v>
       </c>
       <c r="E168" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>97</v>
@@ -8157,10 +8157,10 @@
         <v>210</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K168" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L168" s="10">
         <v>44055</v>
@@ -8183,7 +8183,7 @@
         <v>44062</v>
       </c>
       <c r="E169" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>118</v>
@@ -8199,10 +8199,10 @@
         <v>210</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K169" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L169" s="10">
         <v>44055</v>
@@ -8225,7 +8225,7 @@
         <v>44062</v>
       </c>
       <c r="E170" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>143</v>
@@ -8241,10 +8241,10 @@
         <v>210</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K170" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L170" s="10">
         <v>44055</v>
@@ -8267,7 +8267,7 @@
         <v>44061</v>
       </c>
       <c r="E171" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>35</v>
@@ -8283,10 +8283,10 @@
         <v>202</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K171" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L171" s="10"/>
       <c r="M171" s="2" t="s">
@@ -8307,7 +8307,7 @@
         <v>44062</v>
       </c>
       <c r="E172" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F172" s="12" t="s">
         <v>7</v>
@@ -8323,16 +8323,16 @@
         <v>202</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K172" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L172" s="10">
         <v>44062</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -8349,7 +8349,7 @@
         <v>44062</v>
       </c>
       <c r="E173" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>26</v>
@@ -8365,16 +8365,16 @@
         <v>202</v>
       </c>
       <c r="J173" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K173" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L173" s="10">
         <v>44062</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>44062</v>
       </c>
       <c r="E174" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>29</v>
@@ -8407,16 +8407,16 @@
         <v>202</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K174" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L174" s="10">
         <v>44062</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -8433,7 +8433,7 @@
         <v>44062</v>
       </c>
       <c r="E175" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>39</v>
@@ -8449,16 +8449,16 @@
         <v>202</v>
       </c>
       <c r="J175" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K175" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L175" s="10">
         <v>44062</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -8475,7 +8475,7 @@
         <v>44061</v>
       </c>
       <c r="E176" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>57</v>
@@ -8491,10 +8491,10 @@
         <v>202</v>
       </c>
       <c r="J176" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K176" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L176" s="10"/>
       <c r="M176" s="2" t="s">
@@ -8515,7 +8515,7 @@
         <v>44062</v>
       </c>
       <c r="E177" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>66</v>
@@ -8531,16 +8531,16 @@
         <v>202</v>
       </c>
       <c r="J177" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K177" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L177" s="10">
         <v>44062</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8557,7 +8557,7 @@
         <v>44062</v>
       </c>
       <c r="E178" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>79</v>
@@ -8573,16 +8573,16 @@
         <v>202</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K178" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L178" s="10">
         <v>44062</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8599,7 +8599,7 @@
         <v>44061</v>
       </c>
       <c r="E179" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>83</v>
@@ -8615,10 +8615,10 @@
         <v>202</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K179" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L179" s="10"/>
       <c r="M179" s="2" t="s">
@@ -8639,7 +8639,7 @@
         <v>44062</v>
       </c>
       <c r="E180" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F180" s="12" t="s">
         <v>87</v>
@@ -8655,16 +8655,16 @@
         <v>202</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K180" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L180" s="10">
         <v>44062</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
         <v>44061</v>
       </c>
       <c r="E181" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>104</v>
@@ -8697,10 +8697,10 @@
         <v>202</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K181" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L181" s="10"/>
       <c r="M181" s="2" t="s">
@@ -8721,7 +8721,7 @@
         <v>44062</v>
       </c>
       <c r="E182" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F182" s="12" t="s">
         <v>106</v>
@@ -8737,16 +8737,16 @@
         <v>202</v>
       </c>
       <c r="J182" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K182" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L182" s="10">
         <v>44062</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8763,7 +8763,7 @@
         <v>44062</v>
       </c>
       <c r="E183" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F183" s="12" t="s">
         <v>107</v>
@@ -8779,16 +8779,16 @@
         <v>202</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K183" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L183" s="10">
         <v>44062</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8805,7 +8805,7 @@
         <v>44062</v>
       </c>
       <c r="E184" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>109</v>
@@ -8821,16 +8821,16 @@
         <v>202</v>
       </c>
       <c r="J184" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K184" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L184" s="10">
         <v>44062</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8847,7 +8847,7 @@
         <v>44061</v>
       </c>
       <c r="E185" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F185" s="12" t="s">
         <v>112</v>
@@ -8863,10 +8863,10 @@
         <v>202</v>
       </c>
       <c r="J185" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K185" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L185" s="10"/>
       <c r="M185" s="2" t="s">
@@ -8887,7 +8887,7 @@
         <v>44062</v>
       </c>
       <c r="E186" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F186" s="12" t="s">
         <v>116</v>
@@ -8903,16 +8903,16 @@
         <v>202</v>
       </c>
       <c r="J186" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K186" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L186" s="10">
         <v>44062</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -8929,7 +8929,7 @@
         <v>44062</v>
       </c>
       <c r="E187" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>120</v>
@@ -8945,16 +8945,16 @@
         <v>202</v>
       </c>
       <c r="J187" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K187" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L187" s="10">
         <v>44062</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -8971,7 +8971,7 @@
         <v>44061</v>
       </c>
       <c r="E188" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>141</v>
@@ -8987,10 +8987,10 @@
         <v>202</v>
       </c>
       <c r="J188" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K188" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L188" s="10"/>
       <c r="M188" s="2" t="s">
@@ -9011,7 +9011,7 @@
         <v>44062</v>
       </c>
       <c r="E189" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F189" s="12" t="s">
         <v>154</v>
@@ -9027,16 +9027,16 @@
         <v>202</v>
       </c>
       <c r="J189" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K189" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L189" s="10">
         <v>44062</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -9053,7 +9053,7 @@
         <v>44061</v>
       </c>
       <c r="E190" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F190" s="12" t="s">
         <v>82</v>
@@ -9069,10 +9069,10 @@
         <v>200</v>
       </c>
       <c r="J190" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K190" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L190" s="10"/>
       <c r="M190" s="2" t="s">
@@ -9093,7 +9093,7 @@
         <v>44062</v>
       </c>
       <c r="E191" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>15</v>
@@ -9109,10 +9109,10 @@
         <v>200</v>
       </c>
       <c r="J191" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K191" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L191" s="10">
         <v>43839</v>
@@ -9135,7 +9135,7 @@
         <v>44069</v>
       </c>
       <c r="E192" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F192" s="12" t="s">
         <v>25</v>
@@ -9151,10 +9151,10 @@
         <v>200</v>
       </c>
       <c r="J192" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K192" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L192" s="10"/>
       <c r="M192" s="2" t="s">
@@ -9175,7 +9175,7 @@
         <v>44072</v>
       </c>
       <c r="E193" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F193" s="12" t="s">
         <v>27</v>
@@ -9191,10 +9191,10 @@
         <v>200</v>
       </c>
       <c r="J193" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K193" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L193" s="10"/>
       <c r="M193" s="2" t="s">
@@ -9215,7 +9215,7 @@
         <v>44072</v>
       </c>
       <c r="E194" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F194" s="12" t="s">
         <v>30</v>
@@ -9231,10 +9231,10 @@
         <v>200</v>
       </c>
       <c r="J194" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K194" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L194" s="10"/>
       <c r="M194" s="9" t="s">
@@ -9255,7 +9255,7 @@
         <v>44062</v>
       </c>
       <c r="E195" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F195" s="12" t="s">
         <v>33</v>
@@ -9271,10 +9271,10 @@
         <v>200</v>
       </c>
       <c r="J195" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K195" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L195" s="10">
         <v>43904</v>
@@ -9297,7 +9297,7 @@
         <v>44062</v>
       </c>
       <c r="E196" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F196" s="12" t="s">
         <v>36</v>
@@ -9313,10 +9313,10 @@
         <v>200</v>
       </c>
       <c r="J196" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K196" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L196" s="10">
         <v>43839</v>
@@ -9339,7 +9339,7 @@
         <v>44072</v>
       </c>
       <c r="E197" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F197" s="12" t="s">
         <v>37</v>
@@ -9355,10 +9355,10 @@
         <v>200</v>
       </c>
       <c r="J197" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K197" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L197" s="10"/>
       <c r="M197" s="2" t="s">
@@ -9379,7 +9379,7 @@
         <v>44075</v>
       </c>
       <c r="E198" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F198" s="12" t="s">
         <v>38</v>
@@ -9395,10 +9395,10 @@
         <v>200</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K198" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L198" s="10"/>
       <c r="M198" s="2" t="s">
@@ -9419,7 +9419,7 @@
         <v>44061</v>
       </c>
       <c r="E199" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F199" s="12" t="s">
         <v>40</v>
@@ -9435,10 +9435,10 @@
         <v>200</v>
       </c>
       <c r="J199" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K199" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L199" s="10"/>
       <c r="M199" s="2" t="s">
@@ -9459,7 +9459,7 @@
         <v>44072</v>
       </c>
       <c r="E200" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>42</v>
@@ -9475,14 +9475,14 @@
         <v>200</v>
       </c>
       <c r="J200" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K200" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L200" s="10"/>
       <c r="M200" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="D201" s="10"/>
       <c r="E201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F201" s="12" t="s">
         <v>45</v>
@@ -9513,10 +9513,10 @@
         <v>200</v>
       </c>
       <c r="J201" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K201" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L201" s="10"/>
       <c r="M201"/>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="D202" s="10"/>
       <c r="E202" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>46</v>
@@ -9549,10 +9549,10 @@
         <v>200</v>
       </c>
       <c r="J202" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K202" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L202" s="10"/>
       <c r="M202"/>
@@ -9569,7 +9569,7 @@
       </c>
       <c r="D203" s="10"/>
       <c r="E203" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>63</v>
@@ -9585,10 +9585,10 @@
         <v>200</v>
       </c>
       <c r="J203" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K203" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L203" s="10"/>
       <c r="M203"/>
@@ -9607,7 +9607,7 @@
         <v>44062</v>
       </c>
       <c r="E204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>67</v>
@@ -9623,10 +9623,10 @@
         <v>200</v>
       </c>
       <c r="J204" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K204" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L204" s="10">
         <v>43839</v>
@@ -9649,7 +9649,7 @@
         <v>44062</v>
       </c>
       <c r="E205" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F205" s="12" t="s">
         <v>68</v>
@@ -9665,10 +9665,10 @@
         <v>200</v>
       </c>
       <c r="J205" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K205" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L205" s="10">
         <v>43861</v>
@@ -9691,7 +9691,7 @@
         <v>44062</v>
       </c>
       <c r="E206" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>74</v>
@@ -9707,10 +9707,10 @@
         <v>200</v>
       </c>
       <c r="J206" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K206" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L206" s="10">
         <v>43839</v>
@@ -9733,7 +9733,7 @@
         <v>44072</v>
       </c>
       <c r="E207" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F207" s="12" t="s">
         <v>88</v>
@@ -9749,10 +9749,10 @@
         <v>200</v>
       </c>
       <c r="J207" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K207" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L207" s="10"/>
       <c r="M207" s="9" t="s">
@@ -9773,7 +9773,7 @@
         <v>44062</v>
       </c>
       <c r="E208" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>91</v>
@@ -9789,10 +9789,10 @@
         <v>200</v>
       </c>
       <c r="J208" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K208" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L208" s="10">
         <v>43861</v>
@@ -9815,7 +9815,7 @@
         <v>44062</v>
       </c>
       <c r="E209" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>93</v>
@@ -9831,10 +9831,10 @@
         <v>200</v>
       </c>
       <c r="J209" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K209" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L209" s="10">
         <v>43839</v>
@@ -9857,7 +9857,7 @@
         <v>44072</v>
       </c>
       <c r="E210" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F210" s="12" t="s">
         <v>94</v>
@@ -9873,10 +9873,10 @@
         <v>200</v>
       </c>
       <c r="J210" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K210" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L210" s="10"/>
       <c r="M210" s="2" t="s">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="D211" s="10"/>
       <c r="E211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F211" s="12" t="s">
         <v>98</v>
@@ -9911,10 +9911,10 @@
         <v>200</v>
       </c>
       <c r="J211" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K211" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L211" s="10"/>
       <c r="M211"/>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="D212" s="10"/>
       <c r="E212" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>99</v>
@@ -9947,10 +9947,10 @@
         <v>200</v>
       </c>
       <c r="J212" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K212" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L212" s="10"/>
       <c r="M212"/>
@@ -9969,7 +9969,7 @@
         <v>44062</v>
       </c>
       <c r="E213" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>101</v>
@@ -9985,10 +9985,10 @@
         <v>200</v>
       </c>
       <c r="J213" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K213" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L213" s="10">
         <v>43861</v>
@@ -10011,7 +10011,7 @@
         <v>44062</v>
       </c>
       <c r="E214" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F214" s="12" t="s">
         <v>103</v>
@@ -10027,10 +10027,10 @@
         <v>200</v>
       </c>
       <c r="J214" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K214" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L214" s="10">
         <v>43904</v>
@@ -10053,10 +10053,10 @@
         <v>44069</v>
       </c>
       <c r="E215" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G215" s="13">
         <v>20377</v>
@@ -10069,10 +10069,10 @@
         <v>200</v>
       </c>
       <c r="J215" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K215" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L215" s="10"/>
       <c r="M215" s="2" t="s">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="D216" s="10"/>
       <c r="E216" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>111</v>
@@ -10107,10 +10107,10 @@
         <v>200</v>
       </c>
       <c r="J216" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K216" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L216" s="10"/>
       <c r="M216"/>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="D217" s="10"/>
       <c r="E217" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>114</v>
@@ -10143,10 +10143,10 @@
         <v>200</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K217" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L217" s="10"/>
       <c r="M217"/>
@@ -10165,7 +10165,7 @@
         <v>44061</v>
       </c>
       <c r="E218" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F218" s="12" t="s">
         <v>115</v>
@@ -10181,10 +10181,10 @@
         <v>200</v>
       </c>
       <c r="J218" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K218" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L218" s="10"/>
       <c r="M218" s="2" t="s">
@@ -10205,7 +10205,7 @@
         <v>44062</v>
       </c>
       <c r="E219" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F219" s="12" t="s">
         <v>123</v>
@@ -10221,10 +10221,10 @@
         <v>200</v>
       </c>
       <c r="J219" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K219" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L219" s="10"/>
       <c r="M219" s="2" t="s">
@@ -10245,7 +10245,7 @@
         <v>44072</v>
       </c>
       <c r="E220" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F220" s="12" t="s">
         <v>129</v>
@@ -10261,10 +10261,10 @@
         <v>200</v>
       </c>
       <c r="J220" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K220" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L220" s="10"/>
       <c r="M220" s="2" t="s">
@@ -10285,7 +10285,7 @@
         <v>44072</v>
       </c>
       <c r="E221" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>144</v>
@@ -10301,10 +10301,10 @@
         <v>200</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K221" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L221" s="10"/>
       <c r="M221" s="2" t="s">
@@ -10325,7 +10325,7 @@
         <v>44062</v>
       </c>
       <c r="E222" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>146</v>
@@ -10341,10 +10341,10 @@
         <v>200</v>
       </c>
       <c r="J222" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K222" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L222" s="10">
         <v>43904</v>
@@ -10367,7 +10367,7 @@
         <v>44069</v>
       </c>
       <c r="E223" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F223" s="12" t="s">
         <v>151</v>
@@ -10383,14 +10383,14 @@
         <v>200</v>
       </c>
       <c r="J223" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K223" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L223" s="10"/>
       <c r="M223" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -10407,7 +10407,7 @@
         <v>44069</v>
       </c>
       <c r="E224" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F224" t="s">
         <v>229</v>
@@ -10423,10 +10423,10 @@
         <v>200</v>
       </c>
       <c r="J224" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K224" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L224" s="10"/>
       <c r="M224" s="2" t="s">
@@ -10447,7 +10447,7 @@
         <v>44069</v>
       </c>
       <c r="E225" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F225" t="s">
         <v>230</v>
@@ -10463,10 +10463,10 @@
         <v>200</v>
       </c>
       <c r="J225" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K225" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L225" s="10"/>
       <c r="M225" s="9" t="s">
@@ -10487,7 +10487,7 @@
         <v>44061</v>
       </c>
       <c r="E226" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F226" s="12" t="s">
         <v>24</v>
@@ -10503,10 +10503,10 @@
         <v>208</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K226" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L226" s="10"/>
       <c r="M226" s="2" t="s">
@@ -10527,7 +10527,7 @@
         <v>44061</v>
       </c>
       <c r="E227" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F227" s="12" t="s">
         <v>47</v>
@@ -10543,10 +10543,10 @@
         <v>208</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K227" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L227" s="10"/>
       <c r="M227" s="2" t="s">
@@ -10567,7 +10567,7 @@
         <v>44061</v>
       </c>
       <c r="E228" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F228" s="12" t="s">
         <v>95</v>
@@ -10583,10 +10583,10 @@
         <v>208</v>
       </c>
       <c r="J228" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K228" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L228" s="10"/>
       <c r="M228" s="2" t="s">
@@ -10607,7 +10607,7 @@
         <v>44061</v>
       </c>
       <c r="E229" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F229" s="12" t="s">
         <v>135</v>
@@ -10623,10 +10623,10 @@
         <v>208</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K229" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L229" s="10"/>
       <c r="M229" s="2" t="s">
@@ -10647,7 +10647,7 @@
         <v>44061</v>
       </c>
       <c r="E230" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>148</v>
@@ -10663,10 +10663,10 @@
         <v>208</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K230" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L230" s="10"/>
       <c r="M230" s="2" t="s">
@@ -10687,7 +10687,7 @@
         <v>44062</v>
       </c>
       <c r="E231" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F231" s="12" t="s">
         <v>19</v>
@@ -10703,10 +10703,10 @@
         <v>208</v>
       </c>
       <c r="J231" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K231" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L231" s="10"/>
       <c r="M231" s="2" t="s">
@@ -10727,7 +10727,7 @@
         <v>44062</v>
       </c>
       <c r="E232" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F232" s="12" t="s">
         <v>31</v>
@@ -10743,10 +10743,10 @@
         <v>208</v>
       </c>
       <c r="J232" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K232" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L232" s="10"/>
       <c r="M232" s="2" t="s">
@@ -10767,7 +10767,7 @@
         <v>44061</v>
       </c>
       <c r="E233" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>58</v>
@@ -10783,10 +10783,10 @@
         <v>208</v>
       </c>
       <c r="J233" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K233" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L233" s="10"/>
       <c r="M233" s="2" t="s">
@@ -10807,7 +10807,7 @@
         <v>44062</v>
       </c>
       <c r="E234" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F234" s="12" t="s">
         <v>89</v>
@@ -10823,10 +10823,10 @@
         <v>208</v>
       </c>
       <c r="J234" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K234" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L234" s="10"/>
       <c r="M234" s="2" t="s">
@@ -10847,7 +10847,7 @@
         <v>44062</v>
       </c>
       <c r="E235" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F235" s="12" t="s">
         <v>9</v>
@@ -10863,10 +10863,10 @@
         <v>205</v>
       </c>
       <c r="J235" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K235" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L235" s="10">
         <v>43867</v>
@@ -10889,7 +10889,7 @@
         <v>44075</v>
       </c>
       <c r="E236" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>12</v>
@@ -10905,10 +10905,10 @@
         <v>205</v>
       </c>
       <c r="J236" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K236" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L236" s="10"/>
       <c r="M236" s="2" t="s">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="D237" s="10"/>
       <c r="E237" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>14</v>
@@ -10943,10 +10943,10 @@
         <v>205</v>
       </c>
       <c r="J237" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K237" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L237" s="10"/>
       <c r="M237"/>
@@ -10965,7 +10965,7 @@
         <v>44069</v>
       </c>
       <c r="E238" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>17</v>
@@ -10981,10 +10981,10 @@
         <v>205</v>
       </c>
       <c r="J238" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K238" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L238" s="10"/>
       <c r="M238" s="2" t="s">
@@ -11005,7 +11005,7 @@
         <v>44075</v>
       </c>
       <c r="E239" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F239" s="12" t="s">
         <v>22</v>
@@ -11021,16 +11021,16 @@
         <v>205</v>
       </c>
       <c r="J239" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K239" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L239" s="10">
         <v>44075</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="D240" s="10"/>
       <c r="E240" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F240" s="12" t="s">
         <v>43</v>
@@ -11061,10 +11061,10 @@
         <v>205</v>
       </c>
       <c r="J240" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K240" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L240" s="10"/>
       <c r="M240"/>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="D241" s="10"/>
       <c r="E241" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>44</v>
@@ -11097,10 +11097,10 @@
         <v>205</v>
       </c>
       <c r="J241" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K241" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L241" s="10"/>
       <c r="M241"/>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="D242" s="10"/>
       <c r="E242" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>51</v>
@@ -11133,10 +11133,10 @@
         <v>205</v>
       </c>
       <c r="J242" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K242" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L242" s="10"/>
       <c r="M242"/>
@@ -11155,7 +11155,7 @@
         <v>44061</v>
       </c>
       <c r="E243" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>55</v>
@@ -11171,10 +11171,10 @@
         <v>205</v>
       </c>
       <c r="J243" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K243" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L243" s="10"/>
       <c r="M243" s="2" t="s">
@@ -11195,7 +11195,7 @@
         <v>44075</v>
       </c>
       <c r="E244" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>62</v>
@@ -11211,16 +11211,16 @@
         <v>205</v>
       </c>
       <c r="J244" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K244" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L244" s="10">
         <v>44075</v>
       </c>
       <c r="M244" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -11237,7 +11237,7 @@
         <v>44062</v>
       </c>
       <c r="E245" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>65</v>
@@ -11253,10 +11253,10 @@
         <v>205</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K245" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L245" s="10">
         <v>43867</v>
@@ -11279,7 +11279,7 @@
         <v>44072</v>
       </c>
       <c r="E246" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>69</v>
@@ -11295,10 +11295,10 @@
         <v>205</v>
       </c>
       <c r="J246" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K246" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L246" s="10"/>
       <c r="M246" s="2" t="s">
@@ -11317,7 +11317,7 @@
       </c>
       <c r="D247" s="10"/>
       <c r="E247" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>72</v>
@@ -11333,10 +11333,10 @@
         <v>205</v>
       </c>
       <c r="J247" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K247" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L247" s="10"/>
       <c r="M247"/>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="D248" s="10"/>
       <c r="E248" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F248" s="12" t="s">
         <v>80</v>
@@ -11369,10 +11369,10 @@
         <v>205</v>
       </c>
       <c r="J248" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K248" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L248" s="10"/>
       <c r="M248"/>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="D249" s="10"/>
       <c r="E249" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>84</v>
@@ -11405,10 +11405,10 @@
         <v>205</v>
       </c>
       <c r="J249" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K249" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L249" s="10"/>
       <c r="M249"/>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="D250" s="10"/>
       <c r="E250" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F250" s="7" t="s">
         <v>85</v>
@@ -11441,10 +11441,10 @@
         <v>205</v>
       </c>
       <c r="J250" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K250" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L250" s="10"/>
       <c r="M250"/>
@@ -11463,7 +11463,7 @@
         <v>44061</v>
       </c>
       <c r="E251" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F251" s="12" t="s">
         <v>100</v>
@@ -11479,10 +11479,10 @@
         <v>205</v>
       </c>
       <c r="J251" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K251" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L251" s="10"/>
       <c r="M251" s="2" t="s">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="D252" s="10"/>
       <c r="E252" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>102</v>
@@ -11517,10 +11517,10 @@
         <v>205</v>
       </c>
       <c r="J252" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K252" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L252" s="10"/>
       <c r="M252"/>
@@ -11539,7 +11539,7 @@
         <v>44072</v>
       </c>
       <c r="E253" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>110</v>
@@ -11555,10 +11555,10 @@
         <v>205</v>
       </c>
       <c r="J253" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K253" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L253" s="10"/>
       <c r="M253" s="2" t="s">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="D254" s="10"/>
       <c r="E254" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F254" s="7" t="s">
         <v>125</v>
@@ -11593,10 +11593,10 @@
         <v>205</v>
       </c>
       <c r="J254" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K254" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L254" s="10"/>
       <c r="M254"/>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="D255" s="10"/>
       <c r="E255" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>126</v>
@@ -11629,10 +11629,10 @@
         <v>205</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K255" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L255" s="10"/>
       <c r="M255"/>
@@ -11651,7 +11651,7 @@
         <v>44072</v>
       </c>
       <c r="E256" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F256" s="7" t="s">
         <v>128</v>
@@ -11667,10 +11667,10 @@
         <v>205</v>
       </c>
       <c r="J256" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K256" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L256" s="10"/>
       <c r="M256" s="2" t="s">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="D257" s="10"/>
       <c r="E257" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>136</v>
@@ -11705,10 +11705,10 @@
         <v>205</v>
       </c>
       <c r="J257" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K257" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L257" s="10"/>
       <c r="M257"/>
@@ -11727,7 +11727,7 @@
         <v>44069</v>
       </c>
       <c r="E258" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F258" s="12" t="s">
         <v>137</v>
@@ -11743,10 +11743,10 @@
         <v>205</v>
       </c>
       <c r="J258" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K258" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L258" s="10"/>
       <c r="M258" s="2" t="s">
@@ -11765,7 +11765,7 @@
       </c>
       <c r="D259" s="10"/>
       <c r="E259" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>138</v>
@@ -11781,10 +11781,10 @@
         <v>205</v>
       </c>
       <c r="J259" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K259" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L259" s="10"/>
       <c r="M259"/>
@@ -11803,7 +11803,7 @@
         <v>44061</v>
       </c>
       <c r="E260" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>140</v>
@@ -11819,10 +11819,10 @@
         <v>205</v>
       </c>
       <c r="J260" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K260" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L260" s="10"/>
       <c r="M260" s="2" t="s">
@@ -11843,7 +11843,7 @@
         <v>44075</v>
       </c>
       <c r="E261" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F261" s="12" t="s">
         <v>150</v>
@@ -11859,10 +11859,10 @@
         <v>205</v>
       </c>
       <c r="J261" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K261" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L261" s="10"/>
       <c r="M261" s="2" t="s">
@@ -11883,7 +11883,7 @@
         <v>44069</v>
       </c>
       <c r="E262" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>155</v>
@@ -11899,10 +11899,10 @@
         <v>205</v>
       </c>
       <c r="J262" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K262" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L262" s="10"/>
       <c r="M262" s="2" t="s">
@@ -11923,7 +11923,7 @@
         <v>44072</v>
       </c>
       <c r="E263" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>156</v>
@@ -11939,10 +11939,10 @@
         <v>205</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K263" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L263" s="10"/>
       <c r="M263" s="2" t="s">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="D264" s="10"/>
       <c r="E264" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F264" s="7" t="s">
         <v>237</v>
@@ -11977,10 +11977,10 @@
         <v>205</v>
       </c>
       <c r="J264" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K264" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="L264" s="10"/>
       <c r="M264"/>

--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB55AF-4772-4885-99EF-85E028EC80CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F6084-7B21-4A5C-BBCB-15450DCA87C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9567,7 +9567,9 @@
       <c r="C203">
         <v>2020</v>
       </c>
-      <c r="D203" s="10"/>
+      <c r="D203" s="10">
+        <v>44078</v>
+      </c>
       <c r="E203" t="s">
         <v>295</v>
       </c>
@@ -9588,10 +9590,12 @@
         <v>315</v>
       </c>
       <c r="K203" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="L203" s="10"/>
-      <c r="M203"/>
+      <c r="M203" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -12200,8 +12204,9 @@
     <hyperlink ref="M261" r:id="rId205" xr:uid="{0DDAF617-BBC0-415A-A896-81CF11D15A90}"/>
     <hyperlink ref="M198" r:id="rId206" xr:uid="{735417BF-8369-404B-9772-0EE5656EFD36}"/>
     <hyperlink ref="M236" r:id="rId207" xr:uid="{224FC792-F0AB-481D-BA29-2CD59333CA22}"/>
+    <hyperlink ref="M203" r:id="rId208" xr:uid="{7BE42E29-EAB8-4FC2-930C-1193E9BB6328}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId208"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId209"/>
 </worksheet>
 </file>
--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E755A3-7A06-4287-A5DF-B7B5D77C1817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7B856-B10E-4B13-906E-871A735ABEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="336">
   <si>
     <t>id</t>
   </si>
@@ -1118,7 +1118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1140,6 +1140,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1425,14 +1431,14 @@
   <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="4"/>
     <col min="2" max="2" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -1451,7 +1457,7 @@
       <c r="B1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1489,7 +1495,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="13">
         <v>44062</v>
       </c>
       <c r="D2" t="s">
@@ -1502,7 +1508,7 @@
         <v>18233</v>
       </c>
       <c r="G2" s="11">
-        <f t="shared" ref="G2:G31" ca="1" si="0">(YEAR(TODAY())-YEAR(F2))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
         <v>71</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1524,7 +1530,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="13">
         <v>44062</v>
       </c>
       <c r="D3" t="s">
@@ -1537,7 +1543,7 @@
         <v>15516</v>
       </c>
       <c r="G3" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
         <v>78</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -1559,8 +1565,8 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
-        <v>44062</v>
+      <c r="C4" s="13">
+        <v>44088</v>
       </c>
       <c r="D4" t="s">
         <v>289</v>
@@ -1572,7 +1578,7 @@
         <v>13941</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
         <v>82</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -1582,10 +1588,12 @@
         <v>311</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1594,7 +1602,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>44062</v>
       </c>
       <c r="D5" t="s">
@@ -1607,7 +1615,7 @@
         <v>18900</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
         <v>69</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -1629,7 +1637,7 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="13">
         <v>44061</v>
       </c>
       <c r="D6" t="s">
@@ -1642,7 +1650,7 @@
         <v>26645</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
         <v>48</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1668,7 +1676,7 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>44061</v>
       </c>
       <c r="D7" t="s">
@@ -1681,7 +1689,7 @@
         <v>20120</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
         <v>65</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1707,7 +1715,7 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>44061</v>
       </c>
       <c r="D8" t="s">
@@ -1720,7 +1728,7 @@
         <v>28232</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
         <v>43</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1746,7 +1754,7 @@
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <v>44061</v>
       </c>
       <c r="D9" t="s">
@@ -1759,7 +1767,7 @@
         <v>27653</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
         <v>45</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -1785,7 +1793,7 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="13">
         <v>44061</v>
       </c>
       <c r="D10" t="s">
@@ -1798,7 +1806,7 @@
         <v>22460</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
         <v>59</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -1824,7 +1832,7 @@
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="13">
         <v>44061</v>
       </c>
       <c r="D11" t="s">
@@ -1837,7 +1845,7 @@
         <v>27681</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
         <v>45</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -1863,7 +1871,7 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="13">
         <v>44061</v>
       </c>
       <c r="D12" t="s">
@@ -1876,7 +1884,7 @@
         <v>17815</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
         <v>72</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -1902,7 +1910,7 @@
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="13">
         <v>44061</v>
       </c>
       <c r="D13" t="s">
@@ -1915,7 +1923,7 @@
         <v>27474</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
         <v>45</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -1941,7 +1949,7 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="13">
         <v>44061</v>
       </c>
       <c r="D14" t="s">
@@ -1954,7 +1962,7 @@
         <v>20671</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
         <v>64</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -1976,7 +1984,7 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="13">
         <v>44061</v>
       </c>
       <c r="D15" t="s">
@@ -1989,7 +1997,7 @@
         <v>17779</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
         <v>72</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -2011,7 +2019,7 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="13">
         <v>44061</v>
       </c>
       <c r="D16" t="s">
@@ -2024,7 +2032,7 @@
         <v>24724</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
         <v>53</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -2046,7 +2054,7 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="13">
         <v>44061</v>
       </c>
       <c r="D17" t="s">
@@ -2059,7 +2067,7 @@
         <v>25134</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
         <v>52</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -2081,7 +2089,7 @@
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="13">
         <v>44061</v>
       </c>
       <c r="D18" t="s">
@@ -2094,7 +2102,7 @@
         <v>25126</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
         <v>52</v>
       </c>
       <c r="H18" t="s">
@@ -2120,7 +2128,7 @@
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="13">
         <v>44061</v>
       </c>
       <c r="D19" t="s">
@@ -2133,7 +2141,7 @@
         <v>24970</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
         <v>52</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -2159,7 +2167,7 @@
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="13">
         <v>44061</v>
       </c>
       <c r="D20" t="s">
@@ -2172,7 +2180,7 @@
         <v>20492</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
         <v>64</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -2198,7 +2206,7 @@
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="13">
         <v>44061</v>
       </c>
       <c r="D21" t="s">
@@ -2211,7 +2219,7 @@
         <v>21368</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
         <v>62</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -2237,7 +2245,7 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="13">
         <v>44061</v>
       </c>
       <c r="D22" t="s">
@@ -2250,7 +2258,7 @@
         <v>27295</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
         <v>46</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -2276,7 +2284,7 @@
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="13">
         <v>44061</v>
       </c>
       <c r="D23" t="s">
@@ -2289,7 +2297,7 @@
         <v>27105</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
         <v>46</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -2315,7 +2323,7 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="13">
         <v>44061</v>
       </c>
       <c r="D24" t="s">
@@ -2328,7 +2336,7 @@
         <v>29554</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
         <v>40</v>
       </c>
       <c r="H24" t="s">
@@ -2354,7 +2362,7 @@
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="13">
         <v>44061</v>
       </c>
       <c r="D25" t="s">
@@ -2367,7 +2375,7 @@
         <v>20015</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
         <v>66</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -2393,7 +2401,7 @@
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="13">
         <v>44061</v>
       </c>
       <c r="D26" t="s">
@@ -2406,7 +2414,7 @@
         <v>26556</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
         <v>48</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -2432,7 +2440,7 @@
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="13">
         <v>44061</v>
       </c>
       <c r="D27" t="s">
@@ -2445,7 +2453,7 @@
         <v>32557</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
         <v>31</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -2471,7 +2479,7 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="13">
         <v>44061</v>
       </c>
       <c r="D28" t="s">
@@ -2484,7 +2492,7 @@
         <v>22770</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
         <v>58</v>
       </c>
       <c r="H28" s="12" t="s">
@@ -2510,7 +2518,7 @@
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="13">
         <v>44061</v>
       </c>
       <c r="D29" t="s">
@@ -2523,7 +2531,7 @@
         <v>17431</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
         <v>73</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -2545,7 +2553,7 @@
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="13"/>
       <c r="D30" t="s">
         <v>291</v>
       </c>
@@ -2556,7 +2564,7 @@
         <v>30994</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
         <v>36</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -2578,7 +2586,7 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="13"/>
       <c r="D31" t="s">
         <v>291</v>
       </c>
@@ -2589,7 +2597,7 @@
         <v>25454</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
         <v>51</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -2611,7 +2619,7 @@
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="13"/>
       <c r="D32" t="s">
         <v>291</v>
       </c>
@@ -2639,7 +2647,7 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="13"/>
       <c r="D33" t="s">
         <v>291</v>
       </c>
@@ -2667,7 +2675,7 @@
       <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="13"/>
       <c r="D34" t="s">
         <v>291</v>
       </c>
@@ -2700,7 +2708,7 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="13"/>
       <c r="D35" t="s">
         <v>291</v>
       </c>
@@ -2728,7 +2736,7 @@
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="13"/>
       <c r="D36" t="s">
         <v>291</v>
       </c>
@@ -2761,7 +2769,7 @@
       <c r="B37">
         <v>4</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="13"/>
       <c r="D37" t="s">
         <v>291</v>
       </c>
@@ -2794,7 +2802,7 @@
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="13"/>
       <c r="D38" t="s">
         <v>291</v>
       </c>
@@ -2827,7 +2835,7 @@
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="13"/>
       <c r="D39" t="s">
         <v>291</v>
       </c>
@@ -2855,7 +2863,7 @@
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="13"/>
       <c r="D40" t="s">
         <v>291</v>
       </c>
@@ -2866,7 +2874,7 @@
         <v>18048</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" ref="G40:G49" ca="1" si="1">(YEAR(TODAY())-YEAR(F40))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
         <v>71</v>
       </c>
       <c r="H40" s="12" t="s">
@@ -2888,7 +2896,7 @@
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="13"/>
       <c r="D41" t="s">
         <v>291</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>25492</v>
       </c>
       <c r="G41" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
         <v>51</v>
       </c>
       <c r="H41" s="12" t="s">
@@ -2921,7 +2929,7 @@
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="13"/>
       <c r="D42" t="s">
         <v>291</v>
       </c>
@@ -2932,7 +2940,7 @@
         <v>27655</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
         <v>45</v>
       </c>
       <c r="H42" s="12" t="s">
@@ -2954,7 +2962,7 @@
       <c r="B43">
         <v>4</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="13"/>
       <c r="D43" t="s">
         <v>291</v>
       </c>
@@ -2965,7 +2973,7 @@
         <v>22881</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
         <v>58</v>
       </c>
       <c r="H43" s="12" t="s">
@@ -2987,7 +2995,7 @@
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="13"/>
       <c r="D44" t="s">
         <v>291</v>
       </c>
@@ -2998,7 +3006,7 @@
         <v>29105</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
         <v>41</v>
       </c>
       <c r="H44" s="12" t="s">
@@ -3020,7 +3028,7 @@
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="13"/>
       <c r="D45" t="s">
         <v>291</v>
       </c>
@@ -3031,7 +3039,7 @@
         <v>20806</v>
       </c>
       <c r="G45" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
         <v>64</v>
       </c>
       <c r="H45" s="12" t="s">
@@ -3053,7 +3061,7 @@
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="13">
         <v>44062</v>
       </c>
       <c r="D46" t="s">
@@ -3066,7 +3074,7 @@
         <v>26763</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
         <v>47</v>
       </c>
       <c r="H46" s="12" t="s">
@@ -3092,7 +3100,7 @@
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="13">
         <v>44062</v>
       </c>
       <c r="D47" t="s">
@@ -3105,7 +3113,7 @@
         <v>26090</v>
       </c>
       <c r="G47" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
         <v>49</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -3131,7 +3139,7 @@
       <c r="B48">
         <v>5</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="13">
         <v>44061</v>
       </c>
       <c r="D48" t="s">
@@ -3144,7 +3152,7 @@
         <v>31131</v>
       </c>
       <c r="G48" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
         <v>35</v>
       </c>
       <c r="H48" s="12" t="s">
@@ -3168,7 +3176,7 @@
       <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="13">
         <v>44062</v>
       </c>
       <c r="D49" t="s">
@@ -3181,7 +3189,7 @@
         <v>25265</v>
       </c>
       <c r="G49" s="11">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
         <v>51</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -3207,7 +3215,7 @@
       <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="13"/>
       <c r="D50" t="s">
         <v>292</v>
       </c>
@@ -3235,7 +3243,7 @@
       <c r="B51">
         <v>5</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="13"/>
       <c r="D51" t="s">
         <v>292</v>
       </c>
@@ -3268,7 +3276,7 @@
       <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="13">
         <v>44062</v>
       </c>
       <c r="D52" t="s">
@@ -3302,7 +3310,7 @@
       <c r="B53">
         <v>5</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="13">
         <v>44062</v>
       </c>
       <c r="D53" t="s">
@@ -3341,7 +3349,7 @@
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="13">
         <v>44061</v>
       </c>
       <c r="D54" t="s">
@@ -3378,7 +3386,7 @@
       <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="13">
         <v>44062</v>
       </c>
       <c r="D55" t="s">
@@ -3417,7 +3425,7 @@
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="13"/>
       <c r="D56" t="s">
         <v>292</v>
       </c>
@@ -3445,7 +3453,7 @@
       <c r="B57">
         <v>5</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="13">
         <v>44069</v>
       </c>
       <c r="D57" t="s">
@@ -3477,7 +3485,7 @@
       <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="13">
         <v>44069</v>
       </c>
       <c r="D58" t="s">
@@ -3509,7 +3517,7 @@
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="13">
         <v>44062</v>
       </c>
       <c r="D59" t="s">
@@ -3548,7 +3556,7 @@
       <c r="B60">
         <v>5</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="13">
         <v>44062</v>
       </c>
       <c r="D60" t="s">
@@ -3587,7 +3595,7 @@
       <c r="B61">
         <v>5</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="13"/>
       <c r="D61" t="s">
         <v>292</v>
       </c>
@@ -3620,7 +3628,7 @@
       <c r="B62">
         <v>5</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="13"/>
       <c r="D62" t="s">
         <v>292</v>
       </c>
@@ -3648,7 +3656,7 @@
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="13"/>
       <c r="D63" t="s">
         <v>292</v>
       </c>
@@ -3659,7 +3667,7 @@
         <v>19005</v>
       </c>
       <c r="G63" s="11">
-        <f t="shared" ref="G63:G126" ca="1" si="2">(YEAR(TODAY())-YEAR(F63))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
         <v>68</v>
       </c>
       <c r="H63" s="12" t="s">
@@ -3681,7 +3689,7 @@
       <c r="B64">
         <v>5</v>
       </c>
-      <c r="C64" s="10"/>
+      <c r="C64" s="13"/>
       <c r="D64" t="s">
         <v>292</v>
       </c>
@@ -3692,7 +3700,7 @@
         <v>27845</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
         <v>44</v>
       </c>
       <c r="H64" s="12" t="s">
@@ -3714,7 +3722,7 @@
       <c r="B65">
         <v>5</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="13">
         <v>44062</v>
       </c>
       <c r="D65" t="s">
@@ -3727,7 +3735,7 @@
         <v>14442</v>
       </c>
       <c r="G65" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
         <v>81</v>
       </c>
       <c r="H65" s="12" t="s">
@@ -3753,7 +3761,7 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="13">
         <v>44062</v>
       </c>
       <c r="D66" t="s">
@@ -3766,7 +3774,7 @@
         <v>19655</v>
       </c>
       <c r="G66" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
         <v>67</v>
       </c>
       <c r="H66" s="12" t="s">
@@ -3792,7 +3800,7 @@
       <c r="B67">
         <v>6</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="13">
         <v>44072</v>
       </c>
       <c r="D67" t="s">
@@ -3805,7 +3813,7 @@
         <v>28285</v>
       </c>
       <c r="G67" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
         <v>43</v>
       </c>
       <c r="H67" t="s">
@@ -3831,7 +3839,7 @@
       <c r="B68">
         <v>6</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="13">
         <v>44072</v>
       </c>
       <c r="D68" t="s">
@@ -3844,7 +3852,7 @@
         <v>24478</v>
       </c>
       <c r="G68" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
         <v>53</v>
       </c>
       <c r="H68" t="s">
@@ -3868,7 +3876,7 @@
       <c r="B69">
         <v>6</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="13">
         <v>44061</v>
       </c>
       <c r="D69" t="s">
@@ -3881,7 +3889,7 @@
         <v>21855</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
         <v>61</v>
       </c>
       <c r="H69" t="s">
@@ -3907,7 +3915,7 @@
       <c r="B70">
         <v>6</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="13">
         <v>44061</v>
       </c>
       <c r="D70" t="s">
@@ -3920,7 +3928,7 @@
         <v>21845</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
         <v>61</v>
       </c>
       <c r="H70" t="s">
@@ -3946,7 +3954,7 @@
       <c r="B71">
         <v>6</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="13">
         <v>44072</v>
       </c>
       <c r="D71" t="s">
@@ -3959,7 +3967,7 @@
         <v>22224</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
         <v>60</v>
       </c>
       <c r="H71" s="12" t="s">
@@ -3983,7 +3991,7 @@
       <c r="B72">
         <v>6</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="13">
         <v>44061</v>
       </c>
       <c r="D72" t="s">
@@ -3996,7 +4004,7 @@
         <v>19423</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
         <v>67</v>
       </c>
       <c r="H72" s="12" t="s">
@@ -4020,7 +4028,7 @@
       <c r="B73">
         <v>6</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="13"/>
       <c r="D73" t="s">
         <v>293</v>
       </c>
@@ -4031,7 +4039,7 @@
         <v>27196</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
         <v>46</v>
       </c>
       <c r="H73" s="12" t="s">
@@ -4053,7 +4061,7 @@
       <c r="B74">
         <v>6</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="13">
         <v>44061</v>
       </c>
       <c r="D74" t="s">
@@ -4066,7 +4074,7 @@
         <v>21509</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
         <v>62</v>
       </c>
       <c r="H74" s="12" t="s">
@@ -4090,7 +4098,7 @@
       <c r="B75">
         <v>6</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="13">
         <v>44061</v>
       </c>
       <c r="D75" t="s">
@@ -4103,7 +4111,7 @@
         <v>16153</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
         <v>76</v>
       </c>
       <c r="H75" t="s">
@@ -4127,7 +4135,7 @@
       <c r="B76">
         <v>6</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="13">
         <v>44061</v>
       </c>
       <c r="D76" t="s">
@@ -4140,7 +4148,7 @@
         <v>25553</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
         <v>51</v>
       </c>
       <c r="H76" t="s">
@@ -4164,7 +4172,7 @@
       <c r="B77">
         <v>6</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="13">
         <v>44061</v>
       </c>
       <c r="D77" t="s">
@@ -4177,7 +4185,7 @@
         <v>25024</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
         <v>52</v>
       </c>
       <c r="H77" t="s">
@@ -4201,7 +4209,7 @@
       <c r="B78">
         <v>6</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="13">
         <v>44062</v>
       </c>
       <c r="D78" t="s">
@@ -4214,7 +4222,7 @@
         <v>26653</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
         <v>48</v>
       </c>
       <c r="H78" s="12" t="s">
@@ -4240,7 +4248,7 @@
       <c r="B79">
         <v>6</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="13">
         <v>44062</v>
       </c>
       <c r="D79" t="s">
@@ -4253,7 +4261,7 @@
         <v>19105</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
         <v>68</v>
       </c>
       <c r="H79" s="12" t="s">
@@ -4279,7 +4287,7 @@
       <c r="B80">
         <v>6</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="13">
         <v>44061</v>
       </c>
       <c r="D80" t="s">
@@ -4292,7 +4300,7 @@
         <v>22698</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
         <v>58</v>
       </c>
       <c r="H80" t="s">
@@ -4316,7 +4324,7 @@
       <c r="B81">
         <v>6</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="13">
         <v>44062</v>
       </c>
       <c r="D81" t="s">
@@ -4329,7 +4337,7 @@
         <v>26732</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
         <v>47</v>
       </c>
       <c r="H81" t="s">
@@ -4355,7 +4363,7 @@
       <c r="B82">
         <v>6</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="13">
         <v>44062</v>
       </c>
       <c r="D82" t="s">
@@ -4368,7 +4376,7 @@
         <v>24767</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
         <v>53</v>
       </c>
       <c r="H82" t="s">
@@ -4394,7 +4402,7 @@
       <c r="B83">
         <v>6</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="13">
         <v>44062</v>
       </c>
       <c r="D83" t="s">
@@ -4407,7 +4415,7 @@
         <v>13455</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
         <v>84</v>
       </c>
       <c r="H83" t="s">
@@ -4433,7 +4441,7 @@
       <c r="B84">
         <v>6</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="13">
         <v>44062</v>
       </c>
       <c r="D84" t="s">
@@ -4446,7 +4454,7 @@
         <v>22305</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
         <v>59</v>
       </c>
       <c r="H84" s="12" t="s">
@@ -4472,7 +4480,7 @@
       <c r="B85">
         <v>6</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="13">
         <v>44062</v>
       </c>
       <c r="D85" t="s">
@@ -4485,7 +4493,7 @@
         <v>26500</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
         <v>48</v>
       </c>
       <c r="H85" s="12" t="s">
@@ -4511,7 +4519,7 @@
       <c r="B86">
         <v>6</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="13">
         <v>44062</v>
       </c>
       <c r="D86" t="s">
@@ -4524,7 +4532,7 @@
         <v>17801</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
         <v>72</v>
       </c>
       <c r="H86" s="12" t="s">
@@ -4550,7 +4558,7 @@
       <c r="B87">
         <v>6</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="13">
         <v>44062</v>
       </c>
       <c r="D87" t="s">
@@ -4563,7 +4571,7 @@
         <v>25491</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
         <v>51</v>
       </c>
       <c r="H87" t="s">
@@ -4589,7 +4597,7 @@
       <c r="B88">
         <v>6</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="13">
         <v>44062</v>
       </c>
       <c r="D88" t="s">
@@ -4602,7 +4610,7 @@
         <v>15859</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
         <v>77</v>
       </c>
       <c r="H88" t="s">
@@ -4628,7 +4636,7 @@
       <c r="B89">
         <v>6</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="13">
         <v>44062</v>
       </c>
       <c r="D89" t="s">
@@ -4641,7 +4649,7 @@
         <v>16455</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
         <v>75</v>
       </c>
       <c r="H89" t="s">
@@ -4667,7 +4675,7 @@
       <c r="B90">
         <v>6</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="13">
         <v>44062</v>
       </c>
       <c r="D90" t="s">
@@ -4680,7 +4688,7 @@
         <v>24173</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
         <v>54</v>
       </c>
       <c r="H90" s="12" t="s">
@@ -4706,7 +4714,7 @@
       <c r="B91">
         <v>6</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="13">
         <v>44062</v>
       </c>
       <c r="D91" t="s">
@@ -4719,7 +4727,7 @@
         <v>22288</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
         <v>59</v>
       </c>
       <c r="H91" s="12" t="s">
@@ -4745,7 +4753,7 @@
       <c r="B92">
         <v>6</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="13">
         <v>44061</v>
       </c>
       <c r="D92" t="s">
@@ -4758,7 +4766,7 @@
         <v>16933</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
         <v>74</v>
       </c>
       <c r="H92" s="12" t="s">
@@ -4782,7 +4790,7 @@
       <c r="B93">
         <v>6</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="13">
         <v>44062</v>
       </c>
       <c r="D93" t="s">
@@ -4795,7 +4803,7 @@
         <v>16010</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
         <v>77</v>
       </c>
       <c r="H93" s="12" t="s">
@@ -4819,7 +4827,7 @@
       <c r="B94">
         <v>6</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="13">
         <v>44062</v>
       </c>
       <c r="D94" t="s">
@@ -4832,7 +4840,7 @@
         <v>29680</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
         <v>39</v>
       </c>
       <c r="H94" t="s">
@@ -4856,7 +4864,7 @@
       <c r="B95">
         <v>6</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="13">
         <v>44072</v>
       </c>
       <c r="D95" t="s">
@@ -4869,7 +4877,7 @@
         <v>26073</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
         <v>49</v>
       </c>
       <c r="H95" t="s">
@@ -4893,7 +4901,7 @@
       <c r="B96">
         <v>6</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="13">
         <v>44061</v>
       </c>
       <c r="D96" t="s">
@@ -4906,7 +4914,7 @@
         <v>24414</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
         <v>54</v>
       </c>
       <c r="H96" t="s">
@@ -4932,7 +4940,7 @@
       <c r="B97">
         <v>6</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="13">
         <v>44072</v>
       </c>
       <c r="D97" t="s">
@@ -4945,7 +4953,7 @@
         <v>20231</v>
       </c>
       <c r="G97" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
         <v>65</v>
       </c>
       <c r="H97" t="s">
@@ -4969,7 +4977,7 @@
       <c r="B98">
         <v>6</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="13">
         <v>44061</v>
       </c>
       <c r="D98" t="s">
@@ -4982,7 +4990,7 @@
         <v>20252</v>
       </c>
       <c r="G98" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
         <v>65</v>
       </c>
       <c r="H98" t="s">
@@ -5008,7 +5016,7 @@
       <c r="B99">
         <v>6</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="13">
         <v>44062</v>
       </c>
       <c r="D99" t="s">
@@ -5021,7 +5029,7 @@
         <v>22882</v>
       </c>
       <c r="G99" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
         <v>58</v>
       </c>
       <c r="H99" s="12" t="s">
@@ -5047,7 +5055,7 @@
       <c r="B100">
         <v>6</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="13">
         <v>44061</v>
       </c>
       <c r="D100" t="s">
@@ -5060,7 +5068,7 @@
         <v>28573</v>
       </c>
       <c r="G100" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
         <v>42</v>
       </c>
       <c r="H100" t="s">
@@ -5084,7 +5092,7 @@
       <c r="B101">
         <v>6</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="13">
         <v>44062</v>
       </c>
       <c r="D101" t="s">
@@ -5097,7 +5105,7 @@
         <v>22094</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
         <v>60</v>
       </c>
       <c r="H101" t="s">
@@ -5123,7 +5131,7 @@
       <c r="B102">
         <v>6</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="13">
         <v>44062</v>
       </c>
       <c r="D102" t="s">
@@ -5136,7 +5144,7 @@
         <v>23444</v>
       </c>
       <c r="G102" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
         <v>56</v>
       </c>
       <c r="H102" t="s">
@@ -5162,7 +5170,7 @@
       <c r="B103">
         <v>6</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="13">
         <v>44062</v>
       </c>
       <c r="D103" t="s">
@@ -5175,7 +5183,7 @@
         <v>19287</v>
       </c>
       <c r="G103" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
         <v>68</v>
       </c>
       <c r="H103" t="s">
@@ -5201,7 +5209,7 @@
       <c r="B104">
         <v>6</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="13">
         <v>44072</v>
       </c>
       <c r="D104" t="s">
@@ -5214,7 +5222,7 @@
         <v>20651</v>
       </c>
       <c r="G104" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
         <v>64</v>
       </c>
       <c r="H104" t="s">
@@ -5238,7 +5246,7 @@
       <c r="B105">
         <v>6</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="13">
         <v>44072</v>
       </c>
       <c r="D105" t="s">
@@ -5251,7 +5259,7 @@
         <v>20797</v>
       </c>
       <c r="G105" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
         <v>64</v>
       </c>
       <c r="H105" s="12" t="s">
@@ -5275,7 +5283,7 @@
       <c r="B106">
         <v>6</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="13">
         <v>44072</v>
       </c>
       <c r="D106" t="s">
@@ -5288,7 +5296,7 @@
         <v>27361</v>
       </c>
       <c r="G106" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
         <v>46</v>
       </c>
       <c r="H106" s="12" t="s">
@@ -5312,7 +5320,7 @@
       <c r="B107">
         <v>6</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="13">
         <v>44062</v>
       </c>
       <c r="D107" t="s">
@@ -5325,7 +5333,7 @@
         <v>19103</v>
       </c>
       <c r="G107" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
         <v>68</v>
       </c>
       <c r="H107" s="12" t="s">
@@ -5351,7 +5359,7 @@
       <c r="B108">
         <v>6</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="13">
         <v>44061</v>
       </c>
       <c r="D108" t="s">
@@ -5364,7 +5372,7 @@
         <v>23776</v>
       </c>
       <c r="G108" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
         <v>55</v>
       </c>
       <c r="H108" s="12" t="s">
@@ -5388,7 +5396,7 @@
       <c r="B109">
         <v>6</v>
       </c>
-      <c r="C109" s="10"/>
+      <c r="C109" s="13"/>
       <c r="D109" t="s">
         <v>293</v>
       </c>
@@ -5399,7 +5407,7 @@
         <v>21953</v>
       </c>
       <c r="G109" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
         <v>60</v>
       </c>
       <c r="H109" s="12" t="s">
@@ -5421,7 +5429,7 @@
       <c r="B110">
         <v>7</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="13">
         <v>44061</v>
       </c>
       <c r="D110" t="s">
@@ -5434,7 +5442,7 @@
         <v>32533</v>
       </c>
       <c r="G110" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
         <v>31</v>
       </c>
       <c r="H110" t="s">
@@ -5458,7 +5466,7 @@
       <c r="B111">
         <v>7</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="13">
         <v>44061</v>
       </c>
       <c r="D111" t="s">
@@ -5471,7 +5479,7 @@
         <v>31454</v>
       </c>
       <c r="G111" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
         <v>34</v>
       </c>
       <c r="H111" t="s">
@@ -5495,7 +5503,7 @@
       <c r="B112">
         <v>7</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="13">
         <v>44061</v>
       </c>
       <c r="D112" t="s">
@@ -5508,7 +5516,7 @@
         <v>31783</v>
       </c>
       <c r="G112" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
         <v>33</v>
       </c>
       <c r="H112" t="s">
@@ -5532,7 +5540,7 @@
       <c r="B113">
         <v>7</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="13">
         <v>44061</v>
       </c>
       <c r="D113" t="s">
@@ -5545,7 +5553,7 @@
         <v>26709</v>
       </c>
       <c r="G113" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
         <v>47</v>
       </c>
       <c r="H113" t="s">
@@ -5571,7 +5579,7 @@
       <c r="B114">
         <v>7</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="13">
         <v>44061</v>
       </c>
       <c r="D114" t="s">
@@ -5584,7 +5592,7 @@
         <v>26900</v>
       </c>
       <c r="G114" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
         <v>47</v>
       </c>
       <c r="H114" t="s">
@@ -5610,7 +5618,7 @@
       <c r="B115">
         <v>7</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C115" s="13">
         <v>44061</v>
       </c>
       <c r="D115" t="s">
@@ -5623,7 +5631,7 @@
         <v>25885</v>
       </c>
       <c r="G115" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
         <v>50</v>
       </c>
       <c r="H115" t="s">
@@ -5649,7 +5657,7 @@
       <c r="B116">
         <v>7</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="13">
         <v>44072</v>
       </c>
       <c r="D116" t="s">
@@ -5662,7 +5670,7 @@
         <v>25750</v>
       </c>
       <c r="G116" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
         <v>50</v>
       </c>
       <c r="H116" t="s">
@@ -5686,7 +5694,7 @@
       <c r="B117">
         <v>7</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="13">
         <v>44061</v>
       </c>
       <c r="D117" t="s">
@@ -5699,7 +5707,7 @@
         <v>23332</v>
       </c>
       <c r="G117" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
         <v>57</v>
       </c>
       <c r="H117" t="s">
@@ -5725,7 +5733,7 @@
       <c r="B118">
         <v>7</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="13">
         <v>44061</v>
       </c>
       <c r="D118" t="s">
@@ -5738,7 +5746,7 @@
         <v>24014</v>
       </c>
       <c r="G118" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
         <v>55</v>
       </c>
       <c r="H118" t="s">
@@ -5764,7 +5772,7 @@
       <c r="B119">
         <v>7</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="13">
         <v>44061</v>
       </c>
       <c r="D119" t="s">
@@ -5777,7 +5785,7 @@
         <v>23226</v>
       </c>
       <c r="G119" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
         <v>57</v>
       </c>
       <c r="H119" t="s">
@@ -5801,7 +5809,7 @@
       <c r="B120">
         <v>7</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="13">
         <v>44062</v>
       </c>
       <c r="D120" t="s">
@@ -5814,7 +5822,7 @@
         <v>24059</v>
       </c>
       <c r="G120" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
         <v>55</v>
       </c>
       <c r="H120" t="s">
@@ -5840,7 +5848,7 @@
       <c r="B121">
         <v>7</v>
       </c>
-      <c r="C121" s="10">
+      <c r="C121" s="13">
         <v>44062</v>
       </c>
       <c r="D121" t="s">
@@ -5853,7 +5861,7 @@
         <v>23594</v>
       </c>
       <c r="G121" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
         <v>56</v>
       </c>
       <c r="H121" t="s">
@@ -5879,7 +5887,7 @@
       <c r="B122">
         <v>7</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="13">
         <v>44062</v>
       </c>
       <c r="D122" t="s">
@@ -5892,7 +5900,7 @@
         <v>23006</v>
       </c>
       <c r="G122" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
         <v>58</v>
       </c>
       <c r="H122" t="s">
@@ -5918,7 +5926,7 @@
       <c r="B123">
         <v>7</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="13">
         <v>44061</v>
       </c>
       <c r="D123" t="s">
@@ -5931,7 +5939,7 @@
         <v>30347</v>
       </c>
       <c r="G123" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
         <v>37</v>
       </c>
       <c r="H123" t="s">
@@ -5955,7 +5963,7 @@
       <c r="B124">
         <v>7</v>
       </c>
-      <c r="C124" s="10"/>
+      <c r="C124" s="13"/>
       <c r="D124" t="s">
         <v>294</v>
       </c>
@@ -5966,7 +5974,7 @@
         <v>20371</v>
       </c>
       <c r="G124" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
         <v>65</v>
       </c>
       <c r="H124" t="s">
@@ -5988,7 +5996,7 @@
       <c r="B125">
         <v>7</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="13">
         <v>44061</v>
       </c>
       <c r="D125" t="s">
@@ -6001,7 +6009,7 @@
         <v>32261</v>
       </c>
       <c r="G125" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
         <v>32</v>
       </c>
       <c r="H125" t="s">
@@ -6025,7 +6033,7 @@
       <c r="B126">
         <v>7</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="13">
         <v>44061</v>
       </c>
       <c r="D126" t="s">
@@ -6038,7 +6046,7 @@
         <v>31868</v>
       </c>
       <c r="G126" s="11">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
         <v>33</v>
       </c>
       <c r="H126" t="s">
@@ -6062,7 +6070,7 @@
       <c r="B127">
         <v>7</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="13">
         <v>44061</v>
       </c>
       <c r="D127" t="s">
@@ -6075,7 +6083,7 @@
         <v>25691</v>
       </c>
       <c r="G127" s="11">
-        <f t="shared" ref="G127:G190" ca="1" si="3">(YEAR(TODAY())-YEAR(F127))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
         <v>50</v>
       </c>
       <c r="H127" t="s">
@@ -6099,7 +6107,7 @@
       <c r="B128">
         <v>7</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="13">
         <v>44061</v>
       </c>
       <c r="D128" t="s">
@@ -6112,7 +6120,7 @@
         <v>22559</v>
       </c>
       <c r="G128" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
         <v>59</v>
       </c>
       <c r="H128" t="s">
@@ -6136,7 +6144,7 @@
       <c r="B129">
         <v>7</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="13">
         <v>44061</v>
       </c>
       <c r="D129" t="s">
@@ -6149,7 +6157,7 @@
         <v>16607</v>
       </c>
       <c r="G129" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
         <v>75</v>
       </c>
       <c r="H129" t="s">
@@ -6173,7 +6181,7 @@
       <c r="B130">
         <v>7</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="13">
         <v>44061</v>
       </c>
       <c r="D130" t="s">
@@ -6186,7 +6194,7 @@
         <v>18196</v>
       </c>
       <c r="G130" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
         <v>71</v>
       </c>
       <c r="H130" t="s">
@@ -6210,7 +6218,7 @@
       <c r="B131">
         <v>7</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="13">
         <v>44061</v>
       </c>
       <c r="D131" t="s">
@@ -6223,7 +6231,7 @@
         <v>25940</v>
       </c>
       <c r="G131" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
         <v>49</v>
       </c>
       <c r="H131" t="s">
@@ -6247,7 +6255,7 @@
       <c r="B132">
         <v>7</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="13">
         <v>44062</v>
       </c>
       <c r="D132" t="s">
@@ -6260,7 +6268,7 @@
         <v>16008</v>
       </c>
       <c r="G132" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
         <v>77</v>
       </c>
       <c r="H132" t="s">
@@ -6286,7 +6294,7 @@
       <c r="B133">
         <v>7</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="13">
         <v>44061</v>
       </c>
       <c r="D133" t="s">
@@ -6299,7 +6307,7 @@
         <v>19657</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
         <v>67</v>
       </c>
       <c r="H133" t="s">
@@ -6323,7 +6331,7 @@
       <c r="B134">
         <v>7</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="13">
         <v>44062</v>
       </c>
       <c r="D134" t="s">
@@ -6336,7 +6344,7 @@
         <v>31247</v>
       </c>
       <c r="G134" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
         <v>35</v>
       </c>
       <c r="H134" t="s">
@@ -6362,7 +6370,7 @@
       <c r="B135">
         <v>7</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="13">
         <v>44062</v>
       </c>
       <c r="D135" t="s">
@@ -6375,7 +6383,7 @@
         <v>20255</v>
       </c>
       <c r="G135" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
         <v>65</v>
       </c>
       <c r="H135" t="s">
@@ -6401,7 +6409,7 @@
       <c r="B136">
         <v>7</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="13">
         <v>44062</v>
       </c>
       <c r="D136" t="s">
@@ -6414,7 +6422,7 @@
         <v>17116</v>
       </c>
       <c r="G136" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
         <v>74</v>
       </c>
       <c r="H136" t="s">
@@ -6440,7 +6448,7 @@
       <c r="B137">
         <v>7</v>
       </c>
-      <c r="C137" s="10">
+      <c r="C137" s="13">
         <v>44062</v>
       </c>
       <c r="D137" t="s">
@@ -6453,7 +6461,7 @@
         <v>15302</v>
       </c>
       <c r="G137" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
         <v>79</v>
       </c>
       <c r="H137" t="s">
@@ -6479,7 +6487,7 @@
       <c r="B138">
         <v>7</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="13">
         <v>44062</v>
       </c>
       <c r="D138" t="s">
@@ -6492,7 +6500,7 @@
         <v>27851</v>
       </c>
       <c r="G138" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
         <v>44</v>
       </c>
       <c r="H138" t="s">
@@ -6518,7 +6526,7 @@
       <c r="B139">
         <v>7</v>
       </c>
-      <c r="C139" s="10">
+      <c r="C139" s="13">
         <v>44061</v>
       </c>
       <c r="D139" t="s">
@@ -6531,7 +6539,7 @@
         <v>28018</v>
       </c>
       <c r="G139" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
         <v>44</v>
       </c>
       <c r="H139" t="s">
@@ -6555,7 +6563,7 @@
       <c r="B140">
         <v>7</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="13">
         <v>44062</v>
       </c>
       <c r="D140" t="s">
@@ -6568,7 +6576,7 @@
         <v>32101</v>
       </c>
       <c r="G140" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
         <v>33</v>
       </c>
       <c r="H140" t="s">
@@ -6594,7 +6602,7 @@
       <c r="B141">
         <v>7</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C141" s="13">
         <v>44062</v>
       </c>
       <c r="D141" t="s">
@@ -6607,7 +6615,7 @@
         <v>27678</v>
       </c>
       <c r="G141" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
         <v>45</v>
       </c>
       <c r="H141" t="s">
@@ -6633,7 +6641,7 @@
       <c r="B142">
         <v>7</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="13">
         <v>44062</v>
       </c>
       <c r="D142" t="s">
@@ -6646,7 +6654,7 @@
         <v>21157</v>
       </c>
       <c r="G142" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
         <v>63</v>
       </c>
       <c r="H142" t="s">
@@ -6672,7 +6680,7 @@
       <c r="B143">
         <v>7</v>
       </c>
-      <c r="C143" s="10">
+      <c r="C143" s="13">
         <v>44062</v>
       </c>
       <c r="D143" t="s">
@@ -6685,7 +6693,7 @@
         <v>19343</v>
       </c>
       <c r="G143" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
         <v>68</v>
       </c>
       <c r="H143" t="s">
@@ -6711,7 +6719,7 @@
       <c r="B144">
         <v>7</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="13">
         <v>44062</v>
       </c>
       <c r="D144" t="s">
@@ -6724,7 +6732,7 @@
         <v>18196</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
         <v>71</v>
       </c>
       <c r="H144" t="s">
@@ -6750,7 +6758,7 @@
       <c r="B145">
         <v>7</v>
       </c>
-      <c r="C145" s="10">
+      <c r="C145" s="13">
         <v>44062</v>
       </c>
       <c r="D145" t="s">
@@ -6763,7 +6771,7 @@
         <v>23371</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
         <v>57</v>
       </c>
       <c r="H145" t="s">
@@ -6789,7 +6797,7 @@
       <c r="B146">
         <v>7</v>
       </c>
-      <c r="C146" s="10">
+      <c r="C146" s="13">
         <v>44061</v>
       </c>
       <c r="D146" t="s">
@@ -6802,7 +6810,7 @@
         <v>26864</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
         <v>47</v>
       </c>
       <c r="H146" t="s">
@@ -6826,7 +6834,7 @@
       <c r="B147">
         <v>7</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="13">
         <v>44062</v>
       </c>
       <c r="D147" t="s">
@@ -6839,7 +6847,7 @@
         <v>26445</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
         <v>48</v>
       </c>
       <c r="H147" t="s">
@@ -6865,7 +6873,7 @@
       <c r="B148">
         <v>7</v>
       </c>
-      <c r="C148" s="10">
+      <c r="C148" s="13">
         <v>44062</v>
       </c>
       <c r="D148" t="s">
@@ -6878,7 +6886,7 @@
         <v>16725</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
         <v>75</v>
       </c>
       <c r="H148" t="s">
@@ -6904,7 +6912,7 @@
       <c r="B149">
         <v>7</v>
       </c>
-      <c r="C149" s="10">
+      <c r="C149" s="13">
         <v>44061</v>
       </c>
       <c r="D149" t="s">
@@ -6917,7 +6925,7 @@
         <v>20655</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
         <v>64</v>
       </c>
       <c r="H149" t="s">
@@ -6941,7 +6949,7 @@
       <c r="B150">
         <v>7</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C150" s="13">
         <v>44061</v>
       </c>
       <c r="D150" t="s">
@@ -6954,7 +6962,7 @@
         <v>22250</v>
       </c>
       <c r="G150" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
         <v>60</v>
       </c>
       <c r="H150" t="s">
@@ -6978,7 +6986,7 @@
       <c r="B151">
         <v>7</v>
       </c>
-      <c r="C151" s="10">
+      <c r="C151" s="13">
         <v>44061</v>
       </c>
       <c r="D151" t="s">
@@ -6991,7 +6999,7 @@
         <v>33308</v>
       </c>
       <c r="G151" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
         <v>29</v>
       </c>
       <c r="H151" t="s">
@@ -7015,7 +7023,7 @@
       <c r="B152">
         <v>7</v>
       </c>
-      <c r="C152" s="10">
+      <c r="C152" s="13">
         <v>44061</v>
       </c>
       <c r="D152" t="s">
@@ -7028,7 +7036,7 @@
         <v>28888</v>
       </c>
       <c r="G152" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
         <v>41</v>
       </c>
       <c r="H152" t="s">
@@ -7052,7 +7060,7 @@
       <c r="B153">
         <v>7</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="13">
         <v>44061</v>
       </c>
       <c r="D153" t="s">
@@ -7065,7 +7073,7 @@
         <v>31920</v>
       </c>
       <c r="G153" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
         <v>33</v>
       </c>
       <c r="H153" t="s">
@@ -7089,7 +7097,7 @@
       <c r="B154">
         <v>7</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C154" s="13">
         <v>44061</v>
       </c>
       <c r="D154" t="s">
@@ -7102,7 +7110,7 @@
         <v>25397</v>
       </c>
       <c r="G154" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
         <v>51</v>
       </c>
       <c r="H154" t="s">
@@ -7126,7 +7134,7 @@
       <c r="B155">
         <v>7</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="13">
         <v>44062</v>
       </c>
       <c r="D155" t="s">
@@ -7139,7 +7147,7 @@
         <v>21338</v>
       </c>
       <c r="G155" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
         <v>62</v>
       </c>
       <c r="H155" t="s">
@@ -7165,7 +7173,7 @@
       <c r="B156">
         <v>7</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="13">
         <v>44062</v>
       </c>
       <c r="D156" t="s">
@@ -7178,7 +7186,7 @@
         <v>26802</v>
       </c>
       <c r="G156" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
         <v>47</v>
       </c>
       <c r="H156" t="s">
@@ -7204,7 +7212,7 @@
       <c r="B157">
         <v>7</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C157" s="13">
         <v>44061</v>
       </c>
       <c r="D157" t="s">
@@ -7217,7 +7225,7 @@
         <v>20281</v>
       </c>
       <c r="G157" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
         <v>65</v>
       </c>
       <c r="H157" t="s">
@@ -7241,7 +7249,7 @@
       <c r="B158">
         <v>7</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="13">
         <v>44062</v>
       </c>
       <c r="D158" t="s">
@@ -7254,7 +7262,7 @@
         <v>15245</v>
       </c>
       <c r="G158" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
         <v>79</v>
       </c>
       <c r="H158" t="s">
@@ -7280,7 +7288,7 @@
       <c r="B159">
         <v>7</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="13">
         <v>44062</v>
       </c>
       <c r="D159" t="s">
@@ -7293,7 +7301,7 @@
         <v>22890</v>
       </c>
       <c r="G159" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
         <v>58</v>
       </c>
       <c r="H159" t="s">
@@ -7319,7 +7327,7 @@
       <c r="B160">
         <v>7</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="13">
         <v>44061</v>
       </c>
       <c r="D160" t="s">
@@ -7332,7 +7340,7 @@
         <v>23367</v>
       </c>
       <c r="G160" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
         <v>57</v>
       </c>
       <c r="H160" t="s">
@@ -7356,7 +7364,7 @@
       <c r="B161">
         <v>7</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="13">
         <v>44062</v>
       </c>
       <c r="D161" t="s">
@@ -7369,7 +7377,7 @@
         <v>24717</v>
       </c>
       <c r="G161" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
         <v>53</v>
       </c>
       <c r="H161" t="s">
@@ -7395,7 +7403,7 @@
       <c r="B162">
         <v>7</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="13">
         <v>44062</v>
       </c>
       <c r="D162" t="s">
@@ -7408,7 +7416,7 @@
         <v>22655</v>
       </c>
       <c r="G162" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
         <v>58</v>
       </c>
       <c r="H162" t="s">
@@ -7434,7 +7442,7 @@
       <c r="B163">
         <v>7</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C163" s="13">
         <v>44062</v>
       </c>
       <c r="D163" t="s">
@@ -7447,7 +7455,7 @@
         <v>27508</v>
       </c>
       <c r="G163" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
         <v>45</v>
       </c>
       <c r="H163" t="s">
@@ -7473,7 +7481,7 @@
       <c r="B164">
         <v>7</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C164" s="13">
         <v>44062</v>
       </c>
       <c r="D164" t="s">
@@ -7486,7 +7494,7 @@
         <v>20885</v>
       </c>
       <c r="G164" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
         <v>63</v>
       </c>
       <c r="H164" t="s">
@@ -7512,7 +7520,7 @@
       <c r="B165">
         <v>7</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C165" s="13">
         <v>44062</v>
       </c>
       <c r="D165" t="s">
@@ -7525,7 +7533,7 @@
         <v>21958</v>
       </c>
       <c r="G165" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
         <v>60</v>
       </c>
       <c r="H165" t="s">
@@ -7551,7 +7559,7 @@
       <c r="B166">
         <v>7</v>
       </c>
-      <c r="C166" s="10">
+      <c r="C166" s="13">
         <v>44062</v>
       </c>
       <c r="D166" t="s">
@@ -7564,7 +7572,7 @@
         <v>21970</v>
       </c>
       <c r="G166" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
         <v>60</v>
       </c>
       <c r="H166" t="s">
@@ -7590,7 +7598,7 @@
       <c r="B167">
         <v>7</v>
       </c>
-      <c r="C167" s="10">
+      <c r="C167" s="13">
         <v>44062</v>
       </c>
       <c r="D167" t="s">
@@ -7603,7 +7611,7 @@
         <v>16997</v>
       </c>
       <c r="G167" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
         <v>74</v>
       </c>
       <c r="H167" t="s">
@@ -7629,7 +7637,7 @@
       <c r="B168">
         <v>7</v>
       </c>
-      <c r="C168" s="10">
+      <c r="C168" s="13">
         <v>44062</v>
       </c>
       <c r="D168" t="s">
@@ -7642,7 +7650,7 @@
         <v>14974</v>
       </c>
       <c r="G168" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
         <v>80</v>
       </c>
       <c r="H168" t="s">
@@ -7668,7 +7676,7 @@
       <c r="B169">
         <v>7</v>
       </c>
-      <c r="C169" s="10">
+      <c r="C169" s="13">
         <v>44062</v>
       </c>
       <c r="D169" t="s">
@@ -7681,7 +7689,7 @@
         <v>25566</v>
       </c>
       <c r="G169" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
         <v>51</v>
       </c>
       <c r="H169" t="s">
@@ -7707,7 +7715,7 @@
       <c r="B170">
         <v>7</v>
       </c>
-      <c r="C170" s="10">
+      <c r="C170" s="13">
         <v>44062</v>
       </c>
       <c r="D170" t="s">
@@ -7720,7 +7728,7 @@
         <v>16390</v>
       </c>
       <c r="G170" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
         <v>76</v>
       </c>
       <c r="H170" t="s">
@@ -7746,7 +7754,7 @@
       <c r="B171">
         <v>7</v>
       </c>
-      <c r="C171" s="10">
+      <c r="C171" s="13">
         <v>44061</v>
       </c>
       <c r="D171" t="s">
@@ -7759,7 +7767,7 @@
         <v>25970</v>
       </c>
       <c r="G171" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
         <v>49</v>
       </c>
       <c r="H171" t="s">
@@ -7783,7 +7791,7 @@
       <c r="B172">
         <v>7</v>
       </c>
-      <c r="C172" s="10">
+      <c r="C172" s="13">
         <v>44062</v>
       </c>
       <c r="D172" t="s">
@@ -7796,7 +7804,7 @@
         <v>27118</v>
       </c>
       <c r="G172" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
         <v>46</v>
       </c>
       <c r="H172" t="s">
@@ -7822,7 +7830,7 @@
       <c r="B173">
         <v>7</v>
       </c>
-      <c r="C173" s="10">
+      <c r="C173" s="13">
         <v>44062</v>
       </c>
       <c r="D173" t="s">
@@ -7835,7 +7843,7 @@
         <v>22024</v>
       </c>
       <c r="G173" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
         <v>60</v>
       </c>
       <c r="H173" t="s">
@@ -7861,7 +7869,7 @@
       <c r="B174">
         <v>7</v>
       </c>
-      <c r="C174" s="10">
+      <c r="C174" s="13">
         <v>44062</v>
       </c>
       <c r="D174" t="s">
@@ -7874,7 +7882,7 @@
         <v>32142</v>
       </c>
       <c r="G174" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
         <v>33</v>
       </c>
       <c r="H174" t="s">
@@ -7900,7 +7908,7 @@
       <c r="B175">
         <v>7</v>
       </c>
-      <c r="C175" s="10">
+      <c r="C175" s="13">
         <v>44062</v>
       </c>
       <c r="D175" t="s">
@@ -7913,7 +7921,7 @@
         <v>25592</v>
       </c>
       <c r="G175" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
         <v>50</v>
       </c>
       <c r="H175" t="s">
@@ -7939,7 +7947,7 @@
       <c r="B176">
         <v>7</v>
       </c>
-      <c r="C176" s="10">
+      <c r="C176" s="13">
         <v>44061</v>
       </c>
       <c r="D176" t="s">
@@ -7952,7 +7960,7 @@
         <v>25846</v>
       </c>
       <c r="G176" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
         <v>50</v>
       </c>
       <c r="H176" t="s">
@@ -7976,7 +7984,7 @@
       <c r="B177">
         <v>7</v>
       </c>
-      <c r="C177" s="10">
+      <c r="C177" s="13">
         <v>44062</v>
       </c>
       <c r="D177" t="s">
@@ -7989,7 +7997,7 @@
         <v>27112</v>
       </c>
       <c r="G177" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
         <v>46</v>
       </c>
       <c r="H177" t="s">
@@ -8015,7 +8023,7 @@
       <c r="B178">
         <v>7</v>
       </c>
-      <c r="C178" s="10">
+      <c r="C178" s="13">
         <v>44062</v>
       </c>
       <c r="D178" t="s">
@@ -8028,7 +8036,7 @@
         <v>23902</v>
       </c>
       <c r="G178" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
         <v>55</v>
       </c>
       <c r="H178" t="s">
@@ -8054,7 +8062,7 @@
       <c r="B179">
         <v>7</v>
       </c>
-      <c r="C179" s="10">
+      <c r="C179" s="13">
         <v>44061</v>
       </c>
       <c r="D179" t="s">
@@ -8067,7 +8075,7 @@
         <v>18640</v>
       </c>
       <c r="G179" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
         <v>69</v>
       </c>
       <c r="H179" t="s">
@@ -8091,7 +8099,7 @@
       <c r="B180">
         <v>7</v>
       </c>
-      <c r="C180" s="10">
+      <c r="C180" s="13">
         <v>44062</v>
       </c>
       <c r="D180" t="s">
@@ -8104,7 +8112,7 @@
         <v>25067</v>
       </c>
       <c r="G180" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
         <v>52</v>
       </c>
       <c r="H180" t="s">
@@ -8130,7 +8138,7 @@
       <c r="B181">
         <v>7</v>
       </c>
-      <c r="C181" s="10">
+      <c r="C181" s="13">
         <v>44061</v>
       </c>
       <c r="D181" t="s">
@@ -8143,7 +8151,7 @@
         <v>21445</v>
       </c>
       <c r="G181" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
         <v>62</v>
       </c>
       <c r="H181" t="s">
@@ -8167,7 +8175,7 @@
       <c r="B182">
         <v>7</v>
       </c>
-      <c r="C182" s="10">
+      <c r="C182" s="13">
         <v>44062</v>
       </c>
       <c r="D182" t="s">
@@ -8180,7 +8188,7 @@
         <v>24964</v>
       </c>
       <c r="G182" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
         <v>52</v>
       </c>
       <c r="H182" t="s">
@@ -8206,7 +8214,7 @@
       <c r="B183">
         <v>7</v>
       </c>
-      <c r="C183" s="10">
+      <c r="C183" s="13">
         <v>44062</v>
       </c>
       <c r="D183" t="s">
@@ -8219,7 +8227,7 @@
         <v>20415</v>
       </c>
       <c r="G183" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
         <v>65</v>
       </c>
       <c r="H183" t="s">
@@ -8245,7 +8253,7 @@
       <c r="B184">
         <v>7</v>
       </c>
-      <c r="C184" s="10">
+      <c r="C184" s="13">
         <v>44062</v>
       </c>
       <c r="D184" t="s">
@@ -8258,7 +8266,7 @@
         <v>18781</v>
       </c>
       <c r="G184" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
         <v>69</v>
       </c>
       <c r="H184" t="s">
@@ -8284,7 +8292,7 @@
       <c r="B185">
         <v>7</v>
       </c>
-      <c r="C185" s="10">
+      <c r="C185" s="13">
         <v>44061</v>
       </c>
       <c r="D185" t="s">
@@ -8297,7 +8305,7 @@
         <v>32771</v>
       </c>
       <c r="G185" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
         <v>31</v>
       </c>
       <c r="H185" t="s">
@@ -8321,7 +8329,7 @@
       <c r="B186">
         <v>7</v>
       </c>
-      <c r="C186" s="10">
+      <c r="C186" s="13">
         <v>44062</v>
       </c>
       <c r="D186" t="s">
@@ -8334,7 +8342,7 @@
         <v>18036</v>
       </c>
       <c r="G186" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
         <v>71</v>
       </c>
       <c r="H186" t="s">
@@ -8360,7 +8368,7 @@
       <c r="B187">
         <v>7</v>
       </c>
-      <c r="C187" s="10">
+      <c r="C187" s="13">
         <v>44062</v>
       </c>
       <c r="D187" t="s">
@@ -8373,7 +8381,7 @@
         <v>24242</v>
       </c>
       <c r="G187" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
         <v>54</v>
       </c>
       <c r="H187" t="s">
@@ -8399,7 +8407,7 @@
       <c r="B188">
         <v>7</v>
       </c>
-      <c r="C188" s="10">
+      <c r="C188" s="13">
         <v>44061</v>
       </c>
       <c r="D188" t="s">
@@ -8412,7 +8420,7 @@
         <v>26203</v>
       </c>
       <c r="G188" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
         <v>49</v>
       </c>
       <c r="H188" t="s">
@@ -8436,7 +8444,7 @@
       <c r="B189">
         <v>7</v>
       </c>
-      <c r="C189" s="10">
+      <c r="C189" s="13">
         <v>44062</v>
       </c>
       <c r="D189" t="s">
@@ -8449,7 +8457,7 @@
         <v>14047</v>
       </c>
       <c r="G189" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
         <v>82</v>
       </c>
       <c r="H189" t="s">
@@ -8475,7 +8483,7 @@
       <c r="B190">
         <v>7</v>
       </c>
-      <c r="C190" s="10">
+      <c r="C190" s="13">
         <v>44061</v>
       </c>
       <c r="D190" t="s">
@@ -8488,7 +8496,7 @@
         <v>29287</v>
       </c>
       <c r="G190" s="11">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
         <v>40</v>
       </c>
       <c r="H190" t="s">
@@ -8512,7 +8520,7 @@
       <c r="B191">
         <v>7</v>
       </c>
-      <c r="C191" s="10">
+      <c r="C191" s="13">
         <v>44062</v>
       </c>
       <c r="D191" t="s">
@@ -8525,7 +8533,7 @@
         <v>17079</v>
       </c>
       <c r="G191" s="11">
-        <f t="shared" ref="G191:G254" ca="1" si="4">(YEAR(TODAY())-YEAR(F191))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
         <v>74</v>
       </c>
       <c r="H191" t="s">
@@ -8551,7 +8559,7 @@
       <c r="B192">
         <v>7</v>
       </c>
-      <c r="C192" s="10">
+      <c r="C192" s="13">
         <v>44069</v>
       </c>
       <c r="D192" t="s">
@@ -8564,7 +8572,7 @@
         <v>27246</v>
       </c>
       <c r="G192" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
         <v>46</v>
       </c>
       <c r="H192" t="s">
@@ -8588,7 +8596,7 @@
       <c r="B193">
         <v>7</v>
       </c>
-      <c r="C193" s="10">
+      <c r="C193" s="13">
         <v>44072</v>
       </c>
       <c r="D193" t="s">
@@ -8601,7 +8609,7 @@
         <v>27492</v>
       </c>
       <c r="G193" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
         <v>45</v>
       </c>
       <c r="H193" t="s">
@@ -8625,7 +8633,7 @@
       <c r="B194">
         <v>7</v>
       </c>
-      <c r="C194" s="10">
+      <c r="C194" s="13">
         <v>44072</v>
       </c>
       <c r="D194" t="s">
@@ -8638,7 +8646,7 @@
         <v>26205</v>
       </c>
       <c r="G194" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
         <v>49</v>
       </c>
       <c r="H194" t="s">
@@ -8662,7 +8670,7 @@
       <c r="B195">
         <v>7</v>
       </c>
-      <c r="C195" s="10">
+      <c r="C195" s="13">
         <v>44062</v>
       </c>
       <c r="D195" t="s">
@@ -8675,7 +8683,7 @@
         <v>25149</v>
       </c>
       <c r="G195" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
         <v>52</v>
       </c>
       <c r="H195" t="s">
@@ -8701,7 +8709,7 @@
       <c r="B196">
         <v>7</v>
       </c>
-      <c r="C196" s="10">
+      <c r="C196" s="13">
         <v>44062</v>
       </c>
       <c r="D196" t="s">
@@ -8714,7 +8722,7 @@
         <v>26299</v>
       </c>
       <c r="G196" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
         <v>48</v>
       </c>
       <c r="H196" t="s">
@@ -8740,7 +8748,7 @@
       <c r="B197">
         <v>7</v>
       </c>
-      <c r="C197" s="10">
+      <c r="C197" s="13">
         <v>44072</v>
       </c>
       <c r="D197" t="s">
@@ -8753,7 +8761,7 @@
         <v>29572</v>
       </c>
       <c r="G197" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
         <v>40</v>
       </c>
       <c r="H197" t="s">
@@ -8777,7 +8785,7 @@
       <c r="B198">
         <v>7</v>
       </c>
-      <c r="C198" s="10">
+      <c r="C198" s="13">
         <v>44075</v>
       </c>
       <c r="D198" t="s">
@@ -8790,7 +8798,7 @@
         <v>24666</v>
       </c>
       <c r="G198" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
         <v>53</v>
       </c>
       <c r="H198" t="s">
@@ -8814,7 +8822,7 @@
       <c r="B199">
         <v>7</v>
       </c>
-      <c r="C199" s="10">
+      <c r="C199" s="13">
         <v>44061</v>
       </c>
       <c r="D199" t="s">
@@ -8827,7 +8835,7 @@
         <v>31817</v>
       </c>
       <c r="G199" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
         <v>33</v>
       </c>
       <c r="H199" t="s">
@@ -8851,7 +8859,7 @@
       <c r="B200">
         <v>7</v>
       </c>
-      <c r="C200" s="10">
+      <c r="C200" s="13">
         <v>44072</v>
       </c>
       <c r="D200" t="s">
@@ -8864,7 +8872,7 @@
         <v>26833</v>
       </c>
       <c r="G200" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
         <v>47</v>
       </c>
       <c r="H200" t="s">
@@ -8888,7 +8896,9 @@
       <c r="B201">
         <v>7</v>
       </c>
-      <c r="C201" s="10"/>
+      <c r="C201" s="13">
+        <v>44088</v>
+      </c>
       <c r="D201" t="s">
         <v>294</v>
       </c>
@@ -8899,7 +8909,7 @@
         <v>19566</v>
       </c>
       <c r="G201" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
         <v>67</v>
       </c>
       <c r="H201" t="s">
@@ -8909,10 +8919,12 @@
         <v>314</v>
       </c>
       <c r="J201" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="K201" s="10"/>
-      <c r="L201"/>
+      <c r="L201" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -8921,7 +8933,7 @@
       <c r="B202">
         <v>7</v>
       </c>
-      <c r="C202" s="10"/>
+      <c r="C202" s="13"/>
       <c r="D202" t="s">
         <v>294</v>
       </c>
@@ -8932,7 +8944,7 @@
         <v>18407</v>
       </c>
       <c r="G202" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
         <v>70</v>
       </c>
       <c r="H202" t="s">
@@ -8954,7 +8966,7 @@
       <c r="B203">
         <v>7</v>
       </c>
-      <c r="C203" s="10">
+      <c r="C203" s="13">
         <v>44078</v>
       </c>
       <c r="D203" t="s">
@@ -8967,7 +8979,7 @@
         <v>19434</v>
       </c>
       <c r="G203" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
         <v>67</v>
       </c>
       <c r="H203" t="s">
@@ -8991,7 +9003,7 @@
       <c r="B204">
         <v>7</v>
       </c>
-      <c r="C204" s="10">
+      <c r="C204" s="13">
         <v>44062</v>
       </c>
       <c r="D204" t="s">
@@ -9004,7 +9016,7 @@
         <v>29549</v>
       </c>
       <c r="G204" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
         <v>40</v>
       </c>
       <c r="H204" t="s">
@@ -9030,7 +9042,7 @@
       <c r="B205">
         <v>7</v>
       </c>
-      <c r="C205" s="10">
+      <c r="C205" s="13">
         <v>44062</v>
       </c>
       <c r="D205" t="s">
@@ -9043,7 +9055,7 @@
         <v>26133</v>
       </c>
       <c r="G205" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
         <v>49</v>
       </c>
       <c r="H205" t="s">
@@ -9069,7 +9081,7 @@
       <c r="B206">
         <v>7</v>
       </c>
-      <c r="C206" s="10">
+      <c r="C206" s="13">
         <v>44062</v>
       </c>
       <c r="D206" t="s">
@@ -9082,7 +9094,7 @@
         <v>21548</v>
       </c>
       <c r="G206" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
         <v>62</v>
       </c>
       <c r="H206" t="s">
@@ -9108,7 +9120,7 @@
       <c r="B207">
         <v>7</v>
       </c>
-      <c r="C207" s="10">
+      <c r="C207" s="13">
         <v>44072</v>
       </c>
       <c r="D207" t="s">
@@ -9121,7 +9133,7 @@
         <v>27763</v>
       </c>
       <c r="G207" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
         <v>44</v>
       </c>
       <c r="H207" t="s">
@@ -9145,7 +9157,7 @@
       <c r="B208">
         <v>7</v>
       </c>
-      <c r="C208" s="10">
+      <c r="C208" s="13">
         <v>44062</v>
       </c>
       <c r="D208" t="s">
@@ -9158,7 +9170,7 @@
         <v>22263</v>
       </c>
       <c r="G208" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
         <v>60</v>
       </c>
       <c r="H208" t="s">
@@ -9184,7 +9196,7 @@
       <c r="B209">
         <v>7</v>
       </c>
-      <c r="C209" s="10">
+      <c r="C209" s="13">
         <v>44062</v>
       </c>
       <c r="D209" t="s">
@@ -9197,7 +9209,7 @@
         <v>31990</v>
       </c>
       <c r="G209" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
         <v>33</v>
       </c>
       <c r="H209" t="s">
@@ -9223,7 +9235,7 @@
       <c r="B210">
         <v>7</v>
       </c>
-      <c r="C210" s="10">
+      <c r="C210" s="13">
         <v>44072</v>
       </c>
       <c r="D210" t="s">
@@ -9236,7 +9248,7 @@
         <v>30315</v>
       </c>
       <c r="G210" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
         <v>38</v>
       </c>
       <c r="H210" t="s">
@@ -9260,7 +9272,7 @@
       <c r="B211">
         <v>7</v>
       </c>
-      <c r="C211" s="10"/>
+      <c r="C211" s="13"/>
       <c r="D211" t="s">
         <v>294</v>
       </c>
@@ -9271,7 +9283,7 @@
         <v>20907</v>
       </c>
       <c r="G211" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
         <v>63</v>
       </c>
       <c r="H211" t="s">
@@ -9293,7 +9305,7 @@
       <c r="B212">
         <v>7</v>
       </c>
-      <c r="C212" s="10"/>
+      <c r="C212" s="13"/>
       <c r="D212" t="s">
         <v>294</v>
       </c>
@@ -9304,7 +9316,7 @@
         <v>21674</v>
       </c>
       <c r="G212" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
         <v>61</v>
       </c>
       <c r="H212" t="s">
@@ -9326,7 +9338,7 @@
       <c r="B213">
         <v>7</v>
       </c>
-      <c r="C213" s="10">
+      <c r="C213" s="13">
         <v>44062</v>
       </c>
       <c r="D213" t="s">
@@ -9339,7 +9351,7 @@
         <v>24834</v>
       </c>
       <c r="G213" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
         <v>53</v>
       </c>
       <c r="H213" t="s">
@@ -9365,7 +9377,7 @@
       <c r="B214">
         <v>7</v>
       </c>
-      <c r="C214" s="10">
+      <c r="C214" s="13">
         <v>44062</v>
       </c>
       <c r="D214" t="s">
@@ -9378,7 +9390,7 @@
         <v>27004</v>
       </c>
       <c r="G214" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
         <v>47</v>
       </c>
       <c r="H214" t="s">
@@ -9404,7 +9416,7 @@
       <c r="B215">
         <v>7</v>
       </c>
-      <c r="C215" s="10">
+      <c r="C215" s="13">
         <v>44069</v>
       </c>
       <c r="D215" t="s">
@@ -9417,7 +9429,7 @@
         <v>20377</v>
       </c>
       <c r="G215" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
         <v>65</v>
       </c>
       <c r="H215" t="s">
@@ -9441,7 +9453,7 @@
       <c r="B216">
         <v>7</v>
       </c>
-      <c r="C216" s="10"/>
+      <c r="C216" s="13"/>
       <c r="D216" t="s">
         <v>294</v>
       </c>
@@ -9452,7 +9464,7 @@
         <v>23941</v>
       </c>
       <c r="G216" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
         <v>55</v>
       </c>
       <c r="H216" t="s">
@@ -9474,7 +9486,7 @@
       <c r="B217">
         <v>7</v>
       </c>
-      <c r="C217" s="10"/>
+      <c r="C217" s="13"/>
       <c r="D217" t="s">
         <v>294</v>
       </c>
@@ -9485,7 +9497,7 @@
         <v>26624</v>
       </c>
       <c r="G217" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
         <v>48</v>
       </c>
       <c r="H217" t="s">
@@ -9507,7 +9519,7 @@
       <c r="B218">
         <v>7</v>
       </c>
-      <c r="C218" s="10">
+      <c r="C218" s="13">
         <v>44061</v>
       </c>
       <c r="D218" t="s">
@@ -9520,7 +9532,7 @@
         <v>31120</v>
       </c>
       <c r="G218" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
         <v>35</v>
       </c>
       <c r="H218" t="s">
@@ -9544,7 +9556,7 @@
       <c r="B219">
         <v>7</v>
       </c>
-      <c r="C219" s="10">
+      <c r="C219" s="13">
         <v>44062</v>
       </c>
       <c r="D219" t="s">
@@ -9557,7 +9569,7 @@
         <v>29623</v>
       </c>
       <c r="G219" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
         <v>39</v>
       </c>
       <c r="H219" t="s">
@@ -9581,7 +9593,7 @@
       <c r="B220">
         <v>7</v>
       </c>
-      <c r="C220" s="10">
+      <c r="C220" s="13">
         <v>44072</v>
       </c>
       <c r="D220" t="s">
@@ -9594,7 +9606,7 @@
         <v>27719</v>
       </c>
       <c r="G220" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
         <v>45</v>
       </c>
       <c r="H220" t="s">
@@ -9618,7 +9630,7 @@
       <c r="B221">
         <v>7</v>
       </c>
-      <c r="C221" s="10">
+      <c r="C221" s="13">
         <v>44072</v>
       </c>
       <c r="D221" t="s">
@@ -9631,7 +9643,7 @@
         <v>25084</v>
       </c>
       <c r="G221" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
         <v>52</v>
       </c>
       <c r="H221" t="s">
@@ -9655,7 +9667,7 @@
       <c r="B222">
         <v>7</v>
       </c>
-      <c r="C222" s="10">
+      <c r="C222" s="13">
         <v>44062</v>
       </c>
       <c r="D222" t="s">
@@ -9668,7 +9680,7 @@
         <v>30097</v>
       </c>
       <c r="G222" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
         <v>38</v>
       </c>
       <c r="H222" t="s">
@@ -9694,7 +9706,7 @@
       <c r="B223">
         <v>7</v>
       </c>
-      <c r="C223" s="10">
+      <c r="C223" s="13">
         <v>44069</v>
       </c>
       <c r="D223" t="s">
@@ -9707,7 +9719,7 @@
         <v>23358</v>
       </c>
       <c r="G223" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
         <v>57</v>
       </c>
       <c r="H223" t="s">
@@ -9731,7 +9743,7 @@
       <c r="B224">
         <v>7</v>
       </c>
-      <c r="C224" s="10">
+      <c r="C224" s="13">
         <v>44069</v>
       </c>
       <c r="D224" t="s">
@@ -9744,7 +9756,7 @@
         <v>32980</v>
       </c>
       <c r="G224" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
         <v>30</v>
       </c>
       <c r="H224" s="12" t="s">
@@ -9768,7 +9780,7 @@
       <c r="B225">
         <v>7</v>
       </c>
-      <c r="C225" s="10">
+      <c r="C225" s="13">
         <v>44069</v>
       </c>
       <c r="D225" t="s">
@@ -9781,7 +9793,7 @@
         <v>31116</v>
       </c>
       <c r="G225" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
         <v>35</v>
       </c>
       <c r="H225" s="12" t="s">
@@ -9805,7 +9817,7 @@
       <c r="B226">
         <v>7</v>
       </c>
-      <c r="C226" s="10">
+      <c r="C226" s="13">
         <v>44061</v>
       </c>
       <c r="D226" t="s">
@@ -9818,7 +9830,7 @@
         <v>30164</v>
       </c>
       <c r="G226" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
         <v>38</v>
       </c>
       <c r="H226" t="s">
@@ -9842,7 +9854,7 @@
       <c r="B227">
         <v>7</v>
       </c>
-      <c r="C227" s="10">
+      <c r="C227" s="13">
         <v>44061</v>
       </c>
       <c r="D227" t="s">
@@ -9855,7 +9867,7 @@
         <v>31562</v>
       </c>
       <c r="G227" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
         <v>34</v>
       </c>
       <c r="H227" t="s">
@@ -9879,7 +9891,7 @@
       <c r="B228">
         <v>7</v>
       </c>
-      <c r="C228" s="10">
+      <c r="C228" s="13">
         <v>44061</v>
       </c>
       <c r="D228" t="s">
@@ -9892,7 +9904,7 @@
         <v>33225</v>
       </c>
       <c r="G228" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
         <v>30</v>
       </c>
       <c r="H228" t="s">
@@ -9916,7 +9928,7 @@
       <c r="B229">
         <v>7</v>
       </c>
-      <c r="C229" s="10">
+      <c r="C229" s="13">
         <v>44061</v>
       </c>
       <c r="D229" t="s">
@@ -9929,7 +9941,7 @@
         <v>30491</v>
       </c>
       <c r="G229" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
         <v>37</v>
       </c>
       <c r="H229" t="s">
@@ -9953,7 +9965,7 @@
       <c r="B230">
         <v>7</v>
       </c>
-      <c r="C230" s="10">
+      <c r="C230" s="13">
         <v>44061</v>
       </c>
       <c r="D230" t="s">
@@ -9966,7 +9978,7 @@
         <v>32481</v>
       </c>
       <c r="G230" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
         <v>32</v>
       </c>
       <c r="H230" t="s">
@@ -9990,7 +10002,7 @@
       <c r="B231">
         <v>7</v>
       </c>
-      <c r="C231" s="10">
+      <c r="C231" s="13">
         <v>44062</v>
       </c>
       <c r="D231" t="s">
@@ -10003,7 +10015,7 @@
         <v>32885</v>
       </c>
       <c r="G231" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
         <v>30</v>
       </c>
       <c r="H231" t="s">
@@ -10027,7 +10039,7 @@
       <c r="B232">
         <v>7</v>
       </c>
-      <c r="C232" s="10">
+      <c r="C232" s="13">
         <v>44062</v>
       </c>
       <c r="D232" t="s">
@@ -10040,7 +10052,7 @@
         <v>31146</v>
       </c>
       <c r="G232" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
         <v>35</v>
       </c>
       <c r="H232" t="s">
@@ -10064,7 +10076,7 @@
       <c r="B233">
         <v>7</v>
       </c>
-      <c r="C233" s="10">
+      <c r="C233" s="13">
         <v>44061</v>
       </c>
       <c r="D233" t="s">
@@ -10077,7 +10089,7 @@
         <v>31814</v>
       </c>
       <c r="G233" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
         <v>33</v>
       </c>
       <c r="H233" t="s">
@@ -10101,7 +10113,7 @@
       <c r="B234">
         <v>7</v>
       </c>
-      <c r="C234" s="10">
+      <c r="C234" s="13">
         <v>44062</v>
       </c>
       <c r="D234" t="s">
@@ -10114,7 +10126,7 @@
         <v>32196</v>
       </c>
       <c r="G234" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
         <v>32</v>
       </c>
       <c r="H234" t="s">
@@ -10138,7 +10150,7 @@
       <c r="B235">
         <v>7</v>
       </c>
-      <c r="C235" s="10">
+      <c r="C235" s="13">
         <v>44062</v>
       </c>
       <c r="D235" t="s">
@@ -10151,7 +10163,7 @@
         <v>20417</v>
       </c>
       <c r="G235" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
         <v>65</v>
       </c>
       <c r="H235" t="s">
@@ -10177,7 +10189,7 @@
       <c r="B236">
         <v>7</v>
       </c>
-      <c r="C236" s="10">
+      <c r="C236" s="13">
         <v>44075</v>
       </c>
       <c r="D236" t="s">
@@ -10190,7 +10202,7 @@
         <v>19630</v>
       </c>
       <c r="G236" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
         <v>67</v>
       </c>
       <c r="H236" t="s">
@@ -10214,7 +10226,7 @@
       <c r="B237">
         <v>7</v>
       </c>
-      <c r="C237" s="10"/>
+      <c r="C237" s="13"/>
       <c r="D237" t="s">
         <v>294</v>
       </c>
@@ -10225,7 +10237,7 @@
         <v>21249</v>
       </c>
       <c r="G237" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
         <v>62</v>
       </c>
       <c r="H237" t="s">
@@ -10247,7 +10259,7 @@
       <c r="B238">
         <v>7</v>
       </c>
-      <c r="C238" s="10">
+      <c r="C238" s="13">
         <v>44069</v>
       </c>
       <c r="D238" t="s">
@@ -10260,7 +10272,7 @@
         <v>21269</v>
       </c>
       <c r="G238" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
         <v>62</v>
       </c>
       <c r="H238" t="s">
@@ -10284,7 +10296,7 @@
       <c r="B239">
         <v>7</v>
       </c>
-      <c r="C239" s="10">
+      <c r="C239" s="13">
         <v>44075</v>
       </c>
       <c r="D239" t="s">
@@ -10297,7 +10309,7 @@
         <v>29503</v>
       </c>
       <c r="G239" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
         <v>40</v>
       </c>
       <c r="H239" t="s">
@@ -10323,7 +10335,9 @@
       <c r="B240">
         <v>7</v>
       </c>
-      <c r="C240" s="10"/>
+      <c r="C240" s="13">
+        <v>44088</v>
+      </c>
       <c r="D240" t="s">
         <v>294</v>
       </c>
@@ -10334,7 +10348,7 @@
         <v>26846</v>
       </c>
       <c r="G240" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
         <v>47</v>
       </c>
       <c r="H240" t="s">
@@ -10344,10 +10358,12 @@
         <v>316</v>
       </c>
       <c r="J240" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="K240" s="10"/>
-      <c r="L240"/>
+      <c r="L240" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
@@ -10356,7 +10372,9 @@
       <c r="B241">
         <v>7</v>
       </c>
-      <c r="C241" s="10"/>
+      <c r="C241" s="13">
+        <v>44088</v>
+      </c>
       <c r="D241" t="s">
         <v>294</v>
       </c>
@@ -10367,7 +10385,7 @@
         <v>24000</v>
       </c>
       <c r="G241" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
         <v>55</v>
       </c>
       <c r="H241" t="s">
@@ -10377,10 +10395,12 @@
         <v>316</v>
       </c>
       <c r="J241" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="K241" s="10"/>
-      <c r="L241"/>
+      <c r="L241" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
@@ -10389,7 +10409,7 @@
       <c r="B242">
         <v>7</v>
       </c>
-      <c r="C242" s="10"/>
+      <c r="C242" s="13"/>
       <c r="D242" t="s">
         <v>294</v>
       </c>
@@ -10400,7 +10420,7 @@
         <v>19943</v>
       </c>
       <c r="G242" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
         <v>66</v>
       </c>
       <c r="H242" t="s">
@@ -10422,7 +10442,7 @@
       <c r="B243">
         <v>7</v>
       </c>
-      <c r="C243" s="10">
+      <c r="C243" s="13">
         <v>44061</v>
       </c>
       <c r="D243" t="s">
@@ -10435,7 +10455,7 @@
         <v>28122</v>
       </c>
       <c r="G243" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
         <v>44</v>
       </c>
       <c r="H243" t="s">
@@ -10459,7 +10479,7 @@
       <c r="B244">
         <v>7</v>
       </c>
-      <c r="C244" s="10">
+      <c r="C244" s="13">
         <v>44075</v>
       </c>
       <c r="D244" t="s">
@@ -10472,7 +10492,7 @@
         <v>29350</v>
       </c>
       <c r="G244" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
         <v>40</v>
       </c>
       <c r="H244" t="s">
@@ -10498,7 +10518,7 @@
       <c r="B245">
         <v>7</v>
       </c>
-      <c r="C245" s="10">
+      <c r="C245" s="13">
         <v>44062</v>
       </c>
       <c r="D245" t="s">
@@ -10511,7 +10531,7 @@
         <v>29000</v>
       </c>
       <c r="G245" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
         <v>41</v>
       </c>
       <c r="H245" t="s">
@@ -10537,7 +10557,7 @@
       <c r="B246">
         <v>7</v>
       </c>
-      <c r="C246" s="10">
+      <c r="C246" s="13">
         <v>44072</v>
       </c>
       <c r="D246" t="s">
@@ -10550,7 +10570,7 @@
         <v>28805</v>
       </c>
       <c r="G246" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
         <v>42</v>
       </c>
       <c r="H246" t="s">
@@ -10574,7 +10594,7 @@
       <c r="B247">
         <v>7</v>
       </c>
-      <c r="C247" s="10"/>
+      <c r="C247" s="13"/>
       <c r="D247" t="s">
         <v>294</v>
       </c>
@@ -10585,7 +10605,7 @@
         <v>20625</v>
       </c>
       <c r="G247" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
         <v>64</v>
       </c>
       <c r="H247" t="s">
@@ -10607,7 +10627,7 @@
       <c r="B248">
         <v>7</v>
       </c>
-      <c r="C248" s="10"/>
+      <c r="C248" s="13"/>
       <c r="D248" t="s">
         <v>294</v>
       </c>
@@ -10618,7 +10638,7 @@
         <v>21011</v>
       </c>
       <c r="G248" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
         <v>63</v>
       </c>
       <c r="H248" t="s">
@@ -10640,7 +10660,7 @@
       <c r="B249">
         <v>7</v>
       </c>
-      <c r="C249" s="10"/>
+      <c r="C249" s="13"/>
       <c r="D249" t="s">
         <v>294</v>
       </c>
@@ -10651,7 +10671,7 @@
         <v>29713</v>
       </c>
       <c r="G249" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
         <v>39</v>
       </c>
       <c r="H249" t="s">
@@ -10673,7 +10693,7 @@
       <c r="B250">
         <v>7</v>
       </c>
-      <c r="C250" s="10"/>
+      <c r="C250" s="13"/>
       <c r="D250" t="s">
         <v>294</v>
       </c>
@@ -10684,7 +10704,7 @@
         <v>21432</v>
       </c>
       <c r="G250" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
         <v>62</v>
       </c>
       <c r="H250" t="s">
@@ -10706,7 +10726,7 @@
       <c r="B251">
         <v>7</v>
       </c>
-      <c r="C251" s="10">
+      <c r="C251" s="13">
         <v>44061</v>
       </c>
       <c r="D251" t="s">
@@ -10719,7 +10739,7 @@
         <v>28961</v>
       </c>
       <c r="G251" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
         <v>41</v>
       </c>
       <c r="H251" t="s">
@@ -10743,7 +10763,7 @@
       <c r="B252">
         <v>7</v>
       </c>
-      <c r="C252" s="10"/>
+      <c r="C252" s="13"/>
       <c r="D252" t="s">
         <v>294</v>
       </c>
@@ -10754,7 +10774,7 @@
         <v>25069</v>
       </c>
       <c r="G252" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
         <v>52</v>
       </c>
       <c r="H252" t="s">
@@ -10776,7 +10796,7 @@
       <c r="B253">
         <v>7</v>
       </c>
-      <c r="C253" s="10">
+      <c r="C253" s="13">
         <v>44072</v>
       </c>
       <c r="D253" t="s">
@@ -10789,7 +10809,7 @@
         <v>24451</v>
       </c>
       <c r="G253" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
         <v>54</v>
       </c>
       <c r="H253" t="s">
@@ -10813,7 +10833,7 @@
       <c r="B254">
         <v>7</v>
       </c>
-      <c r="C254" s="10"/>
+      <c r="C254" s="13"/>
       <c r="D254" t="s">
         <v>294</v>
       </c>
@@ -10824,7 +10844,7 @@
         <v>27834</v>
       </c>
       <c r="G254" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
         <v>44</v>
       </c>
       <c r="H254" t="s">
@@ -10846,7 +10866,7 @@
       <c r="B255">
         <v>7</v>
       </c>
-      <c r="C255" s="10"/>
+      <c r="C255" s="13"/>
       <c r="D255" t="s">
         <v>294</v>
       </c>
@@ -10857,7 +10877,7 @@
         <v>18677</v>
       </c>
       <c r="G255" s="11">
-        <f t="shared" ref="G255:G318" ca="1" si="5">(YEAR(TODAY())-YEAR(F255))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
         <v>69</v>
       </c>
       <c r="H255" t="s">
@@ -10879,7 +10899,7 @@
       <c r="B256">
         <v>7</v>
       </c>
-      <c r="C256" s="10">
+      <c r="C256" s="13">
         <v>44072</v>
       </c>
       <c r="D256" t="s">
@@ -10892,7 +10912,7 @@
         <v>18960</v>
       </c>
       <c r="G256" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
         <v>69</v>
       </c>
       <c r="H256" t="s">
@@ -10916,7 +10936,7 @@
       <c r="B257">
         <v>7</v>
       </c>
-      <c r="C257" s="10"/>
+      <c r="C257" s="13"/>
       <c r="D257" t="s">
         <v>294</v>
       </c>
@@ -10927,7 +10947,7 @@
         <v>20084</v>
       </c>
       <c r="G257" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
         <v>66</v>
       </c>
       <c r="H257" t="s">
@@ -10949,7 +10969,7 @@
       <c r="B258">
         <v>7</v>
       </c>
-      <c r="C258" s="10">
+      <c r="C258" s="13">
         <v>44069</v>
       </c>
       <c r="D258" t="s">
@@ -10962,7 +10982,7 @@
         <v>29014</v>
       </c>
       <c r="G258" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
         <v>41</v>
       </c>
       <c r="H258" t="s">
@@ -10986,7 +11006,7 @@
       <c r="B259">
         <v>7</v>
       </c>
-      <c r="C259" s="10"/>
+      <c r="C259" s="13"/>
       <c r="D259" t="s">
         <v>294</v>
       </c>
@@ -10997,7 +11017,7 @@
         <v>27808</v>
       </c>
       <c r="G259" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
         <v>44</v>
       </c>
       <c r="H259" t="s">
@@ -11019,7 +11039,7 @@
       <c r="B260">
         <v>7</v>
       </c>
-      <c r="C260" s="10">
+      <c r="C260" s="13">
         <v>44061</v>
       </c>
       <c r="D260" t="s">
@@ -11032,7 +11052,7 @@
         <v>29294</v>
       </c>
       <c r="G260" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
         <v>40</v>
       </c>
       <c r="H260" t="s">
@@ -11056,7 +11076,7 @@
       <c r="B261">
         <v>7</v>
       </c>
-      <c r="C261" s="10">
+      <c r="C261" s="13">
         <v>44075</v>
       </c>
       <c r="D261" t="s">
@@ -11069,7 +11089,7 @@
         <v>22529</v>
       </c>
       <c r="G261" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
         <v>59</v>
       </c>
       <c r="H261" t="s">
@@ -11093,7 +11113,7 @@
       <c r="B262">
         <v>7</v>
       </c>
-      <c r="C262" s="10">
+      <c r="C262" s="13">
         <v>44069</v>
       </c>
       <c r="D262" t="s">
@@ -11106,7 +11126,7 @@
         <v>21079</v>
       </c>
       <c r="G262" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
         <v>63</v>
       </c>
       <c r="H262" t="s">
@@ -11130,7 +11150,7 @@
       <c r="B263">
         <v>7</v>
       </c>
-      <c r="C263" s="10">
+      <c r="C263" s="13">
         <v>44072</v>
       </c>
       <c r="D263" t="s">
@@ -11143,7 +11163,7 @@
         <v>28020</v>
       </c>
       <c r="G263" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
         <v>44</v>
       </c>
       <c r="H263" t="s">
@@ -11167,7 +11187,7 @@
       <c r="B264">
         <v>7</v>
       </c>
-      <c r="C264" s="10"/>
+      <c r="C264" s="13"/>
       <c r="D264" t="s">
         <v>294</v>
       </c>
@@ -11178,7 +11198,7 @@
         <v>21554</v>
       </c>
       <c r="G264" s="11">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
         <v>61</v>
       </c>
       <c r="H264" s="12" t="s">
@@ -11409,8 +11429,12 @@
     <hyperlink ref="L198" r:id="rId206" xr:uid="{735417BF-8369-404B-9772-0EE5656EFD36}"/>
     <hyperlink ref="L236" r:id="rId207" xr:uid="{224FC792-F0AB-481D-BA29-2CD59333CA22}"/>
     <hyperlink ref="L203" r:id="rId208" xr:uid="{7BE42E29-EAB8-4FC2-930C-1193E9BB6328}"/>
+    <hyperlink ref="L4" r:id="rId209" xr:uid="{7A91C93B-FE54-45D8-A7F4-CBD847A48201}"/>
+    <hyperlink ref="L201" r:id="rId210" xr:uid="{5A0493C3-889F-4E6F-BB37-10B2DBA70C9F}"/>
+    <hyperlink ref="L240" r:id="rId211" xr:uid="{601CB1EF-48BB-4443-9970-70A78DD3F2F7}"/>
+    <hyperlink ref="L241" r:id="rId212" xr:uid="{1F91F956-28CA-4B58-8834-0C069F43F1F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId209"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId213"/>
 </worksheet>
 </file>
--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7B856-B10E-4B13-906E-871A735ABEC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4482D02-A0B2-451D-803A-F268ACF7483E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="336">
   <si>
     <t>id</t>
   </si>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J264" sqref="J264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5963,7 +5963,9 @@
       <c r="B124">
         <v>7</v>
       </c>
-      <c r="C124" s="13"/>
+      <c r="C124" s="13">
+        <v>44096</v>
+      </c>
       <c r="D124" t="s">
         <v>294</v>
       </c>
@@ -5984,10 +5986,12 @@
         <v>302</v>
       </c>
       <c r="J124" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="K124" s="10"/>
-      <c r="L124"/>
+      <c r="L124" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -11433,8 +11437,9 @@
     <hyperlink ref="L201" r:id="rId210" xr:uid="{5A0493C3-889F-4E6F-BB37-10B2DBA70C9F}"/>
     <hyperlink ref="L240" r:id="rId211" xr:uid="{601CB1EF-48BB-4443-9970-70A78DD3F2F7}"/>
     <hyperlink ref="L241" r:id="rId212" xr:uid="{1F91F956-28CA-4B58-8834-0C069F43F1F8}"/>
+    <hyperlink ref="L124" r:id="rId213" xr:uid="{96BF946A-082E-45BA-9FE1-4E44D74DBBF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId213"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId214"/>
 </worksheet>
 </file>
--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754D47F-3266-44BD-A4A7-3FFE222D7F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDE2DBE-CA06-4AA0-A445-3301BC3482F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="335">
   <si>
     <t>id</t>
   </si>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -3880,20 +3880,20 @@
         <v>290</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F69" s="13">
-        <v>21845</v>
+        <v>21855</v>
       </c>
       <c r="G69" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
         <v>61</v>
       </c>
       <c r="H69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="J69" t="s">
         <v>312</v>
@@ -3907,63 +3907,65 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70" s="13">
-        <v>44072</v>
+        <v>44061</v>
       </c>
       <c r="D70" t="s">
         <v>290</v>
       </c>
       <c r="E70" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F70" s="13">
-        <v>22224</v>
+        <v>21845</v>
       </c>
       <c r="G70" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>60</v>
-      </c>
-      <c r="H70" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" t="s">
         <v>201</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>299</v>
       </c>
       <c r="J70" t="s">
-        <v>311</v>
-      </c>
-      <c r="K70" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="K70" s="10">
+        <v>43837</v>
+      </c>
       <c r="L70" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71" s="13">
-        <v>44061</v>
+        <v>44072</v>
       </c>
       <c r="D71" t="s">
         <v>290</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F71" s="13">
-        <v>19423</v>
+        <v>22224</v>
       </c>
       <c r="G71" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>201</v>
@@ -3976,29 +3978,31 @@
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13">
+        <v>44061</v>
+      </c>
       <c r="D72" t="s">
         <v>290</v>
       </c>
       <c r="E72" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F72" s="13">
-        <v>27196</v>
+        <v>19423</v>
       </c>
       <c r="G72" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>201</v>
@@ -4007,35 +4011,37 @@
         <v>299</v>
       </c>
       <c r="J72" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="K72" s="10"/>
-      <c r="L72"/>
+      <c r="L72" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73" s="13">
-        <v>44062</v>
+        <v>44120</v>
       </c>
       <c r="D73" t="s">
         <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F73" s="13">
-        <v>26732</v>
+        <v>27196</v>
       </c>
       <c r="G73" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>47</v>
-      </c>
-      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="12" t="s">
         <v>201</v>
       </c>
       <c r="I73" s="12" t="s">
@@ -4044,11 +4050,9 @@
       <c r="J73" t="s">
         <v>311</v>
       </c>
-      <c r="K73" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K73" s="10"/>
       <c r="L73" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4316,7 +4320,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4327,21 +4331,21 @@
       <c r="D81" t="s">
         <v>290</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>174</v>
+      <c r="E81" t="s">
+        <v>170</v>
       </c>
       <c r="F81" s="13">
-        <v>24767</v>
+        <v>26732</v>
       </c>
       <c r="G81" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J81" t="s">
         <v>311</v>
@@ -4355,7 +4359,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4367,14 +4371,14 @@
         <v>290</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F82" s="13">
-        <v>13455</v>
+        <v>24767</v>
       </c>
       <c r="G82" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H82" t="s">
         <v>203</v>
@@ -4394,7 +4398,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4406,16 +4410,16 @@
         <v>290</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F83" s="13">
-        <v>22305</v>
+        <v>13455</v>
       </c>
       <c r="G83" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>59</v>
-      </c>
-      <c r="H83" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s">
         <v>203</v>
       </c>
       <c r="I83" s="12" t="s">
@@ -4433,7 +4437,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4444,15 +4448,15 @@
       <c r="D84" t="s">
         <v>290</v>
       </c>
-      <c r="E84" t="s">
-        <v>187</v>
+      <c r="E84" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="F84" s="13">
-        <v>26500</v>
+        <v>22305</v>
       </c>
       <c r="G84" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>203</v>
@@ -4472,7 +4476,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4484,14 +4488,14 @@
         <v>290</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F85" s="13">
-        <v>17801</v>
+        <v>26500</v>
       </c>
       <c r="G85" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>203</v>
@@ -4511,7 +4515,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4523,20 +4527,20 @@
         <v>290</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="F86" s="13">
-        <v>25491</v>
+        <v>17801</v>
       </c>
       <c r="G86" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>51</v>
-      </c>
-      <c r="H86" t="s">
-        <v>202</v>
+        <v>72</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J86" t="s">
         <v>311</v>
@@ -4550,7 +4554,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4561,15 +4565,15 @@
       <c r="D87" t="s">
         <v>290</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>167</v>
+      <c r="E87" t="s">
+        <v>163</v>
       </c>
       <c r="F87" s="13">
-        <v>15859</v>
+        <v>25491</v>
       </c>
       <c r="G87" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s">
         <v>202</v>
@@ -4589,7 +4593,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -4600,15 +4604,15 @@
       <c r="D88" t="s">
         <v>290</v>
       </c>
-      <c r="E88" t="s">
-        <v>176</v>
+      <c r="E88" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="F88" s="13">
-        <v>16455</v>
+        <v>15859</v>
       </c>
       <c r="G88" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s">
         <v>202</v>
@@ -4628,7 +4632,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4640,16 +4644,16 @@
         <v>290</v>
       </c>
       <c r="E89" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F89" s="13">
-        <v>24173</v>
+        <v>16455</v>
       </c>
       <c r="G89" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>54</v>
-      </c>
-      <c r="H89" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" t="s">
         <v>202</v>
       </c>
       <c r="I89" s="12" t="s">
@@ -4667,7 +4671,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -4679,14 +4683,14 @@
         <v>290</v>
       </c>
       <c r="E90" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F90" s="13">
-        <v>22288</v>
+        <v>24173</v>
       </c>
       <c r="G90" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>202</v>
@@ -4706,26 +4710,26 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>6</v>
       </c>
       <c r="C91" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D91" t="s">
         <v>290</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F91" s="13">
-        <v>16933</v>
+        <v>22288</v>
       </c>
       <c r="G91" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>202</v>
@@ -4736,33 +4740,35 @@
       <c r="J91" t="s">
         <v>311</v>
       </c>
-      <c r="K91" s="10"/>
+      <c r="K91" s="10">
+        <v>44062</v>
+      </c>
       <c r="L91" s="2" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>6</v>
       </c>
       <c r="C92" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D92" t="s">
         <v>290</v>
       </c>
       <c r="E92" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F92" s="13">
-        <v>16010</v>
+        <v>16933</v>
       </c>
       <c r="G92" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>202</v>
@@ -4775,46 +4781,44 @@
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>6</v>
       </c>
       <c r="C93" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D93" t="s">
         <v>290</v>
       </c>
       <c r="E93" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="F93" s="13">
-        <v>21855</v>
+        <v>16010</v>
       </c>
       <c r="G93" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>61</v>
-      </c>
-      <c r="H93" t="s">
-        <v>200</v>
+        <v>77</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J93" t="s">
-        <v>312</v>
-      </c>
-      <c r="K93" s="10">
-        <v>43837</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K93" s="10"/>
       <c r="L93" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -5421,7 +5425,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -5433,20 +5437,20 @@
         <v>291</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="F110" s="13">
-        <v>33308</v>
+        <v>32533</v>
       </c>
       <c r="G110" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H110" t="s">
-        <v>330</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>330</v>
+        <v>232</v>
+      </c>
+      <c r="I110" t="s">
+        <v>296</v>
       </c>
       <c r="J110" t="s">
         <v>311</v>
@@ -5458,7 +5462,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -5469,21 +5473,21 @@
       <c r="D111" t="s">
         <v>291</v>
       </c>
-      <c r="E111" s="12" t="s">
-        <v>77</v>
+      <c r="E111" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F111" s="13">
-        <v>25397</v>
+        <v>31454</v>
       </c>
       <c r="G111" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H111" t="s">
-        <v>330</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>330</v>
+        <v>232</v>
+      </c>
+      <c r="I111" t="s">
+        <v>296</v>
       </c>
       <c r="J111" t="s">
         <v>311</v>
@@ -5495,7 +5499,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -5507,14 +5511,14 @@
         <v>291</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="F112" s="13">
-        <v>32533</v>
+        <v>31783</v>
       </c>
       <c r="G112" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H112" t="s">
         <v>232</v>
@@ -5527,12 +5531,12 @@
       </c>
       <c r="K112" s="10"/>
       <c r="L112" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -5543,33 +5547,35 @@
       <c r="D113" t="s">
         <v>291</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>18</v>
+      <c r="E113" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F113" s="13">
-        <v>31454</v>
+        <v>26709</v>
       </c>
       <c r="G113" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>232</v>
-      </c>
-      <c r="I113" t="s">
-        <v>296</v>
+        <v>206</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="J113" t="s">
         <v>311</v>
       </c>
-      <c r="K113" s="10"/>
+      <c r="K113" s="10">
+        <v>44036</v>
+      </c>
       <c r="L113" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -5581,32 +5587,34 @@
         <v>291</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F114" s="13">
-        <v>32481</v>
+        <v>26900</v>
       </c>
       <c r="G114" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J114" t="s">
         <v>311</v>
       </c>
-      <c r="K114" s="10"/>
+      <c r="K114" s="10">
+        <v>44036</v>
+      </c>
       <c r="L114" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -5618,51 +5626,53 @@
         <v>291</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="F115" s="13">
-        <v>31783</v>
+        <v>25885</v>
       </c>
       <c r="G115" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H115" t="s">
-        <v>232</v>
-      </c>
-      <c r="I115" t="s">
-        <v>296</v>
+        <v>206</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="J115" t="s">
-        <v>311</v>
-      </c>
-      <c r="K115" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="K115" s="10">
+        <v>44036</v>
+      </c>
       <c r="L115" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>7</v>
       </c>
       <c r="C116" s="13">
-        <v>44061</v>
+        <v>44072</v>
       </c>
       <c r="D116" t="s">
         <v>291</v>
       </c>
-      <c r="E116" s="12" t="s">
-        <v>78</v>
+      <c r="E116" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F116" s="13">
-        <v>23332</v>
+        <v>25750</v>
       </c>
       <c r="G116" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H116" t="s">
         <v>206</v>
@@ -5673,16 +5683,14 @@
       <c r="J116" t="s">
         <v>312</v>
       </c>
-      <c r="K116" s="10">
-        <v>44036</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>228</v>
+      <c r="K116" s="10"/>
+      <c r="L116" s="9" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -5694,14 +5702,14 @@
         <v>291</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F117" s="13">
-        <v>24014</v>
+        <v>23332</v>
       </c>
       <c r="G117" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H117" t="s">
         <v>206</v>
@@ -5721,26 +5729,26 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>7</v>
       </c>
       <c r="C118" s="13">
-        <v>44072</v>
+        <v>44061</v>
       </c>
       <c r="D118" t="s">
         <v>291</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>32</v>
+      <c r="E118" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="F118" s="13">
-        <v>25750</v>
+        <v>24014</v>
       </c>
       <c r="G118" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H118" t="s">
         <v>206</v>
@@ -5751,14 +5759,16 @@
       <c r="J118" t="s">
         <v>312</v>
       </c>
-      <c r="K118" s="10"/>
-      <c r="L118" s="9" t="s">
-        <v>231</v>
+      <c r="K118" s="10">
+        <v>44036</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -5769,113 +5779,111 @@
       <c r="D119" t="s">
         <v>291</v>
       </c>
-      <c r="E119" s="12" t="s">
-        <v>145</v>
+      <c r="E119" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F119" s="13">
-        <v>26900</v>
+        <v>23226</v>
       </c>
       <c r="G119" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H119" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J119" t="s">
         <v>311</v>
       </c>
-      <c r="K119" s="10">
-        <v>44036</v>
-      </c>
+      <c r="K119" s="10"/>
       <c r="L119" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>7</v>
       </c>
       <c r="C120" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D120" t="s">
         <v>291</v>
       </c>
-      <c r="E120" s="12" t="s">
-        <v>8</v>
+      <c r="E120" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="F120" s="13">
-        <v>25885</v>
+        <v>24059</v>
       </c>
       <c r="G120" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H120" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K120" s="10">
-        <v>44036</v>
+        <v>44062</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>7</v>
       </c>
       <c r="C121" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D121" t="s">
         <v>291</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>61</v>
+      <c r="E121" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="F121" s="13">
-        <v>26709</v>
+        <v>23594</v>
       </c>
       <c r="G121" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H121" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J121" t="s">
         <v>311</v>
       </c>
       <c r="K121" s="10">
-        <v>44036</v>
+        <v>44062</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -5886,15 +5894,15 @@
       <c r="D122" t="s">
         <v>291</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>117</v>
+      <c r="E122" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="F122" s="13">
-        <v>24059</v>
+        <v>23006</v>
       </c>
       <c r="G122" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H122" t="s">
         <v>213</v>
@@ -5914,237 +5922,229 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>7</v>
       </c>
       <c r="C123" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D123" t="s">
         <v>291</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F123" s="13">
-        <v>23006</v>
+        <v>30347</v>
       </c>
       <c r="G123" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H123" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J123" t="s">
         <v>311</v>
       </c>
-      <c r="K123" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K123" s="10"/>
       <c r="L123" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>7</v>
       </c>
       <c r="C124" s="13">
-        <v>44061</v>
+        <v>44096</v>
       </c>
       <c r="D124" t="s">
         <v>291</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="F124" s="13">
-        <v>23226</v>
+        <v>20371</v>
       </c>
       <c r="G124" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H124" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J124" t="s">
         <v>311</v>
       </c>
       <c r="K124" s="10"/>
       <c r="L124" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>7</v>
       </c>
       <c r="C125" s="13">
-        <v>44075</v>
+        <v>44061</v>
       </c>
       <c r="D125" t="s">
         <v>291</v>
       </c>
-      <c r="E125" s="12" t="s">
-        <v>22</v>
+      <c r="E125" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="F125" s="13">
-        <v>29503</v>
+        <v>32261</v>
       </c>
       <c r="G125" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H125" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I125" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J125" t="s">
-        <v>327</v>
-      </c>
-      <c r="K125" s="10">
-        <v>44075</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K125" s="10"/>
       <c r="L125" s="2" t="s">
-        <v>328</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>7</v>
       </c>
       <c r="C126" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D126" t="s">
         <v>291</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F126" s="13">
-        <v>16390</v>
+        <v>31868</v>
       </c>
       <c r="G126" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="H126" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I126" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J126" t="s">
         <v>311</v>
       </c>
-      <c r="K126" s="10">
-        <v>44055</v>
-      </c>
+      <c r="K126" s="10"/>
       <c r="L126" s="2" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>7</v>
       </c>
       <c r="C127" s="13">
-        <v>44072</v>
+        <v>44061</v>
       </c>
       <c r="D127" t="s">
         <v>291</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="F127" s="13">
-        <v>27763</v>
+        <v>25691</v>
       </c>
       <c r="G127" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H127" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I127" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J127" t="s">
         <v>311</v>
       </c>
       <c r="K127" s="10"/>
-      <c r="L127" s="9" t="s">
-        <v>231</v>
+      <c r="L127" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>7</v>
       </c>
       <c r="C128" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D128" t="s">
         <v>291</v>
       </c>
-      <c r="E128" s="7" t="s">
-        <v>75</v>
+      <c r="E128" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F128" s="13">
-        <v>16997</v>
+        <v>22559</v>
       </c>
       <c r="G128" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H128" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I128" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J128" t="s">
         <v>311</v>
       </c>
-      <c r="K128" s="10">
-        <v>44055</v>
-      </c>
+      <c r="K128" s="10"/>
       <c r="L128" s="2" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -6156,20 +6156,20 @@
         <v>291</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="F129" s="13">
-        <v>30347</v>
+        <v>16607</v>
       </c>
       <c r="G129" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J129" t="s">
         <v>311</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -6192,144 +6192,146 @@
       <c r="D130" t="s">
         <v>291</v>
       </c>
-      <c r="E130" s="7" t="s">
-        <v>35</v>
+      <c r="E130" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="F130" s="13">
-        <v>25970</v>
+        <v>18196</v>
       </c>
       <c r="G130" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H130" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J130" t="s">
         <v>311</v>
       </c>
       <c r="K130" s="10"/>
       <c r="L130" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>7</v>
       </c>
       <c r="C131" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D131" t="s">
         <v>291</v>
       </c>
-      <c r="E131" s="7" t="s">
-        <v>149</v>
+      <c r="E131" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="F131" s="13">
-        <v>18196</v>
+        <v>25940</v>
       </c>
       <c r="G131" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H131" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J131" t="s">
         <v>311</v>
       </c>
-      <c r="K131" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K131" s="10"/>
       <c r="L131" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>7</v>
       </c>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>44062</v>
+      </c>
       <c r="D132" t="s">
         <v>291</v>
       </c>
-      <c r="E132" s="7" t="s">
-        <v>99</v>
+      <c r="E132" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="F132" s="13">
-        <v>21674</v>
+        <v>16008</v>
       </c>
       <c r="G132" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J132" t="s">
-        <v>329</v>
-      </c>
-      <c r="K132" s="10"/>
-      <c r="L132"/>
+        <v>311</v>
+      </c>
+      <c r="K132" s="10">
+        <v>44062</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>7</v>
       </c>
       <c r="C133" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D133" t="s">
         <v>291</v>
       </c>
-      <c r="E133" s="12" t="s">
-        <v>106</v>
+      <c r="E133" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F133" s="13">
-        <v>24964</v>
+        <v>19657</v>
       </c>
       <c r="G133" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H133" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J133" t="s">
         <v>311</v>
       </c>
-      <c r="K133" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K133" s="10"/>
       <c r="L133" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -6340,21 +6342,21 @@
       <c r="D134" t="s">
         <v>291</v>
       </c>
-      <c r="E134" s="7" t="s">
-        <v>131</v>
+      <c r="E134" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="F134" s="13">
-        <v>23594</v>
+        <v>31247</v>
       </c>
       <c r="G134" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H134" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J134" t="s">
         <v>311</v>
@@ -6368,7 +6370,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -6379,35 +6381,35 @@
       <c r="D135" t="s">
         <v>291</v>
       </c>
-      <c r="E135" s="12" t="s">
-        <v>11</v>
+      <c r="E135" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F135" s="13">
-        <v>20885</v>
+        <v>20255</v>
       </c>
       <c r="G135" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H135" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J135" t="s">
         <v>311</v>
       </c>
       <c r="K135" s="10">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -6418,21 +6420,21 @@
       <c r="D136" t="s">
         <v>291</v>
       </c>
-      <c r="E136" s="12" t="s">
-        <v>121</v>
+      <c r="E136" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="F136" s="13">
-        <v>32101</v>
+        <v>17116</v>
       </c>
       <c r="G136" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="H136" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J136" t="s">
         <v>311</v>
@@ -6446,44 +6448,46 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D137" t="s">
         <v>291</v>
       </c>
-      <c r="E137" s="12" t="s">
-        <v>47</v>
+      <c r="E137" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="F137" s="13">
-        <v>31562</v>
+        <v>15302</v>
       </c>
       <c r="G137" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="H137" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I137" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J137" t="s">
         <v>311</v>
       </c>
-      <c r="K137" s="10"/>
+      <c r="K137" s="10">
+        <v>44062</v>
+      </c>
       <c r="L137" s="2" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -6494,21 +6498,21 @@
       <c r="D138" t="s">
         <v>291</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>6</v>
+      <c r="E138" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="F138" s="13">
-        <v>21338</v>
+        <v>27851</v>
       </c>
       <c r="G138" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H138" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I138" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J138" t="s">
         <v>311</v>
@@ -6522,44 +6526,44 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>7</v>
       </c>
       <c r="C139" s="13">
-        <v>44096</v>
+        <v>44061</v>
       </c>
       <c r="D139" t="s">
         <v>291</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F139" s="13">
-        <v>20371</v>
+        <v>28018</v>
       </c>
       <c r="G139" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H139" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J139" t="s">
         <v>311</v>
       </c>
       <c r="K139" s="10"/>
       <c r="L139" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -6571,14 +6575,14 @@
         <v>291</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="F140" s="13">
-        <v>20417</v>
+        <v>32101</v>
       </c>
       <c r="G140" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="H140" t="s">
         <v>201</v>
@@ -6590,196 +6594,210 @@
         <v>311</v>
       </c>
       <c r="K140" s="10">
-        <v>43867</v>
+        <v>44062</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>7</v>
       </c>
       <c r="C141" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D141" t="s">
         <v>291</v>
       </c>
-      <c r="E141" s="12" t="s">
-        <v>54</v>
+      <c r="E141" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="F141" s="13">
-        <v>20655</v>
+        <v>27678</v>
       </c>
       <c r="G141" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H141" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I141" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J141" t="s">
         <v>311</v>
       </c>
-      <c r="K141" s="10"/>
+      <c r="K141" s="10">
+        <v>44062</v>
+      </c>
       <c r="L141" s="2" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>7</v>
       </c>
-      <c r="C142" s="13"/>
+      <c r="C142" s="13">
+        <v>44062</v>
+      </c>
       <c r="D142" t="s">
         <v>291</v>
       </c>
-      <c r="E142" s="12" t="s">
-        <v>126</v>
+      <c r="E142" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="F142" s="13">
-        <v>18677</v>
+        <v>21157</v>
       </c>
       <c r="G142" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H142" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J142" t="s">
-        <v>329</v>
-      </c>
-      <c r="K142" s="10"/>
-      <c r="L142"/>
+        <v>311</v>
+      </c>
+      <c r="K142" s="10">
+        <v>44062</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D143" t="s">
         <v>291</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F143" s="13">
-        <v>18196</v>
+        <v>19343</v>
       </c>
       <c r="G143" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H143" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J143" t="s">
         <v>311</v>
       </c>
-      <c r="K143" s="10"/>
+      <c r="K143" s="10">
+        <v>44062</v>
+      </c>
       <c r="L143" s="2" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>7</v>
       </c>
       <c r="C144" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D144" t="s">
         <v>291</v>
       </c>
-      <c r="E144" s="12" t="s">
-        <v>13</v>
+      <c r="E144" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="F144" s="13">
-        <v>25691</v>
+        <v>18196</v>
       </c>
       <c r="G144" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H144" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J144" t="s">
         <v>311</v>
       </c>
-      <c r="K144" s="10"/>
+      <c r="K144" s="10">
+        <v>44062</v>
+      </c>
       <c r="L144" s="2" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>7</v>
       </c>
       <c r="C145" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D145" t="s">
         <v>291</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="F145" s="13">
-        <v>32261</v>
+        <v>23371</v>
       </c>
       <c r="G145" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H145" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J145" t="s">
         <v>311</v>
       </c>
-      <c r="K145" s="10"/>
+      <c r="K145" s="10">
+        <v>44062</v>
+      </c>
       <c r="L145" s="2" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -6790,21 +6808,21 @@
       <c r="D146" t="s">
         <v>291</v>
       </c>
-      <c r="E146" s="12" t="s">
-        <v>53</v>
+      <c r="E146" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="F146" s="13">
-        <v>16607</v>
+        <v>26864</v>
       </c>
       <c r="G146" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H146" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J146" t="s">
         <v>311</v>
@@ -6816,44 +6834,46 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>7</v>
       </c>
       <c r="C147" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D147" t="s">
         <v>291</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F147" s="13">
-        <v>25940</v>
+        <v>26445</v>
       </c>
       <c r="G147" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H147" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J147" t="s">
         <v>311</v>
       </c>
-      <c r="K147" s="10"/>
+      <c r="K147" s="10">
+        <v>43887</v>
+      </c>
       <c r="L147" s="2" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -6865,34 +6885,34 @@
         <v>291</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F148" s="13">
-        <v>16008</v>
+        <v>16725</v>
       </c>
       <c r="G148" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H148" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J148" t="s">
         <v>311</v>
       </c>
       <c r="K148" s="10">
-        <v>44062</v>
+        <v>43817</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -6903,21 +6923,21 @@
       <c r="D149" t="s">
         <v>291</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>50</v>
+      <c r="E149" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="F149" s="13">
-        <v>22559</v>
+        <v>20655</v>
       </c>
       <c r="G149" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H149" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I149" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J149" t="s">
         <v>311</v>
@@ -6929,7 +6949,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -6940,21 +6960,21 @@
       <c r="D150" t="s">
         <v>291</v>
       </c>
-      <c r="E150" s="7" t="s">
-        <v>21</v>
+      <c r="E150" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="F150" s="13">
-        <v>31868</v>
+        <v>22250</v>
       </c>
       <c r="G150" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H150" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J150" t="s">
         <v>311</v>
@@ -6966,85 +6986,81 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>7</v>
       </c>
       <c r="C151" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D151" t="s">
         <v>291</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F151" s="13">
-        <v>27508</v>
+        <v>33308</v>
       </c>
       <c r="G151" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H151" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="I151" s="12" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="J151" t="s">
         <v>311</v>
       </c>
-      <c r="K151" s="10">
-        <v>44055</v>
-      </c>
+      <c r="K151" s="10"/>
       <c r="L151" s="2" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>7</v>
       </c>
       <c r="C152" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D152" t="s">
         <v>291</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="F152" s="13">
-        <v>19343</v>
+        <v>28888</v>
       </c>
       <c r="G152" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H152" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J152" t="s">
         <v>311</v>
       </c>
-      <c r="K152" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K152" s="10"/>
       <c r="L152" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -7056,20 +7072,20 @@
         <v>291</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F153" s="13">
-        <v>19657</v>
+        <v>31920</v>
       </c>
       <c r="G153" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H153" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J153" t="s">
         <v>311</v>
@@ -7081,7 +7097,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -7092,21 +7108,21 @@
       <c r="D154" t="s">
         <v>291</v>
       </c>
-      <c r="E154" s="7" t="s">
-        <v>119</v>
+      <c r="E154" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="F154" s="13">
-        <v>28018</v>
+        <v>25397</v>
       </c>
       <c r="G154" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H154" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="J154" t="s">
         <v>311</v>
@@ -7118,7 +7134,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -7130,20 +7146,20 @@
         <v>291</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F155" s="13">
-        <v>20255</v>
+        <v>21338</v>
       </c>
       <c r="G155" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H155" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J155" t="s">
         <v>311</v>
@@ -7157,7 +7173,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -7168,21 +7184,21 @@
       <c r="D156" t="s">
         <v>291</v>
       </c>
-      <c r="E156" s="12" t="s">
-        <v>96</v>
+      <c r="E156" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F156" s="13">
-        <v>27851</v>
+        <v>26802</v>
       </c>
       <c r="G156" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I156" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J156" t="s">
         <v>311</v>
@@ -7196,46 +7212,44 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>7</v>
       </c>
       <c r="C157" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D157" t="s">
         <v>291</v>
       </c>
-      <c r="E157" s="7" t="s">
-        <v>152</v>
+      <c r="E157" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F157" s="13">
-        <v>23371</v>
+        <v>20281</v>
       </c>
       <c r="G157" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J157" t="s">
         <v>311</v>
       </c>
-      <c r="K157" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K157" s="10"/>
       <c r="L157" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -7247,20 +7261,20 @@
         <v>291</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F158" s="13">
-        <v>15302</v>
+        <v>15245</v>
       </c>
       <c r="G158" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
         <v>79</v>
       </c>
       <c r="H158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J158" t="s">
         <v>311</v>
@@ -7274,7 +7288,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -7286,20 +7300,20 @@
         <v>291</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F159" s="13">
-        <v>17116</v>
+        <v>22890</v>
       </c>
       <c r="G159" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J159" t="s">
         <v>311</v>
@@ -7313,83 +7327,83 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>7</v>
       </c>
       <c r="C160" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D160" t="s">
         <v>291</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>133</v>
+      <c r="E160" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="F160" s="13">
-        <v>21157</v>
+        <v>23367</v>
       </c>
       <c r="G160" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H160" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J160" t="s">
         <v>311</v>
       </c>
-      <c r="K160" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K160" s="10"/>
       <c r="L160" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
       <c r="C161" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D161" t="s">
         <v>291</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>157</v>
+      <c r="E161" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="F161" s="13">
-        <v>26864</v>
+        <v>24717</v>
       </c>
       <c r="G161" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J161" t="s">
         <v>311</v>
       </c>
-      <c r="K161" s="10"/>
+      <c r="K161" s="10">
+        <v>44062</v>
+      </c>
       <c r="L161" s="2" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7401,20 +7415,20 @@
         <v>291</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="F162" s="13">
-        <v>31247</v>
+        <v>22655</v>
       </c>
       <c r="G162" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J162" t="s">
         <v>311</v>
@@ -7428,7 +7442,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -7439,35 +7453,35 @@
       <c r="D163" t="s">
         <v>291</v>
       </c>
-      <c r="E163" s="7" t="s">
-        <v>124</v>
+      <c r="E163" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F163" s="13">
-        <v>27678</v>
+        <v>27508</v>
       </c>
       <c r="G163" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
         <v>45</v>
       </c>
       <c r="H163" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J163" t="s">
         <v>311</v>
       </c>
       <c r="K163" s="10">
-        <v>44062</v>
+        <v>44055</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -7479,71 +7493,73 @@
         <v>291</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F164" s="13">
-        <v>26445</v>
+        <v>20885</v>
       </c>
       <c r="G164" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H164" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J164" t="s">
         <v>311</v>
       </c>
       <c r="K164" s="10">
-        <v>43887</v>
+        <v>44055</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>7</v>
       </c>
       <c r="C165" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D165" t="s">
         <v>291</v>
       </c>
-      <c r="E165" s="12" t="s">
-        <v>59</v>
+      <c r="E165" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F165" s="13">
-        <v>22250</v>
+        <v>21958</v>
       </c>
       <c r="G165" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
         <v>60</v>
       </c>
       <c r="H165" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J165" t="s">
         <v>311</v>
       </c>
-      <c r="K165" s="10"/>
+      <c r="K165" s="10">
+        <v>44055</v>
+      </c>
       <c r="L165" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7555,108 +7571,112 @@
         <v>291</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="F166" s="13">
-        <v>16725</v>
+        <v>21970</v>
       </c>
       <c r="G166" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H166" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J166" t="s">
         <v>311</v>
       </c>
       <c r="K166" s="10">
-        <v>43817</v>
+        <v>44055</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>7</v>
       </c>
       <c r="C167" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D167" t="s">
         <v>291</v>
       </c>
-      <c r="E167" s="12" t="s">
-        <v>16</v>
+      <c r="E167" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F167" s="13">
-        <v>28888</v>
+        <v>16997</v>
       </c>
       <c r="G167" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H167" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J167" t="s">
         <v>311</v>
       </c>
-      <c r="K167" s="10"/>
+      <c r="K167" s="10">
+        <v>44055</v>
+      </c>
       <c r="L167" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>7</v>
       </c>
       <c r="C168" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D168" t="s">
         <v>291</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F168" s="13">
-        <v>31920</v>
+        <v>14974</v>
       </c>
       <c r="G168" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="H168" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J168" t="s">
         <v>311</v>
       </c>
-      <c r="K168" s="10"/>
+      <c r="K168" s="10">
+        <v>44055</v>
+      </c>
       <c r="L168" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7668,110 +7688,110 @@
         <v>291</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F169" s="13">
-        <v>24717</v>
+        <v>25566</v>
       </c>
       <c r="G169" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J169" t="s">
         <v>311</v>
       </c>
       <c r="K169" s="10">
-        <v>44062</v>
+        <v>44055</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>7</v>
       </c>
       <c r="C170" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D170" t="s">
         <v>291</v>
       </c>
-      <c r="E170" s="12" t="s">
-        <v>70</v>
+      <c r="E170" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="F170" s="13">
-        <v>23367</v>
+        <v>16390</v>
       </c>
       <c r="G170" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J170" t="s">
         <v>311</v>
       </c>
-      <c r="K170" s="10"/>
+      <c r="K170" s="10">
+        <v>44055</v>
+      </c>
       <c r="L170" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>7</v>
       </c>
       <c r="C171" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D171" t="s">
         <v>291</v>
       </c>
-      <c r="E171" s="12" t="s">
-        <v>142</v>
+      <c r="E171" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F171" s="13">
-        <v>22655</v>
+        <v>25970</v>
       </c>
       <c r="G171" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H171" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J171" t="s">
         <v>311</v>
       </c>
-      <c r="K171" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K171" s="10"/>
       <c r="L171" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -7782,21 +7802,21 @@
       <c r="D172" t="s">
         <v>291</v>
       </c>
-      <c r="E172" s="7" t="s">
-        <v>23</v>
+      <c r="E172" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F172" s="13">
-        <v>26802</v>
+        <v>27118</v>
       </c>
       <c r="G172" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H172" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I172" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J172" t="s">
         <v>311</v>
@@ -7810,44 +7830,46 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>7</v>
       </c>
       <c r="C173" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D173" t="s">
         <v>291</v>
       </c>
-      <c r="E173" s="12" t="s">
-        <v>28</v>
+      <c r="E173" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="F173" s="13">
-        <v>20281</v>
+        <v>22024</v>
       </c>
       <c r="G173" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I173" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J173" t="s">
         <v>311</v>
       </c>
-      <c r="K173" s="10"/>
+      <c r="K173" s="10">
+        <v>44062</v>
+      </c>
       <c r="L173" s="2" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -7859,20 +7881,20 @@
         <v>291</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F174" s="13">
-        <v>15245</v>
+        <v>32142</v>
       </c>
       <c r="G174" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H174" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J174" t="s">
         <v>311</v>
@@ -7886,7 +7908,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -7898,20 +7920,20 @@
         <v>291</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F175" s="13">
-        <v>22890</v>
+        <v>25592</v>
       </c>
       <c r="G175" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H175" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I175" s="12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J175" t="s">
         <v>311</v>
@@ -7925,46 +7947,44 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>7</v>
       </c>
       <c r="C176" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D176" t="s">
         <v>291</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="F176" s="13">
-        <v>25566</v>
+        <v>25846</v>
       </c>
       <c r="G176" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H176" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I176" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J176" t="s">
         <v>311</v>
       </c>
-      <c r="K176" s="10">
-        <v>44055</v>
-      </c>
+      <c r="K176" s="10"/>
       <c r="L176" s="2" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -7976,34 +7996,34 @@
         <v>291</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F177" s="13">
-        <v>21970</v>
+        <v>27112</v>
       </c>
       <c r="G177" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J177" t="s">
         <v>311</v>
       </c>
       <c r="K177" s="10">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -8015,129 +8035,129 @@
         <v>291</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F178" s="13">
-        <v>14974</v>
+        <v>23902</v>
       </c>
       <c r="G178" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H178" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J178" t="s">
         <v>311</v>
       </c>
       <c r="K178" s="10">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>7</v>
       </c>
       <c r="C179" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D179" t="s">
         <v>291</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F179" s="13">
-        <v>21958</v>
+        <v>18640</v>
       </c>
       <c r="G179" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I179" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J179" t="s">
         <v>311</v>
       </c>
-      <c r="K179" s="10">
-        <v>44055</v>
-      </c>
+      <c r="K179" s="10"/>
       <c r="L179" s="2" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>7</v>
       </c>
       <c r="C180" s="13">
-        <v>44069</v>
+        <v>44062</v>
       </c>
       <c r="D180" t="s">
         <v>291</v>
       </c>
-      <c r="E180" s="7" t="s">
-        <v>155</v>
+      <c r="E180" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="F180" s="13">
-        <v>21079</v>
+        <v>25067</v>
       </c>
       <c r="G180" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H180" t="s">
-        <v>331</v>
+        <v>202</v>
       </c>
       <c r="I180" s="12" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="J180" t="s">
-        <v>312</v>
-      </c>
-      <c r="K180" s="10"/>
+        <v>311</v>
+      </c>
+      <c r="K180" s="10">
+        <v>44062</v>
+      </c>
       <c r="L180" s="2" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>7</v>
       </c>
       <c r="C181" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D181" t="s">
         <v>291</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="F181" s="13">
-        <v>32142</v>
+        <v>21445</v>
       </c>
       <c r="G181" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H181" t="s">
         <v>202</v>
@@ -8148,16 +8168,14 @@
       <c r="J181" t="s">
         <v>311</v>
       </c>
-      <c r="K181" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K181" s="10"/>
       <c r="L181" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -8169,20 +8187,20 @@
         <v>291</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F182" s="13">
-        <v>25067</v>
+        <v>24964</v>
       </c>
       <c r="G182" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
         <v>52</v>
       </c>
       <c r="H182" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="J182" t="s">
         <v>311</v>
@@ -8196,7 +8214,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -8207,15 +8225,15 @@
       <c r="D183" t="s">
         <v>291</v>
       </c>
-      <c r="E183" s="7" t="s">
-        <v>39</v>
+      <c r="E183" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="F183" s="13">
-        <v>25592</v>
+        <v>20415</v>
       </c>
       <c r="G183" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H183" t="s">
         <v>202</v>
@@ -8235,7 +8253,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -8246,15 +8264,15 @@
       <c r="D184" t="s">
         <v>291</v>
       </c>
-      <c r="E184" s="12" t="s">
-        <v>107</v>
+      <c r="E184" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="F184" s="13">
-        <v>20415</v>
+        <v>18781</v>
       </c>
       <c r="G184" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H184" t="s">
         <v>202</v>
@@ -8274,7 +8292,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -8285,15 +8303,15 @@
       <c r="D185" t="s">
         <v>291</v>
       </c>
-      <c r="E185" s="7" t="s">
-        <v>83</v>
+      <c r="E185" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="F185" s="13">
-        <v>18640</v>
+        <v>32771</v>
       </c>
       <c r="G185" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="H185" t="s">
         <v>202</v>
@@ -8311,7 +8329,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>7</v>
@@ -8323,14 +8341,14 @@
         <v>291</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F186" s="13">
-        <v>14047</v>
+        <v>18036</v>
       </c>
       <c r="G186" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H186" t="s">
         <v>202</v>
@@ -8350,7 +8368,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -8361,15 +8379,15 @@
       <c r="D187" t="s">
         <v>291</v>
       </c>
-      <c r="E187" s="12" t="s">
-        <v>7</v>
+      <c r="E187" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="F187" s="13">
-        <v>27118</v>
+        <v>24242</v>
       </c>
       <c r="G187" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H187" t="s">
         <v>202</v>
@@ -8389,26 +8407,26 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>7</v>
       </c>
       <c r="C188" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D188" t="s">
         <v>291</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="F188" s="13">
-        <v>22024</v>
+        <v>26203</v>
       </c>
       <c r="G188" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H188" t="s">
         <v>202</v>
@@ -8419,35 +8437,33 @@
       <c r="J188" t="s">
         <v>311</v>
       </c>
-      <c r="K188" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K188" s="10"/>
       <c r="L188" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>7</v>
       </c>
       <c r="C189" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D189" t="s">
         <v>291</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="F189" s="13">
-        <v>32771</v>
+        <v>14047</v>
       </c>
       <c r="G189" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H189" t="s">
         <v>202</v>
@@ -8458,242 +8474,242 @@
       <c r="J189" t="s">
         <v>311</v>
       </c>
-      <c r="K189" s="10"/>
+      <c r="K189" s="10">
+        <v>44062</v>
+      </c>
       <c r="L189" s="2" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>7</v>
       </c>
       <c r="C190" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D190" t="s">
         <v>291</v>
       </c>
-      <c r="E190" s="7" t="s">
-        <v>120</v>
+      <c r="E190" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F190" s="13">
-        <v>24242</v>
+        <v>29287</v>
       </c>
       <c r="G190" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H190" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J190" t="s">
-        <v>311</v>
-      </c>
-      <c r="K190" s="10">
-        <v>44062</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="K190" s="10"/>
       <c r="L190" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>7</v>
       </c>
       <c r="C191" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D191" t="s">
         <v>291</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="F191" s="13">
-        <v>21445</v>
+        <v>17079</v>
       </c>
       <c r="G191" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H191" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J191" t="s">
-        <v>311</v>
-      </c>
-      <c r="K191" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="K191" s="10">
+        <v>43839</v>
+      </c>
       <c r="L191" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>7</v>
       </c>
       <c r="C192" s="13">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="D192" t="s">
         <v>291</v>
       </c>
-      <c r="E192" s="7" t="s">
-        <v>79</v>
+      <c r="E192" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F192" s="13">
-        <v>23902</v>
+        <v>27246</v>
       </c>
       <c r="G192" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H192" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J192" t="s">
-        <v>311</v>
-      </c>
-      <c r="K192" s="10">
-        <v>44062</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="K192" s="10"/>
       <c r="L192" s="2" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>7</v>
       </c>
       <c r="C193" s="13">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="D193" t="s">
         <v>291</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="F193" s="13">
-        <v>18036</v>
+        <v>27492</v>
       </c>
       <c r="G193" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H193" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J193" t="s">
         <v>311</v>
       </c>
-      <c r="K193" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K193" s="10"/>
       <c r="L193" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>7</v>
       </c>
       <c r="C194" s="13">
-        <v>44061</v>
+        <v>44072</v>
       </c>
       <c r="D194" t="s">
         <v>291</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F194" s="13">
-        <v>25846</v>
+        <v>26205</v>
       </c>
       <c r="G194" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H194" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J194" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K194" s="10"/>
-      <c r="L194" s="2" t="s">
+      <c r="L194" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>7</v>
       </c>
       <c r="C195" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D195" t="s">
         <v>291</v>
       </c>
-      <c r="E195" s="7" t="s">
-        <v>141</v>
+      <c r="E195" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="F195" s="13">
-        <v>26203</v>
+        <v>25149</v>
       </c>
       <c r="G195" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H195" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J195" t="s">
-        <v>311</v>
-      </c>
-      <c r="K195" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="K195" s="10">
+        <v>43904</v>
+      </c>
       <c r="L195" s="2" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>7</v>
@@ -8705,90 +8721,90 @@
         <v>291</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F196" s="13">
-        <v>27112</v>
+        <v>26299</v>
       </c>
       <c r="G196" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H196" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J196" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K196" s="10">
-        <v>44062</v>
+        <v>43839</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>7</v>
       </c>
       <c r="C197" s="13">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="D197" t="s">
         <v>291</v>
       </c>
-      <c r="E197" s="7" t="s">
-        <v>109</v>
+      <c r="E197" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F197" s="13">
-        <v>18781</v>
+        <v>29572</v>
       </c>
       <c r="G197" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H197" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J197" t="s">
         <v>311</v>
       </c>
-      <c r="K197" s="10">
-        <v>44062</v>
-      </c>
+      <c r="K197" s="10"/>
       <c r="L197" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>7</v>
       </c>
-      <c r="C198" s="13"/>
+      <c r="C198" s="13">
+        <v>44075</v>
+      </c>
       <c r="D198" t="s">
         <v>291</v>
       </c>
-      <c r="E198" s="7" t="s">
-        <v>111</v>
+      <c r="E198" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F198" s="13">
-        <v>23941</v>
+        <v>24666</v>
       </c>
       <c r="G198" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H198" t="s">
         <v>200</v>
@@ -8797,33 +8813,35 @@
         <v>308</v>
       </c>
       <c r="J198" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="K198" s="10"/>
-      <c r="L198"/>
+      <c r="L198" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>7</v>
       </c>
       <c r="C199" s="13">
-        <v>44072</v>
+        <v>44061</v>
       </c>
       <c r="D199" t="s">
         <v>291</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F199" s="13">
-        <v>27492</v>
+        <v>31817</v>
       </c>
       <c r="G199" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H199" t="s">
         <v>200</v>
@@ -8832,35 +8850,35 @@
         <v>308</v>
       </c>
       <c r="J199" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K199" s="10"/>
       <c r="L199" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>7</v>
       </c>
       <c r="C200" s="13">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="D200" t="s">
         <v>291</v>
       </c>
-      <c r="E200" s="12" t="s">
-        <v>146</v>
+      <c r="E200" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F200" s="13">
-        <v>30097</v>
+        <v>26833</v>
       </c>
       <c r="G200" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H200" t="s">
         <v>200</v>
@@ -8869,37 +8887,35 @@
         <v>308</v>
       </c>
       <c r="J200" t="s">
-        <v>311</v>
-      </c>
-      <c r="K200" s="10">
-        <v>43904</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="K200" s="10"/>
       <c r="L200" s="2" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>7</v>
       </c>
       <c r="C201" s="13">
-        <v>44062</v>
+        <v>44088</v>
       </c>
       <c r="D201" t="s">
         <v>291</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F201" s="13">
-        <v>29549</v>
+        <v>19566</v>
       </c>
       <c r="G201" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="H201" t="s">
         <v>200</v>
@@ -8910,35 +8926,31 @@
       <c r="J201" t="s">
         <v>312</v>
       </c>
-      <c r="K201" s="10">
-        <v>43839</v>
-      </c>
+      <c r="K201" s="10"/>
       <c r="L201" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>7</v>
       </c>
-      <c r="C202" s="13">
-        <v>44062</v>
-      </c>
+      <c r="C202" s="13"/>
       <c r="D202" t="s">
         <v>291</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F202" s="13">
-        <v>17079</v>
+        <v>18407</v>
       </c>
       <c r="G202" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H202" t="s">
         <v>200</v>
@@ -8947,37 +8959,33 @@
         <v>308</v>
       </c>
       <c r="J202" t="s">
-        <v>312</v>
-      </c>
-      <c r="K202" s="10">
-        <v>43839</v>
-      </c>
-      <c r="L202" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="K202" s="10"/>
+      <c r="L202"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>7</v>
       </c>
       <c r="C203" s="13">
-        <v>44061</v>
+        <v>44078</v>
       </c>
       <c r="D203" t="s">
         <v>291</v>
       </c>
-      <c r="E203" s="12" t="s">
-        <v>40</v>
+      <c r="E203" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="F203" s="13">
-        <v>31817</v>
+        <v>19434</v>
       </c>
       <c r="G203" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H203" t="s">
         <v>200</v>
@@ -8990,68 +8998,70 @@
       </c>
       <c r="K203" s="10"/>
       <c r="L203" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>7</v>
       </c>
       <c r="C204" s="13">
-        <v>44069</v>
+        <v>44062</v>
       </c>
       <c r="D204" t="s">
         <v>291</v>
       </c>
-      <c r="E204" t="s">
-        <v>226</v>
-      </c>
-      <c r="F204" s="10">
-        <v>32980</v>
+      <c r="E204" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F204" s="13">
+        <v>29549</v>
       </c>
       <c r="G204" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
-        <v>30</v>
-      </c>
-      <c r="H204" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H204" t="s">
         <v>200</v>
       </c>
       <c r="I204" s="12" t="s">
         <v>308</v>
       </c>
       <c r="J204" t="s">
-        <v>311</v>
-      </c>
-      <c r="K204" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="K204" s="10">
+        <v>43839</v>
+      </c>
       <c r="L204" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>7</v>
       </c>
       <c r="C205" s="13">
-        <v>44078</v>
+        <v>44062</v>
       </c>
       <c r="D205" t="s">
         <v>291</v>
       </c>
-      <c r="E205" s="7" t="s">
-        <v>63</v>
+      <c r="E205" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="F205" s="13">
-        <v>19434</v>
+        <v>26133</v>
       </c>
       <c r="G205" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H205" t="s">
         <v>200</v>
@@ -9062,14 +9072,16 @@
       <c r="J205" t="s">
         <v>312</v>
       </c>
-      <c r="K205" s="10"/>
+      <c r="K205" s="10">
+        <v>43861</v>
+      </c>
       <c r="L205" s="2" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -9081,14 +9093,14 @@
         <v>291</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F206" s="13">
-        <v>25149</v>
+        <v>21548</v>
       </c>
       <c r="G206" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H206" t="s">
         <v>200</v>
@@ -9100,15 +9112,15 @@
         <v>312</v>
       </c>
       <c r="K206" s="10">
-        <v>43904</v>
+        <v>43839</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>7</v>
@@ -9120,32 +9132,32 @@
         <v>291</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F207" s="13">
-        <v>27719</v>
+        <v>27763</v>
       </c>
       <c r="G207" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H207" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J207" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K207" s="10"/>
-      <c r="L207" s="2" t="s">
+      <c r="L207" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -9156,15 +9168,15 @@
       <c r="D208" t="s">
         <v>291</v>
       </c>
-      <c r="E208" s="7" t="s">
-        <v>93</v>
+      <c r="E208" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F208" s="13">
-        <v>31990</v>
+        <v>22263</v>
       </c>
       <c r="G208" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H208" t="s">
         <v>200</v>
@@ -9176,34 +9188,34 @@
         <v>312</v>
       </c>
       <c r="K208" s="10">
-        <v>43839</v>
+        <v>43861</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>7</v>
       </c>
       <c r="C209" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D209" t="s">
         <v>291</v>
       </c>
-      <c r="E209" s="12" t="s">
-        <v>115</v>
+      <c r="E209" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F209" s="13">
-        <v>31120</v>
+        <v>31990</v>
       </c>
       <c r="G209" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H209" t="s">
         <v>200</v>
@@ -9214,33 +9226,35 @@
       <c r="J209" t="s">
         <v>312</v>
       </c>
-      <c r="K209" s="10"/>
+      <c r="K209" s="10">
+        <v>43839</v>
+      </c>
       <c r="L209" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>7</v>
       </c>
       <c r="C210" s="13">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="D210" t="s">
         <v>291</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F210" s="13">
-        <v>26299</v>
+        <v>30315</v>
       </c>
       <c r="G210" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H210" t="s">
         <v>200</v>
@@ -9249,37 +9263,33 @@
         <v>308</v>
       </c>
       <c r="J210" t="s">
-        <v>312</v>
-      </c>
-      <c r="K210" s="10">
-        <v>43839</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K210" s="10"/>
       <c r="L210" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>7</v>
       </c>
-      <c r="C211" s="13">
-        <v>44061</v>
-      </c>
+      <c r="C211" s="13"/>
       <c r="D211" t="s">
         <v>291</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F211" s="13">
-        <v>29287</v>
+        <v>20907</v>
       </c>
       <c r="G211" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H211" t="s">
         <v>200</v>
@@ -9288,70 +9298,66 @@
         <v>308</v>
       </c>
       <c r="J211" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K211" s="10"/>
-      <c r="L211" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="L211"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B212">
         <v>7</v>
       </c>
-      <c r="C212" s="13">
-        <v>44075</v>
-      </c>
+      <c r="C212" s="13"/>
       <c r="D212" t="s">
         <v>291</v>
       </c>
-      <c r="E212" s="12" t="s">
-        <v>38</v>
+      <c r="E212" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="F212" s="13">
-        <v>24666</v>
+        <v>21674</v>
       </c>
       <c r="G212" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H212" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J212" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K212" s="10"/>
-      <c r="L212" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="L212"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>7</v>
       </c>
-      <c r="C213" s="13"/>
+      <c r="C213" s="13">
+        <v>44062</v>
+      </c>
       <c r="D213" t="s">
         <v>291</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F213" s="13">
-        <v>26624</v>
+        <v>24834</v>
       </c>
       <c r="G213" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H213" t="s">
         <v>200</v>
@@ -9360,29 +9366,33 @@
         <v>308</v>
       </c>
       <c r="J213" t="s">
-        <v>329</v>
-      </c>
-      <c r="K213" s="10"/>
-      <c r="L213"/>
+        <v>312</v>
+      </c>
+      <c r="K213" s="10">
+        <v>43861</v>
+      </c>
+      <c r="L213" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>7</v>
       </c>
       <c r="C214" s="13">
-        <v>44072</v>
+        <v>44062</v>
       </c>
       <c r="D214" t="s">
         <v>291</v>
       </c>
-      <c r="E214" s="7" t="s">
-        <v>42</v>
+      <c r="E214" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="F214" s="13">
-        <v>26833</v>
+        <v>27004</v>
       </c>
       <c r="G214" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
@@ -9395,35 +9405,37 @@
         <v>308</v>
       </c>
       <c r="J214" t="s">
-        <v>327</v>
-      </c>
-      <c r="K214" s="10"/>
+        <v>311</v>
+      </c>
+      <c r="K214" s="10">
+        <v>43904</v>
+      </c>
       <c r="L214" s="2" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>7</v>
       </c>
       <c r="C215" s="13">
-        <v>44072</v>
+        <v>44069</v>
       </c>
       <c r="D215" t="s">
         <v>291</v>
       </c>
-      <c r="E215" s="7" t="s">
-        <v>144</v>
+      <c r="E215" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="F215" s="13">
-        <v>25084</v>
+        <v>20377</v>
       </c>
       <c r="G215" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H215" t="s">
         <v>200</v>
@@ -9441,26 +9453,24 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>7</v>
       </c>
-      <c r="C216" s="13">
-        <v>44062</v>
-      </c>
+      <c r="C216" s="13"/>
       <c r="D216" t="s">
         <v>291</v>
       </c>
-      <c r="E216" s="12" t="s">
-        <v>103</v>
+      <c r="E216" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="F216" s="13">
-        <v>27004</v>
+        <v>23941</v>
       </c>
       <c r="G216" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H216" t="s">
         <v>200</v>
@@ -9469,37 +9479,31 @@
         <v>308</v>
       </c>
       <c r="J216" t="s">
-        <v>311</v>
-      </c>
-      <c r="K216" s="10">
-        <v>43904</v>
-      </c>
-      <c r="L216" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="K216" s="10"/>
+      <c r="L216"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>7</v>
       </c>
-      <c r="C217" s="13">
-        <v>44072</v>
-      </c>
+      <c r="C217" s="13"/>
       <c r="D217" t="s">
         <v>291</v>
       </c>
-      <c r="E217" s="12" t="s">
-        <v>37</v>
+      <c r="E217" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="F217" s="13">
-        <v>29572</v>
+        <v>26624</v>
       </c>
       <c r="G217" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H217" t="s">
         <v>200</v>
@@ -9508,35 +9512,33 @@
         <v>308</v>
       </c>
       <c r="J217" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K217" s="10"/>
-      <c r="L217" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="L217"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B218">
         <v>7</v>
       </c>
       <c r="C218" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D218" t="s">
         <v>291</v>
       </c>
-      <c r="E218" s="7" t="s">
-        <v>101</v>
+      <c r="E218" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="F218" s="13">
-        <v>24834</v>
+        <v>31120</v>
       </c>
       <c r="G218" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H218" t="s">
         <v>200</v>
@@ -9547,35 +9549,33 @@
       <c r="J218" t="s">
         <v>312</v>
       </c>
-      <c r="K218" s="10">
-        <v>43861</v>
-      </c>
+      <c r="K218" s="10"/>
       <c r="L218" s="2" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>7</v>
       </c>
       <c r="C219" s="13">
-        <v>44069</v>
+        <v>44062</v>
       </c>
       <c r="D219" t="s">
         <v>291</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="F219" s="13">
-        <v>27246</v>
+        <v>29623</v>
       </c>
       <c r="G219" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H219" t="s">
         <v>200</v>
@@ -9593,26 +9593,26 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>7</v>
       </c>
       <c r="C220" s="13">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="D220" t="s">
         <v>291</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="F220" s="13">
-        <v>26133</v>
+        <v>27719</v>
       </c>
       <c r="G220" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H220" t="s">
         <v>200</v>
@@ -9623,35 +9623,33 @@
       <c r="J220" t="s">
         <v>312</v>
       </c>
-      <c r="K220" s="10">
-        <v>43861</v>
-      </c>
+      <c r="K220" s="10"/>
       <c r="L220" s="2" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>7</v>
       </c>
       <c r="C221" s="13">
-        <v>44069</v>
+        <v>44072</v>
       </c>
       <c r="D221" t="s">
         <v>291</v>
       </c>
-      <c r="E221" s="12" t="s">
-        <v>283</v>
+      <c r="E221" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="F221" s="13">
-        <v>20377</v>
+        <v>25084</v>
       </c>
       <c r="G221" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H221" t="s">
         <v>200</v>
@@ -9669,24 +9667,26 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>7</v>
       </c>
-      <c r="C222" s="13"/>
+      <c r="C222" s="13">
+        <v>44062</v>
+      </c>
       <c r="D222" t="s">
         <v>291</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="F222" s="13">
-        <v>20907</v>
+        <v>30097</v>
       </c>
       <c r="G222" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H222" t="s">
         <v>200</v>
@@ -9695,33 +9695,37 @@
         <v>308</v>
       </c>
       <c r="J222" t="s">
-        <v>329</v>
-      </c>
-      <c r="K222" s="10"/>
-      <c r="L222"/>
+        <v>311</v>
+      </c>
+      <c r="K222" s="10">
+        <v>43904</v>
+      </c>
+      <c r="L222" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>7</v>
       </c>
       <c r="C223" s="13">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="D223" t="s">
         <v>291</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="F223" s="13">
-        <v>22263</v>
+        <v>23358</v>
       </c>
       <c r="G223" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H223" t="s">
         <v>200</v>
@@ -9730,122 +9734,118 @@
         <v>308</v>
       </c>
       <c r="J223" t="s">
-        <v>312</v>
-      </c>
-      <c r="K223" s="10">
-        <v>43861</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K223" s="10"/>
       <c r="L223" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>7</v>
       </c>
       <c r="C224" s="13">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="D224" t="s">
         <v>291</v>
       </c>
-      <c r="E224" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F224" s="13">
-        <v>21548</v>
+      <c r="E224" t="s">
+        <v>226</v>
+      </c>
+      <c r="F224" s="10">
+        <v>32980</v>
       </c>
       <c r="G224" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
-        <v>62</v>
-      </c>
-      <c r="H224" t="s">
+        <v>30</v>
+      </c>
+      <c r="H224" s="12" t="s">
         <v>200</v>
       </c>
       <c r="I224" s="12" t="s">
         <v>308</v>
       </c>
       <c r="J224" t="s">
-        <v>312</v>
-      </c>
-      <c r="K224" s="10">
-        <v>43839</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K224" s="10"/>
       <c r="L224" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>7</v>
       </c>
       <c r="C225" s="13">
-        <v>44072</v>
+        <v>44069</v>
       </c>
       <c r="D225" t="s">
         <v>291</v>
       </c>
-      <c r="E225" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F225" s="13">
-        <v>30315</v>
+      <c r="E225" t="s">
+        <v>227</v>
+      </c>
+      <c r="F225" s="10">
+        <v>31116</v>
       </c>
       <c r="G225" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
-        <v>38</v>
-      </c>
-      <c r="H225" t="s">
+        <v>35</v>
+      </c>
+      <c r="H225" s="12" t="s">
         <v>200</v>
       </c>
       <c r="I225" s="12" t="s">
         <v>308</v>
       </c>
       <c r="J225" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K225" s="10"/>
-      <c r="L225" s="2" t="s">
+      <c r="L225" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>7</v>
       </c>
       <c r="C226" s="13">
-        <v>44088</v>
+        <v>44061</v>
       </c>
       <c r="D226" t="s">
         <v>291</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F226" s="13">
-        <v>19566</v>
+        <v>30164</v>
       </c>
       <c r="G226" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H226" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I226" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J226" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K226" s="10"/>
       <c r="L226" s="2" t="s">
@@ -9854,207 +9854,211 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>7</v>
       </c>
-      <c r="C227" s="13"/>
+      <c r="C227" s="13">
+        <v>44061</v>
+      </c>
       <c r="D227" t="s">
         <v>291</v>
       </c>
-      <c r="E227" s="7" t="s">
-        <v>46</v>
+      <c r="E227" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F227" s="13">
-        <v>18407</v>
+        <v>31562</v>
       </c>
       <c r="G227" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="H227" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I227" s="12" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J227" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="K227" s="10"/>
-      <c r="L227"/>
+      <c r="L227" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>7</v>
       </c>
       <c r="C228" s="13">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="D228" t="s">
         <v>291</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F228" s="13">
-        <v>29623</v>
+        <v>33225</v>
       </c>
       <c r="G228" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H228" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I228" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J228" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K228" s="10"/>
       <c r="L228" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>7</v>
       </c>
       <c r="C229" s="13">
-        <v>44072</v>
+        <v>44061</v>
       </c>
       <c r="D229" t="s">
         <v>291</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="F229" s="13">
-        <v>26205</v>
+        <v>30491</v>
       </c>
       <c r="G229" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H229" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I229" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J229" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K229" s="10"/>
-      <c r="L229" s="9" t="s">
-        <v>235</v>
+      <c r="L229" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>7</v>
       </c>
       <c r="C230" s="13">
-        <v>44069</v>
+        <v>44061</v>
       </c>
       <c r="D230" t="s">
         <v>291</v>
       </c>
-      <c r="E230" t="s">
-        <v>227</v>
-      </c>
-      <c r="F230" s="10">
-        <v>31116</v>
+      <c r="E230" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F230" s="13">
+        <v>32481</v>
       </c>
       <c r="G230" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
-        <v>35</v>
-      </c>
-      <c r="H230" s="12" t="s">
-        <v>200</v>
+        <v>32</v>
+      </c>
+      <c r="H230" t="s">
+        <v>232</v>
       </c>
       <c r="I230" s="12" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J230" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K230" s="10"/>
-      <c r="L230" s="9" t="s">
-        <v>235</v>
+      <c r="L230" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>7</v>
       </c>
       <c r="C231" s="13">
-        <v>44069</v>
+        <v>44062</v>
       </c>
       <c r="D231" t="s">
         <v>291</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F231" s="13">
-        <v>23358</v>
+        <v>32885</v>
       </c>
       <c r="G231" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H231" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I231" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J231" t="s">
         <v>311</v>
       </c>
       <c r="K231" s="10"/>
       <c r="L231" s="2" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>7</v>
       </c>
       <c r="C232" s="13">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D232" t="s">
         <v>291</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="F232" s="13">
-        <v>33225</v>
+        <v>31146</v>
       </c>
       <c r="G232" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H232" t="s">
         <v>207</v>
@@ -10067,7 +10071,7 @@
       </c>
       <c r="K232" s="10"/>
       <c r="L232" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -10109,7 +10113,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>7</v>
@@ -10121,14 +10125,14 @@
         <v>291</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F234" s="13">
-        <v>32885</v>
+        <v>32196</v>
       </c>
       <c r="G234" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H234" t="s">
         <v>207</v>
@@ -10146,7 +10150,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>7</v>
@@ -10158,60 +10162,62 @@
         <v>291</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="F235" s="13">
-        <v>32196</v>
+        <v>20417</v>
       </c>
       <c r="G235" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H235" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I235" s="12" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J235" t="s">
         <v>311</v>
       </c>
-      <c r="K235" s="10"/>
+      <c r="K235" s="10">
+        <v>43867</v>
+      </c>
       <c r="L235" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>7</v>
       </c>
       <c r="C236" s="13">
-        <v>44062</v>
+        <v>44075</v>
       </c>
       <c r="D236" t="s">
         <v>291</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F236" s="13">
-        <v>31146</v>
+        <v>19630</v>
       </c>
       <c r="G236" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H236" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I236" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J236" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K236" s="10"/>
       <c r="L236" s="2" t="s">
@@ -10220,72 +10226,68 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>7</v>
       </c>
-      <c r="C237" s="13">
-        <v>44061</v>
-      </c>
+      <c r="C237" s="13"/>
       <c r="D237" t="s">
         <v>291</v>
       </c>
-      <c r="E237" s="12" t="s">
-        <v>24</v>
+      <c r="E237" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F237" s="13">
-        <v>30164</v>
+        <v>21249</v>
       </c>
       <c r="G237" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H237" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I237" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J237" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K237" s="10"/>
-      <c r="L237" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="L237"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>7</v>
       </c>
       <c r="C238" s="13">
-        <v>44061</v>
+        <v>44069</v>
       </c>
       <c r="D238" t="s">
         <v>291</v>
       </c>
-      <c r="E238" s="12" t="s">
-        <v>135</v>
+      <c r="E238" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F238" s="13">
-        <v>30491</v>
+        <v>21269</v>
       </c>
       <c r="G238" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H238" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I238" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J238" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K238" s="10"/>
       <c r="L238" s="2" t="s">
@@ -10294,59 +10296,65 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B239">
         <v>7</v>
       </c>
-      <c r="C239" s="13"/>
+      <c r="C239" s="13">
+        <v>44075</v>
+      </c>
       <c r="D239" t="s">
         <v>291</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="F239" s="13">
-        <v>21011</v>
+        <v>29503</v>
       </c>
       <c r="G239" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H239" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I239" s="12" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J239" t="s">
-        <v>329</v>
-      </c>
-      <c r="K239" s="10"/>
-      <c r="L239"/>
+        <v>327</v>
+      </c>
+      <c r="K239" s="10">
+        <v>44075</v>
+      </c>
+      <c r="L239" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>7</v>
       </c>
       <c r="C240" s="13">
-        <v>44075</v>
+        <v>44088</v>
       </c>
       <c r="D240" t="s">
         <v>291</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="F240" s="13">
-        <v>22529</v>
+        <v>26846</v>
       </c>
       <c r="G240" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H240" t="s">
         <v>205</v>
@@ -10359,31 +10367,31 @@
       </c>
       <c r="K240" s="10"/>
       <c r="L240" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>7</v>
       </c>
       <c r="C241" s="13">
-        <v>44072</v>
+        <v>44088</v>
       </c>
       <c r="D241" t="s">
         <v>291</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="F241" s="13">
-        <v>28020</v>
+        <v>24000</v>
       </c>
       <c r="G241" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H241" t="s">
         <v>205</v>
@@ -10396,12 +10404,12 @@
       </c>
       <c r="K241" s="10"/>
       <c r="L241" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>7</v>
@@ -10411,10 +10419,10 @@
         <v>291</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="F242" s="13">
-        <v>20084</v>
+        <v>19943</v>
       </c>
       <c r="G242" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
@@ -10434,7 +10442,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B243">
         <v>7</v>
@@ -10445,15 +10453,15 @@
       <c r="D243" t="s">
         <v>291</v>
       </c>
-      <c r="E243" s="12" t="s">
-        <v>100</v>
+      <c r="E243" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="F243" s="13">
-        <v>28961</v>
+        <v>28122</v>
       </c>
       <c r="G243" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H243" t="s">
         <v>205</v>
@@ -10471,26 +10479,26 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>7</v>
       </c>
       <c r="C244" s="13">
-        <v>44072</v>
+        <v>44075</v>
       </c>
       <c r="D244" t="s">
         <v>291</v>
       </c>
-      <c r="E244" s="12" t="s">
-        <v>110</v>
+      <c r="E244" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="F244" s="13">
-        <v>24451</v>
+        <v>29350</v>
       </c>
       <c r="G244" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H244" t="s">
         <v>205</v>
@@ -10501,33 +10509,35 @@
       <c r="J244" t="s">
         <v>312</v>
       </c>
-      <c r="K244" s="10"/>
+      <c r="K244" s="10">
+        <v>44075</v>
+      </c>
       <c r="L244" s="2" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>7</v>
       </c>
       <c r="C245" s="13">
-        <v>44075</v>
+        <v>44062</v>
       </c>
       <c r="D245" t="s">
         <v>291</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F245" s="13">
-        <v>29350</v>
+        <v>29000</v>
       </c>
       <c r="G245" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H245" t="s">
         <v>205</v>
@@ -10536,35 +10546,37 @@
         <v>310</v>
       </c>
       <c r="J245" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K245" s="10">
-        <v>44075</v>
+        <v>43867</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B246">
         <v>7</v>
       </c>
-      <c r="C246" s="13"/>
+      <c r="C246" s="13">
+        <v>44072</v>
+      </c>
       <c r="D246" t="s">
         <v>291</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F246" s="13">
-        <v>21432</v>
+        <v>28805</v>
       </c>
       <c r="G246" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H246" t="s">
         <v>205</v>
@@ -10573,14 +10585,16 @@
         <v>310</v>
       </c>
       <c r="J246" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="K246" s="10"/>
-      <c r="L246"/>
+      <c r="L246" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>7</v>
@@ -10590,14 +10604,14 @@
         <v>291</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F247" s="13">
-        <v>19943</v>
+        <v>20625</v>
       </c>
       <c r="G247" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H247" t="s">
         <v>205</v>
@@ -10613,26 +10627,24 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B248">
         <v>7</v>
       </c>
-      <c r="C248" s="13">
-        <v>44072</v>
-      </c>
+      <c r="C248" s="13"/>
       <c r="D248" t="s">
         <v>291</v>
       </c>
-      <c r="E248" s="7" t="s">
-        <v>69</v>
+      <c r="E248" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="F248" s="13">
-        <v>28805</v>
+        <v>21011</v>
       </c>
       <c r="G248" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H248" t="s">
         <v>205</v>
@@ -10641,35 +10653,31 @@
         <v>310</v>
       </c>
       <c r="J248" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K248" s="10"/>
-      <c r="L248" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="L248"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B249">
         <v>7</v>
       </c>
-      <c r="C249" s="13">
-        <v>44062</v>
-      </c>
+      <c r="C249" s="13"/>
       <c r="D249" t="s">
         <v>291</v>
       </c>
-      <c r="E249" s="7" t="s">
-        <v>65</v>
+      <c r="E249" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="F249" s="13">
-        <v>29000</v>
+        <v>29713</v>
       </c>
       <c r="G249" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H249" t="s">
         <v>205</v>
@@ -10678,37 +10686,31 @@
         <v>310</v>
       </c>
       <c r="J249" t="s">
-        <v>311</v>
-      </c>
-      <c r="K249" s="10">
-        <v>43867</v>
-      </c>
-      <c r="L249" s="2" t="s">
-        <v>275</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="K249" s="10"/>
+      <c r="L249"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B250">
         <v>7</v>
       </c>
-      <c r="C250" s="13">
-        <v>44069</v>
-      </c>
+      <c r="C250" s="13"/>
       <c r="D250" t="s">
         <v>291</v>
       </c>
-      <c r="E250" s="12" t="s">
-        <v>137</v>
+      <c r="E250" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="F250" s="13">
-        <v>29014</v>
+        <v>21432</v>
       </c>
       <c r="G250" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H250" t="s">
         <v>205</v>
@@ -10717,16 +10719,14 @@
         <v>310</v>
       </c>
       <c r="J250" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K250" s="10"/>
-      <c r="L250" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="L250"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>7</v>
@@ -10737,15 +10737,15 @@
       <c r="D251" t="s">
         <v>291</v>
       </c>
-      <c r="E251" s="7" t="s">
-        <v>140</v>
+      <c r="E251" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F251" s="13">
-        <v>29294</v>
+        <v>28961</v>
       </c>
       <c r="G251" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H251" t="s">
         <v>205</v>
@@ -10763,26 +10763,24 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>7</v>
       </c>
-      <c r="C252" s="13">
-        <v>44088</v>
-      </c>
+      <c r="C252" s="13"/>
       <c r="D252" t="s">
         <v>291</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F252" s="13">
-        <v>26846</v>
+        <v>25069</v>
       </c>
       <c r="G252" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H252" t="s">
         <v>205</v>
@@ -10791,35 +10789,33 @@
         <v>310</v>
       </c>
       <c r="J252" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K252" s="10"/>
-      <c r="L252" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="L252"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B253">
         <v>7</v>
       </c>
       <c r="C253" s="13">
-        <v>44061</v>
+        <v>44072</v>
       </c>
       <c r="D253" t="s">
         <v>291</v>
       </c>
-      <c r="E253" s="7" t="s">
-        <v>55</v>
+      <c r="E253" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="F253" s="13">
-        <v>28122</v>
+        <v>24451</v>
       </c>
       <c r="G253" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H253" t="s">
         <v>205</v>
@@ -10832,12 +10828,12 @@
       </c>
       <c r="K253" s="10"/>
       <c r="L253" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>7</v>
@@ -10846,15 +10842,15 @@
       <c r="D254" t="s">
         <v>291</v>
       </c>
-      <c r="E254" s="12" t="s">
-        <v>84</v>
+      <c r="E254" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F254" s="13">
-        <v>29713</v>
+        <v>27834</v>
       </c>
       <c r="G254" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H254" t="s">
         <v>205</v>
@@ -10870,96 +10866,94 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>7</v>
       </c>
-      <c r="C255" s="13">
-        <v>44075</v>
-      </c>
+      <c r="C255" s="13"/>
       <c r="D255" t="s">
         <v>291</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="F255" s="13">
-        <v>19630</v>
+        <v>18677</v>
       </c>
       <c r="G255" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H255" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I255" s="12" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J255" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K255" s="10"/>
-      <c r="L255" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="L255"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>7</v>
       </c>
-      <c r="C256" s="13"/>
+      <c r="C256" s="13">
+        <v>44072</v>
+      </c>
       <c r="D256" t="s">
         <v>291</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F256" s="10">
-        <v>21554</v>
+        <v>128</v>
+      </c>
+      <c r="F256" s="13">
+        <v>18960</v>
       </c>
       <c r="G256" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
-        <v>61</v>
-      </c>
-      <c r="H256" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H256" t="s">
         <v>205</v>
       </c>
       <c r="I256" s="12" t="s">
         <v>310</v>
       </c>
       <c r="J256" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="K256" s="10"/>
-      <c r="L256"/>
+      <c r="L256" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>7</v>
       </c>
-      <c r="C257" s="13">
-        <v>44072</v>
-      </c>
+      <c r="C257" s="13"/>
       <c r="D257" t="s">
         <v>291</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F257" s="13">
-        <v>18960</v>
+        <v>20084</v>
       </c>
       <c r="G257" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H257" t="s">
         <v>205</v>
@@ -10968,33 +10962,33 @@
         <v>310</v>
       </c>
       <c r="J257" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K257" s="10"/>
-      <c r="L257" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="L257"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>7</v>
       </c>
-      <c r="C258" s="13"/>
+      <c r="C258" s="13">
+        <v>44069</v>
+      </c>
       <c r="D258" t="s">
         <v>291</v>
       </c>
-      <c r="E258" s="7" t="s">
-        <v>72</v>
+      <c r="E258" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="F258" s="13">
-        <v>20625</v>
+        <v>29014</v>
       </c>
       <c r="G258" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H258" t="s">
         <v>205</v>
@@ -11003,10 +10997,12 @@
         <v>310</v>
       </c>
       <c r="J258" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="K258" s="10"/>
-      <c r="L258"/>
+      <c r="L258" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
@@ -11043,24 +11039,26 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B260">
         <v>7</v>
       </c>
-      <c r="C260" s="13"/>
+      <c r="C260" s="13">
+        <v>44061</v>
+      </c>
       <c r="D260" t="s">
         <v>291</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="F260" s="13">
-        <v>21249</v>
+        <v>29294</v>
       </c>
       <c r="G260" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H260" t="s">
         <v>205</v>
@@ -11069,31 +11067,35 @@
         <v>310</v>
       </c>
       <c r="J260" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="K260" s="10"/>
-      <c r="L260"/>
+      <c r="L260" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>7</v>
       </c>
-      <c r="C261" s="13"/>
+      <c r="C261" s="13">
+        <v>44075</v>
+      </c>
       <c r="D261" t="s">
         <v>291</v>
       </c>
-      <c r="E261" s="7" t="s">
-        <v>125</v>
+      <c r="E261" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="F261" s="13">
-        <v>27834</v>
+        <v>22529</v>
       </c>
       <c r="G261" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H261" t="s">
         <v>205</v>
@@ -11102,66 +11104,72 @@
         <v>310</v>
       </c>
       <c r="J261" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="K261" s="10"/>
-      <c r="L261"/>
+      <c r="L261" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>7</v>
       </c>
-      <c r="C262" s="13"/>
+      <c r="C262" s="13">
+        <v>44069</v>
+      </c>
       <c r="D262" t="s">
         <v>291</v>
       </c>
-      <c r="E262" s="12" t="s">
-        <v>102</v>
+      <c r="E262" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="F262" s="13">
-        <v>25069</v>
+        <v>21079</v>
       </c>
       <c r="G262" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H262" t="s">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="J262" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="K262" s="10"/>
-      <c r="L262"/>
+      <c r="L262" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="B263">
         <v>7</v>
       </c>
       <c r="C263" s="13">
-        <v>44069</v>
+        <v>44072</v>
       </c>
       <c r="D263" t="s">
         <v>291</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="F263" s="13">
-        <v>21269</v>
+        <v>28020</v>
       </c>
       <c r="G263" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H263" t="s">
         <v>205</v>
@@ -11174,45 +11182,41 @@
       </c>
       <c r="K263" s="10"/>
       <c r="L263" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>7</v>
       </c>
-      <c r="C264" s="13">
-        <v>44088</v>
-      </c>
+      <c r="C264" s="13"/>
       <c r="D264" t="s">
         <v>291</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F264" s="13">
-        <v>24000</v>
+        <v>234</v>
+      </c>
+      <c r="F264" s="10">
+        <v>21554</v>
       </c>
       <c r="G264" s="11">
         <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
-        <v>55</v>
-      </c>
-      <c r="H264" t="s">
+        <v>61</v>
+      </c>
+      <c r="H264" s="12" t="s">
         <v>205</v>
       </c>
       <c r="I264" s="12" t="s">
         <v>310</v>
       </c>
       <c r="J264" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="K264" s="10"/>
-      <c r="L264" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="L264"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L264" xr:uid="{3E146BB6-F1DB-3C48-8953-D31D18737686}">
@@ -11222,11 +11226,11 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L120" r:id="rId1" xr:uid="{5E35EA07-F051-E94E-8CA2-5E5BE0DBAFF2}"/>
-    <hyperlink ref="L116" r:id="rId2" xr:uid="{ECDB85BD-3D74-6D40-9FDC-9DA189A81FF8}"/>
-    <hyperlink ref="L117" r:id="rId3" xr:uid="{EBBBDA58-E0AB-E442-B785-DA389E60F964}"/>
-    <hyperlink ref="L121" r:id="rId4" xr:uid="{25A1E99B-8FE6-8E42-B1D6-42E667F17DFB}"/>
-    <hyperlink ref="L119" r:id="rId5" xr:uid="{80BCD533-CF42-6243-AF19-9132BFC49890}"/>
+    <hyperlink ref="L115" r:id="rId1" xr:uid="{5E35EA07-F051-E94E-8CA2-5E5BE0DBAFF2}"/>
+    <hyperlink ref="L117" r:id="rId2" xr:uid="{ECDB85BD-3D74-6D40-9FDC-9DA189A81FF8}"/>
+    <hyperlink ref="L118" r:id="rId3" xr:uid="{EBBBDA58-E0AB-E442-B785-DA389E60F964}"/>
+    <hyperlink ref="L113" r:id="rId4" xr:uid="{25A1E99B-8FE6-8E42-B1D6-42E667F17DFB}"/>
+    <hyperlink ref="L114" r:id="rId5" xr:uid="{80BCD533-CF42-6243-AF19-9132BFC49890}"/>
     <hyperlink ref="L24" r:id="rId6" xr:uid="{E11305D0-7A15-8F40-BBD6-29D407A59A85}"/>
     <hyperlink ref="L18" r:id="rId7" xr:uid="{C5D72966-3B2B-3B4A-BDA6-1F73C487581B}"/>
     <hyperlink ref="L25" r:id="rId8" xr:uid="{3E0F536A-1186-7F46-BBEF-62932CA57FEF}"/>
@@ -11246,145 +11250,145 @@
     <hyperlink ref="L7" r:id="rId22" xr:uid="{25F18012-A146-3141-9889-6944423F913B}"/>
     <hyperlink ref="L21" r:id="rId23" xr:uid="{6280B8FA-7812-DD49-8645-E788C18D5567}"/>
     <hyperlink ref="L6" r:id="rId24" xr:uid="{F328CAF1-7329-CF4A-8A31-EEE43189D0B3}"/>
-    <hyperlink ref="L237" r:id="rId25" xr:uid="{04CAAAEB-EB94-A141-8A95-D04005C206DA}"/>
+    <hyperlink ref="L226" r:id="rId25" xr:uid="{04CAAAEB-EB94-A141-8A95-D04005C206DA}"/>
     <hyperlink ref="L100" r:id="rId26" xr:uid="{B70BBFF8-90AF-7E4E-A9B8-0ED9C71C5260}"/>
-    <hyperlink ref="L130" r:id="rId27" xr:uid="{30E1DA05-059D-9347-B411-3EFED989712F}"/>
-    <hyperlink ref="L145" r:id="rId28" xr:uid="{040E25F1-9071-A34B-96D0-9358277A9602}"/>
-    <hyperlink ref="L112" r:id="rId29" xr:uid="{E5737C51-CA44-6444-AEF3-696CFD100819}"/>
-    <hyperlink ref="L238" r:id="rId30" xr:uid="{A63644E5-9A9B-4C48-8135-6ECE65E45218}"/>
-    <hyperlink ref="L232" r:id="rId31" xr:uid="{1A67B714-807C-4F46-82F0-4CFFA07B63AB}"/>
-    <hyperlink ref="L114" r:id="rId32" xr:uid="{0A1958E1-F046-474B-9926-F831AC3BD444}"/>
-    <hyperlink ref="L211" r:id="rId33" xr:uid="{59527AAC-FB55-C14B-88ED-3C9DF709DE99}"/>
-    <hyperlink ref="L137" r:id="rId34" xr:uid="{3CF710CA-59F9-AB4B-A036-72AFA0C7FAF7}"/>
-    <hyperlink ref="L115" r:id="rId35" xr:uid="{F74B2F26-F6F5-A944-8909-B402AF7E3445}"/>
-    <hyperlink ref="L185" r:id="rId36" xr:uid="{F074FE5F-2F8F-9843-80D2-9E553C6F89E9}"/>
-    <hyperlink ref="L189" r:id="rId37" xr:uid="{CEE68E11-A4C8-DB41-911B-76CBCC09A2E0}"/>
-    <hyperlink ref="L243" r:id="rId38" xr:uid="{E5486846-BD50-0748-B727-39A5652EE90C}"/>
-    <hyperlink ref="L124" r:id="rId39" xr:uid="{5D82704D-B97E-7640-B5A4-95E4332C13B4}"/>
-    <hyperlink ref="L170" r:id="rId40" xr:uid="{98B95C62-9C57-364E-BFBF-0068C03978E7}"/>
-    <hyperlink ref="L143" r:id="rId41" xr:uid="{6F0E097A-A4C9-D34B-BB29-5E2CED192633}"/>
-    <hyperlink ref="L194" r:id="rId42" xr:uid="{20E8AE30-8FB4-214C-A688-460F477526A3}"/>
-    <hyperlink ref="L253" r:id="rId43" xr:uid="{DD082D79-B8A8-7B41-B914-6D6EDA8260C7}"/>
-    <hyperlink ref="L203" r:id="rId44" xr:uid="{9DA55AA2-200B-5B4C-B67A-560F4D39BBF0}"/>
-    <hyperlink ref="L195" r:id="rId45" xr:uid="{5AB05EFC-983D-8C4C-A8A1-C6313EEAA8BB}"/>
-    <hyperlink ref="L251" r:id="rId46" xr:uid="{CC08A70F-A717-5E43-8E47-EAC93913ADA3}"/>
-    <hyperlink ref="L173" r:id="rId47" xr:uid="{8153247A-F133-B041-8962-3757144D9557}"/>
+    <hyperlink ref="L171" r:id="rId27" xr:uid="{30E1DA05-059D-9347-B411-3EFED989712F}"/>
+    <hyperlink ref="L125" r:id="rId28" xr:uid="{040E25F1-9071-A34B-96D0-9358277A9602}"/>
+    <hyperlink ref="L110" r:id="rId29" xr:uid="{E5737C51-CA44-6444-AEF3-696CFD100819}"/>
+    <hyperlink ref="L229" r:id="rId30" xr:uid="{A63644E5-9A9B-4C48-8135-6ECE65E45218}"/>
+    <hyperlink ref="L228" r:id="rId31" xr:uid="{1A67B714-807C-4F46-82F0-4CFFA07B63AB}"/>
+    <hyperlink ref="L230" r:id="rId32" xr:uid="{0A1958E1-F046-474B-9926-F831AC3BD444}"/>
+    <hyperlink ref="L190" r:id="rId33" xr:uid="{59527AAC-FB55-C14B-88ED-3C9DF709DE99}"/>
+    <hyperlink ref="L227" r:id="rId34" xr:uid="{3CF710CA-59F9-AB4B-A036-72AFA0C7FAF7}"/>
+    <hyperlink ref="L112" r:id="rId35" xr:uid="{F74B2F26-F6F5-A944-8909-B402AF7E3445}"/>
+    <hyperlink ref="L179" r:id="rId36" xr:uid="{F074FE5F-2F8F-9843-80D2-9E553C6F89E9}"/>
+    <hyperlink ref="L185" r:id="rId37" xr:uid="{CEE68E11-A4C8-DB41-911B-76CBCC09A2E0}"/>
+    <hyperlink ref="L251" r:id="rId38" xr:uid="{E5486846-BD50-0748-B727-39A5652EE90C}"/>
+    <hyperlink ref="L119" r:id="rId39" xr:uid="{5D82704D-B97E-7640-B5A4-95E4332C13B4}"/>
+    <hyperlink ref="L160" r:id="rId40" xr:uid="{98B95C62-9C57-364E-BFBF-0068C03978E7}"/>
+    <hyperlink ref="L130" r:id="rId41" xr:uid="{6F0E097A-A4C9-D34B-BB29-5E2CED192633}"/>
+    <hyperlink ref="L176" r:id="rId42" xr:uid="{20E8AE30-8FB4-214C-A688-460F477526A3}"/>
+    <hyperlink ref="L243" r:id="rId43" xr:uid="{DD082D79-B8A8-7B41-B914-6D6EDA8260C7}"/>
+    <hyperlink ref="L199" r:id="rId44" xr:uid="{9DA55AA2-200B-5B4C-B67A-560F4D39BBF0}"/>
+    <hyperlink ref="L188" r:id="rId45" xr:uid="{5AB05EFC-983D-8C4C-A8A1-C6313EEAA8BB}"/>
+    <hyperlink ref="L260" r:id="rId46" xr:uid="{CC08A70F-A717-5E43-8E47-EAC93913ADA3}"/>
+    <hyperlink ref="L157" r:id="rId47" xr:uid="{8153247A-F133-B041-8962-3757144D9557}"/>
     <hyperlink ref="L80" r:id="rId48" xr:uid="{058B15D2-6A27-F240-AA63-559E1A3B4419}"/>
-    <hyperlink ref="L191" r:id="rId49" xr:uid="{9874B165-92B6-214B-9508-C7D1E7E14C5F}"/>
-    <hyperlink ref="L165" r:id="rId50" xr:uid="{7400759C-B811-9E4C-B8C6-A6AD036837CA}"/>
+    <hyperlink ref="L181" r:id="rId49" xr:uid="{9874B165-92B6-214B-9508-C7D1E7E14C5F}"/>
+    <hyperlink ref="L150" r:id="rId50" xr:uid="{7400759C-B811-9E4C-B8C6-A6AD036837CA}"/>
     <hyperlink ref="L233" r:id="rId51" xr:uid="{A0400848-D667-CD40-9E00-78437E3D2408}"/>
-    <hyperlink ref="L91" r:id="rId52" xr:uid="{C0CE4574-0176-F944-8B9C-060A491F9147}"/>
+    <hyperlink ref="L92" r:id="rId52" xr:uid="{C0CE4574-0176-F944-8B9C-060A491F9147}"/>
     <hyperlink ref="L108" r:id="rId53" xr:uid="{E64CD85F-9BE3-CC4B-AF66-D504C89A019A}"/>
-    <hyperlink ref="L209" r:id="rId54" xr:uid="{3C0A4CAF-3804-7143-9BAB-A056C35B593A}"/>
-    <hyperlink ref="L113" r:id="rId55" xr:uid="{6AABF66B-7E68-5546-A0FB-68790FB4F116}"/>
-    <hyperlink ref="L93" r:id="rId56" xr:uid="{1C0227FC-EAEC-CA42-BE6B-66FE5E2CC151}"/>
-    <hyperlink ref="L69" r:id="rId57" xr:uid="{B6982694-8628-4846-9539-702FADC7B3FE}"/>
+    <hyperlink ref="L218" r:id="rId54" xr:uid="{3C0A4CAF-3804-7143-9BAB-A056C35B593A}"/>
+    <hyperlink ref="L111" r:id="rId55" xr:uid="{6AABF66B-7E68-5546-A0FB-68790FB4F116}"/>
+    <hyperlink ref="L69" r:id="rId56" xr:uid="{1C0227FC-EAEC-CA42-BE6B-66FE5E2CC151}"/>
+    <hyperlink ref="L70" r:id="rId57" xr:uid="{B6982694-8628-4846-9539-702FADC7B3FE}"/>
     <hyperlink ref="L96" r:id="rId58" xr:uid="{75E25F65-1A4A-8240-8337-3013BA746B22}"/>
     <hyperlink ref="L98" r:id="rId59" xr:uid="{F27682F5-E83D-B54C-8A79-ED847F57CB2C}"/>
-    <hyperlink ref="L129" r:id="rId60" xr:uid="{4173E3B6-18B3-EE4E-BE2A-10F6D2BE0498}"/>
-    <hyperlink ref="L71" r:id="rId61" xr:uid="{7B5A1534-74EC-C644-BF50-29EB3ECE8194}"/>
+    <hyperlink ref="L123" r:id="rId60" xr:uid="{4173E3B6-18B3-EE4E-BE2A-10F6D2BE0498}"/>
+    <hyperlink ref="L72" r:id="rId61" xr:uid="{7B5A1534-74EC-C644-BF50-29EB3ECE8194}"/>
     <hyperlink ref="L48" r:id="rId62" xr:uid="{03BC7C38-AFDA-F942-836A-FFB352410214}"/>
     <hyperlink ref="L74" r:id="rId63" display="Twitter" xr:uid="{1446F8F9-81B5-3946-8882-73AE7333EEA8}"/>
-    <hyperlink ref="L150" r:id="rId64" xr:uid="{6F94BE16-6941-BC41-BDC5-BF0ACA001DE7}"/>
-    <hyperlink ref="L144" r:id="rId65" xr:uid="{294050D0-C464-D94E-BA28-2BB036B1B538}"/>
-    <hyperlink ref="L149" r:id="rId66" xr:uid="{8CB55EF4-0980-7B43-9051-28F7E5259994}"/>
-    <hyperlink ref="L146" r:id="rId67" xr:uid="{38D5DCA1-D2A1-9448-B5E7-B572EF84CB88}"/>
-    <hyperlink ref="L147" r:id="rId68" xr:uid="{E76EDD5E-318E-7444-8B5A-CED5A00DCA1F}"/>
-    <hyperlink ref="L153" r:id="rId69" xr:uid="{EB2F8AEE-709C-004A-8DE7-2DFBC99A143B}"/>
-    <hyperlink ref="L154" r:id="rId70" xr:uid="{429FFB01-48F8-F746-9DE9-E3A6AD72CAFC}"/>
-    <hyperlink ref="L161" r:id="rId71" xr:uid="{5AEFC1AC-A642-4942-824D-E2B1D3F358F0}"/>
+    <hyperlink ref="L126" r:id="rId64" xr:uid="{6F94BE16-6941-BC41-BDC5-BF0ACA001DE7}"/>
+    <hyperlink ref="L127" r:id="rId65" xr:uid="{294050D0-C464-D94E-BA28-2BB036B1B538}"/>
+    <hyperlink ref="L128" r:id="rId66" xr:uid="{8CB55EF4-0980-7B43-9051-28F7E5259994}"/>
+    <hyperlink ref="L129" r:id="rId67" xr:uid="{38D5DCA1-D2A1-9448-B5E7-B572EF84CB88}"/>
+    <hyperlink ref="L131" r:id="rId68" xr:uid="{E76EDD5E-318E-7444-8B5A-CED5A00DCA1F}"/>
+    <hyperlink ref="L133" r:id="rId69" xr:uid="{EB2F8AEE-709C-004A-8DE7-2DFBC99A143B}"/>
+    <hyperlink ref="L139" r:id="rId70" xr:uid="{429FFB01-48F8-F746-9DE9-E3A6AD72CAFC}"/>
+    <hyperlink ref="L146" r:id="rId71" xr:uid="{5AEFC1AC-A642-4942-824D-E2B1D3F358F0}"/>
     <hyperlink ref="L75" r:id="rId72" xr:uid="{A30A9F9E-A0B7-4049-AF53-357A0FCB5830}"/>
     <hyperlink ref="L76" r:id="rId73" xr:uid="{EA70BD7D-F68A-394E-80C7-9A810AD8FE0F}"/>
     <hyperlink ref="L77" r:id="rId74" xr:uid="{FEDAFA69-DFB3-BB44-A80C-12595A523BE4}"/>
-    <hyperlink ref="L141" r:id="rId75" xr:uid="{786052F5-C810-FC4F-A458-CC08D809C213}"/>
-    <hyperlink ref="L110" r:id="rId76" xr:uid="{8CED7805-422E-F84A-B4F4-0094EFC170C9}"/>
-    <hyperlink ref="L167" r:id="rId77" xr:uid="{6D4BA0E7-690E-0347-9CD1-D77D17C7DCB4}"/>
-    <hyperlink ref="L168" r:id="rId78" xr:uid="{21E31C54-A295-F149-8EDD-8306670F90B9}"/>
+    <hyperlink ref="L149" r:id="rId75" xr:uid="{786052F5-C810-FC4F-A458-CC08D809C213}"/>
+    <hyperlink ref="L151" r:id="rId76" xr:uid="{8CED7805-422E-F84A-B4F4-0094EFC170C9}"/>
+    <hyperlink ref="L152" r:id="rId77" xr:uid="{6D4BA0E7-690E-0347-9CD1-D77D17C7DCB4}"/>
+    <hyperlink ref="L153" r:id="rId78" xr:uid="{21E31C54-A295-F149-8EDD-8306670F90B9}"/>
     <hyperlink ref="L54" r:id="rId79" xr:uid="{37A76876-1C6C-8D43-B583-6E901E0E6BAB}"/>
-    <hyperlink ref="L111" r:id="rId80" xr:uid="{1D32B755-C83A-DE48-817B-DE972F643650}"/>
+    <hyperlink ref="L154" r:id="rId80" xr:uid="{1D32B755-C83A-DE48-817B-DE972F643650}"/>
     <hyperlink ref="L99" r:id="rId81" xr:uid="{8F099F05-BEB3-8B46-88B3-8EEDC456D815}"/>
-    <hyperlink ref="L216" r:id="rId82" xr:uid="{CE470DBD-CCDA-D248-82DA-0F714F90989C}"/>
-    <hyperlink ref="L200" r:id="rId83" xr:uid="{05D72DA3-D314-9448-83A3-D080DCBD5F75}"/>
-    <hyperlink ref="L206" r:id="rId84" xr:uid="{FA8C2264-767D-B24E-9E67-5795A33D20E9}"/>
-    <hyperlink ref="L218" r:id="rId85" xr:uid="{E4086A23-5346-6440-8918-933025A927CB}"/>
-    <hyperlink ref="L223" r:id="rId86" xr:uid="{B3EDE865-43B6-DD4B-9D3D-BCCD9AF904ED}"/>
-    <hyperlink ref="L220" r:id="rId87" xr:uid="{AEE6509F-1FD4-B24E-9EC8-F323CC53D2BF}"/>
+    <hyperlink ref="L214" r:id="rId82" xr:uid="{CE470DBD-CCDA-D248-82DA-0F714F90989C}"/>
+    <hyperlink ref="L222" r:id="rId83" xr:uid="{05D72DA3-D314-9448-83A3-D080DCBD5F75}"/>
+    <hyperlink ref="L195" r:id="rId84" xr:uid="{FA8C2264-767D-B24E-9E67-5795A33D20E9}"/>
+    <hyperlink ref="L213" r:id="rId85" xr:uid="{E4086A23-5346-6440-8918-933025A927CB}"/>
+    <hyperlink ref="L208" r:id="rId86" xr:uid="{B3EDE865-43B6-DD4B-9D3D-BCCD9AF904ED}"/>
+    <hyperlink ref="L205" r:id="rId87" xr:uid="{AEE6509F-1FD4-B24E-9EC8-F323CC53D2BF}"/>
     <hyperlink ref="L102" r:id="rId88" xr:uid="{4808757E-A77C-AF4D-8102-6952E635DB9E}"/>
     <hyperlink ref="L101" r:id="rId89" xr:uid="{1E1EC8D2-B583-DF44-B97C-4934F33725A7}"/>
     <hyperlink ref="L107" r:id="rId90" xr:uid="{BDFC98B3-397C-B74E-942A-B8EBB21711F9}"/>
-    <hyperlink ref="L202" r:id="rId91" xr:uid="{44B24A61-1CB9-4347-99D3-0505F057AAD4}"/>
-    <hyperlink ref="L201" r:id="rId92" xr:uid="{FE8128FA-5CF0-0D41-A7C0-46F741DA59B4}"/>
-    <hyperlink ref="L210" r:id="rId93" xr:uid="{CAD5594E-A27A-154B-B415-B130A8F7CE07}"/>
-    <hyperlink ref="L208" r:id="rId94" xr:uid="{A4FF3F21-9E3D-B447-AAFA-22F9043DDA5D}"/>
-    <hyperlink ref="L224" r:id="rId95" xr:uid="{DB73CEB3-3FEB-7F46-85A3-3938951F37B8}"/>
+    <hyperlink ref="L191" r:id="rId91" xr:uid="{44B24A61-1CB9-4347-99D3-0505F057AAD4}"/>
+    <hyperlink ref="L204" r:id="rId92" xr:uid="{FE8128FA-5CF0-0D41-A7C0-46F741DA59B4}"/>
+    <hyperlink ref="L196" r:id="rId93" xr:uid="{CAD5594E-A27A-154B-B415-B130A8F7CE07}"/>
+    <hyperlink ref="L209" r:id="rId94" xr:uid="{A4FF3F21-9E3D-B447-AAFA-22F9043DDA5D}"/>
+    <hyperlink ref="L206" r:id="rId95" xr:uid="{DB73CEB3-3FEB-7F46-85A3-3938951F37B8}"/>
     <hyperlink ref="L66" r:id="rId96" xr:uid="{045C56B0-A424-AD4B-B22F-7825ED6CB96D}"/>
-    <hyperlink ref="L140" r:id="rId97" xr:uid="{D092D972-E3B1-4140-8375-95BE3C9F3EFE}"/>
-    <hyperlink ref="L249" r:id="rId98" xr:uid="{EEDA047C-354C-FF44-87E3-87C73923418A}"/>
-    <hyperlink ref="L122" r:id="rId99" xr:uid="{25AA9D20-D18A-4B41-9D0A-A019A153851B}"/>
-    <hyperlink ref="L134" r:id="rId100" xr:uid="{34BCCBFD-EFF6-3141-B6F5-01363288E46A}"/>
-    <hyperlink ref="L123" r:id="rId101" xr:uid="{0A07A660-A511-8A48-96F6-2AF2A4FCE17B}"/>
-    <hyperlink ref="L162" r:id="rId102" xr:uid="{43EB58A6-B0F0-7140-8FAF-4BE289791BDB}"/>
-    <hyperlink ref="L155" r:id="rId103" xr:uid="{D9038633-5F30-A243-A01B-F6D882372CEC}"/>
-    <hyperlink ref="L159" r:id="rId104" xr:uid="{95BD3E50-FB6B-A14B-9A87-B409CF912C2C}"/>
-    <hyperlink ref="L158" r:id="rId105" xr:uid="{5B391E3A-2175-DA4C-95AE-4B8B239A8A3A}"/>
-    <hyperlink ref="L156" r:id="rId106" xr:uid="{9FF2AAA1-90A9-674B-9E47-D3829FFBE2AB}"/>
-    <hyperlink ref="L136" r:id="rId107" xr:uid="{8D59555B-9D83-E641-BB46-630401BA6CE7}"/>
-    <hyperlink ref="L163" r:id="rId108" xr:uid="{6818F469-A896-EE47-86EA-7CEB5B68BCA3}"/>
-    <hyperlink ref="L160" r:id="rId109" xr:uid="{BB101638-800D-F44C-B944-5D59A141D333}"/>
-    <hyperlink ref="L152" r:id="rId110" xr:uid="{1EDA595A-591F-2B47-ACE5-3BD72E829B35}"/>
-    <hyperlink ref="L131" r:id="rId111" xr:uid="{8707D7A0-DF19-AB40-99EB-982FD252BD77}"/>
-    <hyperlink ref="L157" r:id="rId112" xr:uid="{B49AC525-00AE-0842-A83F-96FDA814EF59}"/>
+    <hyperlink ref="L235" r:id="rId97" xr:uid="{D092D972-E3B1-4140-8375-95BE3C9F3EFE}"/>
+    <hyperlink ref="L245" r:id="rId98" xr:uid="{EEDA047C-354C-FF44-87E3-87C73923418A}"/>
+    <hyperlink ref="L120" r:id="rId99" xr:uid="{25AA9D20-D18A-4B41-9D0A-A019A153851B}"/>
+    <hyperlink ref="L121" r:id="rId100" xr:uid="{34BCCBFD-EFF6-3141-B6F5-01363288E46A}"/>
+    <hyperlink ref="L122" r:id="rId101" xr:uid="{0A07A660-A511-8A48-96F6-2AF2A4FCE17B}"/>
+    <hyperlink ref="L134" r:id="rId102" xr:uid="{43EB58A6-B0F0-7140-8FAF-4BE289791BDB}"/>
+    <hyperlink ref="L135" r:id="rId103" xr:uid="{D9038633-5F30-A243-A01B-F6D882372CEC}"/>
+    <hyperlink ref="L136" r:id="rId104" xr:uid="{95BD3E50-FB6B-A14B-9A87-B409CF912C2C}"/>
+    <hyperlink ref="L137" r:id="rId105" xr:uid="{5B391E3A-2175-DA4C-95AE-4B8B239A8A3A}"/>
+    <hyperlink ref="L138" r:id="rId106" xr:uid="{9FF2AAA1-90A9-674B-9E47-D3829FFBE2AB}"/>
+    <hyperlink ref="L140" r:id="rId107" xr:uid="{8D59555B-9D83-E641-BB46-630401BA6CE7}"/>
+    <hyperlink ref="L141" r:id="rId108" xr:uid="{6818F469-A896-EE47-86EA-7CEB5B68BCA3}"/>
+    <hyperlink ref="L142" r:id="rId109" xr:uid="{BB101638-800D-F44C-B944-5D59A141D333}"/>
+    <hyperlink ref="L143" r:id="rId110" xr:uid="{1EDA595A-591F-2B47-ACE5-3BD72E829B35}"/>
+    <hyperlink ref="L144" r:id="rId111" xr:uid="{8707D7A0-DF19-AB40-99EB-982FD252BD77}"/>
+    <hyperlink ref="L145" r:id="rId112" xr:uid="{B49AC525-00AE-0842-A83F-96FDA814EF59}"/>
     <hyperlink ref="L78" r:id="rId113" xr:uid="{CE90970E-8EE0-6B4E-916E-9C9E8DE847A8}"/>
     <hyperlink ref="L79" r:id="rId114" xr:uid="{48905F47-687C-EB46-8C06-E40F411ABB5C}"/>
     <hyperlink ref="L52" r:id="rId115" xr:uid="{1761F92D-50D3-3743-89BD-5D06E62BBFB6}"/>
     <hyperlink ref="L53" r:id="rId116" xr:uid="{C9968383-C3CE-5144-99DB-7797BB593DDE}"/>
-    <hyperlink ref="L138" r:id="rId117" xr:uid="{5FB3A2FF-A7FE-8B4C-BDE2-FE5682511476}"/>
-    <hyperlink ref="L172" r:id="rId118" xr:uid="{946E2692-2B7D-6C4A-9C9F-787D04506ECE}"/>
-    <hyperlink ref="L174" r:id="rId119" xr:uid="{805CD766-243F-B240-B093-06536E655817}"/>
-    <hyperlink ref="L175" r:id="rId120" xr:uid="{E4FBCDA2-87FD-E945-9CB9-1AD98B942B95}"/>
-    <hyperlink ref="L169" r:id="rId121" xr:uid="{24075B69-0DFF-294A-938C-9B30A0987122}"/>
-    <hyperlink ref="L171" r:id="rId122" xr:uid="{B15BF43A-5F15-814E-B897-670959531B3E}"/>
-    <hyperlink ref="L73" r:id="rId123" xr:uid="{08694A46-113C-9549-9784-04A13D06B3C1}"/>
-    <hyperlink ref="L85" r:id="rId124" xr:uid="{1836BB31-553B-DD40-85C5-9099649CE5A1}"/>
-    <hyperlink ref="L84" r:id="rId125" xr:uid="{4B6B39DD-2D84-FD4D-AD42-F85F439CA29B}"/>
-    <hyperlink ref="L83" r:id="rId126" xr:uid="{3BD0C89B-F99A-A54F-A144-B0A1B7CAB149}"/>
-    <hyperlink ref="L81" r:id="rId127" xr:uid="{80C1D19F-F1E2-FC4D-A18F-70518B1CBFFA}"/>
-    <hyperlink ref="L82" r:id="rId128" xr:uid="{2E4440E0-D07A-7642-BEA1-72776DA50C36}"/>
-    <hyperlink ref="L148" r:id="rId129" xr:uid="{8206A4EA-C466-5F4E-B49E-2C0FA4703E6F}"/>
-    <hyperlink ref="L151" r:id="rId130" xr:uid="{B1F5FC72-DAC6-FF49-B48D-81EB5BF15BFD}"/>
-    <hyperlink ref="L187" r:id="rId131" xr:uid="{D167BEA5-D45B-CA41-B4F6-76163925622D}"/>
-    <hyperlink ref="L188" r:id="rId132" xr:uid="{3A330AFD-1377-5944-B736-4634675447DE}"/>
-    <hyperlink ref="L181" r:id="rId133" xr:uid="{3476BF52-600B-0B4C-A6FF-57146EA8D62A}"/>
-    <hyperlink ref="L183" r:id="rId134" xr:uid="{F50C551A-3BE1-A54B-90BE-42B9CD45BEFE}"/>
-    <hyperlink ref="L192" r:id="rId135" xr:uid="{D1C7EAEE-E389-D549-BA6D-7DDDC8847410}"/>
-    <hyperlink ref="L196" r:id="rId136" xr:uid="{7302C45C-661C-AF4F-B0DF-3526BD3BEFA6}"/>
-    <hyperlink ref="L182" r:id="rId137" xr:uid="{A8013915-FAD6-E94B-B4AA-8830C0E1B1C4}"/>
-    <hyperlink ref="L133" r:id="rId138" xr:uid="{A599CA4F-49A5-A547-82C6-18C18517EF66}"/>
-    <hyperlink ref="L184" r:id="rId139" xr:uid="{23A2EB8F-414C-6A40-B61C-550E0384B84A}"/>
-    <hyperlink ref="L197" r:id="rId140" xr:uid="{E2408F5B-5943-B445-B9E4-EBA5E81A556C}"/>
-    <hyperlink ref="L193" r:id="rId141" xr:uid="{1E96C5C3-8A62-6B4F-BD59-38A73329B43A}"/>
-    <hyperlink ref="L190" r:id="rId142" xr:uid="{2BCE4C49-F382-1347-BF65-F02D569FE10C}"/>
-    <hyperlink ref="L186" r:id="rId143" xr:uid="{207BBD72-8B44-274E-AA5D-CB11F697B855}"/>
-    <hyperlink ref="L86" r:id="rId144" xr:uid="{7D45DEC7-0653-FD42-89A8-A25927113AB4}"/>
-    <hyperlink ref="L87" r:id="rId145" xr:uid="{D6C77E50-E5F5-C24C-AB05-774C491255BB}"/>
-    <hyperlink ref="L89" r:id="rId146" xr:uid="{E169FD4F-67F5-9341-8F82-A11B5E96539C}"/>
-    <hyperlink ref="L88" r:id="rId147" xr:uid="{032927EA-DDA7-AF4A-BE91-F6511D67DAF3}"/>
-    <hyperlink ref="L90" r:id="rId148" xr:uid="{71D0AC5C-148A-BF46-81DC-BE97B128C4E3}"/>
-    <hyperlink ref="L234" r:id="rId149" xr:uid="{4A00DA70-9D66-094B-917C-675B2EDCF48F}"/>
-    <hyperlink ref="L236" r:id="rId150" xr:uid="{F21D5C5E-B4FD-B740-ACC2-B6B05B700BF7}"/>
-    <hyperlink ref="L235" r:id="rId151" xr:uid="{596F335A-FD6C-7948-96A0-68149C037C23}"/>
-    <hyperlink ref="L228" r:id="rId152" xr:uid="{AB792AA3-A918-B54E-86E5-48834D59017F}"/>
+    <hyperlink ref="L155" r:id="rId117" xr:uid="{5FB3A2FF-A7FE-8B4C-BDE2-FE5682511476}"/>
+    <hyperlink ref="L156" r:id="rId118" xr:uid="{946E2692-2B7D-6C4A-9C9F-787D04506ECE}"/>
+    <hyperlink ref="L158" r:id="rId119" xr:uid="{805CD766-243F-B240-B093-06536E655817}"/>
+    <hyperlink ref="L159" r:id="rId120" xr:uid="{E4FBCDA2-87FD-E945-9CB9-1AD98B942B95}"/>
+    <hyperlink ref="L161" r:id="rId121" xr:uid="{24075B69-0DFF-294A-938C-9B30A0987122}"/>
+    <hyperlink ref="L162" r:id="rId122" xr:uid="{B15BF43A-5F15-814E-B897-670959531B3E}"/>
+    <hyperlink ref="L81" r:id="rId123" xr:uid="{08694A46-113C-9549-9784-04A13D06B3C1}"/>
+    <hyperlink ref="L86" r:id="rId124" xr:uid="{1836BB31-553B-DD40-85C5-9099649CE5A1}"/>
+    <hyperlink ref="L85" r:id="rId125" xr:uid="{4B6B39DD-2D84-FD4D-AD42-F85F439CA29B}"/>
+    <hyperlink ref="L84" r:id="rId126" xr:uid="{3BD0C89B-F99A-A54F-A144-B0A1B7CAB149}"/>
+    <hyperlink ref="L82" r:id="rId127" xr:uid="{80C1D19F-F1E2-FC4D-A18F-70518B1CBFFA}"/>
+    <hyperlink ref="L83" r:id="rId128" xr:uid="{2E4440E0-D07A-7642-BEA1-72776DA50C36}"/>
+    <hyperlink ref="L132" r:id="rId129" xr:uid="{8206A4EA-C466-5F4E-B49E-2C0FA4703E6F}"/>
+    <hyperlink ref="L163" r:id="rId130" xr:uid="{B1F5FC72-DAC6-FF49-B48D-81EB5BF15BFD}"/>
+    <hyperlink ref="L172" r:id="rId131" xr:uid="{D167BEA5-D45B-CA41-B4F6-76163925622D}"/>
+    <hyperlink ref="L173" r:id="rId132" xr:uid="{3A330AFD-1377-5944-B736-4634675447DE}"/>
+    <hyperlink ref="L174" r:id="rId133" xr:uid="{3476BF52-600B-0B4C-A6FF-57146EA8D62A}"/>
+    <hyperlink ref="L175" r:id="rId134" xr:uid="{F50C551A-3BE1-A54B-90BE-42B9CD45BEFE}"/>
+    <hyperlink ref="L178" r:id="rId135" xr:uid="{D1C7EAEE-E389-D549-BA6D-7DDDC8847410}"/>
+    <hyperlink ref="L177" r:id="rId136" xr:uid="{7302C45C-661C-AF4F-B0DF-3526BD3BEFA6}"/>
+    <hyperlink ref="L180" r:id="rId137" xr:uid="{A8013915-FAD6-E94B-B4AA-8830C0E1B1C4}"/>
+    <hyperlink ref="L182" r:id="rId138" xr:uid="{A599CA4F-49A5-A547-82C6-18C18517EF66}"/>
+    <hyperlink ref="L183" r:id="rId139" xr:uid="{23A2EB8F-414C-6A40-B61C-550E0384B84A}"/>
+    <hyperlink ref="L184" r:id="rId140" xr:uid="{E2408F5B-5943-B445-B9E4-EBA5E81A556C}"/>
+    <hyperlink ref="L186" r:id="rId141" xr:uid="{1E96C5C3-8A62-6B4F-BD59-38A73329B43A}"/>
+    <hyperlink ref="L187" r:id="rId142" xr:uid="{2BCE4C49-F382-1347-BF65-F02D569FE10C}"/>
+    <hyperlink ref="L189" r:id="rId143" xr:uid="{207BBD72-8B44-274E-AA5D-CB11F697B855}"/>
+    <hyperlink ref="L87" r:id="rId144" xr:uid="{7D45DEC7-0653-FD42-89A8-A25927113AB4}"/>
+    <hyperlink ref="L88" r:id="rId145" xr:uid="{D6C77E50-E5F5-C24C-AB05-774C491255BB}"/>
+    <hyperlink ref="L90" r:id="rId146" xr:uid="{E169FD4F-67F5-9341-8F82-A11B5E96539C}"/>
+    <hyperlink ref="L89" r:id="rId147" xr:uid="{032927EA-DDA7-AF4A-BE91-F6511D67DAF3}"/>
+    <hyperlink ref="L91" r:id="rId148" xr:uid="{71D0AC5C-148A-BF46-81DC-BE97B128C4E3}"/>
+    <hyperlink ref="L231" r:id="rId149" xr:uid="{4A00DA70-9D66-094B-917C-675B2EDCF48F}"/>
+    <hyperlink ref="L232" r:id="rId150" xr:uid="{F21D5C5E-B4FD-B740-ACC2-B6B05B700BF7}"/>
+    <hyperlink ref="L234" r:id="rId151" xr:uid="{596F335A-FD6C-7948-96A0-68149C037C23}"/>
+    <hyperlink ref="L219" r:id="rId152" xr:uid="{AB792AA3-A918-B54E-86E5-48834D59017F}"/>
     <hyperlink ref="L94" r:id="rId153" xr:uid="{1B8A43D8-9FEE-B14D-ADC0-C35FB1FFA1D2}"/>
     <hyperlink ref="L55" r:id="rId154" xr:uid="{35704627-FEB5-494E-9625-9FD85ECE20CE}"/>
-    <hyperlink ref="L179" r:id="rId155" xr:uid="{C3541F8C-80DD-EC41-81ED-84D804D4DF3E}"/>
-    <hyperlink ref="L177" r:id="rId156" xr:uid="{1F4C36B2-A1A8-0749-BAB5-CED2B3834BD3}"/>
-    <hyperlink ref="L126" r:id="rId157" xr:uid="{5347B466-90F3-3A42-855A-58DDD9AE464E}"/>
-    <hyperlink ref="L176" r:id="rId158" xr:uid="{C585C75E-6746-1C40-ABC1-CCD931279C0C}"/>
-    <hyperlink ref="L178" r:id="rId159" xr:uid="{C2D4F39B-6034-8A40-B3B5-1005B96A8109}"/>
-    <hyperlink ref="L128" r:id="rId160" xr:uid="{5265D5E7-37B8-F045-8353-A979BA94839C}"/>
-    <hyperlink ref="L135" r:id="rId161" xr:uid="{ADC9B98F-F064-024E-9431-144F2E5665A4}"/>
-    <hyperlink ref="L166" r:id="rId162" xr:uid="{F8C50251-F225-4443-8C4C-C07012864383}"/>
-    <hyperlink ref="L164" r:id="rId163" xr:uid="{8B0183BD-3FC3-6E43-94EB-08238A4F4B7D}"/>
+    <hyperlink ref="L165" r:id="rId155" xr:uid="{C3541F8C-80DD-EC41-81ED-84D804D4DF3E}"/>
+    <hyperlink ref="L166" r:id="rId156" xr:uid="{1F4C36B2-A1A8-0749-BAB5-CED2B3834BD3}"/>
+    <hyperlink ref="L170" r:id="rId157" xr:uid="{5347B466-90F3-3A42-855A-58DDD9AE464E}"/>
+    <hyperlink ref="L169" r:id="rId158" xr:uid="{C585C75E-6746-1C40-ABC1-CCD931279C0C}"/>
+    <hyperlink ref="L168" r:id="rId159" xr:uid="{C2D4F39B-6034-8A40-B3B5-1005B96A8109}"/>
+    <hyperlink ref="L167" r:id="rId160" xr:uid="{5265D5E7-37B8-F045-8353-A979BA94839C}"/>
+    <hyperlink ref="L164" r:id="rId161" xr:uid="{ADC9B98F-F064-024E-9431-144F2E5665A4}"/>
+    <hyperlink ref="L148" r:id="rId162" xr:uid="{F8C50251-F225-4443-8C4C-C07012864383}"/>
+    <hyperlink ref="L147" r:id="rId163" xr:uid="{8B0183BD-3FC3-6E43-94EB-08238A4F4B7D}"/>
     <hyperlink ref="L60" r:id="rId164" xr:uid="{A3D0BBB7-0C2A-794B-91E9-E8288E72D0AC}"/>
     <hyperlink ref="L47" r:id="rId165" xr:uid="{A0EB7984-F55C-1146-889A-1FF64D0683C6}"/>
     <hyperlink ref="L49" r:id="rId166" xr:uid="{70A83B6B-9B27-284B-B535-C95D8D7155C3}"/>
@@ -11392,51 +11396,52 @@
     <hyperlink ref="L46" r:id="rId168" xr:uid="{09D09F0F-2E32-CB48-8641-16F0A8431B5B}"/>
     <hyperlink ref="L59" r:id="rId169" xr:uid="{1CAF8626-07BE-8442-87B7-FE58A9DFE605}"/>
     <hyperlink ref="L58" r:id="rId170" xr:uid="{5D1A25E4-01B1-9B47-AD71-12681DBF9531}"/>
-    <hyperlink ref="L231" r:id="rId171" xr:uid="{D92F81AD-E9AD-3F4F-8877-CA8C00B0E683}"/>
-    <hyperlink ref="L263" r:id="rId172" xr:uid="{C3357FDD-7C34-9841-8DDE-935CC0A7BFC4}"/>
-    <hyperlink ref="L219" r:id="rId173" xr:uid="{D1C65A36-1B3F-7345-A7DD-E48FFB1D4DE7}"/>
-    <hyperlink ref="L250" r:id="rId174" xr:uid="{8343CEAF-6E97-644B-A1F6-36BD90A6E9C1}"/>
-    <hyperlink ref="L180" r:id="rId175" xr:uid="{FCC643FA-E57C-D047-B548-2B93D7AA5550}"/>
-    <hyperlink ref="L204" r:id="rId176" xr:uid="{9A695397-EBD0-6048-93CC-03E0014B65E5}"/>
-    <hyperlink ref="L92" r:id="rId177" xr:uid="{5EE3DA6D-4AC5-C14C-89D4-05332DBFCB78}"/>
+    <hyperlink ref="L223" r:id="rId171" xr:uid="{D92F81AD-E9AD-3F4F-8877-CA8C00B0E683}"/>
+    <hyperlink ref="L238" r:id="rId172" xr:uid="{C3357FDD-7C34-9841-8DDE-935CC0A7BFC4}"/>
+    <hyperlink ref="L192" r:id="rId173" xr:uid="{D1C65A36-1B3F-7345-A7DD-E48FFB1D4DE7}"/>
+    <hyperlink ref="L258" r:id="rId174" xr:uid="{8343CEAF-6E97-644B-A1F6-36BD90A6E9C1}"/>
+    <hyperlink ref="L262" r:id="rId175" xr:uid="{FCC643FA-E57C-D047-B548-2B93D7AA5550}"/>
+    <hyperlink ref="L224" r:id="rId176" xr:uid="{9A695397-EBD0-6048-93CC-03E0014B65E5}"/>
+    <hyperlink ref="L93" r:id="rId177" xr:uid="{5EE3DA6D-4AC5-C14C-89D4-05332DBFCB78}"/>
     <hyperlink ref="L57" r:id="rId178" xr:uid="{821F0F7A-BE61-7742-B4C7-329E4169955D}"/>
-    <hyperlink ref="L230" r:id="rId179" xr:uid="{A157527D-B6D6-2A4B-9449-ABE025A873F7}"/>
-    <hyperlink ref="L221" r:id="rId180" xr:uid="{E9951DC5-8BFE-984D-A578-DF7F242A994A}"/>
-    <hyperlink ref="L214" r:id="rId181" xr:uid="{BE22F373-286A-1B4F-9066-3EE1B667E22C}"/>
+    <hyperlink ref="L225" r:id="rId179" xr:uid="{A157527D-B6D6-2A4B-9449-ABE025A873F7}"/>
+    <hyperlink ref="L215" r:id="rId180" xr:uid="{E9951DC5-8BFE-984D-A578-DF7F242A994A}"/>
+    <hyperlink ref="L200" r:id="rId181" xr:uid="{BE22F373-286A-1B4F-9066-3EE1B667E22C}"/>
     <hyperlink ref="L67" r:id="rId182" xr:uid="{A5533AE1-8B5B-44D9-9D53-9267D5905927}"/>
-    <hyperlink ref="L199" r:id="rId183" xr:uid="{6B02A1BF-D5A1-4CB0-8B57-2390898A8710}"/>
-    <hyperlink ref="L217" r:id="rId184" xr:uid="{14B6608F-AE7D-4EB6-B4F7-59AB9696E0D4}"/>
-    <hyperlink ref="L225" r:id="rId185" xr:uid="{6A03713B-5F2E-4A79-AD50-CF2F445AAEDD}"/>
-    <hyperlink ref="L215" r:id="rId186" xr:uid="{5A33DEA5-8EEB-4336-BACA-DAEC6BE49CCC}"/>
-    <hyperlink ref="L248" r:id="rId187" xr:uid="{3644EC82-FA7D-4D68-85E5-A6F6B689E26F}"/>
-    <hyperlink ref="L244" r:id="rId188" xr:uid="{C42460ED-F5B4-43B4-9D45-C8DD8236FF20}"/>
-    <hyperlink ref="L257" r:id="rId189" xr:uid="{8C73F97C-B70F-4BF7-941F-584589AB7EB3}"/>
-    <hyperlink ref="L241" r:id="rId190" xr:uid="{5883F655-0F18-468B-BD66-51C8B0C13C3B}"/>
-    <hyperlink ref="L70" r:id="rId191" xr:uid="{7DEC1022-F0CB-4489-89BD-F4B670DD6CDA}"/>
+    <hyperlink ref="L193" r:id="rId183" xr:uid="{6B02A1BF-D5A1-4CB0-8B57-2390898A8710}"/>
+    <hyperlink ref="L197" r:id="rId184" xr:uid="{14B6608F-AE7D-4EB6-B4F7-59AB9696E0D4}"/>
+    <hyperlink ref="L210" r:id="rId185" xr:uid="{6A03713B-5F2E-4A79-AD50-CF2F445AAEDD}"/>
+    <hyperlink ref="L221" r:id="rId186" xr:uid="{5A33DEA5-8EEB-4336-BACA-DAEC6BE49CCC}"/>
+    <hyperlink ref="L246" r:id="rId187" xr:uid="{3644EC82-FA7D-4D68-85E5-A6F6B689E26F}"/>
+    <hyperlink ref="L253" r:id="rId188" xr:uid="{C42460ED-F5B4-43B4-9D45-C8DD8236FF20}"/>
+    <hyperlink ref="L256" r:id="rId189" xr:uid="{8C73F97C-B70F-4BF7-941F-584589AB7EB3}"/>
+    <hyperlink ref="L263" r:id="rId190" xr:uid="{5883F655-0F18-468B-BD66-51C8B0C13C3B}"/>
+    <hyperlink ref="L71" r:id="rId191" xr:uid="{7DEC1022-F0CB-4489-89BD-F4B670DD6CDA}"/>
     <hyperlink ref="L95" r:id="rId192" xr:uid="{3E281849-8664-4815-8F96-B7AC487C66A3}"/>
     <hyperlink ref="L97" r:id="rId193" xr:uid="{B0B60D25-B532-4E9F-BC20-B46379724E29}"/>
-    <hyperlink ref="L229" r:id="rId194" xr:uid="{42B6D93B-AE56-4A08-BB1D-13ADB1FD2871}"/>
+    <hyperlink ref="L194" r:id="rId194" xr:uid="{42B6D93B-AE56-4A08-BB1D-13ADB1FD2871}"/>
     <hyperlink ref="L68" r:id="rId195" xr:uid="{35A37479-EA72-46CF-ADCD-8DF520CE5BB4}"/>
     <hyperlink ref="L103" r:id="rId196" xr:uid="{0FC99021-3EDB-FC42-9B65-93C131C14491}"/>
     <hyperlink ref="L104" r:id="rId197" xr:uid="{464C304B-E085-4665-8BAB-31EBE5542413}"/>
     <hyperlink ref="L105" r:id="rId198" xr:uid="{C31C9966-D26E-44A4-9778-9DE908941A1F}"/>
     <hyperlink ref="L106" r:id="rId199" xr:uid="{96E0BBCB-2A81-494F-9F09-50B18A7232F6}"/>
-    <hyperlink ref="L207" r:id="rId200" xr:uid="{BE416F40-4BFE-4311-9693-569D5DE2A93F}"/>
-    <hyperlink ref="L127" r:id="rId201" xr:uid="{374AF96C-2A37-4CBD-AEA3-4E8452E44A7E}"/>
-    <hyperlink ref="L118" r:id="rId202" xr:uid="{BD9FA8EE-C9E6-42B5-9095-F291DE134E4F}"/>
-    <hyperlink ref="L245" r:id="rId203" xr:uid="{4E47DF95-E6D7-4854-BE4D-00E81BD857EF}"/>
-    <hyperlink ref="L125" r:id="rId204" xr:uid="{979E18C2-4478-4403-A8EC-1A599EE38A4C}"/>
-    <hyperlink ref="L240" r:id="rId205" xr:uid="{0DDAF617-BBC0-415A-A896-81CF11D15A90}"/>
-    <hyperlink ref="L212" r:id="rId206" xr:uid="{735417BF-8369-404B-9772-0EE5656EFD36}"/>
-    <hyperlink ref="L255" r:id="rId207" xr:uid="{224FC792-F0AB-481D-BA29-2CD59333CA22}"/>
-    <hyperlink ref="L205" r:id="rId208" xr:uid="{7BE42E29-EAB8-4FC2-930C-1193E9BB6328}"/>
+    <hyperlink ref="L220" r:id="rId200" xr:uid="{BE416F40-4BFE-4311-9693-569D5DE2A93F}"/>
+    <hyperlink ref="L207" r:id="rId201" xr:uid="{374AF96C-2A37-4CBD-AEA3-4E8452E44A7E}"/>
+    <hyperlink ref="L116" r:id="rId202" xr:uid="{BD9FA8EE-C9E6-42B5-9095-F291DE134E4F}"/>
+    <hyperlink ref="L244" r:id="rId203" xr:uid="{4E47DF95-E6D7-4854-BE4D-00E81BD857EF}"/>
+    <hyperlink ref="L239" r:id="rId204" xr:uid="{979E18C2-4478-4403-A8EC-1A599EE38A4C}"/>
+    <hyperlink ref="L261" r:id="rId205" xr:uid="{0DDAF617-BBC0-415A-A896-81CF11D15A90}"/>
+    <hyperlink ref="L198" r:id="rId206" xr:uid="{735417BF-8369-404B-9772-0EE5656EFD36}"/>
+    <hyperlink ref="L236" r:id="rId207" xr:uid="{224FC792-F0AB-481D-BA29-2CD59333CA22}"/>
+    <hyperlink ref="L203" r:id="rId208" xr:uid="{7BE42E29-EAB8-4FC2-930C-1193E9BB6328}"/>
     <hyperlink ref="L4" r:id="rId209" xr:uid="{7A91C93B-FE54-45D8-A7F4-CBD847A48201}"/>
-    <hyperlink ref="L226" r:id="rId210" xr:uid="{5A0493C3-889F-4E6F-BB37-10B2DBA70C9F}"/>
-    <hyperlink ref="L252" r:id="rId211" xr:uid="{601CB1EF-48BB-4443-9970-70A78DD3F2F7}"/>
-    <hyperlink ref="L264" r:id="rId212" xr:uid="{1F91F956-28CA-4B58-8834-0C069F43F1F8}"/>
-    <hyperlink ref="L139" r:id="rId213" xr:uid="{96BF946A-082E-45BA-9FE1-4E44D74DBBF4}"/>
+    <hyperlink ref="L201" r:id="rId210" xr:uid="{5A0493C3-889F-4E6F-BB37-10B2DBA70C9F}"/>
+    <hyperlink ref="L240" r:id="rId211" xr:uid="{601CB1EF-48BB-4443-9970-70A78DD3F2F7}"/>
+    <hyperlink ref="L241" r:id="rId212" xr:uid="{1F91F956-28CA-4B58-8834-0C069F43F1F8}"/>
+    <hyperlink ref="L124" r:id="rId213" xr:uid="{96BF946A-082E-45BA-9FE1-4E44D74DBBF4}"/>
+    <hyperlink ref="L73" r:id="rId214" xr:uid="{F9C6F057-49C4-4B45-9CD2-B81AAD0FEFCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId214"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId215"/>
 </worksheet>
 </file>
--- a/endoso_pleb20.xlsx
+++ b/endoso_pleb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDE2DBE-CA06-4AA0-A445-3301BC3482F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776FB16A-BD66-4379-B6E9-152BBD3BA3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="335">
   <si>
     <t>id</t>
   </si>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+      <selection activeCell="D5" sqref="D5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1505,7 @@
         <v>18233</v>
       </c>
       <c r="G2" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
+        <f t="shared" ref="G2:G31" ca="1" si="0">(YEAR(TODAY())-YEAR(F2))</f>
         <v>71</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1540,7 +1540,7 @@
         <v>15516</v>
       </c>
       <c r="G3" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -1575,7 +1575,7 @@
         <v>13941</v>
       </c>
       <c r="G4" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="13">
-        <v>44062</v>
+        <v>44123</v>
       </c>
       <c r="D5" t="s">
         <v>286</v>
@@ -1612,7 +1612,7 @@
         <v>18900</v>
       </c>
       <c r="G5" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -1622,10 +1622,14 @@
         <v>307</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="K5" s="10">
+        <v>44123</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1647,7 +1651,7 @@
         <v>26645</v>
       </c>
       <c r="G6" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1686,7 +1690,7 @@
         <v>20120</v>
       </c>
       <c r="G7" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1725,7 +1729,7 @@
         <v>28232</v>
       </c>
       <c r="G8" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -1764,7 +1768,7 @@
         <v>27653</v>
       </c>
       <c r="G9" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -1803,7 +1807,7 @@
         <v>22460</v>
       </c>
       <c r="G10" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -1842,7 +1846,7 @@
         <v>27681</v>
       </c>
       <c r="G11" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -1881,7 +1885,7 @@
         <v>17815</v>
       </c>
       <c r="G12" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -1920,7 +1924,7 @@
         <v>27474</v>
       </c>
       <c r="G13" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -1959,7 +1963,7 @@
         <v>20671</v>
       </c>
       <c r="G14" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -1994,7 +1998,7 @@
         <v>17779</v>
       </c>
       <c r="G15" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -2029,7 +2033,7 @@
         <v>24724</v>
       </c>
       <c r="G16" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -2064,7 +2068,7 @@
         <v>25134</v>
       </c>
       <c r="G17" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -2099,7 +2103,7 @@
         <v>25126</v>
       </c>
       <c r="G18" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H18" t="s">
@@ -2138,7 +2142,7 @@
         <v>24970</v>
       </c>
       <c r="G19" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -2177,7 +2181,7 @@
         <v>20492</v>
       </c>
       <c r="G20" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -2216,7 +2220,7 @@
         <v>21368</v>
       </c>
       <c r="G21" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -2255,7 +2259,7 @@
         <v>27295</v>
       </c>
       <c r="G22" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -2294,7 +2298,7 @@
         <v>27105</v>
       </c>
       <c r="G23" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -2333,7 +2337,7 @@
         <v>29554</v>
       </c>
       <c r="G24" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="H24" t="s">
@@ -2372,7 +2376,7 @@
         <v>20015</v>
       </c>
       <c r="G25" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -2411,7 +2415,7 @@
         <v>26556</v>
       </c>
       <c r="G26" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -2450,7 +2454,7 @@
         <v>32557</v>
       </c>
       <c r="G27" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -2489,7 +2493,7 @@
         <v>22770</v>
       </c>
       <c r="G28" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="H28" s="12" t="s">
@@ -2528,7 +2532,7 @@
         <v>17431</v>
       </c>
       <c r="G29" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>73</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -2561,7 +2565,7 @@
         <v>30994</v>
       </c>
       <c r="G30" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -2594,7 +2598,7 @@
         <v>25454</v>
       </c>
       <c r="G31" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -2871,7 +2875,7 @@
         <v>18048</v>
       </c>
       <c r="G40" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
+        <f t="shared" ref="G40:G49" ca="1" si="1">(YEAR(TODAY())-YEAR(F40))</f>
         <v>71</v>
       </c>
       <c r="H40" s="12" t="s">
@@ -2904,7 +2908,7 @@
         <v>25492</v>
       </c>
       <c r="G41" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="H41" s="12" t="s">
@@ -2937,7 +2941,7 @@
         <v>27655</v>
       </c>
       <c r="G42" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="H42" s="12" t="s">
@@ -2970,7 +2974,7 @@
         <v>22881</v>
       </c>
       <c r="G43" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="H43" s="12" t="s">
@@ -3003,7 +3007,7 @@
         <v>29105</v>
       </c>
       <c r="G44" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
       <c r="H44" s="12" t="s">
@@ -3036,7 +3040,7 @@
         <v>20806</v>
       </c>
       <c r="G45" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="H45" s="12" t="s">
@@ -3071,7 +3075,7 @@
         <v>26763</v>
       </c>
       <c r="G46" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="H46" s="12" t="s">
@@ -3110,7 +3114,7 @@
         <v>26090</v>
       </c>
       <c r="G47" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -3149,7 +3153,7 @@
         <v>31131</v>
       </c>
       <c r="G48" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="H48" s="12" t="s">
@@ -3186,7 +3190,7 @@
         <v>25265</v>
       </c>
       <c r="G49" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="H49" s="12" t="s">
@@ -3664,7 +3668,7 @@
         <v>19005</v>
       </c>
       <c r="G63" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
+        <f t="shared" ref="G63:G126" ca="1" si="2">(YEAR(TODAY())-YEAR(F63))</f>
         <v>68</v>
       </c>
       <c r="H63" s="12" t="s">
@@ -3697,7 +3701,7 @@
         <v>27845</v>
       </c>
       <c r="G64" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="H64" s="12" t="s">
@@ -3732,7 +3736,7 @@
         <v>14442</v>
       </c>
       <c r="G65" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
       </c>
       <c r="H65" s="12" t="s">
@@ -3771,7 +3775,7 @@
         <v>19655</v>
       </c>
       <c r="G66" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="H66" s="12" t="s">
@@ -3810,7 +3814,7 @@
         <v>28285</v>
       </c>
       <c r="G67" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="H67" t="s">
@@ -3849,7 +3853,7 @@
         <v>24478</v>
       </c>
       <c r="G68" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="H68" t="s">
@@ -3886,7 +3890,7 @@
         <v>21855</v>
       </c>
       <c r="G69" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="H69" t="s">
@@ -3925,7 +3929,7 @@
         <v>21845</v>
       </c>
       <c r="G70" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="H70" t="s">
@@ -3964,7 +3968,7 @@
         <v>22224</v>
       </c>
       <c r="G71" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H71" s="12" t="s">
@@ -4001,7 +4005,7 @@
         <v>19423</v>
       </c>
       <c r="G72" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="H72" s="12" t="s">
@@ -4038,7 +4042,7 @@
         <v>27196</v>
       </c>
       <c r="G73" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="H73" s="12" t="s">
@@ -4075,7 +4079,7 @@
         <v>21509</v>
       </c>
       <c r="G74" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="H74" s="12" t="s">
@@ -4112,7 +4116,7 @@
         <v>16153</v>
       </c>
       <c r="G75" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="H75" t="s">
@@ -4149,7 +4153,7 @@
         <v>25553</v>
       </c>
       <c r="G76" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="H76" t="s">
@@ -4186,7 +4190,7 @@
         <v>25024</v>
       </c>
       <c r="G77" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
       <c r="H77" t="s">
@@ -4223,7 +4227,7 @@
         <v>26653</v>
       </c>
       <c r="G78" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="H78" s="12" t="s">
@@ -4262,7 +4266,7 @@
         <v>19105</v>
       </c>
       <c r="G79" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="H79" s="12" t="s">
@@ -4301,7 +4305,7 @@
         <v>22698</v>
       </c>
       <c r="G80" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="H80" t="s">
@@ -4338,7 +4342,7 @@
         <v>26732</v>
       </c>
       <c r="G81" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H81" t="s">
@@ -4377,7 +4381,7 @@
         <v>24767</v>
       </c>
       <c r="G82" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="H82" t="s">
@@ -4416,7 +4420,7 @@
         <v>13455</v>
       </c>
       <c r="G83" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>84</v>
       </c>
       <c r="H83" t="s">
@@ -4455,7 +4459,7 @@
         <v>22305</v>
       </c>
       <c r="G84" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="H84" s="12" t="s">
@@ -4494,7 +4498,7 @@
         <v>26500</v>
       </c>
       <c r="G85" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="H85" s="12" t="s">
@@ -4533,7 +4537,7 @@
         <v>17801</v>
       </c>
       <c r="G86" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="H86" s="12" t="s">
@@ -4572,7 +4576,7 @@
         <v>25491</v>
       </c>
       <c r="G87" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="H87" t="s">
@@ -4611,7 +4615,7 @@
         <v>15859</v>
       </c>
       <c r="G88" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="H88" t="s">
@@ -4650,7 +4654,7 @@
         <v>16455</v>
       </c>
       <c r="G89" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="H89" t="s">
@@ -4689,7 +4693,7 @@
         <v>24173</v>
       </c>
       <c r="G90" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="H90" s="12" t="s">
@@ -4728,7 +4732,7 @@
         <v>22288</v>
       </c>
       <c r="G91" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="H91" s="12" t="s">
@@ -4767,7 +4771,7 @@
         <v>16933</v>
       </c>
       <c r="G92" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="H92" s="12" t="s">
@@ -4804,7 +4808,7 @@
         <v>16010</v>
       </c>
       <c r="G93" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="H93" s="12" t="s">
@@ -4841,7 +4845,7 @@
         <v>29680</v>
       </c>
       <c r="G94" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
       <c r="H94" t="s">
@@ -4878,7 +4882,7 @@
         <v>26073</v>
       </c>
       <c r="G95" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="H95" t="s">
@@ -4915,7 +4919,7 @@
         <v>24414</v>
       </c>
       <c r="G96" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="H96" t="s">
@@ -4954,7 +4958,7 @@
         <v>20231</v>
       </c>
       <c r="G97" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="H97" t="s">
@@ -4991,7 +4995,7 @@
         <v>20252</v>
       </c>
       <c r="G98" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="H98" t="s">
@@ -5030,7 +5034,7 @@
         <v>22882</v>
       </c>
       <c r="G99" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="H99" s="12" t="s">
@@ -5069,7 +5073,7 @@
         <v>28573</v>
       </c>
       <c r="G100" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>42</v>
       </c>
       <c r="H100" t="s">
@@ -5106,7 +5110,7 @@
         <v>22094</v>
       </c>
       <c r="G101" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H101" t="s">
@@ -5145,7 +5149,7 @@
         <v>23444</v>
       </c>
       <c r="G102" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="H102" t="s">
@@ -5184,7 +5188,7 @@
         <v>19287</v>
       </c>
       <c r="G103" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="H103" t="s">
@@ -5223,7 +5227,7 @@
         <v>20651</v>
       </c>
       <c r="G104" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="H104" t="s">
@@ -5260,7 +5264,7 @@
         <v>20797</v>
       </c>
       <c r="G105" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="H105" s="12" t="s">
@@ -5297,7 +5301,7 @@
         <v>27361</v>
       </c>
       <c r="G106" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="H106" s="12" t="s">
@@ -5334,7 +5338,7 @@
         <v>19103</v>
       </c>
       <c r="G107" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="H107" s="12" t="s">
@@ -5373,7 +5377,7 @@
         <v>23776</v>
       </c>
       <c r="G108" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="H108" s="12" t="s">
@@ -5408,7 +5412,7 @@
         <v>21953</v>
       </c>
       <c r="G109" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H109" s="12" t="s">
@@ -5443,7 +5447,7 @@
         <v>32533</v>
       </c>
       <c r="G110" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
       <c r="H110" t="s">
@@ -5480,7 +5484,7 @@
         <v>31454</v>
       </c>
       <c r="G111" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
       <c r="H111" t="s">
@@ -5517,7 +5521,7 @@
         <v>31783</v>
       </c>
       <c r="G112" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="H112" t="s">
@@ -5554,7 +5558,7 @@
         <v>26709</v>
       </c>
       <c r="G113" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H113" t="s">
@@ -5593,7 +5597,7 @@
         <v>26900</v>
       </c>
       <c r="G114" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H114" t="s">
@@ -5632,7 +5636,7 @@
         <v>25885</v>
       </c>
       <c r="G115" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="H115" t="s">
@@ -5671,7 +5675,7 @@
         <v>25750</v>
       </c>
       <c r="G116" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="H116" t="s">
@@ -5708,7 +5712,7 @@
         <v>23332</v>
       </c>
       <c r="G117" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="H117" t="s">
@@ -5747,7 +5751,7 @@
         <v>24014</v>
       </c>
       <c r="G118" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="H118" t="s">
@@ -5786,7 +5790,7 @@
         <v>23226</v>
       </c>
       <c r="G119" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="H119" t="s">
@@ -5823,7 +5827,7 @@
         <v>24059</v>
       </c>
       <c r="G120" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="H120" t="s">
@@ -5862,7 +5866,7 @@
         <v>23594</v>
       </c>
       <c r="G121" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="H121" t="s">
@@ -5901,7 +5905,7 @@
         <v>23006</v>
       </c>
       <c r="G122" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="H122" t="s">
@@ -5940,7 +5944,7 @@
         <v>30347</v>
       </c>
       <c r="G123" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
       <c r="H123" t="s">
@@ -5977,7 +5981,7 @@
         <v>20371</v>
       </c>
       <c r="G124" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="H124" t="s">
@@ -6014,7 +6018,7 @@
         <v>32261</v>
       </c>
       <c r="G125" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="H125" t="s">
@@ -6051,7 +6055,7 @@
         <v>31868</v>
       </c>
       <c r="G126" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="H126" t="s">
@@ -6088,7 +6092,7 @@
         <v>25691</v>
       </c>
       <c r="G127" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
+        <f t="shared" ref="G127:G190" ca="1" si="3">(YEAR(TODAY())-YEAR(F127))</f>
         <v>50</v>
       </c>
       <c r="H127" t="s">
@@ -6125,7 +6129,7 @@
         <v>22559</v>
       </c>
       <c r="G128" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="H128" t="s">
@@ -6162,7 +6166,7 @@
         <v>16607</v>
       </c>
       <c r="G129" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="H129" t="s">
@@ -6199,7 +6203,7 @@
         <v>18196</v>
       </c>
       <c r="G130" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="H130" t="s">
@@ -6236,7 +6240,7 @@
         <v>25940</v>
       </c>
       <c r="G131" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="H131" t="s">
@@ -6273,7 +6277,7 @@
         <v>16008</v>
       </c>
       <c r="G132" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
       <c r="H132" t="s">
@@ -6312,7 +6316,7 @@
         <v>19657</v>
       </c>
       <c r="G133" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="H133" t="s">
@@ -6349,7 +6353,7 @@
         <v>31247</v>
       </c>
       <c r="G134" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="H134" t="s">
@@ -6388,7 +6392,7 @@
         <v>20255</v>
       </c>
       <c r="G135" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="H135" t="s">
@@ -6427,7 +6431,7 @@
         <v>17116</v>
       </c>
       <c r="G136" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="H136" t="s">
@@ -6466,7 +6470,7 @@
         <v>15302</v>
       </c>
       <c r="G137" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="H137" t="s">
@@ -6505,7 +6509,7 @@
         <v>27851</v>
       </c>
       <c r="G138" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="H138" t="s">
@@ -6544,7 +6548,7 @@
         <v>28018</v>
       </c>
       <c r="G139" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="H139" t="s">
@@ -6581,7 +6585,7 @@
         <v>32101</v>
       </c>
       <c r="G140" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H140" t="s">
@@ -6620,7 +6624,7 @@
         <v>27678</v>
       </c>
       <c r="G141" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="H141" t="s">
@@ -6659,7 +6663,7 @@
         <v>21157</v>
       </c>
       <c r="G142" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="H142" t="s">
@@ -6698,7 +6702,7 @@
         <v>19343</v>
       </c>
       <c r="G143" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>68</v>
       </c>
       <c r="H143" t="s">
@@ -6737,7 +6741,7 @@
         <v>18196</v>
       </c>
       <c r="G144" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="H144" t="s">
@@ -6776,7 +6780,7 @@
         <v>23371</v>
       </c>
       <c r="G145" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="H145" t="s">
@@ -6815,7 +6819,7 @@
         <v>26864</v>
       </c>
       <c r="G146" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="H146" t="s">
@@ -6852,7 +6856,7 @@
         <v>26445</v>
       </c>
       <c r="G147" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="H147" t="s">
@@ -6891,7 +6895,7 @@
         <v>16725</v>
       </c>
       <c r="G148" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="H148" t="s">
@@ -6930,7 +6934,7 @@
         <v>20655</v>
       </c>
       <c r="G149" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>64</v>
       </c>
       <c r="H149" t="s">
@@ -6967,7 +6971,7 @@
         <v>22250</v>
       </c>
       <c r="G150" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H150" t="s">
@@ -7004,7 +7008,7 @@
         <v>33308</v>
       </c>
       <c r="G151" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
       <c r="H151" t="s">
@@ -7041,7 +7045,7 @@
         <v>28888</v>
       </c>
       <c r="G152" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="H152" t="s">
@@ -7078,7 +7082,7 @@
         <v>31920</v>
       </c>
       <c r="G153" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H153" t="s">
@@ -7115,7 +7119,7 @@
         <v>25397</v>
       </c>
       <c r="G154" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="H154" t="s">
@@ -7152,7 +7156,7 @@
         <v>21338</v>
       </c>
       <c r="G155" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="H155" t="s">
@@ -7191,7 +7195,7 @@
         <v>26802</v>
       </c>
       <c r="G156" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="H156" t="s">
@@ -7230,7 +7234,7 @@
         <v>20281</v>
       </c>
       <c r="G157" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="H157" t="s">
@@ -7267,7 +7271,7 @@
         <v>15245</v>
       </c>
       <c r="G158" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="H158" t="s">
@@ -7306,7 +7310,7 @@
         <v>22890</v>
       </c>
       <c r="G159" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="H159" t="s">
@@ -7345,7 +7349,7 @@
         <v>23367</v>
       </c>
       <c r="G160" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="H160" t="s">
@@ -7382,7 +7386,7 @@
         <v>24717</v>
       </c>
       <c r="G161" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="H161" t="s">
@@ -7421,7 +7425,7 @@
         <v>22655</v>
       </c>
       <c r="G162" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="H162" t="s">
@@ -7460,7 +7464,7 @@
         <v>27508</v>
       </c>
       <c r="G163" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="H163" t="s">
@@ -7499,7 +7503,7 @@
         <v>20885</v>
       </c>
       <c r="G164" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="H164" t="s">
@@ -7538,7 +7542,7 @@
         <v>21958</v>
       </c>
       <c r="G165" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H165" t="s">
@@ -7577,7 +7581,7 @@
         <v>21970</v>
       </c>
       <c r="G166" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H166" t="s">
@@ -7616,7 +7620,7 @@
         <v>16997</v>
       </c>
       <c r="G167" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="H167" t="s">
@@ -7655,7 +7659,7 @@
         <v>14974</v>
       </c>
       <c r="G168" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>80</v>
       </c>
       <c r="H168" t="s">
@@ -7694,7 +7698,7 @@
         <v>25566</v>
       </c>
       <c r="G169" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="H169" t="s">
@@ -7733,7 +7737,7 @@
         <v>16390</v>
       </c>
       <c r="G170" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>76</v>
       </c>
       <c r="H170" t="s">
@@ -7772,7 +7776,7 @@
         <v>25970</v>
       </c>
       <c r="G171" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="H171" t="s">
@@ -7809,7 +7813,7 @@
         <v>27118</v>
       </c>
       <c r="G172" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="H172" t="s">
@@ -7848,7 +7852,7 @@
         <v>22024</v>
       </c>
       <c r="G173" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H173" t="s">
@@ -7887,7 +7891,7 @@
         <v>32142</v>
       </c>
       <c r="G174" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H174" t="s">
@@ -7926,7 +7930,7 @@
         <v>25592</v>
       </c>
       <c r="G175" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="H175" t="s">
@@ -7965,7 +7969,7 @@
         <v>25846</v>
       </c>
       <c r="G176" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="H176" t="s">
@@ -8002,7 +8006,7 @@
         <v>27112</v>
       </c>
       <c r="G177" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="H177" t="s">
@@ -8041,7 +8045,7 @@
         <v>23902</v>
       </c>
       <c r="G178" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="H178" t="s">
@@ -8080,7 +8084,7 @@
         <v>18640</v>
       </c>
       <c r="G179" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="H179" t="s">
@@ -8117,7 +8121,7 @@
         <v>25067</v>
       </c>
       <c r="G180" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="H180" t="s">
@@ -8156,7 +8160,7 @@
         <v>21445</v>
       </c>
       <c r="G181" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="H181" t="s">
@@ -8193,7 +8197,7 @@
         <v>24964</v>
       </c>
       <c r="G182" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="H182" t="s">
@@ -8232,7 +8236,7 @@
         <v>20415</v>
       </c>
       <c r="G183" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="H183" t="s">
@@ -8271,7 +8275,7 @@
         <v>18781</v>
       </c>
       <c r="G184" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="H184" t="s">
@@ -8310,7 +8314,7 @@
         <v>32771</v>
       </c>
       <c r="G185" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
       <c r="H185" t="s">
@@ -8347,7 +8351,7 @@
         <v>18036</v>
       </c>
       <c r="G186" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="H186" t="s">
@@ -8386,7 +8390,7 @@
         <v>24242</v>
       </c>
       <c r="G187" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
       <c r="H187" t="s">
@@ -8425,7 +8429,7 @@
         <v>26203</v>
       </c>
       <c r="G188" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="H188" t="s">
@@ -8462,7 +8466,7 @@
         <v>14047</v>
       </c>
       <c r="G189" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>82</v>
       </c>
       <c r="H189" t="s">
@@ -8501,7 +8505,7 @@
         <v>29287</v>
       </c>
       <c r="G190" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>40</v>
       </c>
       <c r="H190" t="s">
@@ -8538,7 +8542,7 @@
         <v>17079</v>
       </c>
       <c r="G191" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
+        <f t="shared" ref="G191:G254" ca="1" si="4">(YEAR(TODAY())-YEAR(F191))</f>
         <v>74</v>
       </c>
       <c r="H191" t="s">
@@ -8577,7 +8581,7 @@
         <v>27246</v>
       </c>
       <c r="G192" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>46</v>
       </c>
       <c r="H192" t="s">
@@ -8614,7 +8618,7 @@
         <v>27492</v>
       </c>
       <c r="G193" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="H193" t="s">
@@ -8651,7 +8655,7 @@
         <v>26205</v>
       </c>
       <c r="G194" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="H194" t="s">
@@ -8688,7 +8692,7 @@
         <v>25149</v>
       </c>
       <c r="G195" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H195" t="s">
@@ -8727,7 +8731,7 @@
         <v>26299</v>
       </c>
       <c r="G196" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="H196" t="s">
@@ -8766,7 +8770,7 @@
         <v>29572</v>
       </c>
       <c r="G197" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="H197" t="s">
@@ -8803,7 +8807,7 @@
         <v>24666</v>
       </c>
       <c r="G198" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="H198" t="s">
@@ -8840,7 +8844,7 @@
         <v>31817</v>
       </c>
       <c r="G199" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="H199" t="s">
@@ -8877,7 +8881,7 @@
         <v>26833</v>
       </c>
       <c r="G200" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="H200" t="s">
@@ -8914,7 +8918,7 @@
         <v>19566</v>
       </c>
       <c r="G201" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="H201" t="s">
@@ -8949,7 +8953,7 @@
         <v>18407</v>
       </c>
       <c r="G202" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="H202" t="s">
@@ -8984,7 +8988,7 @@
         <v>19434</v>
       </c>
       <c r="G203" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="H203" t="s">
@@ -9021,7 +9025,7 @@
         <v>29549</v>
       </c>
       <c r="G204" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="H204" t="s">
@@ -9060,7 +9064,7 @@
         <v>26133</v>
       </c>
       <c r="G205" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="H205" t="s">
@@ -9099,7 +9103,7 @@
         <v>21548</v>
       </c>
       <c r="G206" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H206" t="s">
@@ -9138,7 +9142,7 @@
         <v>27763</v>
       </c>
       <c r="G207" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="H207" t="s">
@@ -9175,7 +9179,7 @@
         <v>22263</v>
       </c>
       <c r="G208" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="H208" t="s">
@@ -9214,7 +9218,7 @@
         <v>31990</v>
       </c>
       <c r="G209" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="H209" t="s">
@@ -9253,7 +9257,7 @@
         <v>30315</v>
       </c>
       <c r="G210" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="H210" t="s">
@@ -9288,7 +9292,7 @@
         <v>20907</v>
       </c>
       <c r="G211" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="H211" t="s">
@@ -9321,7 +9325,7 @@
         <v>21674</v>
       </c>
       <c r="G212" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="H212" t="s">
@@ -9356,7 +9360,7 @@
         <v>24834</v>
       </c>
       <c r="G213" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>53</v>
       </c>
       <c r="H213" t="s">
@@ -9395,7 +9399,7 @@
         <v>27004</v>
       </c>
       <c r="G214" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="H214" t="s">
@@ -9434,7 +9438,7 @@
         <v>20377</v>
       </c>
       <c r="G215" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="H215" t="s">
@@ -9469,7 +9473,7 @@
         <v>23941</v>
       </c>
       <c r="G216" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="H216" t="s">
@@ -9502,7 +9506,7 @@
         <v>26624</v>
       </c>
       <c r="G217" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="H217" t="s">
@@ -9537,7 +9541,7 @@
         <v>31120</v>
       </c>
       <c r="G218" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="H218" t="s">
@@ -9574,7 +9578,7 @@
         <v>29623</v>
       </c>
       <c r="G219" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="H219" t="s">
@@ -9611,7 +9615,7 @@
         <v>27719</v>
       </c>
       <c r="G220" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="H220" t="s">
@@ -9648,7 +9652,7 @@
         <v>25084</v>
       </c>
       <c r="G221" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H221" t="s">
@@ -9685,7 +9689,7 @@
         <v>30097</v>
       </c>
       <c r="G222" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="H222" t="s">
@@ -9724,7 +9728,7 @@
         <v>23358</v>
       </c>
       <c r="G223" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="H223" t="s">
@@ -9761,7 +9765,7 @@
         <v>32980</v>
       </c>
       <c r="G224" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="H224" s="12" t="s">
@@ -9798,7 +9802,7 @@
         <v>31116</v>
       </c>
       <c r="G225" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="H225" s="12" t="s">
@@ -9835,7 +9839,7 @@
         <v>30164</v>
       </c>
       <c r="G226" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="H226" t="s">
@@ -9872,7 +9876,7 @@
         <v>31562</v>
       </c>
       <c r="G227" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
       <c r="H227" t="s">
@@ -9909,7 +9913,7 @@
         <v>33225</v>
       </c>
       <c r="G228" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="H228" t="s">
@@ -9946,7 +9950,7 @@
         <v>30491</v>
       </c>
       <c r="G229" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37</v>
       </c>
       <c r="H229" t="s">
@@ -9983,7 +9987,7 @@
         <v>32481</v>
       </c>
       <c r="G230" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="H230" t="s">
@@ -10020,7 +10024,7 @@
         <v>32885</v>
       </c>
       <c r="G231" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="H231" t="s">
@@ -10057,7 +10061,7 @@
         <v>31146</v>
       </c>
       <c r="G232" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="H232" t="s">
@@ -10094,7 +10098,7 @@
         <v>31814</v>
       </c>
       <c r="G233" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="H233" t="s">
@@ -10131,7 +10135,7 @@
         <v>32196</v>
       </c>
       <c r="G234" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="H234" t="s">
@@ -10168,7 +10172,7 @@
         <v>20417</v>
       </c>
       <c r="G235" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="H235" t="s">
@@ -10207,7 +10211,7 @@
         <v>19630</v>
       </c>
       <c r="G236" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="H236" t="s">
@@ -10242,7 +10246,7 @@
         <v>21249</v>
       </c>
       <c r="G237" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H237" t="s">
@@ -10277,7 +10281,7 @@
         <v>21269</v>
       </c>
       <c r="G238" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H238" t="s">
@@ -10314,7 +10318,7 @@
         <v>29503</v>
       </c>
       <c r="G239" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="H239" t="s">
@@ -10353,7 +10357,7 @@
         <v>26846</v>
       </c>
       <c r="G240" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="H240" t="s">
@@ -10390,7 +10394,7 @@
         <v>24000</v>
       </c>
       <c r="G241" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="H241" t="s">
@@ -10425,7 +10429,7 @@
         <v>19943</v>
       </c>
       <c r="G242" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
       <c r="H242" t="s">
@@ -10460,7 +10464,7 @@
         <v>28122</v>
       </c>
       <c r="G243" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="H243" t="s">
@@ -10497,7 +10501,7 @@
         <v>29350</v>
       </c>
       <c r="G244" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="H244" t="s">
@@ -10536,7 +10540,7 @@
         <v>29000</v>
       </c>
       <c r="G245" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="H245" t="s">
@@ -10575,7 +10579,7 @@
         <v>28805</v>
       </c>
       <c r="G246" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>42</v>
       </c>
       <c r="H246" t="s">
@@ -10610,7 +10614,7 @@
         <v>20625</v>
       </c>
       <c r="G247" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="H247" t="s">
@@ -10643,7 +10647,7 @@
         <v>21011</v>
       </c>
       <c r="G248" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="H248" t="s">
@@ -10676,7 +10680,7 @@
         <v>29713</v>
       </c>
       <c r="G249" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="H249" t="s">
@@ -10709,7 +10713,7 @@
         <v>21432</v>
       </c>
       <c r="G250" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H250" t="s">
@@ -10744,7 +10748,7 @@
         <v>28961</v>
       </c>
       <c r="G251" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="H251" t="s">
@@ -10779,7 +10783,7 @@
         <v>25069</v>
       </c>
       <c r="G252" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H252" t="s">
@@ -10814,7 +10818,7 @@
         <v>24451</v>
       </c>
       <c r="G253" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>54</v>
       </c>
       <c r="H253" t="s">
@@ -10849,7 +10853,7 @@
         <v>27834</v>
       </c>
       <c r="G254" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="H254" t="s">
@@ -10882,7 +10886,7 @@
         <v>18677</v>
       </c>
       <c r="G255" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
+        <f t="shared" ref="G255:G318" ca="1" si="5">(YEAR(TODAY())-YEAR(F255))</f>
         <v>69</v>
       </c>
       <c r="H255" t="s">
@@ -10917,7 +10921,7 @@
         <v>18960</v>
       </c>
       <c r="G256" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="H256" t="s">
@@ -10952,7 +10956,7 @@
         <v>20084</v>
       </c>
       <c r="G257" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>66</v>
       </c>
       <c r="H257" t="s">
@@ -10987,7 +10991,7 @@
         <v>29014</v>
       </c>
       <c r="G258" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>41</v>
       </c>
       <c r="H258" t="s">
@@ -11022,7 +11026,7 @@
         <v>27808</v>
       </c>
       <c r="G259" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="H259" t="s">
@@ -11057,7 +11061,7 @@
         <v>29294</v>
       </c>
       <c r="G260" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>40</v>
       </c>
       <c r="H260" t="s">
@@ -11094,7 +11098,7 @@
         <v>22529</v>
       </c>
       <c r="G261" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>59</v>
       </c>
       <c r="H261" t="s">
@@ -11131,7 +11135,7 @@
         <v>21079</v>
       </c>
       <c r="G262" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>63</v>
       </c>
       <c r="H262" t="s">
@@ -11168,7 +11172,7 @@
         <v>28020</v>
       </c>
       <c r="G263" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="H263" t="s">
@@ -11203,7 +11207,7 @@
         <v>21554</v>
       </c>
       <c r="G264" s="11">
-        <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>61</v>
       </c>
       <c r="H264" s="12" t="s">
@@ -11440,8 +11444,9 @@
     <hyperlink ref="L241" r:id="rId212" xr:uid="{1F91F956-28CA-4B58-8834-0C069F43F1F8}"/>
     <hyperlink ref="L124" r:id="rId213" xr:uid="{96BF946A-082E-45BA-9FE1-4E44D74DBBF4}"/>
     <hyperlink ref="L73" r:id="rId214" xr:uid="{F9C6F057-49C4-4B45-9CD2-B81AAD0FEFCB}"/>
+    <hyperlink ref="L5" r:id="rId215" xr:uid="{7FA57885-D76F-49D0-8097-134DFA85B00A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId215"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId216"/>
 </worksheet>
 </file>